--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6FBACB-2E28-48D6-ACC5-0DD1598D7593}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="440"/>
   </bookViews>
   <sheets>
     <sheet name="SQL構文一覧" sheetId="1" r:id="rId1"/>
@@ -18,14 +17,14 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SQL構文一覧!$A$11:$G$159</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SQL構文一覧!$A$11:$G$204</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="351">
   <si>
     <t>分類</t>
   </si>
@@ -646,7 +645,7 @@
     FOREIGN KEY (部署ID) REFERENCES 部署(部署ID), 
     CHECK (給与 &gt; 0)
 );</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>FOREIGN KEY (属性名) REFERENCES 参照テーブル名(参照属性名)
@@ -660,7 +659,7 @@
     <rPh sb="56" eb="58">
       <t>チュウイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>トランザクション内に中間ポイントを設定し、そこまでを部分的にロールバックできるようにする。</t>
@@ -834,7 +833,7 @@
   </si>
   <si>
     <t>WITH 別名 AS (  SELECT ...)  SELECT ... FROM 別名;</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>表への権限</t>
@@ -844,7 +843,7 @@
     <rPh sb="3" eb="5">
       <t>ケンゲン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>表の作成</t>
@@ -854,7 +853,7 @@
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>表の変更</t>
@@ -864,7 +863,7 @@
     <rPh sb="2" eb="4">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>表の削除</t>
@@ -874,18 +873,18 @@
     <rPh sb="2" eb="4">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>表の属性を操作</t>
     <rPh sb="2" eb="4">
       <t>ゾクセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>グループ化</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -913,7 +912,7 @@
       </rPr>
       <t xml:space="preserve"> 部署ID FROM 部署 WHERE 地区 = '東北')</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -941,7 +940,7 @@
       </rPr>
       <t>T * FROM 注文 WHERE 注文.社員ID = 社員.社員ID)</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -969,7 +968,7 @@
       </rPr>
       <t>T AVG(給与) FROM 社員 B WHERE B.部署ID = A.部署ID)</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -997,22 +996,22 @@
       </rPr>
       <t xml:space="preserve"> AVG(給与) FROM 社員)</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>TABLE</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>INDEX</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>INDEX作成</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>集約関数：ノーマルな集約関数</t>
@@ -1025,11 +1024,11 @@
     <rPh sb="10" eb="14">
       <t>シュウヤクカンスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>SELECT MIN(給与) FROM 社員</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>OVER()
@@ -1039,7 +1038,7 @@
 累計計算: 月ごとの売上の累計などを計算する。
 移動平均: 過去N日間の売上の平均などを計算する。
 行間の比較: 現在の行と前後の行の値を比較する（例：前日の売上との比較）。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>SELECT
@@ -1051,12 +1050,12 @@
   [PARTITION BY 列名1, ...] -- ウィンドウを分割する基準 (省略すると全体で1つのウィンドウ)
   [ORDER BY 列名2, ...]   -- ウィンドウ内での並び順
   [ROWS/RANGE フレーム指定] -- ウィンドウの範囲をさらに細かく指定 (省略可能)</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>WITH句
 【VIEWとWITH句（CTE）は、どちらも「SELECT文に名前を付けて、複雑なクエリの可読性を高める」という共通の目的】</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>VIEW作成
@@ -1103,7 +1102,7 @@
     <rPh sb="129" eb="130">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1166,7 +1165,7 @@
     <rPh sb="260" eb="261">
       <t>ヨ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>CTE (共通テーブル式・WITH句)
@@ -1190,11 +1189,11 @@
     <rPh sb="119" eb="121">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>応用情報試験での出題意図（目的）別の分類</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">VIEW
@@ -1232,15 +1231,15 @@
     <rPh sb="70" eb="72">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>メール VARCHAR(100) UNIQUE</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>UNIQUE制約</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>1. 順位付け関数</t>
@@ -1296,14 +1295,14 @@
   RANK()       OVER(ORDER BY salary DESC) AS rank_num,
   DENSE_RANK() OVER(ORDER BY salary DESC) AS dense_rank_num
 FROM employees;</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>SUM()</t>
@@ -1319,9 +1318,6 @@
   </si>
   <si>
     <t>COUNT()</t>
-  </si>
-  <si>
-    <t>条件に合う行の累計カウント、パーティション内の行数</t>
   </si>
   <si>
     <t>MAX() / MIN()</t>
@@ -1335,7 +1331,7 @@
   monthly_sales,
   SUM(monthly_sales) OVER(ORDER BY sales_month) AS cumulative_sales
 FROM sales;</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>LAG(列, n, デフォルト値)</t>
@@ -1384,19 +1380,19 @@
   </si>
   <si>
     <t>現在の行を基準として、同じパーティション内の「前」「後」「最初」「最後」といった特定の位置にある行の値を取得します。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>GROUP BYで使う集計関数を、ウィンドウ関数として利用するものです。行を集約せず、各行に対して計算結果を返します。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>指定した順序に基づいて、各行に順位を割り振ります。ORDER BY句が必須です。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>パーティション内での相対的な位置を、0から1の間の小数で示します。統計的な分析に使われます。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>CUME_DIST()</t>
@@ -1420,18 +1416,18 @@
     <t>SELECT   emp_name,   salary,
   LAG(salary, 1, 0) OVER(ORDER BY salary) AS previous_salary
 FROM employees;</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>SELECT  emp_name,   salary,
   PERCENT_RANK() OVER(ORDER BY salary) AS salary_percent_rank,
   CUME_DIST()    OVER(ORDER BY salary) AS salary_cume_dist
 FROM employees;</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>※フレーム指定（計算範囲の指定）</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">関数() OVER (
@@ -1440,7 +1436,7 @@
   [フレーム指定句]  -- ここ！
 )
 </t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>UNBOUNDED PRECEDING: フレームの先頭（パーティションの先頭）</t>
@@ -1459,37 +1455,37 @@
   </si>
   <si>
     <t>例1：売上の「累計」を計算する</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>例2：「3ヶ月移動平均」を計算する</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>例3：パーティション全体の合計値を各行に表示する</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>※ROWS と RANGE の違い</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>RANGE: 「値」で範囲を指定します。ORDER BYで指定した列の値が同じ行は、まとめて1つの単位として扱われます。例えば給与でソートした場合、「自分と同じ給与の行」が範囲に含まれます。</t>
   </si>
   <si>
     <t>ROWS: 「物理的な行数」で範囲を指定します。2 PRECEDING は純粋に「2行前」を意味します。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>通常は ROWS の方が直感的に分かりやすく、よく使われます。RANGE は日付や給与など、同じ値が出現しうる場合に特定の計算をしたい時に使用します。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>フレーム指定は、ウィンドウ関数が計算を行う行の範囲を細かくコントロールする機能です。
 「現在の行を基準に、どこからどこまで（BETWEEN ... AND ...）」を指定します。
 累計や移動平均といった、順序に沿った動的な分析を行うために不可欠な機能です。
 これこそが、単なる GROUP BY では不可能な、ウィンドウ関数の真骨頂と言える機能の一つです。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1521,7 +1517,7 @@
   ) AS cumulative_sales
 FROM monthly_sales;</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1553,7 +1549,7 @@
   ) AS moving_avg_3m
 FROM monthly_sales;</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1585,7 +1581,7 @@
   ) AS total_sales
 FROM monthly_sales;</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1604,7 +1600,7 @@
       </rPr>
       <t>{ROWS | RANGE} BETWEEN [開始位置] AND [終了位置]</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ウィンドウ関数：拡張された集約関数
@@ -1633,7 +1629,7 @@
     <rPh sb="144" eb="146">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>【１一般的な使用方法】
@@ -1646,39 +1642,39 @@
     <rPh sb="6" eb="10">
       <t>シヨウホウホウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>VIEWの作成</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>VIEWの変更</t>
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>VIEWの削除</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ALTER VIEWE (変更)</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>DROP VIEW　（削除）</t>
     <rPh sb="11" eb="13">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1839,41 +1835,809 @@
     <rPh sb="198" eb="199">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>SELECT文に、集約関数があったら、これ以外の属性はすべてGROUP BYで指定する必要がある</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>条件に合う行の累計カウント、パーティション内の行数、（＊）は全行数を数える。</t>
+    <rPh sb="30" eb="33">
+      <t>ゼンギョウスウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カゾ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>SELECT文に、集約関数があったら、非集約属性はすべてGROUP BYで指定する必要がある</t>
     <rPh sb="6" eb="7">
       <t>ブン</t>
     </rPh>
     <rPh sb="9" eb="13">
       <t>シュウヤクカンスウ</t>
     </rPh>
-    <rPh sb="21" eb="23">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="19" eb="22">
+      <t>ヒシュウヤク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>ゾクセイ</t>
     </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="37" eb="39">
       <t>シテイ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="41" eb="43">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>■各句の役割と違い
+【WHERE句】</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>【GROUP BY句】</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>【HAVING句】</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>■WHERE, GROUP BY, HAVING の正しい記述順序</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLにおいて、WHERE句、GROUP BY句、HAVING句は、テーブルから特定の条件でデータを抽出、集計する際に重要な役割を果たします。これらの句は記述する順序が決まっており、それぞれの役割とデータベース内部での処理順序を理解することが、正しいクエリを作成する上で不可欠です。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>■SQLにおけるWHERE、GROUP BY、HAVINGの位置関係と役割
+■概要</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLクエリでは、以下の順序で句を記述するのが基本です。
+1. SELECT: 取得する列を指定します。
+2. FROM: 対象となるテーブルを指定します。
+3. WHERE: データをグループ化する前に、個々の行に対して適用する絞り込み条件を指定します。
+4. GROUP BY: 指定した列の値が同じ行をグループ化します。
+5. HAVING: GROUP BY句でグループ化された後に、そのグループに対して適用する絞り込み条件を指定します。
+6. ORDER BY: 最終的な結果セットを並べ替えます。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>役割: GROUP BYで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グループ化される前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の、テーブルの個々の行に対して条件を指定し、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フィルタリング（絞り込み）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">を行います。
+処理タイミング: FROM句でテーブルが読み込まれた直後に適用されます。
+特徴: 集計関数（SUM(), COUNT(), AVG()など）を条件式に使うことはできません。これは、WHERE句の処理段階ではまだ集計が行われていないためです。
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">役割: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE句で絞り込まれた行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を、指定した列の値に基づいて</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グループ化します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+処理タイミング: WHERE句による</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フィルタリングの後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">に実行されます。
+特徴: SUM()やCOUNT()などの集計関数と組み合わせて使うことで、グループごとの合計値や行数などを計算できます。
+</t>
+    </r>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>役割: GROUP BY句によって作成された</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グループに対して条件を指定し、フィルタリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を行います。
+処理タイミング: GROUP BY句でデータがグループ化され、集計関数が計算された後に適用されます。
+特徴:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WHERE句とは異なり、集計関数を条件式に用いることができます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">例えば、「平均給与が特定の額以上の部署」といった、グループ化後のデータに対する条件を指定できます。
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>集約関数：×</t>
+    <rPh sb="0" eb="4">
+      <t>シュウヤクカンスウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>集約関数：○</t>
+    <rPh sb="0" eb="4">
+      <t>シュウヤクカンスウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>■処理順序のイメージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>データベースは、以下のステップで処理を進めていきます。
+1. FROM: 表示する属性のテーブルを選択。
+2. WHERE: 次に、そのテーブルの各行をチェックし、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>絞り込み（１回目）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. GROUP BY: WHERE句で絞り込まれた行を、指定された列の値で</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グループ化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>します。
+4. HAVING: 最後に、作られた</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グループ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に対して条件を適用し、さらに、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>絞り込み（２回目）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. SELECT: 最終的に残ったグループのデータを取得し、結果として返します。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>搾りかすを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>【１】</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF4F81BD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DISTINCT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF4F81BD"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の基本的な定義（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF4F81BD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF4F81BD"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>準拠）</t>
+    </r>
+  </si>
+  <si>
+    <t>- SELECT DISTINCT 項目名 FROM 表名;</t>
+  </si>
+  <si>
+    <t>　→ 指定した項目において 重複行を除いた結果を返す</t>
+  </si>
+  <si>
+    <t>- 複数項目を指定した場合、項目の組み合わせが重複する行が除かれる。</t>
+  </si>
+  <si>
+    <t>【２】主な使用パターン（分類）</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２－１：特定項目の重複を除いて取得（単一項目）</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 都道府県</t>
+  </si>
+  <si>
+    <t>FROM 顧客;</t>
+  </si>
+  <si>
+    <t>- 意味：顧客が属する都道府県の一覧を取得（重複除外）</t>
+  </si>
+  <si>
+    <t>- 使用目的：一覧表示、選択肢作成など</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２－２：複数項目の組合せでの重複排除</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 都道府県, 市区町村</t>
+  </si>
+  <si>
+    <t>- 意味：都道府県＋市区町村の組合せで重複を除く</t>
+  </si>
+  <si>
+    <t>- 注意：片方だけ違っても「別の組合せ」として扱われる</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２－３：集計関数と組み合わせ（COUNT）</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT 顧客ID) AS 顧客数</t>
+  </si>
+  <si>
+    <t>FROM 注文;</t>
+  </si>
+  <si>
+    <t>- 意味：重複する顧客IDを１つとカウントし、ユニークな顧客数を算出</t>
+  </si>
+  <si>
+    <t>- 使用目的：延べ数（重複含む）ではなく、実人数などを集計</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２－４：サブクエリと組み合わせ</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT *</t>
+  </si>
+  <si>
+    <t>FROM (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT DISTINCT 顧客ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM 注文</t>
+  </si>
+  <si>
+    <t>) AS 一意顧客</t>
+  </si>
+  <si>
+    <t>WHERE 顧客ID LIKE 'A%';</t>
+  </si>
+  <si>
+    <t>- 用途：DISTINCT結果に対してさらに絞り込みたい場合など</t>
+  </si>
+  <si>
+    <t>- サブクエリで 一意な顧客IDのリスト を作成 → フィルタ処理</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２－５：DISTINCT の代替案との比較（GROUP BY）</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT 都道府県</t>
+  </si>
+  <si>
+    <t>FROM 顧客</t>
+  </si>
+  <si>
+    <t>GROUP BY 都道府県;</t>
+  </si>
+  <si>
+    <t>- SELECT DISTINCT 都道府県 と同じ結果</t>
+  </si>
+  <si>
+    <t>- 実行計画はDBMSによって異なるが、意味論的には等価</t>
+  </si>
+  <si>
+    <t>- GROUP BY を使うときは通常、集計関数と一緒に使う</t>
+  </si>
+  <si>
+    <t>【３】応用情報技術者試験で問われる観点</t>
+  </si>
+  <si>
+    <t>観点</t>
+  </si>
+  <si>
+    <t>意図</t>
+  </si>
+  <si>
+    <t>重複排除か、単純な一覧取得か</t>
+  </si>
+  <si>
+    <t>単一 or 複数項目</t>
+  </si>
+  <si>
+    <t>複数項目の組み合わせに注意</t>
+  </si>
+  <si>
+    <t>集計との組合せ</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT ～)の形式に注意</t>
+  </si>
+  <si>
+    <t>他の句との関係</t>
+  </si>
+  <si>
+    <t>ORDER BY, GROUP BYとの違いを明確に</t>
+  </si>
+  <si>
+    <t>【４】誤答・混乱しやすいポイント</t>
+  </si>
+  <si>
+    <t>誤解</t>
+  </si>
+  <si>
+    <t>正しい理解</t>
+  </si>
+  <si>
+    <t>DISTINCT は項目ごとに効く</t>
+  </si>
+  <si>
+    <t>行単位での重複を除く</t>
+  </si>
+  <si>
+    <t>COUNT(*) と COUNT(DISTINCT 項目) は同じ</t>
+  </si>
+  <si>
+    <t>前者は全件、後者は一意件数</t>
+  </si>
+  <si>
+    <t>DISTINCT はすべての行に影響</t>
+  </si>
+  <si>
+    <t>SELECT句で指定された項目だけに適用される</t>
+  </si>
+  <si>
+    <t>【まとめ】</t>
+  </si>
+  <si>
+    <t>DISTINCTはシンプルな構文ながら、複数項目の扱いや集計との連携などで誤用が多い構文です。出題頻度は高くないものの、SQLの理解度を測るポイントとして問われやすいため、以下の２点に注意してください。</t>
+  </si>
+  <si>
+    <t>- DISTINCTは行全体の重複を除く（列ではない）</t>
+  </si>
+  <si>
+    <t>- GROUP BYとの違い・類似性を使い分ける</t>
+  </si>
+  <si>
+    <t>DISTINCT：重複する行を除いて、異なる値だけを抽出するためのキーワード</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DISTINCTの用法</t>
+    <rPh sb="9" eb="11">
+      <t>ヨウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1955,6 +2719,41 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF4F81BD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF4F81BD"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2070,25 +2869,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2097,7 +2896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2106,10 +2905,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2130,40 +2929,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2175,31 +3001,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{5057D454-D97A-4FC4-88BE-12EE1802F2D5}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2498,21 +3318,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H159"/>
+  <dimension ref="A2:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A59" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A155" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30" style="6" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="6" customWidth="1"/>
     <col min="4" max="4" width="80" style="6" customWidth="1"/>
     <col min="5" max="5" width="52.75" style="6" customWidth="1"/>
     <col min="6" max="6" width="60.625" style="6" customWidth="1"/>
@@ -2621,7 +3441,7 @@
       <c r="E15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="34" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2633,7 +3453,7 @@
       <c r="E16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="35" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2645,7 +3465,7 @@
       <c r="E17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="34" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2657,7 +3477,7 @@
       <c r="E18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="34" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2667,7 +3487,7 @@
       <c r="E19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="34" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2683,7 +3503,7 @@
       <c r="C21" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="37" t="s">
         <v>151</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -2697,7 +3517,7 @@
       <c r="C22" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="37" t="s">
         <v>148</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -2708,8 +3528,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="D24" s="13"/>
@@ -2719,13 +3539,13 @@
       <c r="A25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>189</v>
       </c>
       <c r="E25" s="22" t="s">
@@ -2739,31 +3559,31 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" ht="154.5" customHeight="1">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="22"/>
       <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" ht="21" customHeight="1">
       <c r="B27" s="9"/>
-      <c r="C27" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>273</v>
+      <c r="C27" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>272</v>
       </c>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1" ht="40.5" customHeight="1">
       <c r="B28" s="22"/>
-      <c r="C28" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>274</v>
+      <c r="C28" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>273</v>
       </c>
       <c r="E28" s="22"/>
     </row>
@@ -2839,12 +3659,12 @@
         <v>187</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="192" customHeight="1">
       <c r="D40" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -2907,7 +3727,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21" customHeight="1">
+    <row r="49" spans="1:5" ht="21" customHeight="1">
       <c r="B49" s="18"/>
       <c r="C49" s="9" t="s">
         <v>16</v>
@@ -2916,878 +3736,1218 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="1:6" ht="21" customHeight="1">
-      <c r="A51" s="6" t="s">
+    <row r="50" spans="1:5" s="29" customFormat="1" ht="54">
+      <c r="B50" s="10"/>
+      <c r="C50" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" s="44"/>
+    </row>
+    <row r="51" spans="1:5" s="29" customFormat="1" ht="121.5">
+      <c r="B51" s="10"/>
+      <c r="C51" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="1:5" s="29" customFormat="1" ht="81">
+      <c r="B52" s="10"/>
+      <c r="C52" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="29" customFormat="1" ht="67.5">
+      <c r="B53" s="10"/>
+      <c r="C53" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="29" customFormat="1" ht="94.5">
+      <c r="B54" s="10"/>
+      <c r="C54" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="29" customFormat="1" ht="94.5">
+      <c r="B55" s="10"/>
+      <c r="C55" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="29" customFormat="1" ht="21" customHeight="1">
+      <c r="B56" s="10"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" s="29" customFormat="1" ht="21" customHeight="1">
+      <c r="B57" s="10"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" s="29" customFormat="1" ht="21" customHeight="1">
+      <c r="B58" s="10"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" ht="21" customHeight="1">
+      <c r="A60" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="21" customHeight="1">
-      <c r="B52" s="17"/>
-      <c r="C52" s="9" t="s">
+    <row r="61" spans="1:5" ht="21" customHeight="1">
+      <c r="B61" s="17"/>
+      <c r="C61" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="21" customHeight="1">
-      <c r="B53" s="17"/>
-      <c r="C53" s="9" t="s">
+    <row r="62" spans="1:5" ht="21" customHeight="1">
+      <c r="B62" s="17"/>
+      <c r="C62" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21" customHeight="1">
-      <c r="B54" s="17"/>
-      <c r="C54" s="9" t="s">
+    <row r="63" spans="1:5" ht="21" customHeight="1">
+      <c r="B63" s="17"/>
+      <c r="C63" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="21" customHeight="1">
-      <c r="B55" s="18"/>
-      <c r="C55" s="9" t="s">
+    <row r="64" spans="1:5" ht="21" customHeight="1">
+      <c r="B64" s="18"/>
+      <c r="C64" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="21" customHeight="1">
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" ht="150.75" customHeight="1">
-      <c r="A57" s="9" t="s">
+    <row r="65" spans="1:6" ht="21" customHeight="1">
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="150.75" customHeight="1">
+      <c r="A66" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B66" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="21" customHeight="1">
-      <c r="B58" s="6" t="s">
+    <row r="67" spans="1:6" ht="21" customHeight="1">
+      <c r="B67" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="F58" s="29" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="F67" s="38" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="21" customHeight="1">
-      <c r="B59" s="10" t="s">
+    <row r="68" spans="1:6" ht="21" customHeight="1">
+      <c r="B68" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="F59" s="29"/>
-    </row>
-    <row r="60" spans="1:6" ht="21" customHeight="1">
-      <c r="C60" s="27" t="s">
+      <c r="C68" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="F68" s="38"/>
+    </row>
+    <row r="69" spans="1:6" ht="21" customHeight="1">
+      <c r="C69" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="1:6" ht="21" customHeight="1">
-      <c r="C61" s="26" t="s">
+      <c r="F69" s="39"/>
+    </row>
+    <row r="70" spans="1:6" ht="21" customHeight="1">
+      <c r="C70" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D70" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F61" s="30"/>
-    </row>
-    <row r="62" spans="1:6" ht="21" customHeight="1">
-      <c r="B62" s="10"/>
-      <c r="C62" s="10" t="s">
+      <c r="F70" s="39"/>
+    </row>
+    <row r="71" spans="1:6" ht="21" customHeight="1">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F62" s="30"/>
-    </row>
-    <row r="63" spans="1:6" ht="21" customHeight="1">
-      <c r="B63" s="10"/>
-      <c r="C63" s="10" t="s">
+      <c r="F71" s="39"/>
+    </row>
+    <row r="72" spans="1:6" ht="21" customHeight="1">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F63" s="30"/>
-    </row>
-    <row r="64" spans="1:6" ht="21" customHeight="1">
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-    </row>
-    <row r="65" spans="2:6" ht="21" customHeight="1">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-    </row>
-    <row r="66" spans="2:6" ht="21" customHeight="1">
-      <c r="B66" s="10" t="s">
+      <c r="F72" s="39"/>
+    </row>
+    <row r="73" spans="1:6" ht="21" customHeight="1">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="21" customHeight="1">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" ht="21" customHeight="1">
+      <c r="B75" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="21" customHeight="1">
-      <c r="C67" s="10" t="s">
+      <c r="C75" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="21" customHeight="1">
+      <c r="C76" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="21" customHeight="1">
-      <c r="B68" s="10"/>
-      <c r="C68" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="21" customHeight="1">
-      <c r="B69" s="10"/>
-      <c r="C69" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E69" s="32"/>
-    </row>
-    <row r="70" spans="2:6" ht="21" customHeight="1">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E70" s="32"/>
-    </row>
-    <row r="71" spans="2:6" ht="21" customHeight="1">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-    </row>
-    <row r="72" spans="2:6" ht="21" customHeight="1">
-      <c r="B72" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="21" customHeight="1">
-      <c r="C73" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="21" customHeight="1">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F74" s="32"/>
-    </row>
-    <row r="75" spans="2:6" ht="21" customHeight="1">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F75" s="32"/>
-    </row>
-    <row r="76" spans="2:6" ht="21" customHeight="1">
-      <c r="B76" s="10"/>
-      <c r="C76" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F76" s="32"/>
-    </row>
-    <row r="77" spans="2:6" ht="21" customHeight="1">
+    <row r="77" spans="1:6" ht="21" customHeight="1">
       <c r="B77" s="10"/>
       <c r="C77" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="21" customHeight="1">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E78" s="41"/>
+    </row>
+    <row r="79" spans="1:6" ht="21" customHeight="1">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="41"/>
+    </row>
+    <row r="80" spans="1:6" ht="21" customHeight="1">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+    </row>
+    <row r="81" spans="2:6" ht="21" customHeight="1">
+      <c r="B81" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="21" customHeight="1">
+      <c r="C82" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82" s="40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="21" customHeight="1">
+      <c r="B83" s="10"/>
+      <c r="C83" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" s="41"/>
+    </row>
+    <row r="84" spans="2:6" ht="21" customHeight="1">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F84" s="41"/>
+    </row>
+    <row r="85" spans="2:6" ht="21" customHeight="1">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F85" s="41"/>
+    </row>
+    <row r="86" spans="2:6" ht="21" customHeight="1">
+      <c r="B86" s="10"/>
+      <c r="C86" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F77" s="32"/>
-    </row>
-    <row r="78" spans="2:6" ht="21" customHeight="1">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-    </row>
-    <row r="79" spans="2:6" ht="21" customHeight="1">
-      <c r="B79" s="10" t="s">
+      <c r="F86" s="41"/>
+    </row>
+    <row r="87" spans="2:6" ht="21" customHeight="1">
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+    </row>
+    <row r="88" spans="2:6" ht="21" customHeight="1">
+      <c r="B88" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C88" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="21" customHeight="1">
+      <c r="C89" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" ht="21" customHeight="1">
-      <c r="C80" s="10" t="s">
+      <c r="D89" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="E89" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="F89" s="40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="21" customHeight="1">
+      <c r="C90" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F80" s="31" t="s">
+      <c r="D90" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F90" s="41"/>
+    </row>
+    <row r="91" spans="2:6" ht="21" customHeight="1">
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+    </row>
+    <row r="92" spans="2:6" ht="21" customHeight="1">
+      <c r="B92" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" ht="21" customHeight="1">
-      <c r="C81" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F81" s="32"/>
-    </row>
-    <row r="82" spans="2:6" ht="21" customHeight="1">
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="2:6" ht="21" customHeight="1">
-      <c r="B83" s="6" t="s">
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="2:6" ht="21" customHeight="1">
+      <c r="B93" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="D83" s="10"/>
-    </row>
-    <row r="84" spans="2:6" ht="21" customHeight="1">
-      <c r="B84" s="33" t="s">
+      <c r="C93" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D93" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D84" s="26" t="s">
+    </row>
+    <row r="94" spans="2:6" ht="21" customHeight="1">
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="21" customHeight="1">
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="10" t="s">
+    <row r="95" spans="2:6" ht="21" customHeight="1">
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="26" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="21" customHeight="1">
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="26" t="s">
+    <row r="96" spans="2:6" ht="21" customHeight="1">
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="21" customHeight="1">
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="10" t="s">
+    <row r="97" spans="2:4" ht="21" customHeight="1">
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="21" customHeight="1">
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="10" t="s">
+    <row r="98" spans="2:4" ht="21" customHeight="1">
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="2:4" ht="21" customHeight="1">
+      <c r="B99" s="6" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" ht="21" customHeight="1">
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="10"/>
-    </row>
-    <row r="90" spans="2:6" ht="21" customHeight="1">
-      <c r="B90" s="6" t="s">
+      <c r="C99" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="2:4" ht="21" customHeight="1">
+      <c r="C100" s="39"/>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="2:4" ht="21" customHeight="1">
+      <c r="C101" s="39"/>
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="2:4" ht="21" customHeight="1">
+      <c r="C102" s="39"/>
+      <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="2:4" ht="21" customHeight="1">
+      <c r="C103" s="39"/>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="2:4" ht="21" customHeight="1">
+      <c r="C104" s="39"/>
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="2:4" ht="21" customHeight="1">
+      <c r="B105" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C105" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" spans="2:6" ht="21" customHeight="1">
-      <c r="C91" s="30"/>
-      <c r="D91" s="10"/>
-    </row>
-    <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="C92" s="30"/>
-      <c r="D92" s="10"/>
-    </row>
-    <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="C93" s="30"/>
-      <c r="D93" s="10"/>
-    </row>
-    <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="C94" s="30"/>
-      <c r="D94" s="10"/>
-    </row>
-    <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="C95" s="30"/>
-      <c r="D95" s="10"/>
-    </row>
-    <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="6" t="s">
+      <c r="D105" s="10"/>
+    </row>
+    <row r="106" spans="2:4" ht="21" customHeight="1">
+      <c r="C106" s="39"/>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="2:4" ht="21" customHeight="1">
+      <c r="C107" s="39"/>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="2:4" ht="21" customHeight="1">
+      <c r="C108" s="39"/>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="2:4" ht="33" customHeight="1">
+      <c r="C109" s="39"/>
+      <c r="D109" s="10"/>
+    </row>
+    <row r="110" spans="2:4" ht="21" customHeight="1">
+      <c r="B110" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C110" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="D96" s="10"/>
-    </row>
-    <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="C97" s="30"/>
-      <c r="D97" s="10"/>
-    </row>
-    <row r="98" spans="2:4" ht="21" customHeight="1">
-      <c r="C98" s="30"/>
-      <c r="D98" s="10"/>
-    </row>
-    <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="C99" s="30"/>
-      <c r="D99" s="10"/>
-    </row>
-    <row r="100" spans="2:4" ht="33" customHeight="1">
-      <c r="C100" s="30"/>
-      <c r="D100" s="10"/>
-    </row>
-    <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="B101" s="6" t="s">
+      <c r="D110" s="10"/>
+    </row>
+    <row r="111" spans="2:4" ht="21" customHeight="1">
+      <c r="C111" s="39"/>
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" spans="2:4" ht="21" customHeight="1">
+      <c r="C112" s="39"/>
+      <c r="D112" s="10"/>
+    </row>
+    <row r="113" spans="1:4" ht="21" customHeight="1">
+      <c r="C113" s="39"/>
+      <c r="D113" s="10"/>
+    </row>
+    <row r="114" spans="1:4" ht="21" customHeight="1">
+      <c r="C114" s="39"/>
+      <c r="D114" s="10"/>
+    </row>
+    <row r="115" spans="1:4" ht="21" customHeight="1">
+      <c r="B115" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C101" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="D101" s="10"/>
-    </row>
-    <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="30"/>
-      <c r="D102" s="10"/>
-    </row>
-    <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="30"/>
-      <c r="D103" s="10"/>
-    </row>
-    <row r="104" spans="2:4" ht="21" customHeight="1">
-      <c r="C104" s="30"/>
-      <c r="D104" s="10"/>
-    </row>
-    <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="C105" s="30"/>
-      <c r="D105" s="10"/>
-    </row>
-    <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="B106" s="6" t="s">
+      <c r="C115" s="25"/>
+      <c r="D115" s="10"/>
+    </row>
+    <row r="116" spans="1:4" ht="21" customHeight="1">
+      <c r="B116" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C116" s="25"/>
+      <c r="D116" s="10"/>
+    </row>
+    <row r="117" spans="1:4" ht="21" customHeight="1">
+      <c r="B117" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="10"/>
-    </row>
-    <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="B107" s="28" t="s">
+      <c r="C117" s="25"/>
+      <c r="D117" s="10"/>
+    </row>
+    <row r="118" spans="1:4" ht="21" customHeight="1">
+      <c r="B118" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="10"/>
-    </row>
-    <row r="108" spans="2:4" ht="21" customHeight="1">
-      <c r="B108" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="10"/>
-    </row>
-    <row r="109" spans="2:4" ht="21" customHeight="1">
-      <c r="B109" s="27" t="s">
+      <c r="C118" s="25"/>
+      <c r="D118" s="10"/>
+    </row>
+    <row r="119" spans="1:4" ht="21" customHeight="1">
+      <c r="B119" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="10"/>
-    </row>
-    <row r="110" spans="2:4" ht="21" customHeight="1">
-      <c r="B110" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="10"/>
-    </row>
-    <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="10"/>
-    </row>
-    <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="10"/>
-    </row>
-    <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="10"/>
-    </row>
-    <row r="114" spans="1:4" ht="21" customHeight="1">
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="10"/>
-    </row>
-    <row r="115" spans="1:4" ht="21" customHeight="1">
-      <c r="A115" s="6" t="s">
+      <c r="C119" s="41"/>
+      <c r="D119" s="10"/>
+    </row>
+    <row r="120" spans="1:4" ht="21" customHeight="1">
+      <c r="B120" s="41"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="10"/>
+    </row>
+    <row r="121" spans="1:4" ht="21" customHeight="1">
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="10"/>
+    </row>
+    <row r="122" spans="1:4" ht="21" customHeight="1">
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="10"/>
+    </row>
+    <row r="123" spans="1:4" ht="21" customHeight="1">
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="10"/>
+    </row>
+    <row r="124" spans="1:4" ht="21" customHeight="1">
+      <c r="A124" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="21" customHeight="1">
-      <c r="B116" s="19" t="s">
+    <row r="125" spans="1:4" ht="21" customHeight="1">
+      <c r="B125" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D116" s="19" t="s">
+      <c r="D125" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="21" customHeight="1">
-      <c r="B117" s="19" t="s">
+    <row r="126" spans="1:4" ht="21" customHeight="1">
+      <c r="B126" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D117" s="21" t="s">
+      <c r="D126" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="19"/>
-    </row>
-    <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="3" t="s">
+    <row r="127" spans="1:4" ht="21" customHeight="1">
+      <c r="B127" s="19"/>
+    </row>
+    <row r="128" spans="1:4" ht="21" customHeight="1">
+      <c r="B128" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="3" t="s">
+    <row r="129" spans="1:4" ht="21" customHeight="1">
+      <c r="B129" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D129" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="28.5" customHeight="1">
-      <c r="B121" s="3" t="s">
+    <row r="130" spans="1:4" ht="28.5" customHeight="1">
+      <c r="B130" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D130" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="40.5" customHeight="1">
-      <c r="B122" s="3" t="s">
+    <row r="131" spans="1:4" ht="40.5" customHeight="1">
+      <c r="B131" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D131" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="32.25" customHeight="1">
-      <c r="B123" s="3" t="s">
+    <row r="132" spans="1:4" ht="32.25" customHeight="1">
+      <c r="B132" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D132" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="21" customHeight="1">
-      <c r="B124" s="2" t="s">
+    <row r="133" spans="1:4" ht="21" customHeight="1">
+      <c r="B133" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="21" customHeight="1">
-      <c r="B125" s="3" t="s">
+    <row r="134" spans="1:4" ht="21" customHeight="1">
+      <c r="B134" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="21" customHeight="1">
-      <c r="B126" s="3" t="s">
+    <row r="135" spans="1:4" ht="21" customHeight="1">
+      <c r="B135" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="21" customHeight="1">
-      <c r="B127" s="3" t="s">
+    <row r="136" spans="1:4" ht="21" customHeight="1">
+      <c r="B136" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="21" customHeight="1">
-      <c r="A131" s="6" t="s">
+    <row r="140" spans="1:4" ht="21" customHeight="1">
+      <c r="A140" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B140" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C140" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D140" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="21" customHeight="1">
-      <c r="B132" s="18"/>
-      <c r="C132" s="9" t="s">
+    <row r="141" spans="1:4" ht="21" customHeight="1">
+      <c r="B141" s="18"/>
+      <c r="C141" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D141" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-    </row>
-    <row r="134" spans="1:5" ht="21" customHeight="1">
-      <c r="A134" s="6" t="s">
+    <row r="142" spans="1:4" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+    </row>
+    <row r="143" spans="1:4" ht="21" customHeight="1">
+      <c r="A143" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B143" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C143" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D143" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="21" customHeight="1">
-      <c r="B135" s="17"/>
-      <c r="C135" s="9" t="s">
+    <row r="144" spans="1:4" ht="21" customHeight="1">
+      <c r="B144" s="17"/>
+      <c r="C144" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D144" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="21" customHeight="1">
-      <c r="B136" s="17"/>
-      <c r="C136" s="9" t="s">
+    <row r="145" spans="1:6" ht="21" customHeight="1">
+      <c r="B145" s="17"/>
+      <c r="C145" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D145" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="21" customHeight="1">
-      <c r="B137" s="18"/>
-      <c r="C137" s="9" t="s">
+    <row r="146" spans="1:6" ht="21" customHeight="1">
+      <c r="B146" s="18"/>
+      <c r="C146" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D146" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="21" customHeight="1">
-      <c r="A138" s="6" t="s">
+    <row r="147" spans="1:6" ht="21" customHeight="1">
+      <c r="A147" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="19" customFormat="1" ht="27">
-      <c r="A139" s="19" t="s">
+    <row r="148" spans="1:6" s="19" customFormat="1" ht="27">
+      <c r="A148" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B139" s="22" t="s">
+      <c r="B148" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C148" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="D148" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E148" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="21" customHeight="1">
-      <c r="A140" s="19"/>
-      <c r="B140" s="22" t="s">
+    <row r="149" spans="1:6" ht="21" customHeight="1">
+      <c r="A149" s="19"/>
+      <c r="B149" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="22" t="s">
+      <c r="C149" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="D149" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="21" customHeight="1">
-      <c r="A141" s="19"/>
-      <c r="B141" s="22" t="s">
+    <row r="150" spans="1:6" ht="21" customHeight="1">
+      <c r="A150" s="19"/>
+      <c r="B150" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C141" s="22" t="s">
+      <c r="C150" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D141" s="22" t="s">
+      <c r="D150" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A142" s="19"/>
-      <c r="B142" s="22" t="s">
+    <row r="151" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A151" s="19"/>
+      <c r="B151" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C151" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D142" s="22" t="s">
+      <c r="D151" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="21" customHeight="1">
-      <c r="A143" s="6" t="s">
+    <row r="152" spans="1:6" ht="21" customHeight="1">
+      <c r="A152" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="21" customHeight="1">
-      <c r="A144" s="6" t="s">
+    <row r="153" spans="1:6" ht="21" customHeight="1">
+      <c r="A153" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B153" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C153" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D153" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="21" customHeight="1">
-      <c r="C145" s="9" t="s">
+    <row r="154" spans="1:6" ht="21" customHeight="1">
+      <c r="C154" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D154" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="21" customHeight="1">
-      <c r="C146" s="9" t="s">
+    <row r="155" spans="1:6" ht="21" customHeight="1">
+      <c r="C155" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D155" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="19" customFormat="1" ht="13.5">
-      <c r="E148" s="19" t="s">
+    <row r="157" spans="1:6" s="19" customFormat="1" ht="13.5">
+      <c r="E157" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F148" s="19" t="s">
+      <c r="F157" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="19" customFormat="1" ht="13.5">
-      <c r="E149" s="19" t="s">
+    <row r="158" spans="1:6" s="19" customFormat="1" ht="13.5">
+      <c r="E158" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F149" s="19" t="s">
+      <c r="F158" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="21" customHeight="1">
-      <c r="A155" s="6" t="s">
+    <row r="164" spans="1:5" ht="21" customHeight="1">
+      <c r="A164" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="21" customHeight="1">
-      <c r="A156" s="6" t="s">
+    <row r="165" spans="1:5" ht="21" customHeight="1">
+      <c r="A165" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B165" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C165" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D165" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="21" customHeight="1">
-      <c r="C157" s="9" t="s">
+    <row r="166" spans="1:5" ht="21" customHeight="1">
+      <c r="C166" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D166" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="21" customHeight="1">
-      <c r="A158" s="6" t="s">
+    <row r="167" spans="1:5" ht="21" customHeight="1">
+      <c r="A167" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B167" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C167" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D167" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="21" customHeight="1">
-      <c r="C159" s="9" t="s">
+    <row r="168" spans="1:5" ht="21" customHeight="1">
+      <c r="C168" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D168" s="9" t="s">
         <v>72</v>
       </c>
+    </row>
+    <row r="171" spans="1:5" ht="21" customHeight="1">
+      <c r="A171" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" s="45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="21" customHeight="1">
+      <c r="C172" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="D172" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="E172" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="21" customHeight="1">
+      <c r="E173" s="46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="21" customHeight="1">
+      <c r="C174" s="45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="21" customHeight="1">
+      <c r="C175" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="D175" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="E175" s="46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="21" customHeight="1">
+      <c r="D176" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="E176" s="46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" ht="21" customHeight="1">
+      <c r="C177" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="D177" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="E177" s="46" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" ht="21" customHeight="1">
+      <c r="D178" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="E178" s="46" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" ht="21" customHeight="1">
+      <c r="C179" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="D179" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="E179" s="46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" ht="21" customHeight="1">
+      <c r="D180" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="E180" s="46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" ht="21" customHeight="1">
+      <c r="C181" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="D181" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="E181" s="46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" ht="21" customHeight="1">
+      <c r="D182" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="E182" s="46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" ht="21" customHeight="1">
+      <c r="D183" s="46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" ht="21" customHeight="1">
+      <c r="D184" s="46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" ht="21" customHeight="1">
+      <c r="D185" s="46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" ht="21" customHeight="1">
+      <c r="D186" s="46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" ht="21" customHeight="1">
+      <c r="C187" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D187" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="E187" s="46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" ht="21" customHeight="1">
+      <c r="D188" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="E188" s="46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" ht="21" customHeight="1">
+      <c r="D189" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="E189" s="46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" ht="21" customHeight="1">
+      <c r="C190" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="D190"/>
+    </row>
+    <row r="191" spans="3:5" ht="21" customHeight="1">
+      <c r="C191" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="D191" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" ht="21" customHeight="1">
+      <c r="C192" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="D192" s="46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" ht="21" customHeight="1">
+      <c r="C193" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="D193" s="46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" ht="21" customHeight="1">
+      <c r="C194" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="D194" s="46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" ht="21" customHeight="1">
+      <c r="C195" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="D195" s="46" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" ht="21" customHeight="1">
+      <c r="C196" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="D196"/>
+    </row>
+    <row r="197" spans="3:4" ht="21" customHeight="1">
+      <c r="C197" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="D197" s="46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" ht="21" customHeight="1">
+      <c r="C198" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D198" s="46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" ht="21" customHeight="1">
+      <c r="C199" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="D199" s="46" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" ht="21" customHeight="1">
+      <c r="C200" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="D200" s="46" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" ht="21" customHeight="1">
+      <c r="C201" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D201"/>
+    </row>
+    <row r="202" spans="3:4" ht="21" customHeight="1">
+      <c r="C202" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="D202"/>
+    </row>
+    <row r="203" spans="3:4" ht="21" customHeight="1">
+      <c r="C203" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="D203"/>
+    </row>
+    <row r="204" spans="3:4" ht="21" customHeight="1">
+      <c r="C204" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="D204"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="B110:C114"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="B119:C123"/>
+    <mergeCell ref="F67:F72"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="C93:C98"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21810C24-C4DB-405C-B55C-5E9D5177EDA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,20 +5021,20 @@
     </row>
     <row r="14" spans="1:6" ht="75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DDBF72-59C4-4FF2-BF36-0D1695074B38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\beginner_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\maruaican\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E3E4F-81D1-4683-88E7-947A9B2A8E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SQL構文一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="ai_studio_code_sjisx" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="SQL構文一覧 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="SQL構文一覧" sheetId="1" r:id="rId2"/>
+    <sheet name="ai_studio_code_sjisx" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SQL構文一覧!$A$11:$G$204</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">SQL構文一覧!$A$11:$G$208</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'SQL構文一覧 (2)'!$A$11:$G$210</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="358">
   <si>
     <t>分類</t>
   </si>
@@ -1430,15 +1433,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t xml:space="preserve">関数() OVER (
-  [PARTITION BY 列名...]
-  [ORDER BY 列名...]
-  [フレーム指定句]  -- ここ！
-)
-</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>UNBOUNDED PRECEDING: フレームの先頭（パーティションの先頭）</t>
   </si>
   <si>
@@ -2286,6 +2280,302 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>　→ 指定した項目において 重複行を除いた結果を返す</t>
+  </si>
+  <si>
+    <t>- 複数項目を指定した場合、項目の組み合わせが重複する行が除かれる。</t>
+  </si>
+  <si>
+    <t>【２】主な使用パターン（分類）</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２－１：特定項目の重複を除いて取得（単一項目）</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 都道府県</t>
+  </si>
+  <si>
+    <t>FROM 顧客;</t>
+  </si>
+  <si>
+    <t>- 意味：顧客が属する都道府県の一覧を取得（重複除外）</t>
+  </si>
+  <si>
+    <t>- 使用目的：一覧表示、選択肢作成など</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２－２：複数項目の組合せでの重複排除</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT DISTINCT 都道府県, 市区町村</t>
+  </si>
+  <si>
+    <t>- 意味：都道府県＋市区町村の組合せで重複を除く</t>
+  </si>
+  <si>
+    <t>- 注意：片方だけ違っても「別の組合せ」として扱われる</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２－３：集計関数と組み合わせ（COUNT）</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT COUNT(DISTINCT 顧客ID) AS 顧客数</t>
+  </si>
+  <si>
+    <t>FROM 注文;</t>
+  </si>
+  <si>
+    <t>- 意味：重複する顧客IDを１つとカウントし、ユニークな顧客数を算出</t>
+  </si>
+  <si>
+    <t>- 使用目的：延べ数（重複含む）ではなく、実人数などを集計</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２－４：サブクエリと組み合わせ</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT *</t>
+  </si>
+  <si>
+    <t>WHERE 顧客ID LIKE 'A%';</t>
+  </si>
+  <si>
+    <t>- 用途：DISTINCT結果に対してさらに絞り込みたい場合など</t>
+  </si>
+  <si>
+    <t>- サブクエリで 一意な顧客IDのリスト を作成 → フィルタ処理</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２－５：DISTINCT の代替案との比較（GROUP BY）</t>
+    </r>
+  </si>
+  <si>
+    <t>FROM 顧客</t>
+  </si>
+  <si>
+    <t>- SELECT DISTINCT 都道府県 と同じ結果</t>
+  </si>
+  <si>
+    <t>- 実行計画はDBMSによって異なるが、意味論的には等価</t>
+  </si>
+  <si>
+    <t>- GROUP BY を使うときは通常、集計関数と一緒に使う</t>
+  </si>
+  <si>
+    <t>【３】応用情報技術者試験で問われる観点</t>
+  </si>
+  <si>
+    <t>観点</t>
+  </si>
+  <si>
+    <t>意図</t>
+  </si>
+  <si>
+    <t>重複排除か、単純な一覧取得か</t>
+  </si>
+  <si>
+    <t>単一 or 複数項目</t>
+  </si>
+  <si>
+    <t>複数項目の組み合わせに注意</t>
+  </si>
+  <si>
+    <t>集計との組合せ</t>
+  </si>
+  <si>
+    <t>COUNT(DISTINCT ～)の形式に注意</t>
+  </si>
+  <si>
+    <t>他の句との関係</t>
+  </si>
+  <si>
+    <t>ORDER BY, GROUP BYとの違いを明確に</t>
+  </si>
+  <si>
+    <t>【４】誤答・混乱しやすいポイント</t>
+  </si>
+  <si>
+    <t>誤解</t>
+  </si>
+  <si>
+    <t>正しい理解</t>
+  </si>
+  <si>
+    <t>DISTINCT は項目ごとに効く</t>
+  </si>
+  <si>
+    <t>行単位での重複を除く</t>
+  </si>
+  <si>
+    <t>COUNT(*) と COUNT(DISTINCT 項目) は同じ</t>
+  </si>
+  <si>
+    <t>前者は全件、後者は一意件数</t>
+  </si>
+  <si>
+    <t>DISTINCT はすべての行に影響</t>
+  </si>
+  <si>
+    <t>SELECT句で指定された項目だけに適用される</t>
+  </si>
+  <si>
+    <t>【まとめ】</t>
+  </si>
+  <si>
+    <t>DISTINCTはシンプルな構文ながら、複数項目の扱いや集計との連携などで誤用が多い構文です。出題頻度は高くないものの、SQLの理解度を測るポイントとして問われやすいため、以下の２点に注意してください。</t>
+  </si>
+  <si>
+    <t>- DISTINCTは行全体の重複を除く（列ではない）</t>
+  </si>
+  <si>
+    <t>- GROUP BYとの違い・類似性を使い分ける</t>
+  </si>
+  <si>
+    <t>DISTINCT：重複する行を除いて、異なる値だけを抽出するためのキーワード</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FROM ( SELECT DISTINCT 顧客ID  FROM 注文) AS 一意顧客</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">関数() OVER (
+  [PARTITION BY 列名...]
+  [ORDER BY 列名...]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  [フレーム指定句]  -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- ここ！
+)
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <r>
       <t>【１】</t>
     </r>
@@ -2294,8 +2584,9 @@
         <b/>
         <sz val="13"/>
         <color rgb="FF4F81BD"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ ゴシック"/>
         <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">DISTINCT </t>
     </r>
@@ -2308,123 +2599,68 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>の基本的な定義（</t>
+      <t>の基本的な定義</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DISTINCT 属性　の用法</t>
+    <rPh sb="9" eb="11">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="13"/>
-        <color rgb="FF4F81BD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>IPA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF4F81BD"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>準拠）</t>
-    </r>
-  </si>
-  <si>
-    <t>- SELECT DISTINCT 項目名 FROM 表名;</t>
-  </si>
-  <si>
-    <t>　→ 指定した項目において 重複行を除いた結果を返す</t>
-  </si>
-  <si>
-    <t>- 複数項目を指定した場合、項目の組み合わせが重複する行が除かれる。</t>
-  </si>
-  <si>
-    <t>【２】主な使用パターン（分類）</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
+      <t>都道府県</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>２－１：特定項目の重複を除いて取得（単一項目）</t>
-    </r>
-  </si>
-  <si>
-    <t>SELECT DISTINCT 都道府県</t>
-  </si>
-  <si>
-    <t>FROM 顧客;</t>
-  </si>
-  <si>
-    <t>- 意味：顧客が属する都道府県の一覧を取得（重複除外）</t>
-  </si>
-  <si>
-    <t>- 使用目的：一覧表示、選択肢作成など</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> 都道府県;</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>２－２：複数項目の組合せでの重複排除</t>
-    </r>
-  </si>
-  <si>
-    <t>SELECT DISTINCT 都道府県, 市区町村</t>
-  </si>
-  <si>
-    <t>- 意味：都道府県＋市区町村の組合せで重複を除く</t>
-  </si>
-  <si>
-    <t>- 注意：片方だけ違っても「別の組合せ」として扱われる</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
+      <t>DISTINCT 項目名</t>
     </r>
     <r>
       <rPr>
@@ -2434,188 +2670,175 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>２－３：集計関数と組み合わせ（COUNT）</t>
-    </r>
-  </si>
-  <si>
-    <t>SELECT COUNT(DISTINCT 顧客ID) AS 顧客数</t>
-  </si>
-  <si>
-    <t>FROM 注文;</t>
-  </si>
-  <si>
-    <t>- 意味：重複する顧客IDを１つとカウントし、ユニークな顧客数を算出</t>
-  </si>
-  <si>
-    <t>- 使用目的：延べ数（重複含む）ではなく、実人数などを集計</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
+      <t xml:space="preserve"> FROM 表名;</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>SELECT　  カラム名1, カラム名2, ...
+FROM　  テーブル名1
+WHERE　  EXISTS (　 SELECT　  *　   FROM　   テーブル名2　   WHERE　   条件式 );</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>WHERE EXISTS　（サブクエリ）　※これ一択。完全固定。
+または、
+WHERE　NOT EXISTS（サブクエリ）</t>
+    <rPh sb="24" eb="26">
+      <t>イッタク</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>カンゼンコテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・WHERE：この後には条件式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-      </rPr>
-      <t>２－４：サブクエリと組み合わせ</t>
-    </r>
-  </si>
-  <si>
-    <t>SELECT *</t>
-  </si>
-  <si>
-    <t>FROM (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SELECT DISTINCT 顧客ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FROM 注文</t>
-  </si>
-  <si>
-    <t>) AS 一意顧客</t>
-  </si>
-  <si>
-    <t>WHERE 顧客ID LIKE 'A%';</t>
-  </si>
-  <si>
-    <t>- 用途：DISTINCT結果に対してさらに絞り込みたい場合など</t>
-  </si>
-  <si>
-    <t>- サブクエリで 一意な顧客IDのリスト を作成 → フィルタ処理</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・EXISTS（サブクエリ）：条件式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。サブクエリの結果が存在するか否かを判定する。
+・ サブクエリのSELECT句に指定するカラムは何でもよく、SELECT *やSELECT 1、SELECT NULLなどが慣例的に使われます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-      </rPr>
-      <t>２－５：DISTINCT の代替案との比較（GROUP BY）</t>
-    </r>
-  </si>
-  <si>
-    <t>SELECT 都道府県</t>
-  </si>
-  <si>
-    <t>FROM 顧客</t>
-  </si>
-  <si>
-    <t>GROUP BY 都道府県;</t>
-  </si>
-  <si>
-    <t>- SELECT DISTINCT 都道府県 と同じ結果</t>
-  </si>
-  <si>
-    <t>- 実行計画はDBMSによって異なるが、意味論的には等価</t>
-  </si>
-  <si>
-    <t>- GROUP BY を使うときは通常、集計関数と一緒に使う</t>
-  </si>
-  <si>
-    <t>【３】応用情報技術者試験で問われる観点</t>
-  </si>
-  <si>
-    <t>観点</t>
-  </si>
-  <si>
-    <t>意図</t>
-  </si>
-  <si>
-    <t>重複排除か、単純な一覧取得か</t>
-  </si>
-  <si>
-    <t>単一 or 複数項目</t>
-  </si>
-  <si>
-    <t>複数項目の組み合わせに注意</t>
-  </si>
-  <si>
-    <t>集計との組合せ</t>
-  </si>
-  <si>
-    <t>COUNT(DISTINCT ～)の形式に注意</t>
-  </si>
-  <si>
-    <t>他の句との関係</t>
-  </si>
-  <si>
-    <t>ORDER BY, GROUP BYとの違いを明確に</t>
-  </si>
-  <si>
-    <t>【４】誤答・混乱しやすいポイント</t>
-  </si>
-  <si>
-    <t>誤解</t>
-  </si>
-  <si>
-    <t>正しい理解</t>
-  </si>
-  <si>
-    <t>DISTINCT は項目ごとに効く</t>
-  </si>
-  <si>
-    <t>行単位での重複を除く</t>
-  </si>
-  <si>
-    <t>COUNT(*) と COUNT(DISTINCT 項目) は同じ</t>
-  </si>
-  <si>
-    <t>前者は全件、後者は一意件数</t>
-  </si>
-  <si>
-    <t>DISTINCT はすべての行に影響</t>
-  </si>
-  <si>
-    <t>SELECT句で指定された項目だけに適用される</t>
-  </si>
-  <si>
-    <t>【まとめ】</t>
-  </si>
-  <si>
-    <t>DISTINCTはシンプルな構文ながら、複数項目の扱いや集計との連携などで誤用が多い構文です。出題頻度は高くないものの、SQLの理解度を測るポイントとして問われやすいため、以下の２点に注意してください。</t>
-  </si>
-  <si>
-    <t>- DISTINCTは行全体の重複を除く（列ではない）</t>
-  </si>
-  <si>
-    <t>- GROUP BYとの違い・類似性を使い分ける</t>
-  </si>
-  <si>
-    <t>DISTINCT：重複する行を除いて、異なる値だけを抽出するためのキーワード</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>DISTINCTの用法</t>
-    <rPh sb="9" eb="11">
-      <t>ヨウホウ</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サブクエリ内の条件式が成立するもの（NOTは、成立しないものを抜粋）が、メインクエリのSELECT文で表示される。</t>
+    </r>
+    <rPh sb="136" eb="137">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="138" eb="141">
+      <t>ジョウケンシキ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>バッスイ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>WHERE &lt;カラム名&gt; IN ( ①&lt;値のリスト&gt; または ②&lt;サブクエリ&gt; )
+または、
+WHERE &lt;カラム名&gt;　NOT　 IN (① &lt;値のリスト&gt; または② &lt;サブクエリ&gt; )</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>①
+SELECT　  カラム名1, カラム名2, ...　FROM　  テーブル名
+WHERE　  カラム名 IN (値1, 値2, 値3, ...);</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>②
+SELECT　  カラム名1, カラム名2, ...　FROM　  テーブル名
+WHERE　 カラム名 IN (  SELECT　 カラム名　  FROM　 別のテーブル名　 WHERE　 条件式  );</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>**注意点: `NOT IN` と `NULL`**
+サブクエリが`NULL`を返す可能性がある場合、`NOT IN`は意図しない結果になることがあります。サブクエリの結果に1つでも`NULL`が含まれていると、`NOT IN`句全体の結果が1行も返されなくなります。これは、SQLが `(値) NOT IN (値1, 値2, NULL)` を正しく評価できないためです。
+これを避けるためには、サブクエリ側で `WHERE user_id IS NOT NULL` のようにして`NULL`を予め除外する必要があります。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・WHERE：この後には条件式
+・属性 IN (カラムまたはリスト) がWHEREの条件式になる
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>WHERE user_id IS NOT NULについて
+WHERE:この後には条件式
+ user_id IS NOT NULL：条件式　※
+※price &gt;= 100 → 条件式
+name = '田中' → 条件式
+user_id IS NOT NULL → 条件式　と同じ理屈。ただし、集約関数は使えない。なぜなら、WHEREは、集約関数より先に実行されるから。</t>
+    <rPh sb="37" eb="38">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ジョウケンシキ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ジョウケンシキ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>リクツ</t>
+    </rPh>
+    <rPh sb="146" eb="150">
+      <t>シュウヤクカンスウ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="168" eb="172">
+      <t>シュウヤクカンスウ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>【SQLの処理の順序】
+１　FROM: どのテーブルからデータを取得するかを決定します。
+２　WHERE: テーブルの一行一行をスキャンし、条件に合わない行をこの時点で除外します。
+３　GROUP BY: WHERE句で絞り込まれた後の行を、指定されたカラムでグループ化します。
+４　集約関数の計算: SUM()やCOUNT()などが、グループ化された各グループに対して計算されます。
+５　HAVING: 集約関数で計算された後のグループに対して条件を指定し、合わないグループを除外します。
+６　SELECT: 最終的にどのカラムを表示するかを決定します。
+７　ORDER BY: 結果を並び替えます。</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンジョ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -2623,8 +2846,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2724,13 +2947,6 @@
       <b/>
       <sz val="13"/>
       <color rgb="FF4F81BD"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF4F81BD"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2755,6 +2971,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF4F81BD"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2764,7 +2996,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2866,6 +3098,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2873,153 +3167,202 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3318,1636 +3661,3305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC9D95-703F-4920-AFFA-5E5B1A2E7193}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H204"/>
+  <dimension ref="A2:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A155" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F57" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="61.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="80" style="6" customWidth="1"/>
-    <col min="5" max="5" width="52.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="60.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="30" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="80" style="4" customWidth="1"/>
+    <col min="5" max="5" width="63.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1">
-      <c r="C16" s="9"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" customHeight="1">
-      <c r="C17" s="9"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21" customHeight="1">
-      <c r="C18" s="9"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" customHeight="1">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="121.5">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" ht="13.5">
-      <c r="C21" s="22" t="s">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" s="15" customFormat="1" ht="13.5">
+      <c r="C21" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" ht="13.5">
-      <c r="C22" s="22" t="s">
+    <row r="22" spans="1:7" s="15" customFormat="1" ht="13.5">
+      <c r="C22" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D24" s="13"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" s="19" customFormat="1" ht="154.5" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" s="15" customFormat="1" ht="154.5" customHeight="1">
+      <c r="A25" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="15" customFormat="1" ht="154.5" customHeight="1">
+      <c r="B26" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="16"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" customHeight="1">
+      <c r="B27" s="10"/>
+      <c r="C27" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="19" customFormat="1" ht="154.5" customHeight="1">
-      <c r="B26" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="22"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" ht="21" customHeight="1">
-      <c r="B27" s="9"/>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1">
+      <c r="B28" s="16"/>
+      <c r="C28" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D28" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" s="19" customFormat="1" ht="40.5" customHeight="1">
-      <c r="B28" s="22"/>
-      <c r="C28" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="D28" s="33" t="s">
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="30" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="31" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="32" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="33" spans="1:8" s="15" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A33" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="15" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="35" spans="1:8" ht="13.5">
+      <c r="B35" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.5">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="48.75" customHeight="1">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" ht="21" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="113.25" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="192" customHeight="1">
+      <c r="D40" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="30" spans="1:7" s="19" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="31" spans="1:7" s="19" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="32" spans="1:7" s="19" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="33" spans="1:8" s="19" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A33" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="19" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="35" spans="1:8" ht="13.5">
-      <c r="B35" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="13.5">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="48.75" customHeight="1">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:8" ht="21" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="113.25" customHeight="1">
-      <c r="A39" s="6" t="s">
+    </row>
+    <row r="43" spans="1:8" ht="21" customHeight="1">
+      <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="192" customHeight="1">
-      <c r="D40" s="7" t="s">
+      <c r="B43" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="21" customHeight="1">
+      <c r="B44" s="27"/>
+      <c r="C44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="21" customHeight="1">
+      <c r="B45" s="27"/>
+      <c r="C45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="21" customHeight="1">
+      <c r="B46" s="28"/>
+      <c r="C46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="21" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="21" customHeight="1">
+      <c r="B48" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="21" customHeight="1">
+      <c r="B49" s="28"/>
+      <c r="C49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="54">
+      <c r="B50" s="18"/>
+      <c r="C50" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" s="31"/>
+    </row>
+    <row r="51" spans="1:6" ht="121.5">
+      <c r="B51" s="18"/>
+      <c r="C51" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" spans="1:6" ht="81">
+      <c r="B52" s="18"/>
+      <c r="C52" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="67.5">
+      <c r="B53" s="18"/>
+      <c r="C53" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="94.5">
+      <c r="B54" s="18"/>
+      <c r="C54" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="94.5">
+      <c r="B55" s="18"/>
+      <c r="C55" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="21" customHeight="1">
+      <c r="B56" s="18"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+    </row>
+    <row r="57" spans="1:6" ht="107.25" customHeight="1">
+      <c r="B57" s="18"/>
+      <c r="C57" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="45.75" customHeight="1">
+      <c r="B58" s="18"/>
+      <c r="C58" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="103.5" customHeight="1">
+      <c r="B59" s="18"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="177.75" customHeight="1">
+      <c r="B60" s="18"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+    </row>
+    <row r="62" spans="1:6" ht="21" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" customHeight="1">
+      <c r="B63" s="27"/>
+      <c r="C63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="21" customHeight="1">
+      <c r="B64" s="27"/>
+      <c r="C64" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="21" customHeight="1">
+      <c r="B65" s="27"/>
+      <c r="C65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="21" customHeight="1">
+      <c r="B66" s="28"/>
+      <c r="C66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="21" customHeight="1">
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" ht="150.75" customHeight="1">
+      <c r="A68" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="21" customHeight="1">
+      <c r="B69" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="F69" s="33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="21" customHeight="1">
+      <c r="B70" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="F70" s="33"/>
+    </row>
+    <row r="71" spans="1:6" ht="21" customHeight="1">
+      <c r="C71" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="35"/>
+    </row>
+    <row r="72" spans="1:6" ht="21" customHeight="1">
+      <c r="C72" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="35"/>
+    </row>
+    <row r="73" spans="1:6" ht="21" customHeight="1">
+      <c r="B73" s="18"/>
+      <c r="C73" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F73" s="35"/>
+    </row>
+    <row r="74" spans="1:6" ht="21" customHeight="1">
+      <c r="B74" s="18"/>
+      <c r="C74" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" s="35"/>
+    </row>
+    <row r="75" spans="1:6" ht="21" customHeight="1">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+    </row>
+    <row r="76" spans="1:6" ht="21" customHeight="1">
+      <c r="B76" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="21" customHeight="1">
+      <c r="C77" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="21" customHeight="1">
+      <c r="B78" s="18"/>
+      <c r="C78" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="21" customHeight="1">
+      <c r="B79" s="18"/>
+      <c r="C79" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="21" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="21" customHeight="1">
-      <c r="B44" s="17"/>
-      <c r="C44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="21" customHeight="1">
-      <c r="B45" s="17"/>
-      <c r="C45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="21" customHeight="1">
-      <c r="B46" s="18"/>
-      <c r="C46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="21" customHeight="1">
-      <c r="B48" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="21" customHeight="1">
-      <c r="B49" s="18"/>
-      <c r="C49" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="29" customFormat="1" ht="54">
-      <c r="B50" s="10"/>
-      <c r="C50" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="E50" s="44"/>
-    </row>
-    <row r="51" spans="1:5" s="29" customFormat="1" ht="121.5">
-      <c r="B51" s="10"/>
-      <c r="C51" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="E51" s="30"/>
-    </row>
-    <row r="52" spans="1:5" s="29" customFormat="1" ht="81">
-      <c r="B52" s="10"/>
-      <c r="C52" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="29" customFormat="1" ht="67.5">
-      <c r="B53" s="10"/>
-      <c r="C53" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="29" customFormat="1" ht="94.5">
-      <c r="B54" s="10"/>
-      <c r="C54" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="29" customFormat="1" ht="94.5">
-      <c r="B55" s="10"/>
-      <c r="C55" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="29" customFormat="1" ht="21" customHeight="1">
-      <c r="B56" s="10"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" s="29" customFormat="1" ht="21" customHeight="1">
-      <c r="B57" s="10"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" s="29" customFormat="1" ht="21" customHeight="1">
-      <c r="B58" s="10"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:5" ht="21" customHeight="1">
-      <c r="A60" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="21" customHeight="1">
-      <c r="B61" s="17"/>
-      <c r="C61" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="21" customHeight="1">
-      <c r="B62" s="17"/>
-      <c r="C62" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="21" customHeight="1">
-      <c r="B63" s="17"/>
-      <c r="C63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="21" customHeight="1">
-      <c r="B64" s="18"/>
-      <c r="C64" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="21" customHeight="1">
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="150.75" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="21" customHeight="1">
-      <c r="B67" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="F67" s="38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="21" customHeight="1">
-      <c r="B68" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="F68" s="38"/>
-    </row>
-    <row r="69" spans="1:6" ht="21" customHeight="1">
-      <c r="C69" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F69" s="39"/>
-    </row>
-    <row r="70" spans="1:6" ht="21" customHeight="1">
-      <c r="C70" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="39"/>
-    </row>
-    <row r="71" spans="1:6" ht="21" customHeight="1">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" s="39"/>
-    </row>
-    <row r="72" spans="1:6" ht="21" customHeight="1">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="39"/>
-    </row>
-    <row r="73" spans="1:6" ht="21" customHeight="1">
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="21" customHeight="1">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" ht="21" customHeight="1">
-      <c r="B75" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="21" customHeight="1">
-      <c r="C76" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="21" customHeight="1">
-      <c r="B77" s="10"/>
-      <c r="C77" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="21" customHeight="1">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E78" s="41"/>
-    </row>
-    <row r="79" spans="1:6" ht="21" customHeight="1">
-      <c r="B79" s="10"/>
-      <c r="C79" s="10" t="s">
+      <c r="E79" s="37"/>
+    </row>
+    <row r="80" spans="1:6" ht="21" customHeight="1">
+      <c r="B80" s="18"/>
+      <c r="C80" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D80" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E79" s="41"/>
-    </row>
-    <row r="80" spans="1:6" ht="21" customHeight="1">
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="2:6" ht="21" customHeight="1">
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+    </row>
+    <row r="82" spans="2:6" ht="21" customHeight="1">
+      <c r="B82" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="21" customHeight="1">
-      <c r="C82" s="10" t="s">
+    <row r="83" spans="2:6" ht="21" customHeight="1">
+      <c r="C83" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D83" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E83" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F82" s="40" t="s">
+      <c r="F83" s="36" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="21" customHeight="1">
-      <c r="B83" s="10"/>
-      <c r="C83" s="10" t="s">
+    <row r="84" spans="2:6" ht="21" customHeight="1">
+      <c r="B84" s="18"/>
+      <c r="C84" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D84" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E84" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F83" s="41"/>
-    </row>
-    <row r="84" spans="2:6" ht="21" customHeight="1">
-      <c r="B84" s="10"/>
-      <c r="C84" s="10" t="s">
+      <c r="F84" s="37"/>
+    </row>
+    <row r="85" spans="2:6" ht="21" customHeight="1">
+      <c r="B85" s="18"/>
+      <c r="C85" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D85" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E85" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F84" s="41"/>
-    </row>
-    <row r="85" spans="2:6" ht="21" customHeight="1">
-      <c r="B85" s="10"/>
-      <c r="C85" s="10" t="s">
+      <c r="F85" s="37"/>
+    </row>
+    <row r="86" spans="2:6" ht="21" customHeight="1">
+      <c r="B86" s="18"/>
+      <c r="C86" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D86" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E86" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F85" s="41"/>
-    </row>
-    <row r="86" spans="2:6" ht="21" customHeight="1">
-      <c r="B86" s="10"/>
-      <c r="C86" s="10" t="s">
+      <c r="F86" s="37"/>
+    </row>
+    <row r="87" spans="2:6" ht="21" customHeight="1">
+      <c r="B87" s="18"/>
+      <c r="C87" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D87" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E87" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F86" s="41"/>
-    </row>
-    <row r="87" spans="2:6" ht="21" customHeight="1">
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="F87" s="37"/>
     </row>
     <row r="88" spans="2:6" ht="21" customHeight="1">
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+    </row>
+    <row r="89" spans="2:6" ht="21" customHeight="1">
+      <c r="B89" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C89" s="4" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="21" customHeight="1">
-      <c r="C89" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F89" s="40" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="21" customHeight="1">
       <c r="C90" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="21" customHeight="1">
+      <c r="C91" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D91" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E91" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F90" s="41"/>
-    </row>
-    <row r="91" spans="2:6" ht="21" customHeight="1">
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
+      <c r="F91" s="37"/>
     </row>
     <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="B92" s="6" t="s">
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+    </row>
+    <row r="93" spans="2:6" ht="21" customHeight="1">
+      <c r="B93" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="D92" s="10"/>
-    </row>
-    <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="B93" s="42" t="s">
+      <c r="D93" s="18"/>
+    </row>
+    <row r="94" spans="2:6" ht="21" customHeight="1">
+      <c r="B94" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="D94" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="C93" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="D93" s="26" t="s">
+    </row>
+    <row r="95" spans="2:6" ht="21" customHeight="1">
+      <c r="B95" s="37"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="10" t="s">
+    <row r="96" spans="2:6" ht="21" customHeight="1">
+      <c r="B96" s="37"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="26" t="s">
+    <row r="97" spans="2:4" ht="21" customHeight="1">
+      <c r="B97" s="37"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="10" t="s">
+    <row r="98" spans="2:4" ht="21" customHeight="1">
+      <c r="B98" s="37"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="10" t="s">
+    <row r="99" spans="2:4" ht="21" customHeight="1">
+      <c r="B99" s="37"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="18"/>
+    </row>
+    <row r="100" spans="2:4" ht="21" customHeight="1">
+      <c r="B100" s="4" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" ht="21" customHeight="1">
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="10"/>
-    </row>
-    <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="B99" s="6" t="s">
+      <c r="C100" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="D100" s="18"/>
+    </row>
+    <row r="101" spans="2:4" ht="21" customHeight="1">
+      <c r="C101" s="42"/>
+      <c r="D101" s="18"/>
+    </row>
+    <row r="102" spans="2:4" ht="21" customHeight="1">
+      <c r="C102" s="42"/>
+      <c r="D102" s="18"/>
+    </row>
+    <row r="103" spans="2:4" ht="21" customHeight="1">
+      <c r="C103" s="42"/>
+      <c r="D103" s="18"/>
+    </row>
+    <row r="104" spans="2:4" ht="21" customHeight="1">
+      <c r="C104" s="42"/>
+      <c r="D104" s="18"/>
+    </row>
+    <row r="105" spans="2:4" ht="21" customHeight="1">
+      <c r="C105" s="42"/>
+      <c r="D105" s="18"/>
+    </row>
+    <row r="106" spans="2:4" ht="21" customHeight="1">
+      <c r="B106" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C106" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="D99" s="10"/>
-    </row>
-    <row r="100" spans="2:4" ht="21" customHeight="1">
-      <c r="C100" s="39"/>
-      <c r="D100" s="10"/>
-    </row>
-    <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="C101" s="39"/>
-      <c r="D101" s="10"/>
-    </row>
-    <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="39"/>
-      <c r="D102" s="10"/>
-    </row>
-    <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="39"/>
-      <c r="D103" s="10"/>
-    </row>
-    <row r="104" spans="2:4" ht="21" customHeight="1">
-      <c r="C104" s="39"/>
-      <c r="D104" s="10"/>
-    </row>
-    <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="B105" s="6" t="s">
+      <c r="D106" s="18"/>
+    </row>
+    <row r="107" spans="2:4" ht="21" customHeight="1">
+      <c r="C107" s="42"/>
+      <c r="D107" s="18"/>
+    </row>
+    <row r="108" spans="2:4" ht="21" customHeight="1">
+      <c r="C108" s="42"/>
+      <c r="D108" s="18"/>
+    </row>
+    <row r="109" spans="2:4" ht="21" customHeight="1">
+      <c r="C109" s="42"/>
+      <c r="D109" s="18"/>
+    </row>
+    <row r="110" spans="2:4" ht="33" customHeight="1">
+      <c r="C110" s="42"/>
+      <c r="D110" s="18"/>
+    </row>
+    <row r="111" spans="2:4" ht="21" customHeight="1">
+      <c r="B111" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C111" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="D105" s="10"/>
-    </row>
-    <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="C106" s="39"/>
-      <c r="D106" s="10"/>
-    </row>
-    <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="C107" s="39"/>
-      <c r="D107" s="10"/>
-    </row>
-    <row r="108" spans="2:4" ht="21" customHeight="1">
-      <c r="C108" s="39"/>
-      <c r="D108" s="10"/>
-    </row>
-    <row r="109" spans="2:4" ht="33" customHeight="1">
-      <c r="C109" s="39"/>
-      <c r="D109" s="10"/>
-    </row>
-    <row r="110" spans="2:4" ht="21" customHeight="1">
-      <c r="B110" s="6" t="s">
+      <c r="D111" s="18"/>
+    </row>
+    <row r="112" spans="2:4" ht="21" customHeight="1">
+      <c r="C112" s="42"/>
+      <c r="D112" s="18"/>
+    </row>
+    <row r="113" spans="1:4" ht="21" customHeight="1">
+      <c r="C113" s="42"/>
+      <c r="D113" s="18"/>
+    </row>
+    <row r="114" spans="1:4" ht="21" customHeight="1">
+      <c r="C114" s="42"/>
+      <c r="D114" s="18"/>
+    </row>
+    <row r="115" spans="1:4" ht="21" customHeight="1">
+      <c r="C115" s="42"/>
+      <c r="D115" s="18"/>
+    </row>
+    <row r="116" spans="1:4" ht="21" customHeight="1">
+      <c r="B116" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C110" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D110" s="10"/>
-    </row>
-    <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="C111" s="39"/>
-      <c r="D111" s="10"/>
-    </row>
-    <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="C112" s="39"/>
-      <c r="D112" s="10"/>
-    </row>
-    <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="C113" s="39"/>
-      <c r="D113" s="10"/>
-    </row>
-    <row r="114" spans="1:4" ht="21" customHeight="1">
-      <c r="C114" s="39"/>
-      <c r="D114" s="10"/>
-    </row>
-    <row r="115" spans="1:4" ht="21" customHeight="1">
-      <c r="B115" s="6" t="s">
+      <c r="C116" s="43"/>
+      <c r="D116" s="18"/>
+    </row>
+    <row r="117" spans="1:4" ht="21" customHeight="1">
+      <c r="B117" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C117" s="43"/>
+      <c r="D117" s="18"/>
+    </row>
+    <row r="118" spans="1:4" ht="21" customHeight="1">
+      <c r="B118" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="C115" s="25"/>
-      <c r="D115" s="10"/>
-    </row>
-    <row r="116" spans="1:4" ht="21" customHeight="1">
-      <c r="B116" s="28" t="s">
+      <c r="C118" s="43"/>
+      <c r="D118" s="18"/>
+    </row>
+    <row r="119" spans="1:4" ht="21" customHeight="1">
+      <c r="B119" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="C116" s="25"/>
-      <c r="D116" s="10"/>
-    </row>
-    <row r="117" spans="1:4" ht="21" customHeight="1">
-      <c r="B117" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C117" s="25"/>
-      <c r="D117" s="10"/>
-    </row>
-    <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="27" t="s">
+      <c r="C119" s="43"/>
+      <c r="D119" s="18"/>
+    </row>
+    <row r="120" spans="1:4" ht="21" customHeight="1">
+      <c r="B120" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="C118" s="25"/>
-      <c r="D118" s="10"/>
-    </row>
-    <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C119" s="41"/>
-      <c r="D119" s="10"/>
-    </row>
-    <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="41"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="10"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" ht="21" customHeight="1">
-      <c r="B121" s="41"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="10"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" ht="21" customHeight="1">
-      <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="10"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" ht="21" customHeight="1">
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="10"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="18"/>
     </row>
     <row r="124" spans="1:4" ht="21" customHeight="1">
-      <c r="A124" s="6" t="s">
+      <c r="B124" s="37"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="18"/>
+    </row>
+    <row r="125" spans="1:4" ht="21" customHeight="1">
+      <c r="A125" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="21" customHeight="1">
-      <c r="B125" s="19" t="s">
+    <row r="126" spans="1:4" ht="21" customHeight="1">
+      <c r="B126" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D126" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="21" customHeight="1">
-      <c r="B126" s="19" t="s">
+    <row r="127" spans="1:4" ht="21" customHeight="1">
+      <c r="B127" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D126" s="21" t="s">
+      <c r="D127" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="21" customHeight="1">
-      <c r="B127" s="19"/>
-    </row>
     <row r="128" spans="1:4" ht="21" customHeight="1">
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="15"/>
+    </row>
+    <row r="129" spans="1:4" ht="21" customHeight="1">
+      <c r="B129" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C129" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D129" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="21" customHeight="1">
-      <c r="B129" s="3" t="s">
+    <row r="130" spans="1:4" ht="21" customHeight="1">
+      <c r="B130" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C130" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D130" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="28.5" customHeight="1">
-      <c r="B130" s="3" t="s">
+    <row r="131" spans="1:4" ht="28.5" customHeight="1">
+      <c r="B131" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C131" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D131" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="40.5" customHeight="1">
-      <c r="B131" s="3" t="s">
+    <row r="132" spans="1:4" ht="40.5" customHeight="1">
+      <c r="B132" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C132" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D132" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="32.25" customHeight="1">
-      <c r="B132" s="3" t="s">
+    <row r="133" spans="1:4" ht="32.25" customHeight="1">
+      <c r="B133" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C133" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D133" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="21" customHeight="1">
-      <c r="B133" s="2" t="s">
+    <row r="134" spans="1:4" ht="21" customHeight="1">
+      <c r="B134" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C134" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D134" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="21" customHeight="1">
-      <c r="B134" s="3" t="s">
+    <row r="135" spans="1:4" ht="21" customHeight="1">
+      <c r="B135" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D135" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="21" customHeight="1">
-      <c r="B135" s="3" t="s">
+    <row r="136" spans="1:4" ht="21" customHeight="1">
+      <c r="B136" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C136" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D136" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="21" customHeight="1">
-      <c r="B136" s="3" t="s">
+    <row r="137" spans="1:4" ht="21" customHeight="1">
+      <c r="B137" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C137" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D137" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21" customHeight="1">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21" customHeight="1">
-      <c r="B141" s="18"/>
-      <c r="C141" s="9" t="s">
+      <c r="B141" s="28"/>
+      <c r="C141" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
+    <row r="142" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
     </row>
     <row r="143" spans="1:4" ht="21" customHeight="1">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="21" customHeight="1">
-      <c r="B144" s="17"/>
-      <c r="C144" s="9" t="s">
+      <c r="B144" s="27"/>
+      <c r="C144" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="21" customHeight="1">
-      <c r="B145" s="17"/>
-      <c r="C145" s="9" t="s">
+      <c r="B145" s="27"/>
+      <c r="C145" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21" customHeight="1">
-      <c r="B146" s="18"/>
-      <c r="C146" s="9" t="s">
+      <c r="B146" s="28"/>
+      <c r="C146" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21" customHeight="1">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="19" customFormat="1" ht="27">
-      <c r="A148" s="19" t="s">
+    <row r="148" spans="1:6" s="15" customFormat="1" ht="27">
+      <c r="A148" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B148" s="22" t="s">
+      <c r="B148" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E148" s="19" t="s">
+      <c r="E148" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21" customHeight="1">
-      <c r="A149" s="19"/>
-      <c r="B149" s="22" t="s">
+      <c r="A149" s="15"/>
+      <c r="B149" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="D149" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21" customHeight="1">
-      <c r="A150" s="19"/>
-      <c r="B150" s="22" t="s">
+      <c r="A150" s="15"/>
+      <c r="B150" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D150" s="22" t="s">
+      <c r="D150" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A151" s="19"/>
-      <c r="B151" s="22" t="s">
+      <c r="A151" s="15"/>
+      <c r="B151" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C151" s="23" t="s">
+      <c r="C151" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="D151" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="21" customHeight="1">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="21" customHeight="1">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="21" customHeight="1">
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="21" customHeight="1">
-      <c r="C155" s="9" t="s">
+    <row r="155" spans="1:6" ht="13.5">
+      <c r="C155" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="19" customFormat="1" ht="13.5">
-      <c r="E157" s="19" t="s">
+    <row r="156" spans="1:6" ht="13.5"/>
+    <row r="157" spans="1:6" s="15" customFormat="1" ht="13.5">
+      <c r="E157" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F157" s="19" t="s">
+      <c r="F157" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="19" customFormat="1" ht="13.5">
-      <c r="E158" s="19" t="s">
+    <row r="158" spans="1:6" s="15" customFormat="1" ht="13.5">
+      <c r="E158" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F158" s="19" t="s">
+      <c r="F158" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="21" customHeight="1">
-      <c r="A164" s="6" t="s">
+    <row r="159" spans="1:6" ht="13.5"/>
+    <row r="160" spans="1:6" ht="13.5"/>
+    <row r="161" spans="1:5" ht="13.5"/>
+    <row r="162" spans="1:5" ht="13.5"/>
+    <row r="163" spans="1:5" ht="13.5"/>
+    <row r="164" spans="1:5" ht="13.5">
+      <c r="A164" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="21" customHeight="1">
-      <c r="A165" s="6" t="s">
+    <row r="165" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A165" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="21" customHeight="1">
-      <c r="C166" s="9" t="s">
+    <row r="166" spans="1:5" ht="21.75" customHeight="1">
+      <c r="B166" s="28"/>
+      <c r="C166" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="21" customHeight="1">
-      <c r="A167" s="6" t="s">
+    <row r="167" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A167" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="21" customHeight="1">
-      <c r="C168" s="9" t="s">
+    <row r="168" spans="1:5" ht="21.75" customHeight="1">
+      <c r="B168" s="28"/>
+      <c r="C168" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="21" customHeight="1">
-      <c r="A171" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C171" s="45" t="s">
+    <row r="169" spans="1:5" ht="13.5"/>
+    <row r="170" spans="1:5" ht="13.5"/>
+    <row r="171" spans="1:5" ht="15">
+      <c r="A171" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171" s="47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="13.5">
+      <c r="C172" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="D172" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="E172" s="49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="21" customHeight="1">
+      <c r="E173" s="49" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="21" customHeight="1">
-      <c r="C172" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="D172" s="46" t="s">
+    <row r="174" spans="1:5" ht="21" customHeight="1">
+      <c r="C174" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="E172" s="46" t="s">
+    </row>
+    <row r="175" spans="1:5" ht="21" customHeight="1">
+      <c r="C175" s="50" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="21" customHeight="1">
-      <c r="E173" s="46" t="s">
+      <c r="D175" s="51" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="21" customHeight="1">
-      <c r="C174" s="45" t="s">
+      <c r="E175" s="52" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="21" customHeight="1">
+      <c r="C176" s="53"/>
+      <c r="D176" s="54" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="21" customHeight="1">
-      <c r="C175" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="D175" s="46" t="s">
+      <c r="E176" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="E175" s="46" t="s">
+    </row>
+    <row r="177" spans="3:5" ht="21" customHeight="1">
+      <c r="C177" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="D177" s="56" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="21" customHeight="1">
-      <c r="D176" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="E176" s="46" t="s">
+      <c r="E177" s="57" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="177" spans="3:5" ht="21" customHeight="1">
-      <c r="C177" s="47" t="s">
+    <row r="178" spans="3:5" ht="21" customHeight="1">
+      <c r="C178" s="53"/>
+      <c r="D178" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="E178" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="D177" s="46" t="s">
+    </row>
+    <row r="179" spans="3:5" ht="21" customHeight="1">
+      <c r="C179" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="E177" s="46" t="s">
+      <c r="D179" s="51" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="178" spans="3:5" ht="21" customHeight="1">
-      <c r="D178" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="E178" s="46" t="s">
+      <c r="E179" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" ht="21" customHeight="1">
+      <c r="C180" s="53"/>
+      <c r="D180" s="54" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="179" spans="3:5" ht="21" customHeight="1">
-      <c r="C179" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="D179" s="46" t="s">
+      <c r="E180" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="E179" s="46" t="s">
+    </row>
+    <row r="181" spans="3:5" ht="21" customHeight="1">
+      <c r="C181" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="D181" s="56" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="180" spans="3:5" ht="21" customHeight="1">
-      <c r="D180" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="E180" s="46" t="s">
+      <c r="E181" s="57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" ht="21" customHeight="1">
+      <c r="C182" s="58"/>
+      <c r="D182" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="E182" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" ht="21" customHeight="1">
+      <c r="C183" s="53"/>
+      <c r="D183" s="54" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="181" spans="3:5" ht="21" customHeight="1">
-      <c r="C181" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="D181" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="E181" s="46" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5" ht="21" customHeight="1">
-      <c r="D182" s="46" t="s">
+      <c r="E183" s="61"/>
+    </row>
+    <row r="184" spans="3:5" ht="21" customHeight="1">
+      <c r="C184" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="E182" s="46" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5" ht="21" customHeight="1">
-      <c r="D183" s="46" t="s">
+      <c r="D184" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="E184" s="57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" ht="21" customHeight="1">
+      <c r="C185" s="58"/>
+      <c r="D185" s="62" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="184" spans="3:5" ht="21" customHeight="1">
-      <c r="D184" s="46" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5" ht="21" customHeight="1">
-      <c r="D185" s="46" t="s">
+      <c r="E185" s="60" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="186" spans="3:5" ht="21" customHeight="1">
-      <c r="D186" s="46" t="s">
+      <c r="C186" s="53"/>
+      <c r="D186" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="E186" s="55" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="187" spans="3:5" ht="21" customHeight="1">
       <c r="C187" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="D187" s="63"/>
+    </row>
+    <row r="188" spans="3:5" ht="21" customHeight="1">
+      <c r="C188" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D188" s="49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" ht="21" customHeight="1">
+      <c r="C189" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="D187" s="46" t="s">
+      <c r="D189" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="E187" s="46" t="s">
+    </row>
+    <row r="190" spans="3:5" ht="21" customHeight="1">
+      <c r="C190" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D190" s="49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" ht="21" customHeight="1">
+      <c r="C191" s="48" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="188" spans="3:5" ht="21" customHeight="1">
-      <c r="D188" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="E188" s="46" t="s">
+      <c r="D191" s="49" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="189" spans="3:5" ht="21" customHeight="1">
-      <c r="D189" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="E189" s="46" t="s">
+    <row r="192" spans="3:5" ht="21" customHeight="1">
+      <c r="C192" s="48" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="190" spans="3:5" ht="21" customHeight="1">
-      <c r="C190" s="45" t="s">
+      <c r="D192" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="D190"/>
-    </row>
-    <row r="191" spans="3:5" ht="21" customHeight="1">
-      <c r="C191" s="46" t="s">
+    </row>
+    <row r="193" spans="3:4" ht="21" customHeight="1">
+      <c r="C193" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="D191" s="46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5" ht="21" customHeight="1">
-      <c r="C192" s="46" t="s">
+      <c r="D193" s="63"/>
+    </row>
+    <row r="194" spans="3:4" ht="21" customHeight="1">
+      <c r="C194" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="D192" s="46" t="s">
+      <c r="D194" s="49" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="193" spans="3:4" ht="21" customHeight="1">
-      <c r="C193" s="46" t="s">
+    <row r="195" spans="3:4" ht="21" customHeight="1">
+      <c r="C195" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="D193" s="46" t="s">
+      <c r="D195" s="49" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="194" spans="3:4" ht="21" customHeight="1">
-      <c r="C194" s="46" t="s">
+    <row r="196" spans="3:4" ht="21" customHeight="1">
+      <c r="C196" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="D194" s="46" t="s">
+      <c r="D196" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="195" spans="3:4" ht="21" customHeight="1">
-      <c r="C195" s="46" t="s">
+    <row r="197" spans="3:4" ht="21" customHeight="1">
+      <c r="C197" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="D195" s="46" t="s">
+      <c r="D197" s="49" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="196" spans="3:4" ht="21" customHeight="1">
-      <c r="C196" s="45" t="s">
+    <row r="198" spans="3:4" ht="21" customHeight="1">
+      <c r="C198" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="D196"/>
-    </row>
-    <row r="197" spans="3:4" ht="21" customHeight="1">
-      <c r="C197" s="46" t="s">
+      <c r="D198" s="63"/>
+    </row>
+    <row r="199" spans="3:4" ht="21" customHeight="1">
+      <c r="C199" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="D197" s="46" t="s">
+      <c r="D199" s="63"/>
+    </row>
+    <row r="200" spans="3:4" ht="21" customHeight="1">
+      <c r="C200" s="48" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="198" spans="3:4" ht="21" customHeight="1">
-      <c r="C198" s="46" t="s">
+      <c r="D200" s="63"/>
+    </row>
+    <row r="201" spans="3:4" ht="21" customHeight="1">
+      <c r="C201" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="D198" s="46" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="199" spans="3:4" ht="21" customHeight="1">
-      <c r="C199" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="D199" s="46" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="200" spans="3:4" ht="21" customHeight="1">
-      <c r="C200" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="D200" s="46" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="201" spans="3:4" ht="21" customHeight="1">
-      <c r="C201" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="D201"/>
-    </row>
-    <row r="202" spans="3:4" ht="21" customHeight="1">
-      <c r="C202" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="D202"/>
-    </row>
-    <row r="203" spans="3:4" ht="21" customHeight="1">
-      <c r="C203" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="D203"/>
-    </row>
-    <row r="204" spans="3:4" ht="21" customHeight="1">
-      <c r="C204" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="D204"/>
+      <c r="D201" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="B119:C123"/>
-    <mergeCell ref="F67:F72"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="B120:C124"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="C94:C99"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H199"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="C54" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="30" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="80" style="4" customWidth="1"/>
+    <col min="5" max="5" width="63.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="21" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1">
+      <c r="C15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1">
+      <c r="C16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1">
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1">
+      <c r="C18" s="10"/>
+      <c r="D18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="121.5">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" s="15" customFormat="1" ht="13.5">
+      <c r="C21" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="15" customFormat="1" ht="13.5">
+      <c r="C22" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D24" s="20"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" s="15" customFormat="1" ht="154.5" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="15" customFormat="1" ht="154.5" customHeight="1">
+      <c r="B26" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="16"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" customHeight="1">
+      <c r="B27" s="10"/>
+      <c r="C27" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1">
+      <c r="B28" s="16"/>
+      <c r="C28" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="30" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="31" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="32" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="33" spans="1:8" s="15" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A33" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="15" customFormat="1" ht="40.5" customHeight="1"/>
+    <row r="35" spans="1:8" ht="13.5">
+      <c r="B35" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.5">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="48.75" customHeight="1">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" ht="21" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="113.25" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="192" customHeight="1">
+      <c r="D40" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="21" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="21" customHeight="1">
+      <c r="B44" s="27"/>
+      <c r="C44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="21" customHeight="1">
+      <c r="B45" s="27"/>
+      <c r="C45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="21" customHeight="1">
+      <c r="B46" s="28"/>
+      <c r="C46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="21" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="21" customHeight="1">
+      <c r="B48" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21" customHeight="1">
+      <c r="B49" s="28"/>
+      <c r="C49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="54">
+      <c r="B50" s="18"/>
+      <c r="C50" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" s="31"/>
+    </row>
+    <row r="51" spans="1:5" ht="121.5">
+      <c r="B51" s="18"/>
+      <c r="C51" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" spans="1:5" ht="81">
+      <c r="B52" s="18"/>
+      <c r="C52" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="67.5">
+      <c r="B53" s="18"/>
+      <c r="C53" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="94.5">
+      <c r="B54" s="18"/>
+      <c r="C54" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="94.5">
+      <c r="B55" s="18"/>
+      <c r="C55" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21" customHeight="1">
+      <c r="B56" s="18"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="107.25" customHeight="1">
+      <c r="B57" s="18"/>
+      <c r="C57" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45.75" customHeight="1">
+      <c r="B58" s="18"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:5" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+    </row>
+    <row r="60" spans="1:5" ht="21" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21" customHeight="1">
+      <c r="B61" s="27"/>
+      <c r="C61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21" customHeight="1">
+      <c r="B62" s="27"/>
+      <c r="C62" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="21" customHeight="1">
+      <c r="B63" s="27"/>
+      <c r="C63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="21" customHeight="1">
+      <c r="B64" s="28"/>
+      <c r="C64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="21" customHeight="1">
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+    </row>
+    <row r="66" spans="1:6" ht="150.75" customHeight="1">
+      <c r="A66" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="21" customHeight="1">
+      <c r="B67" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="F67" s="33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="21" customHeight="1">
+      <c r="B68" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="F68" s="33"/>
+    </row>
+    <row r="69" spans="1:6" ht="21" customHeight="1">
+      <c r="C69" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="35"/>
+    </row>
+    <row r="70" spans="1:6" ht="21" customHeight="1">
+      <c r="C70" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="35"/>
+    </row>
+    <row r="71" spans="1:6" ht="21" customHeight="1">
+      <c r="B71" s="18"/>
+      <c r="C71" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" s="35"/>
+    </row>
+    <row r="72" spans="1:6" ht="21" customHeight="1">
+      <c r="B72" s="18"/>
+      <c r="C72" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" s="35"/>
+    </row>
+    <row r="73" spans="1:6" ht="21" customHeight="1">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+    </row>
+    <row r="74" spans="1:6" ht="21" customHeight="1">
+      <c r="B74" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="21" customHeight="1">
+      <c r="C75" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="21" customHeight="1">
+      <c r="B76" s="18"/>
+      <c r="C76" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="21" customHeight="1">
+      <c r="B77" s="18"/>
+      <c r="C77" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" s="37"/>
+    </row>
+    <row r="78" spans="1:6" ht="21" customHeight="1">
+      <c r="B78" s="18"/>
+      <c r="C78" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="37"/>
+    </row>
+    <row r="79" spans="1:6" ht="21" customHeight="1">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+    </row>
+    <row r="80" spans="1:6" ht="21" customHeight="1">
+      <c r="B80" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="21" customHeight="1">
+      <c r="C81" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="21" customHeight="1">
+      <c r="B82" s="18"/>
+      <c r="C82" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F82" s="37"/>
+    </row>
+    <row r="83" spans="2:6" ht="21" customHeight="1">
+      <c r="B83" s="18"/>
+      <c r="C83" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F83" s="37"/>
+    </row>
+    <row r="84" spans="2:6" ht="21" customHeight="1">
+      <c r="B84" s="18"/>
+      <c r="C84" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F84" s="37"/>
+    </row>
+    <row r="85" spans="2:6" ht="21" customHeight="1">
+      <c r="B85" s="18"/>
+      <c r="C85" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85" s="37"/>
+    </row>
+    <row r="86" spans="2:6" ht="21" customHeight="1">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+    </row>
+    <row r="87" spans="2:6" ht="21" customHeight="1">
+      <c r="B87" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="21" customHeight="1">
+      <c r="C88" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="21" customHeight="1">
+      <c r="C89" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F89" s="37"/>
+    </row>
+    <row r="90" spans="2:6" ht="21" customHeight="1">
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+    </row>
+    <row r="91" spans="2:6" ht="21" customHeight="1">
+      <c r="B91" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" s="18"/>
+    </row>
+    <row r="92" spans="2:6" ht="21" customHeight="1">
+      <c r="B92" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="21" customHeight="1">
+      <c r="B93" s="37"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="21" customHeight="1">
+      <c r="B94" s="37"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="21" customHeight="1">
+      <c r="B95" s="37"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="21" customHeight="1">
+      <c r="B96" s="37"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="21" customHeight="1">
+      <c r="B97" s="37"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="18"/>
+    </row>
+    <row r="98" spans="2:4" ht="21" customHeight="1">
+      <c r="B98" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="D98" s="18"/>
+    </row>
+    <row r="99" spans="2:4" ht="21" customHeight="1">
+      <c r="C99" s="42"/>
+      <c r="D99" s="18"/>
+    </row>
+    <row r="100" spans="2:4" ht="21" customHeight="1">
+      <c r="C100" s="42"/>
+      <c r="D100" s="18"/>
+    </row>
+    <row r="101" spans="2:4" ht="21" customHeight="1">
+      <c r="C101" s="42"/>
+      <c r="D101" s="18"/>
+    </row>
+    <row r="102" spans="2:4" ht="21" customHeight="1">
+      <c r="C102" s="42"/>
+      <c r="D102" s="18"/>
+    </row>
+    <row r="103" spans="2:4" ht="21" customHeight="1">
+      <c r="C103" s="42"/>
+      <c r="D103" s="18"/>
+    </row>
+    <row r="104" spans="2:4" ht="21" customHeight="1">
+      <c r="B104" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="D104" s="18"/>
+    </row>
+    <row r="105" spans="2:4" ht="21" customHeight="1">
+      <c r="C105" s="42"/>
+      <c r="D105" s="18"/>
+    </row>
+    <row r="106" spans="2:4" ht="21" customHeight="1">
+      <c r="C106" s="42"/>
+      <c r="D106" s="18"/>
+    </row>
+    <row r="107" spans="2:4" ht="21" customHeight="1">
+      <c r="C107" s="42"/>
+      <c r="D107" s="18"/>
+    </row>
+    <row r="108" spans="2:4" ht="33" customHeight="1">
+      <c r="C108" s="42"/>
+      <c r="D108" s="18"/>
+    </row>
+    <row r="109" spans="2:4" ht="21" customHeight="1">
+      <c r="B109" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" s="18"/>
+    </row>
+    <row r="110" spans="2:4" ht="21" customHeight="1">
+      <c r="C110" s="42"/>
+      <c r="D110" s="18"/>
+    </row>
+    <row r="111" spans="2:4" ht="21" customHeight="1">
+      <c r="C111" s="42"/>
+      <c r="D111" s="18"/>
+    </row>
+    <row r="112" spans="2:4" ht="21" customHeight="1">
+      <c r="C112" s="42"/>
+      <c r="D112" s="18"/>
+    </row>
+    <row r="113" spans="1:4" ht="21" customHeight="1">
+      <c r="C113" s="42"/>
+      <c r="D113" s="18"/>
+    </row>
+    <row r="114" spans="1:4" ht="21" customHeight="1">
+      <c r="B114" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C114" s="43"/>
+      <c r="D114" s="18"/>
+    </row>
+    <row r="115" spans="1:4" ht="21" customHeight="1">
+      <c r="B115" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" s="43"/>
+      <c r="D115" s="18"/>
+    </row>
+    <row r="116" spans="1:4" ht="21" customHeight="1">
+      <c r="B116" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C116" s="43"/>
+      <c r="D116" s="18"/>
+    </row>
+    <row r="117" spans="1:4" ht="21" customHeight="1">
+      <c r="B117" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" s="43"/>
+      <c r="D117" s="18"/>
+    </row>
+    <row r="118" spans="1:4" ht="21" customHeight="1">
+      <c r="B118" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" s="37"/>
+      <c r="D118" s="18"/>
+    </row>
+    <row r="119" spans="1:4" ht="21" customHeight="1">
+      <c r="B119" s="37"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="18"/>
+    </row>
+    <row r="120" spans="1:4" ht="21" customHeight="1">
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="18"/>
+    </row>
+    <row r="121" spans="1:4" ht="21" customHeight="1">
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="18"/>
+    </row>
+    <row r="122" spans="1:4" ht="21" customHeight="1">
+      <c r="B122" s="37"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="18"/>
+    </row>
+    <row r="123" spans="1:4" ht="21" customHeight="1">
+      <c r="A123" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="21" customHeight="1">
+      <c r="B124" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="21" customHeight="1">
+      <c r="B125" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="21" customHeight="1">
+      <c r="B126" s="15"/>
+    </row>
+    <row r="127" spans="1:4" ht="21" customHeight="1">
+      <c r="B127" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="21" customHeight="1">
+      <c r="B128" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="28.5" customHeight="1">
+      <c r="B129" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="40.5" customHeight="1">
+      <c r="B130" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="32.25" customHeight="1">
+      <c r="B131" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="21" customHeight="1">
+      <c r="B132" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="21" customHeight="1">
+      <c r="B133" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="21" customHeight="1">
+      <c r="B134" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="21" customHeight="1">
+      <c r="B135" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="21" customHeight="1">
+      <c r="A138" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="21" customHeight="1">
+      <c r="B139" s="28"/>
+      <c r="C139" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+    </row>
+    <row r="141" spans="1:4" ht="21" customHeight="1">
+      <c r="A141" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="21" customHeight="1">
+      <c r="B142" s="27"/>
+      <c r="C142" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21" customHeight="1">
+      <c r="B143" s="27"/>
+      <c r="C143" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="21" customHeight="1">
+      <c r="B144" s="28"/>
+      <c r="C144" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="21" customHeight="1">
+      <c r="A145" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="15" customFormat="1" ht="27">
+      <c r="A146" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C146" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E146" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="21" customHeight="1">
+      <c r="A147" s="15"/>
+      <c r="B147" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="21" customHeight="1">
+      <c r="A148" s="15"/>
+      <c r="B148" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A149" s="15"/>
+      <c r="B149" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C149" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="21" customHeight="1">
+      <c r="A150" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="21" customHeight="1">
+      <c r="A151" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="21" customHeight="1">
+      <c r="C152" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="13.5">
+      <c r="C153" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="13.5"/>
+    <row r="155" spans="1:6" s="15" customFormat="1" ht="13.5">
+      <c r="E155" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="15" customFormat="1" ht="13.5">
+      <c r="E156" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="13.5"/>
+    <row r="158" spans="1:6" ht="13.5"/>
+    <row r="159" spans="1:6" ht="13.5"/>
+    <row r="160" spans="1:6" ht="13.5"/>
+    <row r="161" spans="1:5" ht="13.5"/>
+    <row r="162" spans="1:5" ht="13.5">
+      <c r="A162" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A163" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B163" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C163" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="21.75" customHeight="1">
+      <c r="B164" s="28"/>
+      <c r="C164" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A165" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B165" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="21.75" customHeight="1">
+      <c r="B166" s="28"/>
+      <c r="C166" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="13.5"/>
+    <row r="168" spans="1:5" ht="13.5"/>
+    <row r="169" spans="1:5" ht="15">
+      <c r="A169" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C169" s="47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="13.5">
+      <c r="C170" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="D170" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="E170" s="49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="21" customHeight="1">
+      <c r="E171" s="49" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="21" customHeight="1">
+      <c r="C172" s="47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="21" customHeight="1">
+      <c r="C173" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="D173" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="E173" s="52" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="21" customHeight="1">
+      <c r="C174" s="53"/>
+      <c r="D174" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="E174" s="55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="21" customHeight="1">
+      <c r="C175" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="D175" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="E175" s="57" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="21" customHeight="1">
+      <c r="C176" s="53"/>
+      <c r="D176" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="E176" s="55" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" ht="21" customHeight="1">
+      <c r="C177" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="D177" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="E177" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" ht="21" customHeight="1">
+      <c r="C178" s="53"/>
+      <c r="D178" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="E178" s="55" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" ht="21" customHeight="1">
+      <c r="C179" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="D179" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="E179" s="57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" ht="21" customHeight="1">
+      <c r="C180" s="58"/>
+      <c r="D180" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="E180" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" ht="21" customHeight="1">
+      <c r="C181" s="53"/>
+      <c r="D181" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="E181" s="61"/>
+    </row>
+    <row r="182" spans="3:5" ht="21" customHeight="1">
+      <c r="C182" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="D182" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="E182" s="57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" ht="21" customHeight="1">
+      <c r="C183" s="58"/>
+      <c r="D183" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="E183" s="60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" ht="21" customHeight="1">
+      <c r="C184" s="53"/>
+      <c r="D184" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="E184" s="55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" ht="21" customHeight="1">
+      <c r="C185" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="D185" s="63"/>
+    </row>
+    <row r="186" spans="3:5" ht="21" customHeight="1">
+      <c r="C186" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D186" s="49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" ht="21" customHeight="1">
+      <c r="C187" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="D187" s="49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" ht="21" customHeight="1">
+      <c r="C188" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D188" s="49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" ht="21" customHeight="1">
+      <c r="C189" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="D189" s="49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" ht="21" customHeight="1">
+      <c r="C190" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="D190" s="49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" ht="21" customHeight="1">
+      <c r="C191" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D191" s="63"/>
+    </row>
+    <row r="192" spans="3:5" ht="21" customHeight="1">
+      <c r="C192" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="D192" s="49" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" ht="21" customHeight="1">
+      <c r="C193" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D193" s="49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" ht="21" customHeight="1">
+      <c r="C194" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D194" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" ht="21" customHeight="1">
+      <c r="C195" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D195" s="49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" ht="21" customHeight="1">
+      <c r="C196" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="D196" s="63"/>
+    </row>
+    <row r="197" spans="3:4" ht="21" customHeight="1">
+      <c r="C197" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D197" s="63"/>
+    </row>
+    <row r="198" spans="3:4" ht="21" customHeight="1">
+      <c r="C198" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D198" s="63"/>
+    </row>
+    <row r="199" spans="3:4" ht="21" customHeight="1">
+      <c r="C199" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="D199" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C98:C103"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="B118:C122"/>
+    <mergeCell ref="F67:F72"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="C92:C97"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4956,66 +6968,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="164.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="117.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="164.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="117.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="40.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="54">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5026,8 +7038,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\maruaican\beginner_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E3E4F-81D1-4683-88E7-947A9B2A8E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="440"/>
   </bookViews>
   <sheets>
-    <sheet name="SQL構文一覧 (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="SQL構文一覧" sheetId="1" r:id="rId2"/>
-    <sheet name="ai_studio_code_sjisx" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="SQL構文一覧 (3)" sheetId="5" r:id="rId1"/>
+    <sheet name="SQL構文一覧 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="SQL構文一覧" sheetId="1" r:id="rId3"/>
+    <sheet name="ai_studio_code_sjisx" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">SQL構文一覧!$A$11:$G$208</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'SQL構文一覧 (2)'!$A$11:$G$210</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">SQL構文一覧!$A$11:$G$208</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'SQL構文一覧 (2)'!$A$11:$F$197</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="482">
   <si>
     <t>分類</t>
   </si>
@@ -2757,12 +2758,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>WHERE &lt;カラム名&gt; IN ( ①&lt;値のリスト&gt; または ②&lt;サブクエリ&gt; )
-または、
-WHERE &lt;カラム名&gt;　NOT　 IN (① &lt;値のリスト&gt; または② &lt;サブクエリ&gt; )</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>①
 SELECT　  カラム名1, カラム名2, ...　FROM　  テーブル名
 WHERE　  カラム名 IN (値1, 値2, 値3, ...);</t>
@@ -2775,78 +2770,1852 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>**注意点: `NOT IN` と `NULL`**
-サブクエリが`NULL`を返す可能性がある場合、`NOT IN`は意図しない結果になることがあります。サブクエリの結果に1つでも`NULL`が含まれていると、`NOT IN`句全体の結果が1行も返されなくなります。これは、SQLが `(値) NOT IN (値1, 値2, NULL)` を正しく評価できないためです。
-これを避けるためには、サブクエリ側で `WHERE user_id IS NOT NULL` のようにして`NULL`を予め除外する必要があります。</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t xml:space="preserve">・WHERE：この後には条件式
 ・属性 IN (カラムまたはリスト) がWHEREの条件式になる
 </t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>WHERE user_id IS NOT NULについて
-WHERE:この後には条件式
- user_id IS NOT NULL：条件式　※
-※price &gt;= 100 → 条件式
-name = '田中' → 条件式
-user_id IS NOT NULL → 条件式　と同じ理屈。ただし、集約関数は使えない。なぜなら、WHEREは、集約関数より先に実行されるから。</t>
-    <rPh sb="37" eb="38">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="40" eb="43">
+    <t xml:space="preserve">FOREIGN KEY (属性名) REFERENCES 参照テーブル名(参照属性名)
+※（属性名）となることに注意
+</t>
+    <rPh sb="46" eb="48">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">既存の表の定義（列の追加・削除・変更など）を変更する。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">表をデータごと完全に削除する。元に戻せない。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前日の売上との比較、前回購入日からの経過日数計算
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">次のキャンペーン開始日までの日数計算
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">各従業員の給与と、その部署で最も給与が高い人の給与を比較 ※
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">部署内で2番目に給与が高い人の給与を全行に表示
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">各従業員の給与と、その部署で最も給与が低い人の給与を比較
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  sales_month,
+  monthly_sales,
+  SUM(monthly_sales) OVER(ORDER BY sales_month) AS cumulative_sales
+FROM sales;
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">累積分布。自分を含め、自分以下の値の行が全体に占める割合を計算する。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パーセントランク。自分より小さい値の行が全体に占める割合を計算する。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パーティション内での相対的な位置を、0から1の間の小数で示します。統計的な分析に使われます。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">累計（例：月ごとの売上累計）、合計値の併記
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">移動平均（例：過去3日間の平均売上）、全体の平均値との比較
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">条件に合う行の累計カウント、パーティション内の行数、（＊）は全行数を数える。
+</t>
+    <rPh sb="30" eb="33">
+      <t>ゼンギョウスウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カゾ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パーティション内の最大値・最小値との比較
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUP BYで使う集計関数を、ウィンドウ関数として利用するものです。行を集約せず、各行に対して計算結果を返します。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ウィンドウ関数：拡張された集約関数
+・集約関数が GROUP BY でデータを要約してしまうが、ウィンドウ関数は元の行を維持したまま、各行に対してその行に関連するウィンドウ内のデータを用いて計算結果を返す。
+　これにより、元の行の情報を保ちつつ、複雑な分析が可能になります。
+・一時的
+・使用できるのは、SELECT、ORDER　BYのみ。
+</t>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウヤク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウヤク</t>
+    </rPh>
+    <rPh sb="139" eb="142">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CTE (共通テーブル式・WITH句)
+・サブクエリだと同じSELECT文を何度も書く必要がありますが、CTEなら一度定義すれば、何度でもその名前で参照できます。
+・このクエリで勝手に消えるのでデータベースに「ゴミ」が残らない。使い捨て。管理コストゼロ。
+</t>
+    <rPh sb="17" eb="18">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE 社員 (
+    社員ID   CHAR(5)     PRIMARY KEY,
+    社員名   VARCHAR(50) NOT NULL,
+    メール   VARCHAR(100) UNIQUE,
+    給与     INT,
+    部署ID   CHAR(4),
+    FOREIGN KEY (部署ID) REFERENCES 部署(部署ID), 
+    CHECK (給与 &gt; 0)
+);
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE 社員 (社員ID INT PRIMARY KEY, 社員名 VARCHAR(50), 部署ID INT)
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VIEW作成
+【VIEWとWITH句（CTE）は、どちらも「SELECT文に名前を付けて、複雑なクエリの可読性を高める」という共通の目的】
+※違い
+VIEW：永続性あり。どこからでも参照可。⇒何度も繰り返されて参照される場合。
+WITH：一時的。単一のSQL文からだけ。
+</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>エイゾクセイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER VIEWE (変更)
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP VIEW　（削除）
+</t>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【２　再帰的な使用方法】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WITH RECURSIVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再帰CTE名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; (列リスト)　※再帰CTEを定義することを宣言
+ AS (
+  -- 1. アンカーメンバー (初期化クエリ)　※再帰の初期値となるSELECT文
+  SELECT ...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  UNION ALL　　※アンカーと再帰を結合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  -- 2. 再帰メンバー (再帰クエリ)　　　　※CTEを自己参照するSELECT文
+  SELECT ... FROM &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再帰CTE名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; ...
+)
+SELECT * FROM &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再帰CTE名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;;
+</t>
+    </r>
+    <rPh sb="3" eb="6">
+      <t>サイキテキ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シヨウホウホウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="186" eb="190">
+      <t>ジコサンショウ</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 部署ID, COUNT(*) FROM 社員 GROUP BY 部署ID HAVING COUNT(*) &gt; 5
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLにおいて、WHERE句、GROUP BY句、HAVING句は、テーブルから特定の条件でデータを抽出、集計する際に重要な役割を果たします。これらの句は記述する順序が決まっており、それぞれの役割とデータベース内部での処理順序を理解することが、正しいクエリを作成する上で不可欠です。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLクエリでは、以下の順序で句を記述するのが基本です。
+1. SELECT: 取得する列を指定します。
+2. FROM: 対象となるテーブルを指定します。
+3. WHERE: データをグループ化する前に、個々の行に対して適用する絞り込み条件を指定します。
+4. GROUP BY: 指定した列の値が同じ行をグループ化します。
+5. HAVING: GROUP BY句でグループ化された後に、そのグループに対して適用する絞り込み条件を指定します。
+6. ORDER BY: 最終的な結果セットを並べ替えます。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>役割: GROUP BYで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グループ化される前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の、テーブルの個々の行に対して条件を指定し、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フィルタリング（絞り込み）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">を行います。
+処理タイミング: FROM句でテーブルが読み込まれた直後に適用されます。
+特徴: 集計関数（SUM(), COUNT(), AVG()など）を条件式に使うことはできません。これは、WHERE句の処理段階ではまだ集計が行われていないためです。
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">役割: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE句で絞り込まれた行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を、指定した列の値に基づいて</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グループ化します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+処理タイミング: WHERE句による</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フィルタリングの後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">に実行されます。
+特徴: SUM()やCOUNT()などの集計関数と組み合わせて使うことで、グループごとの合計値や行数などを計算できます。
+</t>
+    </r>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>データベースは、以下のステップで処理を進めていきます。
+1. FROM: 表示する属性のテーブルを選択。
+2. WHERE: 次に、そのテーブルの各行をチェックし、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>絞り込み（１回目）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. GROUP BY: WHERE句で絞り込まれた行を、指定された列の値で</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グループ化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>します。
+4. HAVING: 最後に、作られた</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>グループ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に対して条件を適用し、さらに、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>絞り込み（２回目）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. SELECT: 最終的に残ったグループのデータを取得し、結果として返します。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>搾りかすを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・WHERE：この後には条件式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・EXISTS（サブクエリ）：条件式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。サブクエリの結果が存在するか否かを判定する。
+・ サブクエリのSELECT句に指定するカラムは何でもよく、SELECT *やSELECT 1、SELECT NULLなどが慣例的に使われます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">・サブクエリ内の条件式が成立するもの（NOTは、成立しないものを抜粋）が、メインクエリのSELECT文で表示される。
+</t>
+    </r>
+    <rPh sb="136" eb="137">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="138" eb="141">
       <t>ジョウケンシキ</t>
     </rPh>
-    <rPh sb="65" eb="68">
-      <t>ジョウケンシキ</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>リクツ</t>
-    </rPh>
-    <rPh sb="146" eb="150">
-      <t>シュウヤクカンスウ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="168" eb="172">
-      <t>シュウヤクカンスウ</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>【SQLの処理の順序】
+    <rPh sb="142" eb="144">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>バッスイ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">**注意点: `NOT IN` と `NULL`**
+サブクエリが`NULL`を返す可能性がある場合、`NOT IN`は意図しない結果になることがあります。サブクエリの結果に1つでも`NULL`が含まれていると、`NOT IN`句全体の結果が1行も返されなくなります。これは、SQLが `(値) NOT IN (値1, 値2, NULL)` を正しく評価できないためです。
+これを避けるためには、サブクエリ側で `WHERE user_id IS NOT NULL` のようにして`NULL`を予め除外する必要があります。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【SQLの処理の順序】
 １　FROM: どのテーブルからデータを取得するかを決定します。
 ２　WHERE: テーブルの一行一行をスキャンし、条件に合わない行をこの時点で除外します。
 ３　GROUP BY: WHERE句で絞り込まれた後の行を、指定されたカラムでグループ化します。
 ４　集約関数の計算: SUM()やCOUNT()などが、グループ化された各グループに対して計算されます。
 ５　HAVING: 集約関数で計算された後のグループに対して条件を指定し、合わないグループを除外します。
 ６　SELECT: 最終的にどのカラムを表示するかを決定します。
-７　ORDER BY: 結果を並び替えます。</t>
+７　ORDER BY: 結果を並び替えます。
+</t>
     <rPh sb="5" eb="7">
       <t>ショリ</t>
     </rPh>
     <rPh sb="8" eb="10">
       <t>ジュンジョ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">指定した順序に基づいて、各行に順位を割り振ります。ORDER BY句が必須です。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ROW_NUMBER()
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NTILE(n)
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一般的な「ランキング」でよく使われる。同率2位が2人いたら、次は4位になる。（1, 2, 2, 4, ...）
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">順位の欠番を作りたくない場合に使う。同率2位が2人いても、次は3位になる。（1, 2, 2, 3, ...）
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">フレーム指定句は、ROWS または RANGE を使って、計算範囲の開始位置と終了位置を定義します。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ROWS | RANGE} BETWEEN [開始位置] AND [終了位置]
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UNBOUNDED PRECEDING: フレームの先頭（パーティションの先頭）
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n PRECEDING: 現在の行からn行前
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRENT ROW: 現在の行
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n FOLLOWING: 現在の行からn行後
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UNBOUNDED FOLLOWING: フレームの最後（パーティションの最後）
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">? 副問い合わせ (サブクエリ)
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">? 共通テーブル式 (CTE)
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">副問い合わせ
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スカラ副問い合わせ
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テーブル副問い合わせ（FROM句のサブクエリ）
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">相関副問い合わせ
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">集合演算
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">表結合の理解
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">集計処理
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">トランザクション制御
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">複数の表を結合
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFT JOIN
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BEGIN TRANSACTION;
+START TRANSACTION;
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コミット
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ロールバック
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SAVEPOINT ポイント名;
+ROLLBACK TO ポイント名;
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">外部キー参照
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">副問い合わせによる条件指定
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">グループ化＋HAVING
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザーに対して、表への操作権限などを付与する。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザーから権限を剥奪する。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正：HAVING COUNT(*) &gt; 3
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">誤：WHERE COUNT(*) &gt; 3
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正：IS NULL
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">誤：= NULL
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT DISTINCT 都道府県
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM 顧客;
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT COUNT(DISTINCT 顧客ID) AS 顧客数
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM 注文;
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT *
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE 顧客ID LIKE 'A%';
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">都道府県
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM 顧客
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 都道府県;
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>重複排除か、単純な一覧取得か</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTINCTはシンプルな構文ながら、複数項目の扱いや集計との連携などで誤用が多い構文です。出題頻度は高くないものの、SQLの理解度を測るポイントとして問われやすいため、以下の２点に注意してください。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE INDEX 索引名 ON 表名 (列名
+・検索パフォーマンスを向上させるための索引を作成する。
+・索引を付けると検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(SELECT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は速くなるが、追加・更新・削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(INSERT/UPDATE/DELETE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">の性能は低下する場合がある。
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE VIEW ビュー名 AS SELECT ...;"
+特定の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文に名前を付けた仮想的な表。
+・メリット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>複雑な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を隠蔽、セキュリティ向上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>見せる列・行を制限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+・実データは持たない。</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CREATE TABLE 社員 (社員ID INT PRIMARY KEY, 社員名 VARCHAR(50))</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主キー制約　PRIMARY KEY
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL制約　NOT NULL
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIQUE制約　UNIQUE
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>外部キー制約　FOREIGN KEY　　　　REFERENCES</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">REVOKE 権限 ON オブジェクト FROM ユーザー;
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANT 権限 ON オブジェクト TO ユーザー;
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO 社員 (社員ID, 社員名, 部署ID) VALUES (101, '田中太郎', 2)
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE 社員 SET 給与 = 給与 * 1.05 WHERE 部署ID = 3
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE FROM 社員 WHERE 入社年 &lt; 2000
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE &lt;カラム名&gt; IN ( ①&lt;値のリスト&gt; または ②&lt;サブクエリ&gt; )
+または、
+WHERE &lt;カラム名&gt;　NOT　 IN (① &lt;値のリスト&gt; または② &lt;サブクエリ&gt; )
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE user_id IS NOT NULについて
+WHERE:この後には条件式
+ user_id IS NOT NULL：条件式　※
+※price &gt;= 100 → 条件式
+name = '田中' → 条件式
+user_id IS NOT NULL → 条件式　と同じ理屈。ただし、集約関数は使えない。なぜなら、WHEREは、集約関数より先に実行されるから。
+</t>
+    <rPh sb="37" eb="38">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ジョウケンシキ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ジョウケンシキ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>リクツ</t>
+    </rPh>
+    <rPh sb="146" eb="150">
+      <t>シュウヤクカンスウ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="168" eb="172">
+      <t>シュウヤクカンスウ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">現在の行を基準として、同じパーティション内の「前」「後」「最初」「最後」といった特定の位置にある行の値を取得します。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ROWS: </t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>RANGE:</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>「物理的な</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">」で範囲を指定します。2 PRECEDING は純粋に「2行前」を意味します。
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">」で範囲を指定します。ORDER BYで指定した列の値が同じ行は、まとめて1つの単位として扱われます。例えば給与でソートした場合、「自分と同じ給与の行」が範囲に含まれます。
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通常は ROWS の方が直感的に分かりやすく、よく使われます。
+RANGE は日付や給与など、同じ値が出現しうる場合に特定の計算をしたい時に使用します。
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTINCT：重複する行を除いて、異なる値だけを抽出するためのキーワード
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SELECT DISTINCT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 都道府県, 市区町村
+</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT DISTINCT </t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> COUNT(DISTINCT</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM (SELECT DISTINCT 顧客ID  FROM 注文) AS 一意顧客
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>FROM (SELECT DISTINCT</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>WHERE　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＜NOT＞　EXISTS</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>WHERE　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性　＜NOT&gt;　IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　＜リスト　OR　サブクエリ＞</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>②
+SELECT　  カラム名1, カラム名2, ...　FROM　  テーブル名
+WHERE　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> カラム名 IN ( SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　 カラム名　  FROM　 別のテーブル名　 WHERE　 条件式  );</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">①
+SELECT　カラム名1, カラム名2, ...　FROM　  テーブル名
+WHERE  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カラム名 IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (値1, 値2, 値3, ...);</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>WHERE＋条件式</t>
+    <rPh sb="6" eb="9">
+      <t>ジョウケンシキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>WHERE EXISTS　（相関サブクエリ）　※これ一択。完全固定。
+または、
+WHERE　NOT EXISTS（相関サブクエリ）</t>
+    <rPh sb="14" eb="16">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イッタク</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>カンゼンコテイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ソウカン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT　  カラム名1, カラム名2, ...
+FROM　  テーブル名1
+WHERE  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXISTS ( SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　  *　   FROM　   テーブル名2　   WHERE　   条件式 );
+※テーブルが２種類＝相関サブクエリ</t>
+    </r>
+    <rPh sb="113" eb="115">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ソウカン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・WHERE：この後には条件式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・EXISTS（サブクエリ）：条件式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。サブクエリの結果が存在するか否かを判定する。
+・ サブクエリのSELECT句に指定するカラムは何でもよく、SELECT *やSELECT 1、SELECT NULLなどが慣例的に使われます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・サブクエリ内の条件式が成立するもの（NOTは、成立しないものを抜粋）が、メインクエリのSELECT文で表示される。
+・【重要】EXISTSは、レコードが１行でも存在すれば（レコードがNULLや０でも良い）TRUEを返す。レコードの有無だけを問う。NOT　EXISTSは、レコードが０行のときにTRUEを返す。</t>
+    </r>
+    <rPh sb="136" eb="137">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="138" eb="141">
+      <t>ジョウケンシキ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>バッスイ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="251" eb="252">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="272" eb="273">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="282" eb="283">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT(*)：　標準的な書き方: SQLの標準仕様では、テーブル全体の行数を数える場合は COUNT(*) と記述するのが一般的で、推奨
+COUNT *　：非標準または古い書き方:
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>WHERE column_name IS NULL;      -- 値がNULLの行
+WHERE column_name IS NOT NULL;  -- 値がNULLでない行</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>WHERE　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性　IS　＜NOT&gt;　NULL</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>WHERE 属性 IS NULL は、それ自体で一つの条件式（述語）として完結しています。
+何がつなげるとすれば、ANDやORの論理演算子でつなげる
+SELECT *　FROM employees
+WHERE　   termination_date IS NULL  -- 条件1：退職日が設定されていない
+    　　　　　AND dept_id = 'D01';　　      -- 条件2：部署IDが'D01'</t>
+    <rPh sb="46" eb="47">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="64" eb="69">
+      <t>ロンリエンザンシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>１</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>２</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>３</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -3167,7 +4936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -3265,34 +5034,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3359,10 +5101,175 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3661,14 +5568,3317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC9D95-703F-4920-AFFA-5E5B1A2E7193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H201"/>
+  <dimension ref="A2:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F57" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A59" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="66" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="80" style="66" customWidth="1"/>
+    <col min="5" max="5" width="63.125" style="66" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="66" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="66" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="126">
+      <c r="A2" s="65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="67.5">
+      <c r="A3" s="66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27">
+      <c r="A5" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27">
+      <c r="A6" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27">
+      <c r="A7" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="70"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="70"/>
+    </row>
+    <row r="12" spans="1:5" ht="54">
+      <c r="A12" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27">
+      <c r="C13" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="40.5">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27">
+      <c r="C17" s="68"/>
+      <c r="D17" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="148.5">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="72"/>
+    </row>
+    <row r="19" spans="1:6" s="73" customFormat="1" ht="27">
+      <c r="C19" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="73" customFormat="1" ht="27">
+      <c r="C20" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="105" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="31" customFormat="1">
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" s="73" customFormat="1" ht="148.5">
+      <c r="A23" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>442</v>
+      </c>
+      <c r="F23" s="105"/>
+    </row>
+    <row r="24" spans="1:6" s="73" customFormat="1" ht="175.5">
+      <c r="B24" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="74"/>
+    </row>
+    <row r="25" spans="1:6" ht="27">
+      <c r="B25" s="68"/>
+      <c r="C25" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>377</v>
+      </c>
+      <c r="E25" s="68"/>
+    </row>
+    <row r="26" spans="1:6" s="73" customFormat="1" ht="27">
+      <c r="B26" s="74"/>
+      <c r="C26" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="106" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" s="74"/>
+    </row>
+    <row r="27" spans="1:6" s="73" customFormat="1"/>
+    <row r="28" spans="1:6" s="73" customFormat="1" ht="81">
+      <c r="A28" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="105" t="s">
+        <v>441</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="73" customFormat="1"/>
+    <row r="30" spans="1:6" ht="27">
+      <c r="B30" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="105" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27">
+      <c r="B31" s="73"/>
+      <c r="C31" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="105" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+    </row>
+    <row r="33" spans="1:5" ht="40.5">
+      <c r="A33" s="66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="121.5">
+      <c r="A34" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="189">
+      <c r="D35" s="66" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="27">
+      <c r="A38" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27">
+      <c r="B39" s="80"/>
+      <c r="C39" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27">
+      <c r="B40" s="80"/>
+      <c r="C40" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27">
+      <c r="B41" s="81"/>
+      <c r="C41" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="27">
+      <c r="A42" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27">
+      <c r="B43" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="27">
+      <c r="B44" s="81"/>
+      <c r="C44" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="67.5">
+      <c r="B45" s="31"/>
+      <c r="C45" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E45" s="31"/>
+    </row>
+    <row r="46" spans="1:5" ht="135">
+      <c r="B46" s="31"/>
+      <c r="C46" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E46" s="31"/>
+    </row>
+    <row r="47" spans="1:5" ht="94.5">
+      <c r="B47" s="31"/>
+      <c r="C47" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="81">
+      <c r="B48" s="31"/>
+      <c r="C48" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="94.5">
+      <c r="B49" s="31"/>
+      <c r="C49" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="108">
+      <c r="B50" s="31"/>
+      <c r="C50" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50" s="83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="148.5">
+      <c r="B51" s="31"/>
+      <c r="D51" s="66" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="31"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="68" t="s">
+        <v>471</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="83"/>
+    </row>
+    <row r="54" spans="1:5" ht="135">
+      <c r="A54" s="68" t="s">
+        <v>479</v>
+      </c>
+      <c r="B54" s="71" t="s">
+        <v>467</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="D54" s="83" t="s">
+        <v>473</v>
+      </c>
+      <c r="E54" s="66" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="81">
+      <c r="A55" s="68" t="s">
+        <v>480</v>
+      </c>
+      <c r="B55" s="71" t="s">
+        <v>468</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="D55" s="83" t="s">
+        <v>470</v>
+      </c>
+      <c r="E55" s="66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="121.5">
+      <c r="B56" s="31"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="83" t="s">
+        <v>469</v>
+      </c>
+      <c r="E56" s="66" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="121.5">
+      <c r="B57" s="31"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="66" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="31" customFormat="1" ht="84" customHeight="1">
+      <c r="A58" s="68" t="s">
+        <v>481</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>477</v>
+      </c>
+      <c r="C58" s="83" t="s">
+        <v>476</v>
+      </c>
+      <c r="D58" s="83" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="31" customFormat="1">
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+    </row>
+    <row r="60" spans="1:5" s="31" customFormat="1">
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+    </row>
+    <row r="61" spans="1:5" s="31" customFormat="1">
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+    </row>
+    <row r="62" spans="1:5" s="31" customFormat="1">
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+    </row>
+    <row r="63" spans="1:5" ht="81">
+      <c r="A63" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="66" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="27">
+      <c r="B64" s="80"/>
+      <c r="C64" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D64" s="68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="27">
+      <c r="B65" s="80"/>
+      <c r="C65" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="D65" s="68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="27">
+      <c r="B66" s="80"/>
+      <c r="C66" s="68" t="s">
+        <v>391</v>
+      </c>
+      <c r="D66" s="68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="27">
+      <c r="B67" s="81"/>
+      <c r="C67" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="D67" s="68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+    </row>
+    <row r="69" spans="1:6" ht="162">
+      <c r="A69" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="F70" s="84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="40.5">
+      <c r="B71" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="F71" s="84"/>
+    </row>
+    <row r="72" spans="1:6" ht="27">
+      <c r="C72" s="67" t="s">
+        <v>394</v>
+      </c>
+      <c r="D72" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="84"/>
+    </row>
+    <row r="73" spans="1:6" ht="40.5">
+      <c r="C73" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="F73" s="84"/>
+    </row>
+    <row r="74" spans="1:6" ht="40.5">
+      <c r="B74" s="31"/>
+      <c r="C74" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="F74" s="84"/>
+    </row>
+    <row r="75" spans="1:6" ht="27">
+      <c r="B75" s="31"/>
+      <c r="C75" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="D75" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="84"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+    </row>
+    <row r="77" spans="1:6" ht="54">
+      <c r="B77" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="27">
+      <c r="C78" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" s="68" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="27">
+      <c r="B79" s="31"/>
+      <c r="C79" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="E79" s="85" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="27">
+      <c r="B80" s="31"/>
+      <c r="C80" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="E80" s="85"/>
+    </row>
+    <row r="81" spans="2:6" ht="27">
+      <c r="B81" s="31"/>
+      <c r="C81" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="E81" s="85"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+    </row>
+    <row r="83" spans="2:6" ht="54">
+      <c r="B83" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="27">
+      <c r="C84" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="F84" s="85" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="27">
+      <c r="B85" s="31"/>
+      <c r="C85" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="E85" s="68" t="s">
+        <v>358</v>
+      </c>
+      <c r="F85" s="85"/>
+    </row>
+    <row r="86" spans="2:6" ht="27">
+      <c r="B86" s="31"/>
+      <c r="C86" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E86" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="F86" s="85"/>
+    </row>
+    <row r="87" spans="2:6" ht="27">
+      <c r="B87" s="31"/>
+      <c r="C87" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" s="68" t="s">
+        <v>359</v>
+      </c>
+      <c r="F87" s="85"/>
+    </row>
+    <row r="88" spans="2:6" ht="27">
+      <c r="B88" s="31"/>
+      <c r="C88" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E88" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="F88" s="85"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+    </row>
+    <row r="90" spans="2:6" ht="40.5">
+      <c r="B90" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="66" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="27">
+      <c r="C91" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="E91" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="F91" s="85" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="27">
+      <c r="C92" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="E92" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="F92" s="85"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+    </row>
+    <row r="94" spans="2:6" ht="27">
+      <c r="B94" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="31"/>
+    </row>
+    <row r="95" spans="2:6" ht="27">
+      <c r="B95" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="C95" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="D95" s="67" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="27">
+      <c r="B96" s="85"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="68" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="27">
+      <c r="B97" s="85"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="67" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="27">
+      <c r="B98" s="85"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="68" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="27">
+      <c r="B99" s="85"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="68" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="85"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="31"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="31"/>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="C102" s="88"/>
+      <c r="D102" s="31"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="C103" s="88"/>
+      <c r="D103" s="31"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="C104" s="88"/>
+      <c r="D104" s="31"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="C105" s="88"/>
+      <c r="D105" s="31"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="C106" s="88"/>
+      <c r="D106" s="31"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="D107" s="31"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="C108" s="88"/>
+      <c r="D108" s="31"/>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="C109" s="88"/>
+      <c r="D109" s="31"/>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="C110" s="88"/>
+      <c r="D110" s="31"/>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="C111" s="88"/>
+      <c r="D111" s="31"/>
+    </row>
+    <row r="112" spans="2:4" ht="27">
+      <c r="B112" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" s="31"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="C113" s="88"/>
+      <c r="D113" s="31"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="C114" s="88"/>
+      <c r="D114" s="31"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="C115" s="88"/>
+      <c r="D115" s="31"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="C116" s="88"/>
+      <c r="D116" s="31"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="C117" s="89"/>
+      <c r="D117" s="31"/>
+    </row>
+    <row r="118" spans="1:4" ht="27">
+      <c r="B118" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="D118" s="68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="40.5">
+      <c r="C119" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="D119" s="68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="40.5">
+      <c r="C120" s="108"/>
+      <c r="D120" s="67" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="B121" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C121" s="85"/>
+      <c r="D121" s="31"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="31"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="31"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="31"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="31"/>
+    </row>
+    <row r="126" spans="1:4" ht="40.5">
+      <c r="A126" s="66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="27">
+      <c r="B127" s="105" t="s">
+        <v>404</v>
+      </c>
+      <c r="D127" s="73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="27">
+      <c r="B128" s="105" t="s">
+        <v>405</v>
+      </c>
+      <c r="D128" s="73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="B129" s="73"/>
+    </row>
+    <row r="130" spans="1:4" ht="27">
+      <c r="B130" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="C130" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="27">
+      <c r="B131" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="C131" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D131" s="69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="40.5">
+      <c r="B132" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="C132" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D132" s="69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="27">
+      <c r="B133" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="C133" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D133" s="69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="27">
+      <c r="B134" s="68" t="s">
+        <v>410</v>
+      </c>
+      <c r="C134" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D134" s="73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="B135" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D135" s="67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="27">
+      <c r="B136" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="C136" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D136" s="68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="27">
+      <c r="B137" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="C137" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D137" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="27">
+      <c r="B138" s="68" t="s">
+        <v>413</v>
+      </c>
+      <c r="C138" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D138" s="68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="27">
+      <c r="A141" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" s="68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="27">
+      <c r="B142" s="81"/>
+      <c r="C142" s="68" t="s">
+        <v>415</v>
+      </c>
+      <c r="D142" s="68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="31" customFormat="1">
+      <c r="C143" s="83"/>
+      <c r="D143" s="83"/>
+    </row>
+    <row r="144" spans="1:4" ht="27">
+      <c r="A144" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B144" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="D144" s="68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="27">
+      <c r="B145" s="80"/>
+      <c r="C145" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D145" s="68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="27">
+      <c r="B146" s="80"/>
+      <c r="C146" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" s="68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="27">
+      <c r="B147" s="81"/>
+      <c r="C147" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="27">
+      <c r="A148" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="73" customFormat="1" ht="40.5">
+      <c r="A149" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="B149" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="D149" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E149" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="27">
+      <c r="A150" s="73"/>
+      <c r="B150" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="C150" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D150" s="74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="27">
+      <c r="A151" s="73"/>
+      <c r="B151" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C151" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D151" s="74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="40.5">
+      <c r="A152" s="73"/>
+      <c r="B152" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C152" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="D152" s="74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="40.5">
+      <c r="A153" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="27">
+      <c r="A154" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="D154" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="27">
+      <c r="C155" s="68" t="s">
+        <v>421</v>
+      </c>
+      <c r="D155" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="27">
+      <c r="C156" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="D156" s="68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="73" customFormat="1" ht="27">
+      <c r="E158" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="F158" s="73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="73" customFormat="1" ht="27">
+      <c r="E159" s="105" t="s">
+        <v>424</v>
+      </c>
+      <c r="F159" s="73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="27">
+      <c r="A161" s="66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="27">
+      <c r="A162" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C162" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="D162" s="68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="27">
+      <c r="B163" s="81"/>
+      <c r="C163" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="D163" s="68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="27">
+      <c r="A164" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B164" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="D164" s="68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="27">
+      <c r="B165" s="81"/>
+      <c r="C165" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="D165" s="68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="27">
+      <c r="A168" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="C168" s="90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="38.25">
+      <c r="C169" s="91" t="s">
+        <v>461</v>
+      </c>
+      <c r="D169" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="E169" s="91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="E170" s="91" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15">
+      <c r="C171" s="90" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="25.5">
+      <c r="C172" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="D172" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E172" s="94" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="25.5">
+      <c r="C173" s="109" t="s">
+        <v>463</v>
+      </c>
+      <c r="D173" s="96" t="s">
+        <v>430</v>
+      </c>
+      <c r="E173" s="97" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="25.5">
+      <c r="C174" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="D174" s="98" t="s">
+        <v>462</v>
+      </c>
+      <c r="E174" s="99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="25.5">
+      <c r="C175" s="109" t="s">
+        <v>463</v>
+      </c>
+      <c r="D175" s="96" t="s">
+        <v>430</v>
+      </c>
+      <c r="E175" s="97" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="25.5">
+      <c r="C176" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D176" s="93" t="s">
+        <v>431</v>
+      </c>
+      <c r="E176" s="94" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" ht="25.5">
+      <c r="C177" s="109" t="s">
+        <v>464</v>
+      </c>
+      <c r="D177" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="E177" s="97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" ht="25.5">
+      <c r="C178" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="D178" s="98" t="s">
+        <v>433</v>
+      </c>
+      <c r="E178" s="99" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" ht="25.5">
+      <c r="C179" s="110" t="s">
+        <v>466</v>
+      </c>
+      <c r="D179" s="101" t="s">
+        <v>465</v>
+      </c>
+      <c r="E179" s="102" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" ht="25.5">
+      <c r="C180" s="95"/>
+      <c r="D180" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="E180" s="103"/>
+    </row>
+    <row r="181" spans="3:5" ht="25.5">
+      <c r="C181" s="92" t="s">
+        <v>312</v>
+      </c>
+      <c r="D181" s="98" t="s">
+        <v>435</v>
+      </c>
+      <c r="E181" s="99" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" ht="25.5">
+      <c r="C182" s="100"/>
+      <c r="D182" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="E182" s="102" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" ht="25.5">
+      <c r="C183" s="95"/>
+      <c r="D183" s="96" t="s">
+        <v>437</v>
+      </c>
+      <c r="E183" s="97" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" ht="30">
+      <c r="C184" s="90" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5">
+      <c r="C185" s="91" t="s">
+        <v>318</v>
+      </c>
+      <c r="D185" s="91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5">
+      <c r="C186" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="D186" s="91" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5">
+      <c r="C187" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="D187" s="91" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5">
+      <c r="C188" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="D188" s="91" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5">
+      <c r="C189" s="91" t="s">
+        <v>325</v>
+      </c>
+      <c r="D189" s="91" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" ht="15">
+      <c r="C190" s="90" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5">
+      <c r="C191" s="91" t="s">
+        <v>328</v>
+      </c>
+      <c r="D191" s="91" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5">
+      <c r="C192" s="91" t="s">
+        <v>330</v>
+      </c>
+      <c r="D192" s="91" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4">
+      <c r="C193" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="D193" s="91" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4">
+      <c r="C194" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="D194" s="91" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" ht="15">
+      <c r="C195" s="90" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" ht="51" customHeight="1">
+      <c r="C196" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="D196" s="107"/>
+    </row>
+    <row r="197" spans="3:4">
+      <c r="C197" s="91" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4">
+      <c r="C198" s="91" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="B121:C125"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C95:C100"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:F196"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="66" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="80" style="66" customWidth="1"/>
+    <col min="5" max="5" width="63.125" style="66" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="66" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="66" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="126">
+      <c r="A2" s="65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="67.5">
+      <c r="A3" s="66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27">
+      <c r="A5" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27">
+      <c r="A6" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27">
+      <c r="A7" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="70"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="70"/>
+    </row>
+    <row r="12" spans="1:5" ht="54">
+      <c r="A12" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27">
+      <c r="C13" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="40.5">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27">
+      <c r="C17" s="68"/>
+      <c r="D17" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="148.5">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="72"/>
+    </row>
+    <row r="19" spans="1:6" s="73" customFormat="1" ht="27">
+      <c r="C19" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="73" customFormat="1" ht="27">
+      <c r="C20" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="105" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="31" customFormat="1">
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" s="73" customFormat="1" ht="148.5">
+      <c r="A23" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>442</v>
+      </c>
+      <c r="F23" s="105"/>
+    </row>
+    <row r="24" spans="1:6" s="73" customFormat="1" ht="175.5">
+      <c r="B24" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="74"/>
+    </row>
+    <row r="25" spans="1:6" ht="27">
+      <c r="B25" s="68"/>
+      <c r="C25" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>377</v>
+      </c>
+      <c r="E25" s="68"/>
+    </row>
+    <row r="26" spans="1:6" s="73" customFormat="1" ht="27">
+      <c r="B26" s="74"/>
+      <c r="C26" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="106" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" s="74"/>
+    </row>
+    <row r="27" spans="1:6" s="73" customFormat="1"/>
+    <row r="28" spans="1:6" s="73" customFormat="1" ht="81">
+      <c r="A28" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="105" t="s">
+        <v>441</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="73" customFormat="1"/>
+    <row r="30" spans="1:6" ht="27">
+      <c r="B30" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="105" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27">
+      <c r="B31" s="73"/>
+      <c r="C31" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="105" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+    </row>
+    <row r="33" spans="1:5" ht="40.5">
+      <c r="A33" s="66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="121.5">
+      <c r="A34" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="189">
+      <c r="D35" s="66" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="27">
+      <c r="A38" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27">
+      <c r="B39" s="80"/>
+      <c r="C39" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27">
+      <c r="B40" s="80"/>
+      <c r="C40" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27">
+      <c r="B41" s="81"/>
+      <c r="C41" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="27">
+      <c r="A42" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27">
+      <c r="B43" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="27">
+      <c r="B44" s="81"/>
+      <c r="C44" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="67.5">
+      <c r="B45" s="31"/>
+      <c r="C45" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E45" s="31"/>
+    </row>
+    <row r="46" spans="1:5" ht="135">
+      <c r="B46" s="31"/>
+      <c r="C46" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E46" s="31"/>
+    </row>
+    <row r="47" spans="1:5" ht="94.5">
+      <c r="B47" s="31"/>
+      <c r="C47" s="83" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="81">
+      <c r="B48" s="31"/>
+      <c r="C48" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="94.5">
+      <c r="B49" s="31"/>
+      <c r="C49" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="108">
+      <c r="B50" s="31"/>
+      <c r="C50" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="D50" s="83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="148.5">
+      <c r="B51" s="31"/>
+      <c r="D51" s="66" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="31"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" s="31"/>
+      <c r="D53" s="83"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="31"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="31"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+    </row>
+    <row r="56" spans="1:5" ht="121.5">
+      <c r="B56" s="31"/>
+      <c r="C56" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="D56" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="E56" s="66" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="81">
+      <c r="B57" s="31"/>
+      <c r="C57" s="83" t="s">
+        <v>453</v>
+      </c>
+      <c r="D57" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="E57" s="66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="121.5">
+      <c r="B58" s="31"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="E58" s="66" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="121.5">
+      <c r="B59" s="31"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="66" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="31" customFormat="1">
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+    </row>
+    <row r="61" spans="1:5" ht="27">
+      <c r="A61" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="27">
+      <c r="B62" s="80"/>
+      <c r="C62" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D62" s="68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="27">
+      <c r="B63" s="80"/>
+      <c r="C63" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="D63" s="68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="27">
+      <c r="B64" s="80"/>
+      <c r="C64" s="68" t="s">
+        <v>391</v>
+      </c>
+      <c r="D64" s="68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="27">
+      <c r="B65" s="81"/>
+      <c r="C65" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="D65" s="68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+    </row>
+    <row r="67" spans="1:6" ht="162">
+      <c r="A67" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="B68" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="F68" s="84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="40.5">
+      <c r="B69" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D69" s="31"/>
+      <c r="F69" s="84"/>
+    </row>
+    <row r="70" spans="1:6" ht="27">
+      <c r="C70" s="67" t="s">
+        <v>394</v>
+      </c>
+      <c r="D70" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="84"/>
+    </row>
+    <row r="71" spans="1:6" ht="40.5">
+      <c r="C71" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="F71" s="84"/>
+    </row>
+    <row r="72" spans="1:6" ht="40.5">
+      <c r="B72" s="31"/>
+      <c r="C72" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="F72" s="84"/>
+    </row>
+    <row r="73" spans="1:6" ht="27">
+      <c r="B73" s="31"/>
+      <c r="C73" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" s="84"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+    </row>
+    <row r="75" spans="1:6" ht="54">
+      <c r="B75" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="27">
+      <c r="C76" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="27">
+      <c r="B77" s="31"/>
+      <c r="C77" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="E77" s="85" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="27">
+      <c r="B78" s="31"/>
+      <c r="C78" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="E78" s="85"/>
+    </row>
+    <row r="79" spans="1:6" ht="27">
+      <c r="B79" s="31"/>
+      <c r="C79" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="E79" s="85"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+    </row>
+    <row r="81" spans="2:6" ht="54">
+      <c r="B81" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="27">
+      <c r="C82" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="F82" s="85" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="27">
+      <c r="B83" s="31"/>
+      <c r="C83" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="68" t="s">
+        <v>358</v>
+      </c>
+      <c r="F83" s="85"/>
+    </row>
+    <row r="84" spans="2:6" ht="27">
+      <c r="B84" s="31"/>
+      <c r="C84" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="F84" s="85"/>
+    </row>
+    <row r="85" spans="2:6" ht="27">
+      <c r="B85" s="31"/>
+      <c r="C85" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="68" t="s">
+        <v>359</v>
+      </c>
+      <c r="F85" s="85"/>
+    </row>
+    <row r="86" spans="2:6" ht="27">
+      <c r="B86" s="31"/>
+      <c r="C86" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E86" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="F86" s="85"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+    </row>
+    <row r="88" spans="2:6" ht="40.5">
+      <c r="B88" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="66" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="27">
+      <c r="C89" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="E89" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="F89" s="85" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="27">
+      <c r="C90" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="D90" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="E90" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="F90" s="85"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+    </row>
+    <row r="92" spans="2:6" ht="27">
+      <c r="B92" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="D92" s="31"/>
+    </row>
+    <row r="93" spans="2:6" ht="27">
+      <c r="B93" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="D93" s="67" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="27">
+      <c r="B94" s="85"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="68" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="27">
+      <c r="B95" s="85"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="67" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="27">
+      <c r="B96" s="85"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="68" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="27">
+      <c r="B97" s="85"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="68" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="85"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="31"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="D99" s="31"/>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="C100" s="88"/>
+      <c r="D100" s="31"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="C101" s="88"/>
+      <c r="D101" s="31"/>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="C102" s="88"/>
+      <c r="D102" s="31"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="C103" s="88"/>
+      <c r="D103" s="31"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="C104" s="88"/>
+      <c r="D104" s="31"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="D105" s="31"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="C106" s="88"/>
+      <c r="D106" s="31"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="C107" s="88"/>
+      <c r="D107" s="31"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="C108" s="88"/>
+      <c r="D108" s="31"/>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="C109" s="88"/>
+      <c r="D109" s="31"/>
+    </row>
+    <row r="110" spans="2:4" ht="27">
+      <c r="B110" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="C110" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="D110" s="31"/>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="C111" s="88"/>
+      <c r="D111" s="31"/>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="C112" s="88"/>
+      <c r="D112" s="31"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="C113" s="88"/>
+      <c r="D113" s="31"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="C114" s="88"/>
+      <c r="D114" s="31"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="C115" s="89"/>
+      <c r="D115" s="31"/>
+    </row>
+    <row r="116" spans="1:4" ht="27">
+      <c r="B116" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="D116" s="68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="40.5">
+      <c r="C117" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="D117" s="68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="40.5">
+      <c r="C118" s="108"/>
+      <c r="D118" s="67" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="B119" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" s="85"/>
+      <c r="D119" s="31"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="31"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="31"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="31"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="31"/>
+    </row>
+    <row r="124" spans="1:4" ht="40.5">
+      <c r="A124" s="66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="27">
+      <c r="B125" s="105" t="s">
+        <v>404</v>
+      </c>
+      <c r="D125" s="73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="27">
+      <c r="B126" s="105" t="s">
+        <v>405</v>
+      </c>
+      <c r="D126" s="73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="B127" s="73"/>
+    </row>
+    <row r="128" spans="1:4" ht="27">
+      <c r="B128" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="C128" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128" s="68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="27">
+      <c r="B129" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="C129" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D129" s="69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="40.5">
+      <c r="B130" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="C130" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D130" s="69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="27">
+      <c r="B131" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="C131" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D131" s="69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="27">
+      <c r="B132" s="68" t="s">
+        <v>410</v>
+      </c>
+      <c r="C132" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" s="73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="B133" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D133" s="67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="27">
+      <c r="B134" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="C134" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D134" s="68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="27">
+      <c r="B135" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D135" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="27">
+      <c r="B136" s="68" t="s">
+        <v>413</v>
+      </c>
+      <c r="C136" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D136" s="68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="27">
+      <c r="A139" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B139" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="C139" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="27">
+      <c r="B140" s="81"/>
+      <c r="C140" s="68" t="s">
+        <v>415</v>
+      </c>
+      <c r="D140" s="68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="31" customFormat="1">
+      <c r="C141" s="83"/>
+      <c r="D141" s="83"/>
+    </row>
+    <row r="142" spans="1:4" ht="27">
+      <c r="A142" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="D142" s="68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="27">
+      <c r="B143" s="80"/>
+      <c r="C143" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" s="68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="27">
+      <c r="B144" s="80"/>
+      <c r="C144" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" s="68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="27">
+      <c r="B145" s="81"/>
+      <c r="C145" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="27">
+      <c r="A146" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="73" customFormat="1" ht="40.5">
+      <c r="A147" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="B147" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="D147" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E147" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="27">
+      <c r="A148" s="73"/>
+      <c r="B148" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="C148" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D148" s="74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="27">
+      <c r="A149" s="73"/>
+      <c r="B149" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D149" s="74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="40.5">
+      <c r="A150" s="73"/>
+      <c r="B150" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="D150" s="74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="40.5">
+      <c r="A151" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="27">
+      <c r="A152" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B152" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" s="68" t="s">
+        <v>420</v>
+      </c>
+      <c r="D152" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="27">
+      <c r="C153" s="68" t="s">
+        <v>421</v>
+      </c>
+      <c r="D153" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="27">
+      <c r="C154" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="D154" s="68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="73" customFormat="1" ht="27">
+      <c r="E156" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="F156" s="73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="73" customFormat="1" ht="27">
+      <c r="E157" s="105" t="s">
+        <v>424</v>
+      </c>
+      <c r="F157" s="73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="27">
+      <c r="A159" s="66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="27">
+      <c r="A160" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B160" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C160" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="D160" s="68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="27">
+      <c r="B161" s="81"/>
+      <c r="C161" s="68" t="s">
+        <v>426</v>
+      </c>
+      <c r="D161" s="68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="27">
+      <c r="A162" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C162" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="D162" s="68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="27">
+      <c r="B163" s="81"/>
+      <c r="C163" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="D163" s="68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="27">
+      <c r="A166" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="C166" s="90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="38.25">
+      <c r="C167" s="91" t="s">
+        <v>461</v>
+      </c>
+      <c r="D167" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="E167" s="91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="E168" s="91" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15">
+      <c r="C169" s="90" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="25.5">
+      <c r="C170" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="D170" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E170" s="94" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="25.5">
+      <c r="C171" s="109" t="s">
+        <v>463</v>
+      </c>
+      <c r="D171" s="96" t="s">
+        <v>430</v>
+      </c>
+      <c r="E171" s="97" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="25.5">
+      <c r="C172" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="D172" s="98" t="s">
+        <v>462</v>
+      </c>
+      <c r="E172" s="99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="25.5">
+      <c r="C173" s="109" t="s">
+        <v>463</v>
+      </c>
+      <c r="D173" s="96" t="s">
+        <v>430</v>
+      </c>
+      <c r="E173" s="97" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="25.5">
+      <c r="C174" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D174" s="93" t="s">
+        <v>431</v>
+      </c>
+      <c r="E174" s="94" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="25.5">
+      <c r="C175" s="109" t="s">
+        <v>464</v>
+      </c>
+      <c r="D175" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="E175" s="97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="25.5">
+      <c r="C176" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="D176" s="98" t="s">
+        <v>433</v>
+      </c>
+      <c r="E176" s="99" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" ht="25.5">
+      <c r="C177" s="110" t="s">
+        <v>466</v>
+      </c>
+      <c r="D177" s="101" t="s">
+        <v>465</v>
+      </c>
+      <c r="E177" s="102" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" ht="25.5">
+      <c r="C178" s="95"/>
+      <c r="D178" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="E178" s="103"/>
+    </row>
+    <row r="179" spans="3:5" ht="25.5">
+      <c r="C179" s="92" t="s">
+        <v>312</v>
+      </c>
+      <c r="D179" s="98" t="s">
+        <v>435</v>
+      </c>
+      <c r="E179" s="99" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" ht="25.5">
+      <c r="C180" s="100"/>
+      <c r="D180" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="E180" s="102" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" ht="25.5">
+      <c r="C181" s="95"/>
+      <c r="D181" s="96" t="s">
+        <v>437</v>
+      </c>
+      <c r="E181" s="97" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" ht="30">
+      <c r="C182" s="90" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5">
+      <c r="C183" s="91" t="s">
+        <v>318</v>
+      </c>
+      <c r="D183" s="91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5">
+      <c r="C184" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="D184" s="91" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5">
+      <c r="C185" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="D185" s="91" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5">
+      <c r="C186" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="D186" s="91" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5">
+      <c r="C187" s="91" t="s">
+        <v>325</v>
+      </c>
+      <c r="D187" s="91" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" ht="15">
+      <c r="C188" s="90" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5">
+      <c r="C189" s="91" t="s">
+        <v>328</v>
+      </c>
+      <c r="D189" s="91" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5">
+      <c r="C190" s="91" t="s">
+        <v>330</v>
+      </c>
+      <c r="D190" s="91" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5">
+      <c r="C191" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="D191" s="91" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5">
+      <c r="C192" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="D192" s="91" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" ht="15">
+      <c r="C193" s="90" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" ht="51" customHeight="1">
+      <c r="C194" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="D194" s="107"/>
+    </row>
+    <row r="195" spans="3:4">
+      <c r="C195" s="91" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4">
+      <c r="C196" s="91" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="B119:C123"/>
+    <mergeCell ref="F68:F73"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="C93:C98"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:H199"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A117" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -4070,1669 +9280,6 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21" customHeight="1">
-      <c r="B49" s="28"/>
-      <c r="C49" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="54">
-      <c r="B50" s="18"/>
-      <c r="C50" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="E50" s="31"/>
-    </row>
-    <row r="51" spans="1:6" ht="121.5">
-      <c r="B51" s="18"/>
-      <c r="C51" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="E51" s="20"/>
-    </row>
-    <row r="52" spans="1:6" ht="81">
-      <c r="B52" s="18"/>
-      <c r="C52" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="67.5">
-      <c r="B53" s="18"/>
-      <c r="C53" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="94.5">
-      <c r="B54" s="18"/>
-      <c r="C54" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="94.5">
-      <c r="B55" s="18"/>
-      <c r="C55" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="21" customHeight="1">
-      <c r="B56" s="18"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-    </row>
-    <row r="57" spans="1:6" ht="107.25" customHeight="1">
-      <c r="B57" s="18"/>
-      <c r="C57" s="64" t="s">
-        <v>349</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="45.75" customHeight="1">
-      <c r="B58" s="18"/>
-      <c r="C58" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="103.5" customHeight="1">
-      <c r="B59" s="18"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="177.75" customHeight="1">
-      <c r="B60" s="18"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-    </row>
-    <row r="62" spans="1:6" ht="21" customHeight="1">
-      <c r="A62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="21" customHeight="1">
-      <c r="B63" s="27"/>
-      <c r="C63" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="21" customHeight="1">
-      <c r="B64" s="27"/>
-      <c r="C64" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="21" customHeight="1">
-      <c r="B65" s="27"/>
-      <c r="C65" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="21" customHeight="1">
-      <c r="B66" s="28"/>
-      <c r="C66" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="21" customHeight="1">
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-    </row>
-    <row r="68" spans="1:6" ht="150.75" customHeight="1">
-      <c r="A68" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="21" customHeight="1">
-      <c r="B69" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="F69" s="33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="21" customHeight="1">
-      <c r="B70" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="F70" s="33"/>
-    </row>
-    <row r="71" spans="1:6" ht="21" customHeight="1">
-      <c r="C71" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F71" s="35"/>
-    </row>
-    <row r="72" spans="1:6" ht="21" customHeight="1">
-      <c r="C72" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F72" s="35"/>
-    </row>
-    <row r="73" spans="1:6" ht="21" customHeight="1">
-      <c r="B73" s="18"/>
-      <c r="C73" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F73" s="35"/>
-    </row>
-    <row r="74" spans="1:6" ht="21" customHeight="1">
-      <c r="B74" s="18"/>
-      <c r="C74" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F74" s="35"/>
-    </row>
-    <row r="75" spans="1:6" ht="21" customHeight="1">
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-    </row>
-    <row r="76" spans="1:6" ht="21" customHeight="1">
-      <c r="B76" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="21" customHeight="1">
-      <c r="C77" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="21" customHeight="1">
-      <c r="B78" s="18"/>
-      <c r="C78" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E78" s="36" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="21" customHeight="1">
-      <c r="B79" s="18"/>
-      <c r="C79" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E79" s="37"/>
-    </row>
-    <row r="80" spans="1:6" ht="21" customHeight="1">
-      <c r="B80" s="18"/>
-      <c r="C80" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E80" s="37"/>
-    </row>
-    <row r="81" spans="2:6" ht="21" customHeight="1">
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-    </row>
-    <row r="82" spans="2:6" ht="21" customHeight="1">
-      <c r="B82" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="21" customHeight="1">
-      <c r="C83" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F83" s="36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" ht="21" customHeight="1">
-      <c r="B84" s="18"/>
-      <c r="C84" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="F84" s="37"/>
-    </row>
-    <row r="85" spans="2:6" ht="21" customHeight="1">
-      <c r="B85" s="18"/>
-      <c r="C85" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="F85" s="37"/>
-    </row>
-    <row r="86" spans="2:6" ht="21" customHeight="1">
-      <c r="B86" s="18"/>
-      <c r="C86" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F86" s="37"/>
-    </row>
-    <row r="87" spans="2:6" ht="21" customHeight="1">
-      <c r="B87" s="18"/>
-      <c r="C87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F87" s="37"/>
-    </row>
-    <row r="88" spans="2:6" ht="21" customHeight="1">
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-    </row>
-    <row r="89" spans="2:6" ht="21" customHeight="1">
-      <c r="B89" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="21" customHeight="1">
-      <c r="C90" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F90" s="36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="21" customHeight="1">
-      <c r="C91" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F91" s="37"/>
-    </row>
-    <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-    </row>
-    <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="B93" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="D93" s="18"/>
-    </row>
-    <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="B94" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C94" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="D94" s="34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="B95" s="37"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="37"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="B97" s="37"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" ht="21" customHeight="1">
-      <c r="B98" s="37"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="B99" s="37"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="18"/>
-    </row>
-    <row r="100" spans="2:4" ht="21" customHeight="1">
-      <c r="B100" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C100" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="D100" s="18"/>
-    </row>
-    <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="C101" s="42"/>
-      <c r="D101" s="18"/>
-    </row>
-    <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="42"/>
-      <c r="D102" s="18"/>
-    </row>
-    <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="42"/>
-      <c r="D103" s="18"/>
-    </row>
-    <row r="104" spans="2:4" ht="21" customHeight="1">
-      <c r="C104" s="42"/>
-      <c r="D104" s="18"/>
-    </row>
-    <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="C105" s="42"/>
-      <c r="D105" s="18"/>
-    </row>
-    <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="B106" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="D106" s="18"/>
-    </row>
-    <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="C107" s="42"/>
-      <c r="D107" s="18"/>
-    </row>
-    <row r="108" spans="2:4" ht="21" customHeight="1">
-      <c r="C108" s="42"/>
-      <c r="D108" s="18"/>
-    </row>
-    <row r="109" spans="2:4" ht="21" customHeight="1">
-      <c r="C109" s="42"/>
-      <c r="D109" s="18"/>
-    </row>
-    <row r="110" spans="2:4" ht="33" customHeight="1">
-      <c r="C110" s="42"/>
-      <c r="D110" s="18"/>
-    </row>
-    <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="B111" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C111" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="D111" s="18"/>
-    </row>
-    <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="C112" s="42"/>
-      <c r="D112" s="18"/>
-    </row>
-    <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="C113" s="42"/>
-      <c r="D113" s="18"/>
-    </row>
-    <row r="114" spans="1:4" ht="21" customHeight="1">
-      <c r="C114" s="42"/>
-      <c r="D114" s="18"/>
-    </row>
-    <row r="115" spans="1:4" ht="21" customHeight="1">
-      <c r="C115" s="42"/>
-      <c r="D115" s="18"/>
-    </row>
-    <row r="116" spans="1:4" ht="21" customHeight="1">
-      <c r="B116" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C116" s="43"/>
-      <c r="D116" s="18"/>
-    </row>
-    <row r="117" spans="1:4" ht="21" customHeight="1">
-      <c r="B117" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="C117" s="43"/>
-      <c r="D117" s="18"/>
-    </row>
-    <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="C118" s="43"/>
-      <c r="D118" s="18"/>
-    </row>
-    <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="C119" s="43"/>
-      <c r="D119" s="18"/>
-    </row>
-    <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="C120" s="37"/>
-      <c r="D120" s="18"/>
-    </row>
-    <row r="121" spans="1:4" ht="21" customHeight="1">
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="18"/>
-    </row>
-    <row r="122" spans="1:4" ht="21" customHeight="1">
-      <c r="B122" s="37"/>
-      <c r="C122" s="37"/>
-      <c r="D122" s="18"/>
-    </row>
-    <row r="123" spans="1:4" ht="21" customHeight="1">
-      <c r="B123" s="37"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="18"/>
-    </row>
-    <row r="124" spans="1:4" ht="21" customHeight="1">
-      <c r="B124" s="37"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="18"/>
-    </row>
-    <row r="125" spans="1:4" ht="21" customHeight="1">
-      <c r="A125" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="21" customHeight="1">
-      <c r="B126" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="21" customHeight="1">
-      <c r="B127" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="21" customHeight="1">
-      <c r="B128" s="15"/>
-    </row>
-    <row r="129" spans="1:4" ht="21" customHeight="1">
-      <c r="B129" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="21" customHeight="1">
-      <c r="B130" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="28.5" customHeight="1">
-      <c r="B131" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="40.5" customHeight="1">
-      <c r="B132" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="32.25" customHeight="1">
-      <c r="B133" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="21" customHeight="1">
-      <c r="B134" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="21" customHeight="1">
-      <c r="B135" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="21" customHeight="1">
-      <c r="B136" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="21" customHeight="1">
-      <c r="B137" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="21" customHeight="1">
-      <c r="A140" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B140" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="21" customHeight="1">
-      <c r="B141" s="28"/>
-      <c r="C141" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="C142" s="32"/>
-      <c r="D142" s="32"/>
-    </row>
-    <row r="143" spans="1:4" ht="21" customHeight="1">
-      <c r="A143" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B143" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="21" customHeight="1">
-      <c r="B144" s="27"/>
-      <c r="C144" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="21" customHeight="1">
-      <c r="B145" s="27"/>
-      <c r="C145" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="21" customHeight="1">
-      <c r="B146" s="28"/>
-      <c r="C146" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="21" customHeight="1">
-      <c r="A147" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" s="15" customFormat="1" ht="27">
-      <c r="A148" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C148" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D148" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E148" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="21" customHeight="1">
-      <c r="A149" s="15"/>
-      <c r="B149" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="21" customHeight="1">
-      <c r="A150" s="15"/>
-      <c r="B150" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D150" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A151" s="15"/>
-      <c r="B151" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C151" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D151" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="21" customHeight="1">
-      <c r="A152" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="21" customHeight="1">
-      <c r="A153" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="21" customHeight="1">
-      <c r="C154" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="13.5">
-      <c r="C155" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="13.5"/>
-    <row r="157" spans="1:6" s="15" customFormat="1" ht="13.5">
-      <c r="E157" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" s="15" customFormat="1" ht="13.5">
-      <c r="E158" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F158" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="13.5"/>
-    <row r="160" spans="1:6" ht="13.5"/>
-    <row r="161" spans="1:5" ht="13.5"/>
-    <row r="162" spans="1:5" ht="13.5"/>
-    <row r="163" spans="1:5" ht="13.5"/>
-    <row r="164" spans="1:5" ht="13.5">
-      <c r="A164" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A165" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B165" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C165" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="21.75" customHeight="1">
-      <c r="B166" s="28"/>
-      <c r="C166" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A167" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B167" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C167" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="21.75" customHeight="1">
-      <c r="B168" s="28"/>
-      <c r="C168" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="13.5"/>
-    <row r="170" spans="1:5" ht="13.5"/>
-    <row r="171" spans="1:5" ht="15">
-      <c r="A171" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C171" s="47" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="13.5">
-      <c r="C172" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="D172" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="E172" s="49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="21" customHeight="1">
-      <c r="E173" s="49" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="21" customHeight="1">
-      <c r="C174" s="47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="21" customHeight="1">
-      <c r="C175" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="D175" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="E175" s="52" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="21" customHeight="1">
-      <c r="C176" s="53"/>
-      <c r="D176" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="E176" s="55" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5" ht="21" customHeight="1">
-      <c r="C177" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="D177" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="E177" s="57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5" ht="21" customHeight="1">
-      <c r="C178" s="53"/>
-      <c r="D178" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="E178" s="55" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="179" spans="3:5" ht="21" customHeight="1">
-      <c r="C179" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="D179" s="51" t="s">
-        <v>303</v>
-      </c>
-      <c r="E179" s="52" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5" ht="21" customHeight="1">
-      <c r="C180" s="53"/>
-      <c r="D180" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="E180" s="55" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5" ht="21" customHeight="1">
-      <c r="C181" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="D181" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="E181" s="57" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5" ht="21" customHeight="1">
-      <c r="C182" s="58"/>
-      <c r="D182" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="E182" s="60" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5" ht="21" customHeight="1">
-      <c r="C183" s="53"/>
-      <c r="D183" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="E183" s="61"/>
-    </row>
-    <row r="184" spans="3:5" ht="21" customHeight="1">
-      <c r="C184" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="D184" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="E184" s="57" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5" ht="21" customHeight="1">
-      <c r="C185" s="58"/>
-      <c r="D185" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="E185" s="60" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="186" spans="3:5" ht="21" customHeight="1">
-      <c r="C186" s="53"/>
-      <c r="D186" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="E186" s="55" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5" ht="21" customHeight="1">
-      <c r="C187" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="D187" s="63"/>
-    </row>
-    <row r="188" spans="3:5" ht="21" customHeight="1">
-      <c r="C188" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="D188" s="49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5" ht="21" customHeight="1">
-      <c r="C189" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="D189" s="49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="190" spans="3:5" ht="21" customHeight="1">
-      <c r="C190" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="D190" s="49" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5" ht="21" customHeight="1">
-      <c r="C191" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="D191" s="49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5" ht="21" customHeight="1">
-      <c r="C192" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="D192" s="49" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="193" spans="3:4" ht="21" customHeight="1">
-      <c r="C193" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D193" s="63"/>
-    </row>
-    <row r="194" spans="3:4" ht="21" customHeight="1">
-      <c r="C194" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="D194" s="49" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="195" spans="3:4" ht="21" customHeight="1">
-      <c r="C195" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D195" s="49" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="196" spans="3:4" ht="21" customHeight="1">
-      <c r="C196" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="D196" s="49" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="197" spans="3:4" ht="21" customHeight="1">
-      <c r="C197" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="D197" s="49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="198" spans="3:4" ht="21" customHeight="1">
-      <c r="C198" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="D198" s="63"/>
-    </row>
-    <row r="199" spans="3:4" ht="21" customHeight="1">
-      <c r="C199" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="D199" s="63"/>
-    </row>
-    <row r="200" spans="3:4" ht="21" customHeight="1">
-      <c r="C200" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="D200" s="63"/>
-    </row>
-    <row r="201" spans="3:4" ht="21" customHeight="1">
-      <c r="C201" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="D201" s="63"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="B120:C124"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="C94:C99"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:H199"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C54" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="30" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="61.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="80" style="4" customWidth="1"/>
-    <col min="5" max="5" width="63.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="60.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" ht="21" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1">
-      <c r="C15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1">
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1">
-      <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1">
-      <c r="C18" s="10"/>
-      <c r="D18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="121.5">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" s="15" customFormat="1" ht="13.5">
-      <c r="C21" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="15" customFormat="1" ht="13.5">
-      <c r="C22" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="21" customHeight="1">
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="D24" s="20"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" s="15" customFormat="1" ht="154.5" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="15" customFormat="1" ht="154.5" customHeight="1">
-      <c r="B26" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="16"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7" ht="21" customHeight="1">
-      <c r="B27" s="10"/>
-      <c r="C27" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1">
-      <c r="B28" s="16"/>
-      <c r="C28" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="30" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="31" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="32" spans="1:7" s="15" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="33" spans="1:8" s="15" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A33" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" ht="40.5" customHeight="1"/>
-    <row r="35" spans="1:8" ht="13.5">
-      <c r="B35" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="13.5">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="48.75" customHeight="1">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:8" ht="21" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="113.25" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="192" customHeight="1">
-      <c r="D40" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="21" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="21" customHeight="1">
-      <c r="B44" s="27"/>
-      <c r="C44" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="21" customHeight="1">
-      <c r="B45" s="27"/>
-      <c r="C45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="21" customHeight="1">
-      <c r="B46" s="28"/>
-      <c r="C46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="21" customHeight="1">
-      <c r="B48" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>275</v>
-      </c>
-    </row>
     <row r="49" spans="1:5" ht="21" customHeight="1">
       <c r="B49" s="28"/>
       <c r="C49" s="10" t="s">
@@ -5814,7 +9361,7 @@
     </row>
     <row r="57" spans="1:5" ht="107.25" customHeight="1">
       <c r="B57" s="18"/>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="55" t="s">
         <v>349</v>
       </c>
       <c r="D57" s="30" t="s">
@@ -5907,7 +9454,7 @@
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
-      <c r="F67" s="33" t="s">
+      <c r="F67" s="60" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5919,10 +9466,10 @@
         <v>238</v>
       </c>
       <c r="D68" s="18"/>
-      <c r="F68" s="33"/>
+      <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="33" t="s">
         <v>199</v>
       </c>
       <c r="D69" s="10" t="s">
@@ -5931,10 +9478,10 @@
       <c r="E69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="35"/>
+      <c r="F69" s="61"/>
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1">
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="33" t="s">
         <v>202</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -5943,7 +9490,7 @@
       <c r="E70" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="35"/>
+      <c r="F70" s="61"/>
     </row>
     <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="B71" s="18"/>
@@ -5956,7 +9503,7 @@
       <c r="E71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F71" s="35"/>
+      <c r="F71" s="61"/>
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
       <c r="B72" s="18"/>
@@ -5969,7 +9516,7 @@
       <c r="E72" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="35"/>
+      <c r="F72" s="61"/>
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="B73" s="18"/>
@@ -5999,7 +9546,7 @@
       <c r="D76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="58" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6011,7 +9558,7 @@
       <c r="D77" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="37"/>
+      <c r="E77" s="59"/>
     </row>
     <row r="78" spans="1:6" ht="21" customHeight="1">
       <c r="B78" s="18"/>
@@ -6021,7 +9568,7 @@
       <c r="D78" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="37"/>
+      <c r="E78" s="59"/>
     </row>
     <row r="79" spans="1:6" ht="21" customHeight="1">
       <c r="B79" s="18"/>
@@ -6045,7 +9592,7 @@
       <c r="E81" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="58" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6060,7 +9607,7 @@
       <c r="E82" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F82" s="37"/>
+      <c r="F82" s="59"/>
     </row>
     <row r="83" spans="2:6" ht="21" customHeight="1">
       <c r="B83" s="18"/>
@@ -6073,7 +9620,7 @@
       <c r="E83" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="37"/>
+      <c r="F83" s="59"/>
     </row>
     <row r="84" spans="2:6" ht="21" customHeight="1">
       <c r="B84" s="18"/>
@@ -6086,7 +9633,7 @@
       <c r="E84" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="37"/>
+      <c r="F84" s="59"/>
     </row>
     <row r="85" spans="2:6" ht="21" customHeight="1">
       <c r="B85" s="18"/>
@@ -6099,7 +9646,7 @@
       <c r="E85" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F85" s="37"/>
+      <c r="F85" s="59"/>
     </row>
     <row r="86" spans="2:6" ht="21" customHeight="1">
       <c r="B86" s="18"/>
@@ -6123,7 +9670,7 @@
       <c r="E88" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F88" s="36" t="s">
+      <c r="F88" s="58" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6137,7 +9684,7 @@
       <c r="E89" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="37"/>
+      <c r="F89" s="59"/>
     </row>
     <row r="90" spans="2:6" ht="21" customHeight="1">
       <c r="C90" s="18"/>
@@ -6150,181 +9697,181 @@
       <c r="D91" s="18"/>
     </row>
     <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="33" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="B93" s="37"/>
-      <c r="C93" s="40"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="64"/>
       <c r="D93" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="B94" s="37"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="34" t="s">
+      <c r="B94" s="59"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="B95" s="37"/>
-      <c r="C95" s="40"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="37"/>
-      <c r="C96" s="40"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="64"/>
       <c r="D96" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="B97" s="37"/>
-      <c r="C97" s="40"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="64"/>
       <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" ht="21" customHeight="1">
       <c r="B98" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="56" t="s">
         <v>262</v>
       </c>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="C99" s="42"/>
+      <c r="C99" s="57"/>
       <c r="D99" s="18"/>
     </row>
     <row r="100" spans="2:4" ht="21" customHeight="1">
-      <c r="C100" s="42"/>
+      <c r="C100" s="57"/>
       <c r="D100" s="18"/>
     </row>
     <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="C101" s="42"/>
+      <c r="C101" s="57"/>
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="42"/>
+      <c r="C102" s="57"/>
       <c r="D102" s="18"/>
     </row>
     <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="42"/>
+      <c r="C103" s="57"/>
       <c r="D103" s="18"/>
     </row>
     <row r="104" spans="2:4" ht="21" customHeight="1">
       <c r="B104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C104" s="41" t="s">
+      <c r="C104" s="56" t="s">
         <v>263</v>
       </c>
       <c r="D104" s="18"/>
     </row>
     <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="C105" s="42"/>
+      <c r="C105" s="57"/>
       <c r="D105" s="18"/>
     </row>
     <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="C106" s="42"/>
+      <c r="C106" s="57"/>
       <c r="D106" s="18"/>
     </row>
     <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="C107" s="42"/>
+      <c r="C107" s="57"/>
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="2:4" ht="33" customHeight="1">
-      <c r="C108" s="42"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="18"/>
     </row>
     <row r="109" spans="2:4" ht="21" customHeight="1">
       <c r="B109" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="41" t="s">
+      <c r="C109" s="56" t="s">
         <v>264</v>
       </c>
       <c r="D109" s="18"/>
     </row>
     <row r="110" spans="2:4" ht="21" customHeight="1">
-      <c r="C110" s="42"/>
+      <c r="C110" s="57"/>
       <c r="D110" s="18"/>
     </row>
     <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="C111" s="42"/>
+      <c r="C111" s="57"/>
       <c r="D111" s="18"/>
     </row>
     <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="C112" s="42"/>
+      <c r="C112" s="57"/>
       <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="C113" s="42"/>
+      <c r="C113" s="57"/>
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="21" customHeight="1">
       <c r="B114" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C114" s="43"/>
+      <c r="C114" s="34"/>
       <c r="D114" s="18"/>
     </row>
     <row r="115" spans="1:4" ht="21" customHeight="1">
-      <c r="B115" s="44" t="s">
+      <c r="B115" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C115" s="43"/>
+      <c r="C115" s="34"/>
       <c r="D115" s="18"/>
     </row>
     <row r="116" spans="1:4" ht="21" customHeight="1">
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="C116" s="43"/>
+      <c r="C116" s="34"/>
       <c r="D116" s="18"/>
     </row>
     <row r="117" spans="1:4" ht="21" customHeight="1">
       <c r="B117" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="C117" s="43"/>
+      <c r="C117" s="34"/>
       <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="C118" s="37"/>
+      <c r="C118" s="59"/>
       <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="37"/>
-      <c r="C119" s="37"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="59"/>
       <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="59"/>
       <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" ht="21" customHeight="1">
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="59"/>
       <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" ht="21" customHeight="1">
-      <c r="B122" s="37"/>
-      <c r="C122" s="37"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="59"/>
       <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" ht="21" customHeight="1">
@@ -6530,7 +10077,7 @@
       <c r="B146" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C146" s="46" t="s">
+      <c r="C146" s="37" t="s">
         <v>127</v>
       </c>
       <c r="D146" s="16" t="s">
@@ -6569,7 +10116,7 @@
       <c r="B149" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C149" s="46" t="s">
+      <c r="C149" s="37" t="s">
         <v>116</v>
       </c>
       <c r="D149" s="16" t="s">
@@ -6645,7 +10192,7 @@
       <c r="B163" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C163" s="34" t="s">
+      <c r="C163" s="33" t="s">
         <v>67</v>
       </c>
       <c r="D163" s="10" t="s">
@@ -6668,7 +10215,7 @@
       <c r="B165" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C165" s="34" t="s">
+      <c r="C165" s="33" t="s">
         <v>73</v>
       </c>
       <c r="D165" s="10" t="s">
@@ -6690,254 +10237,254 @@
       <c r="A169" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C169" s="47" t="s">
+      <c r="C169" s="38" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="13.5">
-      <c r="C170" s="48" t="s">
+      <c r="C170" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="D170" s="49" t="s">
+      <c r="D170" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="E170" s="49" t="s">
+      <c r="E170" s="40" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="21" customHeight="1">
-      <c r="E171" s="49" t="s">
+      <c r="E171" s="40" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="21" customHeight="1">
-      <c r="C172" s="47" t="s">
+      <c r="C172" s="38" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="21" customHeight="1">
-      <c r="C173" s="50" t="s">
+      <c r="C173" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="D173" s="51" t="s">
+      <c r="D173" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="E173" s="52" t="s">
+      <c r="E173" s="43" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="21" customHeight="1">
-      <c r="C174" s="53"/>
-      <c r="D174" s="54" t="s">
+      <c r="C174" s="44"/>
+      <c r="D174" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="E174" s="55" t="s">
+      <c r="E174" s="46" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="21" customHeight="1">
-      <c r="C175" s="50" t="s">
+      <c r="C175" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="D175" s="56" t="s">
+      <c r="D175" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="E175" s="57" t="s">
+      <c r="E175" s="48" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="21" customHeight="1">
-      <c r="C176" s="53"/>
-      <c r="D176" s="54" t="s">
+      <c r="C176" s="44"/>
+      <c r="D176" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="E176" s="55" t="s">
+      <c r="E176" s="46" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="177" spans="3:5" ht="21" customHeight="1">
-      <c r="C177" s="50" t="s">
+      <c r="C177" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="D177" s="51" t="s">
+      <c r="D177" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="E177" s="52" t="s">
+      <c r="E177" s="43" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="178" spans="3:5" ht="21" customHeight="1">
-      <c r="C178" s="53"/>
-      <c r="D178" s="54" t="s">
+      <c r="C178" s="44"/>
+      <c r="D178" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="E178" s="55" t="s">
+      <c r="E178" s="46" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="179" spans="3:5" ht="21" customHeight="1">
-      <c r="C179" s="50" t="s">
+      <c r="C179" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="D179" s="56" t="s">
+      <c r="D179" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="E179" s="57" t="s">
+      <c r="E179" s="48" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="180" spans="3:5" ht="21" customHeight="1">
-      <c r="C180" s="58"/>
-      <c r="D180" s="59" t="s">
+      <c r="C180" s="49"/>
+      <c r="D180" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="E180" s="60" t="s">
+      <c r="E180" s="51" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="181" spans="3:5" ht="21" customHeight="1">
-      <c r="C181" s="53"/>
-      <c r="D181" s="54" t="s">
+      <c r="C181" s="44"/>
+      <c r="D181" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="E181" s="61"/>
+      <c r="E181" s="52"/>
     </row>
     <row r="182" spans="3:5" ht="21" customHeight="1">
-      <c r="C182" s="50" t="s">
+      <c r="C182" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="D182" s="56" t="s">
+      <c r="D182" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="E182" s="57" t="s">
+      <c r="E182" s="48" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="183" spans="3:5" ht="21" customHeight="1">
-      <c r="C183" s="58"/>
-      <c r="D183" s="62" t="s">
+      <c r="C183" s="49"/>
+      <c r="D183" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="E183" s="60" t="s">
+      <c r="E183" s="51" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="184" spans="3:5" ht="21" customHeight="1">
-      <c r="C184" s="53"/>
-      <c r="D184" s="54" t="s">
+      <c r="C184" s="44"/>
+      <c r="D184" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="E184" s="55" t="s">
+      <c r="E184" s="46" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="185" spans="3:5" ht="21" customHeight="1">
-      <c r="C185" s="47" t="s">
+      <c r="C185" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="D185" s="63"/>
+      <c r="D185" s="54"/>
     </row>
     <row r="186" spans="3:5" ht="21" customHeight="1">
-      <c r="C186" s="48" t="s">
+      <c r="C186" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="D186" s="49" t="s">
+      <c r="D186" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="3:5" ht="21" customHeight="1">
-      <c r="C187" s="48" t="s">
+      <c r="C187" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="D187" s="49" t="s">
+      <c r="D187" s="40" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="188" spans="3:5" ht="21" customHeight="1">
-      <c r="C188" s="48" t="s">
+      <c r="C188" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="D188" s="49" t="s">
+      <c r="D188" s="40" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="189" spans="3:5" ht="21" customHeight="1">
-      <c r="C189" s="48" t="s">
+      <c r="C189" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="D189" s="49" t="s">
+      <c r="D189" s="40" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="190" spans="3:5" ht="21" customHeight="1">
-      <c r="C190" s="48" t="s">
+      <c r="C190" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="D190" s="49" t="s">
+      <c r="D190" s="40" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="191" spans="3:5" ht="21" customHeight="1">
-      <c r="C191" s="47" t="s">
+      <c r="C191" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="D191" s="63"/>
+      <c r="D191" s="54"/>
     </row>
     <row r="192" spans="3:5" ht="21" customHeight="1">
-      <c r="C192" s="48" t="s">
+      <c r="C192" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="D192" s="49" t="s">
+      <c r="D192" s="40" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="193" spans="3:4" ht="21" customHeight="1">
-      <c r="C193" s="48" t="s">
+      <c r="C193" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="D193" s="49" t="s">
+      <c r="D193" s="40" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="194" spans="3:4" ht="21" customHeight="1">
-      <c r="C194" s="48" t="s">
+      <c r="C194" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="D194" s="49" t="s">
+      <c r="D194" s="40" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="195" spans="3:4" ht="21" customHeight="1">
-      <c r="C195" s="48" t="s">
+      <c r="C195" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="D195" s="49" t="s">
+      <c r="D195" s="40" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="196" spans="3:4" ht="21" customHeight="1">
-      <c r="C196" s="47" t="s">
+      <c r="C196" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="D196" s="63"/>
+      <c r="D196" s="54"/>
     </row>
     <row r="197" spans="3:4" ht="21" customHeight="1">
-      <c r="C197" s="48" t="s">
+      <c r="C197" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="D197" s="63"/>
+      <c r="D197" s="54"/>
     </row>
     <row r="198" spans="3:4" ht="21" customHeight="1">
-      <c r="C198" s="48" t="s">
+      <c r="C198" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="D198" s="63"/>
+      <c r="D198" s="54"/>
     </row>
     <row r="199" spans="3:4" ht="21" customHeight="1">
-      <c r="C199" s="48" t="s">
+      <c r="C199" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="D199" s="63"/>
+      <c r="D199" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6958,8 +10505,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7038,8 +10585,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\beginner_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\maruaican\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D31048-6C4F-4EAA-8BF5-9B146498B65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SQL構文一覧 (3)" sheetId="5" r:id="rId1"/>
-    <sheet name="SQL構文一覧 (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="SQL構文一覧" sheetId="1" r:id="rId3"/>
-    <sheet name="ai_studio_code_sjisx" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="サブクエリ" sheetId="6" r:id="rId1"/>
+    <sheet name="SQL構文一覧 (3)" sheetId="5" r:id="rId2"/>
+    <sheet name="SQL構文一覧 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="SQL構文一覧" sheetId="1" r:id="rId4"/>
+    <sheet name="ai_studio_code_sjisx" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">SQL構文一覧!$A$11:$G$208</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'SQL構文一覧 (2)'!$A$11:$F$197</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">SQL構文一覧!$A$11:$G$208</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'SQL構文一覧 (2)'!$A$11:$F$197</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">サブクエリ!$A$1:$E$101</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="567">
   <si>
     <t>分類</t>
   </si>
@@ -649,7 +652,7 @@
     FOREIGN KEY (部署ID) REFERENCES 部署(部署ID), 
     CHECK (給与 &gt; 0)
 );</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>FOREIGN KEY (属性名) REFERENCES 参照テーブル名(参照属性名)
@@ -663,7 +666,7 @@
     <rPh sb="56" eb="58">
       <t>チュウイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>トランザクション内に中間ポイントを設定し、そこまでを部分的にロールバックできるようにする。</t>
@@ -837,7 +840,7 @@
   </si>
   <si>
     <t>WITH 別名 AS (  SELECT ...)  SELECT ... FROM 別名;</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>表への権限</t>
@@ -847,7 +850,7 @@
     <rPh sb="3" eb="5">
       <t>ケンゲン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>表の作成</t>
@@ -857,7 +860,7 @@
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>表の変更</t>
@@ -867,7 +870,7 @@
     <rPh sb="2" eb="4">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>表の削除</t>
@@ -877,18 +880,18 @@
     <rPh sb="2" eb="4">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>表の属性を操作</t>
     <rPh sb="2" eb="4">
       <t>ゾクセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>グループ化</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -916,7 +919,7 @@
       </rPr>
       <t xml:space="preserve"> 部署ID FROM 部署 WHERE 地区 = '東北')</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -944,7 +947,7 @@
       </rPr>
       <t>T * FROM 注文 WHERE 注文.社員ID = 社員.社員ID)</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -972,7 +975,7 @@
       </rPr>
       <t>T AVG(給与) FROM 社員 B WHERE B.部署ID = A.部署ID)</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1000,22 +1003,22 @@
       </rPr>
       <t xml:space="preserve"> AVG(給与) FROM 社員)</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>TABLE</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>INDEX</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>INDEX作成</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>集約関数：ノーマルな集約関数</t>
@@ -1028,11 +1031,11 @@
     <rPh sb="10" eb="14">
       <t>シュウヤクカンスウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>SELECT MIN(給与) FROM 社員</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>OVER()
@@ -1042,7 +1045,7 @@
 累計計算: 月ごとの売上の累計などを計算する。
 移動平均: 過去N日間の売上の平均などを計算する。
 行間の比較: 現在の行と前後の行の値を比較する（例：前日の売上との比較）。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>SELECT
@@ -1054,12 +1057,12 @@
   [PARTITION BY 列名1, ...] -- ウィンドウを分割する基準 (省略すると全体で1つのウィンドウ)
   [ORDER BY 列名2, ...]   -- ウィンドウ内での並び順
   [ROWS/RANGE フレーム指定] -- ウィンドウの範囲をさらに細かく指定 (省略可能)</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>WITH句
 【VIEWとWITH句（CTE）は、どちらも「SELECT文に名前を付けて、複雑なクエリの可読性を高める」という共通の目的】</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>VIEW作成
@@ -1106,7 +1109,7 @@
     <rPh sb="129" eb="130">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1169,7 +1172,7 @@
     <rPh sb="260" eb="261">
       <t>ヨ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>CTE (共通テーブル式・WITH句)
@@ -1193,11 +1196,11 @@
     <rPh sb="119" eb="121">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>応用情報試験での出題意図（目的）別の分類</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">VIEW
@@ -1235,15 +1238,15 @@
     <rPh sb="70" eb="72">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>メール VARCHAR(100) UNIQUE</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>UNIQUE制約</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1. 順位付け関数</t>
@@ -1299,14 +1302,14 @@
   RANK()       OVER(ORDER BY salary DESC) AS rank_num,
   DENSE_RANK() OVER(ORDER BY salary DESC) AS dense_rank_num
 FROM employees;</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>SUM()</t>
@@ -1335,7 +1338,7 @@
   monthly_sales,
   SUM(monthly_sales) OVER(ORDER BY sales_month) AS cumulative_sales
 FROM sales;</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>LAG(列, n, デフォルト値)</t>
@@ -1384,19 +1387,19 @@
   </si>
   <si>
     <t>現在の行を基準として、同じパーティション内の「前」「後」「最初」「最後」といった特定の位置にある行の値を取得します。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>GROUP BYで使う集計関数を、ウィンドウ関数として利用するものです。行を集約せず、各行に対して計算結果を返します。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>指定した順序に基づいて、各行に順位を割り振ります。ORDER BY句が必須です。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>パーティション内での相対的な位置を、0から1の間の小数で示します。統計的な分析に使われます。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>CUME_DIST()</t>
@@ -1420,18 +1423,18 @@
     <t>SELECT   emp_name,   salary,
   LAG(salary, 1, 0) OVER(ORDER BY salary) AS previous_salary
 FROM employees;</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>SELECT  emp_name,   salary,
   PERCENT_RANK() OVER(ORDER BY salary) AS salary_percent_rank,
   CUME_DIST()    OVER(ORDER BY salary) AS salary_cume_dist
 FROM employees;</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>※フレーム指定（計算範囲の指定）</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>UNBOUNDED PRECEDING: フレームの先頭（パーティションの先頭）</t>
@@ -1450,37 +1453,37 @@
   </si>
   <si>
     <t>例1：売上の「累計」を計算する</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>例2：「3ヶ月移動平均」を計算する</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>例3：パーティション全体の合計値を各行に表示する</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>※ROWS と RANGE の違い</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>RANGE: 「値」で範囲を指定します。ORDER BYで指定した列の値が同じ行は、まとめて1つの単位として扱われます。例えば給与でソートした場合、「自分と同じ給与の行」が範囲に含まれます。</t>
   </si>
   <si>
     <t>ROWS: 「物理的な行数」で範囲を指定します。2 PRECEDING は純粋に「2行前」を意味します。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>通常は ROWS の方が直感的に分かりやすく、よく使われます。RANGE は日付や給与など、同じ値が出現しうる場合に特定の計算をしたい時に使用します。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>フレーム指定は、ウィンドウ関数が計算を行う行の範囲を細かくコントロールする機能です。
 「現在の行を基準に、どこからどこまで（BETWEEN ... AND ...）」を指定します。
 累計や移動平均といった、順序に沿った動的な分析を行うために不可欠な機能です。
 これこそが、単なる GROUP BY では不可能な、ウィンドウ関数の真骨頂と言える機能の一つです。</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1512,7 +1515,7 @@
   ) AS cumulative_sales
 FROM monthly_sales;</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1544,7 +1547,7 @@
   ) AS moving_avg_3m
 FROM monthly_sales;</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1576,7 +1579,7 @@
   ) AS total_sales
 FROM monthly_sales;</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1595,7 +1598,7 @@
       </rPr>
       <t>{ROWS | RANGE} BETWEEN [開始位置] AND [終了位置]</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ウィンドウ関数：拡張された集約関数
@@ -1624,7 +1627,7 @@
     <rPh sb="144" eb="146">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>【１一般的な使用方法】
@@ -1637,39 +1640,39 @@
     <rPh sb="6" eb="10">
       <t>シヨウホウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>VIEWの作成</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>VIEWの変更</t>
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>VIEWの削除</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ALTER VIEWE (変更)</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>DROP VIEW　（削除）</t>
     <rPh sb="11" eb="13">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1830,7 +1833,7 @@
     <rPh sb="198" eb="199">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>条件に合う行の累計カウント、パーティション内の行数、（＊）は全行数を数える。</t>
@@ -1840,7 +1843,7 @@
     <rPh sb="34" eb="35">
       <t>カゾ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>SELECT文に、集約関数があったら、非集約属性はすべてGROUP BYで指定する必要がある</t>
@@ -1862,34 +1865,34 @@
     <rPh sb="41" eb="43">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>■各句の役割と違い
 【WHERE句】</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>【GROUP BY句】</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>【HAVING句】</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>■WHERE, GROUP BY, HAVING の正しい記述順序</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SQLにおいて、WHERE句、GROUP BY句、HAVING句は、テーブルから特定の条件でデータを抽出、集計する際に重要な役割を果たします。これらの句は記述する順序が決まっており、それぞれの役割とデータベース内部での処理順序を理解することが、正しいクエリを作成する上で不可欠です。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>■SQLにおけるWHERE、GROUP BY、HAVINGの位置関係と役割
 ■概要</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SQLクエリでは、以下の順序で句を記述するのが基本です。
@@ -1900,7 +1903,7 @@
 5. HAVING: GROUP BY句でグループ化された後に、そのグループに対して適用する絞り込み条件を指定します。
 6. ORDER BY: 最終的な結果セットを並べ替えます。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -1955,7 +1958,7 @@
 特徴: 集計関数（SUM(), COUNT(), AVG()など）を条件式に使うことはできません。これは、WHERE句の処理段階ではまだ集計が行われていないためです。
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2036,7 +2039,7 @@
     <rPh sb="36" eb="37">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2091,25 +2094,25 @@
       <t xml:space="preserve">例えば、「平均給与が特定の額以上の部署」といった、グループ化後のデータに対する条件を指定できます。
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>集約関数：×</t>
     <rPh sb="0" eb="4">
       <t>シュウヤクカンスウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>集約関数：○</t>
     <rPh sb="0" eb="4">
       <t>シュウヤクカンスウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>■処理順序のイメージ</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2278,7 +2281,7 @@
     <rPh sb="236" eb="238">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>　→ 指定した項目において 重複行を除いた結果を返す</t>
@@ -2537,11 +2540,11 @@
   </si>
   <si>
     <t>DISTINCT：重複する行を除いて、異なる値だけを抽出するためのキーワード</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>FROM ( SELECT DISTINCT 顧客ID  FROM 注文) AS 一意顧客</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2574,7 +2577,7 @@
 )
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2602,7 +2605,7 @@
       </rPr>
       <t>の基本的な定義</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>DISTINCT 属性　の用法</t>
@@ -2612,7 +2615,7 @@
     <rPh sb="13" eb="15">
       <t>ヨウホウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2629,7 +2632,7 @@
       </rPr>
       <t>都道府県</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2646,7 +2649,7 @@
       </rPr>
       <t xml:space="preserve"> 都道府県;</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2673,13 +2676,13 @@
       </rPr>
       <t xml:space="preserve"> FROM 表名;</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>SELECT　  カラム名1, カラム名2, ...
 FROM　  テーブル名1
 WHERE　  EXISTS (　 SELECT　  *　   FROM　   テーブル名2　   WHERE　   条件式 );</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>WHERE EXISTS　（サブクエリ）　※これ一択。完全固定。
@@ -2691,7 +2694,7 @@
     <rPh sb="27" eb="31">
       <t>カンゼンコテイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2755,25 +2758,25 @@
     <rPh sb="182" eb="184">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>①
 SELECT　  カラム名1, カラム名2, ...　FROM　  テーブル名
 WHERE　  カラム名 IN (値1, 値2, 値3, ...);</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>②
 SELECT　  カラム名1, カラム名2, ...　FROM　  テーブル名
 WHERE　 カラム名 IN (  SELECT　 カラム名　  FROM　 別のテーブル名　 WHERE　 条件式  );</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">・WHERE：この後には条件式
 ・属性 IN (カラムまたはリスト) がWHEREの条件式になる
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">FOREIGN KEY (属性名) REFERENCES 参照テーブル名(参照属性名)
@@ -2788,42 +2791,42 @@
     <rPh sb="56" eb="58">
       <t>チュウイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">既存の表の定義（列の追加・削除・変更など）を変更する。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">表をデータごと完全に削除する。元に戻せない。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">前日の売上との比較、前回購入日からの経過日数計算
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">次のキャンペーン開始日までの日数計算
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">各従業員の給与と、その部署で最も給与が高い人の給与を比較 ※
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">部署内で2番目に給与が高い人の給与を全行に表示
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">各従業員の給与と、その部署で最も給与が低い人の給与を比較
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT
@@ -2832,32 +2835,32 @@
   SUM(monthly_sales) OVER(ORDER BY sales_month) AS cumulative_sales
 FROM sales;
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">累積分布。自分を含め、自分以下の値の行が全体に占める割合を計算する。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">パーセントランク。自分より小さい値の行が全体に占める割合を計算する。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">パーティション内での相対的な位置を、0から1の間の小数で示します。統計的な分析に使われます。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">累計（例：月ごとの売上累計）、合計値の併記
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">移動平均（例：過去3日間の平均売上）、全体の平均値との比較
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">条件に合う行の累計カウント、パーティション内の行数、（＊）は全行数を数える。
@@ -2868,17 +2871,17 @@
     <rPh sb="34" eb="35">
       <t>カゾ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">パーティション内の最大値・最小値との比較
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">GROUP BYで使う集計関数を、ウィンドウ関数として利用するものです。行を集約せず、各行に対して計算結果を返します。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ウィンドウ関数：拡張された集約関数
@@ -2908,7 +2911,7 @@
     <rPh sb="144" eb="146">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">CTE (共通テーブル式・WITH句)
@@ -2933,7 +2936,7 @@
     <rPh sb="119" eb="121">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">CREATE TABLE 社員 (
@@ -2946,17 +2949,17 @@
     CHECK (給与 &gt; 0)
 );
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">CREATE TABLE 社員 (社員ID INT PRIMARY KEY, 社員名 VARCHAR(50), 部署ID INT)
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">CHECK
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">VIEW作成
@@ -3004,12 +3007,12 @@
     <rPh sb="129" eb="130">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ALTER VIEWE (変更)
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">DROP VIEW　（削除）
@@ -3017,7 +3020,7 @@
     <rPh sb="11" eb="13">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3179,17 +3182,17 @@
     <rPh sb="198" eb="199">
       <t>ブン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT 部署ID, COUNT(*) FROM 社員 GROUP BY 部署ID HAVING COUNT(*) &gt; 5
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SQLにおいて、WHERE句、GROUP BY句、HAVING句は、テーブルから特定の条件でデータを抽出、集計する際に重要な役割を果たします。これらの句は記述する順序が決まっており、それぞれの役割とデータベース内部での処理順序を理解することが、正しいクエリを作成する上で不可欠です。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SQLクエリでは、以下の順序で句を記述するのが基本です。
@@ -3200,7 +3203,7 @@
 5. HAVING: GROUP BY句でグループ化された後に、そのグループに対して適用する絞り込み条件を指定します。
 6. ORDER BY: 最終的な結果セットを並べ替えます。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3255,7 +3258,7 @@
 特徴: 集計関数（SUM(), COUNT(), AVG()など）を条件式に使うことはできません。これは、WHERE句の処理段階ではまだ集計が行われていないためです。
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3336,7 +3339,7 @@
     <rPh sb="36" eb="37">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3505,7 +3508,7 @@
     <rPh sb="236" eb="238">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3570,14 +3573,14 @@
     <rPh sb="182" eb="184">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">**注意点: `NOT IN` と `NULL`**
 サブクエリが`NULL`を返す可能性がある場合、`NOT IN`は意図しない結果になることがあります。サブクエリの結果に1つでも`NULL`が含まれていると、`NOT IN`句全体の結果が1行も返されなくなります。これは、SQLが `(値) NOT IN (値1, 値2, NULL)` を正しく評価できないためです。
 これを避けるためには、サブクエリ側で `WHERE user_id IS NOT NULL` のようにして`NULL`を予め除外する必要があります。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">【SQLの処理の順序】
@@ -3595,52 +3598,52 @@
     <rPh sb="8" eb="10">
       <t>ジュンジョ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SUM
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">AVG
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">MAX
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">MIN
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">指定した順序に基づいて、各行に順位を割り振ります。ORDER BY句が必須です。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ROW_NUMBER()
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">NTILE(n)
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">一般的な「ランキング」でよく使われる。同率2位が2人いたら、次は4位になる。（1, 2, 2, 4, ...）
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">順位の欠番を作りたくない場合に使う。同率2位が2人いても、次は3位になる。（1, 2, 2, 3, ...）
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3660,189 +3663,189 @@
       <t xml:space="preserve">{ROWS | RANGE} BETWEEN [開始位置] AND [終了位置]
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">UNBOUNDED PRECEDING: フレームの先頭（パーティションの先頭）
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">n PRECEDING: 現在の行からn行前
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">CURRENT ROW: 現在の行
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">n FOLLOWING: 現在の行からn行後
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">UNBOUNDED FOLLOWING: フレームの最後（パーティションの最後）
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">? 副問い合わせ (サブクエリ)
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">? 共通テーブル式 (CTE)
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">副問い合わせ
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">スカラ副問い合わせ
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">テーブル副問い合わせ（FROM句のサブクエリ）
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">相関副問い合わせ
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">集合演算
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">表結合の理解
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">集計処理
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">トランザクション制御
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">複数の表を結合
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">LEFT JOIN
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">BEGIN TRANSACTION;
 START TRANSACTION;
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">コミット
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ロールバック
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SAVEPOINT ポイント名;
 ROLLBACK TO ポイント名;
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">外部キー参照
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">副問い合わせによる条件指定
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">グループ化＋HAVING
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ユーザーに対して、表への操作権限などを付与する。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ユーザーから権限を剥奪する。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">正：HAVING COUNT(*) &gt; 3
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">誤：WHERE COUNT(*) &gt; 3
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">正：IS NULL
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">誤：= NULL
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT DISTINCT 都道府県
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">FROM 顧客;
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT COUNT(DISTINCT 顧客ID) AS 顧客数
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">FROM 注文;
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT *
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">WHERE 顧客ID LIKE 'A%';
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3860,12 +3863,12 @@
       <t xml:space="preserve">都道府県
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">FROM 顧客
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3883,21 +3886,21 @@
       <t xml:space="preserve"> 都道府県;
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>重複排除か、単純な一覧取得か</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">DISTINCTはシンプルな構文ながら、複数項目の扱いや集計との連携などで誤用が多い構文です。出題頻度は高くないものの、SQLの理解度を測るポイントとして問われやすいため、以下の２点に注意してください。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -3950,7 +3953,7 @@
       <t xml:space="preserve">の性能は低下する場合がある。
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4069,62 +4072,62 @@
       <t>。
 ・実データは持たない。</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>CREATE TABLE 社員 (社員ID INT PRIMARY KEY, 社員名 VARCHAR(50))</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">主キー制約　PRIMARY KEY
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">NULL制約　NOT NULL
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">UNIQUE制約　UNIQUE
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>外部キー制約　FOREIGN KEY　　　　REFERENCES</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">REVOKE 権限 ON オブジェクト FROM ユーザー;
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">GRANT 権限 ON オブジェクト TO ユーザー;
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO 社員 (社員ID, 社員名, 部署ID) VALUES (101, '田中太郎', 2)
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">UPDATE 社員 SET 給与 = 給与 * 1.05 WHERE 部署ID = 3
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">DELETE FROM 社員 WHERE 入社年 &lt; 2000
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">WHERE &lt;カラム名&gt; IN ( ①&lt;値のリスト&gt; または ②&lt;サブクエリ&gt; )
 または、
 WHERE &lt;カラム名&gt;　NOT　 IN (① &lt;値のリスト&gt; または② &lt;サブクエリ&gt; )
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">WHERE user_id IS NOT NULについて
@@ -4164,20 +4167,20 @@
     <rPh sb="176" eb="178">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">現在の行を基準として、同じパーティション内の「前」「後」「最初」「最後」といった特定の位置にある行の値を取得します。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">ROWS: </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>RANGE:</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4206,7 +4209,7 @@
       <t xml:space="preserve">」で範囲を指定します。2 PRECEDING は純粋に「2行前」を意味します。
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4235,18 +4238,18 @@
       <t xml:space="preserve">」で範囲を指定します。ORDER BYで指定した列の値が同じ行は、まとめて1つの単位として扱われます。例えば給与でソートした場合、「自分と同じ給与の行」が範囲に含まれます。
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">通常は ROWS の方が直感的に分かりやすく、よく使われます。
 RANGE は日付や給与など、同じ値が出現しうる場合に特定の計算をしたい時に使用します。
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">DISTINCT：重複する行を除いて、異なる値だけを抽出するためのキーワード
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4271,24 +4274,24 @@
       <t xml:space="preserve"> 都道府県, 市区町村
 </t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">SELECT DISTINCT </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve"> COUNT(DISTINCT</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">FROM (SELECT DISTINCT 顧客ID  FROM 注文) AS 一意顧客
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>FROM (SELECT DISTINCT</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4306,7 +4309,7 @@
       </rPr>
       <t>＜NOT＞　EXISTS</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4337,7 +4340,7 @@
     <rPh sb="6" eb="8">
       <t>ゾクセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4367,7 +4370,7 @@
       </rPr>
       <t>　 カラム名　  FROM　 別のテーブル名　 WHERE　 条件式  );</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4397,14 +4400,14 @@
       </rPr>
       <t xml:space="preserve"> (値1, 値2, 値3, ...);</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>WHERE＋条件式</t>
     <rPh sb="6" eb="9">
       <t>ジョウケンシキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>WHERE EXISTS　（相関サブクエリ）　※これ一択。完全固定。
@@ -4422,7 +4425,7 @@
     <rPh sb="57" eb="59">
       <t>ソウカン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4459,7 +4462,7 @@
     <rPh sb="116" eb="118">
       <t>ソウカン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4551,18 +4554,18 @@
     <rPh sb="282" eb="283">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve">COUNT(*)：　標準的な書き方: SQLの標準仕様では、テーブル全体の行数を数える場合は COUNT(*) と記述するのが一般的で、推奨
 COUNT *　：非標準または古い書き方:
 </t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>WHERE column_name IS NULL;      -- 値がNULLの行
 WHERE column_name IS NOT NULL;  -- 値がNULLでない行</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -4583,7 +4586,7 @@
     <rPh sb="6" eb="8">
       <t>ゾクセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>WHERE 属性 IS NULL は、それ自体で一つの条件式（述語）として完結しています。
@@ -4597,31 +4600,1079 @@
     <rPh sb="64" eb="69">
       <t>ロンリエンザンシ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>１</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>２</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>３</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>１．サブクエリの基本定義</t>
+  </si>
+  <si>
+    <t>２．使用箇所によるサブクエリの種類</t>
+  </si>
+  <si>
+    <t>２－１．WHERE句サブクエリ（最頻出）</t>
+  </si>
+  <si>
+    <t>パターンと特徴</t>
+  </si>
+  <si>
+    <t>1. 単一行サブクエリ（スカラ値）</t>
+  </si>
+  <si>
+    <t>比較演算子（=, &gt;, &lt; など）と組み合わせる。</t>
+  </si>
+  <si>
+    <t>IN, ANY, ALL などと組み合わせる。</t>
+  </si>
+  <si>
+    <t>試験の着眼点</t>
+  </si>
+  <si>
+    <t>GROUP BYや集計をした結果をさらに絞り込みたいときに有効。</t>
+  </si>
+  <si>
+    <t>集計後の条件絞り込み（HAVINGでは表現しづらい複雑条件）に頻出。</t>
+  </si>
+  <si>
+    <t>２－３．SELECT句サブクエリ（スカラサブクエリ）</t>
+  </si>
+  <si>
+    <t>３．相関サブクエリ（Correlated Subquery）</t>
+  </si>
+  <si>
+    <t>サブクエリは、外側のクエリの行ごとに繰り返し実行される。</t>
+  </si>
+  <si>
+    <t>外側の行ごとに評価されるので、非相関サブクエリより処理は重い。</t>
+  </si>
+  <si>
+    <t>「各行ごとに最大／最小を求める」パターンで頻出。</t>
+  </si>
+  <si>
+    <t>４．まとめ（使用方法と典型パターン）</t>
+  </si>
+  <si>
+    <t>２．複数行サブクエリ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>サブクエリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とは、SQL文の中で入れ子になったSELECT文のこと。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. 使用する句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>による分類（WHERE句／FROM句／SELECT句 など）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. 結果の行数・列数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>による分類（スカラ／行／表サブクエリ）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. 相関の有無</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（非相関サブクエリ／相関サブクエリ）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：条件式としてサブクエリを使用し、特定条件を満たす行を抽出する。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>試験の着眼点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：返り値は必ず１行１列でなければならない。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>試験の着眼点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：サブクエリ結果に一致する任意の値</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ANY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：いずれか１つの値との比較（例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt; ANY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は「最小値より大きい」）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：すべての値との比較（例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt; ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は「最大値より大きい」）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：サブクエリを一時的な表（派生表）として扱い、外側のSELECTで</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FROM句サブクエリには</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>必ず別名（派生表名）を付ける必要がある</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT句に置くサブクエリは必ず</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>１行１列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（スカラ値）でなければならない。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>全体集計と行データの比較</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に頻出。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>定義</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：サブクエリ内で外側のクエリの列を参照するタイプ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>処理は遅くなるが、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>行単位の比較</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に有効。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GROUP BYでは表現しにくいパターンの代表例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>例：部署ごとの平均給与を求め、平均給与が30万円以上の部署のみ抽出</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>例：社員ごとに全社平均給与との差を表示</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>SELECT 社員名, 給与,
+       給与 - (SELECT AVG(給与) FROM 社員) AS 平均差
+FROM 社員;</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>例：各社員の所属部署における最高給与者を抽出</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>相関
+ サブクエリ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：行ごとに追加計算を行い、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>１列として結果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を返す。</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>SELECT 社員名, 部署ID, 給与 FROM 社員 S1
+WHERE 給与 = ( SELECT MAX(給与) 
+               FROM 社員 S2 
+               WHERE S2.部署ID = S1.部署ID
+             );</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>例：最も高い給与の社員を抽出</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>例：東京支社の社員と同じ部署に所属する社員を抽出</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 社員名, 給与 
+FROM 社員
+WHERE 給与 = (SELECT MAX(給与) FROM 社員);
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>AS 部署別平均 としても動作するが、省略が一般的。
+派生表には必ず別名が必要であることだけは忘れないこと。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SELECT 部署ID, 平均給与
+FROM ( SELECT 部署ID, AVG(給与) AS 平均給与
+       FROM 社員
+       GROUP BY 部署ID
+      ) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>部署別平均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+WHERE 平均給与 &gt;= 300000;
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 社員名
+FROM 社員
+WHERE 部署ID IN (
+                   SELECT 部署ID 
+                   FROM 社員
+                   WHERE 支社名 = '東京'
+                 );
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>行数＝1、列数＝1 で構成される結果</t>
+  </si>
+  <si>
+    <t>例：</t>
+  </si>
+  <si>
+    <t>'東京'</t>
+  </si>
+  <si>
+    <t>スカラ値の定義</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>スカラ値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表形式ではない[単独の値]</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>WHERE句
+ サブクエリ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>SQLでは、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>別名を付けられる対象は２種類</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あります。</t>
+    </r>
+  </si>
+  <si>
+    <t>1. 列（項目）に対する別名</t>
+  </si>
+  <si>
+    <r>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を書いても書かなくてもよいが、省略すると可読性が落ちることが多い。</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT AVG(給与) AS 平均給与   -- 推奨</t>
+  </si>
+  <si>
+    <t>SELECT AVG(給与) 平均給与      -- 動作はするが分かりにくい</t>
+  </si>
+  <si>
+    <t>2. 表（テーブル・派生表）に対する別名</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">標準SQLでは </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>RDBMSごとに微妙に扱いが違い、以下の傾向があります。</t>
+  </si>
+  <si>
+    <r>
+      <t>Oracle, PostgreSQL, MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> … ASは書かなくてもOK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SQL Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> … ASは列には使うが、表には通常省略（書くと文法エラー）</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 両方ともOK（多くのDBMS）</t>
+  </si>
+  <si>
+    <t>FROM (SELECT ...) 部署別平均</t>
+  </si>
+  <si>
+    <t>FROM (SELECT ...) AS 部署別平均</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SQLにおける </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の位置づけ</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>※ASはあってもなくても動く。可読性の問題である。</t>
+    <rPh sb="12" eb="13">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カドクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>※「どちらでも正解。ただし省略形の方が試験ではよく出る」という整理でよい。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>使用箇所</t>
+  </si>
+  <si>
+    <t>サブクエリの返すもの</t>
+  </si>
+  <si>
+    <t>典型パターン</t>
+  </si>
+  <si>
+    <t>単一値（1行1列）または
+複数行1列</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>単一値
+（1行1列）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>サブクエリは、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単一の値・複数行・複数列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のいずれかを返し、</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>外側のSQL文</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（親クエリ）に結果を渡す。</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>２－２．FROM句サブクエリ（派生表・インラインビュー）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>派生表
+（複数行×複数列）</t>
+    <rPh sb="0" eb="2">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FROM句
+ サブクエリ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（インラインビュー）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT句サブクエリ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（スカラサブクエリ）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単一値比較</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,IN/ANY/ALL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>複数値比較</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>集計結果を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一時表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>として扱い、さらに抽出</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>単一値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（全社平均や最大値）を各行に付加する</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼンシャ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>例：最大給与を求める相関サブクエリは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スカラ値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。
+例：部署ごとの社員リストを返す相関サブクエリは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>複数値。</t>
+    </r>
+    <rPh sb="49" eb="50">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>行ごとに評価（スカラ又は複数値）</t>
+    <rPh sb="10" eb="11">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4755,6 +5806,76 @@
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4932,344 +6053,437 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5568,385 +6782,909 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51707CCA-56F2-4939-9226-000C3D95DDAF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="124" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="124" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="124" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="124" customWidth="1"/>
+    <col min="5" max="5" width="53.875" style="124" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="124"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="21">
+      <c r="A2" s="123" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="127" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="124" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="124" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="127" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="127" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="127" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21">
+      <c r="A12" s="123" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="B14" s="121" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="127" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="127" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="127" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="D19" s="124" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="D20" s="124" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="67.5">
+      <c r="E21" s="122" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="D22" s="127" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="127" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="D25" s="124" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="E26" s="124" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="121.5">
+      <c r="E27" s="122" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="D28" s="127" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="D29" s="119" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="D30" s="119" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="D31" s="119" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="16.5">
+      <c r="B33" s="121" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="C35" s="127" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="C36" s="127"/>
+      <c r="D36" s="124" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="108">
+      <c r="E37" s="122" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="C38" s="127" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="C39" s="120" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="C40" s="120" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="C41" s="120" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="16.5" customHeight="1">
+      <c r="C42" s="128" t="s">
+        <v>526</v>
+      </c>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+    </row>
+    <row r="44" spans="2:6" ht="16.5">
+      <c r="B44" s="121" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="19.5" customHeight="1">
+      <c r="C45" s="127" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="C46" s="127"/>
+      <c r="D46" s="124" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="40.5">
+      <c r="E47" s="122" t="s">
+        <v>518</v>
+      </c>
+      <c r="F47" s="122"/>
+    </row>
+    <row r="48" spans="2:6" ht="21">
+      <c r="D48" s="112" t="s">
+        <v>532</v>
+      </c>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="D49" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="D50" s="113" t="s">
+        <v>529</v>
+      </c>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="D51" s="113"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="D52" s="113" t="s">
+        <v>530</v>
+      </c>
+      <c r="E52" s="129">
+        <v>100</v>
+      </c>
+      <c r="F52" s="122"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="D53" s="113"/>
+      <c r="E53" s="129" t="s">
+        <v>531</v>
+      </c>
+      <c r="F53" s="122"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="E54" s="130">
+        <v>45869</v>
+      </c>
+      <c r="F54" s="122"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="C56" s="127" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="C57" s="120" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="C58" s="119" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="21">
+      <c r="A60" s="123" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="C61" s="127" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="C62" s="120" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="C63" s="120" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="D64" s="124" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="60">
+      <c r="E65" s="125" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="C66" s="127" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="C67" s="120" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="C68" s="120" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="C69" s="119" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="21">
+      <c r="A71" s="123" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:9" ht="27">
+      <c r="C73" s="134" t="s">
+        <v>551</v>
+      </c>
+      <c r="D73" s="134" t="s">
+        <v>552</v>
+      </c>
+      <c r="E73" s="134" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C74" s="139" t="s">
+        <v>534</v>
+      </c>
+      <c r="D74" s="135" t="s">
+        <v>554</v>
+      </c>
+      <c r="E74" s="137" t="s">
+        <v>562</v>
+      </c>
+      <c r="G74" s="118"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="118"/>
+    </row>
+    <row r="75" spans="1:9" ht="63" customHeight="1">
+      <c r="C75" s="139" t="s">
+        <v>560</v>
+      </c>
+      <c r="D75" s="135" t="s">
+        <v>559</v>
+      </c>
+      <c r="E75" s="138" t="s">
+        <v>563</v>
+      </c>
+      <c r="G75" s="132"/>
+      <c r="H75" s="117"/>
+      <c r="I75" s="133"/>
+    </row>
+    <row r="76" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C76" s="139" t="s">
+        <v>561</v>
+      </c>
+      <c r="D76" s="135" t="s">
+        <v>555</v>
+      </c>
+      <c r="E76" s="140" t="s">
+        <v>564</v>
+      </c>
+      <c r="G76" s="132"/>
+      <c r="H76" s="117"/>
+      <c r="I76" s="117"/>
+    </row>
+    <row r="77" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C77" s="139" t="s">
+        <v>520</v>
+      </c>
+      <c r="D77" s="126" t="s">
+        <v>566</v>
+      </c>
+      <c r="E77" s="141" t="s">
+        <v>565</v>
+      </c>
+      <c r="G77" s="132"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="C78" s="136"/>
+      <c r="D78" s="136"/>
+    </row>
+    <row r="79" spans="1:9" ht="21">
+      <c r="A79" s="112" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A81" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A82" s="113"/>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A83" s="114" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A84" s="129" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A85" s="111"/>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A86" s="116"/>
+      <c r="C86" s="116" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A87" s="116"/>
+      <c r="C87" s="116" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="89" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A89" s="114" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A90" s="115" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A91" s="115" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A92" s="131" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A93" s="131" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A94" s="111"/>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A95" s="116"/>
+      <c r="C95" s="116" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A96" s="116"/>
+      <c r="C96" s="116" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C97" s="116" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="99" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A99" s="124" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A100" s="124" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C42:E42"/>
+  </mergeCells>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="43" max="4" man="1"/>
+    <brk id="78" max="4" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A59" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A59" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="66" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="66" customWidth="1"/>
-    <col min="3" max="3" width="44.375" style="66" customWidth="1"/>
-    <col min="4" max="4" width="80" style="66" customWidth="1"/>
-    <col min="5" max="5" width="63.125" style="66" customWidth="1"/>
-    <col min="6" max="6" width="60.625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="66" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="66"/>
+    <col min="1" max="1" width="14.125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="80" style="57" customWidth="1"/>
+    <col min="5" max="5" width="63.125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="57" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="126">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="56" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="57" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="58" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="60" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="C8" s="70"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="C9" s="70"/>
+      <c r="C9" s="61"/>
     </row>
     <row r="12" spans="1:5" ht="54">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="59" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27">
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="62" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="40.5">
-      <c r="C14" s="68"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59" t="s">
         <v>447</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="62" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27">
-      <c r="C15" s="68"/>
-      <c r="D15" s="68" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>445</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27">
-      <c r="C16" s="68"/>
-      <c r="D16" s="68" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="62" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27">
-      <c r="C17" s="68"/>
-      <c r="D17" s="68" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="62" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="148.5">
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59" t="s">
         <v>373</v>
       </c>
-      <c r="F18" s="72"/>
-    </row>
-    <row r="19" spans="1:6" s="73" customFormat="1" ht="27">
-      <c r="C19" s="74" t="s">
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="1:6" s="64" customFormat="1" ht="27">
+      <c r="C19" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="91" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="73" customFormat="1" ht="27">
-      <c r="C20" s="74" t="s">
+    <row r="20" spans="1:6" s="64" customFormat="1" ht="27">
+      <c r="C20" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="91" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="31" customFormat="1">
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="1:6">
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:6" s="73" customFormat="1" ht="148.5">
-      <c r="A23" s="73" t="s">
+    <row r="23" spans="1:6" s="64" customFormat="1" ht="148.5">
+      <c r="A23" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="106" t="s">
+      <c r="E23" s="92" t="s">
         <v>442</v>
       </c>
-      <c r="F23" s="105"/>
-    </row>
-    <row r="24" spans="1:6" s="73" customFormat="1" ht="175.5">
-      <c r="B24" s="106" t="s">
+      <c r="F23" s="91"/>
+    </row>
+    <row r="24" spans="1:6" s="64" customFormat="1" ht="175.5">
+      <c r="B24" s="92" t="s">
         <v>376</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="74"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="27">
-      <c r="B25" s="68"/>
-      <c r="C25" s="77" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="E25" s="68"/>
-    </row>
-    <row r="26" spans="1:6" s="73" customFormat="1" ht="27">
-      <c r="B26" s="74"/>
-      <c r="C26" s="77" t="s">
+      <c r="E25" s="59"/>
+    </row>
+    <row r="26" spans="1:6" s="64" customFormat="1" ht="27">
+      <c r="B26" s="65"/>
+      <c r="C26" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="D26" s="106" t="s">
+      <c r="D26" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="E26" s="74"/>
-    </row>
-    <row r="27" spans="1:6" s="73" customFormat="1"/>
-    <row r="28" spans="1:6" s="73" customFormat="1" ht="81">
-      <c r="A28" s="73" t="s">
+      <c r="E26" s="65"/>
+    </row>
+    <row r="27" spans="1:6" s="64" customFormat="1"/>
+    <row r="28" spans="1:6" s="64" customFormat="1" ht="81">
+      <c r="A28" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="105" t="s">
+      <c r="E28" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="F28" s="105" t="s">
+      <c r="F28" s="91" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="73" customFormat="1"/>
+    <row r="29" spans="1:6" s="64" customFormat="1"/>
     <row r="30" spans="1:6" ht="27">
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="105" t="s">
+      <c r="D30" s="91" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="27">
-      <c r="B31" s="73"/>
-      <c r="C31" s="73" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="91" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
     </row>
     <row r="33" spans="1:5" ht="40.5">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="57" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="121.5">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="59" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="189">
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="57" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27">
-      <c r="B39" s="80"/>
-      <c r="C39" s="68" t="s">
+      <c r="B39" s="71"/>
+      <c r="C39" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="59" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="27">
-      <c r="B40" s="80"/>
-      <c r="C40" s="68" t="s">
+      <c r="B40" s="71"/>
+      <c r="C40" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="59" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27">
-      <c r="B41" s="81"/>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="72"/>
+      <c r="C41" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="59" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="27">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="57" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="27">
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="82" t="s">
+      <c r="E43" s="73" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27">
-      <c r="B44" s="81"/>
-      <c r="C44" s="68" t="s">
+      <c r="B44" s="72"/>
+      <c r="C44" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="59" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="67.5">
       <c r="B45" s="31"/>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="74" t="s">
         <v>281</v>
       </c>
       <c r="D45" s="31" t="s">
@@ -5956,7 +7694,7 @@
     </row>
     <row r="46" spans="1:5" ht="135">
       <c r="B46" s="31"/>
-      <c r="C46" s="83" t="s">
+      <c r="C46" s="74" t="s">
         <v>279</v>
       </c>
       <c r="D46" s="31" t="s">
@@ -5966,7 +7704,7 @@
     </row>
     <row r="47" spans="1:5" ht="94.5">
       <c r="B47" s="31"/>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="74" t="s">
         <v>276</v>
       </c>
       <c r="D47" s="31" t="s">
@@ -5978,7 +7716,7 @@
     </row>
     <row r="48" spans="1:5" ht="81">
       <c r="B48" s="31"/>
-      <c r="C48" s="83" t="s">
+      <c r="C48" s="74" t="s">
         <v>277</v>
       </c>
       <c r="D48" s="31" t="s">
@@ -5990,7 +7728,7 @@
     </row>
     <row r="49" spans="1:5" ht="94.5">
       <c r="B49" s="31"/>
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="74" t="s">
         <v>278</v>
       </c>
       <c r="D49" s="31" t="s">
@@ -6002,164 +7740,164 @@
     </row>
     <row r="50" spans="1:5" ht="108">
       <c r="B50" s="31"/>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="74" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="148.5">
       <c r="B51" s="31"/>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="57" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" s="31"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="68" t="s">
+      <c r="A53" s="59" t="s">
         <v>471</v>
       </c>
       <c r="B53" s="31"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="83"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="74"/>
     </row>
     <row r="54" spans="1:5" ht="135">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="62" t="s">
         <v>467</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="74" t="s">
         <v>473</v>
       </c>
-      <c r="E54" s="66" t="s">
+      <c r="E54" s="57" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="81">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="62" t="s">
         <v>468</v>
       </c>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="59" t="s">
         <v>453</v>
       </c>
-      <c r="D55" s="83" t="s">
+      <c r="D55" s="74" t="s">
         <v>470</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E55" s="57" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="121.5">
       <c r="B56" s="31"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="83" t="s">
+      <c r="C56" s="66"/>
+      <c r="D56" s="74" t="s">
         <v>469</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="57" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="121.5">
       <c r="B57" s="31"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="66" t="s">
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="57" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="31" customFormat="1" ht="84" customHeight="1">
-      <c r="A58" s="68" t="s">
+      <c r="A58" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="59" t="s">
         <v>477</v>
       </c>
-      <c r="C58" s="83" t="s">
+      <c r="C58" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="D58" s="83" t="s">
+      <c r="D58" s="74" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="31" customFormat="1">
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
     </row>
     <row r="60" spans="1:5" s="31" customFormat="1">
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
     </row>
     <row r="61" spans="1:5" s="31" customFormat="1">
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
     </row>
     <row r="62" spans="1:5" s="31" customFormat="1">
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
     </row>
     <row r="63" spans="1:5" ht="81">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="68" t="s">
+      <c r="C63" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="66" t="s">
+      <c r="E63" s="57" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="27">
-      <c r="B64" s="80"/>
-      <c r="C64" s="68" t="s">
+      <c r="B64" s="71"/>
+      <c r="C64" s="59" t="s">
         <v>389</v>
       </c>
-      <c r="D64" s="68" t="s">
+      <c r="D64" s="59" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="27">
-      <c r="B65" s="80"/>
-      <c r="C65" s="68" t="s">
+      <c r="B65" s="71"/>
+      <c r="C65" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="59" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="27">
-      <c r="B66" s="80"/>
-      <c r="C66" s="68" t="s">
+      <c r="B66" s="71"/>
+      <c r="C66" s="59" t="s">
         <v>391</v>
       </c>
-      <c r="D66" s="68" t="s">
+      <c r="D66" s="59" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27">
-      <c r="B67" s="81"/>
-      <c r="C67" s="68" t="s">
+      <c r="B67" s="72"/>
+      <c r="C67" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="D67" s="68" t="s">
+      <c r="D67" s="59" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6168,26 +7906,26 @@
       <c r="D68" s="31"/>
     </row>
     <row r="69" spans="1:6" ht="162">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="C69" s="68" t="s">
+      <c r="C69" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="D69" s="68" t="s">
+      <c r="D69" s="59" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="57" t="s">
         <v>212</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
-      <c r="F70" s="84" t="s">
+      <c r="F70" s="99" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6199,57 +7937,57 @@
         <v>393</v>
       </c>
       <c r="D71" s="31"/>
-      <c r="F71" s="84"/>
+      <c r="F71" s="99"/>
     </row>
     <row r="72" spans="1:6" ht="27">
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="D72" s="68" t="s">
+      <c r="D72" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="E72" s="68" t="s">
+      <c r="E72" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="84"/>
+      <c r="F72" s="99"/>
     </row>
     <row r="73" spans="1:6" ht="40.5">
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="68" t="s">
+      <c r="E73" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F73" s="84"/>
+      <c r="F73" s="99"/>
     </row>
     <row r="74" spans="1:6" ht="40.5">
       <c r="B74" s="31"/>
-      <c r="C74" s="68" t="s">
+      <c r="C74" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="68" t="s">
+      <c r="D74" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="E74" s="68" t="s">
+      <c r="E74" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F74" s="84"/>
+      <c r="F74" s="99"/>
     </row>
     <row r="75" spans="1:6" ht="27">
       <c r="B75" s="31"/>
-      <c r="C75" s="68" t="s">
+      <c r="C75" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="D75" s="68" t="s">
+      <c r="D75" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="68" t="s">
+      <c r="E75" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F75" s="84"/>
+      <c r="F75" s="99"/>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="31"/>
@@ -6264,44 +8002,44 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="27">
-      <c r="C78" s="68" t="s">
+      <c r="C78" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="D78" s="68" t="s">
+      <c r="D78" s="59" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="27">
       <c r="B79" s="31"/>
-      <c r="C79" s="68" t="s">
+      <c r="C79" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="D79" s="68" t="s">
+      <c r="D79" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E79" s="85" t="s">
+      <c r="E79" s="97" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="27">
       <c r="B80" s="31"/>
-      <c r="C80" s="68" t="s">
+      <c r="C80" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="D80" s="68" t="s">
+      <c r="D80" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E80" s="85"/>
+      <c r="E80" s="97"/>
     </row>
     <row r="81" spans="2:6" ht="27">
       <c r="B81" s="31"/>
-      <c r="C81" s="68" t="s">
+      <c r="C81" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D81" s="68" t="s">
+      <c r="D81" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="85"/>
+      <c r="E81" s="97"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="31"/>
@@ -6316,70 +8054,70 @@
       </c>
     </row>
     <row r="84" spans="2:6" ht="27">
-      <c r="C84" s="68" t="s">
+      <c r="C84" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D84" s="68" t="s">
+      <c r="D84" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="E84" s="68" t="s">
+      <c r="E84" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F84" s="85" t="s">
+      <c r="F84" s="97" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="27">
       <c r="B85" s="31"/>
-      <c r="C85" s="68" t="s">
+      <c r="C85" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="D85" s="68" t="s">
+      <c r="D85" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="E85" s="68" t="s">
+      <c r="E85" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F85" s="85"/>
+      <c r="F85" s="97"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
-      <c r="C86" s="68" t="s">
+      <c r="C86" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="D86" s="68" t="s">
+      <c r="D86" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="E86" s="68" t="s">
+      <c r="E86" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F86" s="85"/>
+      <c r="F86" s="97"/>
     </row>
     <row r="87" spans="2:6" ht="27">
       <c r="B87" s="31"/>
-      <c r="C87" s="68" t="s">
+      <c r="C87" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="D87" s="68" t="s">
+      <c r="D87" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="E87" s="68" t="s">
+      <c r="E87" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F87" s="85"/>
+      <c r="F87" s="97"/>
     </row>
     <row r="88" spans="2:6" ht="27">
       <c r="B88" s="31"/>
-      <c r="C88" s="68" t="s">
+      <c r="C88" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="D88" s="68" t="s">
+      <c r="D88" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="E88" s="68" t="s">
+      <c r="E88" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F88" s="85"/>
+      <c r="F88" s="97"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="31"/>
@@ -6389,854 +8127,854 @@
       <c r="B90" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C90" s="66" t="s">
+      <c r="C90" s="57" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="27">
-      <c r="C91" s="68" t="s">
+      <c r="C91" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="D91" s="68" t="s">
+      <c r="D91" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="E91" s="68" t="s">
+      <c r="E91" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F91" s="85" t="s">
+      <c r="F91" s="97" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="27">
-      <c r="C92" s="68" t="s">
+      <c r="C92" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="D92" s="68" t="s">
+      <c r="D92" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="E92" s="68" t="s">
+      <c r="E92" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="85"/>
+      <c r="F92" s="97"/>
     </row>
     <row r="93" spans="2:6">
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
     </row>
     <row r="94" spans="2:6" ht="27">
-      <c r="B94" s="82" t="s">
+      <c r="B94" s="73" t="s">
         <v>248</v>
       </c>
       <c r="D94" s="31"/>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="100" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="87" t="s">
+      <c r="C95" s="101" t="s">
         <v>398</v>
       </c>
-      <c r="D95" s="67" t="s">
+      <c r="D95" s="58" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="85"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="68" t="s">
+      <c r="B96" s="97"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="85"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="67" t="s">
+      <c r="B97" s="97"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="27">
-      <c r="B98" s="85"/>
-      <c r="C98" s="87"/>
-      <c r="D98" s="68" t="s">
+      <c r="B98" s="97"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="27">
-      <c r="B99" s="85"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="68" t="s">
+      <c r="B99" s="97"/>
+      <c r="C99" s="101"/>
+      <c r="D99" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="85"/>
-      <c r="C100" s="87"/>
+      <c r="B100" s="97"/>
+      <c r="C100" s="101"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="66" t="s">
+      <c r="B101" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="88" t="s">
+      <c r="C101" s="96" t="s">
         <v>262</v>
       </c>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="88"/>
+      <c r="C102" s="96"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="88"/>
+      <c r="C103" s="96"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="88"/>
+      <c r="C104" s="96"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="88"/>
+      <c r="C105" s="96"/>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="88"/>
+      <c r="C106" s="96"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="66" t="s">
+      <c r="B107" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="88" t="s">
+      <c r="C107" s="96" t="s">
         <v>263</v>
       </c>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="88"/>
+      <c r="C108" s="96"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="88"/>
+      <c r="C109" s="96"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="88"/>
+      <c r="C110" s="96"/>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="88"/>
+      <c r="C111" s="96"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4" ht="27">
-      <c r="B112" s="66" t="s">
+      <c r="B112" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="88" t="s">
+      <c r="C112" s="96" t="s">
         <v>264</v>
       </c>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="88"/>
+      <c r="C113" s="96"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="88"/>
+      <c r="C114" s="96"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" s="88"/>
+      <c r="C115" s="96"/>
       <c r="D115" s="31"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" s="88"/>
+      <c r="C116" s="96"/>
       <c r="D116" s="31"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="C117" s="89"/>
+      <c r="C117" s="75"/>
       <c r="D117" s="31"/>
     </row>
     <row r="118" spans="1:4" ht="27">
-      <c r="B118" s="66" t="s">
+      <c r="B118" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="C118" s="67" t="s">
+      <c r="C118" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="D118" s="68" t="s">
+      <c r="D118" s="59" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="40.5">
-      <c r="C119" s="68" t="s">
+      <c r="C119" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="D119" s="68" t="s">
+      <c r="D119" s="59" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="40.5">
-      <c r="C120" s="108"/>
-      <c r="D120" s="67" t="s">
+      <c r="C120" s="93"/>
+      <c r="D120" s="58" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="85" t="s">
+      <c r="B121" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="C121" s="85"/>
+      <c r="C121" s="97"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="85"/>
-      <c r="C122" s="85"/>
+      <c r="B122" s="97"/>
+      <c r="C122" s="97"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
+      <c r="B123" s="97"/>
+      <c r="C123" s="97"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="B124" s="85"/>
-      <c r="C124" s="85"/>
+      <c r="B124" s="97"/>
+      <c r="C124" s="97"/>
       <c r="D124" s="31"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
+      <c r="B125" s="97"/>
+      <c r="C125" s="97"/>
       <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" ht="40.5">
-      <c r="A126" s="66" t="s">
+      <c r="A126" s="57" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="27">
-      <c r="B127" s="105" t="s">
+      <c r="B127" s="91" t="s">
         <v>404</v>
       </c>
-      <c r="D127" s="73" t="s">
+      <c r="D127" s="64" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="27">
-      <c r="B128" s="105" t="s">
+      <c r="B128" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="D128" s="73" t="s">
+      <c r="D128" s="64" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="B129" s="73"/>
+      <c r="B129" s="64"/>
     </row>
     <row r="130" spans="1:4" ht="27">
-      <c r="B130" s="68" t="s">
+      <c r="B130" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="C130" s="69" t="s">
+      <c r="C130" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D130" s="68" t="s">
+      <c r="D130" s="59" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="27">
-      <c r="B131" s="68" t="s">
+      <c r="B131" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="C131" s="68" t="s">
+      <c r="C131" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="69" t="s">
+      <c r="D131" s="60" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="40.5">
-      <c r="B132" s="68" t="s">
+      <c r="B132" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="C132" s="68" t="s">
+      <c r="C132" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="D132" s="69" t="s">
+      <c r="D132" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="27">
-      <c r="B133" s="68" t="s">
+      <c r="B133" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="C133" s="68" t="s">
+      <c r="C133" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D133" s="69" t="s">
+      <c r="D133" s="60" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="27">
-      <c r="B134" s="68" t="s">
+      <c r="B134" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="C134" s="68" t="s">
+      <c r="C134" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="D134" s="73" t="s">
+      <c r="D134" s="64" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="B135" s="67" t="s">
+      <c r="B135" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="67" t="s">
+      <c r="C135" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D135" s="67" t="s">
+      <c r="D135" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="27">
-      <c r="B136" s="68" t="s">
+      <c r="B136" s="59" t="s">
         <v>411</v>
       </c>
-      <c r="C136" s="69" t="s">
+      <c r="C136" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D136" s="68" t="s">
+      <c r="D136" s="59" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="27">
-      <c r="B137" s="68" t="s">
+      <c r="B137" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="C137" s="69" t="s">
+      <c r="C137" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D137" s="68" t="s">
+      <c r="D137" s="59" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="27">
-      <c r="B138" s="68" t="s">
+      <c r="B138" s="59" t="s">
         <v>413</v>
       </c>
-      <c r="C138" s="69" t="s">
+      <c r="C138" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D138" s="68" t="s">
+      <c r="D138" s="59" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="27">
-      <c r="A141" s="66" t="s">
+      <c r="A141" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B141" s="79" t="s">
+      <c r="B141" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="C141" s="68" t="s">
+      <c r="C141" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D141" s="68" t="s">
+      <c r="D141" s="59" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="27">
-      <c r="B142" s="81"/>
-      <c r="C142" s="68" t="s">
+      <c r="B142" s="72"/>
+      <c r="C142" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="D142" s="68" t="s">
+      <c r="D142" s="59" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="31" customFormat="1">
-      <c r="C143" s="83"/>
-      <c r="D143" s="83"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
     </row>
     <row r="144" spans="1:4" ht="27">
-      <c r="A144" s="66" t="s">
+      <c r="A144" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B144" s="79" t="s">
+      <c r="B144" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C144" s="68" t="s">
+      <c r="C144" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="D144" s="68" t="s">
+      <c r="D144" s="59" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="27">
-      <c r="B145" s="80"/>
-      <c r="C145" s="68" t="s">
+      <c r="B145" s="71"/>
+      <c r="C145" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D145" s="68" t="s">
+      <c r="D145" s="59" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="27">
-      <c r="B146" s="80"/>
-      <c r="C146" s="68" t="s">
+      <c r="B146" s="71"/>
+      <c r="C146" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D146" s="68" t="s">
+      <c r="D146" s="59" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="27">
-      <c r="B147" s="81"/>
-      <c r="C147" s="68" t="s">
+      <c r="B147" s="72"/>
+      <c r="C147" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D147" s="68" t="s">
+      <c r="D147" s="59" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="27">
-      <c r="A148" s="66" t="s">
+      <c r="A148" s="57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="73" customFormat="1" ht="40.5">
-      <c r="A149" s="73" t="s">
+    <row r="149" spans="1:6" s="64" customFormat="1" ht="40.5">
+      <c r="A149" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B149" s="74" t="s">
+      <c r="B149" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="C149" s="106" t="s">
+      <c r="C149" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="D149" s="74" t="s">
+      <c r="D149" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="E149" s="73" t="s">
+      <c r="E149" s="64" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="27">
-      <c r="A150" s="73"/>
-      <c r="B150" s="106" t="s">
+      <c r="A150" s="64"/>
+      <c r="B150" s="92" t="s">
         <v>417</v>
       </c>
-      <c r="C150" s="74" t="s">
+      <c r="C150" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D150" s="74" t="s">
+      <c r="D150" s="65" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="27">
-      <c r="A151" s="73"/>
-      <c r="B151" s="106" t="s">
+      <c r="A151" s="64"/>
+      <c r="B151" s="92" t="s">
         <v>418</v>
       </c>
-      <c r="C151" s="74" t="s">
+      <c r="C151" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D151" s="74" t="s">
+      <c r="D151" s="65" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="40.5">
-      <c r="A152" s="73"/>
-      <c r="B152" s="74" t="s">
+      <c r="A152" s="64"/>
+      <c r="B152" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C152" s="106" t="s">
+      <c r="C152" s="92" t="s">
         <v>419</v>
       </c>
-      <c r="D152" s="74" t="s">
+      <c r="D152" s="65" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="40.5">
-      <c r="A153" s="66" t="s">
+      <c r="A153" s="57" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="27">
-      <c r="A154" s="66" t="s">
+      <c r="A154" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="B154" s="66" t="s">
+      <c r="B154" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C154" s="68" t="s">
+      <c r="C154" s="59" t="s">
         <v>420</v>
       </c>
-      <c r="D154" s="68" t="s">
+      <c r="D154" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="27">
-      <c r="C155" s="68" t="s">
+      <c r="C155" s="59" t="s">
         <v>421</v>
       </c>
-      <c r="D155" s="68" t="s">
+      <c r="D155" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="27">
-      <c r="C156" s="68" t="s">
+      <c r="C156" s="59" t="s">
         <v>422</v>
       </c>
-      <c r="D156" s="68" t="s">
+      <c r="D156" s="59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="73" customFormat="1" ht="27">
-      <c r="E158" s="105" t="s">
+    <row r="158" spans="1:6" s="64" customFormat="1" ht="27">
+      <c r="E158" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="F158" s="73" t="s">
+      <c r="F158" s="64" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="73" customFormat="1" ht="27">
-      <c r="E159" s="105" t="s">
+    <row r="159" spans="1:6" s="64" customFormat="1" ht="27">
+      <c r="E159" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="F159" s="73" t="s">
+      <c r="F159" s="64" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="27">
-      <c r="A161" s="66" t="s">
+      <c r="A161" s="57" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="27">
-      <c r="A162" s="66" t="s">
+      <c r="A162" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B162" s="79" t="s">
+      <c r="B162" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C162" s="67" t="s">
+      <c r="C162" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="D162" s="68" t="s">
+      <c r="D162" s="59" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="27">
-      <c r="B163" s="81"/>
-      <c r="C163" s="68" t="s">
+      <c r="B163" s="72"/>
+      <c r="C163" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="D163" s="68" t="s">
+      <c r="D163" s="59" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="27">
-      <c r="A164" s="66" t="s">
+      <c r="A164" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B164" s="79" t="s">
+      <c r="B164" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C164" s="67" t="s">
+      <c r="C164" s="58" t="s">
         <v>427</v>
       </c>
-      <c r="D164" s="68" t="s">
+      <c r="D164" s="59" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="27">
-      <c r="B165" s="81"/>
-      <c r="C165" s="68" t="s">
+      <c r="B165" s="72"/>
+      <c r="C165" s="59" t="s">
         <v>428</v>
       </c>
-      <c r="D165" s="68" t="s">
+      <c r="D165" s="59" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="27">
-      <c r="A168" s="66" t="s">
+      <c r="A168" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="C168" s="90" t="s">
+      <c r="C168" s="76" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="38.25">
-      <c r="C169" s="91" t="s">
+      <c r="C169" s="77" t="s">
         <v>461</v>
       </c>
-      <c r="D169" s="91" t="s">
+      <c r="D169" s="77" t="s">
         <v>347</v>
       </c>
-      <c r="E169" s="91" t="s">
+      <c r="E169" s="77" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="E170" s="91" t="s">
+      <c r="E170" s="77" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15">
-      <c r="C171" s="90" t="s">
+      <c r="C171" s="76" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="25.5">
-      <c r="C172" s="92" t="s">
+      <c r="C172" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="D172" s="93" t="s">
+      <c r="D172" s="79" t="s">
         <v>429</v>
       </c>
-      <c r="E172" s="94" t="s">
+      <c r="E172" s="80" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="25.5">
-      <c r="C173" s="109" t="s">
+      <c r="C173" s="94" t="s">
         <v>463</v>
       </c>
-      <c r="D173" s="96" t="s">
+      <c r="D173" s="82" t="s">
         <v>430</v>
       </c>
-      <c r="E173" s="97" t="s">
+      <c r="E173" s="83" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5">
-      <c r="C174" s="92" t="s">
+      <c r="C174" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="D174" s="98" t="s">
+      <c r="D174" s="84" t="s">
         <v>462</v>
       </c>
-      <c r="E174" s="99" t="s">
+      <c r="E174" s="85" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="25.5">
-      <c r="C175" s="109" t="s">
+      <c r="C175" s="94" t="s">
         <v>463</v>
       </c>
-      <c r="D175" s="96" t="s">
+      <c r="D175" s="82" t="s">
         <v>430</v>
       </c>
-      <c r="E175" s="97" t="s">
+      <c r="E175" s="83" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="25.5">
-      <c r="C176" s="92" t="s">
+      <c r="C176" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="D176" s="93" t="s">
+      <c r="D176" s="79" t="s">
         <v>431</v>
       </c>
-      <c r="E176" s="94" t="s">
+      <c r="E176" s="80" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="177" spans="3:5" ht="25.5">
-      <c r="C177" s="109" t="s">
+      <c r="C177" s="94" t="s">
         <v>464</v>
       </c>
-      <c r="D177" s="96" t="s">
+      <c r="D177" s="82" t="s">
         <v>432</v>
       </c>
-      <c r="E177" s="97" t="s">
+      <c r="E177" s="83" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="178" spans="3:5" ht="25.5">
-      <c r="C178" s="92" t="s">
+      <c r="C178" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="D178" s="98" t="s">
+      <c r="D178" s="84" t="s">
         <v>433</v>
       </c>
-      <c r="E178" s="99" t="s">
+      <c r="E178" s="85" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="179" spans="3:5" ht="25.5">
-      <c r="C179" s="110" t="s">
+      <c r="C179" s="95" t="s">
         <v>466</v>
       </c>
-      <c r="D179" s="101" t="s">
+      <c r="D179" s="87" t="s">
         <v>465</v>
       </c>
-      <c r="E179" s="102" t="s">
+      <c r="E179" s="88" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="180" spans="3:5" ht="25.5">
-      <c r="C180" s="95"/>
-      <c r="D180" s="96" t="s">
+      <c r="C180" s="81"/>
+      <c r="D180" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="E180" s="103"/>
+      <c r="E180" s="89"/>
     </row>
     <row r="181" spans="3:5" ht="25.5">
-      <c r="C181" s="92" t="s">
+      <c r="C181" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="D181" s="98" t="s">
+      <c r="D181" s="84" t="s">
         <v>435</v>
       </c>
-      <c r="E181" s="99" t="s">
+      <c r="E181" s="85" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="182" spans="3:5" ht="25.5">
-      <c r="C182" s="100"/>
-      <c r="D182" s="104" t="s">
+      <c r="C182" s="86"/>
+      <c r="D182" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="E182" s="102" t="s">
+      <c r="E182" s="88" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="183" spans="3:5" ht="25.5">
-      <c r="C183" s="95"/>
-      <c r="D183" s="96" t="s">
+      <c r="C183" s="81"/>
+      <c r="D183" s="82" t="s">
         <v>437</v>
       </c>
-      <c r="E183" s="97" t="s">
+      <c r="E183" s="83" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="184" spans="3:5" ht="30">
-      <c r="C184" s="90" t="s">
+      <c r="C184" s="76" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="185" spans="3:5">
-      <c r="C185" s="91" t="s">
+      <c r="C185" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="D185" s="91" t="s">
+      <c r="D185" s="77" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="3:5">
-      <c r="C186" s="91" t="s">
+      <c r="C186" s="77" t="s">
         <v>319</v>
       </c>
-      <c r="D186" s="91" t="s">
+      <c r="D186" s="77" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="187" spans="3:5">
-      <c r="C187" s="91" t="s">
+      <c r="C187" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="D187" s="91" t="s">
+      <c r="D187" s="77" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="188" spans="3:5">
-      <c r="C188" s="91" t="s">
+      <c r="C188" s="77" t="s">
         <v>323</v>
       </c>
-      <c r="D188" s="91" t="s">
+      <c r="D188" s="77" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="189" spans="3:5">
-      <c r="C189" s="91" t="s">
+      <c r="C189" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="D189" s="91" t="s">
+      <c r="D189" s="77" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="190" spans="3:5" ht="15">
-      <c r="C190" s="90" t="s">
+      <c r="C190" s="76" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="191" spans="3:5">
-      <c r="C191" s="91" t="s">
+      <c r="C191" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="D191" s="91" t="s">
+      <c r="D191" s="77" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="192" spans="3:5">
-      <c r="C192" s="91" t="s">
+      <c r="C192" s="77" t="s">
         <v>330</v>
       </c>
-      <c r="D192" s="91" t="s">
+      <c r="D192" s="77" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="193" spans="3:4">
-      <c r="C193" s="91" t="s">
+      <c r="C193" s="77" t="s">
         <v>332</v>
       </c>
-      <c r="D193" s="91" t="s">
+      <c r="D193" s="77" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="194" spans="3:4">
-      <c r="C194" s="91" t="s">
+      <c r="C194" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="D194" s="91" t="s">
+      <c r="D194" s="77" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="195" spans="3:4" ht="15">
-      <c r="C195" s="90" t="s">
+      <c r="C195" s="76" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="196" spans="3:4" ht="51" customHeight="1">
-      <c r="C196" s="107" t="s">
+      <c r="C196" s="98" t="s">
         <v>439</v>
       </c>
-      <c r="D196" s="107"/>
+      <c r="D196" s="98"/>
     </row>
     <row r="197" spans="3:4">
-      <c r="C197" s="91" t="s">
+      <c r="C197" s="77" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="198" spans="3:4">
-      <c r="C198" s="91" t="s">
+      <c r="C198" s="77" t="s">
         <v>339</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="B121:C125"/>
-    <mergeCell ref="C196:D196"/>
     <mergeCell ref="F70:F75"/>
     <mergeCell ref="E79:E81"/>
     <mergeCell ref="F84:F88"/>
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="C95:C100"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="B121:C125"/>
+    <mergeCell ref="C196:D196"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7248,373 +8986,373 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="66" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="66" customWidth="1"/>
-    <col min="3" max="3" width="44.375" style="66" customWidth="1"/>
-    <col min="4" max="4" width="80" style="66" customWidth="1"/>
-    <col min="5" max="5" width="63.125" style="66" customWidth="1"/>
-    <col min="6" max="6" width="60.625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="66" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="66"/>
+    <col min="1" max="1" width="14.125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="57" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="80" style="57" customWidth="1"/>
+    <col min="5" max="5" width="63.125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="57" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="126">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="56" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="67.5">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="57" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="58" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="60" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="C8" s="70"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="C9" s="70"/>
+      <c r="C9" s="61"/>
     </row>
     <row r="12" spans="1:5" ht="54">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="59" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27">
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="62" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="40.5">
-      <c r="C14" s="68"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59" t="s">
         <v>447</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="62" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27">
-      <c r="C15" s="68"/>
-      <c r="D15" s="68" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59" t="s">
         <v>445</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27">
-      <c r="C16" s="68"/>
-      <c r="D16" s="68" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="62" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27">
-      <c r="C17" s="68"/>
-      <c r="D17" s="68" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="62" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="148.5">
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59" t="s">
         <v>373</v>
       </c>
-      <c r="F18" s="72"/>
-    </row>
-    <row r="19" spans="1:6" s="73" customFormat="1" ht="27">
-      <c r="C19" s="74" t="s">
+      <c r="F18" s="63"/>
+    </row>
+    <row r="19" spans="1:6" s="64" customFormat="1" ht="27">
+      <c r="C19" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="91" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="73" customFormat="1" ht="27">
-      <c r="C20" s="74" t="s">
+    <row r="20" spans="1:6" s="64" customFormat="1" ht="27">
+      <c r="C20" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="91" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="31" customFormat="1">
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="1:6">
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:6" s="73" customFormat="1" ht="148.5">
-      <c r="A23" s="73" t="s">
+    <row r="23" spans="1:6" s="64" customFormat="1" ht="148.5">
+      <c r="A23" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="106" t="s">
+      <c r="E23" s="92" t="s">
         <v>442</v>
       </c>
-      <c r="F23" s="105"/>
-    </row>
-    <row r="24" spans="1:6" s="73" customFormat="1" ht="175.5">
-      <c r="B24" s="106" t="s">
+      <c r="F23" s="91"/>
+    </row>
+    <row r="24" spans="1:6" s="64" customFormat="1" ht="175.5">
+      <c r="B24" s="92" t="s">
         <v>376</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="74"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="27">
-      <c r="B25" s="68"/>
-      <c r="C25" s="77" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="E25" s="68"/>
-    </row>
-    <row r="26" spans="1:6" s="73" customFormat="1" ht="27">
-      <c r="B26" s="74"/>
-      <c r="C26" s="77" t="s">
+      <c r="E25" s="59"/>
+    </row>
+    <row r="26" spans="1:6" s="64" customFormat="1" ht="27">
+      <c r="B26" s="65"/>
+      <c r="C26" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="D26" s="106" t="s">
+      <c r="D26" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="E26" s="74"/>
-    </row>
-    <row r="27" spans="1:6" s="73" customFormat="1"/>
-    <row r="28" spans="1:6" s="73" customFormat="1" ht="81">
-      <c r="A28" s="73" t="s">
+      <c r="E26" s="65"/>
+    </row>
+    <row r="27" spans="1:6" s="64" customFormat="1"/>
+    <row r="28" spans="1:6" s="64" customFormat="1" ht="81">
+      <c r="A28" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="105" t="s">
+      <c r="E28" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="F28" s="105" t="s">
+      <c r="F28" s="91" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="73" customFormat="1"/>
+    <row r="29" spans="1:6" s="64" customFormat="1"/>
     <row r="30" spans="1:6" ht="27">
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="105" t="s">
+      <c r="D30" s="91" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="27">
-      <c r="B31" s="73"/>
-      <c r="C31" s="73" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="91" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
     </row>
     <row r="33" spans="1:5" ht="40.5">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="57" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="121.5">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="59" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="189">
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="57" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27">
-      <c r="B39" s="80"/>
-      <c r="C39" s="68" t="s">
+      <c r="B39" s="71"/>
+      <c r="C39" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="59" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="27">
-      <c r="B40" s="80"/>
-      <c r="C40" s="68" t="s">
+      <c r="B40" s="71"/>
+      <c r="C40" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="59" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27">
-      <c r="B41" s="81"/>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="72"/>
+      <c r="C41" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="59" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="27">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="57" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="27">
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="82" t="s">
+      <c r="E43" s="73" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27">
-      <c r="B44" s="81"/>
-      <c r="C44" s="68" t="s">
+      <c r="B44" s="72"/>
+      <c r="C44" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="59" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="67.5">
       <c r="B45" s="31"/>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="74" t="s">
         <v>281</v>
       </c>
       <c r="D45" s="31" t="s">
@@ -7624,7 +9362,7 @@
     </row>
     <row r="46" spans="1:5" ht="135">
       <c r="B46" s="31"/>
-      <c r="C46" s="83" t="s">
+      <c r="C46" s="74" t="s">
         <v>279</v>
       </c>
       <c r="D46" s="31" t="s">
@@ -7634,7 +9372,7 @@
     </row>
     <row r="47" spans="1:5" ht="94.5">
       <c r="B47" s="31"/>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="74" t="s">
         <v>276</v>
       </c>
       <c r="D47" s="31" t="s">
@@ -7646,7 +9384,7 @@
     </row>
     <row r="48" spans="1:5" ht="81">
       <c r="B48" s="31"/>
-      <c r="C48" s="83" t="s">
+      <c r="C48" s="74" t="s">
         <v>277</v>
       </c>
       <c r="D48" s="31" t="s">
@@ -7658,7 +9396,7 @@
     </row>
     <row r="49" spans="1:5" ht="94.5">
       <c r="B49" s="31"/>
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="74" t="s">
         <v>278</v>
       </c>
       <c r="D49" s="31" t="s">
@@ -7670,131 +9408,131 @@
     </row>
     <row r="50" spans="1:5" ht="108">
       <c r="B50" s="31"/>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="74" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="148.5">
       <c r="B51" s="31"/>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="57" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" s="31"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
     </row>
     <row r="53" spans="1:5">
       <c r="B53" s="31"/>
-      <c r="D53" s="83"/>
+      <c r="D53" s="74"/>
     </row>
     <row r="54" spans="1:5">
       <c r="B54" s="31"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
     </row>
     <row r="55" spans="1:5">
       <c r="B55" s="31"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
     </row>
     <row r="56" spans="1:5" ht="121.5">
       <c r="B56" s="31"/>
-      <c r="C56" s="82" t="s">
+      <c r="C56" s="73" t="s">
         <v>349</v>
       </c>
-      <c r="D56" s="83" t="s">
+      <c r="D56" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="57" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="81">
       <c r="B57" s="31"/>
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="74" t="s">
         <v>453</v>
       </c>
-      <c r="D57" s="83" t="s">
+      <c r="D57" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="E57" s="66" t="s">
+      <c r="E57" s="57" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="121.5">
       <c r="B58" s="31"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83" t="s">
+      <c r="C58" s="74"/>
+      <c r="D58" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="E58" s="66" t="s">
+      <c r="E58" s="57" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="121.5">
       <c r="B59" s="31"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="66" t="s">
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="57" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="31" customFormat="1">
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
     </row>
     <row r="61" spans="1:5" ht="27">
-      <c r="A61" s="66" t="s">
+      <c r="A61" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="68" t="s">
+      <c r="D61" s="59" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="27">
-      <c r="B62" s="80"/>
-      <c r="C62" s="68" t="s">
+      <c r="B62" s="71"/>
+      <c r="C62" s="59" t="s">
         <v>389</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D62" s="59" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="27">
-      <c r="B63" s="80"/>
-      <c r="C63" s="68" t="s">
+      <c r="B63" s="71"/>
+      <c r="C63" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="59" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="27">
-      <c r="B64" s="80"/>
-      <c r="C64" s="68" t="s">
+      <c r="B64" s="71"/>
+      <c r="C64" s="59" t="s">
         <v>391</v>
       </c>
-      <c r="D64" s="68" t="s">
+      <c r="D64" s="59" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="27">
-      <c r="B65" s="81"/>
-      <c r="C65" s="68" t="s">
+      <c r="B65" s="72"/>
+      <c r="C65" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="59" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7803,26 +9541,26 @@
       <c r="D66" s="31"/>
     </row>
     <row r="67" spans="1:6" ht="162">
-      <c r="A67" s="68" t="s">
+      <c r="A67" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="68" t="s">
+      <c r="B67" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="C67" s="68" t="s">
+      <c r="C67" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="D67" s="68" t="s">
+      <c r="D67" s="59" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="57" t="s">
         <v>212</v>
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="F68" s="84" t="s">
+      <c r="F68" s="99" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7834,57 +9572,57 @@
         <v>393</v>
       </c>
       <c r="D69" s="31"/>
-      <c r="F69" s="84"/>
+      <c r="F69" s="99"/>
     </row>
     <row r="70" spans="1:6" ht="27">
-      <c r="C70" s="67" t="s">
+      <c r="C70" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="D70" s="68" t="s">
+      <c r="D70" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="68" t="s">
+      <c r="E70" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="84"/>
+      <c r="F70" s="99"/>
     </row>
     <row r="71" spans="1:6" ht="40.5">
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="68" t="s">
+      <c r="D71" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="E71" s="68" t="s">
+      <c r="E71" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F71" s="84"/>
+      <c r="F71" s="99"/>
     </row>
     <row r="72" spans="1:6" ht="40.5">
       <c r="B72" s="31"/>
-      <c r="C72" s="68" t="s">
+      <c r="C72" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="68" t="s">
+      <c r="D72" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="E72" s="68" t="s">
+      <c r="E72" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="84"/>
+      <c r="F72" s="99"/>
     </row>
     <row r="73" spans="1:6" ht="27">
       <c r="B73" s="31"/>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="E73" s="68" t="s">
+      <c r="E73" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F73" s="84"/>
+      <c r="F73" s="99"/>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="31"/>
@@ -7899,44 +9637,44 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="27">
-      <c r="C76" s="68" t="s">
+      <c r="C76" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="D76" s="68" t="s">
+      <c r="D76" s="59" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="27">
       <c r="B77" s="31"/>
-      <c r="C77" s="68" t="s">
+      <c r="C77" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="D77" s="68" t="s">
+      <c r="D77" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E77" s="85" t="s">
+      <c r="E77" s="97" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="27">
       <c r="B78" s="31"/>
-      <c r="C78" s="68" t="s">
+      <c r="C78" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="D78" s="68" t="s">
+      <c r="D78" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E78" s="85"/>
+      <c r="E78" s="97"/>
     </row>
     <row r="79" spans="1:6" ht="27">
       <c r="B79" s="31"/>
-      <c r="C79" s="68" t="s">
+      <c r="C79" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D79" s="68" t="s">
+      <c r="D79" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E79" s="85"/>
+      <c r="E79" s="97"/>
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="31"/>
@@ -7951,70 +9689,70 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="27">
-      <c r="C82" s="68" t="s">
+      <c r="C82" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D82" s="68" t="s">
+      <c r="D82" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="E82" s="68" t="s">
+      <c r="E82" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="85" t="s">
+      <c r="F82" s="97" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="27">
       <c r="B83" s="31"/>
-      <c r="C83" s="68" t="s">
+      <c r="C83" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="D83" s="68" t="s">
+      <c r="D83" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="E83" s="68" t="s">
+      <c r="E83" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F83" s="85"/>
+      <c r="F83" s="97"/>
     </row>
     <row r="84" spans="2:6" ht="27">
       <c r="B84" s="31"/>
-      <c r="C84" s="68" t="s">
+      <c r="C84" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="D84" s="68" t="s">
+      <c r="D84" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="E84" s="68" t="s">
+      <c r="E84" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F84" s="85"/>
+      <c r="F84" s="97"/>
     </row>
     <row r="85" spans="2:6" ht="27">
       <c r="B85" s="31"/>
-      <c r="C85" s="68" t="s">
+      <c r="C85" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="D85" s="68" t="s">
+      <c r="D85" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="E85" s="68" t="s">
+      <c r="E85" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F85" s="85"/>
+      <c r="F85" s="97"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
-      <c r="C86" s="68" t="s">
+      <c r="C86" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="D86" s="68" t="s">
+      <c r="D86" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="E86" s="68" t="s">
+      <c r="E86" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F86" s="85"/>
+      <c r="F86" s="97"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="31"/>
@@ -8024,854 +9762,854 @@
       <c r="B88" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C88" s="66" t="s">
+      <c r="C88" s="57" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="27">
-      <c r="C89" s="68" t="s">
+      <c r="C89" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="D89" s="68" t="s">
+      <c r="D89" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="E89" s="68" t="s">
+      <c r="E89" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F89" s="85" t="s">
+      <c r="F89" s="97" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="27">
-      <c r="C90" s="68" t="s">
+      <c r="C90" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="D90" s="68" t="s">
+      <c r="D90" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="E90" s="68" t="s">
+      <c r="E90" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F90" s="85"/>
+      <c r="F90" s="97"/>
     </row>
     <row r="91" spans="2:6">
       <c r="C91" s="31"/>
       <c r="D91" s="31"/>
     </row>
     <row r="92" spans="2:6" ht="27">
-      <c r="B92" s="82" t="s">
+      <c r="B92" s="73" t="s">
         <v>248</v>
       </c>
       <c r="D92" s="31"/>
     </row>
     <row r="93" spans="2:6" ht="27">
-      <c r="B93" s="86" t="s">
+      <c r="B93" s="100" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="87" t="s">
+      <c r="C93" s="101" t="s">
         <v>398</v>
       </c>
-      <c r="D93" s="67" t="s">
+      <c r="D93" s="58" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="27">
-      <c r="B94" s="85"/>
-      <c r="C94" s="87"/>
-      <c r="D94" s="68" t="s">
+      <c r="B94" s="97"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="85"/>
-      <c r="C95" s="87"/>
-      <c r="D95" s="67" t="s">
+      <c r="B95" s="97"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="85"/>
-      <c r="C96" s="87"/>
-      <c r="D96" s="68" t="s">
+      <c r="B96" s="97"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="85"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="68" t="s">
+      <c r="B97" s="97"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="85"/>
-      <c r="C98" s="87"/>
+      <c r="B98" s="97"/>
+      <c r="C98" s="101"/>
       <c r="D98" s="31"/>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="66" t="s">
+      <c r="B99" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="88" t="s">
+      <c r="C99" s="96" t="s">
         <v>262</v>
       </c>
       <c r="D99" s="31"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="88"/>
+      <c r="C100" s="96"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="88"/>
+      <c r="C101" s="96"/>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="88"/>
+      <c r="C102" s="96"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="88"/>
+      <c r="C103" s="96"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="88"/>
+      <c r="C104" s="96"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="88" t="s">
+      <c r="C105" s="96" t="s">
         <v>263</v>
       </c>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="88"/>
+      <c r="C106" s="96"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="88"/>
+      <c r="C107" s="96"/>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="88"/>
+      <c r="C108" s="96"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="88"/>
+      <c r="C109" s="96"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4" ht="27">
-      <c r="B110" s="66" t="s">
+      <c r="B110" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="88" t="s">
+      <c r="C110" s="96" t="s">
         <v>264</v>
       </c>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="88"/>
+      <c r="C111" s="96"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="88"/>
+      <c r="C112" s="96"/>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="88"/>
+      <c r="C113" s="96"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="88"/>
+      <c r="C114" s="96"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" s="89"/>
+      <c r="C115" s="75"/>
       <c r="D115" s="31"/>
     </row>
     <row r="116" spans="1:4" ht="27">
-      <c r="B116" s="66" t="s">
+      <c r="B116" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="C116" s="67" t="s">
+      <c r="C116" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="D116" s="68" t="s">
+      <c r="D116" s="59" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="40.5">
-      <c r="C117" s="68" t="s">
+      <c r="C117" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="D117" s="68" t="s">
+      <c r="D117" s="59" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="40.5">
-      <c r="C118" s="108"/>
-      <c r="D118" s="67" t="s">
+      <c r="C118" s="93"/>
+      <c r="D118" s="58" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="B119" s="85" t="s">
+      <c r="B119" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="85"/>
+      <c r="C119" s="97"/>
       <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="B120" s="85"/>
-      <c r="C120" s="85"/>
+      <c r="B120" s="97"/>
+      <c r="C120" s="97"/>
       <c r="D120" s="31"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
+      <c r="B121" s="97"/>
+      <c r="C121" s="97"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="85"/>
-      <c r="C122" s="85"/>
+      <c r="B122" s="97"/>
+      <c r="C122" s="97"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
+      <c r="B123" s="97"/>
+      <c r="C123" s="97"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4" ht="40.5">
-      <c r="A124" s="66" t="s">
+      <c r="A124" s="57" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="27">
-      <c r="B125" s="105" t="s">
+      <c r="B125" s="91" t="s">
         <v>404</v>
       </c>
-      <c r="D125" s="73" t="s">
+      <c r="D125" s="64" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="27">
-      <c r="B126" s="105" t="s">
+      <c r="B126" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="D126" s="73" t="s">
+      <c r="D126" s="64" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="B127" s="73"/>
+      <c r="B127" s="64"/>
     </row>
     <row r="128" spans="1:4" ht="27">
-      <c r="B128" s="68" t="s">
+      <c r="B128" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="C128" s="69" t="s">
+      <c r="C128" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D128" s="68" t="s">
+      <c r="D128" s="59" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="27">
-      <c r="B129" s="68" t="s">
+      <c r="B129" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="C129" s="68" t="s">
+      <c r="C129" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D129" s="69" t="s">
+      <c r="D129" s="60" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="40.5">
-      <c r="B130" s="68" t="s">
+      <c r="B130" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="C130" s="68" t="s">
+      <c r="C130" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="D130" s="69" t="s">
+      <c r="D130" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="27">
-      <c r="B131" s="68" t="s">
+      <c r="B131" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="C131" s="68" t="s">
+      <c r="C131" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D131" s="69" t="s">
+      <c r="D131" s="60" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="27">
-      <c r="B132" s="68" t="s">
+      <c r="B132" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="C132" s="68" t="s">
+      <c r="C132" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="D132" s="73" t="s">
+      <c r="D132" s="64" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="B133" s="67" t="s">
+      <c r="B133" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C133" s="67" t="s">
+      <c r="C133" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D133" s="67" t="s">
+      <c r="D133" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="27">
-      <c r="B134" s="68" t="s">
+      <c r="B134" s="59" t="s">
         <v>411</v>
       </c>
-      <c r="C134" s="69" t="s">
+      <c r="C134" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D134" s="68" t="s">
+      <c r="D134" s="59" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="27">
-      <c r="B135" s="68" t="s">
+      <c r="B135" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="C135" s="69" t="s">
+      <c r="C135" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D135" s="68" t="s">
+      <c r="D135" s="59" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="27">
-      <c r="B136" s="68" t="s">
+      <c r="B136" s="59" t="s">
         <v>413</v>
       </c>
-      <c r="C136" s="69" t="s">
+      <c r="C136" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D136" s="68" t="s">
+      <c r="D136" s="59" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="27">
-      <c r="A139" s="66" t="s">
+      <c r="A139" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B139" s="79" t="s">
+      <c r="B139" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="C139" s="68" t="s">
+      <c r="C139" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D139" s="68" t="s">
+      <c r="D139" s="59" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="27">
-      <c r="B140" s="81"/>
-      <c r="C140" s="68" t="s">
+      <c r="B140" s="72"/>
+      <c r="C140" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="D140" s="68" t="s">
+      <c r="D140" s="59" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="31" customFormat="1">
-      <c r="C141" s="83"/>
-      <c r="D141" s="83"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
     </row>
     <row r="142" spans="1:4" ht="27">
-      <c r="A142" s="66" t="s">
+      <c r="A142" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B142" s="79" t="s">
+      <c r="B142" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C142" s="68" t="s">
+      <c r="C142" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="D142" s="68" t="s">
+      <c r="D142" s="59" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="27">
-      <c r="B143" s="80"/>
-      <c r="C143" s="68" t="s">
+      <c r="B143" s="71"/>
+      <c r="C143" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D143" s="68" t="s">
+      <c r="D143" s="59" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="27">
-      <c r="B144" s="80"/>
-      <c r="C144" s="68" t="s">
+      <c r="B144" s="71"/>
+      <c r="C144" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D144" s="68" t="s">
+      <c r="D144" s="59" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="27">
-      <c r="B145" s="81"/>
-      <c r="C145" s="68" t="s">
+      <c r="B145" s="72"/>
+      <c r="C145" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D145" s="68" t="s">
+      <c r="D145" s="59" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="27">
-      <c r="A146" s="66" t="s">
+      <c r="A146" s="57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="73" customFormat="1" ht="40.5">
-      <c r="A147" s="73" t="s">
+    <row r="147" spans="1:6" s="64" customFormat="1" ht="40.5">
+      <c r="A147" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B147" s="74" t="s">
+      <c r="B147" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="C147" s="106" t="s">
+      <c r="C147" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="D147" s="74" t="s">
+      <c r="D147" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="E147" s="73" t="s">
+      <c r="E147" s="64" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="27">
-      <c r="A148" s="73"/>
-      <c r="B148" s="106" t="s">
+      <c r="A148" s="64"/>
+      <c r="B148" s="92" t="s">
         <v>417</v>
       </c>
-      <c r="C148" s="74" t="s">
+      <c r="C148" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D148" s="74" t="s">
+      <c r="D148" s="65" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="27">
-      <c r="A149" s="73"/>
-      <c r="B149" s="106" t="s">
+      <c r="A149" s="64"/>
+      <c r="B149" s="92" t="s">
         <v>418</v>
       </c>
-      <c r="C149" s="74" t="s">
+      <c r="C149" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D149" s="74" t="s">
+      <c r="D149" s="65" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="40.5">
-      <c r="A150" s="73"/>
-      <c r="B150" s="74" t="s">
+      <c r="A150" s="64"/>
+      <c r="B150" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C150" s="106" t="s">
+      <c r="C150" s="92" t="s">
         <v>419</v>
       </c>
-      <c r="D150" s="74" t="s">
+      <c r="D150" s="65" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="40.5">
-      <c r="A151" s="66" t="s">
+      <c r="A151" s="57" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="27">
-      <c r="A152" s="66" t="s">
+      <c r="A152" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="B152" s="66" t="s">
+      <c r="B152" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C152" s="68" t="s">
+      <c r="C152" s="59" t="s">
         <v>420</v>
       </c>
-      <c r="D152" s="68" t="s">
+      <c r="D152" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="27">
-      <c r="C153" s="68" t="s">
+      <c r="C153" s="59" t="s">
         <v>421</v>
       </c>
-      <c r="D153" s="68" t="s">
+      <c r="D153" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="27">
-      <c r="C154" s="68" t="s">
+      <c r="C154" s="59" t="s">
         <v>422</v>
       </c>
-      <c r="D154" s="68" t="s">
+      <c r="D154" s="59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="73" customFormat="1" ht="27">
-      <c r="E156" s="105" t="s">
+    <row r="156" spans="1:6" s="64" customFormat="1" ht="27">
+      <c r="E156" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="F156" s="73" t="s">
+      <c r="F156" s="64" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="73" customFormat="1" ht="27">
-      <c r="E157" s="105" t="s">
+    <row r="157" spans="1:6" s="64" customFormat="1" ht="27">
+      <c r="E157" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="F157" s="73" t="s">
+      <c r="F157" s="64" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="27">
-      <c r="A159" s="66" t="s">
+      <c r="A159" s="57" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="27">
-      <c r="A160" s="66" t="s">
+      <c r="A160" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B160" s="79" t="s">
+      <c r="B160" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C160" s="67" t="s">
+      <c r="C160" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="D160" s="68" t="s">
+      <c r="D160" s="59" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="27">
-      <c r="B161" s="81"/>
-      <c r="C161" s="68" t="s">
+      <c r="B161" s="72"/>
+      <c r="C161" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="D161" s="68" t="s">
+      <c r="D161" s="59" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="27">
-      <c r="A162" s="66" t="s">
+      <c r="A162" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B162" s="79" t="s">
+      <c r="B162" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C162" s="67" t="s">
+      <c r="C162" s="58" t="s">
         <v>427</v>
       </c>
-      <c r="D162" s="68" t="s">
+      <c r="D162" s="59" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="27">
-      <c r="B163" s="81"/>
-      <c r="C163" s="68" t="s">
+      <c r="B163" s="72"/>
+      <c r="C163" s="59" t="s">
         <v>428</v>
       </c>
-      <c r="D163" s="68" t="s">
+      <c r="D163" s="59" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="27">
-      <c r="A166" s="66" t="s">
+      <c r="A166" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="C166" s="90" t="s">
+      <c r="C166" s="76" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="38.25">
-      <c r="C167" s="91" t="s">
+      <c r="C167" s="77" t="s">
         <v>461</v>
       </c>
-      <c r="D167" s="91" t="s">
+      <c r="D167" s="77" t="s">
         <v>347</v>
       </c>
-      <c r="E167" s="91" t="s">
+      <c r="E167" s="77" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="E168" s="91" t="s">
+      <c r="E168" s="77" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15">
-      <c r="C169" s="90" t="s">
+      <c r="C169" s="76" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="25.5">
-      <c r="C170" s="92" t="s">
+      <c r="C170" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="D170" s="93" t="s">
+      <c r="D170" s="79" t="s">
         <v>429</v>
       </c>
-      <c r="E170" s="94" t="s">
+      <c r="E170" s="80" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="25.5">
-      <c r="C171" s="109" t="s">
+      <c r="C171" s="94" t="s">
         <v>463</v>
       </c>
-      <c r="D171" s="96" t="s">
+      <c r="D171" s="82" t="s">
         <v>430</v>
       </c>
-      <c r="E171" s="97" t="s">
+      <c r="E171" s="83" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="25.5">
-      <c r="C172" s="92" t="s">
+      <c r="C172" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="D172" s="98" t="s">
+      <c r="D172" s="84" t="s">
         <v>462</v>
       </c>
-      <c r="E172" s="99" t="s">
+      <c r="E172" s="85" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="25.5">
-      <c r="C173" s="109" t="s">
+      <c r="C173" s="94" t="s">
         <v>463</v>
       </c>
-      <c r="D173" s="96" t="s">
+      <c r="D173" s="82" t="s">
         <v>430</v>
       </c>
-      <c r="E173" s="97" t="s">
+      <c r="E173" s="83" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5">
-      <c r="C174" s="92" t="s">
+      <c r="C174" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="D174" s="93" t="s">
+      <c r="D174" s="79" t="s">
         <v>431</v>
       </c>
-      <c r="E174" s="94" t="s">
+      <c r="E174" s="80" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="25.5">
-      <c r="C175" s="109" t="s">
+      <c r="C175" s="94" t="s">
         <v>464</v>
       </c>
-      <c r="D175" s="96" t="s">
+      <c r="D175" s="82" t="s">
         <v>432</v>
       </c>
-      <c r="E175" s="97" t="s">
+      <c r="E175" s="83" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="25.5">
-      <c r="C176" s="92" t="s">
+      <c r="C176" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="D176" s="98" t="s">
+      <c r="D176" s="84" t="s">
         <v>433</v>
       </c>
-      <c r="E176" s="99" t="s">
+      <c r="E176" s="85" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="177" spans="3:5" ht="25.5">
-      <c r="C177" s="110" t="s">
+      <c r="C177" s="95" t="s">
         <v>466</v>
       </c>
-      <c r="D177" s="101" t="s">
+      <c r="D177" s="87" t="s">
         <v>465</v>
       </c>
-      <c r="E177" s="102" t="s">
+      <c r="E177" s="88" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="178" spans="3:5" ht="25.5">
-      <c r="C178" s="95"/>
-      <c r="D178" s="96" t="s">
+      <c r="C178" s="81"/>
+      <c r="D178" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="E178" s="103"/>
+      <c r="E178" s="89"/>
     </row>
     <row r="179" spans="3:5" ht="25.5">
-      <c r="C179" s="92" t="s">
+      <c r="C179" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="D179" s="98" t="s">
+      <c r="D179" s="84" t="s">
         <v>435</v>
       </c>
-      <c r="E179" s="99" t="s">
+      <c r="E179" s="85" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="180" spans="3:5" ht="25.5">
-      <c r="C180" s="100"/>
-      <c r="D180" s="104" t="s">
+      <c r="C180" s="86"/>
+      <c r="D180" s="90" t="s">
         <v>436</v>
       </c>
-      <c r="E180" s="102" t="s">
+      <c r="E180" s="88" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="181" spans="3:5" ht="25.5">
-      <c r="C181" s="95"/>
-      <c r="D181" s="96" t="s">
+      <c r="C181" s="81"/>
+      <c r="D181" s="82" t="s">
         <v>437</v>
       </c>
-      <c r="E181" s="97" t="s">
+      <c r="E181" s="83" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="182" spans="3:5" ht="30">
-      <c r="C182" s="90" t="s">
+      <c r="C182" s="76" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="183" spans="3:5">
-      <c r="C183" s="91" t="s">
+      <c r="C183" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="D183" s="91" t="s">
+      <c r="D183" s="77" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="3:5">
-      <c r="C184" s="91" t="s">
+      <c r="C184" s="77" t="s">
         <v>319</v>
       </c>
-      <c r="D184" s="91" t="s">
+      <c r="D184" s="77" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="185" spans="3:5">
-      <c r="C185" s="91" t="s">
+      <c r="C185" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="D185" s="91" t="s">
+      <c r="D185" s="77" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="186" spans="3:5">
-      <c r="C186" s="91" t="s">
+      <c r="C186" s="77" t="s">
         <v>323</v>
       </c>
-      <c r="D186" s="91" t="s">
+      <c r="D186" s="77" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="187" spans="3:5">
-      <c r="C187" s="91" t="s">
+      <c r="C187" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="D187" s="91" t="s">
+      <c r="D187" s="77" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="188" spans="3:5" ht="15">
-      <c r="C188" s="90" t="s">
+      <c r="C188" s="76" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="189" spans="3:5">
-      <c r="C189" s="91" t="s">
+      <c r="C189" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="D189" s="91" t="s">
+      <c r="D189" s="77" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="190" spans="3:5">
-      <c r="C190" s="91" t="s">
+      <c r="C190" s="77" t="s">
         <v>330</v>
       </c>
-      <c r="D190" s="91" t="s">
+      <c r="D190" s="77" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="191" spans="3:5">
-      <c r="C191" s="91" t="s">
+      <c r="C191" s="77" t="s">
         <v>332</v>
       </c>
-      <c r="D191" s="91" t="s">
+      <c r="D191" s="77" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="192" spans="3:5">
-      <c r="C192" s="91" t="s">
+      <c r="C192" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="D192" s="91" t="s">
+      <c r="D192" s="77" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="193" spans="3:4" ht="15">
-      <c r="C193" s="90" t="s">
+      <c r="C193" s="76" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="194" spans="3:4" ht="51" customHeight="1">
-      <c r="C194" s="107" t="s">
+      <c r="C194" s="98" t="s">
         <v>439</v>
       </c>
-      <c r="D194" s="107"/>
+      <c r="D194" s="98"/>
     </row>
     <row r="195" spans="3:4">
-      <c r="C195" s="91" t="s">
+      <c r="C195" s="77" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="196" spans="3:4">
-      <c r="C196" s="91" t="s">
+      <c r="C196" s="77" t="s">
         <v>339</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="B119:C123"/>
     <mergeCell ref="F68:F73"/>
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="F82:F86"/>
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="B93:B98"/>
     <mergeCell ref="C93:C98"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="B119:C123"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9454,7 +11192,7 @@
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
-      <c r="F67" s="60" t="s">
+      <c r="F67" s="106" t="s">
         <v>211</v>
       </c>
     </row>
@@ -9466,7 +11204,7 @@
         <v>238</v>
       </c>
       <c r="D68" s="18"/>
-      <c r="F68" s="60"/>
+      <c r="F68" s="106"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
       <c r="C69" s="33" t="s">
@@ -9478,7 +11216,7 @@
       <c r="E69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="61"/>
+      <c r="F69" s="107"/>
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1">
       <c r="C70" s="33" t="s">
@@ -9490,7 +11228,7 @@
       <c r="E70" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="61"/>
+      <c r="F70" s="107"/>
     </row>
     <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="B71" s="18"/>
@@ -9503,7 +11241,7 @@
       <c r="E71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F71" s="61"/>
+      <c r="F71" s="107"/>
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
       <c r="B72" s="18"/>
@@ -9516,7 +11254,7 @@
       <c r="E72" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="61"/>
+      <c r="F72" s="107"/>
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="B73" s="18"/>
@@ -9546,7 +11284,7 @@
       <c r="D76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="58" t="s">
+      <c r="E76" s="104" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9558,7 +11296,7 @@
       <c r="D77" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="59"/>
+      <c r="E77" s="105"/>
     </row>
     <row r="78" spans="1:6" ht="21" customHeight="1">
       <c r="B78" s="18"/>
@@ -9568,7 +11306,7 @@
       <c r="D78" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="59"/>
+      <c r="E78" s="105"/>
     </row>
     <row r="79" spans="1:6" ht="21" customHeight="1">
       <c r="B79" s="18"/>
@@ -9592,7 +11330,7 @@
       <c r="E81" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="58" t="s">
+      <c r="F81" s="104" t="s">
         <v>246</v>
       </c>
     </row>
@@ -9607,7 +11345,7 @@
       <c r="E82" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F82" s="59"/>
+      <c r="F82" s="105"/>
     </row>
     <row r="83" spans="2:6" ht="21" customHeight="1">
       <c r="B83" s="18"/>
@@ -9620,7 +11358,7 @@
       <c r="E83" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="59"/>
+      <c r="F83" s="105"/>
     </row>
     <row r="84" spans="2:6" ht="21" customHeight="1">
       <c r="B84" s="18"/>
@@ -9633,7 +11371,7 @@
       <c r="E84" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="59"/>
+      <c r="F84" s="105"/>
     </row>
     <row r="85" spans="2:6" ht="21" customHeight="1">
       <c r="B85" s="18"/>
@@ -9646,7 +11384,7 @@
       <c r="E85" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F85" s="59"/>
+      <c r="F85" s="105"/>
     </row>
     <row r="86" spans="2:6" ht="21" customHeight="1">
       <c r="B86" s="18"/>
@@ -9670,7 +11408,7 @@
       <c r="E88" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F88" s="58" t="s">
+      <c r="F88" s="104" t="s">
         <v>247</v>
       </c>
     </row>
@@ -9684,7 +11422,7 @@
       <c r="E89" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="59"/>
+      <c r="F89" s="105"/>
     </row>
     <row r="90" spans="2:6" ht="21" customHeight="1">
       <c r="C90" s="18"/>
@@ -9697,10 +11435,10 @@
       <c r="D91" s="18"/>
     </row>
     <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="B92" s="62" t="s">
+      <c r="B92" s="108" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="63" t="s">
+      <c r="C92" s="109" t="s">
         <v>265</v>
       </c>
       <c r="D92" s="33" t="s">
@@ -9708,115 +11446,115 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="B93" s="59"/>
-      <c r="C93" s="64"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="110"/>
       <c r="D93" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="B94" s="59"/>
-      <c r="C94" s="64"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="110"/>
       <c r="D94" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="B95" s="59"/>
-      <c r="C95" s="64"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="110"/>
       <c r="D95" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="59"/>
-      <c r="C96" s="64"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="110"/>
       <c r="D96" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="B97" s="59"/>
-      <c r="C97" s="64"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="110"/>
       <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" ht="21" customHeight="1">
       <c r="B98" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="56" t="s">
+      <c r="C98" s="102" t="s">
         <v>262</v>
       </c>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="C99" s="57"/>
+      <c r="C99" s="103"/>
       <c r="D99" s="18"/>
     </row>
     <row r="100" spans="2:4" ht="21" customHeight="1">
-      <c r="C100" s="57"/>
+      <c r="C100" s="103"/>
       <c r="D100" s="18"/>
     </row>
     <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="C101" s="57"/>
+      <c r="C101" s="103"/>
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="57"/>
+      <c r="C102" s="103"/>
       <c r="D102" s="18"/>
     </row>
     <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="57"/>
+      <c r="C103" s="103"/>
       <c r="D103" s="18"/>
     </row>
     <row r="104" spans="2:4" ht="21" customHeight="1">
       <c r="B104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C104" s="56" t="s">
+      <c r="C104" s="102" t="s">
         <v>263</v>
       </c>
       <c r="D104" s="18"/>
     </row>
     <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="C105" s="57"/>
+      <c r="C105" s="103"/>
       <c r="D105" s="18"/>
     </row>
     <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="C106" s="57"/>
+      <c r="C106" s="103"/>
       <c r="D106" s="18"/>
     </row>
     <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="C107" s="57"/>
+      <c r="C107" s="103"/>
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="2:4" ht="33" customHeight="1">
-      <c r="C108" s="57"/>
+      <c r="C108" s="103"/>
       <c r="D108" s="18"/>
     </row>
     <row r="109" spans="2:4" ht="21" customHeight="1">
       <c r="B109" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="102" t="s">
         <v>264</v>
       </c>
       <c r="D109" s="18"/>
     </row>
     <row r="110" spans="2:4" ht="21" customHeight="1">
-      <c r="C110" s="57"/>
+      <c r="C110" s="103"/>
       <c r="D110" s="18"/>
     </row>
     <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="C111" s="57"/>
+      <c r="C111" s="103"/>
       <c r="D111" s="18"/>
     </row>
     <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="C112" s="57"/>
+      <c r="C112" s="103"/>
       <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="C113" s="57"/>
+      <c r="C113" s="103"/>
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="21" customHeight="1">
@@ -9848,30 +11586,30 @@
       <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="58" t="s">
+      <c r="B118" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="C118" s="59"/>
+      <c r="C118" s="105"/>
       <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="59"/>
-      <c r="C119" s="59"/>
+      <c r="B119" s="105"/>
+      <c r="C119" s="105"/>
       <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="59"/>
-      <c r="C120" s="59"/>
+      <c r="B120" s="105"/>
+      <c r="C120" s="105"/>
       <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" ht="21" customHeight="1">
-      <c r="B121" s="59"/>
-      <c r="C121" s="59"/>
+      <c r="B121" s="105"/>
+      <c r="C121" s="105"/>
       <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" ht="21" customHeight="1">
-      <c r="B122" s="59"/>
-      <c r="C122" s="59"/>
+      <c r="B122" s="105"/>
+      <c r="C122" s="105"/>
       <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" ht="21" customHeight="1">
@@ -10499,14 +12237,14 @@
     <mergeCell ref="B92:B97"/>
     <mergeCell ref="C92:C97"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10580,20 +12318,20 @@
     </row>
     <row r="14" spans="1:6" ht="75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\maruaican\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D31048-6C4F-4EAA-8BF5-9B146498B65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED2C57-E9EF-49E2-A065-9540122B8402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サブクエリ" sheetId="6" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">SQL構文一覧!$A$11:$G$208</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'SQL構文一覧 (2)'!$A$11:$F$197</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">サブクエリ!$A$1:$E$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">サブクエリ!$A$1:$G$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="607">
   <si>
     <t>分類</t>
   </si>
@@ -5653,6 +5653,356 @@
       <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>① IN／NOT IN を使うパターン</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 非相関副問い合わせの例：数量が10以上ある商品IDを持つ注文明細のある商品を選ぶ
+SELECT 商品ID, 商品名
+FROM 商品
+WHERE 商品ID IN (
+  SELECT 商品ID
+  FROM 注文明細
+  WHERE 数量 &gt;= 10
+);</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>② EXISTS／NOT EXISTS を使うパターン（多くは相関副問い合わせになる）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 相関副問い合わせの例：注文ごとに、単価が1000を超える明細が存在する注文を選ぶ
+SELECT 注文ID, 顧客ID, 注文日
+FROM 注文
+WHERE EXISTS (
+  SELECT 1
+  FROM 注文明細
+  WHERE 注文明細.注文ID = 注文.注文ID
+    AND 単価 &gt; 1000
+);</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>③ 比較（スカラー副問い合わせ）
+副問い合わせが単一の値（スカラー値）を返すと予想されるときに比較演算子と組合せる。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 各注文について、その注文の合計金額が全注文の平均金額を超えるもの
+SELECT 注文ID, 顧客ID
+FROM 注文
+WHERE (
+  SELECT SUM(数量 * 単価)
+  FROM 注文明細
+  WHERE 注文明細.注文ID = 注文.注文ID
+) &gt; (
+  SELECT AVG(合計)
+  FROM (
+    SELECT 注文ID, SUM(数量 * 単価) AS 合計
+    FROM 注文明細
+    GROUP BY 注文ID
+  ) AS 注文別合計
+);</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>４　代表的な誤答・凡ミスと原因</t>
+  </si>
+  <si>
+    <t>(1) スカラー副問い合わせが複数行を返してエラーになる</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 想定ミス：副問い合わせで複数の行を返し、比較演算子=を使っているとエラー</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>SELECT 商品ID
+FROM 商品
+WHERE 価格 = (
+  SELECT 価格
+  FROM 商品
+  WHERE 価格 &gt; 1000
+);
+-- ここで副問い合わせは複数の価格を返し「単一値を期待」する=と矛盾しエラーになる</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>→ 対策：副問い合わせが単一行・単一列になるように集約（例：MAX／MIN／AVG）または IN を使う。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(2) NULL の扱いによる意図しない除外（IN / NOT INの落とし穴）</t>
+  </si>
+  <si>
+    <r>
+      <t>NOT IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の副問い合わせ結果に NULL が含まれると、比較が UNKNOWN になり意図した行が除外される。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 顧客のうち、注文をしていない顧客を NOT IN で取ろうとして失敗する可能性あり
+SELECT 顧客ID
+FROM 顧客
+WHERE 顧客ID NOT IN (
+  SELECT 顧客ID
+  FROM 注文
+);</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>→ 安全な書き方は NOT EXISTS を使う。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>注文表の 顧客ID に NULL が存在すると、全ての行が除外され得る。</t>
+  </si>
+  <si>
+    <t>(3) 相関副問い合わせと非相関副問い合わせを混同してインデックスや性能を考慮しない
+外側行ごとに非効率に副問い合わせが走る構造をそのまま使い、件数が増えたときに急に遅くなる。
+→ 再書き換え（JOIN への書き換え）、あるいは集約を先にした派生テーブルを使う検討。
+(4) EXISTS と IN の意味の違いを理解せずに使い分けを誤る
+IN は集合に含まれるか、EXISTS は副問い合わせの行の「存在そのもの」を問う。NULL の影響や重複の扱いも異なる。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>６　性能上の留意点（試験での判断材料）</t>
+  </si>
+  <si>
+    <t>(1) 相関副問い合わせは外側の各行ごとに副問い合わせが実行されやすく、行数増加で遅くなる。外側の主キー／参照キーにインデックスが適切に張られているか確認する。</t>
+  </si>
+  <si>
+    <t>(2) 非相関副問い合わせは一度評価されキャッシュされることが多いが、大きな集合を生成する場合は事前に縮小（絞り込み）する工夫が必要。</t>
+  </si>
+  <si>
+    <t>(3) EXISTS は副問い合わせ内で条件を満たす最初の行が見つかれば済むため、短絡的に速くなることがある（早期終了）。IN は全体集合の生成と比較になる。</t>
+  </si>
+  <si>
+    <t>(4) 副問い合わせをJOINに置き換えた方がインデックス活用の観点で速くなるケースもあるが、重複除去や集約の意味が変わらないかの検証が必要。</t>
+  </si>
+  <si>
+    <t>７　試験での解答時のチェックリスト（判断基準）</t>
+  </si>
+  <si>
+    <t>(1) 副問い合わせは「相関」か「非相関」か。外側の行に依存していれば相関。</t>
+  </si>
+  <si>
+    <r>
+      <t>(2) 比較対象が集合か単一値かを見極め、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を使い分けているか。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(3) NULLの影響を考慮しているか（特に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は危険）。</t>
+    </r>
+  </si>
+  <si>
+    <t>(4) スカラー副問い合わせが複数行になっていないか（必要なら集約）。</t>
+  </si>
+  <si>
+    <t>(5) 意図を読み替えてJOINで簡潔になるならその書き換えを検討する設問か（設問文の指示を確認）。</t>
+  </si>
+  <si>
+    <t>(6) 副問い合わせの結果の型や行数の前提が破綻していないか（例：単一値を期待しているのに複数行、存在チェックに対して誤って = を使っていないか）。</t>
+  </si>
+  <si>
+    <t>８　よくある設問パターンと模範的な解法のヒント</t>
+  </si>
+  <si>
+    <t>(1) 「○○を持つ顧客を抽出せよ」→ EXISTS / IN の選択。</t>
+  </si>
+  <si>
+    <t>(2) 「注文ごとの合計が平均以上の注文を抽出せよ」→ スカラー副問い合わせ＋集約の比較。</t>
+  </si>
+  <si>
+    <t>(3) 「商品を購入していない顧客」→ NOT EXISTS を用いる（NOT IN はNULLに注意）。</t>
+  </si>
+  <si>
+    <t>(4) 「ある商品の単価が、その商品カテゴリの平均より高い商品」→ 同一カテゴリ内の平均と比較するスカラー副問い合わせ。</t>
+  </si>
+  <si>
+    <t>９　まとめ：誤答を避けるための要点</t>
+  </si>
+  <si>
+    <t>(1) 副問い合わせの種類（相関／非相関）と期待される戻り値の形（集合／単一値）を判断する。</t>
+  </si>
+  <si>
+    <r>
+      <t>(2) NULLによる論理三値の影響を理解し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ではなく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使う設問かを見分ける。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(3) 集合比較と存在チェックの違いを踏まえ、目的に応じて </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・比較演算子を使い分ける。</t>
+    </r>
+  </si>
+  <si>
+    <t>(4) 副問い合わせが重くなる場合の代表的な書き換え（JOIN, 派生表）を頭に置き、設問で許容されるか検討する。</t>
+  </si>
+  <si>
+    <t>(5) スカラー副問い合わせが複数行を返すケースを防ぐために集約やLIMIT（試験の方針により使用制限がある場合があるので設問文を確認）を使う。</t>
   </si>
 </sst>
 </file>
@@ -6057,7 +6407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -6342,6 +6692,102 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6386,99 +6832,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6786,518 +7139,737 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I100"/>
+  <dimension ref="A2:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="124" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="124" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="124" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="124" customWidth="1"/>
-    <col min="5" max="5" width="53.875" style="124" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="124"/>
+    <col min="1" max="1" width="5.5" style="109" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="109" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="109" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="109" customWidth="1"/>
+    <col min="5" max="5" width="53.875" style="109" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="109" customWidth="1"/>
+    <col min="7" max="7" width="58.625" style="109" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="109"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="21">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="108" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="112" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="109" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="109" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="112" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="112" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="112" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="108" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5">
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="106" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="112" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="112" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="127" t="s">
+    <row r="18" spans="3:7" ht="40.5">
+      <c r="C18" s="112" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="D19" s="124" t="s">
+      <c r="G18" s="107" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="D19" s="109" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
-      <c r="D20" s="124" t="s">
+    <row r="20" spans="3:7">
+      <c r="D20" s="109" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="67.5">
-      <c r="E21" s="122" t="s">
+    <row r="21" spans="3:7" ht="216">
+      <c r="E21" s="107" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="D22" s="127" t="s">
+      <c r="G21" s="107" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="D22" s="112" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="127" t="s">
+    <row r="24" spans="3:7">
+      <c r="C24" s="112" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
-      <c r="D25" s="124" t="s">
+    <row r="25" spans="3:7">
+      <c r="D25" s="109" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="E26" s="124" t="s">
+      <c r="G25" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="E26" s="109" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="121.5">
-      <c r="E27" s="122" t="s">
+    <row r="27" spans="3:7" ht="121.5">
+      <c r="E27" s="107" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="D28" s="127" t="s">
+      <c r="G27" s="107" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="D28" s="112" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
-      <c r="D29" s="119" t="s">
+    <row r="29" spans="3:7">
+      <c r="D29" s="104" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="D30" s="119" t="s">
+      <c r="G29" s="109" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="135">
+      <c r="D30" s="104" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="D31" s="119" t="s">
+      <c r="G30" s="107" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="D31" s="104" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.5">
-      <c r="B33" s="121" t="s">
+    <row r="34" spans="3:5" ht="21">
+      <c r="C34" s="97" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37"/>
+      <c r="D37" s="109" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="121.5">
+      <c r="E38" s="107" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="D39" s="109" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="98"/>
+      <c r="D41" s="126" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="108">
+      <c r="E42" s="107" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="126"/>
+      <c r="D43" s="109" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="126"/>
+      <c r="D44" s="109" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="126"/>
+    </row>
+    <row r="46" spans="3:5" ht="364.5">
+      <c r="C46" s="107" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" ht="21">
+      <c r="C51" s="97" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="3:3" ht="21">
+      <c r="C58" s="97" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" ht="14.25">
+      <c r="C61" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" ht="14.25">
+      <c r="C62" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="C65" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="2:3" ht="21">
+      <c r="C67" s="97" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="C69" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="C72" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="2:3" ht="21">
+      <c r="C74" s="97" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="14.25">
+      <c r="C77" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="14.25">
+      <c r="C78" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="16.5">
+      <c r="B79" s="106" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="C35" s="127" t="s">
+      <c r="C79" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="C80" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="C81" s="112" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="C36" s="127"/>
-      <c r="D36" s="124" t="s">
+    <row r="82" spans="2:6">
+      <c r="C82" s="112"/>
+      <c r="D82" s="109" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="108">
-      <c r="E37" s="122" t="s">
+    <row r="83" spans="2:6" ht="108">
+      <c r="E83" s="107" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="C38" s="127" t="s">
+    <row r="84" spans="2:6">
+      <c r="C84" s="112" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="C39" s="120" t="s">
+    <row r="85" spans="2:6">
+      <c r="C85" s="105" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="C40" s="120" t="s">
+    <row r="86" spans="2:6">
+      <c r="C86" s="105" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="C41" s="120" t="s">
+    <row r="87" spans="2:6">
+      <c r="C87" s="105" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="16.5" customHeight="1">
-      <c r="C42" s="128" t="s">
+    <row r="88" spans="2:6" ht="16.5" customHeight="1">
+      <c r="C88" s="127" t="s">
         <v>526</v>
       </c>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-    </row>
-    <row r="44" spans="2:6" ht="16.5">
-      <c r="B44" s="121" t="s">
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+    </row>
+    <row r="90" spans="2:6" ht="16.5">
+      <c r="B90" s="106" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="19.5" customHeight="1">
-      <c r="C45" s="127" t="s">
+    <row r="91" spans="2:6" ht="19.5" customHeight="1">
+      <c r="C91" s="112" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
-      <c r="C46" s="127"/>
-      <c r="D46" s="124" t="s">
+    <row r="92" spans="2:6">
+      <c r="C92" s="112"/>
+      <c r="D92" s="109" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="40.5">
-      <c r="E47" s="122" t="s">
+    <row r="93" spans="2:6" ht="40.5">
+      <c r="E93" s="107" t="s">
         <v>518</v>
       </c>
-      <c r="F47" s="122"/>
-    </row>
-    <row r="48" spans="2:6" ht="21">
-      <c r="D48" s="112" t="s">
+      <c r="F93" s="107"/>
+    </row>
+    <row r="94" spans="2:6" ht="21">
+      <c r="D94" s="97" t="s">
         <v>532</v>
       </c>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="D49" s="114" t="s">
+      <c r="E94" s="107"/>
+      <c r="F94" s="107"/>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="D95" s="99" t="s">
         <v>533</v>
       </c>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="D50" s="113" t="s">
+      <c r="E95" s="107"/>
+      <c r="F95" s="107"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="D96" s="98" t="s">
         <v>529</v>
       </c>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="D51" s="113"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="D52" s="113" t="s">
+      <c r="E96" s="107"/>
+      <c r="F96" s="107"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="D97" s="98"/>
+      <c r="E97" s="107"/>
+      <c r="F97" s="107"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="D98" s="98" t="s">
         <v>530</v>
       </c>
-      <c r="E52" s="129">
+      <c r="E98" s="113">
         <v>100</v>
       </c>
-      <c r="F52" s="122"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="D53" s="113"/>
-      <c r="E53" s="129" t="s">
+      <c r="F98" s="107"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="D99" s="98"/>
+      <c r="E99" s="113" t="s">
         <v>531</v>
       </c>
-      <c r="F53" s="122"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="E54" s="130">
+      <c r="F99" s="107"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="E100" s="114">
         <v>45869</v>
       </c>
-      <c r="F54" s="122"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="C56" s="127" t="s">
+      <c r="F100" s="107"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="E101" s="107"/>
+      <c r="F101" s="107"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="C102" s="112" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="C57" s="120" t="s">
+    <row r="103" spans="1:6">
+      <c r="C103" s="105" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="C58" s="119" t="s">
+    <row r="104" spans="1:6">
+      <c r="C104" s="104" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="21">
-      <c r="A60" s="123" t="s">
+    <row r="106" spans="1:6" ht="21">
+      <c r="A106" s="108" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="C61" s="127" t="s">
+    <row r="107" spans="1:6">
+      <c r="C107" s="112" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="C62" s="120" t="s">
+    <row r="108" spans="1:6">
+      <c r="C108" s="105" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="C63" s="120" t="s">
+    <row r="109" spans="1:6">
+      <c r="C109" s="105" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="D64" s="124" t="s">
+    <row r="110" spans="1:6">
+      <c r="D110" s="109" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60">
-      <c r="E65" s="125" t="s">
+    <row r="111" spans="1:6" ht="60">
+      <c r="E111" s="110" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="C66" s="127" t="s">
+    <row r="112" spans="1:6">
+      <c r="C112" s="112" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="C67" s="120" t="s">
+    <row r="113" spans="1:9">
+      <c r="C113" s="105" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="C68" s="120" t="s">
+    <row r="114" spans="1:9">
+      <c r="C114" s="105" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="C69" s="119" t="s">
+    <row r="115" spans="1:9">
+      <c r="C115" s="104" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="21">
-      <c r="A71" s="123" t="s">
+    <row r="117" spans="1:9" ht="21">
+      <c r="A117" s="108" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:9" ht="27">
-      <c r="C73" s="134" t="s">
+    <row r="118" spans="1:9">
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="1:9" ht="27">
+      <c r="C119" s="118" t="s">
         <v>551</v>
       </c>
-      <c r="D73" s="134" t="s">
+      <c r="D119" s="118" t="s">
         <v>552</v>
       </c>
-      <c r="E73" s="134" t="s">
+      <c r="E119" s="118" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C74" s="139" t="s">
+    <row r="120" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C120" s="123" t="s">
         <v>534</v>
       </c>
-      <c r="D74" s="135" t="s">
+      <c r="D120" s="119" t="s">
         <v>554</v>
       </c>
-      <c r="E74" s="137" t="s">
+      <c r="E120" s="121" t="s">
         <v>562</v>
       </c>
-      <c r="G74" s="118"/>
-      <c r="H74" s="118"/>
-      <c r="I74" s="118"/>
-    </row>
-    <row r="75" spans="1:9" ht="63" customHeight="1">
-      <c r="C75" s="139" t="s">
+      <c r="G120" s="103"/>
+      <c r="H120" s="103"/>
+      <c r="I120" s="103"/>
+    </row>
+    <row r="121" spans="1:9" ht="63" customHeight="1">
+      <c r="C121" s="123" t="s">
         <v>560</v>
       </c>
-      <c r="D75" s="135" t="s">
+      <c r="D121" s="119" t="s">
         <v>559</v>
       </c>
-      <c r="E75" s="138" t="s">
+      <c r="E121" s="122" t="s">
         <v>563</v>
       </c>
-      <c r="G75" s="132"/>
-      <c r="H75" s="117"/>
-      <c r="I75" s="133"/>
-    </row>
-    <row r="76" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C76" s="139" t="s">
+      <c r="G121" s="116"/>
+      <c r="H121" s="102"/>
+      <c r="I121" s="117"/>
+    </row>
+    <row r="122" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C122" s="123" t="s">
         <v>561</v>
       </c>
-      <c r="D76" s="135" t="s">
+      <c r="D122" s="119" t="s">
         <v>555</v>
       </c>
-      <c r="E76" s="140" t="s">
+      <c r="E122" s="124" t="s">
         <v>564</v>
       </c>
-      <c r="G76" s="132"/>
-      <c r="H76" s="117"/>
-      <c r="I76" s="117"/>
-    </row>
-    <row r="77" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C77" s="139" t="s">
+      <c r="G122" s="116"/>
+      <c r="H122" s="102"/>
+      <c r="I122" s="102"/>
+    </row>
+    <row r="123" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C123" s="123" t="s">
         <v>520</v>
       </c>
-      <c r="D77" s="126" t="s">
+      <c r="D123" s="111" t="s">
         <v>566</v>
       </c>
-      <c r="E77" s="141" t="s">
+      <c r="E123" s="125" t="s">
         <v>565</v>
       </c>
-      <c r="G77" s="132"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="C78" s="136"/>
-      <c r="D78" s="136"/>
-    </row>
-    <row r="79" spans="1:9" ht="21">
-      <c r="A79" s="112" t="s">
+      <c r="G123" s="116"/>
+      <c r="H123" s="102"/>
+      <c r="I123" s="102"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="C124" s="120"/>
+      <c r="D124" s="120"/>
+    </row>
+    <row r="125" spans="1:9" ht="21">
+      <c r="A125" s="97" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80"/>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A81" t="s">
+    <row r="126" spans="1:9">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A127" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A82" s="113"/>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A83" s="114" t="s">
+    <row r="128" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A128" s="98"/>
+    </row>
+    <row r="129" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A129" s="99" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A84" s="129" t="s">
+    <row r="130" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A130" s="113" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A85" s="111"/>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A86" s="116"/>
-      <c r="C86" s="116" t="s">
+    <row r="131" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A131" s="96"/>
+    </row>
+    <row r="132" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A132" s="101"/>
+      <c r="C132" s="101" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A87" s="116"/>
-      <c r="C87" s="116" t="s">
+    <row r="133" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A133" s="101"/>
+      <c r="C133" s="101" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="89" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A89" s="114" t="s">
+    <row r="134" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="135" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A135" s="99" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A90" s="115" t="s">
+    <row r="136" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A136" s="100" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A91" s="115" t="s">
+    <row r="137" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A137" s="100" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A92" s="131" t="s">
+    <row r="138" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A138" s="115" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A93" s="131" t="s">
+    <row r="139" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A139" s="115" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A94" s="111"/>
-    </row>
-    <row r="95" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A95" s="116"/>
-      <c r="C95" s="116" t="s">
+    <row r="140" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A140" s="96"/>
+    </row>
+    <row r="141" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A141" s="101"/>
+      <c r="C141" s="101" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A96" s="116"/>
-      <c r="C96" s="116" t="s">
+    <row r="142" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A142" s="101"/>
+      <c r="C142" s="101" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16.5" customHeight="1">
-      <c r="C97" s="116" t="s">
+    <row r="143" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C143" s="101" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="99" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A99" s="124" t="s">
+    <row r="144" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="145" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A145" s="109" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A100" s="124" t="s">
+    <row r="146" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A146" s="109" t="s">
         <v>550</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C88:E88"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="43" max="4" man="1"/>
-    <brk id="78" max="4" man="1"/>
+    <brk id="89" max="6" man="1"/>
+    <brk id="124" max="6" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
@@ -7312,7 +7884,7 @@
   </sheetPr>
   <dimension ref="A2:F198"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A59" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A68" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -7925,7 +8497,7 @@
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
-      <c r="F70" s="99" t="s">
+      <c r="F70" s="131" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7937,7 +8509,7 @@
         <v>393</v>
       </c>
       <c r="D71" s="31"/>
-      <c r="F71" s="99"/>
+      <c r="F71" s="131"/>
     </row>
     <row r="72" spans="1:6" ht="27">
       <c r="C72" s="58" t="s">
@@ -7949,7 +8521,7 @@
       <c r="E72" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="99"/>
+      <c r="F72" s="131"/>
     </row>
     <row r="73" spans="1:6" ht="40.5">
       <c r="C73" s="58" t="s">
@@ -7961,7 +8533,7 @@
       <c r="E73" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F73" s="99"/>
+      <c r="F73" s="131"/>
     </row>
     <row r="74" spans="1:6" ht="40.5">
       <c r="B74" s="31"/>
@@ -7974,7 +8546,7 @@
       <c r="E74" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F74" s="99"/>
+      <c r="F74" s="131"/>
     </row>
     <row r="75" spans="1:6" ht="27">
       <c r="B75" s="31"/>
@@ -7987,7 +8559,7 @@
       <c r="E75" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F75" s="99"/>
+      <c r="F75" s="131"/>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="31"/>
@@ -8017,7 +8589,7 @@
       <c r="D79" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E79" s="97" t="s">
+      <c r="E79" s="129" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8029,7 +8601,7 @@
       <c r="D80" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E80" s="97"/>
+      <c r="E80" s="129"/>
     </row>
     <row r="81" spans="2:6" ht="27">
       <c r="B81" s="31"/>
@@ -8039,7 +8611,7 @@
       <c r="D81" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="97"/>
+      <c r="E81" s="129"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="31"/>
@@ -8063,7 +8635,7 @@
       <c r="E84" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F84" s="97" t="s">
+      <c r="F84" s="129" t="s">
         <v>246</v>
       </c>
     </row>
@@ -8078,7 +8650,7 @@
       <c r="E85" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F85" s="97"/>
+      <c r="F85" s="129"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -8091,7 +8663,7 @@
       <c r="E86" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F86" s="97"/>
+      <c r="F86" s="129"/>
     </row>
     <row r="87" spans="2:6" ht="27">
       <c r="B87" s="31"/>
@@ -8104,7 +8676,7 @@
       <c r="E87" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F87" s="97"/>
+      <c r="F87" s="129"/>
     </row>
     <row r="88" spans="2:6" ht="27">
       <c r="B88" s="31"/>
@@ -8117,7 +8689,7 @@
       <c r="E88" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F88" s="97"/>
+      <c r="F88" s="129"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="31"/>
@@ -8141,7 +8713,7 @@
       <c r="E91" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F91" s="97" t="s">
+      <c r="F91" s="129" t="s">
         <v>247</v>
       </c>
     </row>
@@ -8155,7 +8727,7 @@
       <c r="E92" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="97"/>
+      <c r="F92" s="129"/>
     </row>
     <row r="93" spans="2:6">
       <c r="C93" s="31"/>
@@ -8168,10 +8740,10 @@
       <c r="D94" s="31"/>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="100" t="s">
+      <c r="B95" s="132" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="101" t="s">
+      <c r="C95" s="133" t="s">
         <v>398</v>
       </c>
       <c r="D95" s="58" t="s">
@@ -8179,115 +8751,115 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="97"/>
-      <c r="C96" s="101"/>
+      <c r="B96" s="129"/>
+      <c r="C96" s="133"/>
       <c r="D96" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="97"/>
-      <c r="C97" s="101"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="133"/>
       <c r="D97" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="27">
-      <c r="B98" s="97"/>
-      <c r="C98" s="101"/>
+      <c r="B98" s="129"/>
+      <c r="C98" s="133"/>
       <c r="D98" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="27">
-      <c r="B99" s="97"/>
-      <c r="C99" s="101"/>
+      <c r="B99" s="129"/>
+      <c r="C99" s="133"/>
       <c r="D99" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="97"/>
-      <c r="C100" s="101"/>
+      <c r="B100" s="129"/>
+      <c r="C100" s="133"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="96" t="s">
+      <c r="C101" s="128" t="s">
         <v>262</v>
       </c>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="96"/>
+      <c r="C102" s="128"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="96"/>
+      <c r="C103" s="128"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="96"/>
+      <c r="C104" s="128"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="96"/>
+      <c r="C105" s="128"/>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="96"/>
+      <c r="C106" s="128"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="96" t="s">
+      <c r="C107" s="128" t="s">
         <v>263</v>
       </c>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="96"/>
+      <c r="C108" s="128"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="96"/>
+      <c r="C109" s="128"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="96"/>
+      <c r="C110" s="128"/>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="96"/>
+      <c r="C111" s="128"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4" ht="27">
       <c r="B112" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="96" t="s">
+      <c r="C112" s="128" t="s">
         <v>264</v>
       </c>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="96"/>
+      <c r="C113" s="128"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="96"/>
+      <c r="C114" s="128"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" s="96"/>
+      <c r="C115" s="128"/>
       <c r="D115" s="31"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" s="96"/>
+      <c r="C116" s="128"/>
       <c r="D116" s="31"/>
     </row>
     <row r="117" spans="1:4">
@@ -8320,30 +8892,30 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="97" t="s">
+      <c r="B121" s="129" t="s">
         <v>261</v>
       </c>
-      <c r="C121" s="97"/>
+      <c r="C121" s="129"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="97"/>
-      <c r="C122" s="97"/>
+      <c r="B122" s="129"/>
+      <c r="C122" s="129"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="97"/>
-      <c r="C123" s="97"/>
+      <c r="B123" s="129"/>
+      <c r="C123" s="129"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="B124" s="97"/>
-      <c r="C124" s="97"/>
+      <c r="B124" s="129"/>
+      <c r="C124" s="129"/>
       <c r="D124" s="31"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="B125" s="97"/>
-      <c r="C125" s="97"/>
+      <c r="B125" s="129"/>
+      <c r="C125" s="129"/>
       <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" ht="40.5">
@@ -8938,10 +9510,10 @@
       </c>
     </row>
     <row r="196" spans="3:4" ht="51" customHeight="1">
-      <c r="C196" s="98" t="s">
+      <c r="C196" s="130" t="s">
         <v>439</v>
       </c>
-      <c r="D196" s="98"/>
+      <c r="D196" s="130"/>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" s="77" t="s">
@@ -9560,7 +10132,7 @@
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="F68" s="99" t="s">
+      <c r="F68" s="131" t="s">
         <v>211</v>
       </c>
     </row>
@@ -9572,7 +10144,7 @@
         <v>393</v>
       </c>
       <c r="D69" s="31"/>
-      <c r="F69" s="99"/>
+      <c r="F69" s="131"/>
     </row>
     <row r="70" spans="1:6" ht="27">
       <c r="C70" s="58" t="s">
@@ -9584,7 +10156,7 @@
       <c r="E70" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="99"/>
+      <c r="F70" s="131"/>
     </row>
     <row r="71" spans="1:6" ht="40.5">
       <c r="C71" s="58" t="s">
@@ -9596,7 +10168,7 @@
       <c r="E71" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F71" s="99"/>
+      <c r="F71" s="131"/>
     </row>
     <row r="72" spans="1:6" ht="40.5">
       <c r="B72" s="31"/>
@@ -9609,7 +10181,7 @@
       <c r="E72" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="99"/>
+      <c r="F72" s="131"/>
     </row>
     <row r="73" spans="1:6" ht="27">
       <c r="B73" s="31"/>
@@ -9622,7 +10194,7 @@
       <c r="E73" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F73" s="99"/>
+      <c r="F73" s="131"/>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="31"/>
@@ -9652,7 +10224,7 @@
       <c r="D77" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E77" s="97" t="s">
+      <c r="E77" s="129" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9664,7 +10236,7 @@
       <c r="D78" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E78" s="97"/>
+      <c r="E78" s="129"/>
     </row>
     <row r="79" spans="1:6" ht="27">
       <c r="B79" s="31"/>
@@ -9674,7 +10246,7 @@
       <c r="D79" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E79" s="97"/>
+      <c r="E79" s="129"/>
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="31"/>
@@ -9698,7 +10270,7 @@
       <c r="E82" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="97" t="s">
+      <c r="F82" s="129" t="s">
         <v>246</v>
       </c>
     </row>
@@ -9713,7 +10285,7 @@
       <c r="E83" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F83" s="97"/>
+      <c r="F83" s="129"/>
     </row>
     <row r="84" spans="2:6" ht="27">
       <c r="B84" s="31"/>
@@ -9726,7 +10298,7 @@
       <c r="E84" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F84" s="97"/>
+      <c r="F84" s="129"/>
     </row>
     <row r="85" spans="2:6" ht="27">
       <c r="B85" s="31"/>
@@ -9739,7 +10311,7 @@
       <c r="E85" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F85" s="97"/>
+      <c r="F85" s="129"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -9752,7 +10324,7 @@
       <c r="E86" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F86" s="97"/>
+      <c r="F86" s="129"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="31"/>
@@ -9776,7 +10348,7 @@
       <c r="E89" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F89" s="97" t="s">
+      <c r="F89" s="129" t="s">
         <v>247</v>
       </c>
     </row>
@@ -9790,7 +10362,7 @@
       <c r="E90" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F90" s="97"/>
+      <c r="F90" s="129"/>
     </row>
     <row r="91" spans="2:6">
       <c r="C91" s="31"/>
@@ -9803,10 +10375,10 @@
       <c r="D92" s="31"/>
     </row>
     <row r="93" spans="2:6" ht="27">
-      <c r="B93" s="100" t="s">
+      <c r="B93" s="132" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="101" t="s">
+      <c r="C93" s="133" t="s">
         <v>398</v>
       </c>
       <c r="D93" s="58" t="s">
@@ -9814,115 +10386,115 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="27">
-      <c r="B94" s="97"/>
-      <c r="C94" s="101"/>
+      <c r="B94" s="129"/>
+      <c r="C94" s="133"/>
       <c r="D94" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="97"/>
-      <c r="C95" s="101"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="133"/>
       <c r="D95" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="97"/>
-      <c r="C96" s="101"/>
+      <c r="B96" s="129"/>
+      <c r="C96" s="133"/>
       <c r="D96" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="97"/>
-      <c r="C97" s="101"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="133"/>
       <c r="D97" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="97"/>
-      <c r="C98" s="101"/>
+      <c r="B98" s="129"/>
+      <c r="C98" s="133"/>
       <c r="D98" s="31"/>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="96" t="s">
+      <c r="C99" s="128" t="s">
         <v>262</v>
       </c>
       <c r="D99" s="31"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="96"/>
+      <c r="C100" s="128"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="96"/>
+      <c r="C101" s="128"/>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="96"/>
+      <c r="C102" s="128"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="96"/>
+      <c r="C103" s="128"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="96"/>
+      <c r="C104" s="128"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="96" t="s">
+      <c r="C105" s="128" t="s">
         <v>263</v>
       </c>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="96"/>
+      <c r="C106" s="128"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="96"/>
+      <c r="C107" s="128"/>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="96"/>
+      <c r="C108" s="128"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="96"/>
+      <c r="C109" s="128"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4" ht="27">
       <c r="B110" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="96" t="s">
+      <c r="C110" s="128" t="s">
         <v>264</v>
       </c>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="96"/>
+      <c r="C111" s="128"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="96"/>
+      <c r="C112" s="128"/>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="96"/>
+      <c r="C113" s="128"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="96"/>
+      <c r="C114" s="128"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
@@ -9955,30 +10527,30 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="B119" s="97" t="s">
+      <c r="B119" s="129" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="97"/>
+      <c r="C119" s="129"/>
       <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="B120" s="97"/>
-      <c r="C120" s="97"/>
+      <c r="B120" s="129"/>
+      <c r="C120" s="129"/>
       <c r="D120" s="31"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="97"/>
-      <c r="C121" s="97"/>
+      <c r="B121" s="129"/>
+      <c r="C121" s="129"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="97"/>
-      <c r="C122" s="97"/>
+      <c r="B122" s="129"/>
+      <c r="C122" s="129"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="97"/>
-      <c r="C123" s="97"/>
+      <c r="B123" s="129"/>
+      <c r="C123" s="129"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4" ht="40.5">
@@ -10573,10 +11145,10 @@
       </c>
     </row>
     <row r="194" spans="3:4" ht="51" customHeight="1">
-      <c r="C194" s="98" t="s">
+      <c r="C194" s="130" t="s">
         <v>439</v>
       </c>
-      <c r="D194" s="98"/>
+      <c r="D194" s="130"/>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" s="77" t="s">
@@ -11192,7 +11764,7 @@
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
-      <c r="F67" s="106" t="s">
+      <c r="F67" s="138" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11204,7 +11776,7 @@
         <v>238</v>
       </c>
       <c r="D68" s="18"/>
-      <c r="F68" s="106"/>
+      <c r="F68" s="138"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
       <c r="C69" s="33" t="s">
@@ -11216,7 +11788,7 @@
       <c r="E69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="107"/>
+      <c r="F69" s="139"/>
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1">
       <c r="C70" s="33" t="s">
@@ -11228,7 +11800,7 @@
       <c r="E70" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="107"/>
+      <c r="F70" s="139"/>
     </row>
     <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="B71" s="18"/>
@@ -11241,7 +11813,7 @@
       <c r="E71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F71" s="107"/>
+      <c r="F71" s="139"/>
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
       <c r="B72" s="18"/>
@@ -11254,7 +11826,7 @@
       <c r="E72" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="107"/>
+      <c r="F72" s="139"/>
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="B73" s="18"/>
@@ -11284,7 +11856,7 @@
       <c r="D76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="104" t="s">
+      <c r="E76" s="136" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11296,7 +11868,7 @@
       <c r="D77" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="105"/>
+      <c r="E77" s="137"/>
     </row>
     <row r="78" spans="1:6" ht="21" customHeight="1">
       <c r="B78" s="18"/>
@@ -11306,7 +11878,7 @@
       <c r="D78" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="105"/>
+      <c r="E78" s="137"/>
     </row>
     <row r="79" spans="1:6" ht="21" customHeight="1">
       <c r="B79" s="18"/>
@@ -11330,7 +11902,7 @@
       <c r="E81" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="104" t="s">
+      <c r="F81" s="136" t="s">
         <v>246</v>
       </c>
     </row>
@@ -11345,7 +11917,7 @@
       <c r="E82" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F82" s="105"/>
+      <c r="F82" s="137"/>
     </row>
     <row r="83" spans="2:6" ht="21" customHeight="1">
       <c r="B83" s="18"/>
@@ -11358,7 +11930,7 @@
       <c r="E83" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="105"/>
+      <c r="F83" s="137"/>
     </row>
     <row r="84" spans="2:6" ht="21" customHeight="1">
       <c r="B84" s="18"/>
@@ -11371,7 +11943,7 @@
       <c r="E84" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="105"/>
+      <c r="F84" s="137"/>
     </row>
     <row r="85" spans="2:6" ht="21" customHeight="1">
       <c r="B85" s="18"/>
@@ -11384,7 +11956,7 @@
       <c r="E85" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F85" s="105"/>
+      <c r="F85" s="137"/>
     </row>
     <row r="86" spans="2:6" ht="21" customHeight="1">
       <c r="B86" s="18"/>
@@ -11408,7 +11980,7 @@
       <c r="E88" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F88" s="104" t="s">
+      <c r="F88" s="136" t="s">
         <v>247</v>
       </c>
     </row>
@@ -11422,7 +11994,7 @@
       <c r="E89" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="105"/>
+      <c r="F89" s="137"/>
     </row>
     <row r="90" spans="2:6" ht="21" customHeight="1">
       <c r="C90" s="18"/>
@@ -11435,10 +12007,10 @@
       <c r="D91" s="18"/>
     </row>
     <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="B92" s="108" t="s">
+      <c r="B92" s="140" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="109" t="s">
+      <c r="C92" s="141" t="s">
         <v>265</v>
       </c>
       <c r="D92" s="33" t="s">
@@ -11446,115 +12018,115 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="B93" s="105"/>
-      <c r="C93" s="110"/>
+      <c r="B93" s="137"/>
+      <c r="C93" s="142"/>
       <c r="D93" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="B94" s="105"/>
-      <c r="C94" s="110"/>
+      <c r="B94" s="137"/>
+      <c r="C94" s="142"/>
       <c r="D94" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="B95" s="105"/>
-      <c r="C95" s="110"/>
+      <c r="B95" s="137"/>
+      <c r="C95" s="142"/>
       <c r="D95" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="105"/>
-      <c r="C96" s="110"/>
+      <c r="B96" s="137"/>
+      <c r="C96" s="142"/>
       <c r="D96" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="B97" s="105"/>
-      <c r="C97" s="110"/>
+      <c r="B97" s="137"/>
+      <c r="C97" s="142"/>
       <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" ht="21" customHeight="1">
       <c r="B98" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="102" t="s">
+      <c r="C98" s="134" t="s">
         <v>262</v>
       </c>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="C99" s="103"/>
+      <c r="C99" s="135"/>
       <c r="D99" s="18"/>
     </row>
     <row r="100" spans="2:4" ht="21" customHeight="1">
-      <c r="C100" s="103"/>
+      <c r="C100" s="135"/>
       <c r="D100" s="18"/>
     </row>
     <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="C101" s="103"/>
+      <c r="C101" s="135"/>
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="103"/>
+      <c r="C102" s="135"/>
       <c r="D102" s="18"/>
     </row>
     <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="103"/>
+      <c r="C103" s="135"/>
       <c r="D103" s="18"/>
     </row>
     <row r="104" spans="2:4" ht="21" customHeight="1">
       <c r="B104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C104" s="102" t="s">
+      <c r="C104" s="134" t="s">
         <v>263</v>
       </c>
       <c r="D104" s="18"/>
     </row>
     <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="C105" s="103"/>
+      <c r="C105" s="135"/>
       <c r="D105" s="18"/>
     </row>
     <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="C106" s="103"/>
+      <c r="C106" s="135"/>
       <c r="D106" s="18"/>
     </row>
     <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="C107" s="103"/>
+      <c r="C107" s="135"/>
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="2:4" ht="33" customHeight="1">
-      <c r="C108" s="103"/>
+      <c r="C108" s="135"/>
       <c r="D108" s="18"/>
     </row>
     <row r="109" spans="2:4" ht="21" customHeight="1">
       <c r="B109" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="102" t="s">
+      <c r="C109" s="134" t="s">
         <v>264</v>
       </c>
       <c r="D109" s="18"/>
     </row>
     <row r="110" spans="2:4" ht="21" customHeight="1">
-      <c r="C110" s="103"/>
+      <c r="C110" s="135"/>
       <c r="D110" s="18"/>
     </row>
     <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="C111" s="103"/>
+      <c r="C111" s="135"/>
       <c r="D111" s="18"/>
     </row>
     <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="C112" s="103"/>
+      <c r="C112" s="135"/>
       <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="C113" s="103"/>
+      <c r="C113" s="135"/>
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="21" customHeight="1">
@@ -11586,30 +12158,30 @@
       <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="104" t="s">
+      <c r="B118" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="C118" s="105"/>
+      <c r="C118" s="137"/>
       <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="105"/>
-      <c r="C119" s="105"/>
+      <c r="B119" s="137"/>
+      <c r="C119" s="137"/>
       <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="105"/>
-      <c r="C120" s="105"/>
+      <c r="B120" s="137"/>
+      <c r="C120" s="137"/>
       <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" ht="21" customHeight="1">
-      <c r="B121" s="105"/>
-      <c r="C121" s="105"/>
+      <c r="B121" s="137"/>
+      <c r="C121" s="137"/>
       <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" ht="21" customHeight="1">
-      <c r="B122" s="105"/>
-      <c r="C122" s="105"/>
+      <c r="B122" s="137"/>
+      <c r="C122" s="137"/>
       <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" ht="21" customHeight="1">

--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -8,30 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\maruaican\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED2C57-E9EF-49E2-A065-9540122B8402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058714DF-3ED1-410E-AD4C-396CDE17DB85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="サブクエリ" sheetId="6" r:id="rId1"/>
-    <sheet name="SQL構文一覧 (3)" sheetId="5" r:id="rId2"/>
-    <sheet name="SQL構文一覧 (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="SQL構文一覧" sheetId="1" r:id="rId4"/>
-    <sheet name="ai_studio_code_sjisx" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
+    <sheet name="サブクエリ (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="サブクエリ" sheetId="6" r:id="rId2"/>
+    <sheet name="SQL構文一覧 (3)" sheetId="5" r:id="rId3"/>
+    <sheet name="SQL構文一覧 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="SQL構文一覧" sheetId="1" r:id="rId5"/>
+    <sheet name="ai_studio_code_sjisx" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">SQL構文一覧!$A$11:$G$208</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'SQL構文一覧 (2)'!$A$11:$F$197</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">サブクエリ!$A$1:$G$147</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">SQL構文一覧!$A$11:$G$208</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'SQL構文一覧 (2)'!$A$11:$F$197</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">サブクエリ!$A$1:$G$159</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (2)'!$A$1:$G$318</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="770">
   <si>
     <t>分類</t>
   </si>
@@ -4630,12 +4632,6 @@
     <t>1. 単一行サブクエリ（スカラ値）</t>
   </si>
   <si>
-    <t>比較演算子（=, &gt;, &lt; など）と組み合わせる。</t>
-  </si>
-  <si>
-    <t>IN, ANY, ALL などと組み合わせる。</t>
-  </si>
-  <si>
     <t>試験の着眼点</t>
   </si>
   <si>
@@ -4854,21 +4850,6 @@
         <charset val="128"/>
       </rPr>
       <t>は「最大値より大きい」）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>目的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：サブクエリを一時的な表（派生表）として扱い、外側のSELECTで</t>
     </r>
   </si>
   <si>
@@ -5655,42 +5636,304 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>① IN／NOT IN を使うパターン</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 非相関副問い合わせの例：数量が10以上ある商品IDを持つ注文明細のある商品を選ぶ
-SELECT 商品ID, 商品名
+    <t>４　代表的な誤答・凡ミスと原因</t>
+  </si>
+  <si>
+    <t>(1) スカラー副問い合わせが複数行を返してエラーになる</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 想定ミス：副問い合わせで複数の行を返し、比較演算子=を使っているとエラー</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>SELECT 商品ID
 FROM 商品
-WHERE 商品ID IN (
-  SELECT 商品ID
-  FROM 注文明細
-  WHERE 数量 &gt;= 10
+WHERE 価格 = (
+  SELECT 価格
+  FROM 商品
+  WHERE 価格 &gt; 1000
+);
+-- ここで副問い合わせは複数の価格を返し「単一値を期待」する=と矛盾しエラーになる</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>→ 対策：副問い合わせが単一行・単一列になるように集約（例：MAX／MIN／AVG）または IN を使う。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(2) NULL の扱いによる意図しない除外（IN / NOT INの落とし穴）</t>
+  </si>
+  <si>
+    <r>
+      <t>NOT IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の副問い合わせ結果に NULL が含まれると、比較が UNKNOWN になり意図した行が除外される。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 顧客のうち、注文をしていない顧客を NOT IN で取ろうとして失敗する可能性あり
+SELECT 顧客ID
+FROM 顧客
+WHERE 顧客ID NOT IN (
+  SELECT 顧客ID
+  FROM 注文
 );</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>② EXISTS／NOT EXISTS を使うパターン（多くは相関副問い合わせになる）</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 相関副問い合わせの例：注文ごとに、単価が1000を超える明細が存在する注文を選ぶ
-SELECT 注文ID, 顧客ID, 注文日
-FROM 注文
-WHERE EXISTS (
-  SELECT 1
-  FROM 注文明細
-  WHERE 注文明細.注文ID = 注文.注文ID
-    AND 単価 &gt; 1000
-);</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>③ 比較（スカラー副問い合わせ）
-副問い合わせが単一の値（スカラー値）を返すと予想されるときに比較演算子と組合せる。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 各注文について、その注文の合計金額が全注文の平均金額を超えるもの
+    <t>→ 安全な書き方は NOT EXISTS を使う。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>注文表の 顧客ID に NULL が存在すると、全ての行が除外され得る。</t>
+  </si>
+  <si>
+    <t>(3) 相関副問い合わせと非相関副問い合わせを混同してインデックスや性能を考慮しない
+外側行ごとに非効率に副問い合わせが走る構造をそのまま使い、件数が増えたときに急に遅くなる。
+→ 再書き換え（JOIN への書き換え）、あるいは集約を先にした派生テーブルを使う検討。
+(4) EXISTS と IN の意味の違いを理解せずに使い分けを誤る
+IN は集合に含まれるか、EXISTS は副問い合わせの行の「存在そのもの」を問う。NULL の影響や重複の扱いも異なる。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>６　性能上の留意点（試験での判断材料）</t>
+  </si>
+  <si>
+    <t>(1) 相関副問い合わせは外側の各行ごとに副問い合わせが実行されやすく、行数増加で遅くなる。外側の主キー／参照キーにインデックスが適切に張られているか確認する。</t>
+  </si>
+  <si>
+    <t>(2) 非相関副問い合わせは一度評価されキャッシュされることが多いが、大きな集合を生成する場合は事前に縮小（絞り込み）する工夫が必要。</t>
+  </si>
+  <si>
+    <t>(3) EXISTS は副問い合わせ内で条件を満たす最初の行が見つかれば済むため、短絡的に速くなることがある（早期終了）。IN は全体集合の生成と比較になる。</t>
+  </si>
+  <si>
+    <t>(4) 副問い合わせをJOINに置き換えた方がインデックス活用の観点で速くなるケースもあるが、重複除去や集約の意味が変わらないかの検証が必要。</t>
+  </si>
+  <si>
+    <t>７　試験での解答時のチェックリスト（判断基準）</t>
+  </si>
+  <si>
+    <t>(1) 副問い合わせは「相関」か「非相関」か。外側の行に依存していれば相関。</t>
+  </si>
+  <si>
+    <r>
+      <t>(2) 比較対象が集合か単一値かを見極め、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を使い分けているか。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(3) NULLの影響を考慮しているか（特に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は危険）。</t>
+    </r>
+  </si>
+  <si>
+    <t>(4) スカラー副問い合わせが複数行になっていないか（必要なら集約）。</t>
+  </si>
+  <si>
+    <t>(5) 意図を読み替えてJOINで簡潔になるならその書き換えを検討する設問か（設問文の指示を確認）。</t>
+  </si>
+  <si>
+    <t>(6) 副問い合わせの結果の型や行数の前提が破綻していないか（例：単一値を期待しているのに複数行、存在チェックに対して誤って = を使っていないか）。</t>
+  </si>
+  <si>
+    <t>８　よくある設問パターンと模範的な解法のヒント</t>
+  </si>
+  <si>
+    <t>(1) 「○○を持つ顧客を抽出せよ」→ EXISTS / IN の選択。</t>
+  </si>
+  <si>
+    <t>(2) 「注文ごとの合計が平均以上の注文を抽出せよ」→ スカラー副問い合わせ＋集約の比較。</t>
+  </si>
+  <si>
+    <t>(3) 「商品を購入していない顧客」→ NOT EXISTS を用いる（NOT IN はNULLに注意）。</t>
+  </si>
+  <si>
+    <t>(4) 「ある商品の単価が、その商品カテゴリの平均より高い商品」→ 同一カテゴリ内の平均と比較するスカラー副問い合わせ。</t>
+  </si>
+  <si>
+    <t>９　まとめ：誤答を避けるための要点</t>
+  </si>
+  <si>
+    <t>(1) 副問い合わせの種類（相関／非相関）と期待される戻り値の形（集合／単一値）を判断する。</t>
+  </si>
+  <si>
+    <r>
+      <t>(2) NULLによる論理三値の影響を理解し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ではなく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使う設問かを見分ける。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(3) 集合比較と存在チェックの違いを踏まえ、目的に応じて </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・比較演算子を使い分ける。</t>
+    </r>
+  </si>
+  <si>
+    <t>(4) 副問い合わせが重くなる場合の代表的な書き換え（JOIN, 派生表）を頭に置き、設問で許容されるか検討する。</t>
+  </si>
+  <si>
+    <t>(5) スカラー副問い合わせが複数行を返すケースを防ぐために集約やLIMIT（試験の方針により使用制限がある場合があるので設問文を確認）を使う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 SELECT 注文ID, 顧客ID
 FROM 注文
 WHERE (
@@ -5708,50 +5951,132 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>４　代表的な誤答・凡ミスと原因</t>
-  </si>
-  <si>
-    <t>(1) スカラー副問い合わせが複数行を返してエラーになる</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 想定ミス：副問い合わせで複数の行を返し、比較演算子=を使っているとエラー</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>SELECT 商品ID
+    <t xml:space="preserve"> 各注文について、その注文の合計金額が全注文の平均金額を超えるもの</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 相関副問い合わせの例：注文ごとに、単価が1000を超える明細が存在する注文を選ぶ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SELECT 注文ID, 顧客ID, 注文日
+FROM 注文
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>WHERE EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (
+  SELECT 1
+  FROM 注文明細
+  WHERE 注文明細.注文ID = 注文.注文ID
+    AND 単価 &gt; 1000
+);</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 比較（スカラー副問い合わせ）
+副問い合わせが単一の値（スカラー値）を返すと予想されるときに比較演算子（=, &gt;, &lt; など)と組合せる。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 商品ID, 商品名
+FROM 商品
+WHERE 商品ID IN (
+  SELECT 商品ID
+  FROM 注文明細
+  WHERE 数量 &gt;= 10
+);</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 非相関副問い合わせの例：数量が10以上ある商品IDを持つ注文明細のある商品を選ぶ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> IN／NOT IN, ANY, ALL などと組み合わせる。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>３．EXISTS／NOT EXISTS を使うパターン（多くは相関副問い合わせになる）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>２－２．FROM句サブクエリ（派生表・インラインビュー）</t>
+  </si>
+  <si>
+    <r>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：サブクエリを一時的な表（派生表）として扱い、外側のSELECTでさらに処理する。</t>
+    </r>
+  </si>
+  <si>
+    <t>副問い合わせが単一の値（スカラー値）を返すと予想されるときに比較演算子（=, &gt;, &lt; など)と組合せる。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>２． IN／NOT IN, ANY, ALL など：複数行サブクエリ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1. 比較演算子：単一行サブクエリ（スカラー副問い合わせ）（スカラ値＝単一の値）</t>
+    <rPh sb="3" eb="5">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 商品ID
 FROM 商品
 WHERE 価格 = (
   SELECT 価格
   FROM 商品
   WHERE 価格 &gt; 1000
 );
--- ここで副問い合わせは複数の価格を返し「単一値を期待」する=と矛盾しエラーになる</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>→ 対策：副問い合わせが単一行・単一列になるように集約（例：MAX／MIN／AVG）または IN を使う。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>(2) NULL の扱いによる意図しない除外（IN / NOT INの落とし穴）</t>
-  </si>
-  <si>
-    <r>
-      <t>NOT IN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> の副問い合わせ結果に NULL が含まれると、比較が UNKNOWN になり意図した行が除外される。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 顧客のうち、注文をしていない顧客を NOT IN で取ろうとして失敗する可能性あり
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ここで副問い合わせは複数の価格を返し「単一値を期待」する=と矛盾しエラーになる（複数の値と＝になるという矛盾）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 SELECT 顧客ID
 FROM 顧客
 WHERE 顧客ID NOT IN (
@@ -5761,44 +6086,100 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>→ 安全な書き方は NOT EXISTS を使う。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>注文表の 顧客ID に NULL が存在すると、全ての行が除外され得る。</t>
-  </si>
-  <si>
-    <t>(3) 相関副問い合わせと非相関副問い合わせを混同してインデックスや性能を考慮しない
-外側行ごとに非効率に副問い合わせが走る構造をそのまま使い、件数が増えたときに急に遅くなる。
+    <t xml:space="preserve"> 顧客のうち、注文をしていない顧客を NOT IN で取ろうとして失敗する可能性あり</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>外側行ごとに非効率に副問い合わせが走る構造をそのまま使い、件数が増えたときに急に遅くなる。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 → 再書き換え（JOIN への書き換え）、あるいは集約を先にした派生テーブルを使う検討。
-(4) EXISTS と IN の意味の違いを理解せずに使い分けを誤る
-IN は集合に含まれるか、EXISTS は副問い合わせの行の「存在そのもの」を問う。NULL の影響や重複の扱いも異なる。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>６　性能上の留意点（試験での判断材料）</t>
-  </si>
-  <si>
-    <t>(1) 相関副問い合わせは外側の各行ごとに副問い合わせが実行されやすく、行数増加で遅くなる。外側の主キー／参照キーにインデックスが適切に張られているか確認する。</t>
-  </si>
-  <si>
-    <t>(2) 非相関副問い合わせは一度評価されキャッシュされることが多いが、大きな集合を生成する場合は事前に縮小（絞り込み）する工夫が必要。</t>
-  </si>
-  <si>
-    <t>(3) EXISTS は副問い合わせ内で条件を満たす最初の行が見つかれば済むため、短絡的に速くなることがある（早期終了）。IN は全体集合の生成と比較になる。</t>
-  </si>
-  <si>
-    <t>(4) 副問い合わせをJOINに置き換えた方がインデックス活用の観点で速くなるケースもあるが、重複除去や集約の意味が変わらないかの検証が必要。</t>
-  </si>
-  <si>
-    <t>７　試験での解答時のチェックリスト（判断基準）</t>
-  </si>
-  <si>
-    <t>(1) 副問い合わせは「相関」か「非相関」か。外側の行に依存していれば相関。</t>
-  </si>
-  <si>
-    <r>
-      <t>(2) 比較対象が集合か単一値かを見極め、</t>
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(4) EXISTS と IN の意味の違いを理解せずに使い分けを誤る
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>IN は集合に含まれるか、EXISTS は副問い合わせの行の「存在そのもの」を問う。NULL の影響や重複の扱いも異なる。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SELECT 社員名, 給与 
+FROM 社員
+WHERE 給与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> = (SELECT MAX(給与)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> FROM 社員);
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(3) 相関副問い合わせと非相関副問い合わせを混同してインデックスや性能を考慮しない</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>一般構文（必ず別名を付与する）：</t>
+  </si>
+  <si>
+    <t>構文構造と記述ルール</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 外側の項目名
+FROM (
+    SELECT 内側の項目名
+    FROM テーブル名
+    WHERE 条件
+    GROUP BY 項目名
+) 派生表名
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>重要：FROM句のサブクエリには、必ず「別名（派生表名）」を付けなければならない。</t>
+  </si>
+  <si>
+    <t>4-1. フィルタリング前集計</t>
+  </si>
+  <si>
+    <r>
+      <t>目的：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -5807,7 +6188,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>IN</t>
+      <t>GROUP BY</t>
     </r>
     <r>
       <rPr>
@@ -5817,7 +6198,101 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>／</t>
+      <t>で集計した結果に対して、さらに条件を付けたい。</t>
+    </r>
+  </si>
+  <si>
+    <t>代表的パターンと具体例</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>SELECT 部署ID, 平均給与
+FROM (
+    SELECT 部署ID, AVG(給与) AS 平均給与
+    FROM 社員
+    GROUP BY 部署ID
+) 部署別平均
+WHERE 平均給与 &gt; 300000;</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ポイント：</t>
+  </si>
+  <si>
+    <r>
+      <t>HAVING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>句では記述できないような複雑な条件を扱うときに有効。</t>
+    </r>
+  </si>
+  <si>
+    <t>外側のSELECTで追加のフィルタをかけられる。</t>
+  </si>
+  <si>
+    <t>解説</t>
+  </si>
+  <si>
+    <t>６．頻出問題傾向（応用情報技術者試験）</t>
+  </si>
+  <si>
+    <t>派生表を用いた集約値の比較（部門別売上 vs 全体売上など）</t>
+  </si>
+  <si>
+    <t>サブクエリによるJOIN対象の生成</t>
+  </si>
+  <si>
+    <t>集計関数との組み合わせによる比率や差分の計算</t>
+  </si>
+  <si>
+    <t>外側のSELECTによる条件付き抽出</t>
+  </si>
+  <si>
+    <t>まとめ</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>効果</t>
+  </si>
+  <si>
+    <t>重要性</t>
+  </si>
+  <si>
+    <t>１．HAVING句による同等のSQL構文</t>
+  </si>
+  <si>
+    <t>このSQLは、以下の処理を行っています：</t>
+  </si>
+  <si>
+    <r>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で部署ごとの平均給与を算出</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>その平均給与が30万円を超えるものだけを抽出（</t>
     </r>
     <r>
       <rPr>
@@ -5826,7 +6301,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>=</t>
+      <t>HAVING</t>
     </r>
     <r>
       <rPr>
@@ -5836,7 +6311,143 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>／</t>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>２．HAVING句とFROM句サブクエリの使い分け</t>
+  </si>
+  <si>
+    <t>比較項目</t>
+  </si>
+  <si>
+    <t>HAVING句</t>
+  </si>
+  <si>
+    <t>FROM句サブクエリ</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <r>
+      <t>集約関数の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>結果に条件を付ける</t>
+    </r>
+  </si>
+  <si>
+    <t>記述の簡潔さ</t>
+  </si>
+  <si>
+    <t>よりシンプル（1段構造）</t>
+  </si>
+  <si>
+    <t>ネストされる分、やや複雑</t>
+  </si>
+  <si>
+    <t>多段階の処理</t>
+  </si>
+  <si>
+    <t>不向き（複雑なJOINや別の集計が困難）</t>
+  </si>
+  <si>
+    <t>柔軟に追加のSELECTやJOINが可能</t>
+  </si>
+  <si>
+    <t>可読性</t>
+  </si>
+  <si>
+    <t>単純な集計では高い</t>
+  </si>
+  <si>
+    <t>複雑な分析処理ではこちらが有利</t>
+  </si>
+  <si>
+    <t>用途例</t>
+  </si>
+  <si>
+    <r>
+      <t>平均給与＞30万などの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>単純な条件付き集計</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>平均給与と部門別人数の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>複合的な比較</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>など</t>
+    </r>
+  </si>
+  <si>
+    <t>３．なぜFROM句サブクエリで書かれることがあるのか</t>
+  </si>
+  <si>
+    <r>
+      <t>以下のような</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>複雑な処理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を行いたい場合、</t>
     </r>
     <r>
       <rPr>
@@ -5845,7 +6456,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>EXISTS</t>
+      <t>HAVING句</t>
     </r>
     <r>
       <rPr>
@@ -5855,12 +6466,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> を使い分けているか。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(3) NULLの影響を考慮しているか（特に </t>
+      <t>では困難であり、</t>
     </r>
     <r>
       <rPr>
@@ -5869,7 +6475,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>NOT IN</t>
+      <t>FROM句サブクエリ</t>
     </r>
     <r>
       <rPr>
@@ -5879,85 +6485,431 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> は危険）。</t>
-    </r>
-  </si>
-  <si>
-    <t>(4) スカラー副問い合わせが複数行になっていないか（必要なら集約）。</t>
-  </si>
-  <si>
-    <t>(5) 意図を読み替えてJOINで簡潔になるならその書き換えを検討する設問か（設問文の指示を確認）。</t>
-  </si>
-  <si>
-    <t>(6) 副問い合わせの結果の型や行数の前提が破綻していないか（例：単一値を期待しているのに複数行、存在チェックに対して誤って = を使っていないか）。</t>
-  </si>
-  <si>
-    <t>８　よくある設問パターンと模範的な解法のヒント</t>
-  </si>
-  <si>
-    <t>(1) 「○○を持つ顧客を抽出せよ」→ EXISTS / IN の選択。</t>
-  </si>
-  <si>
-    <t>(2) 「注文ごとの合計が平均以上の注文を抽出せよ」→ スカラー副問い合わせ＋集約の比較。</t>
-  </si>
-  <si>
-    <t>(3) 「商品を購入していない顧客」→ NOT EXISTS を用いる（NOT IN はNULLに注意）。</t>
-  </si>
-  <si>
-    <t>(4) 「ある商品の単価が、その商品カテゴリの平均より高い商品」→ 同一カテゴリ内の平均と比較するスカラー副問い合わせ。</t>
-  </si>
-  <si>
-    <t>９　まとめ：誤答を避けるための要点</t>
-  </si>
-  <si>
-    <t>(1) 副問い合わせの種類（相関／非相関）と期待される戻り値の形（集合／単一値）を判断する。</t>
-  </si>
-  <si>
-    <r>
-      <t>(2) NULLによる論理三値の影響を理解し、</t>
-    </r>
-    <r>
-      <rPr>
+      <t>が必須になります。</t>
+    </r>
+  </si>
+  <si>
+    <t>例：平均給与が30万円を超える部署について、部署名と部署人数も表示したい</t>
+  </si>
+  <si>
+    <t>４．試験で問われる判断基準</t>
+  </si>
+  <si>
+    <t>判断ポイント</t>
+  </si>
+  <si>
+    <t>単純な集約条件のみ → HAVING句</t>
+  </si>
+  <si>
+    <t>集約した結果に対して、そのまま条件を付けたいとき</t>
+  </si>
+  <si>
+    <r>
+      <t>集約結果を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再利用・JOIN・加工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>したい → FROM句サブクエリ</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT 部署ID, AVG(給与) AS 平均給与
+FROM 社員
+GROUP BY 部署ID
+HAVING AVG(給与) &gt; 300000;</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>※このようなケースでは、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>NOT IN</t>
-    </r>
-    <r>
-      <rPr>
+      <t>HAVING</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ではなく</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>では人数の表示が難しい（外に引き出せない）ため、FROM句サブクエリが有効です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>集約値を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「一時表」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>として扱いたいとき（他の列と組み合わせる、再集計する等）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 部署ID, 平均給与, 人数
+FROM (
+    SELECT 部署ID, AVG(給与) AS 平均給与, COUNT(*) AS 人数
+    FROM 社員
+    GROUP BY 部署ID
+) 部署別集計
+WHERE 平均給与 &gt; 300000;
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>一時的に集約結果を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テーブルとして扱う</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>FROM句のサブクエリは、SELECT文の中で</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一時的な表（派生表）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を生成するもの</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>集計・JOIN・条件分岐を柔軟に組み合わせることが可能</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>応用情報技術者試験において、「一時表を作る意図」が問われる設問で頻出</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>目的：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 集計と個別値を掛け合わせて比率を求める。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FROM句に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>複数のテーブル（社員, 全体）を並べる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ことで全行に対して結合する（直積）。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 社員ID, 給与, 給与 / 全体.平均給与 AS 比率
+FROM 社員,
+     (SELECT AVG(給与) AS 平均給与 
+      FROM 社員) 全体;
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>特に、「集約結果をその後にJOIN・加工したい」などのケースでは、FROM句サブクエリが不可欠になります。</t>
+  </si>
+  <si>
+    <t>4-3. ランキング処理（順位付け）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 社員ID, 給与
+FROM (
+    SELECT 社員ID, 給与,
+           ROW_NUMBER() OVER (ORDER BY 給与 DESC) AS 順位
+    FROM 社員
+     ) 給与順位
+WHERE 順位 &lt;= 3;
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>応用情報技術者試験においては：</t>
+  </si>
+  <si>
+    <t>状況</t>
+  </si>
+  <si>
+    <t>分析関数（RANK, DENSE_RANK, ROW_NUMBERなど）</t>
+  </si>
+  <si>
+    <t>試験の主眼</t>
+  </si>
+  <si>
+    <r>
+      <t>基本構文（GROUP BY、JOIN、サブクエリなど）で処理できるか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を問う</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">以下のように、自己結合または相関サブクエリで順位を求めます。
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>例：給与の降順で順位を付ける</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※RANK関数を使わずに順位を求める構文（頻出テクニック）
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>このような構文をあえて使わせる意図</t>
+  </si>
+  <si>
+    <t>試験の意図</t>
+  </si>
+  <si>
+    <t>相関サブクエリの理解を確認</t>
+  </si>
+  <si>
+    <t>外側と内側のテーブルの関係性（社員1と社員2）</t>
+  </si>
+  <si>
+    <t>比較条件の設計力</t>
+  </si>
+  <si>
+    <r>
+      <t>給与 &gt; 社員1.給与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> という動的な条件</t>
+    </r>
+  </si>
+  <si>
+    <t>COUNT関数の応用</t>
+  </si>
+  <si>
+    <t>自分より上の数を数えるという非集計的な使い方</t>
+  </si>
+  <si>
+    <t>SELECT 社員ID, 給与, 順位
+FROM (
+    SELECT 社員1.社員ID, 社員1.給与,
+           (SELECT COUNT(*)
+            FROM 社員 社員2
+            WHERE 社員2.給与 &gt; 社員1.給与) + 1 AS 順位
+    FROM 社員 社員1
+) サブクエリ
+WHERE 順位 &lt;= 3;</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>目的：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>応用情報試験では分析関数（ROW_NUMBERなど）の代わりにサブクエリで工夫する出題がされることがある。</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>出題対象外（明示的に不可ではないが、出題実績なし）？</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>２．内部の処理手順（分析関数なし）</t>
+  </si>
+  <si>
+    <t>この部分の処理は：</t>
+  </si>
+  <si>
+    <t>社員1（外側）ごとに、社員2（内側）を使って</t>
+  </si>
+  <si>
+    <t>（２）外側のSELECT：上位3位までを抽出</t>
+  </si>
+  <si>
+    <t>WHERE 順位 &lt;= 3;</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>※分析関数を使ったバージョン（参考）
+実務では以下のように RANK() などを使うことで簡潔に書けます：</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>SELECT 社員ID, 給与, RANK() OVER (ORDER BY 給与 DESC) AS 順位
+FROM 社員
+WHERE RANK() OVER (ORDER BY 給与 DESC) &lt;= 3; -- ※この書き方は実行できないDBもあるためCTEなどが必要</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">それに </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>NOT EXISTS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>を使う設問かを見分ける。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(3) 集合比較と存在チェックの違いを踏まえ、目的に応じて </t>
+      <t xml:space="preserve"> した値を「自分の順位」とする</t>
+    </r>
+  </si>
+  <si>
+    <t>※上記の「FROM 社員 社員2」、「FROM 社員 社員1」は、社員 というテーブルを 社員2 という**別名（エイリアス）**で扱う。わかりづらい</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>※頻出！！！</t>
+    <rPh sb="1" eb="3">
+      <t>ヒンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>外側</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">外側で取り出した </t>
     </r>
     <r>
       <rPr>
@@ -5966,7 +6918,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>IN</t>
+      <t>社員1</t>
     </r>
     <r>
       <rPr>
@@ -5976,7 +6928,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>・</t>
+      <t xml:space="preserve"> の値（給与など）を使って、</t>
     </r>
     <r>
       <rPr>
@@ -5985,7 +6937,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>EXISTS</t>
+      <t>社員2</t>
     </r>
     <r>
       <rPr>
@@ -5995,21 +6947,554 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>・比較演算子を使い分ける。</t>
-    </r>
-  </si>
-  <si>
-    <t>(4) 副問い合わせが重くなる場合の代表的な書き換え（JOIN, 派生表）を頭に置き、設問で許容されるか検討する。</t>
-  </si>
-  <si>
-    <t>(5) スカラー副問い合わせが複数行を返すケースを防ぐために集約やLIMIT（試験の方針により使用制限がある場合があるので設問文を確認）を使う。</t>
+      <t xml:space="preserve"> テーブル（同じ社員テーブル）から条件を満たす件数を数える</t>
+    </r>
+  </si>
+  <si>
+    <t>相関</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 相関サブクエリの構造</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>（１）内部サブクエリ：各社員に順位を付与　※相関サブクエリ</t>
+    <rPh sb="22" eb="24">
+      <t>ソウカン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>内側（相関サブクエリ）</t>
+    <rPh sb="3" eb="5">
+      <t>ソウカン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テーブルから1行ずつ取り出し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> という別名をつけて内側へ</t>
+    </r>
+    <rPh sb="30" eb="32">
+      <t>ウチガワ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>サブクエリが「外側の行（＝社員1.給与）」を参照することで、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>各行ごとにサブクエリの結果が異なる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（これが相関）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>社員1 = A001（給与：500000円）の場合</t>
+  </si>
+  <si>
+    <t>→ 該当なし → 0件 → 順位 = 0 + 1 = 1位</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>社員1 = A002（給与：450000円）の場合</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>→ 500000円の人が1人 → 順位 = 1 + 1 = 2位</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>社員1 = A003（給与：400000円）の場合</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>→ 500000円と450000円の人が2人 → 順位 = 2 + 1 = 3位</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT COUNT(*)
+FROM 社員 社員2
+WHERE 社員2.給与 &gt; 500000
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT 社員1.社員ID, 社員1.給与,
+       (SELECT COUNT(*)
+        FROM 社員 社員2
+        WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 社員2.給与 &gt; 社員1.給与) + 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AS 順位
+FROM 社員 社員1</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT COUNT(*)
+FROM 社員 社員2
+WHERE 社員2.給与 &gt; 450000
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT COUNT(*)
+FROM 社員 社員2
+WHERE 社員2.給与 &gt; 400000
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>まとめ：このSQLの構造的な考え方</t>
+  </si>
+  <si>
+    <t>用語</t>
+  </si>
+  <si>
+    <t>指すもの</t>
+  </si>
+  <si>
+    <t>外側でループ中の対象行</t>
+  </si>
+  <si>
+    <r>
+      <t>サブクエリ内で比較対象となる</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全社員</t>
+    </r>
+  </si>
+  <si>
+    <t>社員1より給与が高いかを判定</t>
+  </si>
+  <si>
+    <t>COUNT(*)</t>
+  </si>
+  <si>
+    <r>
+      <t>社員2の中で、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>社員2.給与 &gt; 社員1.給与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を満たす行数</t>
+    </r>
+  </si>
+  <si>
+    <t>上位の人数</t>
+  </si>
+  <si>
+    <t>「上位にいる人数＋1」が自分の順位になる</t>
+  </si>
+  <si>
+    <t>SQLで1位から開始するため</t>
+  </si>
+  <si>
+    <r>
+      <t>外側の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の1行（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社員ID, 給与）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>全体を再言語化すると：</t>
+  </si>
+  <si>
+    <r>
+      <t>「社員1（外側）ごとに、社員2（全社員）から『社員1より給与が高い社員の数』を数え、その人数＋1を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社員1の給与順位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とする」</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 補足：なぜ +1 するのか？</t>
+  </si>
+  <si>
+    <t>上位人数</t>
+  </si>
+  <si>
+    <t>自分の順位（+1）</t>
+  </si>
+  <si>
+    <t>0人</t>
+  </si>
+  <si>
+    <t>1位</t>
+  </si>
+  <si>
+    <t>1人</t>
+  </si>
+  <si>
+    <t>2位</t>
+  </si>
+  <si>
+    <t>2人</t>
+  </si>
+  <si>
+    <t>3位</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>順位は1から始まるため</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、上位の人数（＝自分より給与が高い人数）に +1 をして、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自分の順位を表す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ことになる。</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 結論（再掲）</t>
+  </si>
+  <si>
+    <t>「自分」とは：外側（社員1）で処理中の1行</t>
+  </si>
+  <si>
+    <t>その「自分」の給与と比較して、内側（社員2）で「自分より給与が高い人」の数を数えている</t>
+  </si>
+  <si>
+    <r>
+      <t>最後に +1 して、SQLでの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1位スタートの順位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を計算している</t>
+    </r>
+  </si>
+  <si>
+    <t>「自分（社員1から取り出した一行）より給与が高い社員の数」をカウント</t>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチギョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>社員１の１行（自分）</t>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>￥</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>「全体の平均値」を一時表にして他と比較可能にする。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※一時表といっても、全体の平均値＝スカラー値（単一の値）</t>
+    </r>
+    <rPh sb="26" eb="29">
+      <t>イチジヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>スカラー値を表として、FROM内に入っているサブクエリ</t>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>4-2. 集約関数の組み合わせ（比率計算）　※集約関数なので、「一時表＝スカラー値」となっている事例</t>
+    <rPh sb="23" eb="27">
+      <t>シュウヤクカンスウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>イチジヒョウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジレイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6227,13 +7712,130 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -6407,7 +8009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -6701,137 +8303,231 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7135,65 +8831,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51707CCA-56F2-4939-9226-000C3D95DDAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51585A7E-88DA-486C-AD83-09E1DF1AD324}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I146"/>
+  <dimension ref="A2:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A157" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="109" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="109" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="109" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="109" customWidth="1"/>
-    <col min="5" max="5" width="53.875" style="109" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="109" customWidth="1"/>
-    <col min="7" max="7" width="58.625" style="109" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="109"/>
+    <col min="1" max="1" width="5.5" style="104" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="104" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="104" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="104" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="104" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="104" customWidth="1"/>
+    <col min="7" max="7" width="58.625" style="104" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="104"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="21">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="103" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="105" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="104" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="104" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="105" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="105" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="109" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="109" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="112" t="s">
+    <row r="10" spans="1:3">
+      <c r="B10" s="105" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="112" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="112" t="s">
-        <v>502</v>
-      </c>
-    </row>
     <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="103" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7203,673 +8899,1700 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="C15" s="112" t="s">
-        <v>503</v>
+      <c r="C15" s="105" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="105" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="40.5">
-      <c r="C18" s="112" t="s">
-        <v>486</v>
-      </c>
-      <c r="G18" s="107" t="s">
-        <v>571</v>
+    <row r="18" spans="3:7">
+      <c r="C18" s="105" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="D19" s="109" t="s">
-        <v>487</v>
+      <c r="E19" s="104" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="3:7">
-      <c r="D20" s="109" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="216">
+      <c r="D20" s="104" t="s">
+        <v>520</v>
+      </c>
+      <c r="G20" s="104" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="202.5">
       <c r="E21" s="107" t="s">
-        <v>525</v>
+        <v>620</v>
       </c>
       <c r="G21" s="107" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="D22" s="112" t="s">
-        <v>504</v>
+      <c r="D22" s="105" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="112" t="s">
-        <v>498</v>
+      <c r="C24" s="105" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="D25" s="109" t="s">
-        <v>488</v>
-      </c>
-      <c r="G25" t="s">
-        <v>567</v>
-      </c>
+      <c r="D25" s="104" t="s">
+        <v>605</v>
+      </c>
+      <c r="G25" s="108"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="E26" s="109" t="s">
-        <v>524</v>
+      <c r="E26" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="104" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="121.5">
       <c r="E27" s="107" t="s">
+        <v>525</v>
+      </c>
+      <c r="G27" s="107" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="D28" s="105" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="D29" s="105" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="D30" s="105" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="D31" s="105" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="105" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="E34" s="104" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="121.5">
+      <c r="E35" s="107" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="14.25">
+      <c r="C37" s="137" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="108"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="108" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="108"/>
+      <c r="D40" s="104" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="108">
+      <c r="E41" s="107" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="E42" s="104" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="D43" s="105" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="108" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="110"/>
+      <c r="D45" s="111" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="14.25">
+      <c r="C46" s="133"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="104" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="94.5">
+      <c r="E47" s="107" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="D48" s="104" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="D49" s="105" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="104" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="135" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="135" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="104" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="135" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" ht="17.25">
+      <c r="C56" s="131" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="132"/>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="135" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="136" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="136" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="136" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="108"/>
+    </row>
+    <row r="63" spans="3:4" ht="17.25">
+      <c r="C63" s="130" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="108"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="136" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="136" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="136" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="136" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="136" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="136" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="108"/>
+    </row>
+    <row r="72" spans="3:3" ht="17.25">
+      <c r="C72" s="130" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="108"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="136" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="136" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="136" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="136" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="108"/>
+    </row>
+    <row r="79" spans="3:3" ht="17.25">
+      <c r="C79" s="130" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="108"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="C81" s="136" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="C82" s="136" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="C83" s="136" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="C84" s="136" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="C85" s="136" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="C86" s="108"/>
+    </row>
+    <row r="87" spans="2:5" ht="16.5">
+      <c r="B87" s="128" t="s">
+        <v>555</v>
+      </c>
+      <c r="C87" s="108"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88"/>
+      <c r="C88" s="108"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="129" t="s">
+        <v>608</v>
+      </c>
+      <c r="C89" s="108"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="C90" s="105"/>
+      <c r="D90" s="104" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="108">
+      <c r="E91" s="107" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="C92" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="C93" s="135" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="C94" s="135" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="C95" s="135" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="16.5" customHeight="1">
+      <c r="C96" s="144" t="s">
+        <v>523</v>
+      </c>
+      <c r="D96" s="144"/>
+      <c r="E96" s="144"/>
+    </row>
+    <row r="97" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C97" s="102"/>
+      <c r="D97" s="102"/>
+      <c r="E97" s="102"/>
+    </row>
+    <row r="98" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C98" s="97" t="s">
+        <v>623</v>
+      </c>
+      <c r="D98" s="102"/>
+      <c r="E98" s="102"/>
+    </row>
+    <row r="99" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C99"/>
+      <c r="D99" s="102"/>
+      <c r="E99" s="102"/>
+    </row>
+    <row r="100" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C100" s="128" t="s">
+        <v>622</v>
+      </c>
+      <c r="D100" s="102"/>
+      <c r="E100" s="102"/>
+    </row>
+    <row r="101" spans="3:5" ht="121.5">
+      <c r="C101" s="102"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="107" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C102" t="s">
+        <v>625</v>
+      </c>
+      <c r="D102" s="102"/>
+      <c r="E102" s="102"/>
+    </row>
+    <row r="103" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C103"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="102"/>
+    </row>
+    <row r="104" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C104" s="105" t="s">
+        <v>628</v>
+      </c>
+      <c r="D104" s="102"/>
+      <c r="E104" s="102"/>
+    </row>
+    <row r="105" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C105" s="105"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="102"/>
+    </row>
+    <row r="106" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C106" s="128" t="s">
+        <v>626</v>
+      </c>
+      <c r="D106" s="102"/>
+      <c r="E106" s="102"/>
+    </row>
+    <row r="107" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C107" s="129" t="s">
+        <v>627</v>
+      </c>
+      <c r="D107" s="102"/>
+      <c r="E107" s="102"/>
+    </row>
+    <row r="108" spans="3:5" ht="101.25" customHeight="1">
+      <c r="C108" s="107"/>
+      <c r="D108" s="107"/>
+      <c r="E108" s="139" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C109" s="129" t="s">
+        <v>630</v>
+      </c>
+      <c r="D109" s="107"/>
+      <c r="E109" s="107"/>
+    </row>
+    <row r="110" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C110" s="101" t="s">
+        <v>631</v>
+      </c>
+      <c r="D110" s="107"/>
+      <c r="E110" s="107"/>
+    </row>
+    <row r="111" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C111" s="98" t="s">
+        <v>632</v>
+      </c>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
+    </row>
+    <row r="112" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C112" s="107"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="107"/>
+    </row>
+    <row r="113" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D113" s="97" t="s">
+        <v>644</v>
+      </c>
+      <c r="E113" s="140"/>
+    </row>
+    <row r="114" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C114" s="96"/>
+      <c r="D114"/>
+      <c r="E114" s="140"/>
+    </row>
+    <row r="115" spans="3:6" ht="54">
+      <c r="C115" s="99"/>
+      <c r="D115"/>
+      <c r="E115" s="141" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C116" s="99"/>
+      <c r="D116"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C117" s="99"/>
+      <c r="D117" t="s">
+        <v>645</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C118" s="99"/>
+      <c r="D118" s="101" t="s">
+        <v>646</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D119" s="98" t="s">
+        <v>647</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="3:6" ht="21">
+      <c r="D123" s="97" t="s">
+        <v>648</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D125" s="142" t="s">
+        <v>649</v>
+      </c>
+      <c r="E125" s="142" t="s">
+        <v>650</v>
+      </c>
+      <c r="F125" s="142" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D126" s="96" t="s">
+        <v>652</v>
+      </c>
+      <c r="E126" s="96" t="s">
+        <v>653</v>
+      </c>
+      <c r="F126" s="96" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D127" s="96" t="s">
+        <v>654</v>
+      </c>
+      <c r="E127" s="96" t="s">
+        <v>655</v>
+      </c>
+      <c r="F127" s="96" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D128" s="96" t="s">
+        <v>657</v>
+      </c>
+      <c r="E128" s="96" t="s">
+        <v>658</v>
+      </c>
+      <c r="F128" s="96" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D129" s="96" t="s">
+        <v>660</v>
+      </c>
+      <c r="E129" s="96" t="s">
+        <v>661</v>
+      </c>
+      <c r="F129" s="96" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D130" s="96" t="s">
+        <v>663</v>
+      </c>
+      <c r="E130" s="96" t="s">
+        <v>664</v>
+      </c>
+      <c r="F130" s="96" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="4:6" ht="21">
+      <c r="D132" s="97" t="s">
+        <v>666</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D133" t="s">
+        <v>667</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D135" s="128" t="s">
+        <v>668</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="4:6" ht="121.5">
+      <c r="D136" s="96"/>
+      <c r="E136" s="138" t="s">
+        <v>678</v>
+      </c>
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D137" s="99"/>
+      <c r="E137"/>
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D138" s="143" t="s">
+        <v>675</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="4:6" ht="21">
+      <c r="D140" s="97" t="s">
+        <v>669</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="4:6">
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D142" s="100" t="s">
+        <v>670</v>
+      </c>
+      <c r="F142" s="142" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6">
+      <c r="D143" s="96" t="s">
+        <v>671</v>
+      </c>
+      <c r="F143" s="96" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6">
+      <c r="D144" s="96" t="s">
+        <v>673</v>
+      </c>
+      <c r="F144" s="96" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6">
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D146" s="98" t="s">
+        <v>677</v>
+      </c>
+      <c r="E146"/>
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="4:6">
+      <c r="D147" s="160" t="s">
+        <v>686</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147"/>
+    </row>
+    <row r="148" spans="4:6" ht="15" customHeight="1">
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148" s="107"/>
+    </row>
+    <row r="149" spans="4:6" ht="21">
+      <c r="D149" s="97" t="s">
+        <v>634</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" s="107"/>
+    </row>
+    <row r="150" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D150" s="98" t="s">
+        <v>635</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" s="107"/>
+    </row>
+    <row r="151" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D151" s="98" t="s">
+        <v>636</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" s="107"/>
+    </row>
+    <row r="152" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D152" s="98" t="s">
+        <v>637</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152" s="107"/>
+    </row>
+    <row r="153" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D153" s="98" t="s">
+        <v>638</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153" s="107"/>
+    </row>
+    <row r="154" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154" s="107"/>
+    </row>
+    <row r="155" spans="4:6" ht="21">
+      <c r="D155" s="97" t="s">
+        <v>639</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155" s="107"/>
+    </row>
+    <row r="156" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D156" s="100" t="s">
+        <v>640</v>
+      </c>
+      <c r="E156" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" s="107"/>
+    </row>
+    <row r="157" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D157" s="96" t="s">
+        <v>641</v>
+      </c>
+      <c r="E157" s="96" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D158" s="96" t="s">
+        <v>642</v>
+      </c>
+      <c r="E158" s="96" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="159" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D159" s="96" t="s">
+        <v>643</v>
+      </c>
+      <c r="E159" s="96" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6" ht="16.5" customHeight="1"/>
+    <row r="161" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C161" s="128" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C162" s="161" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" ht="58.5" customHeight="1">
+      <c r="C163" s="135"/>
+      <c r="E163" s="107" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C164" s="161" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C165" s="162" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C166" s="162" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C167" s="162" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="169" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C169" s="128" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C171" s="129" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5" ht="121.5">
+      <c r="E172" s="166" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C173" t="s">
+        <v>689</v>
+      </c>
+      <c r="D173"/>
+    </row>
+    <row r="174" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C174" s="100" t="s">
+        <v>640</v>
+      </c>
+      <c r="E174" s="100" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" ht="40.5">
+      <c r="C175" s="163" t="s">
+        <v>691</v>
+      </c>
+      <c r="E175" s="163" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" ht="26.25" customHeight="1">
+      <c r="C176" s="163" t="s">
+        <v>692</v>
+      </c>
+      <c r="E176" s="164" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" ht="16.5" customHeight="1"/>
+    <row r="178" spans="3:7" s="105" customFormat="1">
+      <c r="C178" s="105" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C179" s="135" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C180" s="135" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7" ht="132.75" customHeight="1">
+      <c r="D181" s="104" t="s">
+        <v>717</v>
+      </c>
+      <c r="E181" s="166" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" ht="40.5">
+      <c r="E182" s="166" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="183" spans="3:7" ht="21">
+      <c r="E183" s="97" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7" ht="16.5" customHeight="1">
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="3:7" ht="16.5" customHeight="1">
+      <c r="E185" s="128" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="186" spans="3:7" ht="91.5" customHeight="1">
+      <c r="E186" s="167" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7" ht="21" customHeight="1">
+      <c r="E187" s="169" t="s">
+        <v>709</v>
+      </c>
+      <c r="G187" s="169"/>
+    </row>
+    <row r="188" spans="3:7" ht="21" customHeight="1">
+      <c r="E188" s="170" t="s">
+        <v>710</v>
+      </c>
+      <c r="G188" s="169"/>
+    </row>
+    <row r="189" spans="3:7" ht="21" customHeight="1">
+      <c r="E189" s="170" t="s">
+        <v>764</v>
+      </c>
+      <c r="G189" s="169"/>
+    </row>
+    <row r="190" spans="3:7" ht="21" customHeight="1">
+      <c r="E190" s="170" t="s">
+        <v>715</v>
+      </c>
+      <c r="G190" s="169"/>
+    </row>
+    <row r="191" spans="3:7" ht="21" customHeight="1">
+      <c r="E191" s="167"/>
+      <c r="G191" s="169"/>
+    </row>
+    <row r="192" spans="3:7" ht="18.75" customHeight="1">
+      <c r="D192" s="104" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5" ht="18.75" customHeight="1">
+      <c r="D193" s="100" t="s">
+        <v>640</v>
+      </c>
+      <c r="E193" s="142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5" ht="18.75" customHeight="1">
+      <c r="D194" s="163" t="s">
+        <v>718</v>
+      </c>
+      <c r="E194" s="173" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5" ht="18.75" customHeight="1">
+      <c r="D195" s="163" t="s">
+        <v>723</v>
+      </c>
+      <c r="E195" s="96" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5" ht="18.75" customHeight="1">
+      <c r="D196" s="163" t="s">
+        <v>720</v>
+      </c>
+      <c r="E196" s="96" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5" ht="18.75" customHeight="1">
+      <c r="E197" s="167"/>
+    </row>
+    <row r="198" spans="4:5">
+      <c r="E198" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5" ht="57">
+      <c r="E199" s="174" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5" ht="14.25">
+      <c r="E200" s="167" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5" ht="14.25">
+      <c r="E201" s="167"/>
+    </row>
+    <row r="202" spans="4:5" ht="14.25">
+      <c r="E202" s="167" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="203" spans="4:5" ht="57">
+      <c r="E203" s="174" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="204" spans="4:5" ht="14.25">
+      <c r="E204" s="167" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5" ht="14.25">
+      <c r="E205" s="167"/>
+    </row>
+    <row r="206" spans="4:5" ht="14.25">
+      <c r="E206" s="167" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="207" spans="4:5" ht="57">
+      <c r="E207" s="174" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="208" spans="4:5" ht="14.25">
+      <c r="E208" s="167" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="209" spans="4:6" ht="18.75" customHeight="1">
+      <c r="E209" s="167"/>
+    </row>
+    <row r="210" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D210" s="97" t="s">
+        <v>736</v>
+      </c>
+      <c r="E210"/>
+      <c r="F210"/>
+    </row>
+    <row r="211" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+    </row>
+    <row r="212" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D212" s="142" t="s">
+        <v>737</v>
+      </c>
+      <c r="E212" s="142" t="s">
+        <v>738</v>
+      </c>
+      <c r="F212" s="142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D213" s="96" t="s">
+        <v>765</v>
+      </c>
+      <c r="E213" s="96" t="s">
+        <v>747</v>
+      </c>
+      <c r="F213" s="96" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="214" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D214" s="96" t="s">
+        <v>766</v>
+      </c>
+      <c r="E214" s="96" t="s">
+        <v>740</v>
+      </c>
+      <c r="F214" s="96" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="215" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D215" s="99" t="s">
+        <v>742</v>
+      </c>
+      <c r="E215" s="96" t="s">
+        <v>743</v>
+      </c>
+      <c r="F215" s="96" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="216" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D216" s="175">
+        <v>1</v>
+      </c>
+      <c r="E216" s="96" t="s">
+        <v>745</v>
+      </c>
+      <c r="F216" s="96" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="217" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D217" s="175"/>
+      <c r="E217" s="96"/>
+      <c r="F217" s="96"/>
+    </row>
+    <row r="218" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D218" s="97" t="s">
+        <v>748</v>
+      </c>
+      <c r="E218"/>
+      <c r="F218" s="96"/>
+    </row>
+    <row r="219" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D219" s="98" t="s">
+        <v>749</v>
+      </c>
+      <c r="E219"/>
+      <c r="F219" s="96"/>
+    </row>
+    <row r="220" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220" s="96"/>
+    </row>
+    <row r="221" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D221" s="97" t="s">
+        <v>750</v>
+      </c>
+      <c r="E221"/>
+      <c r="F221" s="96"/>
+    </row>
+    <row r="222" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222" s="96"/>
+    </row>
+    <row r="223" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D223" s="100" t="s">
+        <v>751</v>
+      </c>
+      <c r="E223" s="100" t="s">
+        <v>752</v>
+      </c>
+      <c r="F223" s="96"/>
+    </row>
+    <row r="224" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D224" s="163" t="s">
+        <v>753</v>
+      </c>
+      <c r="E224" s="163" t="s">
+        <v>754</v>
+      </c>
+      <c r="F224" s="96"/>
+    </row>
+    <row r="225" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D225" s="163" t="s">
+        <v>755</v>
+      </c>
+      <c r="E225" s="163" t="s">
+        <v>756</v>
+      </c>
+      <c r="F225" s="96"/>
+    </row>
+    <row r="226" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D226" s="163" t="s">
+        <v>757</v>
+      </c>
+      <c r="E226" s="163" t="s">
+        <v>758</v>
+      </c>
+      <c r="F226" s="96"/>
+    </row>
+    <row r="227" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227" s="96"/>
+    </row>
+    <row r="228" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D228" t="s">
+        <v>759</v>
+      </c>
+      <c r="E228"/>
+      <c r="F228" s="96"/>
+    </row>
+    <row r="229" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229" s="96"/>
+    </row>
+    <row r="230" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D230" s="97" t="s">
+        <v>760</v>
+      </c>
+      <c r="E230"/>
+      <c r="F230" s="96"/>
+    </row>
+    <row r="231" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D231" s="98"/>
+      <c r="E231"/>
+      <c r="F231" s="96"/>
+    </row>
+    <row r="232" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D232" s="98" t="s">
+        <v>761</v>
+      </c>
+      <c r="E232"/>
+      <c r="F232" s="96"/>
+    </row>
+    <row r="233" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D233" s="98" t="s">
+        <v>762</v>
+      </c>
+      <c r="E233"/>
+      <c r="F233" s="96"/>
+    </row>
+    <row r="234" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D234" s="98" t="s">
+        <v>763</v>
+      </c>
+      <c r="E234"/>
+      <c r="F234" s="96"/>
+    </row>
+    <row r="235" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D235" s="175"/>
+      <c r="E235" s="96"/>
+      <c r="F235" s="96"/>
+    </row>
+    <row r="236" spans="4:6" s="168" customFormat="1" ht="14.25"/>
+    <row r="237" spans="4:6" s="168" customFormat="1" ht="14.25"/>
+    <row r="238" spans="4:6" s="168" customFormat="1" ht="35.25" customHeight="1">
+      <c r="E238" s="171" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="239" spans="4:6" s="168" customFormat="1" ht="14.25">
+      <c r="E239" s="172" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="240" spans="4:6" s="168" customFormat="1" ht="35.25" customHeight="1">
+      <c r="D240" s="172" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5" s="168" customFormat="1" ht="71.25">
+      <c r="E241" s="176" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="242" spans="3:5" s="168" customFormat="1" ht="16.5" customHeight="1">
+      <c r="E242" s="171"/>
+    </row>
+    <row r="243" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E243" s="128"/>
+    </row>
+    <row r="244" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E244" s="128"/>
+    </row>
+    <row r="245" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E245" s="128"/>
+    </row>
+    <row r="246" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E246" s="128"/>
+    </row>
+    <row r="247" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E247" s="128"/>
+    </row>
+    <row r="248" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E248" s="128"/>
+    </row>
+    <row r="249" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E249" s="128"/>
+    </row>
+    <row r="250" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E250" s="128"/>
+    </row>
+    <row r="251" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="252" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C252" s="97" t="s">
+        <v>697</v>
+      </c>
+      <c r="D252"/>
+    </row>
+    <row r="253" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C253"/>
+      <c r="D253"/>
+    </row>
+    <row r="254" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C254" s="100" t="s">
+        <v>698</v>
+      </c>
+      <c r="E254" s="100" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="255" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C255" s="163" t="s">
+        <v>699</v>
+      </c>
+      <c r="E255" s="163" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="256" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C256" s="163" t="s">
+        <v>701</v>
+      </c>
+      <c r="E256" s="165" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" ht="16.5" customHeight="1">
+      <c r="C257" s="163" t="s">
+        <v>703</v>
+      </c>
+      <c r="E257" s="163" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" ht="16.5" customHeight="1"/>
+    <row r="259" spans="2:6" ht="16.5" customHeight="1"/>
+    <row r="261" spans="2:6" ht="16.5">
+      <c r="B261" s="106" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" ht="19.5" customHeight="1">
+      <c r="C262" s="105" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6">
+      <c r="C263" s="105"/>
+      <c r="D263" s="104" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" ht="40.5">
+      <c r="E264" s="107" t="s">
+        <v>515</v>
+      </c>
+      <c r="F264" s="107"/>
+    </row>
+    <row r="265" spans="2:6" ht="21">
+      <c r="D265" s="109" t="s">
+        <v>529</v>
+      </c>
+      <c r="E265" s="107"/>
+      <c r="F265" s="107"/>
+    </row>
+    <row r="266" spans="2:6">
+      <c r="D266" s="112" t="s">
+        <v>530</v>
+      </c>
+      <c r="E266" s="107"/>
+      <c r="F266" s="107"/>
+    </row>
+    <row r="267" spans="2:6">
+      <c r="D267" s="110" t="s">
+        <v>526</v>
+      </c>
+      <c r="E267" s="107"/>
+      <c r="F267" s="107"/>
+    </row>
+    <row r="268" spans="2:6">
+      <c r="D268" s="110"/>
+      <c r="E268" s="107"/>
+      <c r="F268" s="107"/>
+    </row>
+    <row r="269" spans="2:6">
+      <c r="D269" s="110" t="s">
+        <v>527</v>
+      </c>
+      <c r="E269" s="111">
+        <v>100</v>
+      </c>
+      <c r="F269" s="107"/>
+    </row>
+    <row r="270" spans="2:6">
+      <c r="D270" s="110"/>
+      <c r="E270" s="111" t="s">
         <v>528</v>
       </c>
-      <c r="G27" s="107" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="D28" s="112" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="D29" s="104" t="s">
-        <v>506</v>
-      </c>
-      <c r="G29" s="109" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" ht="135">
-      <c r="D30" s="104" t="s">
-        <v>507</v>
-      </c>
-      <c r="G30" s="107" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="D31" s="104" t="s">
+      <c r="F270" s="107"/>
+    </row>
+    <row r="271" spans="2:6">
+      <c r="E271" s="113">
+        <v>45869</v>
+      </c>
+      <c r="F271" s="107"/>
+    </row>
+    <row r="272" spans="2:6">
+      <c r="E272" s="107"/>
+      <c r="F272" s="107"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="C273" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="C274" s="104" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="21">
-      <c r="C34" s="97" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37"/>
-      <c r="D37" s="109" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="121.5">
-      <c r="E38" s="107" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="D39" s="109" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="98"/>
-      <c r="D41" s="126" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" ht="108">
-      <c r="E42" s="107" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="126"/>
-      <c r="D43" s="109" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="126"/>
-      <c r="D44" s="109" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="126"/>
-    </row>
-    <row r="46" spans="3:5" ht="364.5">
-      <c r="C46" s="107" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" ht="21">
-      <c r="C51" s="97" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52"/>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57"/>
-    </row>
-    <row r="58" spans="3:3" ht="21">
-      <c r="C58" s="97" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59"/>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" ht="14.25">
-      <c r="C61" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" ht="14.25">
-      <c r="C62" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="C65" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="2:3" ht="21">
-      <c r="C67" s="97" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="C69" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="C70" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="C71" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="C72" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="C73"/>
-    </row>
-    <row r="74" spans="2:3" ht="21">
-      <c r="C74" s="97" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="C75"/>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="C76" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" ht="14.25">
-      <c r="C77" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" ht="14.25">
-      <c r="C78" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" ht="16.5">
-      <c r="B79" s="106" t="s">
+    <row r="275" spans="1:5">
+      <c r="C275" s="105" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="21">
+      <c r="A277" s="103" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="C278" s="105" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="C279" s="104" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="C280" s="104" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="D281" s="104" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="60">
+      <c r="E282" s="114" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="C283" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="C284" s="104" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="C285" s="104" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="C286" s="105" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="21">
+      <c r="A288" s="103" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="C289" s="108"/>
+      <c r="D289" s="108"/>
+      <c r="E289" s="108"/>
+    </row>
+    <row r="290" spans="1:9" ht="27">
+      <c r="C290" s="115" t="s">
+        <v>548</v>
+      </c>
+      <c r="D290" s="115" t="s">
+        <v>549</v>
+      </c>
+      <c r="E290" s="115" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C291" s="116" t="s">
+        <v>531</v>
+      </c>
+      <c r="D291" s="117" t="s">
+        <v>551</v>
+      </c>
+      <c r="E291" s="118" t="s">
+        <v>559</v>
+      </c>
+      <c r="G291" s="119"/>
+      <c r="H291" s="119"/>
+      <c r="I291" s="119"/>
+    </row>
+    <row r="292" spans="1:9" ht="63" customHeight="1">
+      <c r="C292" s="116" t="s">
+        <v>557</v>
+      </c>
+      <c r="D292" s="117" t="s">
+        <v>556</v>
+      </c>
+      <c r="E292" s="120" t="s">
+        <v>560</v>
+      </c>
+      <c r="G292" s="121"/>
+      <c r="H292" s="122"/>
+      <c r="I292" s="123"/>
+    </row>
+    <row r="293" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C293" s="116" t="s">
         <v>558</v>
       </c>
-      <c r="C79" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="C80" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="C81" s="112" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="C82" s="112"/>
-      <c r="D82" s="109" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="108">
-      <c r="E83" s="107" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="C84" s="112" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="C85" s="105" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="C86" s="105" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="C87" s="105" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="16.5" customHeight="1">
-      <c r="C88" s="127" t="s">
-        <v>526</v>
-      </c>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
-    </row>
-    <row r="90" spans="2:6" ht="16.5">
-      <c r="B90" s="106" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="19.5" customHeight="1">
-      <c r="C91" s="112" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="C92" s="112"/>
-      <c r="D92" s="109" t="s">
+      <c r="D293" s="117" t="s">
+        <v>552</v>
+      </c>
+      <c r="E293" s="124" t="s">
+        <v>561</v>
+      </c>
+      <c r="G293" s="121"/>
+      <c r="H293" s="122"/>
+      <c r="I293" s="122"/>
+    </row>
+    <row r="294" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C294" s="116" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="93" spans="2:6" ht="40.5">
-      <c r="E93" s="107" t="s">
-        <v>518</v>
-      </c>
-      <c r="F93" s="107"/>
-    </row>
-    <row r="94" spans="2:6" ht="21">
-      <c r="D94" s="97" t="s">
+      <c r="D294" s="125" t="s">
+        <v>563</v>
+      </c>
+      <c r="E294" s="125" t="s">
+        <v>562</v>
+      </c>
+      <c r="G294" s="121"/>
+      <c r="H294" s="122"/>
+      <c r="I294" s="122"/>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="C295" s="126"/>
+      <c r="D295" s="126"/>
+    </row>
+    <row r="296" spans="1:9" ht="21">
+      <c r="A296" s="109" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="108"/>
+    </row>
+    <row r="298" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A298" s="108" t="s">
         <v>532</v>
       </c>
-      <c r="E94" s="107"/>
-      <c r="F94" s="107"/>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="D95" s="99" t="s">
+    </row>
+    <row r="299" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A299" s="110"/>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A300" s="112" t="s">
         <v>533</v>
       </c>
-      <c r="E95" s="107"/>
-      <c r="F95" s="107"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="D96" s="98" t="s">
-        <v>529</v>
-      </c>
-      <c r="E96" s="107"/>
-      <c r="F96" s="107"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="D97" s="98"/>
-      <c r="E97" s="107"/>
-      <c r="F97" s="107"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="D98" s="98" t="s">
-        <v>530</v>
-      </c>
-      <c r="E98" s="113">
-        <v>100</v>
-      </c>
-      <c r="F98" s="107"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="D99" s="98"/>
-      <c r="E99" s="113" t="s">
-        <v>531</v>
-      </c>
-      <c r="F99" s="107"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="E100" s="114">
-        <v>45869</v>
-      </c>
-      <c r="F100" s="107"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="E101" s="107"/>
-      <c r="F101" s="107"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="C102" s="112" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="C103" s="105" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="C104" s="104" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="21">
-      <c r="A106" s="108" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="C107" s="112" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="C108" s="105" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="C109" s="105" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="D110" s="109" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="60">
-      <c r="E111" s="110" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="C112" s="112" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="C113" s="105" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="C114" s="105" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="C115" s="104" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="21">
-      <c r="A117" s="108" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-    </row>
-    <row r="119" spans="1:9" ht="27">
-      <c r="C119" s="118" t="s">
-        <v>551</v>
-      </c>
-      <c r="D119" s="118" t="s">
-        <v>552</v>
-      </c>
-      <c r="E119" s="118" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C120" s="123" t="s">
+    </row>
+    <row r="301" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A301" s="111" t="s">
         <v>534</v>
       </c>
-      <c r="D120" s="119" t="s">
-        <v>554</v>
-      </c>
-      <c r="E120" s="121" t="s">
-        <v>562</v>
-      </c>
-      <c r="G120" s="103"/>
-      <c r="H120" s="103"/>
-      <c r="I120" s="103"/>
-    </row>
-    <row r="121" spans="1:9" ht="63" customHeight="1">
-      <c r="C121" s="123" t="s">
-        <v>560</v>
-      </c>
-      <c r="D121" s="119" t="s">
-        <v>559</v>
-      </c>
-      <c r="E121" s="122" t="s">
-        <v>563</v>
-      </c>
-      <c r="G121" s="116"/>
-      <c r="H121" s="102"/>
-      <c r="I121" s="117"/>
-    </row>
-    <row r="122" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C122" s="123" t="s">
-        <v>561</v>
-      </c>
-      <c r="D122" s="119" t="s">
-        <v>555</v>
-      </c>
-      <c r="E122" s="124" t="s">
-        <v>564</v>
-      </c>
-      <c r="G122" s="116"/>
-      <c r="H122" s="102"/>
-      <c r="I122" s="102"/>
-    </row>
-    <row r="123" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C123" s="123" t="s">
-        <v>520</v>
-      </c>
-      <c r="D123" s="111" t="s">
-        <v>566</v>
-      </c>
-      <c r="E123" s="125" t="s">
-        <v>565</v>
-      </c>
-      <c r="G123" s="116"/>
-      <c r="H123" s="102"/>
-      <c r="I123" s="102"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="C124" s="120"/>
-      <c r="D124" s="120"/>
-    </row>
-    <row r="125" spans="1:9" ht="21">
-      <c r="A125" s="97" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126"/>
-    </row>
-    <row r="127" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A127" t="s">
+    </row>
+    <row r="302" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A302" s="108"/>
+    </row>
+    <row r="303" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A303" s="127"/>
+      <c r="C303" s="127" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A128" s="98"/>
-    </row>
-    <row r="129" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A129" s="99" t="s">
+    <row r="304" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A304" s="127"/>
+      <c r="C304" s="127" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A130" s="113" t="s">
+    <row r="305" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="306" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A306" s="112" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A131" s="96"/>
-    </row>
-    <row r="132" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A132" s="101"/>
-      <c r="C132" s="101" t="s">
+    <row r="307" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A307" s="110" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A133" s="101"/>
-      <c r="C133" s="101" t="s">
+    <row r="308" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A308" s="110" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="135" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A135" s="99" t="s">
+    <row r="309" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A309" s="112" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A136" s="100" t="s">
+    <row r="310" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A310" s="112" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A137" s="100" t="s">
+    <row r="311" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A311" s="108"/>
+    </row>
+    <row r="312" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A312" s="127"/>
+      <c r="C312" s="127" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A138" s="115" t="s">
+    <row r="313" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A313" s="127"/>
+      <c r="C313" s="127" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A139" s="115" t="s">
+    <row r="314" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C314" s="127" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A140" s="96"/>
-    </row>
-    <row r="141" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A141" s="101"/>
-      <c r="C141" s="101" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A142" s="101"/>
-      <c r="C142" s="101" t="s">
+    <row r="315" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="316" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A316" s="104" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="16.5" customHeight="1">
-      <c r="C143" s="101" t="s">
+    <row r="317" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A317" s="104" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="145" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A145" s="109" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A146" s="109" t="s">
-        <v>550</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C96:E96"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="89" max="6" man="1"/>
-    <brk id="124" max="6" man="1"/>
+    <brk id="260" max="6" man="1"/>
+    <brk id="295" max="6" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
@@ -7878,13 +10601,783 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51707CCA-56F2-4939-9226-000C3D95DDAF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I158"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="104" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="104" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="104" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="104" customWidth="1"/>
+    <col min="5" max="5" width="53.875" style="104" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="104" customWidth="1"/>
+    <col min="7" max="7" width="58.625" style="104" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="104"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="21">
+      <c r="A2" s="103" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="105" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="104" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="104" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="105" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="105" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="105" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21">
+      <c r="A12" s="103" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="B14" s="106" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="105" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="105" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="105" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="40.5">
+      <c r="E19" s="107" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="D20" s="104" t="s">
+        <v>520</v>
+      </c>
+      <c r="G20" s="104" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="202.5">
+      <c r="E21" s="107" t="s">
+        <v>522</v>
+      </c>
+      <c r="G21" s="107" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="D22" s="105" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="105" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="D25" s="104" t="s">
+        <v>605</v>
+      </c>
+      <c r="G25" s="108"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="E26" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="104" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="121.5">
+      <c r="E27" s="107" t="s">
+        <v>525</v>
+      </c>
+      <c r="G27" s="107" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="D28" s="105" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="D29" s="105" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="D30" s="105" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="D31" s="105" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="105" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="E34" s="104" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="121.5">
+      <c r="E35" s="107" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="21">
+      <c r="C41" s="109" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="108"/>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="108" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="108"/>
+      <c r="D44" s="104" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="121.5">
+      <c r="E45" s="107" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="D46" s="104" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="108" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" s="110"/>
+      <c r="D48" s="111" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="108">
+      <c r="E49" s="107" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" s="111"/>
+      <c r="D50" s="104" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" s="111"/>
+      <c r="D51" s="104" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="111"/>
+    </row>
+    <row r="53" spans="3:5" ht="364.5">
+      <c r="C53" s="107" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="21">
+      <c r="C58" s="109" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59" s="108"/>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" s="108" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" s="108" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" s="108" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63" s="108" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" s="108"/>
+    </row>
+    <row r="65" spans="3:3" ht="21">
+      <c r="C65" s="109" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="108"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="108" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="108" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="108" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="108" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="108" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="108" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="108"/>
+    </row>
+    <row r="74" spans="3:3" ht="21">
+      <c r="C74" s="109" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="108"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="108" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="108" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="108" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="108" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="108"/>
+    </row>
+    <row r="81" spans="2:5" ht="21">
+      <c r="C81" s="109" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="C82" s="108"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="C83" s="108" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="C84" s="108" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="C85" s="108" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="C86" s="108" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="C87" s="108" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="C88" s="108"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="C89" s="108"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="C90" s="108"/>
+    </row>
+    <row r="91" spans="2:5" ht="16.5">
+      <c r="B91" s="128" t="s">
+        <v>607</v>
+      </c>
+      <c r="C91" s="108"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92"/>
+      <c r="C92" s="108"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="129" t="s">
+        <v>608</v>
+      </c>
+      <c r="C93" s="108"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="C94" s="105"/>
+      <c r="D94" s="104" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="108">
+      <c r="E95" s="107" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="C96" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="C97" s="104" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="C98" s="104" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="C99" s="104" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="16.5" customHeight="1">
+      <c r="C100" s="144" t="s">
+        <v>523</v>
+      </c>
+      <c r="D100" s="144"/>
+      <c r="E100" s="144"/>
+    </row>
+    <row r="102" spans="2:6" ht="16.5">
+      <c r="B102" s="106" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="19.5" customHeight="1">
+      <c r="C103" s="105" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="C104" s="105"/>
+      <c r="D104" s="104" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="40.5">
+      <c r="E105" s="107" t="s">
+        <v>515</v>
+      </c>
+      <c r="F105" s="107"/>
+    </row>
+    <row r="106" spans="2:6" ht="21">
+      <c r="D106" s="109" t="s">
+        <v>529</v>
+      </c>
+      <c r="E106" s="107"/>
+      <c r="F106" s="107"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="D107" s="112" t="s">
+        <v>530</v>
+      </c>
+      <c r="E107" s="107"/>
+      <c r="F107" s="107"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="D108" s="110" t="s">
+        <v>526</v>
+      </c>
+      <c r="E108" s="107"/>
+      <c r="F108" s="107"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="D109" s="110"/>
+      <c r="E109" s="107"/>
+      <c r="F109" s="107"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="D110" s="110" t="s">
+        <v>527</v>
+      </c>
+      <c r="E110" s="111">
+        <v>100</v>
+      </c>
+      <c r="F110" s="107"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="D111" s="110"/>
+      <c r="E111" s="111" t="s">
+        <v>528</v>
+      </c>
+      <c r="F111" s="107"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="E112" s="113">
+        <v>45869</v>
+      </c>
+      <c r="F112" s="107"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="E113" s="107"/>
+      <c r="F113" s="107"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="C114" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="C115" s="104" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="C116" s="105" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="21">
+      <c r="A118" s="103" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="C119" s="105" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="C120" s="104" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="C121" s="104" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="D122" s="104" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="60">
+      <c r="E123" s="114" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="C124" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="C125" s="104" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="C126" s="104" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="C127" s="105" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="21">
+      <c r="A129" s="103" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="C130" s="108"/>
+      <c r="D130" s="108"/>
+      <c r="E130" s="108"/>
+    </row>
+    <row r="131" spans="1:9" ht="27">
+      <c r="C131" s="115" t="s">
+        <v>548</v>
+      </c>
+      <c r="D131" s="115" t="s">
+        <v>549</v>
+      </c>
+      <c r="E131" s="115" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C132" s="116" t="s">
+        <v>531</v>
+      </c>
+      <c r="D132" s="117" t="s">
+        <v>551</v>
+      </c>
+      <c r="E132" s="118" t="s">
+        <v>559</v>
+      </c>
+      <c r="G132" s="119"/>
+      <c r="H132" s="119"/>
+      <c r="I132" s="119"/>
+    </row>
+    <row r="133" spans="1:9" ht="63" customHeight="1">
+      <c r="C133" s="116" t="s">
+        <v>557</v>
+      </c>
+      <c r="D133" s="117" t="s">
+        <v>556</v>
+      </c>
+      <c r="E133" s="120" t="s">
+        <v>560</v>
+      </c>
+      <c r="G133" s="121"/>
+      <c r="H133" s="122"/>
+      <c r="I133" s="123"/>
+    </row>
+    <row r="134" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C134" s="116" t="s">
+        <v>558</v>
+      </c>
+      <c r="D134" s="117" t="s">
+        <v>552</v>
+      </c>
+      <c r="E134" s="124" t="s">
+        <v>561</v>
+      </c>
+      <c r="G134" s="121"/>
+      <c r="H134" s="122"/>
+      <c r="I134" s="122"/>
+    </row>
+    <row r="135" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C135" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="D135" s="125" t="s">
+        <v>563</v>
+      </c>
+      <c r="E135" s="125" t="s">
+        <v>562</v>
+      </c>
+      <c r="G135" s="121"/>
+      <c r="H135" s="122"/>
+      <c r="I135" s="122"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="C136" s="126"/>
+      <c r="D136" s="126"/>
+    </row>
+    <row r="137" spans="1:9" ht="21">
+      <c r="A137" s="109" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="108"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A139" s="108" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A140" s="110"/>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A141" s="112" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A142" s="111" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A143" s="108"/>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A144" s="127"/>
+      <c r="C144" s="127" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A145" s="127"/>
+      <c r="C145" s="127" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="147" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A147" s="112" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A148" s="110" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A149" s="110" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A150" s="112" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A151" s="112" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A152" s="108"/>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A153" s="127"/>
+      <c r="C153" s="127" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A154" s="127"/>
+      <c r="C154" s="127" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C155" s="127" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="157" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A157" s="104" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A158" s="104" t="s">
+        <v>547</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C100:E100"/>
+  </mergeCells>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="101" max="6" man="1"/>
+    <brk id="136" max="6" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:F198"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A68" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A95" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -8497,7 +11990,7 @@
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
-      <c r="F70" s="131" t="s">
+      <c r="F70" s="148" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8509,7 +12002,7 @@
         <v>393</v>
       </c>
       <c r="D71" s="31"/>
-      <c r="F71" s="131"/>
+      <c r="F71" s="148"/>
     </row>
     <row r="72" spans="1:6" ht="27">
       <c r="C72" s="58" t="s">
@@ -8521,7 +12014,7 @@
       <c r="E72" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="131"/>
+      <c r="F72" s="148"/>
     </row>
     <row r="73" spans="1:6" ht="40.5">
       <c r="C73" s="58" t="s">
@@ -8533,7 +12026,7 @@
       <c r="E73" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F73" s="131"/>
+      <c r="F73" s="148"/>
     </row>
     <row r="74" spans="1:6" ht="40.5">
       <c r="B74" s="31"/>
@@ -8546,7 +12039,7 @@
       <c r="E74" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F74" s="131"/>
+      <c r="F74" s="148"/>
     </row>
     <row r="75" spans="1:6" ht="27">
       <c r="B75" s="31"/>
@@ -8559,7 +12052,7 @@
       <c r="E75" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F75" s="131"/>
+      <c r="F75" s="148"/>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="31"/>
@@ -8589,7 +12082,7 @@
       <c r="D79" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E79" s="129" t="s">
+      <c r="E79" s="146" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8601,7 +12094,7 @@
       <c r="D80" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E80" s="129"/>
+      <c r="E80" s="146"/>
     </row>
     <row r="81" spans="2:6" ht="27">
       <c r="B81" s="31"/>
@@ -8611,7 +12104,7 @@
       <c r="D81" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="129"/>
+      <c r="E81" s="146"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="31"/>
@@ -8635,7 +12128,7 @@
       <c r="E84" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F84" s="129" t="s">
+      <c r="F84" s="146" t="s">
         <v>246</v>
       </c>
     </row>
@@ -8650,7 +12143,7 @@
       <c r="E85" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F85" s="129"/>
+      <c r="F85" s="146"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -8663,7 +12156,7 @@
       <c r="E86" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F86" s="129"/>
+      <c r="F86" s="146"/>
     </row>
     <row r="87" spans="2:6" ht="27">
       <c r="B87" s="31"/>
@@ -8676,7 +12169,7 @@
       <c r="E87" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F87" s="129"/>
+      <c r="F87" s="146"/>
     </row>
     <row r="88" spans="2:6" ht="27">
       <c r="B88" s="31"/>
@@ -8689,7 +12182,7 @@
       <c r="E88" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F88" s="129"/>
+      <c r="F88" s="146"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="31"/>
@@ -8713,7 +12206,7 @@
       <c r="E91" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F91" s="129" t="s">
+      <c r="F91" s="146" t="s">
         <v>247</v>
       </c>
     </row>
@@ -8727,7 +12220,7 @@
       <c r="E92" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="129"/>
+      <c r="F92" s="146"/>
     </row>
     <row r="93" spans="2:6">
       <c r="C93" s="31"/>
@@ -8740,10 +12233,10 @@
       <c r="D94" s="31"/>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="132" t="s">
+      <c r="B95" s="149" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="133" t="s">
+      <c r="C95" s="150" t="s">
         <v>398</v>
       </c>
       <c r="D95" s="58" t="s">
@@ -8751,115 +12244,115 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="129"/>
-      <c r="C96" s="133"/>
+      <c r="B96" s="146"/>
+      <c r="C96" s="150"/>
       <c r="D96" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="129"/>
-      <c r="C97" s="133"/>
+      <c r="B97" s="146"/>
+      <c r="C97" s="150"/>
       <c r="D97" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="27">
-      <c r="B98" s="129"/>
-      <c r="C98" s="133"/>
+      <c r="B98" s="146"/>
+      <c r="C98" s="150"/>
       <c r="D98" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="27">
-      <c r="B99" s="129"/>
-      <c r="C99" s="133"/>
+      <c r="B99" s="146"/>
+      <c r="C99" s="150"/>
       <c r="D99" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="129"/>
-      <c r="C100" s="133"/>
+      <c r="B100" s="146"/>
+      <c r="C100" s="150"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="128" t="s">
+      <c r="C101" s="145" t="s">
         <v>262</v>
       </c>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="128"/>
+      <c r="C102" s="145"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="128"/>
+      <c r="C103" s="145"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="128"/>
+      <c r="C104" s="145"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="128"/>
+      <c r="C105" s="145"/>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="128"/>
+      <c r="C106" s="145"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="128" t="s">
+      <c r="C107" s="145" t="s">
         <v>263</v>
       </c>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="128"/>
+      <c r="C108" s="145"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="128"/>
+      <c r="C109" s="145"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="128"/>
+      <c r="C110" s="145"/>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="128"/>
+      <c r="C111" s="145"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4" ht="27">
       <c r="B112" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="128" t="s">
+      <c r="C112" s="145" t="s">
         <v>264</v>
       </c>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="128"/>
+      <c r="C113" s="145"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="128"/>
+      <c r="C114" s="145"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" s="128"/>
+      <c r="C115" s="145"/>
       <c r="D115" s="31"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" s="128"/>
+      <c r="C116" s="145"/>
       <c r="D116" s="31"/>
     </row>
     <row r="117" spans="1:4">
@@ -8892,30 +12385,30 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="129" t="s">
+      <c r="B121" s="146" t="s">
         <v>261</v>
       </c>
-      <c r="C121" s="129"/>
+      <c r="C121" s="146"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="129"/>
-      <c r="C122" s="129"/>
+      <c r="B122" s="146"/>
+      <c r="C122" s="146"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="129"/>
-      <c r="C123" s="129"/>
+      <c r="B123" s="146"/>
+      <c r="C123" s="146"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="B124" s="129"/>
-      <c r="C124" s="129"/>
+      <c r="B124" s="146"/>
+      <c r="C124" s="146"/>
       <c r="D124" s="31"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="B125" s="129"/>
-      <c r="C125" s="129"/>
+      <c r="B125" s="146"/>
+      <c r="C125" s="146"/>
       <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" ht="40.5">
@@ -9510,10 +13003,10 @@
       </c>
     </row>
     <row r="196" spans="3:4" ht="51" customHeight="1">
-      <c r="C196" s="130" t="s">
+      <c r="C196" s="147" t="s">
         <v>439</v>
       </c>
-      <c r="D196" s="130"/>
+      <c r="D196" s="147"/>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" s="77" t="s">
@@ -9545,14 +13038,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:F196"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -10132,7 +13625,7 @@
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="F68" s="131" t="s">
+      <c r="F68" s="148" t="s">
         <v>211</v>
       </c>
     </row>
@@ -10144,7 +13637,7 @@
         <v>393</v>
       </c>
       <c r="D69" s="31"/>
-      <c r="F69" s="131"/>
+      <c r="F69" s="148"/>
     </row>
     <row r="70" spans="1:6" ht="27">
       <c r="C70" s="58" t="s">
@@ -10156,7 +13649,7 @@
       <c r="E70" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="131"/>
+      <c r="F70" s="148"/>
     </row>
     <row r="71" spans="1:6" ht="40.5">
       <c r="C71" s="58" t="s">
@@ -10168,7 +13661,7 @@
       <c r="E71" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F71" s="131"/>
+      <c r="F71" s="148"/>
     </row>
     <row r="72" spans="1:6" ht="40.5">
       <c r="B72" s="31"/>
@@ -10181,7 +13674,7 @@
       <c r="E72" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="131"/>
+      <c r="F72" s="148"/>
     </row>
     <row r="73" spans="1:6" ht="27">
       <c r="B73" s="31"/>
@@ -10194,7 +13687,7 @@
       <c r="E73" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F73" s="131"/>
+      <c r="F73" s="148"/>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="31"/>
@@ -10224,7 +13717,7 @@
       <c r="D77" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E77" s="129" t="s">
+      <c r="E77" s="146" t="s">
         <v>362</v>
       </c>
     </row>
@@ -10236,7 +13729,7 @@
       <c r="D78" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E78" s="129"/>
+      <c r="E78" s="146"/>
     </row>
     <row r="79" spans="1:6" ht="27">
       <c r="B79" s="31"/>
@@ -10246,7 +13739,7 @@
       <c r="D79" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E79" s="129"/>
+      <c r="E79" s="146"/>
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="31"/>
@@ -10270,7 +13763,7 @@
       <c r="E82" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="129" t="s">
+      <c r="F82" s="146" t="s">
         <v>246</v>
       </c>
     </row>
@@ -10285,7 +13778,7 @@
       <c r="E83" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F83" s="129"/>
+      <c r="F83" s="146"/>
     </row>
     <row r="84" spans="2:6" ht="27">
       <c r="B84" s="31"/>
@@ -10298,7 +13791,7 @@
       <c r="E84" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F84" s="129"/>
+      <c r="F84" s="146"/>
     </row>
     <row r="85" spans="2:6" ht="27">
       <c r="B85" s="31"/>
@@ -10311,7 +13804,7 @@
       <c r="E85" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F85" s="129"/>
+      <c r="F85" s="146"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -10324,7 +13817,7 @@
       <c r="E86" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F86" s="129"/>
+      <c r="F86" s="146"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="31"/>
@@ -10348,7 +13841,7 @@
       <c r="E89" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F89" s="129" t="s">
+      <c r="F89" s="146" t="s">
         <v>247</v>
       </c>
     </row>
@@ -10362,7 +13855,7 @@
       <c r="E90" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F90" s="129"/>
+      <c r="F90" s="146"/>
     </row>
     <row r="91" spans="2:6">
       <c r="C91" s="31"/>
@@ -10375,10 +13868,10 @@
       <c r="D92" s="31"/>
     </row>
     <row r="93" spans="2:6" ht="27">
-      <c r="B93" s="132" t="s">
+      <c r="B93" s="149" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="133" t="s">
+      <c r="C93" s="150" t="s">
         <v>398</v>
       </c>
       <c r="D93" s="58" t="s">
@@ -10386,115 +13879,115 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="27">
-      <c r="B94" s="129"/>
-      <c r="C94" s="133"/>
+      <c r="B94" s="146"/>
+      <c r="C94" s="150"/>
       <c r="D94" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="129"/>
-      <c r="C95" s="133"/>
+      <c r="B95" s="146"/>
+      <c r="C95" s="150"/>
       <c r="D95" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="129"/>
-      <c r="C96" s="133"/>
+      <c r="B96" s="146"/>
+      <c r="C96" s="150"/>
       <c r="D96" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="129"/>
-      <c r="C97" s="133"/>
+      <c r="B97" s="146"/>
+      <c r="C97" s="150"/>
       <c r="D97" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="129"/>
-      <c r="C98" s="133"/>
+      <c r="B98" s="146"/>
+      <c r="C98" s="150"/>
       <c r="D98" s="31"/>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="128" t="s">
+      <c r="C99" s="145" t="s">
         <v>262</v>
       </c>
       <c r="D99" s="31"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="128"/>
+      <c r="C100" s="145"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="128"/>
+      <c r="C101" s="145"/>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="128"/>
+      <c r="C102" s="145"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="128"/>
+      <c r="C103" s="145"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="128"/>
+      <c r="C104" s="145"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="128" t="s">
+      <c r="C105" s="145" t="s">
         <v>263</v>
       </c>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="128"/>
+      <c r="C106" s="145"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="128"/>
+      <c r="C107" s="145"/>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="128"/>
+      <c r="C108" s="145"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="128"/>
+      <c r="C109" s="145"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4" ht="27">
       <c r="B110" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="128" t="s">
+      <c r="C110" s="145" t="s">
         <v>264</v>
       </c>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="128"/>
+      <c r="C111" s="145"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="128"/>
+      <c r="C112" s="145"/>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="128"/>
+      <c r="C113" s="145"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="128"/>
+      <c r="C114" s="145"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
@@ -10527,30 +14020,30 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="B119" s="129" t="s">
+      <c r="B119" s="146" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="129"/>
+      <c r="C119" s="146"/>
       <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="B120" s="129"/>
-      <c r="C120" s="129"/>
+      <c r="B120" s="146"/>
+      <c r="C120" s="146"/>
       <c r="D120" s="31"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="129"/>
-      <c r="C121" s="129"/>
+      <c r="B121" s="146"/>
+      <c r="C121" s="146"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="129"/>
-      <c r="C122" s="129"/>
+      <c r="B122" s="146"/>
+      <c r="C122" s="146"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="129"/>
-      <c r="C123" s="129"/>
+      <c r="B123" s="146"/>
+      <c r="C123" s="146"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4" ht="40.5">
@@ -11145,10 +14638,10 @@
       </c>
     </row>
     <row r="194" spans="3:4" ht="51" customHeight="1">
-      <c r="C194" s="130" t="s">
+      <c r="C194" s="147" t="s">
         <v>439</v>
       </c>
-      <c r="D194" s="130"/>
+      <c r="D194" s="147"/>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" s="77" t="s">
@@ -11180,7 +14673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11764,7 +15257,7 @@
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
-      <c r="F67" s="138" t="s">
+      <c r="F67" s="155" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11776,7 +15269,7 @@
         <v>238</v>
       </c>
       <c r="D68" s="18"/>
-      <c r="F68" s="138"/>
+      <c r="F68" s="155"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
       <c r="C69" s="33" t="s">
@@ -11788,7 +15281,7 @@
       <c r="E69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="139"/>
+      <c r="F69" s="156"/>
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1">
       <c r="C70" s="33" t="s">
@@ -11800,7 +15293,7 @@
       <c r="E70" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="139"/>
+      <c r="F70" s="156"/>
     </row>
     <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="B71" s="18"/>
@@ -11813,7 +15306,7 @@
       <c r="E71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F71" s="139"/>
+      <c r="F71" s="156"/>
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
       <c r="B72" s="18"/>
@@ -11826,7 +15319,7 @@
       <c r="E72" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="139"/>
+      <c r="F72" s="156"/>
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="B73" s="18"/>
@@ -11856,7 +15349,7 @@
       <c r="D76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="136" t="s">
+      <c r="E76" s="153" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11868,7 +15361,7 @@
       <c r="D77" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="137"/>
+      <c r="E77" s="154"/>
     </row>
     <row r="78" spans="1:6" ht="21" customHeight="1">
       <c r="B78" s="18"/>
@@ -11878,7 +15371,7 @@
       <c r="D78" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="137"/>
+      <c r="E78" s="154"/>
     </row>
     <row r="79" spans="1:6" ht="21" customHeight="1">
       <c r="B79" s="18"/>
@@ -11902,7 +15395,7 @@
       <c r="E81" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="136" t="s">
+      <c r="F81" s="153" t="s">
         <v>246</v>
       </c>
     </row>
@@ -11917,7 +15410,7 @@
       <c r="E82" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F82" s="137"/>
+      <c r="F82" s="154"/>
     </row>
     <row r="83" spans="2:6" ht="21" customHeight="1">
       <c r="B83" s="18"/>
@@ -11930,7 +15423,7 @@
       <c r="E83" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="137"/>
+      <c r="F83" s="154"/>
     </row>
     <row r="84" spans="2:6" ht="21" customHeight="1">
       <c r="B84" s="18"/>
@@ -11943,7 +15436,7 @@
       <c r="E84" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="137"/>
+      <c r="F84" s="154"/>
     </row>
     <row r="85" spans="2:6" ht="21" customHeight="1">
       <c r="B85" s="18"/>
@@ -11956,7 +15449,7 @@
       <c r="E85" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F85" s="137"/>
+      <c r="F85" s="154"/>
     </row>
     <row r="86" spans="2:6" ht="21" customHeight="1">
       <c r="B86" s="18"/>
@@ -11980,7 +15473,7 @@
       <c r="E88" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F88" s="136" t="s">
+      <c r="F88" s="153" t="s">
         <v>247</v>
       </c>
     </row>
@@ -11994,7 +15487,7 @@
       <c r="E89" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="137"/>
+      <c r="F89" s="154"/>
     </row>
     <row r="90" spans="2:6" ht="21" customHeight="1">
       <c r="C90" s="18"/>
@@ -12007,10 +15500,10 @@
       <c r="D91" s="18"/>
     </row>
     <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="B92" s="140" t="s">
+      <c r="B92" s="157" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="141" t="s">
+      <c r="C92" s="158" t="s">
         <v>265</v>
       </c>
       <c r="D92" s="33" t="s">
@@ -12018,115 +15511,115 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="B93" s="137"/>
-      <c r="C93" s="142"/>
+      <c r="B93" s="154"/>
+      <c r="C93" s="159"/>
       <c r="D93" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="B94" s="137"/>
-      <c r="C94" s="142"/>
+      <c r="B94" s="154"/>
+      <c r="C94" s="159"/>
       <c r="D94" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="B95" s="137"/>
-      <c r="C95" s="142"/>
+      <c r="B95" s="154"/>
+      <c r="C95" s="159"/>
       <c r="D95" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="137"/>
-      <c r="C96" s="142"/>
+      <c r="B96" s="154"/>
+      <c r="C96" s="159"/>
       <c r="D96" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="B97" s="137"/>
-      <c r="C97" s="142"/>
+      <c r="B97" s="154"/>
+      <c r="C97" s="159"/>
       <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" ht="21" customHeight="1">
       <c r="B98" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="134" t="s">
+      <c r="C98" s="151" t="s">
         <v>262</v>
       </c>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="C99" s="135"/>
+      <c r="C99" s="152"/>
       <c r="D99" s="18"/>
     </row>
     <row r="100" spans="2:4" ht="21" customHeight="1">
-      <c r="C100" s="135"/>
+      <c r="C100" s="152"/>
       <c r="D100" s="18"/>
     </row>
     <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="C101" s="135"/>
+      <c r="C101" s="152"/>
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="135"/>
+      <c r="C102" s="152"/>
       <c r="D102" s="18"/>
     </row>
     <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="135"/>
+      <c r="C103" s="152"/>
       <c r="D103" s="18"/>
     </row>
     <row r="104" spans="2:4" ht="21" customHeight="1">
       <c r="B104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C104" s="134" t="s">
+      <c r="C104" s="151" t="s">
         <v>263</v>
       </c>
       <c r="D104" s="18"/>
     </row>
     <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="C105" s="135"/>
+      <c r="C105" s="152"/>
       <c r="D105" s="18"/>
     </row>
     <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="C106" s="135"/>
+      <c r="C106" s="152"/>
       <c r="D106" s="18"/>
     </row>
     <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="C107" s="135"/>
+      <c r="C107" s="152"/>
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="2:4" ht="33" customHeight="1">
-      <c r="C108" s="135"/>
+      <c r="C108" s="152"/>
       <c r="D108" s="18"/>
     </row>
     <row r="109" spans="2:4" ht="21" customHeight="1">
       <c r="B109" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="134" t="s">
+      <c r="C109" s="151" t="s">
         <v>264</v>
       </c>
       <c r="D109" s="18"/>
     </row>
     <row r="110" spans="2:4" ht="21" customHeight="1">
-      <c r="C110" s="135"/>
+      <c r="C110" s="152"/>
       <c r="D110" s="18"/>
     </row>
     <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="C111" s="135"/>
+      <c r="C111" s="152"/>
       <c r="D111" s="18"/>
     </row>
     <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="C112" s="135"/>
+      <c r="C112" s="152"/>
       <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="C113" s="135"/>
+      <c r="C113" s="152"/>
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="21" customHeight="1">
@@ -12158,30 +15651,30 @@
       <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="136" t="s">
+      <c r="B118" s="153" t="s">
         <v>261</v>
       </c>
-      <c r="C118" s="137"/>
+      <c r="C118" s="154"/>
       <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="137"/>
-      <c r="C119" s="137"/>
+      <c r="B119" s="154"/>
+      <c r="C119" s="154"/>
       <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="137"/>
-      <c r="C120" s="137"/>
+      <c r="B120" s="154"/>
+      <c r="C120" s="154"/>
       <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" ht="21" customHeight="1">
-      <c r="B121" s="137"/>
-      <c r="C121" s="137"/>
+      <c r="B121" s="154"/>
+      <c r="C121" s="154"/>
       <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" ht="21" customHeight="1">
-      <c r="B122" s="137"/>
-      <c r="C122" s="137"/>
+      <c r="B122" s="154"/>
+      <c r="C122" s="154"/>
       <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" ht="21" customHeight="1">
@@ -12815,7 +16308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -12895,7 +16388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -8,32 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\maruaican\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058714DF-3ED1-410E-AD4C-396CDE17DB85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0D4B88-620F-419F-91CC-8A66F84CA587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="サブクエリ (2)" sheetId="7" r:id="rId1"/>
-    <sheet name="サブクエリ" sheetId="6" r:id="rId2"/>
-    <sheet name="SQL構文一覧 (3)" sheetId="5" r:id="rId3"/>
-    <sheet name="SQL構文一覧 (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="SQL構文一覧" sheetId="1" r:id="rId5"/>
-    <sheet name="ai_studio_code_sjisx" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId7"/>
+    <sheet name="サブクエリ (3)" sheetId="8" r:id="rId1"/>
+    <sheet name="サブクエリ (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="サブクエリ" sheetId="6" r:id="rId3"/>
+    <sheet name="SQL構文一覧 (3)" sheetId="5" r:id="rId4"/>
+    <sheet name="SQL構文一覧 (2)" sheetId="4" r:id="rId5"/>
+    <sheet name="SQL構文一覧" sheetId="1" r:id="rId6"/>
+    <sheet name="ai_studio_code_sjisx" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">SQL構文一覧!$A$11:$G$208</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'SQL構文一覧 (2)'!$A$11:$F$197</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">サブクエリ!$A$1:$G$159</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (2)'!$A$1:$G$318</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">SQL構文一覧!$A$11:$G$208</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'SQL構文一覧 (2)'!$A$11:$F$197</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">サブクエリ!$A$1:$G$159</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'サブクエリ (2)'!$A$1:$G$316</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (3)'!$A$1:$G$439</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="879">
   <si>
     <t>分類</t>
   </si>
@@ -6076,16 +6078,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t xml:space="preserve">
-SELECT 顧客ID
-FROM 顧客
-WHERE 顧客ID NOT IN (
-  SELECT 顧客ID
-  FROM 注文
-);</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 顧客のうち、注文をしていない顧客を NOT IN で取ろうとして失敗する可能性あり</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -6148,17 +6140,6 @@
   </si>
   <si>
     <t>構文構造と記述ルール</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT 外側の項目名
-FROM (
-    SELECT 内側の項目名
-    FROM テーブル名
-    WHERE 条件
-    GROUP BY 項目名
-) 派生表名
-</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -6706,29 +6687,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SELECT 社員ID, 給与, 給与 / 全体.平均給与 AS 比率
-FROM 社員,
-     (SELECT AVG(給与) AS 平均給与 
-      FROM 社員) 全体;
-</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>特に、「集約結果をその後にJOIN・加工したい」などのケースでは、FROM句サブクエリが不可欠になります。</t>
   </si>
   <si>
     <t>4-3. ランキング処理（順位付け）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT 社員ID, 給与
-FROM (
-    SELECT 社員ID, 給与,
-           ROW_NUMBER() OVER (ORDER BY 給与 DESC) AS 順位
-    FROM 社員
-     ) 給与順位
-WHERE 順位 &lt;= 3;
-</t>
-    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>応用情報技術者試験においては：</t>
@@ -7489,12 +7451,1733 @@
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t xml:space="preserve">SELECT 顧客ID
+FROM 顧客
+WHERE 顧客ID NOT IN (
+                     SELECT 顧客ID
+                     FROM 注文
+                     );
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT 外側の項目名
+FROM (
+    SELECT 内側の項目名
+    FROM テーブル名
+    WHERE 条件
+    GROUP BY 項目名
+) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>派生表名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT 社員ID, 給与, 給与 / 全体.平均給与 AS 比率
+FROM 社員,
+     (SELECT AVG(給与) AS 平均給与 
+      FROM 社員) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全体;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT 社員ID, 給与
+FROM (
+    SELECT 社員ID, 給与,
+           ROW_NUMBER() OVER (ORDER BY 給与 DESC) AS 順位
+    FROM 社員
+     ) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>給与順位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+WHERE 順位 &lt;= 3;
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>4-4. 自己結合の簡素化</t>
+  </si>
+  <si>
+    <r>
+      <t>目的：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 同一テーブルを2回参照したい場合（比較・階層構造など）。</t>
+    </r>
+  </si>
+  <si>
+    <t>この ON 部下.上司ID = 上司.社員ID の意味を正しく理解するには、自己結合（自己JOIN） の概念と、データモデル（社員テーブルの構造） に基づいた考察が必要です。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT 上司.社員名 AS 上司名, 部下.社員名 AS 部下名
+FROM (
+    SELECT 社員ID, 社員名, 上司ID
+    FROM 社員
+) 部下
+JOIN 社員 上司
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ON 部下.上司ID = 上司.社員ID;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>結論（最初に）
+この結合は、社員テーブル内で「部下の上司ID（＝上司となる社員のID）」と「上司の社員ID（社員テーブル内の主キー）」を照合して、誰が誰の上司かを求めるための</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自己結合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>データモデルの前提</t>
+  </si>
+  <si>
+    <r>
+      <t>テーブル：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+  </si>
+  <si>
+    <t>社員ID</t>
+  </si>
+  <si>
+    <t>社員名</t>
+  </si>
+  <si>
+    <t>上司ID</t>
+  </si>
+  <si>
+    <t>田中</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>鈴木</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+  </si>
+  <si>
+    <t>高橋</t>
+  </si>
+  <si>
+    <t>✔ 例：</t>
+  </si>
+  <si>
+    <t>鈴木（社員ID: 102）は、上司IDが「101」→ 上司は田中（社員ID: 101）</t>
+  </si>
+  <si>
+    <t>高橋（社員ID: 104）は、上司IDが「102」→ 上司は鈴木（社員ID: 102）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は社員の主キー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（個別識別子）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>上司</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> はその社員の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直属の上司の社員ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を参照している（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社員IDの外部キー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>要素</t>
+  </si>
+  <si>
+    <r>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>部下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> として再定義</t>
+    </r>
+  </si>
+  <si>
+    <t>「部下テーブル」として扱う（仮想的）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">同じ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> テーブルを </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>上司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> として再定義</t>
+    </r>
+  </si>
+  <si>
+    <t>「上司テーブル」として扱う（仮想的）</t>
+  </si>
+  <si>
+    <t>JOIN ON 部下.上司ID = 上司.社員ID</t>
+  </si>
+  <si>
+    <t>部下が持っている「上司ID」と、上司の「社員ID」を一致させて結合する</t>
+  </si>
+  <si>
+    <t>ここで重要：</t>
+  </si>
+  <si>
+    <r>
+      <t>部下の「上司ID」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は、「上司の社員ID」を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参照しているだけ</t>
+    </r>
+  </si>
+  <si>
+    <t>だからこの両者を結び付けて、「誰が誰の上司か」を明示的に表示するために JOIN を行う</t>
+  </si>
+  <si>
+    <t>JOINの結果イメージ（上記テーブル例）</t>
+  </si>
+  <si>
+    <t>上司名</t>
+  </si>
+  <si>
+    <t>部下名</t>
+  </si>
+  <si>
+    <t>理解のポイント</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>✅ 自己結合の構造</t>
+  </si>
+  <si>
+    <r>
+      <t>同じテーブル（社員）を2回使うが、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>別の役割（部下・上司）を持たせてエイリアスを使って区別する</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 結合条件の意図</t>
+  </si>
+  <si>
+    <r>
+      <t>「部下が持つ上司の社員ID」と「上司の実際の社員ID」を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一致させて対応付ける</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 表現の意味</t>
+  </si>
+  <si>
+    <r>
+      <t>誰が誰の直属の上司かを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一覧で表示する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ためのSQLパターン</t>
+    </r>
+  </si>
+  <si>
+    <t>よくある誤解と注意点</t>
+  </si>
+  <si>
+    <r>
+      <t>社員ID = 社員ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を結合すべきでは？</t>
+    </r>
+  </si>
+  <si>
+    <t>それでは「自分自身との一致」になるだけで意味がない</t>
+  </si>
+  <si>
+    <t>上司IDはただの数値では？</t>
+  </si>
+  <si>
+    <r>
+      <t>いいえ、それは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>別の社員（＝上司）を参照するための外部キー</t>
+    </r>
+  </si>
+  <si>
+    <t>なぜ社員テーブルを2回使う？</t>
+  </si>
+  <si>
+    <r>
+      <t>「部下と上司」は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同じテーブル内の異なる役割の行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>だから、2回使って</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明示的に区別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>する必要がある</t>
+    </r>
+  </si>
+  <si>
+    <t>応用情報試験的な補足：DB設計視点</t>
+  </si>
+  <si>
+    <t>正規化</t>
+  </si>
+  <si>
+    <r>
+      <t>「社員」と「上司」も社員であるため、1つの社員テーブルに統合されるのが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第3正規形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>での設計</t>
+    </r>
+  </si>
+  <si>
+    <t>外部キー</t>
+  </si>
+  <si>
+    <t>自己結合</t>
+  </si>
+  <si>
+    <t>同一テーブルでの親子関係を扱う典型的なSQL処理。応用情報試験でも出題実績あり</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>上司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を参照する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自己参照の外部キー</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>構造</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>結合の意図</t>
+  </si>
+  <si>
+    <t>部下が保持している「上司ID」と、上司の「社員ID」を突き合わせて、「誰が誰の上司か」を特定する</t>
+  </si>
+  <si>
+    <t>なぜ社員IDと上司IDで結合？</t>
+  </si>
+  <si>
+    <r>
+      <t>上司IDは、社員テーブルの社員ID（上司のID）を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参照する外部キー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>だから</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「1人の社員が別の社員（上司）を参照している」という</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自己参照構造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を明示的に可視化するためのJOIN</t>
+    </r>
+  </si>
+  <si>
+    <t>上司テーブルは存在せず、社員テーブル1つのみが存在します。</t>
+  </si>
+  <si>
+    <r>
+      <t>このような構造は「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自己参照（self-reference）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」と呼ばれるデータモデルです。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> テーブルに </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>上司ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> という列があり、これは </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同じ社員テーブルの主キー（社員ID）を参照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>別に「上司」専用のテーブルを持たず、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全ての社員（上司も部下も）が1つのテーブルに格納</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>されています。</t>
+    </r>
+  </si>
+  <si>
+    <t>自己参照（自己リレーション）の場合、ER図では「ぐるっと回る矢印」で表現されます。</t>
+  </si>
+  <si>
+    <r>
+      <t>上司ID は社員IDへの外部キー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>であり、</t>
+    </r>
+  </si>
+  <si>
+    <t>**自己参照の関係（1対多）**を持っています（1人の上司に対して複数の部下がいる）。</t>
+  </si>
+  <si>
+    <t>リレーションの意味</t>
+  </si>
+  <si>
+    <r>
+      <t>ER図では、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1つのエンティティが自身に向かって関係線を引く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ことで、自己参照関係を表します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">「上司の上司」「さらにその上司」も </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全員が同じ《社員テーブル》に登録されている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> という前提です。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">これは「階層構造（ツリー構造）」を </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1つのテーブル（社員）で自己参照の形で表現する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 典型的な設計です。</t>
+    </r>
+  </si>
+  <si>
+    <t>この設計が持つ特徴</t>
+  </si>
+  <si>
+    <t>構造</t>
+  </si>
+  <si>
+    <r>
+      <t>1つのテーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で階層を表現（自己参照）</t>
+    </r>
+  </si>
+  <si>
+    <t>再帰性</t>
+  </si>
+  <si>
+    <r>
+      <t>上司ID → 社員IDをたどることで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>無制限に上位へたどれる</t>
+    </r>
+  </si>
+  <si>
+    <t>第3正規形を満たす構造（上司の情報を別テーブルにしない）</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <r>
+      <t>再帰的な問い合わせには、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WITH RECURSIVE（共通表式）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を使用（PostgreSQLやSQL Server等）</t>
+    </r>
+  </si>
+  <si>
+    <t>よくある混乱とその整理</t>
+  </si>
+  <si>
+    <t>上司は別テーブルにすべき？</t>
+  </si>
+  <si>
+    <r>
+      <t>不要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。全員が社員なので、1つの社員テーブルに統一する</t>
+    </r>
+  </si>
+  <si>
+    <t>階層構造はどう表現する？</t>
+  </si>
+  <si>
+    <r>
+      <t>上司ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> で再帰的にたどれるようにする（自己参照）</t>
+    </r>
+  </si>
+  <si>
+    <t>最上位の判断基準</t>
+  </si>
+  <si>
+    <r>
+      <t>上司ID IS NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最上位（社長など）</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 補足：再帰SQLによる上位上司の一覧取得（PostgreSQL例）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WITH RECURSIVE 上司チェーン(社員ID, 氏名, 上司ID, 深さ) AS (
+    SELECT 社員ID, 氏名, 上司ID, 1
+    FROM 社員
+    WHERE 氏名 = '高橋'  -- 対象の社員
+    UNION ALL
+    SELECT s.社員ID, s.氏名, s.上司ID, c.深さ + 1
+    FROM 社員 s
+    JOIN 上司チェーン c ON s.社員ID = c.上司ID
+)
+SELECT * FROM 上司チェーン;
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>１　集約関数：COUNT(*)、SUM(column_name)
+２　サブクエリ：SELECT * FROM (SELECT ...)
+３　演算の優先順位制御：WHERE (A = 1 OR B = 2) AND C = 3</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>括弧が必要となる場面
+SQLにおいて括弧が必要となるのは以下の場合です：</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>SELECT *　は正しい！！！！
+アスタリスクの役割
+* は列指定子として機能し、「すべての列」を表すメタ文字（特別な機能を持つ文字）</t>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>質問：「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNION ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> だと重複が出るのでは？」</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>解説：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNION ALL</t>
+    </r>
+  </si>
+  <si>
+    <t>構文</t>
+  </si>
+  <si>
+    <t>重複の扱い</t>
+  </si>
+  <si>
+    <t>特徴</t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <r>
+      <t>重複を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>する</t>
+    </r>
+  </si>
+  <si>
+    <t>ソート＋重複チェックが入る</t>
+  </si>
+  <si>
+    <t>UNION ALL</t>
+  </si>
+  <si>
+    <r>
+      <t>重複を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排除しない</t>
+    </r>
+  </si>
+  <si>
+    <t>処理が高速。重複保持が目的ならこちら</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">この文脈で </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNION ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を使う理由（再帰SQL）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>共通表式（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WITH RECURSIVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">）で使われる </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNION ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は、次のような </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再帰展開のための定型的構文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>WITH RECURSIVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> CTE名(...)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> AS (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+    -- 基底部（初期行）
+    SELECT ...
+    FROM ...
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> UNION ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+    -- 再帰部（自身を参照して上にたどる）
+    SELECT ...
+    FROM テーブル JOIN CTE名 ON 条件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+SELECT * FROM CTE名;
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ なぜ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNION ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を使うか：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>重複が出るか出ないかは、自己結合の条件次第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UNION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を使うと、再帰の各ステップで重複排除処理が入り、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>パフォーマンスが大幅に低下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>する。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>多くの RDBMS（PostgreSQL、SQL Server、Oracleなど）で、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">再帰的CTEは基本的に </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNION ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を使用する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のが推奨されている。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7817,6 +9500,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -8009,7 +9701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -8432,6 +10124,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8480,54 +10224,51 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8831,14 +10572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51585A7E-88DA-486C-AD83-09E1DF1AD324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91059866-8EEC-4881-854C-F58482C693A8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I317"/>
+  <dimension ref="A2:I438"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A157" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G161" sqref="G161"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A364" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E363" sqref="E363:E369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8928,7 +10669,7 @@
     </row>
     <row r="21" spans="3:7" ht="202.5">
       <c r="E21" s="107" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G21" s="107" t="s">
         <v>598</v>
@@ -9050,12 +10791,12 @@
       <c r="C46" s="133"/>
       <c r="D46" s="134"/>
       <c r="E46" s="104" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="94.5">
       <c r="E47" s="107" t="s">
-        <v>614</v>
+        <v>766</v>
       </c>
     </row>
     <row r="48" spans="3:5">
@@ -9070,27 +10811,27 @@
     </row>
     <row r="50" spans="3:4">
       <c r="C50" s="104" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" s="135" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" s="135" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" s="104" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54" s="135" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="17.25">
@@ -9280,105 +11021,105 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="16.5" customHeight="1">
-      <c r="C96" s="144" t="s">
+      <c r="C96" s="162" t="s">
         <v>523</v>
       </c>
-      <c r="D96" s="144"/>
-      <c r="E96" s="144"/>
+      <c r="D96" s="162"/>
+      <c r="E96" s="162"/>
     </row>
     <row r="97" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C97" s="102"/>
-      <c r="D97" s="102"/>
-      <c r="E97" s="102"/>
+      <c r="C97" s="161"/>
+      <c r="D97" s="161"/>
+      <c r="E97" s="161"/>
     </row>
     <row r="98" spans="3:5" ht="16.5" customHeight="1">
       <c r="C98" s="97" t="s">
-        <v>623</v>
-      </c>
-      <c r="D98" s="102"/>
-      <c r="E98" s="102"/>
+        <v>622</v>
+      </c>
+      <c r="D98" s="161"/>
+      <c r="E98" s="161"/>
     </row>
     <row r="99" spans="3:5" ht="16.5" customHeight="1">
       <c r="C99"/>
-      <c r="D99" s="102"/>
-      <c r="E99" s="102"/>
+      <c r="D99" s="161"/>
+      <c r="E99" s="161"/>
     </row>
     <row r="100" spans="3:5" ht="16.5" customHeight="1">
       <c r="C100" s="128" t="s">
-        <v>622</v>
-      </c>
-      <c r="D100" s="102"/>
-      <c r="E100" s="102"/>
+        <v>621</v>
+      </c>
+      <c r="D100" s="161"/>
+      <c r="E100" s="161"/>
     </row>
     <row r="101" spans="3:5" ht="121.5">
-      <c r="C101" s="102"/>
-      <c r="D101" s="102"/>
+      <c r="C101" s="161"/>
+      <c r="D101" s="161"/>
       <c r="E101" s="107" t="s">
-        <v>624</v>
+        <v>767</v>
       </c>
     </row>
     <row r="102" spans="3:5" ht="16.5" customHeight="1">
       <c r="C102" t="s">
-        <v>625</v>
-      </c>
-      <c r="D102" s="102"/>
-      <c r="E102" s="102"/>
+        <v>623</v>
+      </c>
+      <c r="D102" s="161"/>
+      <c r="E102" s="161"/>
     </row>
     <row r="103" spans="3:5" ht="16.5" customHeight="1">
       <c r="C103"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="102"/>
+      <c r="D103" s="161"/>
+      <c r="E103" s="161"/>
     </row>
     <row r="104" spans="3:5" ht="16.5" customHeight="1">
       <c r="C104" s="105" t="s">
-        <v>628</v>
-      </c>
-      <c r="D104" s="102"/>
-      <c r="E104" s="102"/>
+        <v>626</v>
+      </c>
+      <c r="D104" s="161"/>
+      <c r="E104" s="161"/>
     </row>
     <row r="105" spans="3:5" ht="16.5" customHeight="1">
       <c r="C105" s="105"/>
-      <c r="D105" s="102"/>
-      <c r="E105" s="102"/>
+      <c r="D105" s="161"/>
+      <c r="E105" s="161"/>
     </row>
     <row r="106" spans="3:5" ht="16.5" customHeight="1">
       <c r="C106" s="128" t="s">
-        <v>626</v>
-      </c>
-      <c r="D106" s="102"/>
-      <c r="E106" s="102"/>
+        <v>624</v>
+      </c>
+      <c r="D106" s="161"/>
+      <c r="E106" s="161"/>
     </row>
     <row r="107" spans="3:5" ht="16.5" customHeight="1">
       <c r="C107" s="129" t="s">
-        <v>627</v>
-      </c>
-      <c r="D107" s="102"/>
-      <c r="E107" s="102"/>
+        <v>625</v>
+      </c>
+      <c r="D107" s="161"/>
+      <c r="E107" s="161"/>
     </row>
     <row r="108" spans="3:5" ht="101.25" customHeight="1">
       <c r="C108" s="107"/>
       <c r="D108" s="107"/>
       <c r="E108" s="139" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="109" spans="3:5" ht="16.5" customHeight="1">
       <c r="C109" s="129" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D109" s="107"/>
       <c r="E109" s="107"/>
     </row>
     <row r="110" spans="3:5" ht="16.5" customHeight="1">
       <c r="C110" s="101" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D110" s="107"/>
       <c r="E110" s="107"/>
     </row>
     <row r="111" spans="3:5" ht="16.5" customHeight="1">
       <c r="C111" s="98" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D111" s="107"/>
       <c r="E111" s="107"/>
@@ -9390,7 +11131,7 @@
     </row>
     <row r="113" spans="3:6" ht="16.5" customHeight="1">
       <c r="D113" s="97" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E113" s="140"/>
     </row>
@@ -9403,7 +11144,7 @@
       <c r="C115" s="99"/>
       <c r="D115"/>
       <c r="E115" s="141" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="116" spans="3:6" ht="16.5" customHeight="1">
@@ -9414,7 +11155,7 @@
     <row r="117" spans="3:6" ht="16.5" customHeight="1">
       <c r="C117" s="99"/>
       <c r="D117" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E117"/>
       <c r="F117"/>
@@ -9422,14 +11163,14 @@
     <row r="118" spans="3:6" ht="16.5" customHeight="1">
       <c r="C118" s="99"/>
       <c r="D118" s="101" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E118"/>
       <c r="F118"/>
     </row>
     <row r="119" spans="3:6" ht="16.5" customHeight="1">
       <c r="D119" s="98" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E119"/>
       <c r="F119"/>
@@ -9451,7 +11192,7 @@
     </row>
     <row r="123" spans="3:6" ht="21">
       <c r="D123" s="97" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E123"/>
       <c r="F123"/>
@@ -9463,68 +11204,68 @@
     </row>
     <row r="125" spans="3:6" ht="16.5" customHeight="1">
       <c r="D125" s="142" t="s">
+        <v>647</v>
+      </c>
+      <c r="E125" s="142" t="s">
+        <v>648</v>
+      </c>
+      <c r="F125" s="142" t="s">
         <v>649</v>
-      </c>
-      <c r="E125" s="142" t="s">
-        <v>650</v>
-      </c>
-      <c r="F125" s="142" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="126" spans="3:6" ht="16.5" customHeight="1">
       <c r="D126" s="96" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E126" s="96" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F126" s="96" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="127" spans="3:6" ht="16.5" customHeight="1">
       <c r="D127" s="96" t="s">
+        <v>652</v>
+      </c>
+      <c r="E127" s="96" t="s">
+        <v>653</v>
+      </c>
+      <c r="F127" s="96" t="s">
         <v>654</v>
-      </c>
-      <c r="E127" s="96" t="s">
-        <v>655</v>
-      </c>
-      <c r="F127" s="96" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="128" spans="3:6" ht="16.5" customHeight="1">
       <c r="D128" s="96" t="s">
+        <v>655</v>
+      </c>
+      <c r="E128" s="96" t="s">
+        <v>656</v>
+      </c>
+      <c r="F128" s="96" t="s">
         <v>657</v>
-      </c>
-      <c r="E128" s="96" t="s">
-        <v>658</v>
-      </c>
-      <c r="F128" s="96" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="129" spans="4:6" ht="16.5" customHeight="1">
       <c r="D129" s="96" t="s">
+        <v>658</v>
+      </c>
+      <c r="E129" s="96" t="s">
+        <v>659</v>
+      </c>
+      <c r="F129" s="96" t="s">
         <v>660</v>
-      </c>
-      <c r="E129" s="96" t="s">
-        <v>661</v>
-      </c>
-      <c r="F129" s="96" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="130" spans="4:6" ht="16.5" customHeight="1">
       <c r="D130" s="96" t="s">
+        <v>661</v>
+      </c>
+      <c r="E130" s="96" t="s">
+        <v>662</v>
+      </c>
+      <c r="F130" s="96" t="s">
         <v>663</v>
-      </c>
-      <c r="E130" s="96" t="s">
-        <v>664</v>
-      </c>
-      <c r="F130" s="96" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="131" spans="4:6" ht="16.5" customHeight="1">
@@ -9534,14 +11275,14 @@
     </row>
     <row r="132" spans="4:6" ht="21">
       <c r="D132" s="97" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E132"/>
       <c r="F132"/>
     </row>
     <row r="133" spans="4:6" ht="16.5" customHeight="1">
       <c r="D133" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E133"/>
       <c r="F133"/>
@@ -9553,7 +11294,7 @@
     </row>
     <row r="135" spans="4:6" ht="16.5" customHeight="1">
       <c r="D135" s="128" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E135"/>
       <c r="F135"/>
@@ -9561,144 +11302,150 @@
     <row r="136" spans="4:6" ht="121.5">
       <c r="D136" s="96"/>
       <c r="E136" s="138" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F136"/>
     </row>
     <row r="137" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D137" s="99"/>
+      <c r="D137" s="143" t="s">
+        <v>673</v>
+      </c>
       <c r="E137"/>
       <c r="F137"/>
     </row>
     <row r="138" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D138" s="143" t="s">
-        <v>675</v>
-      </c>
+      <c r="D138"/>
       <c r="E138"/>
       <c r="F138"/>
     </row>
-    <row r="139" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D139"/>
+    <row r="139" spans="4:6" ht="21">
+      <c r="D139" s="97" t="s">
+        <v>667</v>
+      </c>
       <c r="E139"/>
       <c r="F139"/>
     </row>
-    <row r="140" spans="4:6" ht="21">
-      <c r="D140" s="97" t="s">
+    <row r="140" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D140" s="100" t="s">
+        <v>668</v>
+      </c>
+      <c r="F140" s="142" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6">
+      <c r="D141" s="96" t="s">
         <v>669</v>
       </c>
-      <c r="E140"/>
-      <c r="F140"/>
-    </row>
-    <row r="141" spans="4:6">
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-    </row>
-    <row r="142" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D142" s="100" t="s">
+      <c r="F141" s="96" t="s">
         <v>670</v>
       </c>
-      <c r="F142" s="142" t="s">
-        <v>633</v>
+    </row>
+    <row r="142" spans="4:6">
+      <c r="D142" s="96" t="s">
+        <v>671</v>
+      </c>
+      <c r="F142" s="96" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="143" spans="4:6">
-      <c r="D143" s="96" t="s">
-        <v>671</v>
-      </c>
-      <c r="F143" s="96" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="144" spans="4:6">
-      <c r="D144" s="96" t="s">
-        <v>673</v>
-      </c>
-      <c r="F144" s="96" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="145" spans="4:6">
-      <c r="D145"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D144" s="98" t="s">
+        <v>675</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="3:6">
+      <c r="D145" s="144" t="s">
+        <v>683</v>
+      </c>
       <c r="E145"/>
       <c r="F145"/>
     </row>
-    <row r="146" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D146" s="98" t="s">
-        <v>677</v>
-      </c>
+    <row r="146" spans="3:6" ht="15" customHeight="1">
+      <c r="D146"/>
       <c r="E146"/>
-      <c r="F146"/>
-    </row>
-    <row r="147" spans="4:6">
-      <c r="D147" s="160" t="s">
-        <v>686</v>
+      <c r="F146" s="107"/>
+    </row>
+    <row r="147" spans="3:6" ht="21">
+      <c r="D147" s="97" t="s">
+        <v>632</v>
       </c>
       <c r="E147"/>
-      <c r="F147"/>
-    </row>
-    <row r="148" spans="4:6" ht="15" customHeight="1">
-      <c r="D148"/>
+      <c r="F147" s="107"/>
+    </row>
+    <row r="148" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D148" s="98" t="s">
+        <v>633</v>
+      </c>
       <c r="E148"/>
       <c r="F148" s="107"/>
     </row>
-    <row r="149" spans="4:6" ht="21">
-      <c r="D149" s="97" t="s">
+    <row r="149" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D149" s="98" t="s">
         <v>634</v>
       </c>
       <c r="E149"/>
       <c r="F149" s="107"/>
     </row>
-    <row r="150" spans="4:6" ht="16.5" customHeight="1">
+    <row r="150" spans="3:6" ht="16.5" customHeight="1">
       <c r="D150" s="98" t="s">
         <v>635</v>
       </c>
       <c r="E150"/>
       <c r="F150" s="107"/>
     </row>
-    <row r="151" spans="4:6" ht="16.5" customHeight="1">
+    <row r="151" spans="3:6" ht="16.5" customHeight="1">
       <c r="D151" s="98" t="s">
         <v>636</v>
       </c>
       <c r="E151"/>
       <c r="F151" s="107"/>
     </row>
-    <row r="152" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D152" s="98" t="s">
-        <v>637</v>
-      </c>
+    <row r="152" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D152"/>
       <c r="E152"/>
       <c r="F152" s="107"/>
     </row>
-    <row r="153" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D153" s="98" t="s">
-        <v>638</v>
+    <row r="153" spans="3:6" ht="21">
+      <c r="D153" s="97" t="s">
+        <v>637</v>
       </c>
       <c r="E153"/>
       <c r="F153" s="107"/>
     </row>
-    <row r="154" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D154"/>
-      <c r="E154"/>
+    <row r="154" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D154" s="100" t="s">
+        <v>638</v>
+      </c>
+      <c r="E154" s="100" t="s">
+        <v>1</v>
+      </c>
       <c r="F154" s="107"/>
     </row>
-    <row r="155" spans="4:6" ht="21">
-      <c r="D155" s="97" t="s">
+    <row r="155" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D155" s="96" t="s">
         <v>639</v>
       </c>
-      <c r="E155"/>
-      <c r="F155" s="107"/>
-    </row>
-    <row r="156" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D156" s="100" t="s">
+      <c r="E155" s="96" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D156" s="96" t="s">
         <v>640</v>
       </c>
-      <c r="E156" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="F156" s="107"/>
-    </row>
-    <row r="157" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E156" s="96" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" ht="16.5" customHeight="1">
       <c r="D157" s="96" t="s">
         <v>641</v>
       </c>
@@ -9706,359 +11453,355 @@
         <v>680</v>
       </c>
     </row>
-    <row r="158" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D158" s="96" t="s">
-        <v>642</v>
-      </c>
-      <c r="E158" s="96" t="s">
+    <row r="158" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="159" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C159" s="128" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C160" s="145" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="159" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D159" s="96" t="s">
-        <v>643</v>
-      </c>
-      <c r="E159" s="96" t="s">
+    <row r="161" spans="3:5" ht="58.5" customHeight="1">
+      <c r="C161" s="135"/>
+      <c r="E161" s="107" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C162" s="145" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C163" s="146" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C164" s="146" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="160" spans="4:6" ht="16.5" customHeight="1"/>
-    <row r="161" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C161" s="128" t="s">
+    <row r="165" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C165" s="146" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="167" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C167" s="128" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C169" s="129" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" ht="121.5">
+      <c r="E170" s="150" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="162" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C162" s="161" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5" ht="58.5" customHeight="1">
-      <c r="C163" s="135"/>
-      <c r="E163" s="107" t="s">
+    <row r="171" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C171" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="164" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C164" s="161" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C165" s="162" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="166" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C166" s="162" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="167" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C167" s="162" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="169" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C169" s="128" t="s">
+      <c r="D171"/>
+    </row>
+    <row r="172" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C172" s="100" t="s">
+        <v>638</v>
+      </c>
+      <c r="E172" s="100" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" ht="40.5">
+      <c r="C173" s="147" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="170" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C170"/>
-    </row>
-    <row r="171" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C171" s="129" t="s">
+      <c r="E173" s="147" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" ht="26.25" customHeight="1">
+      <c r="C174" s="147" t="s">
+        <v>688</v>
+      </c>
+      <c r="E174" s="148" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="176" spans="3:5" s="105" customFormat="1">
+      <c r="C176" s="105" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C177" s="135" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C178" s="135" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" ht="132.75" customHeight="1">
+      <c r="D179" s="178" t="s">
+        <v>713</v>
+      </c>
+      <c r="E179" s="179" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" ht="40.5">
+      <c r="E180" s="150" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7" ht="21">
+      <c r="E181" s="97" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" ht="16.5" customHeight="1">
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="3:7" ht="16.5" customHeight="1">
+      <c r="E183" s="128" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7" ht="91.5" customHeight="1">
+      <c r="E184" s="151" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="185" spans="3:7" ht="21" customHeight="1">
+      <c r="E185" s="153" t="s">
+        <v>705</v>
+      </c>
+      <c r="G185" s="153"/>
+    </row>
+    <row r="186" spans="3:7" ht="21" customHeight="1">
+      <c r="E186" s="154" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="172" spans="3:5" ht="121.5">
-      <c r="E172" s="166" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C173" t="s">
-        <v>689</v>
-      </c>
-      <c r="D173"/>
-    </row>
-    <row r="174" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C174" s="100" t="s">
-        <v>640</v>
-      </c>
-      <c r="E174" s="100" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5" ht="40.5">
-      <c r="C175" s="163" t="s">
-        <v>691</v>
-      </c>
-      <c r="E175" s="163" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5" ht="26.25" customHeight="1">
-      <c r="C176" s="163" t="s">
-        <v>692</v>
-      </c>
-      <c r="E176" s="164" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="177" spans="3:7" ht="16.5" customHeight="1"/>
-    <row r="178" spans="3:7" s="105" customFormat="1">
-      <c r="C178" s="105" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="179" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C179" s="135" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="180" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C180" s="135" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="181" spans="3:7" ht="132.75" customHeight="1">
-      <c r="D181" s="104" t="s">
+      <c r="G186" s="153"/>
+    </row>
+    <row r="187" spans="3:7" ht="21" customHeight="1">
+      <c r="E187" s="154" t="s">
+        <v>760</v>
+      </c>
+      <c r="G187" s="153"/>
+    </row>
+    <row r="188" spans="3:7" ht="21" customHeight="1">
+      <c r="E188" s="154" t="s">
+        <v>711</v>
+      </c>
+      <c r="G188" s="153"/>
+    </row>
+    <row r="189" spans="3:7" ht="21" customHeight="1">
+      <c r="E189" s="151"/>
+      <c r="G189" s="153"/>
+    </row>
+    <row r="190" spans="3:7" ht="18.75" customHeight="1">
+      <c r="D190" s="104" t="s">
         <v>717</v>
       </c>
-      <c r="E181" s="166" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="182" spans="3:7" ht="40.5">
-      <c r="E182" s="166" t="s">
+    </row>
+    <row r="191" spans="3:7" ht="18.75" customHeight="1">
+      <c r="D191" s="100" t="s">
+        <v>638</v>
+      </c>
+      <c r="E191" s="142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="3:7" ht="18.75" customHeight="1">
+      <c r="D192" s="147" t="s">
+        <v>714</v>
+      </c>
+      <c r="E192" s="157" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="193" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D193" s="147" t="s">
+        <v>719</v>
+      </c>
+      <c r="E193" s="96" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D194" s="147" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="183" spans="3:7" ht="21">
-      <c r="E183" s="97" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="184" spans="3:7" ht="16.5" customHeight="1">
-      <c r="E184"/>
-    </row>
-    <row r="185" spans="3:7" ht="16.5" customHeight="1">
-      <c r="E185" s="128" t="s">
+      <c r="E194" s="96" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6" ht="18.75" customHeight="1">
+      <c r="E195" s="151"/>
+    </row>
+    <row r="196" spans="4:6">
+      <c r="E196" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="186" spans="3:7" ht="91.5" customHeight="1">
-      <c r="E186" s="167" t="s">
+    <row r="197" spans="4:6" ht="57">
+      <c r="E197" s="158" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="198" spans="4:6" ht="14.25">
+      <c r="E198" s="151" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6" ht="14.25">
+      <c r="E199" s="151"/>
+    </row>
+    <row r="200" spans="4:6" ht="14.25">
+      <c r="E200" s="151" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6" ht="57">
+      <c r="E201" s="158" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6" ht="14.25">
+      <c r="E202" s="151" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6" ht="14.25">
+      <c r="E203" s="151"/>
+    </row>
+    <row r="204" spans="4:6" ht="14.25">
+      <c r="E204" s="151" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="205" spans="4:6" ht="57">
+      <c r="E205" s="158" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6" ht="14.25">
+      <c r="E206" s="151" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6" ht="18.75" customHeight="1">
+      <c r="E207" s="151"/>
+    </row>
+    <row r="208" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D208" s="97" t="s">
+        <v>732</v>
+      </c>
+      <c r="E208"/>
+      <c r="F208"/>
+    </row>
+    <row r="209" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+    </row>
+    <row r="210" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D210" s="142" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="187" spans="3:7" ht="21" customHeight="1">
-      <c r="E187" s="169" t="s">
-        <v>709</v>
-      </c>
-      <c r="G187" s="169"/>
-    </row>
-    <row r="188" spans="3:7" ht="21" customHeight="1">
-      <c r="E188" s="170" t="s">
-        <v>710</v>
-      </c>
-      <c r="G188" s="169"/>
-    </row>
-    <row r="189" spans="3:7" ht="21" customHeight="1">
-      <c r="E189" s="170" t="s">
-        <v>764</v>
-      </c>
-      <c r="G189" s="169"/>
-    </row>
-    <row r="190" spans="3:7" ht="21" customHeight="1">
-      <c r="E190" s="170" t="s">
-        <v>715</v>
-      </c>
-      <c r="G190" s="169"/>
-    </row>
-    <row r="191" spans="3:7" ht="21" customHeight="1">
-      <c r="E191" s="167"/>
-      <c r="G191" s="169"/>
-    </row>
-    <row r="192" spans="3:7" ht="18.75" customHeight="1">
-      <c r="D192" s="104" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="193" spans="4:5" ht="18.75" customHeight="1">
-      <c r="D193" s="100" t="s">
-        <v>640</v>
-      </c>
-      <c r="E193" s="142" t="s">
+      <c r="E210" s="142" t="s">
+        <v>734</v>
+      </c>
+      <c r="F210" s="142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="4:5" ht="18.75" customHeight="1">
-      <c r="D194" s="163" t="s">
-        <v>718</v>
-      </c>
-      <c r="E194" s="173" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="195" spans="4:5" ht="18.75" customHeight="1">
-      <c r="D195" s="163" t="s">
-        <v>723</v>
-      </c>
-      <c r="E195" s="96" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="196" spans="4:5" ht="18.75" customHeight="1">
-      <c r="D196" s="163" t="s">
-        <v>720</v>
-      </c>
-      <c r="E196" s="96" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="197" spans="4:5" ht="18.75" customHeight="1">
-      <c r="E197" s="167"/>
-    </row>
-    <row r="198" spans="4:5">
-      <c r="E198" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="199" spans="4:5" ht="57">
-      <c r="E199" s="174" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="200" spans="4:5" ht="14.25">
-      <c r="E200" s="167" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="201" spans="4:5" ht="14.25">
-      <c r="E201" s="167"/>
-    </row>
-    <row r="202" spans="4:5" ht="14.25">
-      <c r="E202" s="167" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="203" spans="4:5" ht="57">
-      <c r="E203" s="174" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="204" spans="4:5" ht="14.25">
-      <c r="E204" s="167" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="205" spans="4:5" ht="14.25">
-      <c r="E205" s="167"/>
-    </row>
-    <row r="206" spans="4:5" ht="14.25">
-      <c r="E206" s="167" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="207" spans="4:5" ht="57">
-      <c r="E207" s="174" t="s">
+    <row r="211" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D211" s="96" t="s">
+        <v>761</v>
+      </c>
+      <c r="E211" s="96" t="s">
+        <v>743</v>
+      </c>
+      <c r="F211" s="96" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="208" spans="4:5" ht="14.25">
-      <c r="E208" s="167" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="209" spans="4:6" ht="18.75" customHeight="1">
-      <c r="E209" s="167"/>
-    </row>
-    <row r="210" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D210" s="97" t="s">
+    <row r="212" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D212" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="E212" s="96" t="s">
         <v>736</v>
       </c>
-      <c r="E210"/>
-      <c r="F210"/>
-    </row>
-    <row r="211" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D211"/>
-      <c r="E211"/>
-      <c r="F211"/>
-    </row>
-    <row r="212" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D212" s="142" t="s">
+      <c r="F212" s="96" t="s">
         <v>737</v>
       </c>
-      <c r="E212" s="142" t="s">
+    </row>
+    <row r="213" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D213" s="99" t="s">
         <v>738</v>
       </c>
-      <c r="F212" s="142" t="s">
+      <c r="E213" s="96" t="s">
+        <v>739</v>
+      </c>
+      <c r="F213" s="96" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="214" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D214" s="159">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D213" s="96" t="s">
-        <v>765</v>
-      </c>
-      <c r="E213" s="96" t="s">
-        <v>747</v>
-      </c>
-      <c r="F213" s="96" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="214" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D214" s="96" t="s">
-        <v>766</v>
-      </c>
       <c r="E214" s="96" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F214" s="96" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="215" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D215" s="99" t="s">
-        <v>742</v>
-      </c>
-      <c r="E215" s="96" t="s">
-        <v>743</v>
-      </c>
-      <c r="F215" s="96" t="s">
+      <c r="D215" s="159"/>
+      <c r="E215" s="96"/>
+      <c r="F215" s="96"/>
+    </row>
+    <row r="216" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D216" s="97" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="216" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D216" s="175">
-        <v>1</v>
-      </c>
-      <c r="E216" s="96" t="s">
+      <c r="E216"/>
+      <c r="F216" s="96"/>
+    </row>
+    <row r="217" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D217" s="98" t="s">
         <v>745</v>
       </c>
-      <c r="F216" s="96" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="217" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D217" s="175"/>
-      <c r="E217" s="96"/>
+      <c r="E217"/>
       <c r="F217" s="96"/>
     </row>
     <row r="218" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D218" s="97" t="s">
-        <v>748</v>
-      </c>
+      <c r="D218"/>
       <c r="E218"/>
       <c r="F218" s="96"/>
     </row>
     <row r="219" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D219" s="98" t="s">
-        <v>749</v>
+      <c r="D219" s="97" t="s">
+        <v>746</v>
       </c>
       <c r="E219"/>
       <c r="F219" s="96"/>
@@ -10069,51 +11812,51 @@
       <c r="F220" s="96"/>
     </row>
     <row r="221" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D221" s="97" t="s">
+      <c r="D221" s="100" t="s">
+        <v>747</v>
+      </c>
+      <c r="E221" s="100" t="s">
+        <v>748</v>
+      </c>
+      <c r="F221" s="96"/>
+    </row>
+    <row r="222" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D222" s="147" t="s">
+        <v>749</v>
+      </c>
+      <c r="E222" s="147" t="s">
         <v>750</v>
       </c>
-      <c r="E221"/>
-      <c r="F221" s="96"/>
-    </row>
-    <row r="222" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D222"/>
-      <c r="E222"/>
       <c r="F222" s="96"/>
     </row>
     <row r="223" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D223" s="100" t="s">
+      <c r="D223" s="147" t="s">
         <v>751</v>
       </c>
-      <c r="E223" s="100" t="s">
+      <c r="E223" s="147" t="s">
         <v>752</v>
       </c>
       <c r="F223" s="96"/>
     </row>
     <row r="224" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D224" s="163" t="s">
+      <c r="D224" s="147" t="s">
         <v>753</v>
       </c>
-      <c r="E224" s="163" t="s">
+      <c r="E224" s="147" t="s">
         <v>754</v>
       </c>
       <c r="F224" s="96"/>
     </row>
     <row r="225" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D225" s="163" t="s">
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225" s="96"/>
+    </row>
+    <row r="226" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D226" t="s">
         <v>755</v>
       </c>
-      <c r="E225" s="163" t="s">
-        <v>756</v>
-      </c>
-      <c r="F225" s="96"/>
-    </row>
-    <row r="226" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D226" s="163" t="s">
-        <v>757</v>
-      </c>
-      <c r="E226" s="163" t="s">
-        <v>758</v>
-      </c>
+      <c r="E226"/>
       <c r="F226" s="96"/>
     </row>
     <row r="227" spans="4:6" ht="18.75" customHeight="1">
@@ -10122,79 +11865,73 @@
       <c r="F227" s="96"/>
     </row>
     <row r="228" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D228" t="s">
-        <v>759</v>
+      <c r="D228" s="97" t="s">
+        <v>756</v>
       </c>
       <c r="E228"/>
       <c r="F228" s="96"/>
     </row>
     <row r="229" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D229"/>
+      <c r="D229" s="98"/>
       <c r="E229"/>
       <c r="F229" s="96"/>
     </row>
     <row r="230" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D230" s="97" t="s">
-        <v>760</v>
+      <c r="D230" s="98" t="s">
+        <v>757</v>
       </c>
       <c r="E230"/>
       <c r="F230" s="96"/>
     </row>
     <row r="231" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D231" s="98"/>
+      <c r="D231" s="98" t="s">
+        <v>758</v>
+      </c>
       <c r="E231"/>
       <c r="F231" s="96"/>
     </row>
     <row r="232" spans="4:6" ht="18.75" customHeight="1">
       <c r="D232" s="98" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E232"/>
       <c r="F232" s="96"/>
     </row>
     <row r="233" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D233" s="98" t="s">
-        <v>762</v>
-      </c>
-      <c r="E233"/>
+      <c r="D233" s="159"/>
+      <c r="E233" s="96"/>
       <c r="F233" s="96"/>
     </row>
-    <row r="234" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D234" s="98" t="s">
-        <v>763</v>
-      </c>
-      <c r="E234"/>
-      <c r="F234" s="96"/>
-    </row>
-    <row r="235" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D235" s="175"/>
-      <c r="E235" s="96"/>
-      <c r="F235" s="96"/>
-    </row>
-    <row r="236" spans="4:6" s="168" customFormat="1" ht="14.25"/>
-    <row r="237" spans="4:6" s="168" customFormat="1" ht="14.25"/>
-    <row r="238" spans="4:6" s="168" customFormat="1" ht="35.25" customHeight="1">
-      <c r="E238" s="171" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="239" spans="4:6" s="168" customFormat="1" ht="14.25">
-      <c r="E239" s="172" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="240" spans="4:6" s="168" customFormat="1" ht="35.25" customHeight="1">
-      <c r="D240" s="172" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="241" spans="3:5" s="168" customFormat="1" ht="71.25">
-      <c r="E241" s="176" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="242" spans="3:5" s="168" customFormat="1" ht="16.5" customHeight="1">
-      <c r="E242" s="171"/>
+    <row r="234" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="235" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="236" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="E236" s="155" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="237" spans="4:6" s="152" customFormat="1" ht="14.25">
+      <c r="E237" s="156" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="238" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="D238" s="156" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="239" spans="4:6" s="152" customFormat="1" ht="71.25">
+      <c r="E239" s="160" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="240" spans="4:6" s="152" customFormat="1" ht="16.5" customHeight="1">
+      <c r="E240" s="155"/>
+    </row>
+    <row r="241" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E241" s="128"/>
+    </row>
+    <row r="242" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E242" s="128"/>
     </row>
     <row r="243" spans="3:5" ht="16.5" customHeight="1">
       <c r="E243" s="128"/>
@@ -10206,380 +11943,1051 @@
       <c r="E245" s="128"/>
     </row>
     <row r="246" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E246" s="128"/>
+      <c r="D246" s="97" t="s">
+        <v>693</v>
+      </c>
+      <c r="E246"/>
     </row>
     <row r="247" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E247" s="128"/>
+      <c r="D247"/>
+      <c r="E247"/>
     </row>
     <row r="248" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E248" s="128"/>
+      <c r="D248" s="100" t="s">
+        <v>694</v>
+      </c>
+      <c r="E248" s="100" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="249" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E249" s="128"/>
+      <c r="D249" s="147" t="s">
+        <v>695</v>
+      </c>
+      <c r="E249" s="147" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="250" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E250" s="128"/>
-    </row>
-    <row r="251" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="252" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C252" s="97" t="s">
+      <c r="D250" s="147" t="s">
         <v>697</v>
       </c>
-      <c r="D252"/>
-    </row>
-    <row r="253" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C253"/>
-      <c r="D253"/>
-    </row>
-    <row r="254" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C254" s="100" t="s">
+      <c r="E250" s="149" t="s">
         <v>698</v>
       </c>
-      <c r="E254" s="100" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="255" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C255" s="163" t="s">
+    </row>
+    <row r="251" spans="3:5" ht="16.5" customHeight="1">
+      <c r="D251" s="147" t="s">
         <v>699</v>
       </c>
-      <c r="E255" s="163" t="s">
+      <c r="E251" s="147" t="s">
         <v>700</v>
       </c>
     </row>
+    <row r="252" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="253" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="254" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="255" spans="3:5" ht="16.5" customHeight="1"/>
     <row r="256" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C256" s="163" t="s">
-        <v>701</v>
-      </c>
-      <c r="E256" s="165" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="257" spans="2:6" ht="16.5" customHeight="1">
-      <c r="C257" s="163" t="s">
-        <v>703</v>
-      </c>
-      <c r="E257" s="163" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="258" spans="2:6" ht="16.5" customHeight="1"/>
-    <row r="259" spans="2:6" ht="16.5" customHeight="1"/>
-    <row r="261" spans="2:6" ht="16.5">
-      <c r="B261" s="106" t="s">
+      <c r="C256" s="147"/>
+      <c r="E256" s="147"/>
+    </row>
+    <row r="257" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C257" s="147"/>
+      <c r="E257" s="147"/>
+    </row>
+    <row r="258" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C258" s="128" t="s">
+        <v>770</v>
+      </c>
+      <c r="E258" s="147"/>
+    </row>
+    <row r="259" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C259"/>
+      <c r="E259" s="147"/>
+    </row>
+    <row r="260" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C260" s="129" t="s">
+        <v>771</v>
+      </c>
+      <c r="E260" s="147"/>
+    </row>
+    <row r="261" spans="3:7" ht="121.5">
+      <c r="C261" s="147"/>
+      <c r="E261" s="147" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="262" spans="3:7" ht="40.5">
+      <c r="C262" s="147"/>
+      <c r="E262" s="147" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="263" spans="3:7" ht="54">
+      <c r="C263" s="147"/>
+      <c r="E263" s="147" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="264" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C264" s="147"/>
+      <c r="E264" s="147"/>
+    </row>
+    <row r="265" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C265" s="147"/>
+      <c r="E265" s="97" t="s">
+        <v>775</v>
+      </c>
+      <c r="F265"/>
+      <c r="G265"/>
+    </row>
+    <row r="266" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C266" s="147"/>
+      <c r="E266"/>
+      <c r="F266"/>
+      <c r="G266"/>
+    </row>
+    <row r="267" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C267" s="147"/>
+      <c r="E267" t="s">
+        <v>776</v>
+      </c>
+      <c r="F267"/>
+      <c r="G267"/>
+    </row>
+    <row r="268" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C268" s="147"/>
+      <c r="E268" s="180" t="s">
+        <v>777</v>
+      </c>
+      <c r="F268" s="180" t="s">
+        <v>778</v>
+      </c>
+      <c r="G268" s="180" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="269" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C269" s="147"/>
+      <c r="E269" s="181">
+        <v>101</v>
+      </c>
+      <c r="F269" s="181" t="s">
+        <v>780</v>
+      </c>
+      <c r="G269" s="181" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="270" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C270" s="147"/>
+      <c r="E270" s="181">
+        <v>102</v>
+      </c>
+      <c r="F270" s="181" t="s">
+        <v>782</v>
+      </c>
+      <c r="G270" s="181">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="271" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C271" s="147"/>
+      <c r="E271" s="181">
+        <v>103</v>
+      </c>
+      <c r="F271" s="181" t="s">
+        <v>783</v>
+      </c>
+      <c r="G271" s="181">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="272" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C272" s="147"/>
+      <c r="E272" s="181">
+        <v>104</v>
+      </c>
+      <c r="F272" s="181" t="s">
+        <v>784</v>
+      </c>
+      <c r="G272" s="181">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="273" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C273" s="147"/>
+      <c r="E273" s="147"/>
+    </row>
+    <row r="274" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C274" s="147"/>
+      <c r="E274" s="182" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="275" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C275" s="147"/>
+      <c r="E275" s="182" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="276" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C276" s="147"/>
+      <c r="E276" s="128" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="277" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C277" s="147"/>
+      <c r="E277" s="98" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="278" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C278" s="147"/>
+      <c r="E278" s="98" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="279" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C279" s="147"/>
+      <c r="E279" s="184" t="s">
+        <v>790</v>
+      </c>
+      <c r="F279" s="184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C280" s="147"/>
+      <c r="E280" s="159" t="s">
+        <v>791</v>
+      </c>
+      <c r="F280" s="186" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="281" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C281" s="147"/>
+      <c r="E281" s="185" t="s">
+        <v>793</v>
+      </c>
+      <c r="F281" s="186" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="282" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C282" s="147"/>
+      <c r="E282" s="159" t="s">
+        <v>795</v>
+      </c>
+      <c r="F282" s="185" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="283" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C283" s="147"/>
+      <c r="E283" s="147"/>
+    </row>
+    <row r="284" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C284" s="147"/>
+      <c r="E284" s="128" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="285" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C285" s="147"/>
+      <c r="E285" s="187" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="286" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E286" s="98" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="287" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="288" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E288" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E289" s="180" t="s">
+        <v>801</v>
+      </c>
+      <c r="F289" s="180" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E290" s="181" t="s">
+        <v>780</v>
+      </c>
+      <c r="F290" s="181" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="291" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E291" s="181" t="s">
+        <v>780</v>
+      </c>
+      <c r="F291" s="181" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="292" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E292" s="181" t="s">
+        <v>782</v>
+      </c>
+      <c r="F292" s="181" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="293" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="294" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E294" s="129" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="295" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E295" s="184" t="s">
+        <v>318</v>
+      </c>
+      <c r="F295" s="184" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="296" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E296" s="185" t="s">
+        <v>805</v>
+      </c>
+      <c r="F296" s="185" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="297" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E297" s="185" t="s">
+        <v>807</v>
+      </c>
+      <c r="F297" s="185" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="298" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E298" s="185" t="s">
+        <v>809</v>
+      </c>
+      <c r="F298" s="185" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="299" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="300" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E300" s="129" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="301" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E301" s="184" t="s">
+        <v>328</v>
+      </c>
+      <c r="F301" s="184" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="302" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E302" s="159" t="s">
+        <v>812</v>
+      </c>
+      <c r="F302" s="185" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="303" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E303" s="185" t="s">
+        <v>814</v>
+      </c>
+      <c r="F303" s="185" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="304" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E304" s="185" t="s">
+        <v>816</v>
+      </c>
+      <c r="F304" s="185" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="305" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="306" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E306" s="188" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="307" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E307" s="184" t="s">
+        <v>790</v>
+      </c>
+      <c r="F307" s="184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E308" s="185" t="s">
+        <v>819</v>
+      </c>
+      <c r="F308" s="185" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="309" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E309" s="185" t="s">
+        <v>821</v>
+      </c>
+      <c r="F309" s="189" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="310" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E310" s="185" t="s">
+        <v>822</v>
+      </c>
+      <c r="F310" s="186" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="312" spans="5:6">
+      <c r="E312" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="313" spans="5:6">
+      <c r="E313" s="184" t="s">
+        <v>318</v>
+      </c>
+      <c r="F313" s="184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="5:6">
+      <c r="E314" s="185" t="s">
+        <v>825</v>
+      </c>
+      <c r="F314" s="185" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="315" spans="5:6">
+      <c r="E315" s="185" t="s">
+        <v>827</v>
+      </c>
+      <c r="F315" s="185" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="316" spans="5:6">
+      <c r="E316" s="185" t="s">
+        <v>803</v>
+      </c>
+      <c r="F316" s="185" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="318" spans="5:6">
+      <c r="E318" s="190" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="319" spans="5:6">
+      <c r="E319" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="320" spans="5:6">
+      <c r="E320" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="322" spans="5:6">
+      <c r="E322" s="190"/>
+    </row>
+    <row r="323" spans="5:6">
+      <c r="E323" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="324" spans="5:6">
+      <c r="E324" s="101" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="325" spans="5:6">
+      <c r="E325" s="98" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="326" spans="5:6">
+      <c r="E326" s="98"/>
+    </row>
+    <row r="327" spans="5:6">
+      <c r="E327" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="328" spans="5:6">
+      <c r="E328" s="129" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="329" spans="5:6">
+      <c r="E329" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="331" spans="5:6" ht="16.5">
+      <c r="E331" s="128" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="332" spans="5:6">
+      <c r="E332" s="98" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="334" spans="5:6">
+      <c r="E334" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="335" spans="5:6">
+      <c r="E335" s="184" t="s">
+        <v>638</v>
+      </c>
+      <c r="F335" s="184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="5:6">
+      <c r="E336" s="185" t="s">
+        <v>842</v>
+      </c>
+      <c r="F336" s="184" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="337" spans="5:6">
+      <c r="E337" s="185" t="s">
+        <v>844</v>
+      </c>
+      <c r="F337" s="185" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="338" spans="5:6">
+      <c r="E338" s="185" t="s">
+        <v>819</v>
+      </c>
+      <c r="F338" s="185" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="339" spans="5:6">
+      <c r="E339" s="185" t="s">
+        <v>847</v>
+      </c>
+      <c r="F339" s="185" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="341" spans="5:6">
+      <c r="E341" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="342" spans="5:6">
+      <c r="E342" s="184" t="s">
+        <v>328</v>
+      </c>
+      <c r="F342" s="184" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="343" spans="5:6">
+      <c r="E343" s="185" t="s">
+        <v>850</v>
+      </c>
+      <c r="F343" s="184" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="344" spans="5:6">
+      <c r="E344" s="185" t="s">
+        <v>852</v>
+      </c>
+      <c r="F344" s="159" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="345" spans="5:6">
+      <c r="E345" s="185" t="s">
+        <v>854</v>
+      </c>
+      <c r="F345" s="159" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="347" spans="5:6">
+      <c r="E347" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="348" spans="5:6" ht="175.5">
+      <c r="E348" s="191" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="349" spans="5:6" ht="54">
+      <c r="E349" s="192" t="s">
+        <v>860</v>
+      </c>
+      <c r="F349" s="107"/>
+    </row>
+    <row r="350" spans="5:6" ht="27">
+      <c r="E350" s="107" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="351" spans="5:6" ht="54">
+      <c r="E351" s="192" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="352" spans="5:6">
+      <c r="E352" s="107"/>
+    </row>
+    <row r="353" spans="5:7" ht="14.25">
+      <c r="E353" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="354" spans="5:7" ht="14.25">
+      <c r="E354" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="355" spans="5:7">
+      <c r="E355" s="180" t="s">
+        <v>863</v>
+      </c>
+      <c r="F355" s="180" t="s">
+        <v>864</v>
+      </c>
+      <c r="G355" s="180" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="356" spans="5:7">
+      <c r="E356" s="183" t="s">
+        <v>866</v>
+      </c>
+      <c r="F356" s="181" t="s">
+        <v>867</v>
+      </c>
+      <c r="G356" s="181" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="357" spans="5:7">
+      <c r="E357" s="183" t="s">
+        <v>869</v>
+      </c>
+      <c r="F357" s="181" t="s">
+        <v>870</v>
+      </c>
+      <c r="G357" s="181" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="358" spans="5:7">
+      <c r="E358" s="107"/>
+    </row>
+    <row r="359" spans="5:7" ht="16.5">
+      <c r="E359" s="128" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="360" spans="5:7" ht="14.25">
+      <c r="E360" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="361" spans="5:7" ht="175.5">
+      <c r="E361" s="107" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="362" spans="5:7">
+      <c r="E362" s="107"/>
+    </row>
+    <row r="363" spans="5:7" ht="14.25">
+      <c r="E363" s="193" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="364" spans="5:7">
+      <c r="E364" s="98"/>
+    </row>
+    <row r="365" spans="5:7">
+      <c r="E365" s="187" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="366" spans="5:7">
+      <c r="E366" s="98"/>
+    </row>
+    <row r="367" spans="5:7">
+      <c r="E367" s="101" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="368" spans="5:7">
+      <c r="E368" s="98"/>
+    </row>
+    <row r="369" spans="2:5">
+      <c r="E369" s="98" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5">
+      <c r="E370" s="107"/>
+    </row>
+    <row r="371" spans="2:5">
+      <c r="E371" s="107"/>
+    </row>
+    <row r="372" spans="2:5">
+      <c r="E372" s="107"/>
+    </row>
+    <row r="373" spans="2:5">
+      <c r="E373" s="107"/>
+    </row>
+    <row r="382" spans="2:5" ht="16.5">
+      <c r="B382" s="106" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="262" spans="2:6" ht="19.5" customHeight="1">
-      <c r="C262" s="105" t="s">
+    <row r="383" spans="2:5" ht="19.5" customHeight="1">
+      <c r="C383" s="105" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="263" spans="2:6">
-      <c r="C263" s="105"/>
-      <c r="D263" s="104" t="s">
+    <row r="384" spans="2:5">
+      <c r="C384" s="105"/>
+      <c r="D384" s="104" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="264" spans="2:6" ht="40.5">
-      <c r="E264" s="107" t="s">
+    <row r="385" spans="1:6" ht="40.5">
+      <c r="E385" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="F264" s="107"/>
-    </row>
-    <row r="265" spans="2:6" ht="21">
-      <c r="D265" s="109" t="s">
+      <c r="F385" s="107"/>
+    </row>
+    <row r="386" spans="1:6" ht="21">
+      <c r="D386" s="109" t="s">
         <v>529</v>
       </c>
-      <c r="E265" s="107"/>
-      <c r="F265" s="107"/>
-    </row>
-    <row r="266" spans="2:6">
-      <c r="D266" s="112" t="s">
+      <c r="E386" s="107"/>
+      <c r="F386" s="107"/>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="D387" s="112" t="s">
         <v>530</v>
       </c>
-      <c r="E266" s="107"/>
-      <c r="F266" s="107"/>
-    </row>
-    <row r="267" spans="2:6">
-      <c r="D267" s="110" t="s">
+      <c r="E387" s="107"/>
+      <c r="F387" s="107"/>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="D388" s="110" t="s">
         <v>526</v>
       </c>
-      <c r="E267" s="107"/>
-      <c r="F267" s="107"/>
-    </row>
-    <row r="268" spans="2:6">
-      <c r="D268" s="110"/>
-      <c r="E268" s="107"/>
-      <c r="F268" s="107"/>
-    </row>
-    <row r="269" spans="2:6">
-      <c r="D269" s="110" t="s">
+      <c r="E388" s="107"/>
+      <c r="F388" s="107"/>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="D389" s="110"/>
+      <c r="E389" s="107"/>
+      <c r="F389" s="107"/>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="D390" s="110" t="s">
         <v>527</v>
       </c>
-      <c r="E269" s="111">
+      <c r="E390" s="111">
         <v>100</v>
       </c>
-      <c r="F269" s="107"/>
-    </row>
-    <row r="270" spans="2:6">
-      <c r="D270" s="110"/>
-      <c r="E270" s="111" t="s">
+      <c r="F390" s="107"/>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="D391" s="110"/>
+      <c r="E391" s="111" t="s">
         <v>528</v>
       </c>
-      <c r="F270" s="107"/>
-    </row>
-    <row r="271" spans="2:6">
-      <c r="E271" s="113">
+      <c r="F391" s="107"/>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="E392" s="113">
         <v>45869</v>
       </c>
-      <c r="F271" s="107"/>
-    </row>
-    <row r="272" spans="2:6">
-      <c r="E272" s="107"/>
-      <c r="F272" s="107"/>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="C273" s="105" t="s">
+      <c r="F392" s="107"/>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="E393" s="107"/>
+      <c r="F393" s="107"/>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="C394" s="105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
-      <c r="C274" s="104" t="s">
+    <row r="395" spans="1:6">
+      <c r="C395" s="104" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
-      <c r="C275" s="105" t="s">
+    <row r="396" spans="1:6">
+      <c r="C396" s="105" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="21">
-      <c r="A277" s="103" t="s">
+    <row r="398" spans="1:6" ht="21">
+      <c r="A398" s="103" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
-      <c r="C278" s="105" t="s">
+    <row r="399" spans="1:6">
+      <c r="C399" s="105" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
-      <c r="C279" s="104" t="s">
+    <row r="400" spans="1:6">
+      <c r="C400" s="104" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
-      <c r="C280" s="104" t="s">
+    <row r="401" spans="1:9">
+      <c r="C401" s="104" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
-      <c r="D281" s="104" t="s">
+    <row r="402" spans="1:9">
+      <c r="D402" s="104" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="60">
-      <c r="E282" s="114" t="s">
+    <row r="403" spans="1:9" ht="60">
+      <c r="E403" s="114" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
-      <c r="C283" s="105" t="s">
+    <row r="404" spans="1:9">
+      <c r="C404" s="105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
-      <c r="C284" s="104" t="s">
+    <row r="405" spans="1:9">
+      <c r="C405" s="104" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
-      <c r="C285" s="104" t="s">
+    <row r="406" spans="1:9">
+      <c r="C406" s="104" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
-      <c r="C286" s="105" t="s">
+    <row r="407" spans="1:9">
+      <c r="C407" s="105" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="21">
-      <c r="A288" s="103" t="s">
+    <row r="409" spans="1:9" ht="21">
+      <c r="A409" s="103" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
-      <c r="C289" s="108"/>
-      <c r="D289" s="108"/>
-      <c r="E289" s="108"/>
-    </row>
-    <row r="290" spans="1:9" ht="27">
-      <c r="C290" s="115" t="s">
+    <row r="410" spans="1:9">
+      <c r="C410" s="108"/>
+      <c r="D410" s="108"/>
+      <c r="E410" s="108"/>
+    </row>
+    <row r="411" spans="1:9" ht="27">
+      <c r="C411" s="115" t="s">
         <v>548</v>
       </c>
-      <c r="D290" s="115" t="s">
+      <c r="D411" s="115" t="s">
         <v>549</v>
       </c>
-      <c r="E290" s="115" t="s">
+      <c r="E411" s="115" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C291" s="116" t="s">
+    <row r="412" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C412" s="116" t="s">
         <v>531</v>
       </c>
-      <c r="D291" s="117" t="s">
+      <c r="D412" s="117" t="s">
         <v>551</v>
       </c>
-      <c r="E291" s="118" t="s">
+      <c r="E412" s="118" t="s">
         <v>559</v>
       </c>
-      <c r="G291" s="119"/>
-      <c r="H291" s="119"/>
-      <c r="I291" s="119"/>
-    </row>
-    <row r="292" spans="1:9" ht="63" customHeight="1">
-      <c r="C292" s="116" t="s">
+      <c r="G412" s="119"/>
+      <c r="H412" s="119"/>
+      <c r="I412" s="119"/>
+    </row>
+    <row r="413" spans="1:9" ht="63" customHeight="1">
+      <c r="C413" s="116" t="s">
         <v>557</v>
       </c>
-      <c r="D292" s="117" t="s">
+      <c r="D413" s="117" t="s">
         <v>556</v>
       </c>
-      <c r="E292" s="120" t="s">
+      <c r="E413" s="120" t="s">
         <v>560</v>
       </c>
-      <c r="G292" s="121"/>
-      <c r="H292" s="122"/>
-      <c r="I292" s="123"/>
-    </row>
-    <row r="293" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C293" s="116" t="s">
+      <c r="G413" s="121"/>
+      <c r="H413" s="122"/>
+      <c r="I413" s="123"/>
+    </row>
+    <row r="414" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C414" s="116" t="s">
         <v>558</v>
       </c>
-      <c r="D293" s="117" t="s">
+      <c r="D414" s="117" t="s">
         <v>552</v>
       </c>
-      <c r="E293" s="124" t="s">
+      <c r="E414" s="124" t="s">
         <v>561</v>
       </c>
-      <c r="G293" s="121"/>
-      <c r="H293" s="122"/>
-      <c r="I293" s="122"/>
-    </row>
-    <row r="294" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C294" s="116" t="s">
+      <c r="G414" s="121"/>
+      <c r="H414" s="122"/>
+      <c r="I414" s="122"/>
+    </row>
+    <row r="415" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C415" s="116" t="s">
         <v>517</v>
       </c>
-      <c r="D294" s="125" t="s">
+      <c r="D415" s="125" t="s">
         <v>563</v>
       </c>
-      <c r="E294" s="125" t="s">
+      <c r="E415" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="G294" s="121"/>
-      <c r="H294" s="122"/>
-      <c r="I294" s="122"/>
-    </row>
-    <row r="295" spans="1:9">
-      <c r="C295" s="126"/>
-      <c r="D295" s="126"/>
-    </row>
-    <row r="296" spans="1:9" ht="21">
-      <c r="A296" s="109" t="s">
+      <c r="G415" s="121"/>
+      <c r="H415" s="122"/>
+      <c r="I415" s="122"/>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="C416" s="126"/>
+      <c r="D416" s="126"/>
+    </row>
+    <row r="417" spans="1:3" ht="21">
+      <c r="A417" s="109" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
-      <c r="A297" s="108"/>
-    </row>
-    <row r="298" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A298" s="108" t="s">
+    <row r="418" spans="1:3">
+      <c r="A418" s="108"/>
+    </row>
+    <row r="419" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A419" s="108" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A299" s="110"/>
-    </row>
-    <row r="300" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A300" s="112" t="s">
+    <row r="420" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A420" s="110"/>
+    </row>
+    <row r="421" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A421" s="112" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A301" s="111" t="s">
+    <row r="422" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A422" s="111" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A302" s="108"/>
-    </row>
-    <row r="303" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A303" s="127"/>
-      <c r="C303" s="127" t="s">
+    <row r="423" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A423" s="108"/>
+    </row>
+    <row r="424" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A424" s="127"/>
+      <c r="C424" s="127" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A304" s="127"/>
-      <c r="C304" s="127" t="s">
+    <row r="425" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A425" s="127"/>
+      <c r="C425" s="127" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="306" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A306" s="112" t="s">
+    <row r="426" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="427" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A427" s="112" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A307" s="110" t="s">
+    <row r="428" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A428" s="110" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A308" s="110" t="s">
+    <row r="429" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A429" s="110" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A309" s="112" t="s">
+    <row r="430" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A430" s="112" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A310" s="112" t="s">
+    <row r="431" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A431" s="112" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A311" s="108"/>
-    </row>
-    <row r="312" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A312" s="127"/>
-      <c r="C312" s="127" t="s">
+    <row r="432" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A432" s="108"/>
+    </row>
+    <row r="433" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A433" s="127"/>
+      <c r="C433" s="127" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A313" s="127"/>
-      <c r="C313" s="127" t="s">
+    <row r="434" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A434" s="127"/>
+      <c r="C434" s="127" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="16.5" customHeight="1">
-      <c r="C314" s="127" t="s">
+    <row r="435" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C435" s="127" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="316" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A316" s="104" t="s">
+    <row r="436" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="437" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A437" s="104" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A317" s="104" t="s">
+    <row r="438" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A438" s="104" t="s">
         <v>547</v>
       </c>
     </row>
@@ -10590,9 +12998,10 @@
   <phoneticPr fontId="9"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="260" max="6" man="1"/>
-    <brk id="295" max="6" man="1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="78" max="6" man="1"/>
+    <brk id="381" max="6" man="1"/>
+    <brk id="416" max="6" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
@@ -10601,6 +13010,1767 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51585A7E-88DA-486C-AD83-09E1DF1AD324}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I315"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A160" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="104" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="104" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="104" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="104" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="104" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="104" customWidth="1"/>
+    <col min="7" max="7" width="58.625" style="104" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="104"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="21">
+      <c r="A2" s="103" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="105" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="104" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="104" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="105" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="105" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="105" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21">
+      <c r="A12" s="103" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="B14" s="106" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="105" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="105" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="105" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="E19" s="104" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="D20" s="104" t="s">
+        <v>520</v>
+      </c>
+      <c r="G20" s="104" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="202.5">
+      <c r="E21" s="107" t="s">
+        <v>619</v>
+      </c>
+      <c r="G21" s="107" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="D22" s="105" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="105" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="D25" s="104" t="s">
+        <v>605</v>
+      </c>
+      <c r="G25" s="108"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="E26" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="104" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="121.5">
+      <c r="E27" s="107" t="s">
+        <v>525</v>
+      </c>
+      <c r="G27" s="107" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="D28" s="105" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="D29" s="105" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="D30" s="105" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="D31" s="105" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="105" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="E34" s="104" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="121.5">
+      <c r="E35" s="107" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="14.25">
+      <c r="C37" s="137" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="108"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="108" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="108"/>
+      <c r="D40" s="104" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="108">
+      <c r="E41" s="107" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="E42" s="104" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="D43" s="105" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="108" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="110"/>
+      <c r="D45" s="111" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="14.25">
+      <c r="C46" s="133"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="104" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="94.5">
+      <c r="E47" s="107" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="D48" s="104" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="D49" s="105" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="104" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="135" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="135" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="104" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="135" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" ht="17.25">
+      <c r="C56" s="131" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="132"/>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="135" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="136" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="136" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="136" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="108"/>
+    </row>
+    <row r="63" spans="3:4" ht="17.25">
+      <c r="C63" s="130" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="108"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="136" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="136" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="136" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="136" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="136" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="136" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="108"/>
+    </row>
+    <row r="72" spans="3:3" ht="17.25">
+      <c r="C72" s="130" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="108"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="136" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="136" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="136" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="136" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="108"/>
+    </row>
+    <row r="79" spans="3:3" ht="17.25">
+      <c r="C79" s="130" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="108"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="C81" s="136" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="C82" s="136" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="C83" s="136" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="C84" s="136" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="C85" s="136" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="C86" s="108"/>
+    </row>
+    <row r="87" spans="2:5" ht="16.5">
+      <c r="B87" s="128" t="s">
+        <v>555</v>
+      </c>
+      <c r="C87" s="108"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88"/>
+      <c r="C88" s="108"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="129" t="s">
+        <v>608</v>
+      </c>
+      <c r="C89" s="108"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="C90" s="105"/>
+      <c r="D90" s="104" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="108">
+      <c r="E91" s="107" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="C92" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="C93" s="135" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="C94" s="135" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="C95" s="135" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="16.5" customHeight="1">
+      <c r="C96" s="162" t="s">
+        <v>523</v>
+      </c>
+      <c r="D96" s="162"/>
+      <c r="E96" s="162"/>
+    </row>
+    <row r="97" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C97" s="102"/>
+      <c r="D97" s="102"/>
+      <c r="E97" s="102"/>
+    </row>
+    <row r="98" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C98" s="97" t="s">
+        <v>622</v>
+      </c>
+      <c r="D98" s="102"/>
+      <c r="E98" s="102"/>
+    </row>
+    <row r="99" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C99"/>
+      <c r="D99" s="102"/>
+      <c r="E99" s="102"/>
+    </row>
+    <row r="100" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C100" s="128" t="s">
+        <v>621</v>
+      </c>
+      <c r="D100" s="102"/>
+      <c r="E100" s="102"/>
+    </row>
+    <row r="101" spans="3:5" ht="121.5">
+      <c r="C101" s="102"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="107" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C102" t="s">
+        <v>623</v>
+      </c>
+      <c r="D102" s="102"/>
+      <c r="E102" s="102"/>
+    </row>
+    <row r="103" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C103"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="102"/>
+    </row>
+    <row r="104" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C104" s="105" t="s">
+        <v>626</v>
+      </c>
+      <c r="D104" s="102"/>
+      <c r="E104" s="102"/>
+    </row>
+    <row r="105" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C105" s="105"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="102"/>
+    </row>
+    <row r="106" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C106" s="128" t="s">
+        <v>624</v>
+      </c>
+      <c r="D106" s="102"/>
+      <c r="E106" s="102"/>
+    </row>
+    <row r="107" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C107" s="129" t="s">
+        <v>625</v>
+      </c>
+      <c r="D107" s="102"/>
+      <c r="E107" s="102"/>
+    </row>
+    <row r="108" spans="3:5" ht="101.25" customHeight="1">
+      <c r="C108" s="107"/>
+      <c r="D108" s="107"/>
+      <c r="E108" s="139" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C109" s="129" t="s">
+        <v>628</v>
+      </c>
+      <c r="D109" s="107"/>
+      <c r="E109" s="107"/>
+    </row>
+    <row r="110" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C110" s="101" t="s">
+        <v>629</v>
+      </c>
+      <c r="D110" s="107"/>
+      <c r="E110" s="107"/>
+    </row>
+    <row r="111" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C111" s="98" t="s">
+        <v>630</v>
+      </c>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
+    </row>
+    <row r="112" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C112" s="107"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="107"/>
+    </row>
+    <row r="113" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D113" s="97" t="s">
+        <v>642</v>
+      </c>
+      <c r="E113" s="140"/>
+    </row>
+    <row r="114" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C114" s="96"/>
+      <c r="D114"/>
+      <c r="E114" s="140"/>
+    </row>
+    <row r="115" spans="3:6" ht="54">
+      <c r="C115" s="99"/>
+      <c r="D115"/>
+      <c r="E115" s="141" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C116" s="99"/>
+      <c r="D116"/>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C117" s="99"/>
+      <c r="D117" t="s">
+        <v>643</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C118" s="99"/>
+      <c r="D118" s="101" t="s">
+        <v>644</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D119" s="98" t="s">
+        <v>645</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="3:6" ht="21">
+      <c r="D123" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D125" s="142" t="s">
+        <v>647</v>
+      </c>
+      <c r="E125" s="142" t="s">
+        <v>648</v>
+      </c>
+      <c r="F125" s="142" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D126" s="96" t="s">
+        <v>650</v>
+      </c>
+      <c r="E126" s="96" t="s">
+        <v>651</v>
+      </c>
+      <c r="F126" s="96" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D127" s="96" t="s">
+        <v>652</v>
+      </c>
+      <c r="E127" s="96" t="s">
+        <v>653</v>
+      </c>
+      <c r="F127" s="96" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D128" s="96" t="s">
+        <v>655</v>
+      </c>
+      <c r="E128" s="96" t="s">
+        <v>656</v>
+      </c>
+      <c r="F128" s="96" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D129" s="96" t="s">
+        <v>658</v>
+      </c>
+      <c r="E129" s="96" t="s">
+        <v>659</v>
+      </c>
+      <c r="F129" s="96" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D130" s="96" t="s">
+        <v>661</v>
+      </c>
+      <c r="E130" s="96" t="s">
+        <v>662</v>
+      </c>
+      <c r="F130" s="96" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="4:6" ht="21">
+      <c r="D132" s="97" t="s">
+        <v>664</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D133" t="s">
+        <v>665</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D135" s="128" t="s">
+        <v>666</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="4:6" ht="121.5">
+      <c r="D136" s="96"/>
+      <c r="E136" s="138" t="s">
+        <v>676</v>
+      </c>
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D137" s="143" t="s">
+        <v>673</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="4:6" ht="21">
+      <c r="D139" s="97" t="s">
+        <v>667</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D140" s="100" t="s">
+        <v>668</v>
+      </c>
+      <c r="F140" s="142" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6">
+      <c r="D141" s="96" t="s">
+        <v>669</v>
+      </c>
+      <c r="F141" s="96" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6">
+      <c r="D142" s="96" t="s">
+        <v>671</v>
+      </c>
+      <c r="F142" s="96" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6">
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D144" s="98" t="s">
+        <v>675</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="3:6">
+      <c r="D145" s="144" t="s">
+        <v>683</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="3:6" ht="15" customHeight="1">
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146" s="107"/>
+    </row>
+    <row r="147" spans="3:6" ht="21">
+      <c r="D147" s="97" t="s">
+        <v>632</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" s="107"/>
+    </row>
+    <row r="148" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D148" s="98" t="s">
+        <v>633</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" s="107"/>
+    </row>
+    <row r="149" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D149" s="98" t="s">
+        <v>634</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" s="107"/>
+    </row>
+    <row r="150" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D150" s="98" t="s">
+        <v>635</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" s="107"/>
+    </row>
+    <row r="151" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D151" s="98" t="s">
+        <v>636</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" s="107"/>
+    </row>
+    <row r="152" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152" s="107"/>
+    </row>
+    <row r="153" spans="3:6" ht="21">
+      <c r="D153" s="97" t="s">
+        <v>637</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153" s="107"/>
+    </row>
+    <row r="154" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D154" s="100" t="s">
+        <v>638</v>
+      </c>
+      <c r="E154" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F154" s="107"/>
+    </row>
+    <row r="155" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D155" s="96" t="s">
+        <v>639</v>
+      </c>
+      <c r="E155" s="96" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D156" s="96" t="s">
+        <v>640</v>
+      </c>
+      <c r="E156" s="96" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D157" s="96" t="s">
+        <v>641</v>
+      </c>
+      <c r="E157" s="96" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="159" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C159" s="128" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C160" s="145" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" ht="58.5" customHeight="1">
+      <c r="C161" s="135"/>
+      <c r="E161" s="107" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C162" s="145" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C163" s="146" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C164" s="146" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C165" s="146" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="167" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C167" s="128" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C169" s="129" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" ht="121.5">
+      <c r="E170" s="150" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C171" t="s">
+        <v>685</v>
+      </c>
+      <c r="D171"/>
+    </row>
+    <row r="172" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C172" s="100" t="s">
+        <v>638</v>
+      </c>
+      <c r="E172" s="100" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" ht="40.5">
+      <c r="C173" s="147" t="s">
+        <v>687</v>
+      </c>
+      <c r="E173" s="147" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" ht="26.25" customHeight="1">
+      <c r="C174" s="147" t="s">
+        <v>688</v>
+      </c>
+      <c r="E174" s="148" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="176" spans="3:5" s="105" customFormat="1">
+      <c r="C176" s="105" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C177" s="135" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C178" s="135" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" ht="132.75" customHeight="1">
+      <c r="D179" s="104" t="s">
+        <v>713</v>
+      </c>
+      <c r="E179" s="150" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" ht="40.5">
+      <c r="E180" s="150" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7" ht="21">
+      <c r="E181" s="97" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" ht="16.5" customHeight="1">
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="3:7" ht="16.5" customHeight="1">
+      <c r="E183" s="128" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7" ht="91.5" customHeight="1">
+      <c r="E184" s="151" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="185" spans="3:7" ht="21" customHeight="1">
+      <c r="E185" s="153" t="s">
+        <v>705</v>
+      </c>
+      <c r="G185" s="153"/>
+    </row>
+    <row r="186" spans="3:7" ht="21" customHeight="1">
+      <c r="E186" s="154" t="s">
+        <v>706</v>
+      </c>
+      <c r="G186" s="153"/>
+    </row>
+    <row r="187" spans="3:7" ht="21" customHeight="1">
+      <c r="E187" s="154" t="s">
+        <v>760</v>
+      </c>
+      <c r="G187" s="153"/>
+    </row>
+    <row r="188" spans="3:7" ht="21" customHeight="1">
+      <c r="E188" s="154" t="s">
+        <v>711</v>
+      </c>
+      <c r="G188" s="153"/>
+    </row>
+    <row r="189" spans="3:7" ht="21" customHeight="1">
+      <c r="E189" s="151"/>
+      <c r="G189" s="153"/>
+    </row>
+    <row r="190" spans="3:7" ht="18.75" customHeight="1">
+      <c r="D190" s="104" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="191" spans="3:7" ht="18.75" customHeight="1">
+      <c r="D191" s="100" t="s">
+        <v>638</v>
+      </c>
+      <c r="E191" s="142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="3:7" ht="18.75" customHeight="1">
+      <c r="D192" s="147" t="s">
+        <v>714</v>
+      </c>
+      <c r="E192" s="157" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="193" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D193" s="147" t="s">
+        <v>719</v>
+      </c>
+      <c r="E193" s="96" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D194" s="147" t="s">
+        <v>716</v>
+      </c>
+      <c r="E194" s="96" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6" ht="18.75" customHeight="1">
+      <c r="E195" s="151"/>
+    </row>
+    <row r="196" spans="4:6">
+      <c r="E196" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="197" spans="4:6" ht="57">
+      <c r="E197" s="158" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="198" spans="4:6" ht="14.25">
+      <c r="E198" s="151" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6" ht="14.25">
+      <c r="E199" s="151"/>
+    </row>
+    <row r="200" spans="4:6" ht="14.25">
+      <c r="E200" s="151" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6" ht="57">
+      <c r="E201" s="158" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6" ht="14.25">
+      <c r="E202" s="151" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6" ht="14.25">
+      <c r="E203" s="151"/>
+    </row>
+    <row r="204" spans="4:6" ht="14.25">
+      <c r="E204" s="151" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="205" spans="4:6" ht="57">
+      <c r="E205" s="158" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6" ht="14.25">
+      <c r="E206" s="151" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6" ht="18.75" customHeight="1">
+      <c r="E207" s="151"/>
+    </row>
+    <row r="208" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D208" s="97" t="s">
+        <v>732</v>
+      </c>
+      <c r="E208"/>
+      <c r="F208"/>
+    </row>
+    <row r="209" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+    </row>
+    <row r="210" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D210" s="142" t="s">
+        <v>733</v>
+      </c>
+      <c r="E210" s="142" t="s">
+        <v>734</v>
+      </c>
+      <c r="F210" s="142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D211" s="96" t="s">
+        <v>761</v>
+      </c>
+      <c r="E211" s="96" t="s">
+        <v>743</v>
+      </c>
+      <c r="F211" s="96" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="212" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D212" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="E212" s="96" t="s">
+        <v>736</v>
+      </c>
+      <c r="F212" s="96" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="213" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D213" s="99" t="s">
+        <v>738</v>
+      </c>
+      <c r="E213" s="96" t="s">
+        <v>739</v>
+      </c>
+      <c r="F213" s="96" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="214" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D214" s="159">
+        <v>1</v>
+      </c>
+      <c r="E214" s="96" t="s">
+        <v>741</v>
+      </c>
+      <c r="F214" s="96" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="215" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D215" s="159"/>
+      <c r="E215" s="96"/>
+      <c r="F215" s="96"/>
+    </row>
+    <row r="216" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D216" s="97" t="s">
+        <v>744</v>
+      </c>
+      <c r="E216"/>
+      <c r="F216" s="96"/>
+    </row>
+    <row r="217" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D217" s="98" t="s">
+        <v>745</v>
+      </c>
+      <c r="E217"/>
+      <c r="F217" s="96"/>
+    </row>
+    <row r="218" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218" s="96"/>
+    </row>
+    <row r="219" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D219" s="97" t="s">
+        <v>746</v>
+      </c>
+      <c r="E219"/>
+      <c r="F219" s="96"/>
+    </row>
+    <row r="220" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220" s="96"/>
+    </row>
+    <row r="221" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D221" s="100" t="s">
+        <v>747</v>
+      </c>
+      <c r="E221" s="100" t="s">
+        <v>748</v>
+      </c>
+      <c r="F221" s="96"/>
+    </row>
+    <row r="222" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D222" s="147" t="s">
+        <v>749</v>
+      </c>
+      <c r="E222" s="147" t="s">
+        <v>750</v>
+      </c>
+      <c r="F222" s="96"/>
+    </row>
+    <row r="223" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D223" s="147" t="s">
+        <v>751</v>
+      </c>
+      <c r="E223" s="147" t="s">
+        <v>752</v>
+      </c>
+      <c r="F223" s="96"/>
+    </row>
+    <row r="224" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D224" s="147" t="s">
+        <v>753</v>
+      </c>
+      <c r="E224" s="147" t="s">
+        <v>754</v>
+      </c>
+      <c r="F224" s="96"/>
+    </row>
+    <row r="225" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225" s="96"/>
+    </row>
+    <row r="226" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D226" t="s">
+        <v>755</v>
+      </c>
+      <c r="E226"/>
+      <c r="F226" s="96"/>
+    </row>
+    <row r="227" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227" s="96"/>
+    </row>
+    <row r="228" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D228" s="97" t="s">
+        <v>756</v>
+      </c>
+      <c r="E228"/>
+      <c r="F228" s="96"/>
+    </row>
+    <row r="229" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D229" s="98"/>
+      <c r="E229"/>
+      <c r="F229" s="96"/>
+    </row>
+    <row r="230" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D230" s="98" t="s">
+        <v>757</v>
+      </c>
+      <c r="E230"/>
+      <c r="F230" s="96"/>
+    </row>
+    <row r="231" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D231" s="98" t="s">
+        <v>758</v>
+      </c>
+      <c r="E231"/>
+      <c r="F231" s="96"/>
+    </row>
+    <row r="232" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D232" s="98" t="s">
+        <v>759</v>
+      </c>
+      <c r="E232"/>
+      <c r="F232" s="96"/>
+    </row>
+    <row r="233" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D233" s="159"/>
+      <c r="E233" s="96"/>
+      <c r="F233" s="96"/>
+    </row>
+    <row r="234" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="235" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="236" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="E236" s="155" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="237" spans="4:6" s="152" customFormat="1" ht="14.25">
+      <c r="E237" s="156" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="238" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="D238" s="156" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="239" spans="4:6" s="152" customFormat="1" ht="71.25">
+      <c r="E239" s="160" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="240" spans="4:6" s="152" customFormat="1" ht="16.5" customHeight="1">
+      <c r="E240" s="155"/>
+    </row>
+    <row r="241" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E241" s="128"/>
+    </row>
+    <row r="242" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E242" s="128"/>
+    </row>
+    <row r="243" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E243" s="128"/>
+    </row>
+    <row r="244" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E244" s="128"/>
+    </row>
+    <row r="245" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E245" s="128"/>
+    </row>
+    <row r="246" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E246" s="128"/>
+    </row>
+    <row r="247" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E247" s="128"/>
+    </row>
+    <row r="248" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E248" s="128"/>
+    </row>
+    <row r="249" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="250" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C250" s="97" t="s">
+        <v>693</v>
+      </c>
+      <c r="D250"/>
+    </row>
+    <row r="251" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C251"/>
+      <c r="D251"/>
+    </row>
+    <row r="252" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C252" s="100" t="s">
+        <v>694</v>
+      </c>
+      <c r="E252" s="100" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="253" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C253" s="147" t="s">
+        <v>695</v>
+      </c>
+      <c r="E253" s="147" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="254" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C254" s="147" t="s">
+        <v>697</v>
+      </c>
+      <c r="E254" s="149" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="255" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C255" s="147" t="s">
+        <v>699</v>
+      </c>
+      <c r="E255" s="147" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="256" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="257" spans="2:6" ht="16.5" customHeight="1"/>
+    <row r="259" spans="2:6" ht="16.5">
+      <c r="B259" s="106" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" ht="19.5" customHeight="1">
+      <c r="C260" s="105" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6">
+      <c r="C261" s="105"/>
+      <c r="D261" s="104" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" ht="40.5">
+      <c r="E262" s="107" t="s">
+        <v>515</v>
+      </c>
+      <c r="F262" s="107"/>
+    </row>
+    <row r="263" spans="2:6" ht="21">
+      <c r="D263" s="109" t="s">
+        <v>529</v>
+      </c>
+      <c r="E263" s="107"/>
+      <c r="F263" s="107"/>
+    </row>
+    <row r="264" spans="2:6">
+      <c r="D264" s="112" t="s">
+        <v>530</v>
+      </c>
+      <c r="E264" s="107"/>
+      <c r="F264" s="107"/>
+    </row>
+    <row r="265" spans="2:6">
+      <c r="D265" s="110" t="s">
+        <v>526</v>
+      </c>
+      <c r="E265" s="107"/>
+      <c r="F265" s="107"/>
+    </row>
+    <row r="266" spans="2:6">
+      <c r="D266" s="110"/>
+      <c r="E266" s="107"/>
+      <c r="F266" s="107"/>
+    </row>
+    <row r="267" spans="2:6">
+      <c r="D267" s="110" t="s">
+        <v>527</v>
+      </c>
+      <c r="E267" s="111">
+        <v>100</v>
+      </c>
+      <c r="F267" s="107"/>
+    </row>
+    <row r="268" spans="2:6">
+      <c r="D268" s="110"/>
+      <c r="E268" s="111" t="s">
+        <v>528</v>
+      </c>
+      <c r="F268" s="107"/>
+    </row>
+    <row r="269" spans="2:6">
+      <c r="E269" s="113">
+        <v>45869</v>
+      </c>
+      <c r="F269" s="107"/>
+    </row>
+    <row r="270" spans="2:6">
+      <c r="E270" s="107"/>
+      <c r="F270" s="107"/>
+    </row>
+    <row r="271" spans="2:6">
+      <c r="C271" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6">
+      <c r="C272" s="104" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="C273" s="105" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="21">
+      <c r="A275" s="103" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="C276" s="105" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="C277" s="104" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="C278" s="104" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="D279" s="104" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="60">
+      <c r="E280" s="114" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="C281" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="C282" s="104" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="C283" s="104" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="C284" s="105" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="21">
+      <c r="A286" s="103" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="C287" s="108"/>
+      <c r="D287" s="108"/>
+      <c r="E287" s="108"/>
+    </row>
+    <row r="288" spans="1:5" ht="27">
+      <c r="C288" s="115" t="s">
+        <v>548</v>
+      </c>
+      <c r="D288" s="115" t="s">
+        <v>549</v>
+      </c>
+      <c r="E288" s="115" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C289" s="116" t="s">
+        <v>531</v>
+      </c>
+      <c r="D289" s="117" t="s">
+        <v>551</v>
+      </c>
+      <c r="E289" s="118" t="s">
+        <v>559</v>
+      </c>
+      <c r="G289" s="119"/>
+      <c r="H289" s="119"/>
+      <c r="I289" s="119"/>
+    </row>
+    <row r="290" spans="1:9" ht="63" customHeight="1">
+      <c r="C290" s="116" t="s">
+        <v>557</v>
+      </c>
+      <c r="D290" s="117" t="s">
+        <v>556</v>
+      </c>
+      <c r="E290" s="120" t="s">
+        <v>560</v>
+      </c>
+      <c r="G290" s="121"/>
+      <c r="H290" s="122"/>
+      <c r="I290" s="123"/>
+    </row>
+    <row r="291" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C291" s="116" t="s">
+        <v>558</v>
+      </c>
+      <c r="D291" s="117" t="s">
+        <v>552</v>
+      </c>
+      <c r="E291" s="124" t="s">
+        <v>561</v>
+      </c>
+      <c r="G291" s="121"/>
+      <c r="H291" s="122"/>
+      <c r="I291" s="122"/>
+    </row>
+    <row r="292" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C292" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="D292" s="125" t="s">
+        <v>563</v>
+      </c>
+      <c r="E292" s="125" t="s">
+        <v>562</v>
+      </c>
+      <c r="G292" s="121"/>
+      <c r="H292" s="122"/>
+      <c r="I292" s="122"/>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="C293" s="126"/>
+      <c r="D293" s="126"/>
+    </row>
+    <row r="294" spans="1:9" ht="21">
+      <c r="A294" s="109" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" s="108"/>
+    </row>
+    <row r="296" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A296" s="108" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A297" s="110"/>
+    </row>
+    <row r="298" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A298" s="112" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A299" s="111" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A300" s="108"/>
+    </row>
+    <row r="301" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A301" s="127"/>
+      <c r="C301" s="127" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A302" s="127"/>
+      <c r="C302" s="127" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="304" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A304" s="112" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A305" s="110" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A306" s="110" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A307" s="112" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A308" s="112" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A309" s="108"/>
+    </row>
+    <row r="310" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A310" s="127"/>
+      <c r="C310" s="127" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A311" s="127"/>
+      <c r="C311" s="127" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C312" s="127" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="314" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A314" s="104" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A315" s="104" t="s">
+        <v>547</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C96:E96"/>
+  </mergeCells>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="78" max="6" man="1"/>
+    <brk id="258" max="6" man="1"/>
+    <brk id="293" max="6" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51707CCA-56F2-4939-9226-000C3D95DDAF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11029,11 +15199,11 @@
       </c>
     </row>
     <row r="100" spans="2:6" ht="16.5" customHeight="1">
-      <c r="C100" s="144" t="s">
+      <c r="C100" s="162" t="s">
         <v>523</v>
       </c>
-      <c r="D100" s="144"/>
-      <c r="E100" s="144"/>
+      <c r="D100" s="162"/>
+      <c r="E100" s="162"/>
     </row>
     <row r="102" spans="2:6" ht="16.5">
       <c r="B102" s="106" t="s">
@@ -11370,7 +15540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11990,7 +16160,7 @@
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
-      <c r="F70" s="148" t="s">
+      <c r="F70" s="166" t="s">
         <v>211</v>
       </c>
     </row>
@@ -12002,7 +16172,7 @@
         <v>393</v>
       </c>
       <c r="D71" s="31"/>
-      <c r="F71" s="148"/>
+      <c r="F71" s="166"/>
     </row>
     <row r="72" spans="1:6" ht="27">
       <c r="C72" s="58" t="s">
@@ -12014,7 +16184,7 @@
       <c r="E72" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="148"/>
+      <c r="F72" s="166"/>
     </row>
     <row r="73" spans="1:6" ht="40.5">
       <c r="C73" s="58" t="s">
@@ -12026,7 +16196,7 @@
       <c r="E73" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F73" s="148"/>
+      <c r="F73" s="166"/>
     </row>
     <row r="74" spans="1:6" ht="40.5">
       <c r="B74" s="31"/>
@@ -12039,7 +16209,7 @@
       <c r="E74" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F74" s="148"/>
+      <c r="F74" s="166"/>
     </row>
     <row r="75" spans="1:6" ht="27">
       <c r="B75" s="31"/>
@@ -12052,7 +16222,7 @@
       <c r="E75" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F75" s="148"/>
+      <c r="F75" s="166"/>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="31"/>
@@ -12082,7 +16252,7 @@
       <c r="D79" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E79" s="146" t="s">
+      <c r="E79" s="164" t="s">
         <v>362</v>
       </c>
     </row>
@@ -12094,7 +16264,7 @@
       <c r="D80" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E80" s="146"/>
+      <c r="E80" s="164"/>
     </row>
     <row r="81" spans="2:6" ht="27">
       <c r="B81" s="31"/>
@@ -12104,7 +16274,7 @@
       <c r="D81" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="146"/>
+      <c r="E81" s="164"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="31"/>
@@ -12128,7 +16298,7 @@
       <c r="E84" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F84" s="146" t="s">
+      <c r="F84" s="164" t="s">
         <v>246</v>
       </c>
     </row>
@@ -12143,7 +16313,7 @@
       <c r="E85" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F85" s="146"/>
+      <c r="F85" s="164"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -12156,7 +16326,7 @@
       <c r="E86" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F86" s="146"/>
+      <c r="F86" s="164"/>
     </row>
     <row r="87" spans="2:6" ht="27">
       <c r="B87" s="31"/>
@@ -12169,7 +16339,7 @@
       <c r="E87" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F87" s="146"/>
+      <c r="F87" s="164"/>
     </row>
     <row r="88" spans="2:6" ht="27">
       <c r="B88" s="31"/>
@@ -12182,7 +16352,7 @@
       <c r="E88" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F88" s="146"/>
+      <c r="F88" s="164"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="31"/>
@@ -12206,7 +16376,7 @@
       <c r="E91" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F91" s="146" t="s">
+      <c r="F91" s="164" t="s">
         <v>247</v>
       </c>
     </row>
@@ -12220,7 +16390,7 @@
       <c r="E92" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="146"/>
+      <c r="F92" s="164"/>
     </row>
     <row r="93" spans="2:6">
       <c r="C93" s="31"/>
@@ -12233,10 +16403,10 @@
       <c r="D94" s="31"/>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="149" t="s">
+      <c r="B95" s="167" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="150" t="s">
+      <c r="C95" s="168" t="s">
         <v>398</v>
       </c>
       <c r="D95" s="58" t="s">
@@ -12244,115 +16414,115 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="146"/>
-      <c r="C96" s="150"/>
+      <c r="B96" s="164"/>
+      <c r="C96" s="168"/>
       <c r="D96" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="146"/>
-      <c r="C97" s="150"/>
+      <c r="B97" s="164"/>
+      <c r="C97" s="168"/>
       <c r="D97" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="27">
-      <c r="B98" s="146"/>
-      <c r="C98" s="150"/>
+      <c r="B98" s="164"/>
+      <c r="C98" s="168"/>
       <c r="D98" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="27">
-      <c r="B99" s="146"/>
-      <c r="C99" s="150"/>
+      <c r="B99" s="164"/>
+      <c r="C99" s="168"/>
       <c r="D99" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="146"/>
-      <c r="C100" s="150"/>
+      <c r="B100" s="164"/>
+      <c r="C100" s="168"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="145" t="s">
+      <c r="C101" s="163" t="s">
         <v>262</v>
       </c>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="145"/>
+      <c r="C102" s="163"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="145"/>
+      <c r="C103" s="163"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="145"/>
+      <c r="C104" s="163"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="145"/>
+      <c r="C105" s="163"/>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="145"/>
+      <c r="C106" s="163"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="145" t="s">
+      <c r="C107" s="163" t="s">
         <v>263</v>
       </c>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="145"/>
+      <c r="C108" s="163"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="145"/>
+      <c r="C109" s="163"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="145"/>
+      <c r="C110" s="163"/>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="145"/>
+      <c r="C111" s="163"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4" ht="27">
       <c r="B112" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="145" t="s">
+      <c r="C112" s="163" t="s">
         <v>264</v>
       </c>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="145"/>
+      <c r="C113" s="163"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="145"/>
+      <c r="C114" s="163"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" s="145"/>
+      <c r="C115" s="163"/>
       <c r="D115" s="31"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" s="145"/>
+      <c r="C116" s="163"/>
       <c r="D116" s="31"/>
     </row>
     <row r="117" spans="1:4">
@@ -12385,30 +16555,30 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="146" t="s">
+      <c r="B121" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="C121" s="146"/>
+      <c r="C121" s="164"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="146"/>
-      <c r="C122" s="146"/>
+      <c r="B122" s="164"/>
+      <c r="C122" s="164"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="146"/>
-      <c r="C123" s="146"/>
+      <c r="B123" s="164"/>
+      <c r="C123" s="164"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="B124" s="146"/>
-      <c r="C124" s="146"/>
+      <c r="B124" s="164"/>
+      <c r="C124" s="164"/>
       <c r="D124" s="31"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="B125" s="146"/>
-      <c r="C125" s="146"/>
+      <c r="B125" s="164"/>
+      <c r="C125" s="164"/>
       <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" ht="40.5">
@@ -13003,10 +17173,10 @@
       </c>
     </row>
     <row r="196" spans="3:4" ht="51" customHeight="1">
-      <c r="C196" s="147" t="s">
+      <c r="C196" s="165" t="s">
         <v>439</v>
       </c>
-      <c r="D196" s="147"/>
+      <c r="D196" s="165"/>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" s="77" t="s">
@@ -13038,7 +17208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13625,7 +17795,7 @@
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="F68" s="148" t="s">
+      <c r="F68" s="166" t="s">
         <v>211</v>
       </c>
     </row>
@@ -13637,7 +17807,7 @@
         <v>393</v>
       </c>
       <c r="D69" s="31"/>
-      <c r="F69" s="148"/>
+      <c r="F69" s="166"/>
     </row>
     <row r="70" spans="1:6" ht="27">
       <c r="C70" s="58" t="s">
@@ -13649,7 +17819,7 @@
       <c r="E70" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="148"/>
+      <c r="F70" s="166"/>
     </row>
     <row r="71" spans="1:6" ht="40.5">
       <c r="C71" s="58" t="s">
@@ -13661,7 +17831,7 @@
       <c r="E71" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F71" s="148"/>
+      <c r="F71" s="166"/>
     </row>
     <row r="72" spans="1:6" ht="40.5">
       <c r="B72" s="31"/>
@@ -13674,7 +17844,7 @@
       <c r="E72" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="148"/>
+      <c r="F72" s="166"/>
     </row>
     <row r="73" spans="1:6" ht="27">
       <c r="B73" s="31"/>
@@ -13687,7 +17857,7 @@
       <c r="E73" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F73" s="148"/>
+      <c r="F73" s="166"/>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="31"/>
@@ -13717,7 +17887,7 @@
       <c r="D77" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E77" s="146" t="s">
+      <c r="E77" s="164" t="s">
         <v>362</v>
       </c>
     </row>
@@ -13729,7 +17899,7 @@
       <c r="D78" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E78" s="146"/>
+      <c r="E78" s="164"/>
     </row>
     <row r="79" spans="1:6" ht="27">
       <c r="B79" s="31"/>
@@ -13739,7 +17909,7 @@
       <c r="D79" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E79" s="146"/>
+      <c r="E79" s="164"/>
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="31"/>
@@ -13763,7 +17933,7 @@
       <c r="E82" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="146" t="s">
+      <c r="F82" s="164" t="s">
         <v>246</v>
       </c>
     </row>
@@ -13778,7 +17948,7 @@
       <c r="E83" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F83" s="146"/>
+      <c r="F83" s="164"/>
     </row>
     <row r="84" spans="2:6" ht="27">
       <c r="B84" s="31"/>
@@ -13791,7 +17961,7 @@
       <c r="E84" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F84" s="146"/>
+      <c r="F84" s="164"/>
     </row>
     <row r="85" spans="2:6" ht="27">
       <c r="B85" s="31"/>
@@ -13804,7 +17974,7 @@
       <c r="E85" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F85" s="146"/>
+      <c r="F85" s="164"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -13817,7 +17987,7 @@
       <c r="E86" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F86" s="146"/>
+      <c r="F86" s="164"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="31"/>
@@ -13841,7 +18011,7 @@
       <c r="E89" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F89" s="146" t="s">
+      <c r="F89" s="164" t="s">
         <v>247</v>
       </c>
     </row>
@@ -13855,7 +18025,7 @@
       <c r="E90" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F90" s="146"/>
+      <c r="F90" s="164"/>
     </row>
     <row r="91" spans="2:6">
       <c r="C91" s="31"/>
@@ -13868,10 +18038,10 @@
       <c r="D92" s="31"/>
     </row>
     <row r="93" spans="2:6" ht="27">
-      <c r="B93" s="149" t="s">
+      <c r="B93" s="167" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="150" t="s">
+      <c r="C93" s="168" t="s">
         <v>398</v>
       </c>
       <c r="D93" s="58" t="s">
@@ -13879,115 +18049,115 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="27">
-      <c r="B94" s="146"/>
-      <c r="C94" s="150"/>
+      <c r="B94" s="164"/>
+      <c r="C94" s="168"/>
       <c r="D94" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="146"/>
-      <c r="C95" s="150"/>
+      <c r="B95" s="164"/>
+      <c r="C95" s="168"/>
       <c r="D95" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="146"/>
-      <c r="C96" s="150"/>
+      <c r="B96" s="164"/>
+      <c r="C96" s="168"/>
       <c r="D96" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="146"/>
-      <c r="C97" s="150"/>
+      <c r="B97" s="164"/>
+      <c r="C97" s="168"/>
       <c r="D97" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="146"/>
-      <c r="C98" s="150"/>
+      <c r="B98" s="164"/>
+      <c r="C98" s="168"/>
       <c r="D98" s="31"/>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="145" t="s">
+      <c r="C99" s="163" t="s">
         <v>262</v>
       </c>
       <c r="D99" s="31"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="145"/>
+      <c r="C100" s="163"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="145"/>
+      <c r="C101" s="163"/>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="145"/>
+      <c r="C102" s="163"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="145"/>
+      <c r="C103" s="163"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="145"/>
+      <c r="C104" s="163"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="145" t="s">
+      <c r="C105" s="163" t="s">
         <v>263</v>
       </c>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="145"/>
+      <c r="C106" s="163"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="145"/>
+      <c r="C107" s="163"/>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="145"/>
+      <c r="C108" s="163"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="145"/>
+      <c r="C109" s="163"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4" ht="27">
       <c r="B110" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="145" t="s">
+      <c r="C110" s="163" t="s">
         <v>264</v>
       </c>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="145"/>
+      <c r="C111" s="163"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="145"/>
+      <c r="C112" s="163"/>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="145"/>
+      <c r="C113" s="163"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="145"/>
+      <c r="C114" s="163"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
@@ -14020,30 +18190,30 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="B119" s="146" t="s">
+      <c r="B119" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="146"/>
+      <c r="C119" s="164"/>
       <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="B120" s="146"/>
-      <c r="C120" s="146"/>
+      <c r="B120" s="164"/>
+      <c r="C120" s="164"/>
       <c r="D120" s="31"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="146"/>
-      <c r="C121" s="146"/>
+      <c r="B121" s="164"/>
+      <c r="C121" s="164"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="146"/>
-      <c r="C122" s="146"/>
+      <c r="B122" s="164"/>
+      <c r="C122" s="164"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="146"/>
-      <c r="C123" s="146"/>
+      <c r="B123" s="164"/>
+      <c r="C123" s="164"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4" ht="40.5">
@@ -14638,10 +18808,10 @@
       </c>
     </row>
     <row r="194" spans="3:4" ht="51" customHeight="1">
-      <c r="C194" s="147" t="s">
+      <c r="C194" s="165" t="s">
         <v>439</v>
       </c>
-      <c r="D194" s="147"/>
+      <c r="D194" s="165"/>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" s="77" t="s">
@@ -14673,7 +18843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -15257,7 +19427,7 @@
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
-      <c r="F67" s="155" t="s">
+      <c r="F67" s="173" t="s">
         <v>211</v>
       </c>
     </row>
@@ -15269,7 +19439,7 @@
         <v>238</v>
       </c>
       <c r="D68" s="18"/>
-      <c r="F68" s="155"/>
+      <c r="F68" s="173"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
       <c r="C69" s="33" t="s">
@@ -15281,7 +19451,7 @@
       <c r="E69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="156"/>
+      <c r="F69" s="174"/>
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1">
       <c r="C70" s="33" t="s">
@@ -15293,7 +19463,7 @@
       <c r="E70" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="156"/>
+      <c r="F70" s="174"/>
     </row>
     <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="B71" s="18"/>
@@ -15306,7 +19476,7 @@
       <c r="E71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F71" s="156"/>
+      <c r="F71" s="174"/>
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
       <c r="B72" s="18"/>
@@ -15319,7 +19489,7 @@
       <c r="E72" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="156"/>
+      <c r="F72" s="174"/>
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="B73" s="18"/>
@@ -15349,7 +19519,7 @@
       <c r="D76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="153" t="s">
+      <c r="E76" s="171" t="s">
         <v>220</v>
       </c>
     </row>
@@ -15361,7 +19531,7 @@
       <c r="D77" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="154"/>
+      <c r="E77" s="172"/>
     </row>
     <row r="78" spans="1:6" ht="21" customHeight="1">
       <c r="B78" s="18"/>
@@ -15371,7 +19541,7 @@
       <c r="D78" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="154"/>
+      <c r="E78" s="172"/>
     </row>
     <row r="79" spans="1:6" ht="21" customHeight="1">
       <c r="B79" s="18"/>
@@ -15395,7 +19565,7 @@
       <c r="E81" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="153" t="s">
+      <c r="F81" s="171" t="s">
         <v>246</v>
       </c>
     </row>
@@ -15410,7 +19580,7 @@
       <c r="E82" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F82" s="154"/>
+      <c r="F82" s="172"/>
     </row>
     <row r="83" spans="2:6" ht="21" customHeight="1">
       <c r="B83" s="18"/>
@@ -15423,7 +19593,7 @@
       <c r="E83" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="154"/>
+      <c r="F83" s="172"/>
     </row>
     <row r="84" spans="2:6" ht="21" customHeight="1">
       <c r="B84" s="18"/>
@@ -15436,7 +19606,7 @@
       <c r="E84" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="154"/>
+      <c r="F84" s="172"/>
     </row>
     <row r="85" spans="2:6" ht="21" customHeight="1">
       <c r="B85" s="18"/>
@@ -15449,7 +19619,7 @@
       <c r="E85" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F85" s="154"/>
+      <c r="F85" s="172"/>
     </row>
     <row r="86" spans="2:6" ht="21" customHeight="1">
       <c r="B86" s="18"/>
@@ -15473,7 +19643,7 @@
       <c r="E88" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F88" s="153" t="s">
+      <c r="F88" s="171" t="s">
         <v>247</v>
       </c>
     </row>
@@ -15487,7 +19657,7 @@
       <c r="E89" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="154"/>
+      <c r="F89" s="172"/>
     </row>
     <row r="90" spans="2:6" ht="21" customHeight="1">
       <c r="C90" s="18"/>
@@ -15500,10 +19670,10 @@
       <c r="D91" s="18"/>
     </row>
     <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="B92" s="157" t="s">
+      <c r="B92" s="175" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="158" t="s">
+      <c r="C92" s="176" t="s">
         <v>265</v>
       </c>
       <c r="D92" s="33" t="s">
@@ -15511,115 +19681,115 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="B93" s="154"/>
-      <c r="C93" s="159"/>
+      <c r="B93" s="172"/>
+      <c r="C93" s="177"/>
       <c r="D93" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="B94" s="154"/>
-      <c r="C94" s="159"/>
+      <c r="B94" s="172"/>
+      <c r="C94" s="177"/>
       <c r="D94" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="B95" s="154"/>
-      <c r="C95" s="159"/>
+      <c r="B95" s="172"/>
+      <c r="C95" s="177"/>
       <c r="D95" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="154"/>
-      <c r="C96" s="159"/>
+      <c r="B96" s="172"/>
+      <c r="C96" s="177"/>
       <c r="D96" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="B97" s="154"/>
-      <c r="C97" s="159"/>
+      <c r="B97" s="172"/>
+      <c r="C97" s="177"/>
       <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" ht="21" customHeight="1">
       <c r="B98" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="151" t="s">
+      <c r="C98" s="169" t="s">
         <v>262</v>
       </c>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="C99" s="152"/>
+      <c r="C99" s="170"/>
       <c r="D99" s="18"/>
     </row>
     <row r="100" spans="2:4" ht="21" customHeight="1">
-      <c r="C100" s="152"/>
+      <c r="C100" s="170"/>
       <c r="D100" s="18"/>
     </row>
     <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="C101" s="152"/>
+      <c r="C101" s="170"/>
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="152"/>
+      <c r="C102" s="170"/>
       <c r="D102" s="18"/>
     </row>
     <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="152"/>
+      <c r="C103" s="170"/>
       <c r="D103" s="18"/>
     </row>
     <row r="104" spans="2:4" ht="21" customHeight="1">
       <c r="B104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C104" s="151" t="s">
+      <c r="C104" s="169" t="s">
         <v>263</v>
       </c>
       <c r="D104" s="18"/>
     </row>
     <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="C105" s="152"/>
+      <c r="C105" s="170"/>
       <c r="D105" s="18"/>
     </row>
     <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="C106" s="152"/>
+      <c r="C106" s="170"/>
       <c r="D106" s="18"/>
     </row>
     <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="C107" s="152"/>
+      <c r="C107" s="170"/>
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="2:4" ht="33" customHeight="1">
-      <c r="C108" s="152"/>
+      <c r="C108" s="170"/>
       <c r="D108" s="18"/>
     </row>
     <row r="109" spans="2:4" ht="21" customHeight="1">
       <c r="B109" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="151" t="s">
+      <c r="C109" s="169" t="s">
         <v>264</v>
       </c>
       <c r="D109" s="18"/>
     </row>
     <row r="110" spans="2:4" ht="21" customHeight="1">
-      <c r="C110" s="152"/>
+      <c r="C110" s="170"/>
       <c r="D110" s="18"/>
     </row>
     <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="C111" s="152"/>
+      <c r="C111" s="170"/>
       <c r="D111" s="18"/>
     </row>
     <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="C112" s="152"/>
+      <c r="C112" s="170"/>
       <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="C113" s="152"/>
+      <c r="C113" s="170"/>
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="21" customHeight="1">
@@ -15651,30 +19821,30 @@
       <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="153" t="s">
+      <c r="B118" s="171" t="s">
         <v>261</v>
       </c>
-      <c r="C118" s="154"/>
+      <c r="C118" s="172"/>
       <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="154"/>
-      <c r="C119" s="154"/>
+      <c r="B119" s="172"/>
+      <c r="C119" s="172"/>
       <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="154"/>
-      <c r="C120" s="154"/>
+      <c r="B120" s="172"/>
+      <c r="C120" s="172"/>
       <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" ht="21" customHeight="1">
-      <c r="B121" s="154"/>
-      <c r="C121" s="154"/>
+      <c r="B121" s="172"/>
+      <c r="C121" s="172"/>
       <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" ht="21" customHeight="1">
-      <c r="B122" s="154"/>
-      <c r="C122" s="154"/>
+      <c r="B122" s="172"/>
+      <c r="C122" s="172"/>
       <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" ht="21" customHeight="1">
@@ -16308,7 +20478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -16388,7 +20558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\maruaican\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0D4B88-620F-419F-91CC-8A66F84CA587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0595563D-FAF9-42AF-B397-247CD102C42C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">サブクエリ!$A$1:$G$159</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'サブクエリ (2)'!$A$1:$G$316</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (3)'!$A$1:$G$439</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (3)'!$A$1:$G$660</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1073">
   <si>
     <t>分類</t>
   </si>
@@ -8684,9 +8684,6 @@
     </r>
   </si>
   <si>
-    <t>✅ 補足：再帰SQLによる上位上司の一覧取得（PostgreSQL例）</t>
-  </si>
-  <si>
     <t xml:space="preserve">WITH RECURSIVE 上司チェーン(社員ID, 氏名, 上司ID, 深さ) AS (
     SELECT 社員ID, 氏名, 上司ID, 1
     FROM 社員
@@ -9172,12 +9169,2743 @@
       <t>のが推奨されている。</t>
     </r>
   </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 結論（再掲）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>注意点と誤答の原因</t>
+  </si>
+  <si>
+    <t>注意点</t>
+  </si>
+  <si>
+    <t>5-1. サブクエリに別名を付け忘れる</t>
+  </si>
+  <si>
+    <r>
+      <t>FROM句サブクエリは「一時表」として扱うため、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>別名が必須</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。SQLエラーになる。</t>
+    </r>
+  </si>
+  <si>
+    <t>5-2. 派生表のスコープ誤認</t>
+  </si>
+  <si>
+    <r>
+      <t>外側のSELECTでは、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サブクエリ内の列しか参照できない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。テーブル名と項目名の関係を正確に把握すること。</t>
+    </r>
+  </si>
+  <si>
+    <t>5-3. 複雑な集計構文との混同</t>
+  </si>
+  <si>
+    <t>集計関数を含むサブクエリでは、外側で再度GROUP BYやJOINを行うこともある。構文のネストに注意。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ネスト構文は入れ子構造とも呼ばれ、外側の構文要素（親要素）の中に内側の構文要素（子要素）を記述する形式です。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>この構造により、複雑な処理やデータ構造を表現できます。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>２－３．SELECT句サブクエリ（スカラサブクエリ）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>１．スカラサブクエリの基礎</t>
+  </si>
+  <si>
+    <t>１－１．定義</t>
+  </si>
+  <si>
+    <t>**スカラサブクエリ（scalar subquery）**とは：</t>
+  </si>
+  <si>
+    <r>
+      <t>SELECT句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に記述されるサブクエリ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>単一の値（スカラー値）を返す副問い合わせ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>１－２．使用目的</t>
+  </si>
+  <si>
+    <r>
+      <t>他のテーブルから</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集計値や関連情報を取り出し、列として表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>する。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>「従属問い合わせ」となり、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外側のクエリ（主問い合わせ）の行ごとに評価される</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（行単位評価）。</t>
+    </r>
+  </si>
+  <si>
+    <t>２．スカラサブクエリの分類</t>
+  </si>
+  <si>
+    <t>２－１．集計関数を含むスカラサブクエリ</t>
+  </si>
+  <si>
+    <t>（１）主クエリと独立した形（非相関サブクエリ）</t>
+  </si>
+  <si>
+    <r>
+      <t>サブクエリが外部クエリと</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>無関係</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に1回だけ実行される。</t>
+    </r>
+  </si>
+  <si>
+    <t>全社員の平均給与を各社員の行に付加して表示。</t>
+  </si>
+  <si>
+    <r>
+      <t>全社員に同じ値が表示される</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>（２）主クエリと関連する形（相関サブクエリ）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT
+  社員名,
+  (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SELECT AVG(給与) FROM 社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">) AS 全社平均給与
+FROM 社員;
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT 
+ 社員名, 
+ 給与,
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SELECT AVG(給与)
+ FROM 社員 AS 同部署
+ WHERE 同部署.部署ID = 社員.部署ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">) AS 部署平均給与
+FROM 社員;
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>サブクエリが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主クエリの各行ごとに実行される（相関）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>「同じ部署内の平均給与」を求め、社員ごとに異なる値となる。</t>
+  </si>
+  <si>
+    <r>
+      <t>相関サブクエリの典型例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">同部署.部署ID = 社員.部署ID という条件は、同じ社員テーブル内での「部署ID」が一致する行どうしを結び付けているだけです。
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ただし、これは単なる文字列の一致ではなく、「主問い合わせの行に含まれる部署IDと同じ部署IDを持つ社員全体」を対象に集計するという意味的な意図を持っています。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>主クエリ（外側）</t>
+  </si>
+  <si>
+    <r>
+      <t>対象テーブル：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+  </si>
+  <si>
+    <t>各社員について「社員名」「給与」を取得し、さらに部署ごとの平均給与を算出する。</t>
+  </si>
+  <si>
+    <t>サブクエリ（内側）</t>
+  </si>
+  <si>
+    <r>
+      <t>対象テーブル：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（ただし別名 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>同部署</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を付けて区別）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">主クエリの </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>社員.部署ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> に一致する </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>同部署.部署ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を持つ社員を抽出。</t>
+    </r>
+  </si>
+  <si>
+    <t>その社員の給与の平均を返す。</t>
+  </si>
+  <si>
+    <t>構文的には</t>
+  </si>
+  <si>
+    <r>
+      <t>単に、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同じ社員テーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>から部署IDが一致する行を絞っているだけ。</t>
+    </r>
+  </si>
+  <si>
+    <t>意味的には</t>
+  </si>
+  <si>
+    <r>
+      <t>主クエリの社員が属する「部署」と</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同じ部署に所属する全社員の給与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を抽出して平均を求めている。</t>
+    </r>
+  </si>
+  <si>
+    <t>別名の理由</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">同じテーブル </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を内外で参照しているため、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>別名（エイリアス）を使って区別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>している。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※同部署</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>部署</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>部署</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の意味</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>主クエリの各行（＝各社員）に対して、</t>
+  </si>
+  <si>
+    <r>
+      <t>サブクエリが「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同じ部署IDを持つ社員の集合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を再検索する。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">その結果に対して </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>AVG(給与)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を計算。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>つまり、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主クエリの行に応じて毎回サブクエリの結果が変わる（=相関サブクエリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>相関サブクエリとしての動作</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>４．よくある誤解</t>
+  </si>
+  <si>
+    <t>「同じテーブル内だからJOINと同じでは？」</t>
+  </si>
+  <si>
+    <r>
+      <t>スカラサブクエリは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集計値の列追加が目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>であり、結合とは意味が異なる。</t>
+    </r>
+  </si>
+  <si>
+    <t>「単なる部署IDの文字列比較では？」</t>
+  </si>
+  <si>
+    <t>見かけはそうでも、実際は「意味的に所属部署グループを抽出」している。</t>
+  </si>
+  <si>
+    <t>検証用の具体例</t>
+  </si>
+  <si>
+    <t>部署ID</t>
+  </si>
+  <si>
+    <t>給与</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>社員テーブル（社員）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>このSQLを実行すると、以下のような結果になる：</t>
+  </si>
+  <si>
+    <t>部署平均給与</t>
+  </si>
+  <si>
+    <t>「部署A01の平均給与」は (300 + 400) ÷ 2 = 350</t>
+  </si>
+  <si>
+    <t>「部署B02の平均給与」は 500（1人しかいない）</t>
+  </si>
+  <si>
+    <r>
+      <t>同部署.部署ID = 社員.部署ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>見かけ上は自己テーブル内の値の一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>だが、</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>実際には</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行ごとの関連グループ（＝同じ部署）に対する集計処理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を意味している。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>よって、これは単なる文字列の一致ではなく、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>業務的意味（部署単位のグループ化）を伴う重要な処理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>である。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>相関スカラサブクエリによる部署平均給与の計算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を用いたクエリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に書き換えることが可能</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT　社員.社員名,　社員.給与, 部署別.部署平均給与
+FROM　 社員
+  JOIN (
+    SELECT 部署ID, AVG(給与) AS 部署平均給与
+    FROM 社員
+    GROUP BY 部署ID
+  ) AS 部署別
+  ON 社員.部署ID = 部署別.部署ID;
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>試験対策としての位置づけ</t>
+  </si>
+  <si>
+    <t>出題傾向</t>
+  </si>
+  <si>
+    <t>応用情報の午後問</t>
+  </si>
+  <si>
+    <r>
+      <t>スカラサブクエリを使った構文が頻出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（行ごとに処理される仕組みを理解させるため）</t>
+    </r>
+  </si>
+  <si>
+    <t>GROUP BYとの比較問題</t>
+  </si>
+  <si>
+    <t>「このスカラサブクエリをJOINで書き換えると？」という形式が出題されることがある</t>
+  </si>
+  <si>
+    <r>
+      <t>GROUP BYを使う場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社員ごとのレコードはJOINで再現する必要がある</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。単純にGROUP BYだけでは目的を満たさない。</t>
+    </r>
+  </si>
+  <si>
+    <t>どちらでも正解</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ SQL標準では </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>FROM (サブクエリ) AS 別名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> も </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>FROM (サブクエリ) 別名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> も有効。</t>
+    </r>
+  </si>
+  <si>
+    <t>省略形の方が試験でよく出る</t>
+  </si>
+  <si>
+    <r>
+      <t>→ IPA試験問題や参考書の多くは、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>互換性の観点から省略形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使うパターンが多い。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT 商品ID
+FROM 商品
+WHERE 価格 = (
+  SELECT 価格
+  FROM 商品
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> WHERE 価格 &gt; 1000 ※複数業を返すのでスカラーにならない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+);
+</t>
+    </r>
+    <rPh sb="74" eb="76">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ SQL標準では </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>FROM (サブクエリ) AS 別名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> も </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>FROM (サブクエリ) 別名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> も有効。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>→ IPA試験問題や参考書の多くは、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>互換性の観点から省略形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使うパターンが多い。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SELECT 注文ID, 顧客ID
+FROM 注文
+WHERE (
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> SELECT SUM(数量 * 単価)
+  FROM 注文明細</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+  WHERE 注文明細.注文ID = 注文.注文ID
+) &gt; (
+  SELECT AVG(合計)
+  FROM (
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  SELECT 注文ID, SUM(数量 * 単価) AS 合計
+    FROM 注文明細</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+    GROUP BY 注文ID
+  )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> AS 注文別合計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+);</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>FROM句の別名のAS　付けてもつけなくても　どちらでも正解</t>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベツメイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>２． IN／NOT IN, ANY, ALL など：複数行サブクエリ　※位置的には「＝」と同じ場所になる。ただ、複数行もOK</t>
+    <rPh sb="36" eb="39">
+      <t>イチテキ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>フクスウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SELECT 部署ID, 平均給与
+FROM ( SELECT 部署ID, AVG(給与) AS 平均給与
+       FROM 社員
+       GROUP BY 部署ID
+      ) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>部署別平均　※ASは、ないパターンがIPAではでる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+WHERE 平均給与 &gt;= 300000;
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>派生表（derived table）→MySQL系　　
+インラインビュー（inline view）→Oracle系</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>※ COUNT(*)　集約関数の場合は（＊）とかっこが必要。SELECT *は不要。というか。これがメタ文字として正しい使い方。</t>
+    <rPh sb="11" eb="13">
+      <t>シュウヤク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT 部署ID, 平均給与, 人数
+FROM (
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SELECT 部署ID, AVG(給与) AS 平均給与, COUNT(*) AS 人数
+    FROM 社員
+    GROUP BY 部署ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 部署別集計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WHERE 平均給与 &gt; 300000;
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>①HAVINGで人数の表示は可能な場合、②集計結果を外部で再利用したい場合の２つがある。</t>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>①例：平均給与が30万円を超える部署について、部署名と部署人数も表示したい</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>FROM</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT　部署ID, AVG(給与) AS 平均給与,　COUNT(*) AS 人数
+FROM　社員　
+GROUP BY　部署ID
+HAVING　   AVG(給与) &gt; 300000; </t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>HAVING</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>シンプルで試験的にも標準的</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>冗長</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>②　「いつFROM句サブクエリ（派生表）を使うべきか」—— 試験での判断基準</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>（１）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集計結果を他テーブルと結合したいとき</t>
+    </r>
+  </si>
+  <si>
+    <t>例：部署マスタから部署名を付けて出力する場合（派生表で集計 → 部署マスタとJOIN）</t>
+  </si>
+  <si>
+    <r>
+      <t>（２）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集計結果を複数回利用したいとき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（同じ集計値を別計算に何度も使う場合）</t>
+    </r>
+  </si>
+  <si>
+    <t>→ 同じ集計を何度も書くより一度派生表にして再利用した方が可読性・保守性が良い。</t>
+  </si>
+  <si>
+    <r>
+      <t>（３）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集計結果（列）を外側の WHERE で扱いたいとき</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注：同じSELECTレベルでの </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は集計結果に適用できないため、外側に派生表を作ってから </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を書く方法が使える。</t>
+    </r>
+  </si>
+  <si>
+    <t>（ただし、単純な「集約の条件付け」であればHAVINGで済む）</t>
+  </si>
+  <si>
+    <r>
+      <t>（４）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>複雑な比較（別の集計テーブルとの比較など）や複数ステップの集計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をするとき</t>
+    </r>
+  </si>
+  <si>
+    <t>→ 中間結果を一時表として扱うのが自然。</t>
+  </si>
+  <si>
+    <t>４　よくある誤解と注意点（試験で落ちやすいポイント）</t>
+  </si>
+  <si>
+    <r>
+      <t>誤り：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 「集計列の別名（AS 平均給与）を同じSELECT内の WHERE で使える」 → 使えない。集計条件はHAVINGへ。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>誤り：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FROM句サブクエリに別名を付けない → 多くのDBで構文エラー。別名は必須（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はDBによる）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 実務的には可読性とパフォーマンスを考慮して選ぶ。試験では「要求どおり最小の構文」で書くのが有利。</t>
+    </r>
+  </si>
+  <si>
+    <t>５　試験での解き方の指針（短く）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">問題が「部署ID、平均給与、人数 を求めよ／平均給与が30万超の部署を抽出せよ」なら → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HAVINGで十分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。最短・明示的で減点されにくい。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">問題が「部署名を出力せよ」や「集計結果を別の表と結合せよ」「集計結果を別の集計と比較せよ」なら → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>派生表（またはWITH句）を使う</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT
+    部署ID,
+    平均給与,
+    人数,
+    平均給与 / (SELECT AVG(給与) FROM 社員) AS 全体比
+FROM (
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  SELECT 部署ID, AVG(給与) AS 平均給与, COUNT(*) AS 人数
+    FROM 社員
+    GROUP BY 部署ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部署別集計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WHERE 平均給与 &gt; 300000;
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>論理的なSQLの実行順は</t>
+  </si>
+  <si>
+    <r>
+      <t>1. FROM句の処理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（テーブル・派生表の取得＋JOIN）</t>
+    </r>
+  </si>
+  <si>
+    <t>2. WHERE</t>
+  </si>
+  <si>
+    <t>3. GROUP BY</t>
+  </si>
+  <si>
+    <t>4. HAVING</t>
+  </si>
+  <si>
+    <t>5. SELECT句の出力列計算</t>
+  </si>
+  <si>
+    <t>6. ORDER BY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">今回のSQLでも、最初に </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM 部署マスタ m JOIN (派生表a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が実行され、そこから後のWHERE句 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.平均給与 &gt; 300000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> に進みます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JOINの中に置いても、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(SELECT...) a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM句に書かれたサブクエリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>であることに変わりありません。</t>
+    </r>
+  </si>
+  <si>
+    <t>※これがなぜFROM句といえるのか</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT m.部署名, a.平均給与, a.人数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM 部署マスタ m
+JOIN (
+  SELECT 部署ID, AVG(給与) AS 平均給与, COUNT(*) AS 人数
+  FROM 社員
+  GROUP BY 部署ID
+) a ON m.部署ID = a.部署ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WHERE a.平均給与 &gt; 300000;</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>FROM句サブクエリは、JOINの左右どちらにも置ける</t>
+  </si>
+  <si>
+    <r>
+      <t>別名は必須（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の部分）</t>
+    </r>
+  </si>
+  <si>
+    <t>この構文は「集計した結果を、マスタテーブルと結合する」典型パターンで頻出</t>
+  </si>
+  <si>
+    <t>HAVING句ではマスタテーブル列（部署名など）を直接参照できないため、このパターンが必要になることがある</t>
+  </si>
+  <si>
+    <t>※試験での理解ポイント</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>補足：再帰SQLによる上位上司の一覧取得（PostgreSQL例）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">内部のサブクエリで「部署ごとの平均給与」を GROUP BY で集計。
+その結果を、社員テーブルと部署IDで結合。
+各社員に、その所属部署の平均給与を紐づけて表示。
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 社員名, 給与,
+       給与 - (SELECT AVG(給与) FROM 社員) AS 平均差
+FROM 社員;
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>サブクエリの結果は、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1行1列（1つのデータ）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でなければならない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>複数行または複数列</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が返る場合はエラーとなる。</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT　社員名,  給与,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> AVG(給与) OVER (PARTITION BY 部署ID) AS 部署平均給与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+FROM 社員;
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>補足：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ウィンドウ関数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>による書き換え（参考）</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>３．相関サブクエリ（Correlated Subquery）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2-1　SELECT句に使う（相関スカラサブクエリ）</t>
+  </si>
+  <si>
+    <r>
+      <t>行ごとの追加計算や集計値表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に利用。</t>
+    </r>
+  </si>
+  <si>
+    <t>サブクエリは1行1列（スカラ値）を返す。</t>
+  </si>
+  <si>
+    <t>典型例：社員ごとの部署平均給与を表示する。</t>
+  </si>
+  <si>
+    <t>相関サブクエリの種類（試験頻出4分類）</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+  社員名,
+  給与,
+  (SELECT AVG(給与)
+   FROM 社員 AS 同部署
+   WHERE 同部署.部署ID = 社員.部署ID) AS 部署平均給与
+FROM 社員;
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>外側クエリの行数と同じ行数が返る。</t>
+  </si>
+  <si>
+    <r>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でまとめてもよいが、列として同時に表示したい場合は相関スカラサブクエリの方が直感的。</t>
+    </r>
+  </si>
+  <si>
+    <t>2-2　WHERE句に使う（比較演算子）</t>
+  </si>
+  <si>
+    <t>外側クエリの行ごとに、条件判定の基準値を内側クエリから取得。</t>
+  </si>
+  <si>
+    <t>典型例：部署平均より給与が高い社員を抽出。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 社員名, 給与
+FROM 社員
+WHERE 給与 &gt; (
+  SELECT AVG(給与)
+  FROM 社員 AS 同部署
+  WHERE 同部署.部署ID = 社員.部署ID
+);
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>比較演算子（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> など）と組み合わせる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>非相関型に書き換えると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で高速化できる場合が多い。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2-3　WHERE句に使う（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>存在確認型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の条件式。</t>
+    </r>
+  </si>
+  <si>
+    <t>内側クエリは値ではなく「行があるか」を返す。</t>
+  </si>
+  <si>
+    <t>典型例：注文を持つ社員だけを抽出。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 社員名
+FROM 社員
+WHERE EXISTS (
+  SELECT 1
+  FROM 注文
+  WHERE 注文.社員ID = 社員.社員ID
+);
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の「1」は意味はなく、存在確認のみが目的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NOT EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にすると「関連データが存在しない行」の抽出になる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>試験では</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>関連レコードの有無判定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で頻出。</t>
+    </r>
+  </si>
+  <si>
+    <t>2-4　HAVING句に使う</t>
+  </si>
+  <si>
+    <t>グループごとに、相関サブクエリを条件として利用。</t>
+  </si>
+  <si>
+    <t>典型例：部署の平均給与が、全社平均より高い部署だけを表示。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 部署ID, AVG(給与) AS 平均給与
+FROM 社員
+GROUP BY 部署ID
+HAVING AVG(給与) &gt; (
+  SELECT AVG(給与)
+  FROM 社員
+);
+</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>HAVING句内では、集計済みの値とサブクエリ結果を比較できる。</t>
+  </si>
+  <si>
+    <t>相関でなくても書ける場合があるが、「部署IDごとに外部条件と比較」する場合は相関になる。</t>
+  </si>
+  <si>
+    <t>相関サブクエリ</t>
+  </si>
+  <si>
+    <t>非相関サブクエリ</t>
+  </si>
+  <si>
+    <t>実行回数</t>
+  </si>
+  <si>
+    <t>外側の行数 × 内側クエリ実行</t>
+  </si>
+  <si>
+    <t>内側クエリは1回だけ</t>
+  </si>
+  <si>
+    <t>外部参照</t>
+  </si>
+  <si>
+    <t>あり（外側の列を参照）</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>処理速度</t>
+  </si>
+  <si>
+    <t>遅くなりやすい</t>
+  </si>
+  <si>
+    <t>速くなりやすい</t>
+  </si>
+  <si>
+    <t>試験の落とし穴</t>
+  </si>
+  <si>
+    <t>外部列参照を見落として非相関と誤認</t>
+  </si>
+  <si>
+    <t>集計値を固定値と勘違い</t>
+  </si>
+  <si>
+    <t>よくある誤答原因</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 外側クエリの列参照を見逃す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 相関と気づかない。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. スカラ値と複数行の混同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 比較演算子で複数行が返るとエラー。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. EXISTS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を値取得と誤解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → 実際は存在の有無しか見ない。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>外側の列が内側で参照されているか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をまず確認する。</t>
+    </r>
+  </si>
+  <si>
+    <t>相関は非相関に書き換え可能な場合が多く、SQLチューニングにも関連。</t>
+  </si>
+  <si>
+    <t>試験対策ポイント</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>応用情報試験の午後問題では、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>部署平均</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>社員ごとの順位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>注文有無判定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の3パターンが頻出。</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9509,6 +12237,56 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -9701,7 +12479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -10176,54 +12954,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -10269,6 +12999,107 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10576,10 +13407,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I438"/>
+  <dimension ref="A2:I658"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A364" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E363" sqref="E363:E369"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A607" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C614" sqref="C614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10672,2336 +13503,3646 @@
         <v>619</v>
       </c>
       <c r="G21" s="107" t="s">
-        <v>598</v>
+        <v>967</v>
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="D22" s="105" t="s">
-        <v>502</v>
+      <c r="E22" s="107"/>
+      <c r="G22" s="183" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="14.25">
+      <c r="E23" s="107"/>
+      <c r="G23" s="184" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="105" t="s">
-        <v>610</v>
+      <c r="E24" s="107"/>
+      <c r="G24" s="183" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="D25" s="104" t="s">
-        <v>605</v>
-      </c>
-      <c r="G25" s="108"/>
+      <c r="E25" s="107"/>
+      <c r="G25" s="184" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="E26" s="104" t="s">
-        <v>521</v>
-      </c>
-      <c r="G26" s="104" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="121.5">
-      <c r="E27" s="107" t="s">
-        <v>525</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>603</v>
-      </c>
+      <c r="E26" s="107"/>
+      <c r="G26" s="184"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="E27" s="107"/>
+      <c r="G27" s="184"/>
     </row>
     <row r="28" spans="3:7">
-      <c r="D28" s="105" t="s">
-        <v>503</v>
-      </c>
+      <c r="E28" s="107"/>
+      <c r="G28" s="184"/>
     </row>
     <row r="29" spans="3:7">
       <c r="D29" s="105" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="105" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="D32" s="104" t="s">
+        <v>605</v>
+      </c>
+      <c r="G32" s="108"/>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="E33" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="G33" s="104" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="121.5">
+      <c r="E34" s="107" t="s">
+        <v>525</v>
+      </c>
+      <c r="G34" s="107" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="E35" s="107"/>
+      <c r="G35" s="107"/>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="E36" s="107"/>
+      <c r="G36" s="107"/>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="E37" s="107"/>
+      <c r="G37" s="107"/>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="E38" s="107"/>
+      <c r="G38" s="107"/>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="E39" s="107"/>
+      <c r="G39" s="107"/>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="E40" s="107"/>
+      <c r="G40" s="107"/>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="E41" s="107"/>
+      <c r="G41" s="107"/>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="E42" s="107"/>
+      <c r="G42" s="107"/>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="E43" s="107"/>
+      <c r="G43" s="107"/>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="E44" s="107"/>
+      <c r="G44" s="107"/>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="E45" s="107"/>
+      <c r="G45" s="107"/>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="E46" s="107"/>
+      <c r="G46" s="107"/>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="D47" s="105" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="D48" s="105" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="3:7">
-      <c r="D30" s="105" t="s">
+    <row r="49" spans="3:5">
+      <c r="D49" s="105" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="3:7">
-      <c r="D31" s="105" t="s">
+    <row r="50" spans="3:5">
+      <c r="D50" s="105" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="105" t="s">
+    <row r="52" spans="3:5">
+      <c r="C52" s="105" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
-      <c r="E34" s="104" t="s">
+    <row r="53" spans="3:5">
+      <c r="E53" s="104" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="121.5">
-      <c r="E35" s="107" t="s">
+    <row r="54" spans="3:5" ht="121.5">
+      <c r="E54" s="107" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="37" spans="3:5" ht="14.25">
-      <c r="C37" s="137" t="s">
+    <row r="56" spans="3:5" ht="14.25">
+      <c r="C56" s="137" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="108"/>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="108" t="s">
+    <row r="57" spans="3:5">
+      <c r="C57" s="108"/>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" s="108" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="108"/>
-      <c r="D40" s="104" t="s">
+    <row r="59" spans="3:5">
+      <c r="C59" s="108"/>
+      <c r="D59" s="104" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="108">
-      <c r="E41" s="107" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="E42" s="104" t="s">
+    <row r="60" spans="3:5" ht="108">
+      <c r="E60" s="107" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="E61" s="104" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
-      <c r="D43" s="105" t="s">
+    <row r="62" spans="3:5">
+      <c r="D62" s="105" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="108" t="s">
+    <row r="63" spans="3:5">
+      <c r="C63" s="108" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="110"/>
-      <c r="D45" s="111" t="s">
+    <row r="64" spans="3:5">
+      <c r="C64" s="110"/>
+      <c r="D64" s="111" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="46" spans="3:5" ht="14.25">
-      <c r="C46" s="133"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="104" t="s">
+    <row r="65" spans="3:5" ht="14.25">
+      <c r="C65" s="133"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="104" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="94.5">
-      <c r="E47" s="107" t="s">
+    <row r="66" spans="3:5" ht="94.5">
+      <c r="E66" s="107" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
-      <c r="D48" s="104" t="s">
+    <row r="67" spans="3:5">
+      <c r="D67" s="104" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
-      <c r="D49" s="105" t="s">
+    <row r="68" spans="3:5">
+      <c r="D68" s="105" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="104" t="s">
+    <row r="69" spans="3:5">
+      <c r="C69" s="104" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="135" t="s">
+    <row r="70" spans="3:5">
+      <c r="C70" s="135" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="135" t="s">
+    <row r="71" spans="3:5">
+      <c r="C71" s="135" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="104" t="s">
+    <row r="72" spans="3:5">
+      <c r="C72" s="104" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="135" t="s">
+    <row r="73" spans="3:5">
+      <c r="C73" s="135" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="56" spans="3:4" ht="17.25">
-      <c r="C56" s="131" t="s">
+    <row r="75" spans="3:5" ht="17.25">
+      <c r="C75" s="131" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="132"/>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="135" t="s">
+    <row r="76" spans="3:5">
+      <c r="C76" s="132"/>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="C77" s="135" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="136" t="s">
+    <row r="78" spans="3:5">
+      <c r="C78" s="136" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="136" t="s">
+    <row r="79" spans="3:5">
+      <c r="C79" s="136" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="136" t="s">
+    <row r="80" spans="3:5">
+      <c r="C80" s="136" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="62" spans="3:4">
-      <c r="C62" s="108"/>
-    </row>
-    <row r="63" spans="3:4" ht="17.25">
-      <c r="C63" s="130" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" s="108"/>
+    </row>
+    <row r="82" spans="3:3" ht="17.25">
+      <c r="C82" s="130" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="64" spans="3:4">
-      <c r="C64" s="108"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="136" t="s">
+    <row r="83" spans="3:3">
+      <c r="C83" s="108"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="136" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="136" t="s">
+    <row r="85" spans="3:3">
+      <c r="C85" s="136" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="136" t="s">
+    <row r="86" spans="3:3">
+      <c r="C86" s="136" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="136" t="s">
+    <row r="87" spans="3:3">
+      <c r="C87" s="136" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="136" t="s">
+    <row r="88" spans="3:3">
+      <c r="C88" s="136" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="136" t="s">
+    <row r="89" spans="3:3">
+      <c r="C89" s="136" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="108"/>
-    </row>
-    <row r="72" spans="3:3" ht="17.25">
-      <c r="C72" s="130" t="s">
+    <row r="90" spans="3:3">
+      <c r="C90" s="108"/>
+    </row>
+    <row r="91" spans="3:3" ht="17.25">
+      <c r="C91" s="130" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="108"/>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" s="136" t="s">
+    <row r="92" spans="3:3">
+      <c r="C92" s="108"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="136" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="136" t="s">
+    <row r="94" spans="3:3">
+      <c r="C94" s="136" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="136" t="s">
+    <row r="95" spans="3:3">
+      <c r="C95" s="136" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="136" t="s">
+    <row r="96" spans="3:3">
+      <c r="C96" s="136" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="108"/>
-    </row>
-    <row r="79" spans="3:3" ht="17.25">
-      <c r="C79" s="130" t="s">
+    <row r="97" spans="2:5">
+      <c r="C97" s="108"/>
+    </row>
+    <row r="98" spans="2:5" ht="17.25">
+      <c r="C98" s="130" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="108"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="C81" s="136" t="s">
+    <row r="99" spans="2:5">
+      <c r="C99" s="108"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="C100" s="136" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
-      <c r="C82" s="136" t="s">
+    <row r="101" spans="2:5">
+      <c r="C101" s="136" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
-      <c r="C83" s="136" t="s">
+    <row r="102" spans="2:5">
+      <c r="C102" s="136" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
-      <c r="C84" s="136" t="s">
+    <row r="103" spans="2:5">
+      <c r="C103" s="136" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
-      <c r="C85" s="136" t="s">
+    <row r="104" spans="2:5">
+      <c r="C104" s="136" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
-      <c r="C86" s="108"/>
-    </row>
-    <row r="87" spans="2:5" ht="16.5">
-      <c r="B87" s="128" t="s">
+    <row r="105" spans="2:5">
+      <c r="C105" s="108"/>
+    </row>
+    <row r="106" spans="2:5" ht="16.5">
+      <c r="B106" s="128" t="s">
         <v>555</v>
       </c>
-      <c r="C87" s="108"/>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88"/>
-      <c r="C88" s="108"/>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="129" t="s">
+      <c r="C106" s="108"/>
+    </row>
+    <row r="107" spans="2:5" ht="26.25" customHeight="1">
+      <c r="B107" s="178"/>
+      <c r="C107" s="108" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="129" t="s">
         <v>608</v>
       </c>
-      <c r="C89" s="108"/>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="C90" s="105"/>
-      <c r="D90" s="104" t="s">
+      <c r="C108" s="108"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="C109" s="105"/>
+      <c r="D109" s="104" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="108">
-      <c r="E91" s="107" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="C92" s="105" t="s">
+    <row r="110" spans="2:5" ht="108">
+      <c r="E110" s="107" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="C111" s="105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
-      <c r="C93" s="135" t="s">
+    <row r="112" spans="2:5">
+      <c r="C112" s="135" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
-      <c r="C94" s="135" t="s">
+    <row r="113" spans="3:5">
+      <c r="C113" s="135" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
-      <c r="C95" s="135" t="s">
+    <row r="114" spans="3:5">
+      <c r="C114" s="135" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="16.5" customHeight="1">
-      <c r="C96" s="162" t="s">
+    <row r="115" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C115" s="192" t="s">
         <v>523</v>
       </c>
-      <c r="D96" s="162"/>
-      <c r="E96" s="162"/>
-    </row>
-    <row r="97" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C97" s="161"/>
-      <c r="D97" s="161"/>
-      <c r="E97" s="161"/>
-    </row>
-    <row r="98" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C98" s="97" t="s">
+      <c r="D115" s="192"/>
+      <c r="E115" s="192"/>
+    </row>
+    <row r="116" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C116" s="161"/>
+      <c r="D116" s="161"/>
+      <c r="E116" s="161"/>
+    </row>
+    <row r="117" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C117" s="97" t="s">
         <v>622</v>
       </c>
-      <c r="D98" s="161"/>
-      <c r="E98" s="161"/>
-    </row>
-    <row r="99" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C99"/>
-      <c r="D99" s="161"/>
-      <c r="E99" s="161"/>
-    </row>
-    <row r="100" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C100" s="128" t="s">
+      <c r="D117" s="161"/>
+      <c r="E117" s="161"/>
+    </row>
+    <row r="118" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C118"/>
+      <c r="D118" s="161"/>
+      <c r="E118" s="161"/>
+    </row>
+    <row r="119" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C119" s="128" t="s">
         <v>621</v>
       </c>
-      <c r="D100" s="161"/>
-      <c r="E100" s="161"/>
-    </row>
-    <row r="101" spans="3:5" ht="121.5">
-      <c r="C101" s="161"/>
-      <c r="D101" s="161"/>
-      <c r="E101" s="107" t="s">
+      <c r="D119" s="161"/>
+      <c r="E119" s="161"/>
+    </row>
+    <row r="120" spans="3:5" ht="121.5">
+      <c r="C120" s="161"/>
+      <c r="D120" s="161"/>
+      <c r="E120" s="107" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="102" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C102" t="s">
+    <row r="121" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C121" t="s">
         <v>623</v>
       </c>
-      <c r="D102" s="161"/>
-      <c r="E102" s="161"/>
-    </row>
-    <row r="103" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C103"/>
-      <c r="D103" s="161"/>
-      <c r="E103" s="161"/>
-    </row>
-    <row r="104" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C104" s="105" t="s">
+      <c r="D121" s="161"/>
+      <c r="E121" s="161"/>
+    </row>
+    <row r="122" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C122"/>
+      <c r="D122" s="161"/>
+      <c r="E122" s="161"/>
+    </row>
+    <row r="123" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C123" s="105" t="s">
         <v>626</v>
       </c>
-      <c r="D104" s="161"/>
-      <c r="E104" s="161"/>
-    </row>
-    <row r="105" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C105" s="105"/>
-      <c r="D105" s="161"/>
-      <c r="E105" s="161"/>
-    </row>
-    <row r="106" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C106" s="128" t="s">
+      <c r="D123" s="161"/>
+      <c r="E123" s="161"/>
+    </row>
+    <row r="124" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C124" s="105"/>
+      <c r="D124" s="161"/>
+      <c r="E124" s="161"/>
+    </row>
+    <row r="125" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C125" s="128" t="s">
         <v>624</v>
       </c>
-      <c r="D106" s="161"/>
-      <c r="E106" s="161"/>
-    </row>
-    <row r="107" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C107" s="129" t="s">
+      <c r="D125" s="161"/>
+      <c r="E125" s="161"/>
+    </row>
+    <row r="126" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C126" s="129" t="s">
         <v>625</v>
       </c>
-      <c r="D107" s="161"/>
-      <c r="E107" s="161"/>
-    </row>
-    <row r="108" spans="3:5" ht="101.25" customHeight="1">
-      <c r="C108" s="107"/>
-      <c r="D108" s="107"/>
-      <c r="E108" s="139" t="s">
+      <c r="D126" s="161"/>
+      <c r="E126" s="161"/>
+    </row>
+    <row r="127" spans="3:5" ht="101.25" customHeight="1">
+      <c r="C127" s="107"/>
+      <c r="D127" s="107"/>
+      <c r="E127" s="139" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="109" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C109" s="129" t="s">
+    <row r="128" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C128" s="129" t="s">
         <v>628</v>
       </c>
-      <c r="D109" s="107"/>
-      <c r="E109" s="107"/>
-    </row>
-    <row r="110" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C110" s="101" t="s">
+      <c r="D128" s="107"/>
+      <c r="E128" s="107"/>
+    </row>
+    <row r="129" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C129" s="101" t="s">
         <v>629</v>
       </c>
-      <c r="D110" s="107"/>
-      <c r="E110" s="107"/>
-    </row>
-    <row r="111" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C111" s="98" t="s">
+      <c r="D129" s="107"/>
+      <c r="E129" s="107"/>
+    </row>
+    <row r="130" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C130" s="98" t="s">
         <v>630</v>
       </c>
-      <c r="D111" s="107"/>
-      <c r="E111" s="107"/>
-    </row>
-    <row r="112" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C112" s="107"/>
-      <c r="D112" s="107"/>
-      <c r="E112" s="107"/>
-    </row>
-    <row r="113" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D113" s="97" t="s">
+      <c r="D130" s="107"/>
+      <c r="E130" s="107"/>
+    </row>
+    <row r="131" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C131" s="107"/>
+      <c r="D131" s="107"/>
+      <c r="E131" s="107"/>
+    </row>
+    <row r="132" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D132" s="97" t="s">
         <v>642</v>
       </c>
-      <c r="E113" s="140"/>
-    </row>
-    <row r="114" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C114" s="96"/>
-      <c r="D114"/>
-      <c r="E114" s="140"/>
-    </row>
-    <row r="115" spans="3:6" ht="54">
-      <c r="C115" s="99"/>
-      <c r="D115"/>
-      <c r="E115" s="141" t="s">
+      <c r="E132" s="140"/>
+    </row>
+    <row r="133" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C133" s="96"/>
+      <c r="D133"/>
+      <c r="E133" s="140"/>
+    </row>
+    <row r="134" spans="3:6" ht="54">
+      <c r="C134" s="99"/>
+      <c r="D134"/>
+      <c r="E134" s="141" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="116" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C116" s="99"/>
-      <c r="D116"/>
-      <c r="E116"/>
-    </row>
-    <row r="117" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C117" s="99"/>
-      <c r="D117" t="s">
+    <row r="135" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C135" s="99"/>
+      <c r="D135"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C136" s="99"/>
+      <c r="D136" t="s">
         <v>643</v>
       </c>
-      <c r="E117"/>
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C118" s="99"/>
-      <c r="D118" s="101" t="s">
+      <c r="E136"/>
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C137" s="99"/>
+      <c r="D137" s="101" t="s">
         <v>644</v>
-      </c>
-      <c r="E118"/>
-      <c r="F118"/>
-    </row>
-    <row r="119" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D119" s="98" t="s">
-        <v>645</v>
-      </c>
-      <c r="E119"/>
-      <c r="F119"/>
-    </row>
-    <row r="120" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-    </row>
-    <row r="121" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-    </row>
-    <row r="122" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-    </row>
-    <row r="123" spans="3:6" ht="21">
-      <c r="D123" s="97" t="s">
-        <v>646</v>
-      </c>
-      <c r="E123"/>
-      <c r="F123"/>
-    </row>
-    <row r="124" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-    </row>
-    <row r="125" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D125" s="142" t="s">
-        <v>647</v>
-      </c>
-      <c r="E125" s="142" t="s">
-        <v>648</v>
-      </c>
-      <c r="F125" s="142" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="126" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D126" s="96" t="s">
-        <v>650</v>
-      </c>
-      <c r="E126" s="96" t="s">
-        <v>651</v>
-      </c>
-      <c r="F126" s="96" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="127" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D127" s="96" t="s">
-        <v>652</v>
-      </c>
-      <c r="E127" s="96" t="s">
-        <v>653</v>
-      </c>
-      <c r="F127" s="96" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="128" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D128" s="96" t="s">
-        <v>655</v>
-      </c>
-      <c r="E128" s="96" t="s">
-        <v>656</v>
-      </c>
-      <c r="F128" s="96" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="129" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D129" s="96" t="s">
-        <v>658</v>
-      </c>
-      <c r="E129" s="96" t="s">
-        <v>659</v>
-      </c>
-      <c r="F129" s="96" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="130" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D130" s="96" t="s">
-        <v>661</v>
-      </c>
-      <c r="E130" s="96" t="s">
-        <v>662</v>
-      </c>
-      <c r="F130" s="96" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="131" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-    </row>
-    <row r="132" spans="4:6" ht="21">
-      <c r="D132" s="97" t="s">
-        <v>664</v>
-      </c>
-      <c r="E132"/>
-      <c r="F132"/>
-    </row>
-    <row r="133" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D133" t="s">
-        <v>665</v>
-      </c>
-      <c r="E133"/>
-      <c r="F133"/>
-    </row>
-    <row r="134" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-    </row>
-    <row r="135" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D135" s="128" t="s">
-        <v>666</v>
-      </c>
-      <c r="E135"/>
-      <c r="F135"/>
-    </row>
-    <row r="136" spans="4:6" ht="121.5">
-      <c r="D136" s="96"/>
-      <c r="E136" s="138" t="s">
-        <v>676</v>
-      </c>
-      <c r="F136"/>
-    </row>
-    <row r="137" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D137" s="143" t="s">
-        <v>673</v>
       </c>
       <c r="E137"/>
       <c r="F137"/>
     </row>
-    <row r="138" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D138"/>
+    <row r="138" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D138" s="98" t="s">
+        <v>645</v>
+      </c>
       <c r="E138"/>
       <c r="F138"/>
     </row>
-    <row r="139" spans="4:6" ht="21">
-      <c r="D139" s="97" t="s">
-        <v>667</v>
-      </c>
+    <row r="139" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D139"/>
       <c r="E139"/>
       <c r="F139"/>
     </row>
-    <row r="140" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D140" s="100" t="s">
-        <v>668</v>
-      </c>
-      <c r="F140" s="142" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="141" spans="4:6">
-      <c r="D141" s="96" t="s">
-        <v>669</v>
-      </c>
-      <c r="F141" s="96" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="142" spans="4:6">
-      <c r="D142" s="96" t="s">
-        <v>671</v>
-      </c>
-      <c r="F142" s="96" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="143" spans="4:6">
+    <row r="140" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="3:6" ht="21">
+      <c r="D142" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142"/>
+    </row>
+    <row r="143" spans="3:6" ht="16.5" customHeight="1">
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143"/>
     </row>
-    <row r="144" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D144" s="98" t="s">
-        <v>675</v>
-      </c>
-      <c r="E144"/>
-      <c r="F144"/>
-    </row>
-    <row r="145" spans="3:6">
-      <c r="D145" s="144" t="s">
+    <row r="144" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D144" s="142" t="s">
+        <v>647</v>
+      </c>
+      <c r="E144" s="142" t="s">
+        <v>648</v>
+      </c>
+      <c r="F144" s="142" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="145" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D145" s="96" t="s">
+        <v>650</v>
+      </c>
+      <c r="E145" s="96" t="s">
+        <v>651</v>
+      </c>
+      <c r="F145" s="96" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D146" s="96" t="s">
+        <v>652</v>
+      </c>
+      <c r="E146" s="96" t="s">
+        <v>653</v>
+      </c>
+      <c r="F146" s="96" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D147" s="96" t="s">
+        <v>655</v>
+      </c>
+      <c r="E147" s="96" t="s">
+        <v>656</v>
+      </c>
+      <c r="F147" s="96" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="148" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D148" s="96" t="s">
+        <v>658</v>
+      </c>
+      <c r="E148" s="96" t="s">
+        <v>659</v>
+      </c>
+      <c r="F148" s="96" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="149" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D149" s="96" t="s">
+        <v>661</v>
+      </c>
+      <c r="E149" s="96" t="s">
+        <v>662</v>
+      </c>
+      <c r="F149" s="96" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+    </row>
+    <row r="151" spans="4:7" ht="21">
+      <c r="D151" s="97" t="s">
+        <v>664</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151"/>
+    </row>
+    <row r="152" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D152" t="s">
+        <v>974</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152"/>
+    </row>
+    <row r="153" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+    </row>
+    <row r="154" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D154" s="128" t="s">
+        <v>975</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154"/>
+    </row>
+    <row r="155" spans="4:7" ht="54">
+      <c r="D155" s="98" t="s">
+        <v>978</v>
+      </c>
+      <c r="E155" s="138" t="s">
+        <v>977</v>
+      </c>
+      <c r="F155" s="110" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="156" spans="4:7" ht="121.5">
+      <c r="D156" s="98" t="s">
+        <v>976</v>
+      </c>
+      <c r="E156" s="138" t="s">
+        <v>973</v>
+      </c>
+      <c r="F156" s="108" t="s">
+        <v>980</v>
+      </c>
+      <c r="G156" s="104" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="157" spans="4:7" ht="14.25">
+      <c r="D157" s="177" t="s">
+        <v>981</v>
+      </c>
+      <c r="E157" s="138"/>
+      <c r="F157"/>
+    </row>
+    <row r="158" spans="4:7">
+      <c r="D158" t="s">
+        <v>982</v>
+      </c>
+      <c r="E158" s="138"/>
+      <c r="F158"/>
+    </row>
+    <row r="159" spans="4:7">
+      <c r="D159" t="s">
+        <v>983</v>
+      </c>
+      <c r="E159" s="138"/>
+      <c r="F159"/>
+    </row>
+    <row r="160" spans="4:7" ht="108">
+      <c r="D160" s="96"/>
+      <c r="E160" s="138" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F160"/>
+    </row>
+    <row r="161" spans="4:6" ht="21">
+      <c r="D161" s="96"/>
+      <c r="E161" s="97" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F161"/>
+    </row>
+    <row r="162" spans="4:6">
+      <c r="D162" s="96"/>
+      <c r="E162"/>
+      <c r="F162"/>
+    </row>
+    <row r="163" spans="4:6">
+      <c r="D163" s="96"/>
+      <c r="E163" t="s">
+        <v>999</v>
+      </c>
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="4:6">
+      <c r="D164" s="96"/>
+      <c r="E164" s="171" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F164"/>
+    </row>
+    <row r="165" spans="4:6">
+      <c r="D165" s="96"/>
+      <c r="E165" s="98" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F165"/>
+    </row>
+    <row r="166" spans="4:6">
+      <c r="D166" s="96"/>
+      <c r="E166" s="98" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F166"/>
+    </row>
+    <row r="167" spans="4:6">
+      <c r="D167" s="96"/>
+      <c r="E167" s="98" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F167"/>
+    </row>
+    <row r="168" spans="4:6">
+      <c r="D168" s="96"/>
+      <c r="E168" s="98" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F168"/>
+    </row>
+    <row r="169" spans="4:6">
+      <c r="D169" s="96"/>
+      <c r="E169" s="98" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F169"/>
+    </row>
+    <row r="170" spans="4:6">
+      <c r="D170" s="96"/>
+      <c r="E170" s="98"/>
+      <c r="F170"/>
+    </row>
+    <row r="171" spans="4:6" ht="14.25">
+      <c r="D171" s="96"/>
+      <c r="E171" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F171"/>
+    </row>
+    <row r="172" spans="4:6" ht="14.25">
+      <c r="D172" s="96"/>
+      <c r="E172" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F172"/>
+    </row>
+    <row r="173" spans="4:6">
+      <c r="D173" s="96"/>
+      <c r="F173"/>
+    </row>
+    <row r="174" spans="4:6" ht="21">
+      <c r="D174" s="96"/>
+      <c r="E174" s="97" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F174"/>
+    </row>
+    <row r="175" spans="4:6">
+      <c r="D175" s="96"/>
+      <c r="E175" s="171" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F175"/>
+    </row>
+    <row r="176" spans="4:6">
+      <c r="D176" s="96"/>
+      <c r="E176" s="98" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F176"/>
+    </row>
+    <row r="177" spans="4:6">
+      <c r="D177" s="96"/>
+      <c r="E177" s="98" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F177"/>
+    </row>
+    <row r="178" spans="4:6">
+      <c r="D178" s="96"/>
+      <c r="E178" s="98" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F178"/>
+    </row>
+    <row r="179" spans="4:6">
+      <c r="D179" s="96"/>
+      <c r="E179" s="98"/>
+      <c r="F179"/>
+    </row>
+    <row r="180" spans="4:6">
+      <c r="D180" s="96"/>
+      <c r="E180" s="138"/>
+      <c r="F180"/>
+    </row>
+    <row r="181" spans="4:6">
+      <c r="D181" t="s">
+        <v>984</v>
+      </c>
+      <c r="E181" s="138"/>
+      <c r="F181"/>
+    </row>
+    <row r="182" spans="4:6">
+      <c r="D182" t="s">
+        <v>985</v>
+      </c>
+      <c r="E182" s="138"/>
+      <c r="F182"/>
+    </row>
+    <row r="183" spans="4:6" ht="162">
+      <c r="D183"/>
+      <c r="E183" s="138" t="s">
+        <v>998</v>
+      </c>
+      <c r="F183"/>
+    </row>
+    <row r="184" spans="4:6">
+      <c r="D184" t="s">
+        <v>986</v>
+      </c>
+      <c r="E184" s="138"/>
+      <c r="F184"/>
+    </row>
+    <row r="185" spans="4:6" ht="14.25">
+      <c r="D185" t="s">
+        <v>987</v>
+      </c>
+      <c r="E185" s="138"/>
+      <c r="F185"/>
+    </row>
+    <row r="186" spans="4:6">
+      <c r="D186" t="s">
+        <v>988</v>
+      </c>
+      <c r="E186" s="138"/>
+      <c r="F186"/>
+    </row>
+    <row r="187" spans="4:6">
+      <c r="D187"/>
+      <c r="E187" s="138"/>
+      <c r="F187"/>
+    </row>
+    <row r="188" spans="4:6">
+      <c r="D188" t="s">
+        <v>989</v>
+      </c>
+      <c r="E188" s="138"/>
+      <c r="F188"/>
+    </row>
+    <row r="189" spans="4:6">
+      <c r="D189" t="s">
+        <v>990</v>
+      </c>
+      <c r="E189" s="138"/>
+      <c r="F189"/>
+    </row>
+    <row r="190" spans="4:6">
+      <c r="D190"/>
+      <c r="E190" s="138"/>
+      <c r="F190"/>
+    </row>
+    <row r="191" spans="4:6">
+      <c r="D191" t="s">
+        <v>991</v>
+      </c>
+      <c r="E191" s="138"/>
+      <c r="F191"/>
+    </row>
+    <row r="192" spans="4:6">
+      <c r="D192" s="98"/>
+      <c r="E192" s="138"/>
+      <c r="F192"/>
+    </row>
+    <row r="193" spans="4:6">
+      <c r="D193" s="171" t="s">
+        <v>992</v>
+      </c>
+      <c r="E193" s="138"/>
+      <c r="F193"/>
+    </row>
+    <row r="194" spans="4:6">
+      <c r="D194" s="98"/>
+      <c r="E194" s="138"/>
+      <c r="F194"/>
+    </row>
+    <row r="195" spans="4:6">
+      <c r="D195" s="171" t="s">
+        <v>993</v>
+      </c>
+      <c r="E195" s="138"/>
+      <c r="F195"/>
+    </row>
+    <row r="196" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D196" s="98"/>
+      <c r="E196"/>
+      <c r="F196"/>
+    </row>
+    <row r="197" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D197" s="171" t="s">
+        <v>994</v>
+      </c>
+      <c r="E197"/>
+      <c r="F197"/>
+    </row>
+    <row r="198" spans="4:6">
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+    </row>
+    <row r="199" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D199" t="s">
+        <v>995</v>
+      </c>
+      <c r="F199" s="142" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6">
+      <c r="D200" s="98"/>
+      <c r="F200" s="96" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6">
+      <c r="D201" s="98" t="s">
+        <v>996</v>
+      </c>
+      <c r="F201" s="96" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6">
+      <c r="D202" s="98"/>
+      <c r="E202"/>
+      <c r="F202"/>
+    </row>
+    <row r="203" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D203" s="98" t="s">
+        <v>997</v>
+      </c>
+      <c r="E203"/>
+      <c r="F203"/>
+    </row>
+    <row r="204" spans="4:6">
+      <c r="D204" s="144" t="s">
         <v>683</v>
       </c>
-      <c r="E145"/>
-      <c r="F145"/>
-    </row>
-    <row r="146" spans="3:6" ht="15" customHeight="1">
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146" s="107"/>
-    </row>
-    <row r="147" spans="3:6" ht="21">
-      <c r="D147" s="97" t="s">
+      <c r="E204"/>
+      <c r="F204"/>
+    </row>
+    <row r="205" spans="4:6" ht="15" customHeight="1">
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205" s="107"/>
+    </row>
+    <row r="206" spans="4:6" ht="21">
+      <c r="D206" s="97" t="s">
         <v>632</v>
       </c>
-      <c r="E147"/>
-      <c r="F147" s="107"/>
-    </row>
-    <row r="148" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D148" s="98" t="s">
+      <c r="E206"/>
+      <c r="F206" s="107"/>
+    </row>
+    <row r="207" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D207" s="98" t="s">
         <v>633</v>
       </c>
-      <c r="E148"/>
-      <c r="F148" s="107"/>
-    </row>
-    <row r="149" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D149" s="98" t="s">
+      <c r="E207"/>
+      <c r="F207" s="107"/>
+    </row>
+    <row r="208" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D208" s="98" t="s">
         <v>634</v>
       </c>
-      <c r="E149"/>
-      <c r="F149" s="107"/>
-    </row>
-    <row r="150" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D150" s="98" t="s">
+      <c r="E208"/>
+      <c r="F208" s="107"/>
+    </row>
+    <row r="209" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D209" s="98" t="s">
         <v>635</v>
       </c>
-      <c r="E150"/>
-      <c r="F150" s="107"/>
-    </row>
-    <row r="151" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D151" s="98" t="s">
+      <c r="E209"/>
+      <c r="F209" s="107"/>
+    </row>
+    <row r="210" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D210" s="98" t="s">
         <v>636</v>
       </c>
-      <c r="E151"/>
-      <c r="F151" s="107"/>
-    </row>
-    <row r="152" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152" s="107"/>
-    </row>
-    <row r="153" spans="3:6" ht="21">
-      <c r="D153" s="97" t="s">
+      <c r="E210"/>
+      <c r="F210" s="107"/>
+    </row>
+    <row r="211" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211" s="107"/>
+    </row>
+    <row r="212" spans="3:6" ht="21">
+      <c r="D212" s="97" t="s">
         <v>637</v>
       </c>
-      <c r="E153"/>
-      <c r="F153" s="107"/>
-    </row>
-    <row r="154" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D154" s="100" t="s">
+      <c r="E212"/>
+      <c r="F212" s="107"/>
+    </row>
+    <row r="213" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D213" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="E154" s="100" t="s">
+      <c r="E213" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F154" s="107"/>
-    </row>
-    <row r="155" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D155" s="96" t="s">
+      <c r="F213" s="107"/>
+    </row>
+    <row r="214" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D214" s="96" t="s">
         <v>639</v>
       </c>
-      <c r="E155" s="96" t="s">
+      <c r="E214" s="96" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="156" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D156" s="96" t="s">
+    <row r="215" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D215" s="96" t="s">
         <v>640</v>
       </c>
-      <c r="E156" s="96" t="s">
+      <c r="E215" s="96" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="157" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D157" s="96" t="s">
+    <row r="216" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D216" s="96" t="s">
         <v>641</v>
       </c>
-      <c r="E157" s="96" t="s">
+      <c r="E216" s="96" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="158" spans="3:6" ht="16.5" customHeight="1"/>
-    <row r="159" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C159" s="128" t="s">
+    <row r="217" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="218" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C218" s="128" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="160" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C160" s="145" t="s">
+    <row r="219" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C219" s="145" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="161" spans="3:5" ht="58.5" customHeight="1">
-      <c r="C161" s="135"/>
-      <c r="E161" s="107" t="s">
+    <row r="220" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C220" s="135"/>
+      <c r="E220" s="107" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="162" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C162" s="145" t="s">
+    <row r="221" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C221" s="145" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="163" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C163" s="146" t="s">
+    <row r="222" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C222" s="146" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="164" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C164" s="146" t="s">
+    <row r="223" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C223" s="146" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="165" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C165" s="146" t="s">
+    <row r="224" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C224" s="146" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="166" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="167" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C167" s="128" t="s">
+    <row r="225" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="226" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C226" s="128" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="168" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C168"/>
-    </row>
-    <row r="169" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C169" s="129" t="s">
+    <row r="227" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C227"/>
+    </row>
+    <row r="228" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C228" s="129" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="170" spans="3:5" ht="121.5">
-      <c r="E170" s="150" t="s">
+    <row r="229" spans="3:5" ht="121.5">
+      <c r="E229" s="150" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="171" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C171" t="s">
+    <row r="230" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C230" t="s">
         <v>685</v>
       </c>
-      <c r="D171"/>
-    </row>
-    <row r="172" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C172" s="100" t="s">
+      <c r="D230"/>
+    </row>
+    <row r="231" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C231" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="E172" s="100" t="s">
+      <c r="E231" s="100" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="173" spans="3:5" ht="40.5">
-      <c r="C173" s="147" t="s">
+    <row r="232" spans="3:5" ht="40.5">
+      <c r="C232" s="147" t="s">
         <v>687</v>
       </c>
-      <c r="E173" s="147" t="s">
+      <c r="E232" s="147" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="174" spans="3:5" ht="26.25" customHeight="1">
-      <c r="C174" s="147" t="s">
+    <row r="233" spans="3:5" ht="26.25" customHeight="1">
+      <c r="C233" s="147" t="s">
         <v>688</v>
       </c>
-      <c r="E174" s="148" t="s">
+      <c r="E233" s="148" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="175" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="176" spans="3:5" s="105" customFormat="1">
-      <c r="C176" s="105" t="s">
+    <row r="234" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="235" spans="3:5" s="105" customFormat="1">
+      <c r="C235" s="105" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="177" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C177" s="135" t="s">
+    <row r="236" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C236" s="135" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="178" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C178" s="135" t="s">
+    <row r="237" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C237" s="135" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="3:7" ht="132.75" customHeight="1">
-      <c r="D179" s="178" t="s">
+    <row r="238" spans="3:5" ht="132.75" customHeight="1">
+      <c r="D238" s="162" t="s">
         <v>713</v>
       </c>
-      <c r="E179" s="179" t="s">
+      <c r="E238" s="163" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="180" spans="3:7" ht="40.5">
-      <c r="E180" s="150" t="s">
+    <row r="239" spans="3:5" ht="40.5">
+      <c r="E239" s="150" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="181" spans="3:7" ht="21">
-      <c r="E181" s="97" t="s">
+    <row r="240" spans="3:5" ht="21">
+      <c r="E240" s="97" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="182" spans="3:7" ht="16.5" customHeight="1">
-      <c r="E182"/>
-    </row>
-    <row r="183" spans="3:7" ht="16.5" customHeight="1">
-      <c r="E183" s="128" t="s">
+    <row r="241" spans="4:7" ht="16.5" customHeight="1">
+      <c r="E241"/>
+    </row>
+    <row r="242" spans="4:7" ht="16.5" customHeight="1">
+      <c r="E242" s="128" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="184" spans="3:7" ht="91.5" customHeight="1">
-      <c r="E184" s="151" t="s">
+    <row r="243" spans="4:7" ht="91.5" customHeight="1">
+      <c r="E243" s="151" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="185" spans="3:7" ht="21" customHeight="1">
-      <c r="E185" s="153" t="s">
+    <row r="244" spans="4:7" ht="21" customHeight="1">
+      <c r="E244" s="153" t="s">
         <v>705</v>
       </c>
-      <c r="G185" s="153"/>
-    </row>
-    <row r="186" spans="3:7" ht="21" customHeight="1">
-      <c r="E186" s="154" t="s">
+      <c r="G244" s="153"/>
+    </row>
+    <row r="245" spans="4:7" ht="21" customHeight="1">
+      <c r="E245" s="154" t="s">
         <v>706</v>
       </c>
-      <c r="G186" s="153"/>
-    </row>
-    <row r="187" spans="3:7" ht="21" customHeight="1">
-      <c r="E187" s="154" t="s">
+      <c r="G245" s="153"/>
+    </row>
+    <row r="246" spans="4:7" ht="21" customHeight="1">
+      <c r="E246" s="154" t="s">
         <v>760</v>
       </c>
-      <c r="G187" s="153"/>
-    </row>
-    <row r="188" spans="3:7" ht="21" customHeight="1">
-      <c r="E188" s="154" t="s">
+      <c r="G246" s="153"/>
+    </row>
+    <row r="247" spans="4:7" ht="21" customHeight="1">
+      <c r="E247" s="154" t="s">
         <v>711</v>
       </c>
-      <c r="G188" s="153"/>
-    </row>
-    <row r="189" spans="3:7" ht="21" customHeight="1">
-      <c r="E189" s="151"/>
-      <c r="G189" s="153"/>
-    </row>
-    <row r="190" spans="3:7" ht="18.75" customHeight="1">
-      <c r="D190" s="104" t="s">
+      <c r="G247" s="153"/>
+    </row>
+    <row r="248" spans="4:7" ht="21" customHeight="1">
+      <c r="E248" s="151"/>
+      <c r="G248" s="153"/>
+    </row>
+    <row r="249" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D249" s="104" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="191" spans="3:7" ht="18.75" customHeight="1">
-      <c r="D191" s="100" t="s">
+    <row r="250" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D250" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="E191" s="142" t="s">
+      <c r="E250" s="142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="3:7" ht="18.75" customHeight="1">
-      <c r="D192" s="147" t="s">
+    <row r="251" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D251" s="147" t="s">
         <v>714</v>
       </c>
-      <c r="E192" s="157" t="s">
+      <c r="E251" s="157" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="193" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D193" s="147" t="s">
+    <row r="252" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D252" s="147" t="s">
         <v>719</v>
       </c>
-      <c r="E193" s="96" t="s">
+      <c r="E252" s="96" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="194" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D194" s="147" t="s">
+    <row r="253" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D253" s="147" t="s">
         <v>716</v>
       </c>
-      <c r="E194" s="96" t="s">
+      <c r="E253" s="96" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="195" spans="4:6" ht="18.75" customHeight="1">
-      <c r="E195" s="151"/>
-    </row>
-    <row r="196" spans="4:6">
-      <c r="E196" t="s">
+    <row r="254" spans="4:7" ht="18.75" customHeight="1">
+      <c r="E254" s="151"/>
+    </row>
+    <row r="255" spans="4:7">
+      <c r="E255" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="197" spans="4:6" ht="57">
-      <c r="E197" s="158" t="s">
+    <row r="256" spans="4:7" ht="57">
+      <c r="E256" s="158" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="198" spans="4:6" ht="14.25">
-      <c r="E198" s="151" t="s">
+    <row r="257" spans="4:6" ht="14.25">
+      <c r="E257" s="151" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="199" spans="4:6" ht="14.25">
-      <c r="E199" s="151"/>
-    </row>
-    <row r="200" spans="4:6" ht="14.25">
-      <c r="E200" s="151" t="s">
+    <row r="258" spans="4:6" ht="14.25">
+      <c r="E258" s="151"/>
+    </row>
+    <row r="259" spans="4:6" ht="14.25">
+      <c r="E259" s="151" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="201" spans="4:6" ht="57">
-      <c r="E201" s="158" t="s">
+    <row r="260" spans="4:6" ht="57">
+      <c r="E260" s="158" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="202" spans="4:6" ht="14.25">
-      <c r="E202" s="151" t="s">
+    <row r="261" spans="4:6" ht="14.25">
+      <c r="E261" s="151" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="203" spans="4:6" ht="14.25">
-      <c r="E203" s="151"/>
-    </row>
-    <row r="204" spans="4:6" ht="14.25">
-      <c r="E204" s="151" t="s">
+    <row r="262" spans="4:6" ht="14.25">
+      <c r="E262" s="151"/>
+    </row>
+    <row r="263" spans="4:6" ht="14.25">
+      <c r="E263" s="151" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="205" spans="4:6" ht="57">
-      <c r="E205" s="158" t="s">
+    <row r="264" spans="4:6" ht="57">
+      <c r="E264" s="158" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="206" spans="4:6" ht="14.25">
-      <c r="E206" s="151" t="s">
+    <row r="265" spans="4:6" ht="14.25">
+      <c r="E265" s="151" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="207" spans="4:6" ht="18.75" customHeight="1">
-      <c r="E207" s="151"/>
-    </row>
-    <row r="208" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D208" s="97" t="s">
+    <row r="266" spans="4:6" ht="18.75" customHeight="1">
+      <c r="E266" s="151"/>
+    </row>
+    <row r="267" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D267" s="97" t="s">
         <v>732</v>
       </c>
-      <c r="E208"/>
-      <c r="F208"/>
-    </row>
-    <row r="209" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D209"/>
-      <c r="E209"/>
-      <c r="F209"/>
-    </row>
-    <row r="210" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D210" s="142" t="s">
+      <c r="E267"/>
+      <c r="F267"/>
+    </row>
+    <row r="268" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268"/>
+    </row>
+    <row r="269" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D269" s="142" t="s">
         <v>733</v>
       </c>
-      <c r="E210" s="142" t="s">
+      <c r="E269" s="142" t="s">
         <v>734</v>
       </c>
-      <c r="F210" s="142" t="s">
+      <c r="F269" s="142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D211" s="96" t="s">
+    <row r="270" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D270" s="96" t="s">
         <v>761</v>
       </c>
-      <c r="E211" s="96" t="s">
+      <c r="E270" s="96" t="s">
         <v>743</v>
       </c>
-      <c r="F211" s="96" t="s">
+      <c r="F270" s="96" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="212" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D212" s="96" t="s">
+    <row r="271" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D271" s="96" t="s">
         <v>762</v>
       </c>
-      <c r="E212" s="96" t="s">
+      <c r="E271" s="96" t="s">
         <v>736</v>
       </c>
-      <c r="F212" s="96" t="s">
+      <c r="F271" s="96" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="213" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D213" s="99" t="s">
+    <row r="272" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D272" s="99" t="s">
         <v>738</v>
       </c>
-      <c r="E213" s="96" t="s">
+      <c r="E272" s="96" t="s">
         <v>739</v>
       </c>
-      <c r="F213" s="96" t="s">
+      <c r="F272" s="96" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="214" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D214" s="159">
+    <row r="273" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D273" s="159">
         <v>1</v>
       </c>
-      <c r="E214" s="96" t="s">
+      <c r="E273" s="96" t="s">
         <v>741</v>
       </c>
-      <c r="F214" s="96" t="s">
+      <c r="F273" s="96" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="215" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D215" s="159"/>
-      <c r="E215" s="96"/>
-      <c r="F215" s="96"/>
-    </row>
-    <row r="216" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D216" s="97" t="s">
+    <row r="274" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D274" s="159"/>
+      <c r="E274" s="96"/>
+      <c r="F274" s="96"/>
+    </row>
+    <row r="275" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D275" s="97" t="s">
         <v>744</v>
       </c>
-      <c r="E216"/>
-      <c r="F216" s="96"/>
-    </row>
-    <row r="217" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D217" s="98" t="s">
+      <c r="E275"/>
+      <c r="F275" s="96"/>
+    </row>
+    <row r="276" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D276" s="98" t="s">
         <v>745</v>
       </c>
-      <c r="E217"/>
-      <c r="F217" s="96"/>
-    </row>
-    <row r="218" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D218"/>
-      <c r="E218"/>
-      <c r="F218" s="96"/>
-    </row>
-    <row r="219" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D219" s="97" t="s">
+      <c r="E276"/>
+      <c r="F276" s="96"/>
+    </row>
+    <row r="277" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D277"/>
+      <c r="E277"/>
+      <c r="F277" s="96"/>
+    </row>
+    <row r="278" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D278" s="97" t="s">
         <v>746</v>
       </c>
-      <c r="E219"/>
-      <c r="F219" s="96"/>
-    </row>
-    <row r="220" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D220"/>
-      <c r="E220"/>
-      <c r="F220" s="96"/>
-    </row>
-    <row r="221" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D221" s="100" t="s">
+      <c r="E278"/>
+      <c r="F278" s="96"/>
+    </row>
+    <row r="279" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279" s="96"/>
+    </row>
+    <row r="280" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D280" s="100" t="s">
         <v>747</v>
       </c>
-      <c r="E221" s="100" t="s">
+      <c r="E280" s="100" t="s">
         <v>748</v>
       </c>
-      <c r="F221" s="96"/>
-    </row>
-    <row r="222" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D222" s="147" t="s">
+      <c r="F280" s="96"/>
+    </row>
+    <row r="281" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D281" s="147" t="s">
         <v>749</v>
       </c>
-      <c r="E222" s="147" t="s">
+      <c r="E281" s="147" t="s">
         <v>750</v>
       </c>
-      <c r="F222" s="96"/>
-    </row>
-    <row r="223" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D223" s="147" t="s">
+      <c r="F281" s="96"/>
+    </row>
+    <row r="282" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D282" s="147" t="s">
         <v>751</v>
       </c>
-      <c r="E223" s="147" t="s">
+      <c r="E282" s="147" t="s">
         <v>752</v>
       </c>
-      <c r="F223" s="96"/>
-    </row>
-    <row r="224" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D224" s="147" t="s">
+      <c r="F282" s="96"/>
+    </row>
+    <row r="283" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D283" s="147" t="s">
         <v>753</v>
       </c>
-      <c r="E224" s="147" t="s">
+      <c r="E283" s="147" t="s">
         <v>754</v>
       </c>
-      <c r="F224" s="96"/>
-    </row>
-    <row r="225" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D225"/>
-      <c r="E225"/>
-      <c r="F225" s="96"/>
-    </row>
-    <row r="226" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D226" t="s">
+      <c r="F283" s="96"/>
+    </row>
+    <row r="284" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284" s="96"/>
+    </row>
+    <row r="285" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D285" t="s">
         <v>755</v>
       </c>
-      <c r="E226"/>
-      <c r="F226" s="96"/>
-    </row>
-    <row r="227" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D227"/>
-      <c r="E227"/>
-      <c r="F227" s="96"/>
-    </row>
-    <row r="228" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D228" s="97" t="s">
-        <v>756</v>
-      </c>
-      <c r="E228"/>
-      <c r="F228" s="96"/>
-    </row>
-    <row r="229" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D229" s="98"/>
-      <c r="E229"/>
-      <c r="F229" s="96"/>
-    </row>
-    <row r="230" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D230" s="98" t="s">
+      <c r="E285"/>
+      <c r="F285" s="96"/>
+    </row>
+    <row r="286" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D286"/>
+      <c r="E286"/>
+      <c r="F286" s="96"/>
+    </row>
+    <row r="287" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D287" s="97" t="s">
+        <v>880</v>
+      </c>
+      <c r="E287"/>
+      <c r="F287" s="96"/>
+    </row>
+    <row r="288" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D288" s="98"/>
+      <c r="E288"/>
+      <c r="F288" s="96"/>
+    </row>
+    <row r="289" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D289" s="98" t="s">
         <v>757</v>
       </c>
-      <c r="E230"/>
-      <c r="F230" s="96"/>
-    </row>
-    <row r="231" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D231" s="98" t="s">
+      <c r="E289"/>
+      <c r="F289" s="96"/>
+    </row>
+    <row r="290" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D290" s="98" t="s">
         <v>758</v>
       </c>
-      <c r="E231"/>
-      <c r="F231" s="96"/>
-    </row>
-    <row r="232" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D232" s="98" t="s">
+      <c r="E290"/>
+      <c r="F290" s="96"/>
+    </row>
+    <row r="291" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D291" s="98" t="s">
         <v>759</v>
       </c>
-      <c r="E232"/>
-      <c r="F232" s="96"/>
-    </row>
-    <row r="233" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D233" s="159"/>
-      <c r="E233" s="96"/>
-      <c r="F233" s="96"/>
-    </row>
-    <row r="234" spans="4:6" s="152" customFormat="1" ht="14.25"/>
-    <row r="235" spans="4:6" s="152" customFormat="1" ht="14.25"/>
-    <row r="236" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
-      <c r="E236" s="155" t="s">
+      <c r="E291"/>
+      <c r="F291" s="96"/>
+    </row>
+    <row r="292" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D292" s="159"/>
+      <c r="E292" s="96"/>
+      <c r="F292" s="96"/>
+    </row>
+    <row r="293" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="294" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="295" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="E295" s="155" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="237" spans="4:6" s="152" customFormat="1" ht="14.25">
-      <c r="E237" s="156" t="s">
+    <row r="296" spans="4:6" s="152" customFormat="1" ht="14.25">
+      <c r="E296" s="156" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="238" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
-      <c r="D238" s="156" t="s">
+    <row r="297" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="D297" s="156" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="239" spans="4:6" s="152" customFormat="1" ht="71.25">
-      <c r="E239" s="160" t="s">
+    <row r="298" spans="4:6" s="152" customFormat="1" ht="71.25">
+      <c r="E298" s="160" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="240" spans="4:6" s="152" customFormat="1" ht="16.5" customHeight="1">
-      <c r="E240" s="155"/>
-    </row>
-    <row r="241" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E241" s="128"/>
-    </row>
-    <row r="242" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E242" s="128"/>
-    </row>
-    <row r="243" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E243" s="128"/>
-    </row>
-    <row r="244" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E244" s="128"/>
-    </row>
-    <row r="245" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E245" s="128"/>
-    </row>
-    <row r="246" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D246" s="97" t="s">
+    <row r="299" spans="4:6" s="152" customFormat="1" ht="16.5" customHeight="1">
+      <c r="E299" s="155"/>
+    </row>
+    <row r="300" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E300" s="128"/>
+    </row>
+    <row r="301" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E301" s="128"/>
+    </row>
+    <row r="302" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E302" s="128"/>
+    </row>
+    <row r="303" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E303" s="128"/>
+    </row>
+    <row r="304" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E304" s="128"/>
+    </row>
+    <row r="305" spans="3:5" ht="16.5" customHeight="1">
+      <c r="D305" s="97" t="s">
         <v>693</v>
       </c>
-      <c r="E246"/>
-    </row>
-    <row r="247" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D247"/>
-      <c r="E247"/>
-    </row>
-    <row r="248" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D248" s="100" t="s">
+      <c r="E305"/>
+    </row>
+    <row r="306" spans="3:5" ht="16.5" customHeight="1">
+      <c r="D306"/>
+      <c r="E306"/>
+    </row>
+    <row r="307" spans="3:5" ht="16.5" customHeight="1">
+      <c r="D307" s="100" t="s">
         <v>694</v>
       </c>
-      <c r="E248" s="100" t="s">
+      <c r="E307" s="100" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="249" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D249" s="147" t="s">
+    <row r="308" spans="3:5" ht="16.5" customHeight="1">
+      <c r="D308" s="147" t="s">
         <v>695</v>
       </c>
-      <c r="E249" s="147" t="s">
+      <c r="E308" s="147" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="250" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D250" s="147" t="s">
+    <row r="309" spans="3:5" ht="16.5" customHeight="1">
+      <c r="D309" s="147" t="s">
         <v>697</v>
       </c>
-      <c r="E250" s="149" t="s">
+      <c r="E309" s="149" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="251" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D251" s="147" t="s">
+    <row r="310" spans="3:5" ht="16.5" customHeight="1">
+      <c r="D310" s="147" t="s">
         <v>699</v>
       </c>
-      <c r="E251" s="147" t="s">
+      <c r="E310" s="147" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="252" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="253" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="254" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="255" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="256" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C256" s="147"/>
-      <c r="E256" s="147"/>
-    </row>
-    <row r="257" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C257" s="147"/>
-      <c r="E257" s="147"/>
-    </row>
-    <row r="258" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C258" s="128" t="s">
+    <row r="311" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="312" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C312" s="147"/>
+      <c r="E312" s="147"/>
+    </row>
+    <row r="313" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C313" s="147"/>
+      <c r="E313" s="147"/>
+    </row>
+    <row r="314" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C314" s="128" t="s">
         <v>770</v>
       </c>
-      <c r="E258" s="147"/>
-    </row>
-    <row r="259" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C259"/>
-      <c r="E259" s="147"/>
-    </row>
-    <row r="260" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C260" s="129" t="s">
+      <c r="E314" s="147"/>
+    </row>
+    <row r="315" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C315"/>
+      <c r="E315" s="147"/>
+    </row>
+    <row r="316" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C316" s="129" t="s">
         <v>771</v>
       </c>
-      <c r="E260" s="147"/>
-    </row>
-    <row r="261" spans="3:7" ht="121.5">
-      <c r="C261" s="147"/>
-      <c r="E261" s="147" t="s">
+      <c r="E316" s="147"/>
+    </row>
+    <row r="317" spans="3:5" ht="121.5">
+      <c r="C317" s="147"/>
+      <c r="E317" s="147" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="262" spans="3:7" ht="40.5">
-      <c r="C262" s="147"/>
-      <c r="E262" s="147" t="s">
+    <row r="318" spans="3:5" ht="40.5">
+      <c r="C318" s="147"/>
+      <c r="E318" s="147" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="263" spans="3:7" ht="54">
-      <c r="C263" s="147"/>
-      <c r="E263" s="147" t="s">
+    <row r="319" spans="3:5" ht="54">
+      <c r="C319" s="147"/>
+      <c r="E319" s="147" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="264" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C264" s="147"/>
-      <c r="E264" s="147"/>
-    </row>
-    <row r="265" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C265" s="147"/>
-      <c r="E265" s="97" t="s">
+    <row r="320" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C320" s="147"/>
+      <c r="E320" s="147"/>
+    </row>
+    <row r="321" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C321" s="147"/>
+      <c r="E321" s="97" t="s">
         <v>775</v>
       </c>
-      <c r="F265"/>
-      <c r="G265"/>
-    </row>
-    <row r="266" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C266" s="147"/>
-      <c r="E266"/>
-      <c r="F266"/>
-      <c r="G266"/>
-    </row>
-    <row r="267" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C267" s="147"/>
-      <c r="E267" t="s">
+      <c r="F321"/>
+      <c r="G321"/>
+    </row>
+    <row r="322" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C322" s="147"/>
+      <c r="E322"/>
+      <c r="F322"/>
+      <c r="G322"/>
+    </row>
+    <row r="323" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C323" s="147"/>
+      <c r="E323" t="s">
         <v>776</v>
       </c>
-      <c r="F267"/>
-      <c r="G267"/>
-    </row>
-    <row r="268" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C268" s="147"/>
-      <c r="E268" s="180" t="s">
+      <c r="F323"/>
+      <c r="G323"/>
+    </row>
+    <row r="324" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C324" s="147"/>
+      <c r="E324" s="164" t="s">
         <v>777</v>
       </c>
-      <c r="F268" s="180" t="s">
+      <c r="F324" s="164" t="s">
         <v>778</v>
       </c>
-      <c r="G268" s="180" t="s">
+      <c r="G324" s="164" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="269" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C269" s="147"/>
-      <c r="E269" s="181">
+    <row r="325" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C325" s="147"/>
+      <c r="E325" s="165">
         <v>101</v>
       </c>
-      <c r="F269" s="181" t="s">
+      <c r="F325" s="165" t="s">
         <v>780</v>
       </c>
-      <c r="G269" s="181" t="s">
+      <c r="G325" s="165" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="270" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C270" s="147"/>
-      <c r="E270" s="181">
+    <row r="326" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C326" s="147"/>
+      <c r="E326" s="165">
         <v>102</v>
       </c>
-      <c r="F270" s="181" t="s">
+      <c r="F326" s="165" t="s">
         <v>782</v>
       </c>
-      <c r="G270" s="181">
+      <c r="G326" s="165">
         <v>101</v>
       </c>
     </row>
-    <row r="271" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C271" s="147"/>
-      <c r="E271" s="181">
+    <row r="327" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C327" s="147"/>
+      <c r="E327" s="165">
         <v>103</v>
       </c>
-      <c r="F271" s="181" t="s">
+      <c r="F327" s="165" t="s">
         <v>783</v>
       </c>
-      <c r="G271" s="181">
+      <c r="G327" s="165">
         <v>101</v>
       </c>
     </row>
-    <row r="272" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C272" s="147"/>
-      <c r="E272" s="181">
+    <row r="328" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C328" s="147"/>
+      <c r="E328" s="165">
         <v>104</v>
       </c>
-      <c r="F272" s="181" t="s">
+      <c r="F328" s="165" t="s">
         <v>784</v>
       </c>
-      <c r="G272" s="181">
+      <c r="G328" s="165">
         <v>102</v>
       </c>
     </row>
-    <row r="273" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C273" s="147"/>
-      <c r="E273" s="147"/>
-    </row>
-    <row r="274" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C274" s="147"/>
-      <c r="E274" s="182" t="s">
+    <row r="329" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C329" s="147"/>
+      <c r="E329" s="147"/>
+    </row>
+    <row r="330" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C330" s="147"/>
+      <c r="E330" s="166" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="275" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C275" s="147"/>
-      <c r="E275" s="182" t="s">
+    <row r="331" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C331" s="147"/>
+      <c r="E331" s="166" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="276" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C276" s="147"/>
-      <c r="E276" s="128" t="s">
+    <row r="332" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C332" s="147"/>
+      <c r="E332" s="128" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="277" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C277" s="147"/>
-      <c r="E277" s="98" t="s">
+    <row r="333" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C333" s="147"/>
+      <c r="E333" s="98" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="278" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C278" s="147"/>
-      <c r="E278" s="98" t="s">
+    <row r="334" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C334" s="147"/>
+      <c r="E334" s="98" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="279" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C279" s="147"/>
-      <c r="E279" s="184" t="s">
+    <row r="335" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C335" s="147"/>
+      <c r="E335" s="168" t="s">
         <v>790</v>
       </c>
-      <c r="F279" s="184" t="s">
+      <c r="F335" s="168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C280" s="147"/>
-      <c r="E280" s="159" t="s">
+    <row r="336" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C336" s="147"/>
+      <c r="E336" s="159" t="s">
         <v>791</v>
       </c>
-      <c r="F280" s="186" t="s">
+      <c r="F336" s="170" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="281" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C281" s="147"/>
-      <c r="E281" s="185" t="s">
+    <row r="337" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C337" s="147"/>
+      <c r="E337" s="169" t="s">
         <v>793</v>
       </c>
-      <c r="F281" s="186" t="s">
+      <c r="F337" s="170" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="282" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C282" s="147"/>
-      <c r="E282" s="159" t="s">
+    <row r="338" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C338" s="147"/>
+      <c r="E338" s="159" t="s">
         <v>795</v>
       </c>
-      <c r="F282" s="185" t="s">
+      <c r="F338" s="169" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="283" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C283" s="147"/>
-      <c r="E283" s="147"/>
-    </row>
-    <row r="284" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C284" s="147"/>
-      <c r="E284" s="128" t="s">
+    <row r="339" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C339" s="147"/>
+      <c r="E339" s="147"/>
+    </row>
+    <row r="340" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C340" s="147"/>
+      <c r="E340" s="128" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="285" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C285" s="147"/>
-      <c r="E285" s="187" t="s">
+    <row r="341" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C341" s="147"/>
+      <c r="E341" s="171" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="286" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E286" s="98" t="s">
+    <row r="342" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E342" s="98" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="287" spans="3:6" ht="16.5" customHeight="1"/>
-    <row r="288" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E288" t="s">
+    <row r="343" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="344" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E344" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="289" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E289" s="180" t="s">
+    <row r="345" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E345" s="164" t="s">
         <v>801</v>
       </c>
-      <c r="F289" s="180" t="s">
+      <c r="F345" s="164" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="290" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E290" s="181" t="s">
+    <row r="346" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E346" s="165" t="s">
         <v>780</v>
       </c>
-      <c r="F290" s="181" t="s">
+      <c r="F346" s="165" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="291" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E291" s="181" t="s">
+    <row r="347" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E347" s="165" t="s">
         <v>780</v>
       </c>
-      <c r="F291" s="181" t="s">
+      <c r="F347" s="165" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="292" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E292" s="181" t="s">
+    <row r="348" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E348" s="165" t="s">
         <v>782</v>
       </c>
-      <c r="F292" s="181" t="s">
+      <c r="F348" s="165" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="293" spans="5:6" ht="16.5" customHeight="1"/>
-    <row r="294" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E294" s="129" t="s">
+    <row r="349" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="350" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E350" s="129" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="295" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E295" s="184" t="s">
+    <row r="351" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E351" s="168" t="s">
         <v>318</v>
       </c>
-      <c r="F295" s="184" t="s">
+      <c r="F351" s="168" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="296" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E296" s="185" t="s">
+    <row r="352" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E352" s="169" t="s">
         <v>805</v>
       </c>
-      <c r="F296" s="185" t="s">
+      <c r="F352" s="169" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="297" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E297" s="185" t="s">
+    <row r="353" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E353" s="169" t="s">
         <v>807</v>
       </c>
-      <c r="F297" s="185" t="s">
+      <c r="F353" s="169" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="298" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E298" s="185" t="s">
+    <row r="354" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E354" s="169" t="s">
         <v>809</v>
       </c>
-      <c r="F298" s="185" t="s">
+      <c r="F354" s="169" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="299" spans="5:6" ht="16.5" customHeight="1"/>
-    <row r="300" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E300" s="129" t="s">
+    <row r="355" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="356" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E356" s="129" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="301" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E301" s="184" t="s">
+    <row r="357" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E357" s="168" t="s">
         <v>328</v>
       </c>
-      <c r="F301" s="184" t="s">
+      <c r="F357" s="168" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="302" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E302" s="159" t="s">
+    <row r="358" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E358" s="159" t="s">
         <v>812</v>
       </c>
-      <c r="F302" s="185" t="s">
+      <c r="F358" s="169" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="303" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E303" s="185" t="s">
+    <row r="359" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E359" s="169" t="s">
         <v>814</v>
       </c>
-      <c r="F303" s="185" t="s">
+      <c r="F359" s="169" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="304" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E304" s="185" t="s">
+    <row r="360" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E360" s="169" t="s">
         <v>816</v>
       </c>
-      <c r="F304" s="185" t="s">
+      <c r="F360" s="169" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="305" spans="5:6" ht="16.5" customHeight="1"/>
-    <row r="306" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E306" s="188" t="s">
+    <row r="361" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="362" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E362" s="172" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="307" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E307" s="184" t="s">
+    <row r="363" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E363" s="168" t="s">
         <v>790</v>
       </c>
-      <c r="F307" s="184" t="s">
+      <c r="F363" s="168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E308" s="185" t="s">
+    <row r="364" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E364" s="169" t="s">
         <v>819</v>
       </c>
-      <c r="F308" s="185" t="s">
+      <c r="F364" s="169" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="309" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E309" s="185" t="s">
+    <row r="365" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E365" s="169" t="s">
         <v>821</v>
       </c>
-      <c r="F309" s="189" t="s">
+      <c r="F365" s="173" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="310" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E310" s="185" t="s">
+    <row r="366" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E366" s="169" t="s">
         <v>822</v>
       </c>
-      <c r="F310" s="186" t="s">
+      <c r="F366" s="170" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="312" spans="5:6">
-      <c r="E312" t="s">
+    <row r="368" spans="5:6">
+      <c r="E368" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="313" spans="5:6">
-      <c r="E313" s="184" t="s">
+    <row r="369" spans="5:6">
+      <c r="E369" s="168" t="s">
         <v>318</v>
       </c>
-      <c r="F313" s="184" t="s">
+      <c r="F369" s="168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="5:6">
-      <c r="E314" s="185" t="s">
+    <row r="370" spans="5:6">
+      <c r="E370" s="169" t="s">
         <v>825</v>
       </c>
-      <c r="F314" s="185" t="s">
+      <c r="F370" s="169" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="315" spans="5:6">
-      <c r="E315" s="185" t="s">
+    <row r="371" spans="5:6">
+      <c r="E371" s="169" t="s">
         <v>827</v>
       </c>
-      <c r="F315" s="185" t="s">
+      <c r="F371" s="169" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="316" spans="5:6">
-      <c r="E316" s="185" t="s">
+    <row r="372" spans="5:6">
+      <c r="E372" s="169" t="s">
         <v>803</v>
       </c>
-      <c r="F316" s="185" t="s">
+      <c r="F372" s="169" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="318" spans="5:6">
-      <c r="E318" s="190" t="s">
+    <row r="374" spans="5:6">
+      <c r="E374" s="174" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="319" spans="5:6">
-      <c r="E319" t="s">
+    <row r="375" spans="5:6">
+      <c r="E375" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="320" spans="5:6">
-      <c r="E320" t="s">
+    <row r="376" spans="5:6">
+      <c r="E376" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="322" spans="5:6">
-      <c r="E322" s="190"/>
-    </row>
-    <row r="323" spans="5:6">
-      <c r="E323" t="s">
+    <row r="378" spans="5:6">
+      <c r="E378" s="174"/>
+    </row>
+    <row r="379" spans="5:6">
+      <c r="E379" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="324" spans="5:6">
-      <c r="E324" s="101" t="s">
+    <row r="380" spans="5:6">
+      <c r="E380" s="101" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="325" spans="5:6">
-      <c r="E325" s="98" t="s">
+    <row r="381" spans="5:6">
+      <c r="E381" s="98" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="326" spans="5:6">
-      <c r="E326" s="98"/>
-    </row>
-    <row r="327" spans="5:6">
-      <c r="E327" t="s">
+    <row r="382" spans="5:6">
+      <c r="E382" s="98"/>
+    </row>
+    <row r="383" spans="5:6">
+      <c r="E383" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="328" spans="5:6">
-      <c r="E328" s="129" t="s">
+    <row r="384" spans="5:6">
+      <c r="E384" s="129" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="329" spans="5:6">
-      <c r="E329" t="s">
+    <row r="385" spans="5:6">
+      <c r="E385" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="331" spans="5:6" ht="16.5">
-      <c r="E331" s="128" t="s">
+    <row r="387" spans="5:6" ht="16.5">
+      <c r="E387" s="128" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="332" spans="5:6">
-      <c r="E332" s="98" t="s">
+    <row r="388" spans="5:6">
+      <c r="E388" s="98" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="334" spans="5:6">
-      <c r="E334" t="s">
+    <row r="390" spans="5:6">
+      <c r="E390" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="335" spans="5:6">
-      <c r="E335" s="184" t="s">
+    <row r="391" spans="5:6">
+      <c r="E391" s="168" t="s">
         <v>638</v>
       </c>
-      <c r="F335" s="184" t="s">
+      <c r="F391" s="168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="5:6">
-      <c r="E336" s="185" t="s">
+    <row r="392" spans="5:6">
+      <c r="E392" s="169" t="s">
         <v>842</v>
       </c>
-      <c r="F336" s="184" t="s">
+      <c r="F392" s="168" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="337" spans="5:6">
-      <c r="E337" s="185" t="s">
+    <row r="393" spans="5:6">
+      <c r="E393" s="169" t="s">
         <v>844</v>
       </c>
-      <c r="F337" s="185" t="s">
+      <c r="F393" s="169" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="338" spans="5:6">
-      <c r="E338" s="185" t="s">
+    <row r="394" spans="5:6">
+      <c r="E394" s="169" t="s">
         <v>819</v>
       </c>
-      <c r="F338" s="185" t="s">
+      <c r="F394" s="169" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="339" spans="5:6">
-      <c r="E339" s="185" t="s">
+    <row r="395" spans="5:6">
+      <c r="E395" s="169" t="s">
         <v>847</v>
       </c>
-      <c r="F339" s="185" t="s">
+      <c r="F395" s="169" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="341" spans="5:6">
-      <c r="E341" t="s">
+    <row r="397" spans="5:6">
+      <c r="E397" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="342" spans="5:6">
-      <c r="E342" s="184" t="s">
+    <row r="398" spans="5:6">
+      <c r="E398" s="168" t="s">
         <v>328</v>
       </c>
-      <c r="F342" s="184" t="s">
+      <c r="F398" s="168" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="343" spans="5:6">
-      <c r="E343" s="185" t="s">
+    <row r="399" spans="5:6">
+      <c r="E399" s="169" t="s">
         <v>850</v>
       </c>
-      <c r="F343" s="184" t="s">
+      <c r="F399" s="168" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="344" spans="5:6">
-      <c r="E344" s="185" t="s">
+    <row r="400" spans="5:6">
+      <c r="E400" s="169" t="s">
         <v>852</v>
       </c>
-      <c r="F344" s="159" t="s">
+      <c r="F400" s="159" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="345" spans="5:6">
-      <c r="E345" s="185" t="s">
+    <row r="401" spans="3:7">
+      <c r="E401" s="169" t="s">
         <v>854</v>
       </c>
-      <c r="F345" s="159" t="s">
+      <c r="F401" s="159" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="347" spans="5:6">
-      <c r="E347" t="s">
+    <row r="403" spans="3:7">
+      <c r="E403" s="179" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="404" spans="3:7" ht="175.5">
+      <c r="E404" s="175" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="348" spans="5:6" ht="175.5">
-      <c r="E348" s="191" t="s">
+    <row r="405" spans="3:7" ht="54">
+      <c r="C405" s="104" t="s">
+        <v>878</v>
+      </c>
+      <c r="E405" s="176" t="s">
+        <v>859</v>
+      </c>
+      <c r="F405" s="107"/>
+    </row>
+    <row r="406" spans="3:7" ht="27">
+      <c r="E406" s="107" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="407" spans="3:7" ht="54">
+      <c r="C407" s="104" t="s">
+        <v>879</v>
+      </c>
+      <c r="E407" s="176" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="349" spans="5:6" ht="54">
-      <c r="E349" s="192" t="s">
+    <row r="408" spans="3:7">
+      <c r="E408" s="107"/>
+    </row>
+    <row r="409" spans="3:7" ht="14.25">
+      <c r="E409" t="s">
         <v>860</v>
       </c>
-      <c r="F349" s="107"/>
-    </row>
-    <row r="350" spans="5:6" ht="27">
-      <c r="E350" s="107" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="351" spans="5:6" ht="54">
-      <c r="E351" s="192" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="352" spans="5:6">
-      <c r="E352" s="107"/>
-    </row>
-    <row r="353" spans="5:7" ht="14.25">
-      <c r="E353" t="s">
+    </row>
+    <row r="410" spans="3:7" ht="14.25">
+      <c r="E410" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="354" spans="5:7" ht="14.25">
-      <c r="E354" t="s">
+    <row r="411" spans="3:7">
+      <c r="E411" s="164" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="355" spans="5:7">
-      <c r="E355" s="180" t="s">
+      <c r="F411" s="164" t="s">
         <v>863</v>
       </c>
-      <c r="F355" s="180" t="s">
+      <c r="G411" s="164" t="s">
         <v>864</v>
       </c>
-      <c r="G355" s="180" t="s">
+    </row>
+    <row r="412" spans="3:7">
+      <c r="E412" s="167" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="356" spans="5:7">
-      <c r="E356" s="183" t="s">
+      <c r="F412" s="165" t="s">
         <v>866</v>
       </c>
-      <c r="F356" s="181" t="s">
+      <c r="G412" s="165" t="s">
         <v>867</v>
       </c>
-      <c r="G356" s="181" t="s">
+    </row>
+    <row r="413" spans="3:7">
+      <c r="E413" s="167" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="357" spans="5:7">
-      <c r="E357" s="183" t="s">
+      <c r="F413" s="165" t="s">
         <v>869</v>
       </c>
-      <c r="F357" s="181" t="s">
+      <c r="G413" s="165" t="s">
         <v>870</v>
       </c>
-      <c r="G357" s="181" t="s">
+    </row>
+    <row r="414" spans="3:7">
+      <c r="E414" s="107"/>
+    </row>
+    <row r="415" spans="3:7" ht="16.5">
+      <c r="E415" s="128" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="358" spans="5:7">
-      <c r="E358" s="107"/>
-    </row>
-    <row r="359" spans="5:7" ht="16.5">
-      <c r="E359" s="128" t="s">
+    <row r="416" spans="3:7" ht="14.25">
+      <c r="E416" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="360" spans="5:7" ht="14.25">
-      <c r="E360" t="s">
+    <row r="417" spans="3:5" ht="175.5">
+      <c r="E417" s="107" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="361" spans="5:7" ht="175.5">
-      <c r="E361" s="107" t="s">
+    <row r="418" spans="3:5">
+      <c r="E418" s="107"/>
+    </row>
+    <row r="419" spans="3:5" ht="14.25">
+      <c r="E419" s="177" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="362" spans="5:7">
-      <c r="E362" s="107"/>
-    </row>
-    <row r="363" spans="5:7" ht="14.25">
-      <c r="E363" s="193" t="s">
+    <row r="420" spans="3:5">
+      <c r="E420" s="98"/>
+    </row>
+    <row r="421" spans="3:5">
+      <c r="E421" s="171" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="364" spans="5:7">
-      <c r="E364" s="98"/>
-    </row>
-    <row r="365" spans="5:7">
-      <c r="E365" s="187" t="s">
+    <row r="422" spans="3:5">
+      <c r="E422" s="101" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="366" spans="5:7">
-      <c r="E366" s="98"/>
-    </row>
-    <row r="367" spans="5:7">
-      <c r="E367" s="101" t="s">
+    <row r="423" spans="3:5">
+      <c r="E423" s="98" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="368" spans="5:7">
-      <c r="E368" s="98"/>
-    </row>
-    <row r="369" spans="2:5">
-      <c r="E369" s="98" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="370" spans="2:5">
-      <c r="E370" s="107"/>
-    </row>
-    <row r="371" spans="2:5">
-      <c r="E371" s="107"/>
-    </row>
-    <row r="372" spans="2:5">
-      <c r="E372" s="107"/>
-    </row>
-    <row r="373" spans="2:5">
-      <c r="E373" s="107"/>
-    </row>
-    <row r="382" spans="2:5" ht="16.5">
-      <c r="B382" s="106" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="383" spans="2:5" ht="19.5" customHeight="1">
-      <c r="C383" s="105" t="s">
+    <row r="424" spans="3:5">
+      <c r="E424" s="107"/>
+    </row>
+    <row r="425" spans="3:5">
+      <c r="C425" s="129" t="s">
+        <v>881</v>
+      </c>
+      <c r="E425" s="107"/>
+    </row>
+    <row r="426" spans="3:5">
+      <c r="C426" s="100" t="s">
+        <v>882</v>
+      </c>
+      <c r="D426" s="100" t="s">
+        <v>631</v>
+      </c>
+      <c r="E426" s="107"/>
+    </row>
+    <row r="427" spans="3:5" ht="27">
+      <c r="C427" s="147" t="s">
+        <v>883</v>
+      </c>
+      <c r="D427" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="428" spans="3:5" ht="27">
+      <c r="C428" s="147" t="s">
+        <v>885</v>
+      </c>
+      <c r="D428" s="96" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="429" spans="3:5" ht="27">
+      <c r="C429" s="147" t="s">
+        <v>887</v>
+      </c>
+      <c r="D429" s="96" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="430" spans="3:5">
+      <c r="D430" s="104" t="s">
+        <v>889</v>
+      </c>
+      <c r="E430" s="107"/>
+    </row>
+    <row r="431" spans="3:5">
+      <c r="D431" s="104" t="s">
+        <v>890</v>
+      </c>
+      <c r="E431" s="107"/>
+    </row>
+    <row r="432" spans="3:5">
+      <c r="E432" s="107"/>
+    </row>
+    <row r="437" spans="2:5" ht="16.5">
+      <c r="B437" s="106" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" ht="16.5">
+      <c r="B438" s="106"/>
+      <c r="C438" s="105" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="384" spans="2:5">
-      <c r="C384" s="105"/>
-      <c r="D384" s="104" t="s">
+    <row r="439" spans="2:5" ht="16.5">
+      <c r="B439" s="106"/>
+      <c r="C439" s="105"/>
+      <c r="D439" s="104" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="40.5">
-      <c r="E385" s="107" t="s">
-        <v>515</v>
-      </c>
-      <c r="F385" s="107"/>
-    </row>
-    <row r="386" spans="1:6" ht="21">
-      <c r="D386" s="109" t="s">
+    <row r="440" spans="2:5" ht="54">
+      <c r="B440" s="106"/>
+      <c r="E440" s="107" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5" ht="16.5">
+      <c r="B441" s="106"/>
+      <c r="E441" s="107"/>
+    </row>
+    <row r="442" spans="2:5" ht="21">
+      <c r="B442" s="106"/>
+      <c r="D442" s="109" t="s">
         <v>529</v>
       </c>
-      <c r="E386" s="107"/>
-      <c r="F386" s="107"/>
-    </row>
-    <row r="387" spans="1:6">
-      <c r="D387" s="112" t="s">
+      <c r="E442" s="107"/>
+    </row>
+    <row r="443" spans="2:5" ht="16.5">
+      <c r="B443" s="106"/>
+      <c r="D443" s="112" t="s">
         <v>530</v>
       </c>
-      <c r="E387" s="107"/>
-      <c r="F387" s="107"/>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="D388" s="110" t="s">
+      <c r="E443" s="107"/>
+    </row>
+    <row r="444" spans="2:5" ht="16.5">
+      <c r="B444" s="106"/>
+      <c r="D444" s="110" t="s">
         <v>526</v>
       </c>
-      <c r="E388" s="107"/>
-      <c r="F388" s="107"/>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="D389" s="110"/>
-      <c r="E389" s="107"/>
-      <c r="F389" s="107"/>
-    </row>
-    <row r="390" spans="1:6">
-      <c r="D390" s="110" t="s">
+      <c r="E444" s="107"/>
+    </row>
+    <row r="445" spans="2:5" ht="16.5">
+      <c r="B445" s="106"/>
+      <c r="D445" s="110"/>
+      <c r="E445" s="107"/>
+    </row>
+    <row r="446" spans="2:5" ht="16.5">
+      <c r="B446" s="106"/>
+      <c r="D446" s="110" t="s">
         <v>527</v>
       </c>
-      <c r="E390" s="111">
+      <c r="E446" s="111">
         <v>100</v>
       </c>
-      <c r="F390" s="107"/>
-    </row>
-    <row r="391" spans="1:6">
-      <c r="D391" s="110"/>
-      <c r="E391" s="111" t="s">
+    </row>
+    <row r="447" spans="2:5" ht="16.5">
+      <c r="B447" s="106"/>
+      <c r="D447" s="110"/>
+      <c r="E447" s="111" t="s">
         <v>528</v>
       </c>
-      <c r="F391" s="107"/>
-    </row>
-    <row r="392" spans="1:6">
-      <c r="E392" s="113">
+    </row>
+    <row r="448" spans="2:5" ht="16.5">
+      <c r="B448" s="106"/>
+      <c r="E448" s="113">
         <v>45869</v>
       </c>
-      <c r="F392" s="107"/>
-    </row>
-    <row r="393" spans="1:6">
-      <c r="E393" s="107"/>
-      <c r="F393" s="107"/>
-    </row>
-    <row r="394" spans="1:6">
-      <c r="C394" s="105" t="s">
+    </row>
+    <row r="449" spans="2:6" ht="16.5">
+      <c r="B449" s="106"/>
+      <c r="E449" s="107"/>
+    </row>
+    <row r="450" spans="2:6" ht="16.5">
+      <c r="B450" s="106"/>
+      <c r="C450" s="105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
-      <c r="C395" s="104" t="s">
+    <row r="451" spans="2:6" ht="16.5">
+      <c r="B451" s="106"/>
+      <c r="C451" s="104" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
-      <c r="C396" s="105" t="s">
+    <row r="452" spans="2:6" ht="16.5">
+      <c r="B452" s="106"/>
+      <c r="C452" s="105" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="21">
-      <c r="A398" s="103" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
-      <c r="C399" s="105" t="s">
+    <row r="453" spans="2:6" ht="16.5">
+      <c r="B453" s="106"/>
+    </row>
+    <row r="454" spans="2:6" s="152" customFormat="1" ht="14.25">
+      <c r="B454" s="210"/>
+      <c r="C454" s="177" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="455" spans="2:6" s="209" customFormat="1" ht="12">
+      <c r="B455" s="208"/>
+      <c r="C455" s="212" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="456" spans="2:6" ht="16.5">
+      <c r="B456" s="106"/>
+      <c r="C456" s="146" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6" ht="16.5">
+      <c r="B457" s="106"/>
+      <c r="C457" s="187" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="458" spans="2:6" ht="16.5">
+      <c r="B458" s="106"/>
+      <c r="C458" s="187" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6" ht="16.5">
+      <c r="B459" s="106"/>
+      <c r="C459" s="188" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="460" spans="2:6" ht="16.5">
+      <c r="B460" s="106"/>
+      <c r="C460" s="191" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="461" spans="2:6">
+      <c r="C461" s="189"/>
+    </row>
+    <row r="462" spans="2:6" s="209" customFormat="1" ht="12">
+      <c r="C462" s="212" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="463" spans="2:6">
+      <c r="C463" s="146" t="s">
+        <v>898</v>
+      </c>
+      <c r="F463" s="107"/>
+    </row>
+    <row r="464" spans="2:6">
+      <c r="C464" s="146" t="s">
+        <v>899</v>
+      </c>
+      <c r="F464" s="107"/>
+    </row>
+    <row r="465" spans="3:6">
+      <c r="C465" s="98"/>
+      <c r="F465" s="107"/>
+    </row>
+    <row r="466" spans="3:6" s="152" customFormat="1" ht="14.25">
+      <c r="C466" s="177" t="s">
+        <v>900</v>
+      </c>
+      <c r="F466" s="211"/>
+    </row>
+    <row r="467" spans="3:6">
+      <c r="C467"/>
+      <c r="F467" s="107"/>
+    </row>
+    <row r="468" spans="3:6" s="209" customFormat="1" ht="12">
+      <c r="C468" s="212" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="469" spans="3:6" ht="16.5">
+      <c r="C469" s="190" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="470" spans="3:6" ht="67.5">
+      <c r="C470" s="190"/>
+      <c r="E470" s="107" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="471" spans="3:6" ht="16.5">
+      <c r="C471" s="190"/>
+      <c r="D471" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="472" spans="3:6" ht="16.5">
+      <c r="C472" s="190"/>
+      <c r="D472" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="473" spans="3:6" ht="16.5">
+      <c r="C473" s="190"/>
+      <c r="D473" s="129" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="474" spans="3:6" ht="16.5">
+      <c r="C474" s="190"/>
+      <c r="D474" s="129"/>
+    </row>
+    <row r="475" spans="3:6" ht="16.5">
+      <c r="C475" s="190" t="s">
+        <v>906</v>
+      </c>
+      <c r="D475"/>
+    </row>
+    <row r="476" spans="3:6" ht="108">
+      <c r="C476" s="128"/>
+      <c r="E476" s="107" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="477" spans="3:6" ht="16.5">
+      <c r="C477" s="128"/>
+      <c r="D477" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="478" spans="3:6" ht="16.5">
+      <c r="C478" s="128"/>
+      <c r="D478" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="479" spans="3:6" ht="16.5">
+      <c r="C479" s="128"/>
+      <c r="D479" s="129" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="480" spans="3:6" ht="16.5">
+      <c r="C480" s="128"/>
+      <c r="D480" s="178" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="481" spans="3:5" ht="16.5">
+      <c r="C481" s="128"/>
+      <c r="D481" s="104" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="482" spans="3:5" ht="16.5">
+      <c r="C482" s="128"/>
+    </row>
+    <row r="483" spans="3:5" ht="16.5">
+      <c r="C483" s="128"/>
+      <c r="D483" s="128" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="484" spans="3:5" ht="16.5">
+      <c r="C484" s="128"/>
+      <c r="D484" s="98" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="485" spans="3:5" ht="16.5">
+      <c r="C485" s="128"/>
+      <c r="D485" s="98" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="486" spans="3:5" ht="16.5">
+      <c r="C486" s="128"/>
+      <c r="D486" s="98"/>
+    </row>
+    <row r="487" spans="3:5" ht="16.5">
+      <c r="C487" s="128"/>
+      <c r="D487" s="128" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="488" spans="3:5" ht="16.5">
+      <c r="C488" s="128"/>
+      <c r="D488" s="98" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="489" spans="3:5" ht="16.5">
+      <c r="C489" s="128"/>
+      <c r="D489" s="98" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="490" spans="3:5" ht="16.5">
+      <c r="C490" s="128"/>
+      <c r="D490" s="98" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="491" spans="3:5" ht="16.5">
+      <c r="C491" s="128"/>
+    </row>
+    <row r="492" spans="3:5" ht="16.5">
+      <c r="C492" s="128"/>
+      <c r="D492" s="179" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="493" spans="3:5" ht="16.5">
+      <c r="C493" s="128"/>
+      <c r="D493" s="142" t="s">
+        <v>318</v>
+      </c>
+      <c r="E493" s="142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="3:5" ht="16.5">
+      <c r="C494" s="128"/>
+      <c r="D494" s="180" t="s">
+        <v>921</v>
+      </c>
+      <c r="E494" s="96" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="495" spans="3:5" ht="16.5">
+      <c r="C495" s="128"/>
+      <c r="D495" s="180" t="s">
+        <v>923</v>
+      </c>
+      <c r="E495" s="96" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="496" spans="3:5" ht="16.5">
+      <c r="C496" s="128"/>
+      <c r="D496" s="180" t="s">
+        <v>925</v>
+      </c>
+      <c r="E496" s="96" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="497" spans="3:7" ht="16.5">
+      <c r="C497" s="128"/>
+    </row>
+    <row r="498" spans="3:7" ht="21">
+      <c r="C498" s="128"/>
+      <c r="D498" s="97" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="499" spans="3:7" ht="16.5">
+      <c r="C499" s="128"/>
+      <c r="D499" s="98" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="500" spans="3:7" ht="16.5">
+      <c r="C500" s="128"/>
+      <c r="D500" s="146" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="501" spans="3:7" ht="16.5">
+      <c r="C501" s="128"/>
+      <c r="D501" s="146" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="502" spans="3:7" ht="16.5">
+      <c r="C502" s="128"/>
+      <c r="D502" s="98" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="503" spans="3:7" ht="16.5">
+      <c r="C503" s="128"/>
+      <c r="D503" s="98"/>
+    </row>
+    <row r="504" spans="3:7" ht="21">
+      <c r="C504" s="128"/>
+      <c r="D504" s="97" t="s">
+        <v>933</v>
+      </c>
+      <c r="E504"/>
+    </row>
+    <row r="505" spans="3:7" ht="16.5">
+      <c r="C505" s="128"/>
+      <c r="D505"/>
+      <c r="E505"/>
+    </row>
+    <row r="506" spans="3:7" ht="16.5">
+      <c r="C506" s="128"/>
+      <c r="D506" s="181" t="s">
+        <v>328</v>
+      </c>
+      <c r="E506" s="181" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="507" spans="3:7" ht="40.5">
+      <c r="C507" s="128"/>
+      <c r="D507" s="182" t="s">
+        <v>934</v>
+      </c>
+      <c r="E507" s="182" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="508" spans="3:7" ht="27">
+      <c r="C508" s="128"/>
+      <c r="D508" s="182" t="s">
+        <v>936</v>
+      </c>
+      <c r="E508" s="182" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="509" spans="3:7" ht="16.5">
+      <c r="C509" s="128"/>
+      <c r="D509" s="98"/>
+    </row>
+    <row r="510" spans="3:7" ht="16.5">
+      <c r="C510" s="128"/>
+      <c r="D510" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="511" spans="3:7" ht="16.5">
+      <c r="C511" s="128"/>
+      <c r="D511" s="98" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="512" spans="3:7" ht="16.5">
+      <c r="C512" s="128"/>
+      <c r="D512" s="181" t="s">
+        <v>777</v>
+      </c>
+      <c r="E512" s="181" t="s">
+        <v>778</v>
+      </c>
+      <c r="F512" s="181" t="s">
+        <v>939</v>
+      </c>
+      <c r="G512" s="185" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="513" spans="3:7" ht="16.5">
+      <c r="C513" s="128"/>
+      <c r="D513" s="186">
+        <v>1</v>
+      </c>
+      <c r="E513" s="182" t="s">
+        <v>780</v>
+      </c>
+      <c r="F513" s="182" t="s">
+        <v>941</v>
+      </c>
+      <c r="G513" s="186">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="514" spans="3:7" ht="16.5">
+      <c r="C514" s="128"/>
+      <c r="D514" s="186">
+        <v>2</v>
+      </c>
+      <c r="E514" s="182" t="s">
+        <v>782</v>
+      </c>
+      <c r="F514" s="182" t="s">
+        <v>941</v>
+      </c>
+      <c r="G514" s="186">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="515" spans="3:7" ht="16.5">
+      <c r="C515" s="128"/>
+      <c r="D515" s="186">
+        <v>3</v>
+      </c>
+      <c r="E515" s="182" t="s">
+        <v>783</v>
+      </c>
+      <c r="F515" s="182" t="s">
+        <v>942</v>
+      </c>
+      <c r="G515" s="186">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="516" spans="3:7" ht="16.5">
+      <c r="C516" s="128"/>
+      <c r="D516" s="98"/>
+    </row>
+    <row r="517" spans="3:7" ht="16.5">
+      <c r="C517" s="128"/>
+      <c r="D517" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="518" spans="3:7" ht="16.5">
+      <c r="C518" s="128"/>
+      <c r="D518" s="181" t="s">
+        <v>778</v>
+      </c>
+      <c r="E518" s="185" t="s">
+        <v>940</v>
+      </c>
+      <c r="F518" s="185" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="519" spans="3:7" ht="16.5">
+      <c r="C519" s="128"/>
+      <c r="D519" s="182" t="s">
+        <v>780</v>
+      </c>
+      <c r="E519" s="186">
+        <v>300</v>
+      </c>
+      <c r="F519" s="186">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="520" spans="3:7" ht="16.5">
+      <c r="C520" s="128"/>
+      <c r="D520" s="182" t="s">
+        <v>782</v>
+      </c>
+      <c r="E520" s="186">
+        <v>400</v>
+      </c>
+      <c r="F520" s="186">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="521" spans="3:7" ht="16.5">
+      <c r="C521" s="128"/>
+      <c r="D521" s="182" t="s">
+        <v>783</v>
+      </c>
+      <c r="E521" s="186">
+        <v>500</v>
+      </c>
+      <c r="F521" s="186">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="522" spans="3:7" ht="16.5">
+      <c r="C522" s="128"/>
+      <c r="D522" s="98"/>
+    </row>
+    <row r="523" spans="3:7" ht="16.5">
+      <c r="C523" s="128"/>
+      <c r="D523" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="524" spans="3:7" ht="16.5">
+      <c r="C524" s="128"/>
+      <c r="D524" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="525" spans="3:7" ht="16.5">
+      <c r="C525" s="128"/>
+    </row>
+    <row r="526" spans="3:7" ht="21">
+      <c r="C526" s="128"/>
+      <c r="D526" s="97" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="527" spans="3:7" ht="16.5">
+      <c r="C527" s="128"/>
+      <c r="D527" s="101" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="528" spans="3:7" ht="16.5">
+      <c r="C528" s="128"/>
+      <c r="D528" s="98" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="529" spans="3:6" ht="16.5">
+      <c r="C529" s="128"/>
+      <c r="D529" s="98" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="530" spans="3:6" ht="16.5">
+      <c r="C530" s="128"/>
+    </row>
+    <row r="531" spans="3:6" ht="16.5">
+      <c r="C531" s="128"/>
+      <c r="D531" s="129" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="532" spans="3:6" ht="135">
+      <c r="C532" s="128"/>
+      <c r="E532" s="107" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="533" spans="3:6" ht="54">
+      <c r="C533" s="128"/>
+      <c r="E533" s="107" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="534" spans="3:6" ht="16.5">
+      <c r="C534" s="128"/>
+    </row>
+    <row r="535" spans="3:6">
+      <c r="C535" s="180"/>
+      <c r="E535" s="180" t="s">
+        <v>953</v>
+      </c>
+      <c r="F535" s="213"/>
+    </row>
+    <row r="536" spans="3:6" ht="16.5">
+      <c r="C536" s="128"/>
+      <c r="E536" s="168" t="s">
+        <v>954</v>
+      </c>
+      <c r="F536" s="168" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="537" spans="3:6" ht="16.5">
+      <c r="C537" s="128"/>
+      <c r="E537" s="169" t="s">
+        <v>955</v>
+      </c>
+      <c r="F537" s="168" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="538" spans="3:6" ht="16.5">
+      <c r="C538" s="128"/>
+      <c r="E538" s="169" t="s">
+        <v>957</v>
+      </c>
+      <c r="F538" s="169" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="539" spans="3:6" ht="16.5">
+      <c r="C539" s="128"/>
+      <c r="E539" s="169" t="s">
+        <v>882</v>
+      </c>
+      <c r="F539" s="169" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="540" spans="3:6" ht="16.5">
+      <c r="C540" s="128"/>
+    </row>
+    <row r="541" spans="3:6" ht="16.5">
+      <c r="C541" s="128"/>
+      <c r="D541" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="542" spans="3:6" ht="54">
+      <c r="C542" s="128"/>
+      <c r="E542" s="107" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="543" spans="3:6" ht="16.5">
+      <c r="C543" s="128"/>
+    </row>
+    <row r="544" spans="3:6" ht="16.5">
+      <c r="C544" s="128"/>
+      <c r="D544" s="146"/>
+    </row>
+    <row r="545" spans="1:5" ht="16.5">
+      <c r="C545" s="128"/>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="D546" s="98"/>
+    </row>
+    <row r="547" spans="1:5" ht="21">
+      <c r="A547" s="103" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="C548" s="105" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
-      <c r="C400" s="104" t="s">
+    <row r="549" spans="1:5">
+      <c r="C549" s="104" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
-      <c r="C401" s="104" t="s">
+    <row r="550" spans="1:5">
+      <c r="C550" s="104" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
-      <c r="D402" s="104" t="s">
+    <row r="551" spans="1:5">
+      <c r="D551" s="104" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="60">
-      <c r="E403" s="114" t="s">
+    <row r="552" spans="1:5" ht="60">
+      <c r="E552" s="114" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
-      <c r="C404" s="105" t="s">
+    <row r="553" spans="1:5">
+      <c r="C553" s="105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
-      <c r="C405" s="104" t="s">
+    <row r="554" spans="1:5">
+      <c r="C554" s="104" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
-      <c r="C406" s="104" t="s">
+    <row r="555" spans="1:5">
+      <c r="C555" s="104" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
-      <c r="C407" s="105" t="s">
+    <row r="556" spans="1:5">
+      <c r="C556" s="105" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="21">
-      <c r="A409" s="103" t="s">
+    <row r="559" spans="1:5" ht="21">
+      <c r="B559" s="97" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="B560"/>
+    </row>
+    <row r="561" spans="2:5" ht="16.5">
+      <c r="B561" s="128" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="562" spans="2:5">
+      <c r="B562" s="171" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="563" spans="2:5">
+      <c r="B563" s="98" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="564" spans="2:5">
+      <c r="B564" s="98" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="565" spans="2:5" ht="121.5">
+      <c r="E565" s="107" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="566" spans="2:5">
+      <c r="B566" s="129" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="567" spans="2:5">
+      <c r="B567" s="98" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="568" spans="2:5">
+      <c r="B568" s="101" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="569" spans="2:5">
+      <c r="B569" s="98"/>
+    </row>
+    <row r="570" spans="2:5" ht="16.5">
+      <c r="B570" s="128" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="571" spans="2:5">
+      <c r="B571" s="98" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="572" spans="2:5">
+      <c r="B572" s="98" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="573" spans="2:5" ht="108">
+      <c r="B573" s="98"/>
+      <c r="E573" s="107" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="574" spans="2:5">
+      <c r="B574" s="129" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="575" spans="2:5">
+      <c r="B575" s="98" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="576" spans="2:5">
+      <c r="B576" s="98" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="577" spans="2:5">
+      <c r="B577" s="98"/>
+    </row>
+    <row r="578" spans="2:5" ht="16.5">
+      <c r="B578" s="128" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="579" spans="2:5">
+      <c r="B579" s="171" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="580" spans="2:5">
+      <c r="B580" s="98" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="581" spans="2:5">
+      <c r="B581" s="98" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="582" spans="2:5" ht="121.5">
+      <c r="E582" s="107" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="583" spans="2:5">
+      <c r="B583" s="129" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="584" spans="2:5">
+      <c r="B584" s="101" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="585" spans="2:5">
+      <c r="B585" s="101" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="586" spans="2:5">
+      <c r="B586" s="98" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="589" spans="2:5" ht="16.5">
+      <c r="B589" s="128" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="590" spans="2:5">
+      <c r="B590" s="98" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="591" spans="2:5">
+      <c r="B591" s="98" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="592" spans="2:5" ht="108">
+      <c r="B592" s="98"/>
+      <c r="E592" s="107" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="593" spans="2:5">
+      <c r="B593" s="129" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="594" spans="2:5">
+      <c r="B594" s="98" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="595" spans="2:5">
+      <c r="B595" s="98" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="596" spans="2:5">
+      <c r="B596" s="98"/>
+    </row>
+    <row r="597" spans="2:5">
+      <c r="C597" s="185" t="s">
+        <v>638</v>
+      </c>
+      <c r="D597" s="185" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E597" s="185" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="598" spans="2:5" ht="27">
+      <c r="C598" s="186" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D598" s="186" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E598" s="186" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="599" spans="2:5" ht="27">
+      <c r="C599" s="186" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D599" s="186" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E599" s="186" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="600" spans="2:5">
+      <c r="C600" s="186" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D600" s="186" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E600" s="186" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="601" spans="2:5" ht="27">
+      <c r="C601" s="186" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D601" s="186" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E601" s="186" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="603" spans="2:5">
+      <c r="B603" s="129" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="604" spans="2:5">
+      <c r="B604" s="171" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="605" spans="2:5">
+      <c r="B605" s="171" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="606" spans="2:5">
+      <c r="B606" s="214" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="608" spans="2:5" ht="21">
+      <c r="B608" s="97" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="B610" s="171" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="B611" s="98" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="B612" s="98" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="B614" s="98"/>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="B616" s="98"/>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="B618" s="98"/>
+    </row>
+    <row r="623" spans="1:5" ht="21">
+      <c r="A623" s="103" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
-      <c r="C410" s="108"/>
-      <c r="D410" s="108"/>
-      <c r="E410" s="108"/>
-    </row>
-    <row r="411" spans="1:9" ht="27">
-      <c r="C411" s="115" t="s">
+    <row r="624" spans="1:5">
+      <c r="C624" s="108"/>
+      <c r="D624" s="108"/>
+      <c r="E624" s="108"/>
+    </row>
+    <row r="625" spans="1:9" ht="27">
+      <c r="C625" s="115" t="s">
         <v>548</v>
       </c>
-      <c r="D411" s="115" t="s">
+      <c r="D625" s="115" t="s">
         <v>549</v>
       </c>
-      <c r="E411" s="115" t="s">
+      <c r="E625" s="115" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C412" s="116" t="s">
+    <row r="626" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C626" s="116" t="s">
         <v>531</v>
       </c>
-      <c r="D412" s="117" t="s">
+      <c r="D626" s="117" t="s">
         <v>551</v>
       </c>
-      <c r="E412" s="118" t="s">
+      <c r="E626" s="118" t="s">
         <v>559</v>
       </c>
-      <c r="G412" s="119"/>
-      <c r="H412" s="119"/>
-      <c r="I412" s="119"/>
-    </row>
-    <row r="413" spans="1:9" ht="63" customHeight="1">
-      <c r="C413" s="116" t="s">
+      <c r="G626" s="119"/>
+      <c r="H626" s="119"/>
+      <c r="I626" s="119"/>
+    </row>
+    <row r="627" spans="1:9" ht="63" customHeight="1">
+      <c r="C627" s="116" t="s">
         <v>557</v>
       </c>
-      <c r="D413" s="117" t="s">
+      <c r="D627" s="117" t="s">
         <v>556</v>
       </c>
-      <c r="E413" s="120" t="s">
+      <c r="E627" s="120" t="s">
         <v>560</v>
       </c>
-      <c r="G413" s="121"/>
-      <c r="H413" s="122"/>
-      <c r="I413" s="123"/>
-    </row>
-    <row r="414" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C414" s="116" t="s">
+      <c r="G627" s="121"/>
+      <c r="H627" s="122"/>
+      <c r="I627" s="123"/>
+    </row>
+    <row r="628" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C628" s="116" t="s">
         <v>558</v>
       </c>
-      <c r="D414" s="117" t="s">
+      <c r="D628" s="117" t="s">
         <v>552</v>
       </c>
-      <c r="E414" s="124" t="s">
+      <c r="E628" s="124" t="s">
         <v>561</v>
       </c>
-      <c r="G414" s="121"/>
-      <c r="H414" s="122"/>
-      <c r="I414" s="122"/>
-    </row>
-    <row r="415" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C415" s="116" t="s">
+      <c r="G628" s="121"/>
+      <c r="H628" s="122"/>
+      <c r="I628" s="122"/>
+    </row>
+    <row r="629" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C629" s="116" t="s">
         <v>517</v>
       </c>
-      <c r="D415" s="125" t="s">
+      <c r="D629" s="125" t="s">
         <v>563</v>
       </c>
-      <c r="E415" s="125" t="s">
+      <c r="E629" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="G415" s="121"/>
-      <c r="H415" s="122"/>
-      <c r="I415" s="122"/>
-    </row>
-    <row r="416" spans="1:9">
-      <c r="C416" s="126"/>
-      <c r="D416" s="126"/>
-    </row>
-    <row r="417" spans="1:3" ht="21">
-      <c r="A417" s="109" t="s">
+      <c r="G629" s="121"/>
+      <c r="H629" s="122"/>
+      <c r="I629" s="122"/>
+    </row>
+    <row r="630" spans="1:9">
+      <c r="C630" s="126"/>
+      <c r="D630" s="126"/>
+    </row>
+    <row r="631" spans="1:9" ht="21">
+      <c r="A631" s="109" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
-      <c r="A418" s="108"/>
-    </row>
-    <row r="419" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A419" s="108" t="s">
+    <row r="632" spans="1:9">
+      <c r="A632" s="105" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A633" s="108" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A420" s="110"/>
-    </row>
-    <row r="421" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A421" s="112" t="s">
+    <row r="634" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A634" s="110"/>
+    </row>
+    <row r="635" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A635" s="112" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A422" s="111" t="s">
+    <row r="636" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A636" s="111" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A423" s="108"/>
-    </row>
-    <row r="424" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A424" s="127"/>
-      <c r="C424" s="127" t="s">
+    <row r="637" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A637" s="108"/>
+    </row>
+    <row r="638" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A638" s="127"/>
+      <c r="C638" s="127" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A425" s="127"/>
-      <c r="C425" s="127" t="s">
+    <row r="639" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A639" s="127"/>
+      <c r="C639" s="127" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="427" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A427" s="112" t="s">
+    <row r="640" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="641" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A641" s="112" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A428" s="110" t="s">
+    <row r="642" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A642" s="110" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A429" s="110" t="s">
+    <row r="643" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A643" s="110" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A430" s="112" t="s">
+    <row r="644" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A644" s="112" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A431" s="112" t="s">
+    <row r="645" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A645" s="112" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A432" s="108"/>
-    </row>
-    <row r="433" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A433" s="127"/>
-      <c r="C433" s="127" t="s">
+    <row r="646" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A646" s="108"/>
+    </row>
+    <row r="647" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A647" s="127"/>
+      <c r="C647" s="127" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A434" s="127"/>
-      <c r="C434" s="127" t="s">
+    <row r="648" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A648" s="127"/>
+      <c r="C648" s="127" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="16.5" customHeight="1">
-      <c r="C435" s="127" t="s">
+    <row r="649" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C649" s="127" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="437" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A437" s="104" t="s">
+    <row r="650" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="651" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A651" s="104" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A438" s="104" t="s">
+    <row r="652" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A652" s="104" t="s">
         <v>547</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="129" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" ht="14.25">
+      <c r="A655" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656"/>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="129" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" t="s">
+        <v>963</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C115:E115"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="3" manualBreakCount="3">
-    <brk id="78" max="6" man="1"/>
-    <brk id="381" max="6" man="1"/>
-    <brk id="416" max="6" man="1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="97" max="6" man="1"/>
+    <brk id="436" max="6" man="1"/>
+    <brk id="530" max="6" man="1"/>
+    <brk id="630" max="6" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
@@ -13459,11 +17600,11 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="16.5" customHeight="1">
-      <c r="C96" s="162" t="s">
+      <c r="C96" s="192" t="s">
         <v>523</v>
       </c>
-      <c r="D96" s="162"/>
-      <c r="E96" s="162"/>
+      <c r="D96" s="192"/>
+      <c r="E96" s="192"/>
     </row>
     <row r="97" spans="3:5" ht="16.5" customHeight="1">
       <c r="C97" s="102"/>
@@ -15199,11 +19340,11 @@
       </c>
     </row>
     <row r="100" spans="2:6" ht="16.5" customHeight="1">
-      <c r="C100" s="162" t="s">
+      <c r="C100" s="192" t="s">
         <v>523</v>
       </c>
-      <c r="D100" s="162"/>
-      <c r="E100" s="162"/>
+      <c r="D100" s="192"/>
+      <c r="E100" s="192"/>
     </row>
     <row r="102" spans="2:6" ht="16.5">
       <c r="B102" s="106" t="s">
@@ -16160,7 +20301,7 @@
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
-      <c r="F70" s="166" t="s">
+      <c r="F70" s="193" t="s">
         <v>211</v>
       </c>
     </row>
@@ -16172,7 +20313,7 @@
         <v>393</v>
       </c>
       <c r="D71" s="31"/>
-      <c r="F71" s="166"/>
+      <c r="F71" s="193"/>
     </row>
     <row r="72" spans="1:6" ht="27">
       <c r="C72" s="58" t="s">
@@ -16184,7 +20325,7 @@
       <c r="E72" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="166"/>
+      <c r="F72" s="193"/>
     </row>
     <row r="73" spans="1:6" ht="40.5">
       <c r="C73" s="58" t="s">
@@ -16196,7 +20337,7 @@
       <c r="E73" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F73" s="166"/>
+      <c r="F73" s="193"/>
     </row>
     <row r="74" spans="1:6" ht="40.5">
       <c r="B74" s="31"/>
@@ -16209,7 +20350,7 @@
       <c r="E74" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F74" s="166"/>
+      <c r="F74" s="193"/>
     </row>
     <row r="75" spans="1:6" ht="27">
       <c r="B75" s="31"/>
@@ -16222,7 +20363,7 @@
       <c r="E75" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F75" s="166"/>
+      <c r="F75" s="193"/>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="31"/>
@@ -16252,7 +20393,7 @@
       <c r="D79" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E79" s="164" t="s">
+      <c r="E79" s="194" t="s">
         <v>362</v>
       </c>
     </row>
@@ -16264,7 +20405,7 @@
       <c r="D80" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E80" s="164"/>
+      <c r="E80" s="194"/>
     </row>
     <row r="81" spans="2:6" ht="27">
       <c r="B81" s="31"/>
@@ -16274,7 +20415,7 @@
       <c r="D81" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="164"/>
+      <c r="E81" s="194"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="31"/>
@@ -16298,7 +20439,7 @@
       <c r="E84" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F84" s="164" t="s">
+      <c r="F84" s="194" t="s">
         <v>246</v>
       </c>
     </row>
@@ -16313,7 +20454,7 @@
       <c r="E85" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F85" s="164"/>
+      <c r="F85" s="194"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -16326,7 +20467,7 @@
       <c r="E86" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F86" s="164"/>
+      <c r="F86" s="194"/>
     </row>
     <row r="87" spans="2:6" ht="27">
       <c r="B87" s="31"/>
@@ -16339,7 +20480,7 @@
       <c r="E87" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F87" s="164"/>
+      <c r="F87" s="194"/>
     </row>
     <row r="88" spans="2:6" ht="27">
       <c r="B88" s="31"/>
@@ -16352,7 +20493,7 @@
       <c r="E88" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F88" s="164"/>
+      <c r="F88" s="194"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="31"/>
@@ -16376,7 +20517,7 @@
       <c r="E91" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F91" s="164" t="s">
+      <c r="F91" s="194" t="s">
         <v>247</v>
       </c>
     </row>
@@ -16390,7 +20531,7 @@
       <c r="E92" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="164"/>
+      <c r="F92" s="194"/>
     </row>
     <row r="93" spans="2:6">
       <c r="C93" s="31"/>
@@ -16403,10 +20544,10 @@
       <c r="D94" s="31"/>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="167" t="s">
+      <c r="B95" s="195" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="168" t="s">
+      <c r="C95" s="196" t="s">
         <v>398</v>
       </c>
       <c r="D95" s="58" t="s">
@@ -16414,115 +20555,115 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="164"/>
-      <c r="C96" s="168"/>
+      <c r="B96" s="194"/>
+      <c r="C96" s="196"/>
       <c r="D96" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="164"/>
-      <c r="C97" s="168"/>
+      <c r="B97" s="194"/>
+      <c r="C97" s="196"/>
       <c r="D97" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="27">
-      <c r="B98" s="164"/>
-      <c r="C98" s="168"/>
+      <c r="B98" s="194"/>
+      <c r="C98" s="196"/>
       <c r="D98" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="27">
-      <c r="B99" s="164"/>
-      <c r="C99" s="168"/>
+      <c r="B99" s="194"/>
+      <c r="C99" s="196"/>
       <c r="D99" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="164"/>
-      <c r="C100" s="168"/>
+      <c r="B100" s="194"/>
+      <c r="C100" s="196"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="163" t="s">
+      <c r="C101" s="197" t="s">
         <v>262</v>
       </c>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="163"/>
+      <c r="C102" s="197"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="163"/>
+      <c r="C103" s="197"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="163"/>
+      <c r="C104" s="197"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="163"/>
+      <c r="C105" s="197"/>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="163"/>
+      <c r="C106" s="197"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="163" t="s">
+      <c r="C107" s="197" t="s">
         <v>263</v>
       </c>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="163"/>
+      <c r="C108" s="197"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="163"/>
+      <c r="C109" s="197"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="163"/>
+      <c r="C110" s="197"/>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="163"/>
+      <c r="C111" s="197"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4" ht="27">
       <c r="B112" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="163" t="s">
+      <c r="C112" s="197" t="s">
         <v>264</v>
       </c>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="163"/>
+      <c r="C113" s="197"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="163"/>
+      <c r="C114" s="197"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" s="163"/>
+      <c r="C115" s="197"/>
       <c r="D115" s="31"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" s="163"/>
+      <c r="C116" s="197"/>
       <c r="D116" s="31"/>
     </row>
     <row r="117" spans="1:4">
@@ -16555,30 +20696,30 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="164" t="s">
+      <c r="B121" s="194" t="s">
         <v>261</v>
       </c>
-      <c r="C121" s="164"/>
+      <c r="C121" s="194"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="164"/>
-      <c r="C122" s="164"/>
+      <c r="B122" s="194"/>
+      <c r="C122" s="194"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="164"/>
-      <c r="C123" s="164"/>
+      <c r="B123" s="194"/>
+      <c r="C123" s="194"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="B124" s="164"/>
-      <c r="C124" s="164"/>
+      <c r="B124" s="194"/>
+      <c r="C124" s="194"/>
       <c r="D124" s="31"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="B125" s="164"/>
-      <c r="C125" s="164"/>
+      <c r="B125" s="194"/>
+      <c r="C125" s="194"/>
       <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" ht="40.5">
@@ -17173,10 +21314,10 @@
       </c>
     </row>
     <row r="196" spans="3:4" ht="51" customHeight="1">
-      <c r="C196" s="165" t="s">
+      <c r="C196" s="198" t="s">
         <v>439</v>
       </c>
-      <c r="D196" s="165"/>
+      <c r="D196" s="198"/>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" s="77" t="s">
@@ -17190,17 +21331,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="B121:C125"/>
+    <mergeCell ref="C196:D196"/>
     <mergeCell ref="F70:F75"/>
     <mergeCell ref="E79:E81"/>
     <mergeCell ref="F84:F88"/>
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="C95:C100"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="B121:C125"/>
-    <mergeCell ref="C196:D196"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -17795,7 +21936,7 @@
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="F68" s="166" t="s">
+      <c r="F68" s="193" t="s">
         <v>211</v>
       </c>
     </row>
@@ -17807,7 +21948,7 @@
         <v>393</v>
       </c>
       <c r="D69" s="31"/>
-      <c r="F69" s="166"/>
+      <c r="F69" s="193"/>
     </row>
     <row r="70" spans="1:6" ht="27">
       <c r="C70" s="58" t="s">
@@ -17819,7 +21960,7 @@
       <c r="E70" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="166"/>
+      <c r="F70" s="193"/>
     </row>
     <row r="71" spans="1:6" ht="40.5">
       <c r="C71" s="58" t="s">
@@ -17831,7 +21972,7 @@
       <c r="E71" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F71" s="166"/>
+      <c r="F71" s="193"/>
     </row>
     <row r="72" spans="1:6" ht="40.5">
       <c r="B72" s="31"/>
@@ -17844,7 +21985,7 @@
       <c r="E72" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="166"/>
+      <c r="F72" s="193"/>
     </row>
     <row r="73" spans="1:6" ht="27">
       <c r="B73" s="31"/>
@@ -17857,7 +21998,7 @@
       <c r="E73" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F73" s="166"/>
+      <c r="F73" s="193"/>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="31"/>
@@ -17887,7 +22028,7 @@
       <c r="D77" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E77" s="164" t="s">
+      <c r="E77" s="194" t="s">
         <v>362</v>
       </c>
     </row>
@@ -17899,7 +22040,7 @@
       <c r="D78" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E78" s="164"/>
+      <c r="E78" s="194"/>
     </row>
     <row r="79" spans="1:6" ht="27">
       <c r="B79" s="31"/>
@@ -17909,7 +22050,7 @@
       <c r="D79" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E79" s="164"/>
+      <c r="E79" s="194"/>
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="31"/>
@@ -17933,7 +22074,7 @@
       <c r="E82" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="164" t="s">
+      <c r="F82" s="194" t="s">
         <v>246</v>
       </c>
     </row>
@@ -17948,7 +22089,7 @@
       <c r="E83" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F83" s="164"/>
+      <c r="F83" s="194"/>
     </row>
     <row r="84" spans="2:6" ht="27">
       <c r="B84" s="31"/>
@@ -17961,7 +22102,7 @@
       <c r="E84" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F84" s="164"/>
+      <c r="F84" s="194"/>
     </row>
     <row r="85" spans="2:6" ht="27">
       <c r="B85" s="31"/>
@@ -17974,7 +22115,7 @@
       <c r="E85" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F85" s="164"/>
+      <c r="F85" s="194"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -17987,7 +22128,7 @@
       <c r="E86" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F86" s="164"/>
+      <c r="F86" s="194"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="31"/>
@@ -18011,7 +22152,7 @@
       <c r="E89" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F89" s="164" t="s">
+      <c r="F89" s="194" t="s">
         <v>247</v>
       </c>
     </row>
@@ -18025,7 +22166,7 @@
       <c r="E90" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F90" s="164"/>
+      <c r="F90" s="194"/>
     </row>
     <row r="91" spans="2:6">
       <c r="C91" s="31"/>
@@ -18038,10 +22179,10 @@
       <c r="D92" s="31"/>
     </row>
     <row r="93" spans="2:6" ht="27">
-      <c r="B93" s="167" t="s">
+      <c r="B93" s="195" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="168" t="s">
+      <c r="C93" s="196" t="s">
         <v>398</v>
       </c>
       <c r="D93" s="58" t="s">
@@ -18049,115 +22190,115 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="27">
-      <c r="B94" s="164"/>
-      <c r="C94" s="168"/>
+      <c r="B94" s="194"/>
+      <c r="C94" s="196"/>
       <c r="D94" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="164"/>
-      <c r="C95" s="168"/>
+      <c r="B95" s="194"/>
+      <c r="C95" s="196"/>
       <c r="D95" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="164"/>
-      <c r="C96" s="168"/>
+      <c r="B96" s="194"/>
+      <c r="C96" s="196"/>
       <c r="D96" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="164"/>
-      <c r="C97" s="168"/>
+      <c r="B97" s="194"/>
+      <c r="C97" s="196"/>
       <c r="D97" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="164"/>
-      <c r="C98" s="168"/>
+      <c r="B98" s="194"/>
+      <c r="C98" s="196"/>
       <c r="D98" s="31"/>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="163" t="s">
+      <c r="C99" s="197" t="s">
         <v>262</v>
       </c>
       <c r="D99" s="31"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="163"/>
+      <c r="C100" s="197"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="163"/>
+      <c r="C101" s="197"/>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="163"/>
+      <c r="C102" s="197"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="163"/>
+      <c r="C103" s="197"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="163"/>
+      <c r="C104" s="197"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="163" t="s">
+      <c r="C105" s="197" t="s">
         <v>263</v>
       </c>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="163"/>
+      <c r="C106" s="197"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="163"/>
+      <c r="C107" s="197"/>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="163"/>
+      <c r="C108" s="197"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="163"/>
+      <c r="C109" s="197"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4" ht="27">
       <c r="B110" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="163" t="s">
+      <c r="C110" s="197" t="s">
         <v>264</v>
       </c>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="163"/>
+      <c r="C111" s="197"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="163"/>
+      <c r="C112" s="197"/>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="163"/>
+      <c r="C113" s="197"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="163"/>
+      <c r="C114" s="197"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
@@ -18190,30 +22331,30 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="B119" s="164" t="s">
+      <c r="B119" s="194" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="164"/>
+      <c r="C119" s="194"/>
       <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="B120" s="164"/>
-      <c r="C120" s="164"/>
+      <c r="B120" s="194"/>
+      <c r="C120" s="194"/>
       <c r="D120" s="31"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="164"/>
-      <c r="C121" s="164"/>
+      <c r="B121" s="194"/>
+      <c r="C121" s="194"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="164"/>
-      <c r="C122" s="164"/>
+      <c r="B122" s="194"/>
+      <c r="C122" s="194"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="164"/>
-      <c r="C123" s="164"/>
+      <c r="B123" s="194"/>
+      <c r="C123" s="194"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4" ht="40.5">
@@ -18808,10 +22949,10 @@
       </c>
     </row>
     <row r="194" spans="3:4" ht="51" customHeight="1">
-      <c r="C194" s="165" t="s">
+      <c r="C194" s="198" t="s">
         <v>439</v>
       </c>
-      <c r="D194" s="165"/>
+      <c r="D194" s="198"/>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" s="77" t="s">
@@ -18825,17 +22966,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="B119:C123"/>
     <mergeCell ref="F68:F73"/>
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="F82:F86"/>
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="B93:B98"/>
     <mergeCell ref="C93:C98"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="B119:C123"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -19427,7 +23568,7 @@
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
-      <c r="F67" s="173" t="s">
+      <c r="F67" s="203" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19439,7 +23580,7 @@
         <v>238</v>
       </c>
       <c r="D68" s="18"/>
-      <c r="F68" s="173"/>
+      <c r="F68" s="203"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
       <c r="C69" s="33" t="s">
@@ -19451,7 +23592,7 @@
       <c r="E69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="174"/>
+      <c r="F69" s="204"/>
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1">
       <c r="C70" s="33" t="s">
@@ -19463,7 +23604,7 @@
       <c r="E70" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="174"/>
+      <c r="F70" s="204"/>
     </row>
     <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="B71" s="18"/>
@@ -19476,7 +23617,7 @@
       <c r="E71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F71" s="174"/>
+      <c r="F71" s="204"/>
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
       <c r="B72" s="18"/>
@@ -19489,7 +23630,7 @@
       <c r="E72" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="174"/>
+      <c r="F72" s="204"/>
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="B73" s="18"/>
@@ -19519,7 +23660,7 @@
       <c r="D76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="171" t="s">
+      <c r="E76" s="201" t="s">
         <v>220</v>
       </c>
     </row>
@@ -19531,7 +23672,7 @@
       <c r="D77" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="172"/>
+      <c r="E77" s="202"/>
     </row>
     <row r="78" spans="1:6" ht="21" customHeight="1">
       <c r="B78" s="18"/>
@@ -19541,7 +23682,7 @@
       <c r="D78" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="172"/>
+      <c r="E78" s="202"/>
     </row>
     <row r="79" spans="1:6" ht="21" customHeight="1">
       <c r="B79" s="18"/>
@@ -19565,7 +23706,7 @@
       <c r="E81" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="171" t="s">
+      <c r="F81" s="201" t="s">
         <v>246</v>
       </c>
     </row>
@@ -19580,7 +23721,7 @@
       <c r="E82" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F82" s="172"/>
+      <c r="F82" s="202"/>
     </row>
     <row r="83" spans="2:6" ht="21" customHeight="1">
       <c r="B83" s="18"/>
@@ -19593,7 +23734,7 @@
       <c r="E83" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="172"/>
+      <c r="F83" s="202"/>
     </row>
     <row r="84" spans="2:6" ht="21" customHeight="1">
       <c r="B84" s="18"/>
@@ -19606,7 +23747,7 @@
       <c r="E84" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="172"/>
+      <c r="F84" s="202"/>
     </row>
     <row r="85" spans="2:6" ht="21" customHeight="1">
       <c r="B85" s="18"/>
@@ -19619,7 +23760,7 @@
       <c r="E85" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F85" s="172"/>
+      <c r="F85" s="202"/>
     </row>
     <row r="86" spans="2:6" ht="21" customHeight="1">
       <c r="B86" s="18"/>
@@ -19643,7 +23784,7 @@
       <c r="E88" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F88" s="171" t="s">
+      <c r="F88" s="201" t="s">
         <v>247</v>
       </c>
     </row>
@@ -19657,7 +23798,7 @@
       <c r="E89" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="172"/>
+      <c r="F89" s="202"/>
     </row>
     <row r="90" spans="2:6" ht="21" customHeight="1">
       <c r="C90" s="18"/>
@@ -19670,10 +23811,10 @@
       <c r="D91" s="18"/>
     </row>
     <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="B92" s="175" t="s">
+      <c r="B92" s="205" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="176" t="s">
+      <c r="C92" s="206" t="s">
         <v>265</v>
       </c>
       <c r="D92" s="33" t="s">
@@ -19681,115 +23822,115 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="B93" s="172"/>
-      <c r="C93" s="177"/>
+      <c r="B93" s="202"/>
+      <c r="C93" s="207"/>
       <c r="D93" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="B94" s="172"/>
-      <c r="C94" s="177"/>
+      <c r="B94" s="202"/>
+      <c r="C94" s="207"/>
       <c r="D94" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="B95" s="172"/>
-      <c r="C95" s="177"/>
+      <c r="B95" s="202"/>
+      <c r="C95" s="207"/>
       <c r="D95" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="172"/>
-      <c r="C96" s="177"/>
+      <c r="B96" s="202"/>
+      <c r="C96" s="207"/>
       <c r="D96" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="B97" s="172"/>
-      <c r="C97" s="177"/>
+      <c r="B97" s="202"/>
+      <c r="C97" s="207"/>
       <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" ht="21" customHeight="1">
       <c r="B98" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="169" t="s">
+      <c r="C98" s="199" t="s">
         <v>262</v>
       </c>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="C99" s="170"/>
+      <c r="C99" s="200"/>
       <c r="D99" s="18"/>
     </row>
     <row r="100" spans="2:4" ht="21" customHeight="1">
-      <c r="C100" s="170"/>
+      <c r="C100" s="200"/>
       <c r="D100" s="18"/>
     </row>
     <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="C101" s="170"/>
+      <c r="C101" s="200"/>
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="170"/>
+      <c r="C102" s="200"/>
       <c r="D102" s="18"/>
     </row>
     <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="170"/>
+      <c r="C103" s="200"/>
       <c r="D103" s="18"/>
     </row>
     <row r="104" spans="2:4" ht="21" customHeight="1">
       <c r="B104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C104" s="169" t="s">
+      <c r="C104" s="199" t="s">
         <v>263</v>
       </c>
       <c r="D104" s="18"/>
     </row>
     <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="C105" s="170"/>
+      <c r="C105" s="200"/>
       <c r="D105" s="18"/>
     </row>
     <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="C106" s="170"/>
+      <c r="C106" s="200"/>
       <c r="D106" s="18"/>
     </row>
     <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="C107" s="170"/>
+      <c r="C107" s="200"/>
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="2:4" ht="33" customHeight="1">
-      <c r="C108" s="170"/>
+      <c r="C108" s="200"/>
       <c r="D108" s="18"/>
     </row>
     <row r="109" spans="2:4" ht="21" customHeight="1">
       <c r="B109" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="169" t="s">
+      <c r="C109" s="199" t="s">
         <v>264</v>
       </c>
       <c r="D109" s="18"/>
     </row>
     <row r="110" spans="2:4" ht="21" customHeight="1">
-      <c r="C110" s="170"/>
+      <c r="C110" s="200"/>
       <c r="D110" s="18"/>
     </row>
     <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="C111" s="170"/>
+      <c r="C111" s="200"/>
       <c r="D111" s="18"/>
     </row>
     <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="C112" s="170"/>
+      <c r="C112" s="200"/>
       <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="C113" s="170"/>
+      <c r="C113" s="200"/>
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="21" customHeight="1">
@@ -19821,30 +23962,30 @@
       <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="171" t="s">
+      <c r="B118" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="C118" s="172"/>
+      <c r="C118" s="202"/>
       <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="172"/>
-      <c r="C119" s="172"/>
+      <c r="B119" s="202"/>
+      <c r="C119" s="202"/>
       <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="172"/>
-      <c r="C120" s="172"/>
+      <c r="B120" s="202"/>
+      <c r="C120" s="202"/>
       <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" ht="21" customHeight="1">
-      <c r="B121" s="172"/>
-      <c r="C121" s="172"/>
+      <c r="B121" s="202"/>
+      <c r="C121" s="202"/>
       <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" ht="21" customHeight="1">
-      <c r="B122" s="172"/>
-      <c r="C122" s="172"/>
+      <c r="B122" s="202"/>
+      <c r="C122" s="202"/>
       <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" ht="21" customHeight="1">

--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\maruaican\beginner_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0595563D-FAF9-42AF-B397-247CD102C42C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="542"/>
   </bookViews>
   <sheets>
     <sheet name="サブクエリ (3)" sheetId="8" r:id="rId1"/>
@@ -28,14 +27,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">サブクエリ!$A$1:$G$159</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'サブクエリ (2)'!$A$1:$G$316</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (3)'!$A$1:$G$660</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (3)'!$A$1:$G$658</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1076">
   <si>
     <t>分類</t>
   </si>
@@ -10403,90 +10402,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-SELECT 注文ID, 顧客ID
-FROM 注文
-WHERE (
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> SELECT SUM(数量 * 単価)
-  FROM 注文明細</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-  WHERE 注文明細.注文ID = 注文.注文ID
-) &gt; (
-  SELECT AVG(合計)
-  FROM (
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  SELECT 注文ID, SUM(数量 * 単価) AS 合計
-    FROM 注文明細</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-    GROUP BY 注文ID
-  )</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> AS 注文別合計</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-);</t>
-    </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>FROM句の別名のAS　付けてもつけなくても　どちらでも正解</t>
     <rPh sb="4" eb="5">
       <t>ク</t>
@@ -11900,11 +11815,310 @@
     </r>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SELECT 注文ID, 顧客ID
+FROM 注文
+WHERE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> SELECT SUM(数量 * 単価)
+  FROM 注文明細</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+  WHERE 注文明細.注文ID = 注文.注文ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; (
+  SELECT AVG(合計)
+  FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  SELECT 注文ID, SUM(数量 * 単価) AS 合計
+    FROM 注文明細</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+    GROUP BY 注文ID
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> AS 注文別合計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+);</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>サブクエリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とは、SQL文の中で</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>入れ子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になった</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SELECT文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のこと。 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  (SELECT</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SELECT 社員名
+FROM 社員
+WHERE 部署ID IN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (
+                   SELECT 部署ID 
+                   FROM 社員
+                   WHERE 支社名 = '東京'
+                 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SELECT 商品ID, 商品名
+FROM 商品
+WHERE 商品ID IN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (
+  SELECT 商品ID
+  FROM 注文明細
+  WHERE 数量 &gt;= 10
+)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="49">
     <font>
       <sz val="11"/>
@@ -13034,13 +13248,38 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -13048,12 +13287,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13082,29 +13315,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -13403,22 +13617,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91059866-8EEC-4881-854C-F58482C693A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I658"/>
+  <dimension ref="A2:I656"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A607" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C614" sqref="C614"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E25" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="104" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="104" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="104" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="104" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="104" customWidth="1"/>
+    <col min="3" max="3" width="11" style="104" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="104" customWidth="1"/>
     <col min="5" max="5" width="61.5" style="104" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="104" customWidth="1"/>
     <col min="7" max="7" width="58.625" style="104" customWidth="1"/>
@@ -13432,7 +13646,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="105" t="s">
-        <v>497</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13486,7 +13700,7 @@
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="E19" s="104" t="s">
+      <c r="D19" s="104" t="s">
         <v>609</v>
       </c>
     </row>
@@ -13503,13 +13717,13 @@
         <v>619</v>
       </c>
       <c r="G21" s="107" t="s">
-        <v>967</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="E22" s="107"/>
       <c r="G22" s="183" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="14.25">
@@ -13535,44 +13749,44 @@
       <c r="G26" s="184"/>
     </row>
     <row r="27" spans="3:7">
-      <c r="E27" s="107"/>
-      <c r="G27" s="184"/>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="E28" s="107"/>
-      <c r="G28" s="184"/>
+      <c r="D27" s="105" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="29" spans="3:7">
-      <c r="D29" s="105" t="s">
-        <v>502</v>
-      </c>
+      <c r="C29" s="105" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="D30" s="104" t="s">
+        <v>605</v>
+      </c>
+      <c r="G30" s="108"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="105" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="D32" s="104" t="s">
-        <v>605</v>
-      </c>
-      <c r="G32" s="108"/>
+      <c r="E31" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="G31" s="104" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="121.5">
+      <c r="E32" s="107" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G32" s="107" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="33" spans="4:7">
-      <c r="E33" s="104" t="s">
-        <v>521</v>
-      </c>
-      <c r="G33" s="104" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" ht="121.5">
-      <c r="E34" s="107" t="s">
-        <v>525</v>
-      </c>
-      <c r="G34" s="107" t="s">
-        <v>603</v>
-      </c>
+      <c r="E33" s="107"/>
+      <c r="G33" s="107"/>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="E34" s="107"/>
+      <c r="G34" s="107"/>
     </row>
     <row r="35" spans="4:7">
       <c r="E35" s="107"/>
@@ -13615,480 +13829,482 @@
       <c r="G44" s="107"/>
     </row>
     <row r="45" spans="4:7">
-      <c r="E45" s="107"/>
-      <c r="G45" s="107"/>
+      <c r="D45" s="105" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="46" spans="4:7">
-      <c r="E46" s="107"/>
-      <c r="G46" s="107"/>
+      <c r="D46" s="105" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="47" spans="4:7">
       <c r="D47" s="105" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="4:7">
       <c r="D48" s="105" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5">
-      <c r="D49" s="105" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="3:5">
-      <c r="D50" s="105" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5">
-      <c r="C52" s="105" t="s">
+      <c r="C50" s="105" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="53" spans="3:5">
-      <c r="E53" s="104" t="s">
+    <row r="51" spans="3:5">
+      <c r="E51" s="104" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="3:5" ht="121.5">
-      <c r="E54" s="107" t="s">
+    <row r="52" spans="3:5" ht="121.5">
+      <c r="E52" s="107" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="14.25">
-      <c r="C56" s="137" t="s">
+    <row r="54" spans="3:5" ht="14.25">
+      <c r="C54" s="137" t="s">
         <v>564</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="108"/>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" s="108" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="3:5">
       <c r="C57" s="108"/>
-    </row>
-    <row r="58" spans="3:5">
-      <c r="C58" s="108" t="s">
-        <v>565</v>
+      <c r="D57" s="104" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="108">
+      <c r="E58" s="107" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="59" spans="3:5">
-      <c r="C59" s="108"/>
-      <c r="D59" s="104" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" ht="108">
-      <c r="E60" s="107" t="s">
-        <v>964</v>
+      <c r="E59" s="104" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="D60" s="105" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="3:5">
-      <c r="E61" s="104" t="s">
-        <v>613</v>
+      <c r="C61" s="108" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="3:5">
-      <c r="D62" s="105" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5">
-      <c r="C63" s="108" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5">
-      <c r="C64" s="110"/>
-      <c r="D64" s="111" t="s">
+      <c r="C62" s="110"/>
+      <c r="D62" s="111" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="65" spans="3:5" ht="14.25">
-      <c r="C65" s="133"/>
-      <c r="D65" s="134"/>
-      <c r="E65" s="104" t="s">
+    <row r="63" spans="3:5" ht="14.25">
+      <c r="C63" s="133"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="104" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="66" spans="3:5" ht="94.5">
-      <c r="E66" s="107" t="s">
+    <row r="64" spans="3:5" ht="94.5">
+      <c r="E64" s="107" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="67" spans="3:5">
-      <c r="D67" s="104" t="s">
+    <row r="65" spans="3:4">
+      <c r="D65" s="104" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="68" spans="3:5">
-      <c r="D68" s="105" t="s">
+    <row r="66" spans="3:4">
+      <c r="D66" s="105" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="69" spans="3:5">
-      <c r="C69" s="104" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" s="104" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="70" spans="3:5">
-      <c r="C70" s="135" t="s">
+    <row r="68" spans="3:4">
+      <c r="C68" s="135" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="71" spans="3:5">
+    <row r="69" spans="3:4">
+      <c r="C69" s="135" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="104" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
       <c r="C71" s="135" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="C72" s="104" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5">
-      <c r="C73" s="135" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="75" spans="3:5" ht="17.25">
-      <c r="C75" s="131" t="s">
+    <row r="73" spans="3:4" ht="17.25">
+      <c r="C73" s="131" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="76" spans="3:5">
-      <c r="C76" s="132"/>
-    </row>
-    <row r="77" spans="3:5">
-      <c r="C77" s="135" t="s">
+    <row r="74" spans="3:4">
+      <c r="C74" s="132"/>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" s="135" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="78" spans="3:5">
+    <row r="76" spans="3:4">
+      <c r="C76" s="136" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="136" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
       <c r="C78" s="136" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5">
-      <c r="C79" s="136" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5">
-      <c r="C80" s="136" t="s">
         <v>579</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79" s="108"/>
+    </row>
+    <row r="80" spans="3:4" ht="17.25">
+      <c r="C80" s="130" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="108"/>
     </row>
-    <row r="82" spans="3:3" ht="17.25">
-      <c r="C82" s="130" t="s">
-        <v>580</v>
+    <row r="82" spans="3:3">
+      <c r="C82" s="136" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="108"/>
+      <c r="C83" s="136" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" s="136" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="136" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="136" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="136" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="136" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" s="136" t="s">
-        <v>586</v>
+      <c r="C88" s="108"/>
+    </row>
+    <row r="89" spans="3:3" ht="17.25">
+      <c r="C89" s="130" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="108"/>
     </row>
-    <row r="91" spans="3:3" ht="17.25">
-      <c r="C91" s="130" t="s">
-        <v>587</v>
+    <row r="91" spans="3:3">
+      <c r="C91" s="136" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="108"/>
+      <c r="C92" s="136" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="136" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="136" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="136" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="136" t="s">
-        <v>591</v>
+      <c r="C95" s="108"/>
+    </row>
+    <row r="96" spans="3:3" ht="17.25">
+      <c r="C96" s="130" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="97" spans="2:5">
       <c r="C97" s="108"/>
     </row>
-    <row r="98" spans="2:5" ht="17.25">
-      <c r="C98" s="130" t="s">
-        <v>592</v>
+    <row r="98" spans="2:5">
+      <c r="C98" s="136" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="99" spans="2:5">
-      <c r="C99" s="108"/>
+      <c r="C99" s="136" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="100" spans="2:5">
       <c r="C100" s="136" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101" spans="2:5">
       <c r="C101" s="136" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102" spans="2:5">
       <c r="C102" s="136" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="103" spans="2:5">
-      <c r="C103" s="136" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="C104" s="136" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="C105" s="108"/>
-    </row>
-    <row r="106" spans="2:5" ht="16.5">
-      <c r="B106" s="128" t="s">
+      <c r="C103" s="108"/>
+    </row>
+    <row r="104" spans="2:5" ht="16.5">
+      <c r="B104" s="128" t="s">
         <v>555</v>
       </c>
+      <c r="C104" s="108"/>
+    </row>
+    <row r="105" spans="2:5" ht="26.25" customHeight="1">
+      <c r="B105" s="178"/>
+      <c r="C105" s="108" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="129" t="s">
+        <v>608</v>
+      </c>
       <c r="C106" s="108"/>
     </row>
-    <row r="107" spans="2:5" ht="26.25" customHeight="1">
-      <c r="B107" s="178"/>
-      <c r="C107" s="108" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" s="129" t="s">
-        <v>608</v>
-      </c>
-      <c r="C108" s="108"/>
+    <row r="107" spans="2:5">
+      <c r="C107" s="105"/>
+      <c r="D107" s="104" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="108">
+      <c r="E108" s="107" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="109" spans="2:5">
-      <c r="C109" s="105"/>
-      <c r="D109" s="104" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" ht="108">
-      <c r="E110" s="107" t="s">
-        <v>970</v>
+      <c r="C109" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="C110" s="135" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="111" spans="2:5">
-      <c r="C111" s="105" t="s">
-        <v>487</v>
+      <c r="C111" s="135" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="2:5">
       <c r="C112" s="135" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5">
-      <c r="C113" s="135" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5">
-      <c r="C114" s="135" t="s">
         <v>489</v>
       </c>
     </row>
+    <row r="113" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C113" s="199" t="s">
+        <v>523</v>
+      </c>
+      <c r="D113" s="199"/>
+      <c r="E113" s="199"/>
+    </row>
+    <row r="114" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C114" s="161"/>
+      <c r="D114" s="161"/>
+      <c r="E114" s="161"/>
+    </row>
     <row r="115" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C115" s="192" t="s">
-        <v>523</v>
-      </c>
-      <c r="D115" s="192"/>
-      <c r="E115" s="192"/>
+      <c r="C115" s="97" t="s">
+        <v>622</v>
+      </c>
+      <c r="D115" s="161"/>
+      <c r="E115" s="161"/>
     </row>
     <row r="116" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C116" s="161"/>
+      <c r="C116"/>
       <c r="D116" s="161"/>
       <c r="E116" s="161"/>
     </row>
     <row r="117" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C117" s="97" t="s">
-        <v>622</v>
+      <c r="C117" s="128" t="s">
+        <v>621</v>
       </c>
       <c r="D117" s="161"/>
       <c r="E117" s="161"/>
     </row>
-    <row r="118" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C118"/>
+    <row r="118" spans="3:5" ht="121.5">
+      <c r="C118" s="161"/>
       <c r="D118" s="161"/>
-      <c r="E118" s="161"/>
+      <c r="E118" s="107" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="119" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C119" s="128" t="s">
-        <v>621</v>
+      <c r="C119" t="s">
+        <v>623</v>
       </c>
       <c r="D119" s="161"/>
       <c r="E119" s="161"/>
     </row>
-    <row r="120" spans="3:5" ht="121.5">
-      <c r="C120" s="161"/>
+    <row r="120" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C120"/>
       <c r="D120" s="161"/>
-      <c r="E120" s="107" t="s">
-        <v>767</v>
-      </c>
+      <c r="E120" s="161"/>
     </row>
     <row r="121" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C121" t="s">
-        <v>623</v>
+      <c r="C121" s="105" t="s">
+        <v>626</v>
       </c>
       <c r="D121" s="161"/>
       <c r="E121" s="161"/>
     </row>
     <row r="122" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C122"/>
+      <c r="C122" s="105"/>
       <c r="D122" s="161"/>
       <c r="E122" s="161"/>
     </row>
     <row r="123" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C123" s="105" t="s">
-        <v>626</v>
+      <c r="C123" s="128" t="s">
+        <v>624</v>
       </c>
       <c r="D123" s="161"/>
       <c r="E123" s="161"/>
     </row>
     <row r="124" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C124" s="105"/>
+      <c r="C124" s="129" t="s">
+        <v>625</v>
+      </c>
       <c r="D124" s="161"/>
       <c r="E124" s="161"/>
     </row>
-    <row r="125" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C125" s="128" t="s">
-        <v>624</v>
-      </c>
-      <c r="D125" s="161"/>
-      <c r="E125" s="161"/>
+    <row r="125" spans="3:5" ht="101.25" customHeight="1">
+      <c r="C125" s="107"/>
+      <c r="D125" s="107"/>
+      <c r="E125" s="139" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="126" spans="3:5" ht="16.5" customHeight="1">
       <c r="C126" s="129" t="s">
-        <v>625</v>
-      </c>
-      <c r="D126" s="161"/>
-      <c r="E126" s="161"/>
-    </row>
-    <row r="127" spans="3:5" ht="101.25" customHeight="1">
-      <c r="C127" s="107"/>
+        <v>628</v>
+      </c>
+      <c r="D126" s="107"/>
+      <c r="E126" s="107"/>
+    </row>
+    <row r="127" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C127" s="101" t="s">
+        <v>629</v>
+      </c>
       <c r="D127" s="107"/>
-      <c r="E127" s="139" t="s">
-        <v>627</v>
-      </c>
+      <c r="E127" s="107"/>
     </row>
     <row r="128" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C128" s="129" t="s">
-        <v>628</v>
+      <c r="C128" s="98" t="s">
+        <v>630</v>
       </c>
       <c r="D128" s="107"/>
       <c r="E128" s="107"/>
     </row>
     <row r="129" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C129" s="101" t="s">
-        <v>629</v>
-      </c>
+      <c r="C129" s="107"/>
       <c r="D129" s="107"/>
       <c r="E129" s="107"/>
     </row>
     <row r="130" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C130" s="98" t="s">
-        <v>630</v>
-      </c>
-      <c r="D130" s="107"/>
-      <c r="E130" s="107"/>
+      <c r="D130" s="97" t="s">
+        <v>642</v>
+      </c>
+      <c r="E130" s="140"/>
     </row>
     <row r="131" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C131" s="107"/>
-      <c r="D131" s="107"/>
-      <c r="E131" s="107"/>
-    </row>
-    <row r="132" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D132" s="97" t="s">
-        <v>642</v>
-      </c>
-      <c r="E132" s="140"/>
+      <c r="C131" s="96"/>
+      <c r="D131"/>
+      <c r="E131" s="140"/>
+    </row>
+    <row r="132" spans="3:6" ht="54">
+      <c r="C132" s="99"/>
+      <c r="D132"/>
+      <c r="E132" s="141" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="133" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C133" s="96"/>
+      <c r="C133" s="99"/>
       <c r="D133"/>
-      <c r="E133" s="140"/>
-    </row>
-    <row r="134" spans="3:6" ht="54">
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="3:6" ht="16.5" customHeight="1">
       <c r="C134" s="99"/>
-      <c r="D134"/>
-      <c r="E134" s="141" t="s">
-        <v>672</v>
-      </c>
+      <c r="D134" t="s">
+        <v>643</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134"/>
     </row>
     <row r="135" spans="3:6" ht="16.5" customHeight="1">
       <c r="C135" s="99"/>
-      <c r="D135"/>
+      <c r="D135" s="101" t="s">
+        <v>644</v>
+      </c>
       <c r="E135"/>
+      <c r="F135"/>
     </row>
     <row r="136" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C136" s="99"/>
-      <c r="D136" t="s">
-        <v>643</v>
+      <c r="D136" s="98" t="s">
+        <v>645</v>
       </c>
       <c r="E136"/>
       <c r="F136"/>
     </row>
     <row r="137" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C137" s="99"/>
-      <c r="D137" s="101" t="s">
-        <v>644</v>
-      </c>
+      <c r="D137"/>
       <c r="E137"/>
       <c r="F137"/>
     </row>
     <row r="138" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D138" s="98" t="s">
-        <v>645</v>
-      </c>
+      <c r="D138"/>
       <c r="E138"/>
       <c r="F138"/>
     </row>
@@ -14097,8 +14313,10 @@
       <c r="E139"/>
       <c r="F139"/>
     </row>
-    <row r="140" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D140"/>
+    <row r="140" spans="3:6" ht="21">
+      <c r="D140" s="97" t="s">
+        <v>646</v>
+      </c>
       <c r="E140"/>
       <c r="F140"/>
     </row>
@@ -14107,302 +14325,304 @@
       <c r="E141"/>
       <c r="F141"/>
     </row>
-    <row r="142" spans="3:6" ht="21">
-      <c r="D142" s="97" t="s">
-        <v>646</v>
-      </c>
-      <c r="E142"/>
-      <c r="F142"/>
+    <row r="142" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D142" s="142" t="s">
+        <v>647</v>
+      </c>
+      <c r="E142" s="142" t="s">
+        <v>648</v>
+      </c>
+      <c r="F142" s="142" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="143" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
+      <c r="D143" s="96" t="s">
+        <v>650</v>
+      </c>
+      <c r="E143" s="96" t="s">
+        <v>651</v>
+      </c>
+      <c r="F143" s="96" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="144" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D144" s="142" t="s">
-        <v>647</v>
-      </c>
-      <c r="E144" s="142" t="s">
-        <v>648</v>
-      </c>
-      <c r="F144" s="142" t="s">
-        <v>649</v>
+      <c r="D144" s="96" t="s">
+        <v>652</v>
+      </c>
+      <c r="E144" s="96" t="s">
+        <v>653</v>
+      </c>
+      <c r="F144" s="96" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="145" spans="4:7" ht="16.5" customHeight="1">
       <c r="D145" s="96" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="E145" s="96" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="F145" s="96" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
     </row>
     <row r="146" spans="4:7" ht="16.5" customHeight="1">
       <c r="D146" s="96" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="E146" s="96" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F146" s="96" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="147" spans="4:7" ht="16.5" customHeight="1">
       <c r="D147" s="96" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E147" s="96" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F147" s="96" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="148" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D148" s="96" t="s">
-        <v>658</v>
-      </c>
-      <c r="E148" s="96" t="s">
-        <v>659</v>
-      </c>
-      <c r="F148" s="96" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="149" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D149" s="96" t="s">
-        <v>661</v>
-      </c>
-      <c r="E149" s="96" t="s">
-        <v>662</v>
-      </c>
-      <c r="F149" s="96" t="s">
-        <v>663</v>
-      </c>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+    </row>
+    <row r="149" spans="4:7" ht="21">
+      <c r="D149" s="97" t="s">
+        <v>664</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149"/>
     </row>
     <row r="150" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D150"/>
+      <c r="D150" t="s">
+        <v>973</v>
+      </c>
       <c r="E150"/>
       <c r="F150"/>
     </row>
-    <row r="151" spans="4:7" ht="21">
-      <c r="D151" s="97" t="s">
-        <v>664</v>
-      </c>
+    <row r="151" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D151"/>
       <c r="E151"/>
       <c r="F151"/>
     </row>
     <row r="152" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D152" t="s">
+      <c r="D152" s="128" t="s">
         <v>974</v>
       </c>
       <c r="E152"/>
       <c r="F152"/>
     </row>
-    <row r="153" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-    </row>
-    <row r="154" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D154" s="128" t="s">
+    <row r="153" spans="4:7" ht="54">
+      <c r="D153" s="98" t="s">
+        <v>977</v>
+      </c>
+      <c r="E153" s="138" t="s">
+        <v>976</v>
+      </c>
+      <c r="F153" s="110" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="154" spans="4:7" ht="121.5">
+      <c r="D154" s="98" t="s">
         <v>975</v>
       </c>
-      <c r="E154"/>
-      <c r="F154"/>
-    </row>
-    <row r="155" spans="4:7" ht="54">
-      <c r="D155" s="98" t="s">
-        <v>978</v>
-      </c>
-      <c r="E155" s="138" t="s">
-        <v>977</v>
-      </c>
-      <c r="F155" s="110" t="s">
+      <c r="E154" s="138" t="s">
+        <v>972</v>
+      </c>
+      <c r="F154" s="108" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="156" spans="4:7" ht="121.5">
-      <c r="D156" s="98" t="s">
-        <v>976</v>
-      </c>
-      <c r="E156" s="138" t="s">
-        <v>973</v>
-      </c>
-      <c r="F156" s="108" t="s">
+      <c r="G154" s="104" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" ht="14.25">
+      <c r="D155" s="177" t="s">
         <v>980</v>
       </c>
-      <c r="G156" s="104" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="157" spans="4:7" ht="14.25">
-      <c r="D157" s="177" t="s">
+      <c r="E155" s="138"/>
+      <c r="F155"/>
+    </row>
+    <row r="156" spans="4:7">
+      <c r="D156" t="s">
         <v>981</v>
+      </c>
+      <c r="E156" s="138"/>
+      <c r="F156"/>
+    </row>
+    <row r="157" spans="4:7">
+      <c r="D157" t="s">
+        <v>982</v>
       </c>
       <c r="E157" s="138"/>
       <c r="F157"/>
     </row>
-    <row r="158" spans="4:7">
-      <c r="D158" t="s">
-        <v>982</v>
-      </c>
-      <c r="E158" s="138"/>
+    <row r="158" spans="4:7" ht="108">
+      <c r="D158" s="96"/>
+      <c r="E158" s="138" t="s">
+        <v>1008</v>
+      </c>
       <c r="F158"/>
     </row>
-    <row r="159" spans="4:7">
-      <c r="D159" t="s">
-        <v>983</v>
-      </c>
-      <c r="E159" s="138"/>
+    <row r="159" spans="4:7" ht="21">
+      <c r="D159" s="96"/>
+      <c r="E159" s="97" t="s">
+        <v>1007</v>
+      </c>
       <c r="F159"/>
     </row>
-    <row r="160" spans="4:7" ht="108">
+    <row r="160" spans="4:7">
       <c r="D160" s="96"/>
-      <c r="E160" s="138" t="s">
-        <v>1009</v>
-      </c>
+      <c r="E160"/>
       <c r="F160"/>
     </row>
-    <row r="161" spans="4:6" ht="21">
+    <row r="161" spans="4:6">
       <c r="D161" s="96"/>
-      <c r="E161" s="97" t="s">
-        <v>1008</v>
+      <c r="E161" t="s">
+        <v>998</v>
       </c>
       <c r="F161"/>
     </row>
     <row r="162" spans="4:6">
       <c r="D162" s="96"/>
-      <c r="E162"/>
+      <c r="E162" s="171" t="s">
+        <v>999</v>
+      </c>
       <c r="F162"/>
     </row>
     <row r="163" spans="4:6">
       <c r="D163" s="96"/>
-      <c r="E163" t="s">
-        <v>999</v>
+      <c r="E163" s="98" t="s">
+        <v>1000</v>
       </c>
       <c r="F163"/>
     </row>
     <row r="164" spans="4:6">
       <c r="D164" s="96"/>
-      <c r="E164" s="171" t="s">
-        <v>1000</v>
+      <c r="E164" s="98" t="s">
+        <v>1001</v>
       </c>
       <c r="F164"/>
     </row>
     <row r="165" spans="4:6">
       <c r="D165" s="96"/>
       <c r="E165" s="98" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F165"/>
     </row>
     <row r="166" spans="4:6">
       <c r="D166" s="96"/>
       <c r="E166" s="98" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F166"/>
     </row>
     <row r="167" spans="4:6">
       <c r="D167" s="96"/>
       <c r="E167" s="98" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F167"/>
     </row>
     <row r="168" spans="4:6">
       <c r="D168" s="96"/>
-      <c r="E168" s="98" t="s">
-        <v>1004</v>
-      </c>
+      <c r="E168" s="98"/>
       <c r="F168"/>
     </row>
-    <row r="169" spans="4:6">
+    <row r="169" spans="4:6" ht="14.25">
       <c r="D169" s="96"/>
-      <c r="E169" s="98" t="s">
+      <c r="E169" t="s">
         <v>1005</v>
       </c>
       <c r="F169"/>
     </row>
-    <row r="170" spans="4:6">
+    <row r="170" spans="4:6" ht="14.25">
       <c r="D170" s="96"/>
-      <c r="E170" s="98"/>
+      <c r="E170" t="s">
+        <v>1006</v>
+      </c>
       <c r="F170"/>
     </row>
-    <row r="171" spans="4:6" ht="14.25">
+    <row r="171" spans="4:6">
       <c r="D171" s="96"/>
-      <c r="E171" t="s">
-        <v>1006</v>
-      </c>
       <c r="F171"/>
     </row>
-    <row r="172" spans="4:6" ht="14.25">
+    <row r="172" spans="4:6" ht="21">
       <c r="D172" s="96"/>
-      <c r="E172" t="s">
-        <v>1007</v>
+      <c r="E172" s="97" t="s">
+        <v>1013</v>
       </c>
       <c r="F172"/>
     </row>
     <row r="173" spans="4:6">
       <c r="D173" s="96"/>
+      <c r="E173" s="171" t="s">
+        <v>1009</v>
+      </c>
       <c r="F173"/>
     </row>
-    <row r="174" spans="4:6" ht="21">
+    <row r="174" spans="4:6">
       <c r="D174" s="96"/>
-      <c r="E174" s="97" t="s">
-        <v>1014</v>
+      <c r="E174" s="98" t="s">
+        <v>1010</v>
       </c>
       <c r="F174"/>
     </row>
     <row r="175" spans="4:6">
       <c r="D175" s="96"/>
-      <c r="E175" s="171" t="s">
-        <v>1010</v>
+      <c r="E175" s="98" t="s">
+        <v>1011</v>
       </c>
       <c r="F175"/>
     </row>
     <row r="176" spans="4:6">
       <c r="D176" s="96"/>
       <c r="E176" s="98" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F176"/>
     </row>
     <row r="177" spans="4:6">
       <c r="D177" s="96"/>
-      <c r="E177" s="98" t="s">
-        <v>1012</v>
-      </c>
+      <c r="E177" s="98"/>
       <c r="F177"/>
     </row>
     <row r="178" spans="4:6">
       <c r="D178" s="96"/>
-      <c r="E178" s="98" t="s">
-        <v>1013</v>
-      </c>
+      <c r="E178" s="138"/>
       <c r="F178"/>
     </row>
     <row r="179" spans="4:6">
-      <c r="D179" s="96"/>
-      <c r="E179" s="98"/>
+      <c r="D179" t="s">
+        <v>983</v>
+      </c>
+      <c r="E179" s="138"/>
       <c r="F179"/>
     </row>
     <row r="180" spans="4:6">
-      <c r="D180" s="96"/>
+      <c r="D180" t="s">
+        <v>984</v>
+      </c>
       <c r="E180" s="138"/>
       <c r="F180"/>
     </row>
-    <row r="181" spans="4:6">
-      <c r="D181" t="s">
-        <v>984</v>
-      </c>
-      <c r="E181" s="138"/>
+    <row r="181" spans="4:6" ht="162">
+      <c r="D181"/>
+      <c r="E181" s="138" t="s">
+        <v>997</v>
+      </c>
       <c r="F181"/>
     </row>
     <row r="182" spans="4:6">
@@ -14412,24 +14632,22 @@
       <c r="E182" s="138"/>
       <c r="F182"/>
     </row>
-    <row r="183" spans="4:6" ht="162">
-      <c r="D183"/>
-      <c r="E183" s="138" t="s">
-        <v>998</v>
-      </c>
+    <row r="183" spans="4:6" ht="14.25">
+      <c r="D183" t="s">
+        <v>986</v>
+      </c>
+      <c r="E183" s="138"/>
       <c r="F183"/>
     </row>
     <row r="184" spans="4:6">
       <c r="D184" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E184" s="138"/>
       <c r="F184"/>
     </row>
-    <row r="185" spans="4:6" ht="14.25">
-      <c r="D185" t="s">
-        <v>987</v>
-      </c>
+    <row r="185" spans="4:6">
+      <c r="D185"/>
       <c r="E185" s="138"/>
       <c r="F185"/>
     </row>
@@ -14441,14 +14659,14 @@
       <c r="F186"/>
     </row>
     <row r="187" spans="4:6">
-      <c r="D187"/>
+      <c r="D187" t="s">
+        <v>989</v>
+      </c>
       <c r="E187" s="138"/>
       <c r="F187"/>
     </row>
     <row r="188" spans="4:6">
-      <c r="D188" t="s">
-        <v>989</v>
-      </c>
+      <c r="D188"/>
       <c r="E188" s="138"/>
       <c r="F188"/>
     </row>
@@ -14460,12 +14678,12 @@
       <c r="F189"/>
     </row>
     <row r="190" spans="4:6">
-      <c r="D190"/>
+      <c r="D190" s="98"/>
       <c r="E190" s="138"/>
       <c r="F190"/>
     </row>
     <row r="191" spans="4:6">
-      <c r="D191" t="s">
+      <c r="D191" s="171" t="s">
         <v>991</v>
       </c>
       <c r="E191" s="138"/>
@@ -14483,498 +14701,498 @@
       <c r="E193" s="138"/>
       <c r="F193"/>
     </row>
-    <row r="194" spans="4:6">
+    <row r="194" spans="4:6" ht="16.5" customHeight="1">
       <c r="D194" s="98"/>
-      <c r="E194" s="138"/>
+      <c r="E194"/>
       <c r="F194"/>
     </row>
-    <row r="195" spans="4:6">
+    <row r="195" spans="4:6" ht="16.5" customHeight="1">
       <c r="D195" s="171" t="s">
         <v>993</v>
       </c>
-      <c r="E195" s="138"/>
+      <c r="E195"/>
       <c r="F195"/>
     </row>
-    <row r="196" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D196" s="98"/>
+    <row r="196" spans="4:6">
+      <c r="D196"/>
       <c r="E196"/>
       <c r="F196"/>
     </row>
     <row r="197" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D197" s="171" t="s">
+      <c r="D197" t="s">
         <v>994</v>
       </c>
-      <c r="E197"/>
-      <c r="F197"/>
+      <c r="F197" s="142" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="198" spans="4:6">
-      <c r="D198"/>
-      <c r="E198"/>
-      <c r="F198"/>
-    </row>
-    <row r="199" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D199" t="s">
+      <c r="D198" s="98"/>
+      <c r="F198" s="96" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6">
+      <c r="D199" s="98" t="s">
         <v>995</v>
       </c>
-      <c r="F199" s="142" t="s">
-        <v>631</v>
+      <c r="F199" s="96" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="200" spans="4:6">
       <c r="D200" s="98"/>
-      <c r="F200" s="96" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="201" spans="4:6">
+      <c r="E200"/>
+      <c r="F200"/>
+    </row>
+    <row r="201" spans="4:6" ht="16.5" customHeight="1">
       <c r="D201" s="98" t="s">
         <v>996</v>
       </c>
-      <c r="F201" s="96" t="s">
-        <v>674</v>
-      </c>
+      <c r="E201"/>
+      <c r="F201"/>
     </row>
     <row r="202" spans="4:6">
-      <c r="D202" s="98"/>
+      <c r="D202" s="144" t="s">
+        <v>683</v>
+      </c>
       <c r="E202"/>
       <c r="F202"/>
     </row>
-    <row r="203" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D203" s="98" t="s">
-        <v>997</v>
-      </c>
+    <row r="203" spans="4:6" ht="15" customHeight="1">
+      <c r="D203"/>
       <c r="E203"/>
-      <c r="F203"/>
-    </row>
-    <row r="204" spans="4:6">
-      <c r="D204" s="144" t="s">
-        <v>683</v>
+      <c r="F203" s="107"/>
+    </row>
+    <row r="204" spans="4:6" ht="21">
+      <c r="D204" s="97" t="s">
+        <v>632</v>
       </c>
       <c r="E204"/>
-      <c r="F204"/>
-    </row>
-    <row r="205" spans="4:6" ht="15" customHeight="1">
-      <c r="D205"/>
+      <c r="F204" s="107"/>
+    </row>
+    <row r="205" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D205" s="98" t="s">
+        <v>633</v>
+      </c>
       <c r="E205"/>
       <c r="F205" s="107"/>
     </row>
-    <row r="206" spans="4:6" ht="21">
-      <c r="D206" s="97" t="s">
-        <v>632</v>
+    <row r="206" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D206" s="98" t="s">
+        <v>634</v>
       </c>
       <c r="E206"/>
       <c r="F206" s="107"/>
     </row>
     <row r="207" spans="4:6" ht="16.5" customHeight="1">
       <c r="D207" s="98" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E207"/>
       <c r="F207" s="107"/>
     </row>
     <row r="208" spans="4:6" ht="16.5" customHeight="1">
       <c r="D208" s="98" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E208"/>
       <c r="F208" s="107"/>
     </row>
     <row r="209" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D209" s="98" t="s">
-        <v>635</v>
-      </c>
+      <c r="D209"/>
       <c r="E209"/>
       <c r="F209" s="107"/>
     </row>
-    <row r="210" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D210" s="98" t="s">
-        <v>636</v>
+    <row r="210" spans="3:6" ht="21">
+      <c r="D210" s="97" t="s">
+        <v>637</v>
       </c>
       <c r="E210"/>
       <c r="F210" s="107"/>
     </row>
     <row r="211" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D211"/>
-      <c r="E211"/>
+      <c r="D211" s="100" t="s">
+        <v>638</v>
+      </c>
+      <c r="E211" s="100" t="s">
+        <v>1</v>
+      </c>
       <c r="F211" s="107"/>
     </row>
-    <row r="212" spans="3:6" ht="21">
-      <c r="D212" s="97" t="s">
-        <v>637</v>
-      </c>
-      <c r="E212"/>
-      <c r="F212" s="107"/>
+    <row r="212" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D212" s="96" t="s">
+        <v>639</v>
+      </c>
+      <c r="E212" s="96" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="213" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D213" s="100" t="s">
-        <v>638</v>
-      </c>
-      <c r="E213" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="F213" s="107"/>
+      <c r="D213" s="96" t="s">
+        <v>640</v>
+      </c>
+      <c r="E213" s="96" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="214" spans="3:6" ht="16.5" customHeight="1">
       <c r="D214" s="96" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E214" s="96" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="215" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D215" s="96" t="s">
-        <v>640</v>
-      </c>
-      <c r="E215" s="96" t="s">
-        <v>679</v>
-      </c>
-    </row>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="215" spans="3:6" ht="16.5" customHeight="1"/>
     <row r="216" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D216" s="96" t="s">
-        <v>641</v>
-      </c>
-      <c r="E216" s="96" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="217" spans="3:6" ht="16.5" customHeight="1"/>
-    <row r="218" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C218" s="128" t="s">
+      <c r="C216" s="128" t="s">
         <v>765</v>
+      </c>
+    </row>
+    <row r="217" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C217" s="145" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="218" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C218" s="135"/>
+      <c r="E218" s="107" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="219" spans="3:6" ht="16.5" customHeight="1">
       <c r="C219" s="145" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="220" spans="3:6" ht="58.5" customHeight="1">
-      <c r="C220" s="135"/>
-      <c r="E220" s="107" t="s">
-        <v>768</v>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="220" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C220" s="146" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="221" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C221" s="145" t="s">
-        <v>628</v>
+      <c r="C221" s="146" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="222" spans="3:6" ht="16.5" customHeight="1">
       <c r="C222" s="146" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="223" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C223" s="146" t="s">
-        <v>682</v>
-      </c>
-    </row>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="223" spans="3:6" ht="16.5" customHeight="1"/>
     <row r="224" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C224" s="146" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="225" spans="3:5" ht="16.5" customHeight="1"/>
+      <c r="C224" s="128" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="225" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C225"/>
+    </row>
     <row r="226" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C226" s="128" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="227" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C227"/>
+      <c r="C226" s="129" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5" ht="121.5">
+      <c r="E227" s="150" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="228" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C228" s="129" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="229" spans="3:5" ht="121.5">
-      <c r="E229" s="150" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="230" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C230" t="s">
+      <c r="C228" t="s">
         <v>685</v>
       </c>
-      <c r="D230"/>
-    </row>
-    <row r="231" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C231" s="100" t="s">
+      <c r="D228"/>
+    </row>
+    <row r="229" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C229" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="E231" s="100" t="s">
+      <c r="E229" s="100" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="232" spans="3:5" ht="40.5">
-      <c r="C232" s="147" t="s">
+    <row r="230" spans="3:5" ht="40.5">
+      <c r="C230" s="147" t="s">
         <v>687</v>
       </c>
-      <c r="E232" s="147" t="s">
+      <c r="E230" s="147" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="233" spans="3:5" ht="26.25" customHeight="1">
-      <c r="C233" s="147" t="s">
+    <row r="231" spans="3:5" ht="26.25" customHeight="1">
+      <c r="C231" s="147" t="s">
         <v>688</v>
       </c>
-      <c r="E233" s="148" t="s">
+      <c r="E231" s="148" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="234" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="235" spans="3:5" s="105" customFormat="1">
-      <c r="C235" s="105" t="s">
+    <row r="232" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="233" spans="3:5" s="105" customFormat="1">
+      <c r="C233" s="105" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="236" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C236" s="135" t="s">
+    <row r="234" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C234" s="135" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="237" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C237" s="135" t="s">
+    <row r="235" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C235" s="135" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="238" spans="3:5" ht="132.75" customHeight="1">
-      <c r="D238" s="162" t="s">
+    <row r="236" spans="3:5" ht="132.75" customHeight="1">
+      <c r="D236" s="162" t="s">
         <v>713</v>
       </c>
-      <c r="E238" s="163" t="s">
+      <c r="E236" s="163" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="239" spans="3:5" ht="40.5">
-      <c r="E239" s="150" t="s">
+    <row r="237" spans="3:5" ht="40.5">
+      <c r="E237" s="150" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="240" spans="3:5" ht="21">
-      <c r="E240" s="97" t="s">
+    <row r="238" spans="3:5" ht="21">
+      <c r="E238" s="97" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="241" spans="4:7" ht="16.5" customHeight="1">
-      <c r="E241"/>
-    </row>
-    <row r="242" spans="4:7" ht="16.5" customHeight="1">
-      <c r="E242" s="128" t="s">
+    <row r="239" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E239"/>
+    </row>
+    <row r="240" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E240" s="128" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="243" spans="4:7" ht="91.5" customHeight="1">
-      <c r="E243" s="151" t="s">
+    <row r="241" spans="4:7" ht="91.5" customHeight="1">
+      <c r="E241" s="151" t="s">
         <v>729</v>
       </c>
     </row>
+    <row r="242" spans="4:7" ht="21" customHeight="1">
+      <c r="E242" s="153" t="s">
+        <v>705</v>
+      </c>
+      <c r="G242" s="153"/>
+    </row>
+    <row r="243" spans="4:7" ht="21" customHeight="1">
+      <c r="E243" s="154" t="s">
+        <v>706</v>
+      </c>
+      <c r="G243" s="153"/>
+    </row>
     <row r="244" spans="4:7" ht="21" customHeight="1">
-      <c r="E244" s="153" t="s">
-        <v>705</v>
+      <c r="E244" s="154" t="s">
+        <v>760</v>
       </c>
       <c r="G244" s="153"/>
     </row>
     <row r="245" spans="4:7" ht="21" customHeight="1">
       <c r="E245" s="154" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="G245" s="153"/>
     </row>
     <row r="246" spans="4:7" ht="21" customHeight="1">
-      <c r="E246" s="154" t="s">
-        <v>760</v>
-      </c>
+      <c r="E246" s="151"/>
       <c r="G246" s="153"/>
     </row>
-    <row r="247" spans="4:7" ht="21" customHeight="1">
-      <c r="E247" s="154" t="s">
-        <v>711</v>
-      </c>
-      <c r="G247" s="153"/>
-    </row>
-    <row r="248" spans="4:7" ht="21" customHeight="1">
-      <c r="E248" s="151"/>
-      <c r="G248" s="153"/>
+    <row r="247" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D247" s="104" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="248" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D248" s="100" t="s">
+        <v>638</v>
+      </c>
+      <c r="E248" s="142" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D249" s="104" t="s">
-        <v>717</v>
+      <c r="D249" s="147" t="s">
+        <v>714</v>
+      </c>
+      <c r="E249" s="157" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="250" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D250" s="100" t="s">
-        <v>638</v>
-      </c>
-      <c r="E250" s="142" t="s">
-        <v>1</v>
+      <c r="D250" s="147" t="s">
+        <v>719</v>
+      </c>
+      <c r="E250" s="96" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="251" spans="4:7" ht="18.75" customHeight="1">
       <c r="D251" s="147" t="s">
-        <v>714</v>
-      </c>
-      <c r="E251" s="157" t="s">
-        <v>720</v>
+        <v>716</v>
+      </c>
+      <c r="E251" s="96" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="252" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D252" s="147" t="s">
-        <v>719</v>
-      </c>
-      <c r="E252" s="96" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="253" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D253" s="147" t="s">
-        <v>716</v>
-      </c>
-      <c r="E253" s="96" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="254" spans="4:7" ht="18.75" customHeight="1">
-      <c r="E254" s="151"/>
-    </row>
-    <row r="255" spans="4:7">
-      <c r="E255" t="s">
+      <c r="E252" s="151"/>
+    </row>
+    <row r="253" spans="4:7">
+      <c r="E253" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="256" spans="4:7" ht="57">
-      <c r="E256" s="158" t="s">
+    <row r="254" spans="4:7" ht="57">
+      <c r="E254" s="158" t="s">
         <v>728</v>
       </c>
+    </row>
+    <row r="255" spans="4:7" ht="14.25">
+      <c r="E255" s="151" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="256" spans="4:7" ht="14.25">
+      <c r="E256" s="151"/>
     </row>
     <row r="257" spans="4:6" ht="14.25">
       <c r="E257" s="151" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="258" spans="4:6" ht="14.25">
-      <c r="E258" s="151"/>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="258" spans="4:6" ht="57">
+      <c r="E258" s="158" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="259" spans="4:6" ht="14.25">
       <c r="E259" s="151" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="260" spans="4:6" ht="57">
-      <c r="E260" s="158" t="s">
-        <v>730</v>
-      </c>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="260" spans="4:6" ht="14.25">
+      <c r="E260" s="151"/>
     </row>
     <row r="261" spans="4:6" ht="14.25">
       <c r="E261" s="151" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="262" spans="4:6" ht="14.25">
-      <c r="E262" s="151"/>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="262" spans="4:6" ht="57">
+      <c r="E262" s="158" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="263" spans="4:6" ht="14.25">
       <c r="E263" s="151" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="264" spans="4:6" ht="57">
-      <c r="E264" s="158" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="265" spans="4:6" ht="14.25">
-      <c r="E265" s="151" t="s">
         <v>727</v>
       </c>
     </row>
+    <row r="264" spans="4:6" ht="18.75" customHeight="1">
+      <c r="E264" s="151"/>
+    </row>
+    <row r="265" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D265" s="97" t="s">
+        <v>732</v>
+      </c>
+      <c r="E265"/>
+      <c r="F265"/>
+    </row>
     <row r="266" spans="4:6" ht="18.75" customHeight="1">
-      <c r="E266" s="151"/>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266"/>
     </row>
     <row r="267" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D267" s="97" t="s">
-        <v>732</v>
-      </c>
-      <c r="E267"/>
-      <c r="F267"/>
+      <c r="D267" s="142" t="s">
+        <v>733</v>
+      </c>
+      <c r="E267" s="142" t="s">
+        <v>734</v>
+      </c>
+      <c r="F267" s="142" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D268"/>
-      <c r="E268"/>
-      <c r="F268"/>
+      <c r="D268" s="96" t="s">
+        <v>761</v>
+      </c>
+      <c r="E268" s="96" t="s">
+        <v>743</v>
+      </c>
+      <c r="F268" s="96" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="269" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D269" s="142" t="s">
-        <v>733</v>
-      </c>
-      <c r="E269" s="142" t="s">
-        <v>734</v>
-      </c>
-      <c r="F269" s="142" t="s">
+      <c r="D269" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="E269" s="96" t="s">
+        <v>736</v>
+      </c>
+      <c r="F269" s="96" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="270" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D270" s="99" t="s">
+        <v>738</v>
+      </c>
+      <c r="E270" s="96" t="s">
+        <v>739</v>
+      </c>
+      <c r="F270" s="96" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="271" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D271" s="159">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D270" s="96" t="s">
-        <v>761</v>
-      </c>
-      <c r="E270" s="96" t="s">
-        <v>743</v>
-      </c>
-      <c r="F270" s="96" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="271" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D271" s="96" t="s">
-        <v>762</v>
-      </c>
       <c r="E271" s="96" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="F271" s="96" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="272" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D272" s="99" t="s">
-        <v>738</v>
-      </c>
-      <c r="E272" s="96" t="s">
-        <v>739</v>
-      </c>
-      <c r="F272" s="96" t="s">
-        <v>740</v>
-      </c>
+      <c r="D272" s="159"/>
+      <c r="E272" s="96"/>
+      <c r="F272" s="96"/>
     </row>
     <row r="273" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D273" s="159">
-        <v>1</v>
-      </c>
-      <c r="E273" s="96" t="s">
-        <v>741</v>
-      </c>
-      <c r="F273" s="96" t="s">
-        <v>742</v>
-      </c>
+      <c r="D273" s="97" t="s">
+        <v>744</v>
+      </c>
+      <c r="E273"/>
+      <c r="F273" s="96"/>
     </row>
     <row r="274" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D274" s="159"/>
-      <c r="E274" s="96"/>
+      <c r="D274" s="98" t="s">
+        <v>745</v>
+      </c>
+      <c r="E274"/>
       <c r="F274" s="96"/>
     </row>
     <row r="275" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D275" s="97" t="s">
-        <v>744</v>
-      </c>
+      <c r="D275"/>
       <c r="E275"/>
       <c r="F275" s="96"/>
     </row>
     <row r="276" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D276" s="98" t="s">
-        <v>745</v>
+      <c r="D276" s="97" t="s">
+        <v>746</v>
       </c>
       <c r="E276"/>
       <c r="F276" s="96"/>
@@ -14985,51 +15203,51 @@
       <c r="F277" s="96"/>
     </row>
     <row r="278" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D278" s="97" t="s">
-        <v>746</v>
-      </c>
-      <c r="E278"/>
+      <c r="D278" s="100" t="s">
+        <v>747</v>
+      </c>
+      <c r="E278" s="100" t="s">
+        <v>748</v>
+      </c>
       <c r="F278" s="96"/>
     </row>
     <row r="279" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D279"/>
-      <c r="E279"/>
+      <c r="D279" s="147" t="s">
+        <v>749</v>
+      </c>
+      <c r="E279" s="147" t="s">
+        <v>750</v>
+      </c>
       <c r="F279" s="96"/>
     </row>
     <row r="280" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D280" s="100" t="s">
-        <v>747</v>
-      </c>
-      <c r="E280" s="100" t="s">
-        <v>748</v>
+      <c r="D280" s="147" t="s">
+        <v>751</v>
+      </c>
+      <c r="E280" s="147" t="s">
+        <v>752</v>
       </c>
       <c r="F280" s="96"/>
     </row>
     <row r="281" spans="4:6" ht="18.75" customHeight="1">
       <c r="D281" s="147" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E281" s="147" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="F281" s="96"/>
     </row>
     <row r="282" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D282" s="147" t="s">
-        <v>751</v>
-      </c>
-      <c r="E282" s="147" t="s">
-        <v>752</v>
-      </c>
+      <c r="D282"/>
+      <c r="E282"/>
       <c r="F282" s="96"/>
     </row>
     <row r="283" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D283" s="147" t="s">
-        <v>753</v>
-      </c>
-      <c r="E283" s="147" t="s">
-        <v>754</v>
-      </c>
+      <c r="D283" t="s">
+        <v>755</v>
+      </c>
+      <c r="E283"/>
       <c r="F283" s="96"/>
     </row>
     <row r="284" spans="4:6" ht="18.75" customHeight="1">
@@ -15038,79 +15256,73 @@
       <c r="F284" s="96"/>
     </row>
     <row r="285" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D285" t="s">
-        <v>755</v>
+      <c r="D285" s="97" t="s">
+        <v>880</v>
       </c>
       <c r="E285"/>
       <c r="F285" s="96"/>
     </row>
     <row r="286" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D286"/>
+      <c r="D286" s="98"/>
       <c r="E286"/>
       <c r="F286" s="96"/>
     </row>
     <row r="287" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D287" s="97" t="s">
-        <v>880</v>
+      <c r="D287" s="98" t="s">
+        <v>757</v>
       </c>
       <c r="E287"/>
       <c r="F287" s="96"/>
     </row>
     <row r="288" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D288" s="98"/>
+      <c r="D288" s="98" t="s">
+        <v>758</v>
+      </c>
       <c r="E288"/>
       <c r="F288" s="96"/>
     </row>
     <row r="289" spans="4:6" ht="18.75" customHeight="1">
       <c r="D289" s="98" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E289"/>
       <c r="F289" s="96"/>
     </row>
     <row r="290" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D290" s="98" t="s">
-        <v>758</v>
-      </c>
-      <c r="E290"/>
+      <c r="D290" s="159"/>
+      <c r="E290" s="96"/>
       <c r="F290" s="96"/>
     </row>
-    <row r="291" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D291" s="98" t="s">
-        <v>759</v>
-      </c>
-      <c r="E291"/>
-      <c r="F291" s="96"/>
-    </row>
-    <row r="292" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D292" s="159"/>
-      <c r="E292" s="96"/>
-      <c r="F292" s="96"/>
-    </row>
-    <row r="293" spans="4:6" s="152" customFormat="1" ht="14.25"/>
-    <row r="294" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="291" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="292" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="293" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="E293" s="155" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="294" spans="4:6" s="152" customFormat="1" ht="14.25">
+      <c r="E294" s="156" t="s">
+        <v>708</v>
+      </c>
+    </row>
     <row r="295" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
-      <c r="E295" s="155" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="296" spans="4:6" s="152" customFormat="1" ht="14.25">
-      <c r="E296" s="156" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="297" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
-      <c r="D297" s="156" t="s">
+      <c r="D295" s="156" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="298" spans="4:6" s="152" customFormat="1" ht="71.25">
-      <c r="E298" s="160" t="s">
+    <row r="296" spans="4:6" s="152" customFormat="1" ht="71.25">
+      <c r="E296" s="160" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="299" spans="4:6" s="152" customFormat="1" ht="16.5" customHeight="1">
-      <c r="E299" s="155"/>
+    <row r="297" spans="4:6" s="152" customFormat="1" ht="16.5" customHeight="1">
+      <c r="E297" s="155"/>
+    </row>
+    <row r="298" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E298" s="128"/>
+    </row>
+    <row r="299" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E299" s="128"/>
     </row>
     <row r="300" spans="4:6" ht="16.5" customHeight="1">
       <c r="E300" s="128"/>
@@ -15122,2027 +15334,2021 @@
       <c r="E302" s="128"/>
     </row>
     <row r="303" spans="4:6" ht="16.5" customHeight="1">
-      <c r="E303" s="128"/>
+      <c r="D303" s="97" t="s">
+        <v>693</v>
+      </c>
+      <c r="E303"/>
     </row>
     <row r="304" spans="4:6" ht="16.5" customHeight="1">
-      <c r="E304" s="128"/>
-    </row>
-    <row r="305" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D305" s="97" t="s">
-        <v>693</v>
-      </c>
-      <c r="E305"/>
-    </row>
-    <row r="306" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D306"/>
-      <c r="E306"/>
-    </row>
-    <row r="307" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D307" s="100" t="s">
+      <c r="D304"/>
+      <c r="E304"/>
+    </row>
+    <row r="305" spans="3:7" ht="16.5" customHeight="1">
+      <c r="D305" s="100" t="s">
         <v>694</v>
       </c>
-      <c r="E307" s="100" t="s">
+      <c r="E305" s="100" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="308" spans="3:5" ht="16.5" customHeight="1">
+    <row r="306" spans="3:7" ht="16.5" customHeight="1">
+      <c r="D306" s="147" t="s">
+        <v>695</v>
+      </c>
+      <c r="E306" s="147" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="307" spans="3:7" ht="16.5" customHeight="1">
+      <c r="D307" s="147" t="s">
+        <v>697</v>
+      </c>
+      <c r="E307" s="149" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="308" spans="3:7" ht="16.5" customHeight="1">
       <c r="D308" s="147" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="E308" s="147" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="309" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D309" s="147" t="s">
-        <v>697</v>
-      </c>
-      <c r="E309" s="149" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="310" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D310" s="147" t="s">
-        <v>699</v>
-      </c>
-      <c r="E310" s="147" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="311" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="312" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C312" s="147"/>
+    <row r="309" spans="3:7" ht="16.5" customHeight="1"/>
+    <row r="310" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C310" s="147"/>
+      <c r="E310" s="147"/>
+    </row>
+    <row r="311" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C311" s="147"/>
+      <c r="E311" s="147"/>
+    </row>
+    <row r="312" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C312" s="128" t="s">
+        <v>770</v>
+      </c>
       <c r="E312" s="147"/>
     </row>
-    <row r="313" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C313" s="147"/>
+    <row r="313" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C313"/>
       <c r="E313" s="147"/>
     </row>
-    <row r="314" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C314" s="128" t="s">
-        <v>770</v>
+    <row r="314" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C314" s="129" t="s">
+        <v>771</v>
       </c>
       <c r="E314" s="147"/>
     </row>
-    <row r="315" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C315"/>
-      <c r="E315" s="147"/>
-    </row>
-    <row r="316" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C316" s="129" t="s">
-        <v>771</v>
-      </c>
-      <c r="E316" s="147"/>
-    </row>
-    <row r="317" spans="3:5" ht="121.5">
+    <row r="315" spans="3:7" ht="121.5">
+      <c r="C315" s="147"/>
+      <c r="E315" s="147" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="316" spans="3:7" ht="40.5">
+      <c r="C316" s="147"/>
+      <c r="E316" s="147" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="317" spans="3:7" ht="54">
       <c r="C317" s="147"/>
       <c r="E317" s="147" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="318" spans="3:5" ht="40.5">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="318" spans="3:7" ht="16.5" customHeight="1">
       <c r="C318" s="147"/>
-      <c r="E318" s="147" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="319" spans="3:5" ht="54">
+      <c r="E318" s="147"/>
+    </row>
+    <row r="319" spans="3:7" ht="16.5" customHeight="1">
       <c r="C319" s="147"/>
-      <c r="E319" s="147" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="320" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E319" s="97" t="s">
+        <v>775</v>
+      </c>
+      <c r="F319"/>
+      <c r="G319"/>
+    </row>
+    <row r="320" spans="3:7" ht="16.5" customHeight="1">
       <c r="C320" s="147"/>
-      <c r="E320" s="147"/>
+      <c r="E320"/>
+      <c r="F320"/>
+      <c r="G320"/>
     </row>
     <row r="321" spans="3:7" ht="16.5" customHeight="1">
       <c r="C321" s="147"/>
-      <c r="E321" s="97" t="s">
-        <v>775</v>
+      <c r="E321" t="s">
+        <v>776</v>
       </c>
       <c r="F321"/>
       <c r="G321"/>
     </row>
     <row r="322" spans="3:7" ht="16.5" customHeight="1">
       <c r="C322" s="147"/>
-      <c r="E322"/>
-      <c r="F322"/>
-      <c r="G322"/>
+      <c r="E322" s="164" t="s">
+        <v>777</v>
+      </c>
+      <c r="F322" s="164" t="s">
+        <v>778</v>
+      </c>
+      <c r="G322" s="164" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="323" spans="3:7" ht="16.5" customHeight="1">
       <c r="C323" s="147"/>
-      <c r="E323" t="s">
-        <v>776</v>
-      </c>
-      <c r="F323"/>
-      <c r="G323"/>
+      <c r="E323" s="165">
+        <v>101</v>
+      </c>
+      <c r="F323" s="165" t="s">
+        <v>780</v>
+      </c>
+      <c r="G323" s="165" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="324" spans="3:7" ht="16.5" customHeight="1">
       <c r="C324" s="147"/>
-      <c r="E324" s="164" t="s">
-        <v>777</v>
-      </c>
-      <c r="F324" s="164" t="s">
-        <v>778</v>
-      </c>
-      <c r="G324" s="164" t="s">
-        <v>779</v>
+      <c r="E324" s="165">
+        <v>102</v>
+      </c>
+      <c r="F324" s="165" t="s">
+        <v>782</v>
+      </c>
+      <c r="G324" s="165">
+        <v>101</v>
       </c>
     </row>
     <row r="325" spans="3:7" ht="16.5" customHeight="1">
       <c r="C325" s="147"/>
       <c r="E325" s="165">
+        <v>103</v>
+      </c>
+      <c r="F325" s="165" t="s">
+        <v>783</v>
+      </c>
+      <c r="G325" s="165">
         <v>101</v>
-      </c>
-      <c r="F325" s="165" t="s">
-        <v>780</v>
-      </c>
-      <c r="G325" s="165" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="326" spans="3:7" ht="16.5" customHeight="1">
       <c r="C326" s="147"/>
       <c r="E326" s="165">
+        <v>104</v>
+      </c>
+      <c r="F326" s="165" t="s">
+        <v>784</v>
+      </c>
+      <c r="G326" s="165">
         <v>102</v>
-      </c>
-      <c r="F326" s="165" t="s">
-        <v>782</v>
-      </c>
-      <c r="G326" s="165">
-        <v>101</v>
       </c>
     </row>
     <row r="327" spans="3:7" ht="16.5" customHeight="1">
       <c r="C327" s="147"/>
-      <c r="E327" s="165">
-        <v>103</v>
-      </c>
-      <c r="F327" s="165" t="s">
-        <v>783</v>
-      </c>
-      <c r="G327" s="165">
-        <v>101</v>
-      </c>
+      <c r="E327" s="147"/>
     </row>
     <row r="328" spans="3:7" ht="16.5" customHeight="1">
       <c r="C328" s="147"/>
-      <c r="E328" s="165">
-        <v>104</v>
-      </c>
-      <c r="F328" s="165" t="s">
-        <v>784</v>
-      </c>
-      <c r="G328" s="165">
-        <v>102</v>
+      <c r="E328" s="166" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="329" spans="3:7" ht="16.5" customHeight="1">
       <c r="C329" s="147"/>
-      <c r="E329" s="147"/>
+      <c r="E329" s="166" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="330" spans="3:7" ht="16.5" customHeight="1">
       <c r="C330" s="147"/>
-      <c r="E330" s="166" t="s">
-        <v>788</v>
+      <c r="E330" s="128" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="331" spans="3:7" ht="16.5" customHeight="1">
       <c r="C331" s="147"/>
-      <c r="E331" s="166" t="s">
-        <v>789</v>
+      <c r="E331" s="98" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="332" spans="3:7" ht="16.5" customHeight="1">
       <c r="C332" s="147"/>
-      <c r="E332" s="128" t="s">
-        <v>785</v>
+      <c r="E332" s="98" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="333" spans="3:7" ht="16.5" customHeight="1">
       <c r="C333" s="147"/>
-      <c r="E333" s="98" t="s">
-        <v>786</v>
+      <c r="E333" s="168" t="s">
+        <v>790</v>
+      </c>
+      <c r="F333" s="168" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="3:7" ht="16.5" customHeight="1">
       <c r="C334" s="147"/>
-      <c r="E334" s="98" t="s">
-        <v>787</v>
+      <c r="E334" s="159" t="s">
+        <v>791</v>
+      </c>
+      <c r="F334" s="170" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="335" spans="3:7" ht="16.5" customHeight="1">
       <c r="C335" s="147"/>
-      <c r="E335" s="168" t="s">
-        <v>790</v>
-      </c>
-      <c r="F335" s="168" t="s">
-        <v>1</v>
+      <c r="E335" s="169" t="s">
+        <v>793</v>
+      </c>
+      <c r="F335" s="170" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="336" spans="3:7" ht="16.5" customHeight="1">
       <c r="C336" s="147"/>
       <c r="E336" s="159" t="s">
-        <v>791</v>
-      </c>
-      <c r="F336" s="170" t="s">
-        <v>792</v>
+        <v>795</v>
+      </c>
+      <c r="F336" s="169" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="337" spans="3:6" ht="16.5" customHeight="1">
       <c r="C337" s="147"/>
-      <c r="E337" s="169" t="s">
-        <v>793</v>
-      </c>
-      <c r="F337" s="170" t="s">
-        <v>794</v>
-      </c>
+      <c r="E337" s="147"/>
     </row>
     <row r="338" spans="3:6" ht="16.5" customHeight="1">
       <c r="C338" s="147"/>
-      <c r="E338" s="159" t="s">
-        <v>795</v>
-      </c>
-      <c r="F338" s="169" t="s">
-        <v>796</v>
+      <c r="E338" s="128" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="339" spans="3:6" ht="16.5" customHeight="1">
       <c r="C339" s="147"/>
-      <c r="E339" s="147"/>
+      <c r="E339" s="171" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="340" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C340" s="147"/>
-      <c r="E340" s="128" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="341" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C341" s="147"/>
-      <c r="E341" s="171" t="s">
-        <v>798</v>
-      </c>
-    </row>
+      <c r="E340" s="98" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="341" spans="3:6" ht="16.5" customHeight="1"/>
     <row r="342" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E342" s="98" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="343" spans="3:6" ht="16.5" customHeight="1"/>
+      <c r="E342" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="343" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E343" s="164" t="s">
+        <v>801</v>
+      </c>
+      <c r="F343" s="164" t="s">
+        <v>802</v>
+      </c>
+    </row>
     <row r="344" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E344" t="s">
-        <v>800</v>
+      <c r="E344" s="165" t="s">
+        <v>780</v>
+      </c>
+      <c r="F344" s="165" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="345" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E345" s="164" t="s">
-        <v>801</v>
-      </c>
-      <c r="F345" s="164" t="s">
-        <v>802</v>
+      <c r="E345" s="165" t="s">
+        <v>780</v>
+      </c>
+      <c r="F345" s="165" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="346" spans="3:6" ht="16.5" customHeight="1">
       <c r="E346" s="165" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F346" s="165" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="347" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E347" s="165" t="s">
-        <v>780</v>
-      </c>
-      <c r="F347" s="165" t="s">
-        <v>783</v>
-      </c>
-    </row>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="347" spans="3:6" ht="16.5" customHeight="1"/>
     <row r="348" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E348" s="165" t="s">
-        <v>782</v>
-      </c>
-      <c r="F348" s="165" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="349" spans="3:6" ht="16.5" customHeight="1"/>
+      <c r="E348" s="129" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="349" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E349" s="168" t="s">
+        <v>318</v>
+      </c>
+      <c r="F349" s="168" t="s">
+        <v>804</v>
+      </c>
+    </row>
     <row r="350" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E350" s="129" t="s">
-        <v>803</v>
+      <c r="E350" s="169" t="s">
+        <v>805</v>
+      </c>
+      <c r="F350" s="169" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="351" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E351" s="168" t="s">
-        <v>318</v>
-      </c>
-      <c r="F351" s="168" t="s">
-        <v>804</v>
+      <c r="E351" s="169" t="s">
+        <v>807</v>
+      </c>
+      <c r="F351" s="169" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="352" spans="3:6" ht="16.5" customHeight="1">
       <c r="E352" s="169" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="F352" s="169" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="353" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E353" s="169" t="s">
-        <v>807</v>
-      </c>
-      <c r="F353" s="169" t="s">
-        <v>808</v>
-      </c>
-    </row>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="353" spans="5:6" ht="16.5" customHeight="1"/>
     <row r="354" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E354" s="169" t="s">
-        <v>809</v>
-      </c>
-      <c r="F354" s="169" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="355" spans="5:6" ht="16.5" customHeight="1"/>
+      <c r="E354" s="129" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="355" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E355" s="168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F355" s="168" t="s">
+        <v>329</v>
+      </c>
+    </row>
     <row r="356" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E356" s="129" t="s">
-        <v>811</v>
+      <c r="E356" s="159" t="s">
+        <v>812</v>
+      </c>
+      <c r="F356" s="169" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="357" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E357" s="168" t="s">
-        <v>328</v>
-      </c>
-      <c r="F357" s="168" t="s">
-        <v>329</v>
+      <c r="E357" s="169" t="s">
+        <v>814</v>
+      </c>
+      <c r="F357" s="169" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="358" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E358" s="159" t="s">
-        <v>812</v>
+      <c r="E358" s="169" t="s">
+        <v>816</v>
       </c>
       <c r="F358" s="169" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="359" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E359" s="169" t="s">
-        <v>814</v>
-      </c>
-      <c r="F359" s="169" t="s">
-        <v>815</v>
-      </c>
-    </row>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="359" spans="5:6" ht="16.5" customHeight="1"/>
     <row r="360" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E360" s="169" t="s">
-        <v>816</v>
-      </c>
-      <c r="F360" s="169" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="361" spans="5:6" ht="16.5" customHeight="1"/>
+      <c r="E360" s="172" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="361" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E361" s="168" t="s">
+        <v>790</v>
+      </c>
+      <c r="F361" s="168" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="362" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E362" s="172" t="s">
-        <v>818</v>
+      <c r="E362" s="169" t="s">
+        <v>819</v>
+      </c>
+      <c r="F362" s="169" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="363" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E363" s="168" t="s">
-        <v>790</v>
-      </c>
-      <c r="F363" s="168" t="s">
-        <v>1</v>
+      <c r="E363" s="169" t="s">
+        <v>821</v>
+      </c>
+      <c r="F363" s="173" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="364" spans="5:6" ht="16.5" customHeight="1">
       <c r="E364" s="169" t="s">
-        <v>819</v>
-      </c>
-      <c r="F364" s="169" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="365" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E365" s="169" t="s">
-        <v>821</v>
-      </c>
-      <c r="F365" s="173" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="366" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E366" s="169" t="s">
         <v>822</v>
       </c>
-      <c r="F366" s="170" t="s">
+      <c r="F364" s="170" t="s">
         <v>823</v>
       </c>
     </row>
+    <row r="366" spans="5:6">
+      <c r="E366" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="367" spans="5:6">
+      <c r="E367" s="168" t="s">
+        <v>318</v>
+      </c>
+      <c r="F367" s="168" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="368" spans="5:6">
-      <c r="E368" t="s">
-        <v>637</v>
+      <c r="E368" s="169" t="s">
+        <v>825</v>
+      </c>
+      <c r="F368" s="169" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="369" spans="5:6">
-      <c r="E369" s="168" t="s">
-        <v>318</v>
-      </c>
-      <c r="F369" s="168" t="s">
-        <v>1</v>
+      <c r="E369" s="169" t="s">
+        <v>827</v>
+      </c>
+      <c r="F369" s="169" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="370" spans="5:6">
       <c r="E370" s="169" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="F370" s="169" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="371" spans="5:6">
-      <c r="E371" s="169" t="s">
-        <v>827</v>
-      </c>
-      <c r="F371" s="169" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="372" spans="5:6">
-      <c r="E372" s="169" t="s">
-        <v>803</v>
-      </c>
-      <c r="F372" s="169" t="s">
-        <v>829</v>
+      <c r="E372" s="174" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="373" spans="5:6">
+      <c r="E373" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="374" spans="5:6">
-      <c r="E374" s="174" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="375" spans="5:6">
-      <c r="E375" t="s">
-        <v>839</v>
+      <c r="E374" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="376" spans="5:6">
-      <c r="E376" t="s">
-        <v>840</v>
+      <c r="E376" s="174"/>
+    </row>
+    <row r="377" spans="5:6">
+      <c r="E377" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="378" spans="5:6">
-      <c r="E378" s="174"/>
+      <c r="E378" s="101" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="379" spans="5:6">
-      <c r="E379" t="s">
-        <v>831</v>
+      <c r="E379" s="98" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="380" spans="5:6">
-      <c r="E380" s="101" t="s">
-        <v>832</v>
-      </c>
+      <c r="E380" s="98"/>
     </row>
     <row r="381" spans="5:6">
-      <c r="E381" s="98" t="s">
-        <v>833</v>
+      <c r="E381" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="382" spans="5:6">
-      <c r="E382" s="98"/>
+      <c r="E382" s="129" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="383" spans="5:6">
       <c r="E383" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="384" spans="5:6">
-      <c r="E384" s="129" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="385" spans="5:6">
-      <c r="E385" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="387" spans="5:6" ht="16.5">
-      <c r="E387" s="128" t="s">
+    <row r="385" spans="5:6" ht="16.5">
+      <c r="E385" s="128" t="s">
         <v>837</v>
       </c>
     </row>
+    <row r="386" spans="5:6">
+      <c r="E386" s="98" t="s">
+        <v>838</v>
+      </c>
+    </row>
     <row r="388" spans="5:6">
-      <c r="E388" s="98" t="s">
-        <v>838</v>
+      <c r="E388" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="389" spans="5:6">
+      <c r="E389" s="168" t="s">
+        <v>638</v>
+      </c>
+      <c r="F389" s="168" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="5:6">
-      <c r="E390" t="s">
-        <v>841</v>
+      <c r="E390" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="F390" s="168" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="391" spans="5:6">
-      <c r="E391" s="168" t="s">
-        <v>638</v>
-      </c>
-      <c r="F391" s="168" t="s">
-        <v>1</v>
+      <c r="E391" s="169" t="s">
+        <v>844</v>
+      </c>
+      <c r="F391" s="169" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="392" spans="5:6">
       <c r="E392" s="169" t="s">
-        <v>842</v>
-      </c>
-      <c r="F392" s="168" t="s">
-        <v>843</v>
+        <v>819</v>
+      </c>
+      <c r="F392" s="169" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="393" spans="5:6">
       <c r="E393" s="169" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F393" s="169" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="394" spans="5:6">
-      <c r="E394" s="169" t="s">
-        <v>819</v>
-      </c>
-      <c r="F394" s="169" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="395" spans="5:6">
-      <c r="E395" s="169" t="s">
-        <v>847</v>
-      </c>
-      <c r="F395" s="169" t="s">
-        <v>848</v>
+      <c r="E395" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="396" spans="5:6">
+      <c r="E396" s="168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F396" s="168" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="397" spans="5:6">
-      <c r="E397" t="s">
-        <v>849</v>
+      <c r="E397" s="169" t="s">
+        <v>850</v>
+      </c>
+      <c r="F397" s="168" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="398" spans="5:6">
-      <c r="E398" s="168" t="s">
-        <v>328</v>
-      </c>
-      <c r="F398" s="168" t="s">
-        <v>329</v>
+      <c r="E398" s="169" t="s">
+        <v>852</v>
+      </c>
+      <c r="F398" s="159" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="399" spans="5:6">
       <c r="E399" s="169" t="s">
-        <v>850</v>
-      </c>
-      <c r="F399" s="168" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="400" spans="5:6">
-      <c r="E400" s="169" t="s">
-        <v>852</v>
-      </c>
-      <c r="F400" s="159" t="s">
-        <v>853</v>
+        <v>854</v>
+      </c>
+      <c r="F399" s="159" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="401" spans="3:7">
-      <c r="E401" s="169" t="s">
-        <v>854</v>
-      </c>
-      <c r="F401" s="159" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="403" spans="3:7">
-      <c r="E403" s="179" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="404" spans="3:7" ht="175.5">
-      <c r="E404" s="175" t="s">
+      <c r="E401" s="179" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="402" spans="3:7" ht="175.5">
+      <c r="E402" s="175" t="s">
         <v>856</v>
+      </c>
+    </row>
+    <row r="403" spans="3:7" ht="54">
+      <c r="C403" s="104" t="s">
+        <v>878</v>
+      </c>
+      <c r="E403" s="176" t="s">
+        <v>859</v>
+      </c>
+      <c r="F403" s="107"/>
+    </row>
+    <row r="404" spans="3:7" ht="27">
+      <c r="E404" s="107" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="405" spans="3:7" ht="54">
       <c r="C405" s="104" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E405" s="176" t="s">
-        <v>859</v>
-      </c>
-      <c r="F405" s="107"/>
-    </row>
-    <row r="406" spans="3:7" ht="27">
-      <c r="E406" s="107" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="407" spans="3:7" ht="54">
-      <c r="C407" s="104" t="s">
-        <v>879</v>
-      </c>
-      <c r="E407" s="176" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="408" spans="3:7">
-      <c r="E408" s="107"/>
-    </row>
-    <row r="409" spans="3:7" ht="14.25">
-      <c r="E409" t="s">
+    <row r="406" spans="3:7">
+      <c r="E406" s="107"/>
+    </row>
+    <row r="407" spans="3:7" ht="14.25">
+      <c r="E407" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="410" spans="3:7" ht="14.25">
-      <c r="E410" t="s">
+    <row r="408" spans="3:7" ht="14.25">
+      <c r="E408" t="s">
         <v>861</v>
       </c>
     </row>
+    <row r="409" spans="3:7">
+      <c r="E409" s="164" t="s">
+        <v>862</v>
+      </c>
+      <c r="F409" s="164" t="s">
+        <v>863</v>
+      </c>
+      <c r="G409" s="164" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="410" spans="3:7">
+      <c r="E410" s="167" t="s">
+        <v>865</v>
+      </c>
+      <c r="F410" s="165" t="s">
+        <v>866</v>
+      </c>
+      <c r="G410" s="165" t="s">
+        <v>867</v>
+      </c>
+    </row>
     <row r="411" spans="3:7">
-      <c r="E411" s="164" t="s">
-        <v>862</v>
-      </c>
-      <c r="F411" s="164" t="s">
-        <v>863</v>
-      </c>
-      <c r="G411" s="164" t="s">
-        <v>864</v>
+      <c r="E411" s="167" t="s">
+        <v>868</v>
+      </c>
+      <c r="F411" s="165" t="s">
+        <v>869</v>
+      </c>
+      <c r="G411" s="165" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="412" spans="3:7">
-      <c r="E412" s="167" t="s">
-        <v>865</v>
-      </c>
-      <c r="F412" s="165" t="s">
-        <v>866</v>
-      </c>
-      <c r="G412" s="165" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="413" spans="3:7">
-      <c r="E413" s="167" t="s">
-        <v>868</v>
-      </c>
-      <c r="F413" s="165" t="s">
-        <v>869</v>
-      </c>
-      <c r="G413" s="165" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="414" spans="3:7">
-      <c r="E414" s="107"/>
-    </row>
-    <row r="415" spans="3:7" ht="16.5">
-      <c r="E415" s="128" t="s">
+      <c r="E412" s="107"/>
+    </row>
+    <row r="413" spans="3:7" ht="16.5">
+      <c r="E413" s="128" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="416" spans="3:7" ht="14.25">
-      <c r="E416" t="s">
+    <row r="414" spans="3:7" ht="14.25">
+      <c r="E414" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="417" spans="3:5" ht="175.5">
-      <c r="E417" s="107" t="s">
+    <row r="415" spans="3:7" ht="175.5">
+      <c r="E415" s="107" t="s">
         <v>873</v>
       </c>
     </row>
+    <row r="416" spans="3:7">
+      <c r="E416" s="107"/>
+    </row>
+    <row r="417" spans="3:5" ht="14.25">
+      <c r="E417" s="177" t="s">
+        <v>874</v>
+      </c>
+    </row>
     <row r="418" spans="3:5">
-      <c r="E418" s="107"/>
-    </row>
-    <row r="419" spans="3:5" ht="14.25">
-      <c r="E419" s="177" t="s">
-        <v>874</v>
+      <c r="E418" s="98"/>
+    </row>
+    <row r="419" spans="3:5">
+      <c r="E419" s="171" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="420" spans="3:5">
-      <c r="E420" s="98"/>
+      <c r="E420" s="101" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="421" spans="3:5">
-      <c r="E421" s="171" t="s">
-        <v>875</v>
+      <c r="E421" s="98" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="422" spans="3:5">
-      <c r="E422" s="101" t="s">
-        <v>876</v>
-      </c>
+      <c r="E422" s="107"/>
     </row>
     <row r="423" spans="3:5">
-      <c r="E423" s="98" t="s">
-        <v>877</v>
-      </c>
+      <c r="C423" s="129" t="s">
+        <v>881</v>
+      </c>
+      <c r="E423" s="107"/>
     </row>
     <row r="424" spans="3:5">
+      <c r="C424" s="100" t="s">
+        <v>882</v>
+      </c>
+      <c r="D424" s="100" t="s">
+        <v>631</v>
+      </c>
       <c r="E424" s="107"/>
     </row>
-    <row r="425" spans="3:5">
-      <c r="C425" s="129" t="s">
-        <v>881</v>
-      </c>
-      <c r="E425" s="107"/>
-    </row>
-    <row r="426" spans="3:5">
-      <c r="C426" s="100" t="s">
-        <v>882</v>
-      </c>
-      <c r="D426" s="100" t="s">
-        <v>631</v>
-      </c>
-      <c r="E426" s="107"/>
+    <row r="425" spans="3:5" ht="27">
+      <c r="C425" s="147" t="s">
+        <v>883</v>
+      </c>
+      <c r="D425" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="426" spans="3:5" ht="27">
+      <c r="C426" s="147" t="s">
+        <v>885</v>
+      </c>
+      <c r="D426" s="96" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="427" spans="3:5" ht="27">
       <c r="C427" s="147" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D427" s="96" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="428" spans="3:5" ht="27">
-      <c r="C428" s="147" t="s">
-        <v>885</v>
-      </c>
-      <c r="D428" s="96" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="429" spans="3:5" ht="27">
-      <c r="C429" s="147" t="s">
-        <v>887</v>
-      </c>
-      <c r="D429" s="96" t="s">
         <v>888</v>
       </c>
     </row>
+    <row r="428" spans="3:5">
+      <c r="D428" s="104" t="s">
+        <v>889</v>
+      </c>
+      <c r="E428" s="107"/>
+    </row>
+    <row r="429" spans="3:5">
+      <c r="D429" s="104" t="s">
+        <v>890</v>
+      </c>
+      <c r="E429" s="107"/>
+    </row>
     <row r="430" spans="3:5">
-      <c r="D430" s="104" t="s">
-        <v>889</v>
-      </c>
       <c r="E430" s="107"/>
     </row>
-    <row r="431" spans="3:5">
-      <c r="D431" s="104" t="s">
-        <v>890</v>
-      </c>
-      <c r="E431" s="107"/>
-    </row>
-    <row r="432" spans="3:5">
-      <c r="E432" s="107"/>
+    <row r="435" spans="2:5" ht="16.5">
+      <c r="B435" s="106" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5" ht="16.5">
+      <c r="B436" s="106"/>
+      <c r="C436" s="105" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="437" spans="2:5" ht="16.5">
-      <c r="B437" s="106" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="438" spans="2:5" ht="16.5">
+      <c r="B437" s="106"/>
+      <c r="C437" s="105"/>
+      <c r="D437" s="104" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" ht="54">
       <c r="B438" s="106"/>
-      <c r="C438" s="105" t="s">
-        <v>518</v>
+      <c r="E438" s="107" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="439" spans="2:5" ht="16.5">
       <c r="B439" s="106"/>
-      <c r="C439" s="105"/>
-      <c r="D439" s="104" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="440" spans="2:5" ht="54">
+      <c r="E439" s="107"/>
+    </row>
+    <row r="440" spans="2:5" ht="21">
       <c r="B440" s="106"/>
-      <c r="E440" s="107" t="s">
-        <v>1017</v>
-      </c>
+      <c r="D440" s="109" t="s">
+        <v>529</v>
+      </c>
+      <c r="E440" s="107"/>
     </row>
     <row r="441" spans="2:5" ht="16.5">
       <c r="B441" s="106"/>
+      <c r="D441" s="112" t="s">
+        <v>530</v>
+      </c>
       <c r="E441" s="107"/>
     </row>
-    <row r="442" spans="2:5" ht="21">
+    <row r="442" spans="2:5" ht="16.5">
       <c r="B442" s="106"/>
-      <c r="D442" s="109" t="s">
-        <v>529</v>
+      <c r="D442" s="110" t="s">
+        <v>526</v>
       </c>
       <c r="E442" s="107"/>
     </row>
     <row r="443" spans="2:5" ht="16.5">
       <c r="B443" s="106"/>
-      <c r="D443" s="112" t="s">
-        <v>530</v>
-      </c>
+      <c r="D443" s="110"/>
       <c r="E443" s="107"/>
     </row>
     <row r="444" spans="2:5" ht="16.5">
       <c r="B444" s="106"/>
       <c r="D444" s="110" t="s">
-        <v>526</v>
-      </c>
-      <c r="E444" s="107"/>
+        <v>527</v>
+      </c>
+      <c r="E444" s="111">
+        <v>100</v>
+      </c>
     </row>
     <row r="445" spans="2:5" ht="16.5">
       <c r="B445" s="106"/>
       <c r="D445" s="110"/>
-      <c r="E445" s="107"/>
+      <c r="E445" s="111" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="446" spans="2:5" ht="16.5">
       <c r="B446" s="106"/>
-      <c r="D446" s="110" t="s">
-        <v>527</v>
-      </c>
-      <c r="E446" s="111">
-        <v>100</v>
+      <c r="E446" s="113">
+        <v>45869</v>
       </c>
     </row>
     <row r="447" spans="2:5" ht="16.5">
       <c r="B447" s="106"/>
-      <c r="D447" s="110"/>
-      <c r="E447" s="111" t="s">
-        <v>528</v>
-      </c>
+      <c r="E447" s="107"/>
     </row>
     <row r="448" spans="2:5" ht="16.5">
       <c r="B448" s="106"/>
-      <c r="E448" s="113">
-        <v>45869</v>
+      <c r="C448" s="105" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="449" spans="2:6" ht="16.5">
       <c r="B449" s="106"/>
-      <c r="E449" s="107"/>
+      <c r="C449" s="104" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="450" spans="2:6" ht="16.5">
       <c r="B450" s="106"/>
       <c r="C450" s="105" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
     </row>
     <row r="451" spans="2:6" ht="16.5">
       <c r="B451" s="106"/>
-      <c r="C451" s="104" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="452" spans="2:6" ht="16.5">
-      <c r="B452" s="106"/>
-      <c r="C452" s="105" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="453" spans="2:6" ht="16.5">
-      <c r="B453" s="106"/>
-    </row>
-    <row r="454" spans="2:6" s="152" customFormat="1" ht="14.25">
-      <c r="B454" s="210"/>
-      <c r="C454" s="177" t="s">
+    </row>
+    <row r="452" spans="2:6" s="152" customFormat="1" ht="14.25">
+      <c r="B452" s="194"/>
+      <c r="C452" s="177" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="455" spans="2:6" s="209" customFormat="1" ht="12">
-      <c r="B455" s="208"/>
-      <c r="C455" s="212" t="s">
+    <row r="453" spans="2:6" s="193" customFormat="1" ht="12">
+      <c r="B453" s="192"/>
+      <c r="C453" s="196" t="s">
         <v>893</v>
+      </c>
+    </row>
+    <row r="454" spans="2:6" ht="16.5">
+      <c r="B454" s="106"/>
+      <c r="C454" s="146" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="455" spans="2:6" ht="16.5">
+      <c r="B455" s="106"/>
+      <c r="C455" s="187" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="456" spans="2:6" ht="16.5">
       <c r="B456" s="106"/>
-      <c r="C456" s="146" t="s">
-        <v>894</v>
+      <c r="C456" s="187" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="457" spans="2:6" ht="16.5">
       <c r="B457" s="106"/>
-      <c r="C457" s="187" t="s">
-        <v>895</v>
+      <c r="C457" s="188" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="458" spans="2:6" ht="16.5">
       <c r="B458" s="106"/>
-      <c r="C458" s="187" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="459" spans="2:6" ht="16.5">
-      <c r="B459" s="106"/>
-      <c r="C459" s="188" t="s">
+      <c r="C458" s="191" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="460" spans="2:6" ht="16.5">
-      <c r="B460" s="106"/>
-      <c r="C460" s="191" t="s">
-        <v>1019</v>
+    <row r="459" spans="2:6">
+      <c r="C459" s="189"/>
+    </row>
+    <row r="460" spans="2:6" s="193" customFormat="1" ht="12">
+      <c r="C460" s="196" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="461" spans="2:6">
-      <c r="C461" s="189"/>
-    </row>
-    <row r="462" spans="2:6" s="209" customFormat="1" ht="12">
-      <c r="C462" s="212" t="s">
-        <v>897</v>
-      </c>
+      <c r="C461" s="146" t="s">
+        <v>898</v>
+      </c>
+      <c r="F461" s="107"/>
+    </row>
+    <row r="462" spans="2:6">
+      <c r="C462" s="146" t="s">
+        <v>899</v>
+      </c>
+      <c r="F462" s="107"/>
     </row>
     <row r="463" spans="2:6">
-      <c r="C463" s="146" t="s">
-        <v>898</v>
-      </c>
+      <c r="C463" s="98"/>
       <c r="F463" s="107"/>
     </row>
-    <row r="464" spans="2:6">
-      <c r="C464" s="146" t="s">
-        <v>899</v>
-      </c>
-      <c r="F464" s="107"/>
+    <row r="464" spans="2:6" s="152" customFormat="1" ht="14.25">
+      <c r="C464" s="177" t="s">
+        <v>900</v>
+      </c>
+      <c r="F464" s="195"/>
     </row>
     <row r="465" spans="3:6">
-      <c r="C465" s="98"/>
+      <c r="C465"/>
       <c r="F465" s="107"/>
     </row>
-    <row r="466" spans="3:6" s="152" customFormat="1" ht="14.25">
-      <c r="C466" s="177" t="s">
-        <v>900</v>
-      </c>
-      <c r="F466" s="211"/>
-    </row>
-    <row r="467" spans="3:6">
-      <c r="C467"/>
-      <c r="F467" s="107"/>
-    </row>
-    <row r="468" spans="3:6" s="209" customFormat="1" ht="12">
-      <c r="C468" s="212" t="s">
+    <row r="466" spans="3:6" s="193" customFormat="1" ht="12">
+      <c r="C466" s="196" t="s">
         <v>901</v>
       </c>
     </row>
+    <row r="467" spans="3:6" ht="16.5">
+      <c r="C467" s="190" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="468" spans="3:6" ht="67.5">
+      <c r="C468" s="190"/>
+      <c r="E468" s="107" t="s">
+        <v>907</v>
+      </c>
+    </row>
     <row r="469" spans="3:6" ht="16.5">
-      <c r="C469" s="190" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="470" spans="3:6" ht="67.5">
+      <c r="C469" s="190"/>
+      <c r="D469" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="470" spans="3:6" ht="16.5">
       <c r="C470" s="190"/>
-      <c r="E470" s="107" t="s">
-        <v>907</v>
+      <c r="D470" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="471" spans="3:6" ht="16.5">
       <c r="C471" s="190"/>
-      <c r="D471" t="s">
-        <v>903</v>
+      <c r="D471" s="129" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="472" spans="3:6" ht="16.5">
       <c r="C472" s="190"/>
-      <c r="D472" t="s">
-        <v>904</v>
-      </c>
+      <c r="D472" s="129"/>
     </row>
     <row r="473" spans="3:6" ht="16.5">
-      <c r="C473" s="190"/>
-      <c r="D473" s="129" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="474" spans="3:6" ht="16.5">
-      <c r="C474" s="190"/>
-      <c r="D474" s="129"/>
+      <c r="C473" s="190" t="s">
+        <v>906</v>
+      </c>
+      <c r="D473"/>
+    </row>
+    <row r="474" spans="3:6" ht="108">
+      <c r="C474" s="128"/>
+      <c r="E474" s="107" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="475" spans="3:6" ht="16.5">
-      <c r="C475" s="190" t="s">
-        <v>906</v>
-      </c>
-      <c r="D475"/>
-    </row>
-    <row r="476" spans="3:6" ht="108">
+      <c r="C475" s="128"/>
+      <c r="D475" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="476" spans="3:6" ht="16.5">
       <c r="C476" s="128"/>
-      <c r="E476" s="107" t="s">
-        <v>908</v>
+      <c r="D476" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="477" spans="3:6" ht="16.5">
       <c r="C477" s="128"/>
-      <c r="D477" t="s">
-        <v>909</v>
+      <c r="D477" s="129" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="478" spans="3:6" ht="16.5">
       <c r="C478" s="128"/>
-      <c r="D478" t="s">
-        <v>910</v>
+      <c r="D478" s="178" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="479" spans="3:6" ht="16.5">
       <c r="C479" s="128"/>
-      <c r="D479" s="129" t="s">
-        <v>911</v>
+      <c r="D479" s="104" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="480" spans="3:6" ht="16.5">
       <c r="C480" s="128"/>
-      <c r="D480" s="178" t="s">
-        <v>912</v>
-      </c>
     </row>
     <row r="481" spans="3:5" ht="16.5">
       <c r="C481" s="128"/>
-      <c r="D481" s="104" t="s">
-        <v>913</v>
+      <c r="D481" s="128" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="482" spans="3:5" ht="16.5">
       <c r="C482" s="128"/>
+      <c r="D482" s="98" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="483" spans="3:5" ht="16.5">
       <c r="C483" s="128"/>
-      <c r="D483" s="128" t="s">
-        <v>914</v>
+      <c r="D483" s="98" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="484" spans="3:5" ht="16.5">
       <c r="C484" s="128"/>
-      <c r="D484" s="98" t="s">
-        <v>915</v>
-      </c>
+      <c r="D484" s="98"/>
     </row>
     <row r="485" spans="3:5" ht="16.5">
       <c r="C485" s="128"/>
-      <c r="D485" s="98" t="s">
-        <v>916</v>
+      <c r="D485" s="128" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="486" spans="3:5" ht="16.5">
       <c r="C486" s="128"/>
-      <c r="D486" s="98"/>
+      <c r="D486" s="98" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="487" spans="3:5" ht="16.5">
       <c r="C487" s="128"/>
-      <c r="D487" s="128" t="s">
-        <v>917</v>
+      <c r="D487" s="98" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="488" spans="3:5" ht="16.5">
       <c r="C488" s="128"/>
       <c r="D488" s="98" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="489" spans="3:5" ht="16.5">
       <c r="C489" s="128"/>
-      <c r="D489" s="98" t="s">
-        <v>919</v>
-      </c>
     </row>
     <row r="490" spans="3:5" ht="16.5">
       <c r="C490" s="128"/>
-      <c r="D490" s="98" t="s">
-        <v>920</v>
+      <c r="D490" s="179" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="491" spans="3:5" ht="16.5">
       <c r="C491" s="128"/>
+      <c r="D491" s="142" t="s">
+        <v>318</v>
+      </c>
+      <c r="E491" s="142" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="492" spans="3:5" ht="16.5">
       <c r="C492" s="128"/>
-      <c r="D492" s="179" t="s">
-        <v>927</v>
+      <c r="D492" s="180" t="s">
+        <v>921</v>
+      </c>
+      <c r="E492" s="96" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="493" spans="3:5" ht="16.5">
       <c r="C493" s="128"/>
-      <c r="D493" s="142" t="s">
-        <v>318</v>
-      </c>
-      <c r="E493" s="142" t="s">
-        <v>1</v>
+      <c r="D493" s="180" t="s">
+        <v>923</v>
+      </c>
+      <c r="E493" s="96" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="494" spans="3:5" ht="16.5">
       <c r="C494" s="128"/>
       <c r="D494" s="180" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="E494" s="96" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="495" spans="3:5" ht="16.5">
       <c r="C495" s="128"/>
-      <c r="D495" s="180" t="s">
-        <v>923</v>
-      </c>
-      <c r="E495" s="96" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="496" spans="3:5" ht="16.5">
+    </row>
+    <row r="496" spans="3:5" ht="21">
       <c r="C496" s="128"/>
-      <c r="D496" s="180" t="s">
-        <v>925</v>
-      </c>
-      <c r="E496" s="96" t="s">
-        <v>926</v>
+      <c r="D496" s="97" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="497" spans="3:7" ht="16.5">
       <c r="C497" s="128"/>
-    </row>
-    <row r="498" spans="3:7" ht="21">
+      <c r="D497" s="98" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="498" spans="3:7" ht="16.5">
       <c r="C498" s="128"/>
-      <c r="D498" s="97" t="s">
-        <v>932</v>
+      <c r="D498" s="146" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="499" spans="3:7" ht="16.5">
       <c r="C499" s="128"/>
-      <c r="D499" s="98" t="s">
-        <v>928</v>
+      <c r="D499" s="146" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="500" spans="3:7" ht="16.5">
       <c r="C500" s="128"/>
-      <c r="D500" s="146" t="s">
-        <v>929</v>
+      <c r="D500" s="98" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="501" spans="3:7" ht="16.5">
       <c r="C501" s="128"/>
-      <c r="D501" s="146" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="502" spans="3:7" ht="16.5">
+      <c r="D501" s="98"/>
+    </row>
+    <row r="502" spans="3:7" ht="21">
       <c r="C502" s="128"/>
-      <c r="D502" s="98" t="s">
-        <v>931</v>
-      </c>
+      <c r="D502" s="97" t="s">
+        <v>933</v>
+      </c>
+      <c r="E502"/>
     </row>
     <row r="503" spans="3:7" ht="16.5">
       <c r="C503" s="128"/>
-      <c r="D503" s="98"/>
-    </row>
-    <row r="504" spans="3:7" ht="21">
+      <c r="D503"/>
+      <c r="E503"/>
+    </row>
+    <row r="504" spans="3:7" ht="16.5">
       <c r="C504" s="128"/>
-      <c r="D504" s="97" t="s">
-        <v>933</v>
-      </c>
-      <c r="E504"/>
-    </row>
-    <row r="505" spans="3:7" ht="16.5">
+      <c r="D504" s="181" t="s">
+        <v>328</v>
+      </c>
+      <c r="E504" s="181" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="505" spans="3:7" ht="40.5">
       <c r="C505" s="128"/>
-      <c r="D505"/>
-      <c r="E505"/>
-    </row>
-    <row r="506" spans="3:7" ht="16.5">
+      <c r="D505" s="182" t="s">
+        <v>934</v>
+      </c>
+      <c r="E505" s="182" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="506" spans="3:7" ht="27">
       <c r="C506" s="128"/>
-      <c r="D506" s="181" t="s">
-        <v>328</v>
-      </c>
-      <c r="E506" s="181" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="507" spans="3:7" ht="40.5">
+      <c r="D506" s="182" t="s">
+        <v>936</v>
+      </c>
+      <c r="E506" s="182" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="507" spans="3:7" ht="16.5">
       <c r="C507" s="128"/>
-      <c r="D507" s="182" t="s">
-        <v>934</v>
-      </c>
-      <c r="E507" s="182" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="508" spans="3:7" ht="27">
+      <c r="D507" s="98"/>
+    </row>
+    <row r="508" spans="3:7" ht="16.5">
       <c r="C508" s="128"/>
-      <c r="D508" s="182" t="s">
-        <v>936</v>
-      </c>
-      <c r="E508" s="182" t="s">
-        <v>937</v>
+      <c r="D508" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="509" spans="3:7" ht="16.5">
       <c r="C509" s="128"/>
-      <c r="D509" s="98"/>
+      <c r="D509" s="98" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="510" spans="3:7" ht="16.5">
       <c r="C510" s="128"/>
-      <c r="D510" t="s">
-        <v>938</v>
+      <c r="D510" s="181" t="s">
+        <v>777</v>
+      </c>
+      <c r="E510" s="181" t="s">
+        <v>778</v>
+      </c>
+      <c r="F510" s="181" t="s">
+        <v>939</v>
+      </c>
+      <c r="G510" s="185" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="511" spans="3:7" ht="16.5">
       <c r="C511" s="128"/>
-      <c r="D511" s="98" t="s">
-        <v>943</v>
+      <c r="D511" s="186">
+        <v>1</v>
+      </c>
+      <c r="E511" s="182" t="s">
+        <v>780</v>
+      </c>
+      <c r="F511" s="182" t="s">
+        <v>941</v>
+      </c>
+      <c r="G511" s="186">
+        <v>300</v>
       </c>
     </row>
     <row r="512" spans="3:7" ht="16.5">
       <c r="C512" s="128"/>
-      <c r="D512" s="181" t="s">
-        <v>777</v>
-      </c>
-      <c r="E512" s="181" t="s">
-        <v>778</v>
-      </c>
-      <c r="F512" s="181" t="s">
-        <v>939</v>
-      </c>
-      <c r="G512" s="185" t="s">
-        <v>940</v>
+      <c r="D512" s="186">
+        <v>2</v>
+      </c>
+      <c r="E512" s="182" t="s">
+        <v>782</v>
+      </c>
+      <c r="F512" s="182" t="s">
+        <v>941</v>
+      </c>
+      <c r="G512" s="186">
+        <v>400</v>
       </c>
     </row>
     <row r="513" spans="3:7" ht="16.5">
       <c r="C513" s="128"/>
       <c r="D513" s="186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E513" s="182" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F513" s="182" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G513" s="186">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="514" spans="3:7" ht="16.5">
       <c r="C514" s="128"/>
-      <c r="D514" s="186">
-        <v>2</v>
-      </c>
-      <c r="E514" s="182" t="s">
-        <v>782</v>
-      </c>
-      <c r="F514" s="182" t="s">
-        <v>941</v>
-      </c>
-      <c r="G514" s="186">
-        <v>400</v>
-      </c>
+      <c r="D514" s="98"/>
     </row>
     <row r="515" spans="3:7" ht="16.5">
       <c r="C515" s="128"/>
-      <c r="D515" s="186">
-        <v>3</v>
-      </c>
-      <c r="E515" s="182" t="s">
-        <v>783</v>
-      </c>
-      <c r="F515" s="182" t="s">
-        <v>942</v>
-      </c>
-      <c r="G515" s="186">
-        <v>500</v>
+      <c r="D515" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="516" spans="3:7" ht="16.5">
       <c r="C516" s="128"/>
-      <c r="D516" s="98"/>
+      <c r="D516" s="181" t="s">
+        <v>778</v>
+      </c>
+      <c r="E516" s="185" t="s">
+        <v>940</v>
+      </c>
+      <c r="F516" s="185" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="517" spans="3:7" ht="16.5">
       <c r="C517" s="128"/>
-      <c r="D517" t="s">
-        <v>944</v>
+      <c r="D517" s="182" t="s">
+        <v>780</v>
+      </c>
+      <c r="E517" s="186">
+        <v>300</v>
+      </c>
+      <c r="F517" s="186">
+        <v>350</v>
       </c>
     </row>
     <row r="518" spans="3:7" ht="16.5">
       <c r="C518" s="128"/>
-      <c r="D518" s="181" t="s">
-        <v>778</v>
-      </c>
-      <c r="E518" s="185" t="s">
-        <v>940</v>
-      </c>
-      <c r="F518" s="185" t="s">
-        <v>945</v>
+      <c r="D518" s="182" t="s">
+        <v>782</v>
+      </c>
+      <c r="E518" s="186">
+        <v>400</v>
+      </c>
+      <c r="F518" s="186">
+        <v>350</v>
       </c>
     </row>
     <row r="519" spans="3:7" ht="16.5">
       <c r="C519" s="128"/>
       <c r="D519" s="182" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E519" s="186">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F519" s="186">
-        <v>350</v>
+        <v>500</v>
       </c>
     </row>
     <row r="520" spans="3:7" ht="16.5">
       <c r="C520" s="128"/>
-      <c r="D520" s="182" t="s">
-        <v>782</v>
-      </c>
-      <c r="E520" s="186">
-        <v>400</v>
-      </c>
-      <c r="F520" s="186">
-        <v>350</v>
-      </c>
+      <c r="D520" s="98"/>
     </row>
     <row r="521" spans="3:7" ht="16.5">
       <c r="C521" s="128"/>
-      <c r="D521" s="182" t="s">
-        <v>783</v>
-      </c>
-      <c r="E521" s="186">
-        <v>500</v>
-      </c>
-      <c r="F521" s="186">
-        <v>500</v>
+      <c r="D521" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="522" spans="3:7" ht="16.5">
       <c r="C522" s="128"/>
-      <c r="D522" s="98"/>
+      <c r="D522" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="523" spans="3:7" ht="16.5">
       <c r="C523" s="128"/>
-      <c r="D523" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="524" spans="3:7" ht="16.5">
+    </row>
+    <row r="524" spans="3:7" ht="21">
       <c r="C524" s="128"/>
-      <c r="D524" t="s">
-        <v>947</v>
+      <c r="D524" s="97" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="525" spans="3:7" ht="16.5">
       <c r="C525" s="128"/>
-    </row>
-    <row r="526" spans="3:7" ht="21">
+      <c r="D525" s="101" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="526" spans="3:7" ht="16.5">
       <c r="C526" s="128"/>
-      <c r="D526" s="97" t="s">
-        <v>637</v>
+      <c r="D526" s="98" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="527" spans="3:7" ht="16.5">
       <c r="C527" s="128"/>
-      <c r="D527" s="101" t="s">
-        <v>948</v>
+      <c r="D527" s="98" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="528" spans="3:7" ht="16.5">
       <c r="C528" s="128"/>
-      <c r="D528" s="98" t="s">
-        <v>949</v>
-      </c>
     </row>
     <row r="529" spans="3:6" ht="16.5">
       <c r="C529" s="128"/>
-      <c r="D529" s="98" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="530" spans="3:6" ht="16.5">
+      <c r="D529" s="129" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="530" spans="3:6" ht="135">
       <c r="C530" s="128"/>
-    </row>
-    <row r="531" spans="3:6" ht="16.5">
+      <c r="E530" s="107" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="531" spans="3:6" ht="54">
       <c r="C531" s="128"/>
-      <c r="D531" s="129" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="532" spans="3:6" ht="135">
+      <c r="E531" s="107" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="532" spans="3:6" ht="16.5">
       <c r="C532" s="128"/>
-      <c r="E532" s="107" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="533" spans="3:6" ht="54">
-      <c r="C533" s="128"/>
-      <c r="E533" s="107" t="s">
-        <v>1016</v>
-      </c>
+    </row>
+    <row r="533" spans="3:6">
+      <c r="C533" s="180"/>
+      <c r="E533" s="180" t="s">
+        <v>953</v>
+      </c>
+      <c r="F533" s="197"/>
     </row>
     <row r="534" spans="3:6" ht="16.5">
       <c r="C534" s="128"/>
-    </row>
-    <row r="535" spans="3:6">
-      <c r="C535" s="180"/>
-      <c r="E535" s="180" t="s">
-        <v>953</v>
-      </c>
-      <c r="F535" s="213"/>
+      <c r="E534" s="168" t="s">
+        <v>954</v>
+      </c>
+      <c r="F534" s="168" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="535" spans="3:6" ht="16.5">
+      <c r="C535" s="128"/>
+      <c r="E535" s="169" t="s">
+        <v>955</v>
+      </c>
+      <c r="F535" s="168" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="536" spans="3:6" ht="16.5">
       <c r="C536" s="128"/>
-      <c r="E536" s="168" t="s">
-        <v>954</v>
-      </c>
-      <c r="F536" s="168" t="s">
-        <v>631</v>
+      <c r="E536" s="169" t="s">
+        <v>957</v>
+      </c>
+      <c r="F536" s="169" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="537" spans="3:6" ht="16.5">
       <c r="C537" s="128"/>
       <c r="E537" s="169" t="s">
-        <v>955</v>
-      </c>
-      <c r="F537" s="168" t="s">
-        <v>956</v>
+        <v>882</v>
+      </c>
+      <c r="F537" s="169" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="538" spans="3:6" ht="16.5">
       <c r="C538" s="128"/>
-      <c r="E538" s="169" t="s">
-        <v>957</v>
-      </c>
-      <c r="F538" s="169" t="s">
-        <v>958</v>
-      </c>
     </row>
     <row r="539" spans="3:6" ht="16.5">
       <c r="C539" s="128"/>
-      <c r="E539" s="169" t="s">
-        <v>882</v>
-      </c>
-      <c r="F539" s="169" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="540" spans="3:6" ht="16.5">
+      <c r="D539" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="540" spans="3:6" ht="54">
       <c r="C540" s="128"/>
+      <c r="E540" s="107" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="541" spans="3:6" ht="16.5">
       <c r="C541" s="128"/>
-      <c r="D541" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="542" spans="3:6" ht="54">
+    </row>
+    <row r="542" spans="3:6" ht="16.5">
       <c r="C542" s="128"/>
-      <c r="E542" s="107" t="s">
-        <v>1020</v>
-      </c>
+      <c r="D542" s="146"/>
     </row>
     <row r="543" spans="3:6" ht="16.5">
       <c r="C543" s="128"/>
     </row>
-    <row r="544" spans="3:6" ht="16.5">
-      <c r="C544" s="128"/>
-      <c r="D544" s="146"/>
-    </row>
-    <row r="545" spans="1:5" ht="16.5">
-      <c r="C545" s="128"/>
+    <row r="544" spans="3:6">
+      <c r="D544" s="98"/>
+    </row>
+    <row r="545" spans="1:5" ht="21">
+      <c r="A545" s="103" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="546" spans="1:5">
-      <c r="D546" s="98"/>
-    </row>
-    <row r="547" spans="1:5" ht="21">
-      <c r="A547" s="103" t="s">
+      <c r="C546" s="105" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="C547" s="104" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="C548" s="104" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="D549" s="104" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" ht="60">
+      <c r="E550" s="114" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="C551" s="105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="C552" s="104" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="C553" s="104" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="C554" s="105" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" ht="21">
+      <c r="B557" s="97" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="B558"/>
+    </row>
+    <row r="559" spans="1:5" ht="16.5">
+      <c r="B559" s="128" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
-      <c r="C548" s="105" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5">
-      <c r="C549" s="104" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5">
-      <c r="C550" s="104" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5">
-      <c r="D551" s="104" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5" ht="60">
-      <c r="E552" s="114" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5">
-      <c r="C553" s="105" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5">
-      <c r="C554" s="104" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5">
-      <c r="C555" s="104" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5">
-      <c r="C556" s="105" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5" ht="21">
-      <c r="B559" s="97" t="s">
+    <row r="560" spans="1:5">
+      <c r="B560" s="171" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="561" spans="2:5">
+      <c r="B561" s="98" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="562" spans="2:5">
+      <c r="B562" s="98" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="563" spans="2:5" ht="121.5">
+      <c r="E563" s="107" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
-      <c r="B560"/>
-    </row>
-    <row r="561" spans="2:5" ht="16.5">
-      <c r="B561" s="128" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="562" spans="2:5">
-      <c r="B562" s="171" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="563" spans="2:5">
-      <c r="B563" s="98" t="s">
-        <v>1025</v>
-      </c>
-    </row>
     <row r="564" spans="2:5">
-      <c r="B564" s="98" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="565" spans="2:5" ht="121.5">
-      <c r="E565" s="107" t="s">
+      <c r="B564" s="129" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="565" spans="2:5">
+      <c r="B565" s="98" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="566" spans="2:5">
-      <c r="B566" s="129" t="s">
+      <c r="B566" s="101" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="567" spans="2:5">
+      <c r="B567" s="98"/>
+    </row>
+    <row r="568" spans="2:5" ht="16.5">
+      <c r="B568" s="128" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="569" spans="2:5">
+      <c r="B569" s="98" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="570" spans="2:5">
+      <c r="B570" s="98" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="571" spans="2:5" ht="108">
+      <c r="B571" s="98"/>
+      <c r="E571" s="107" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="572" spans="2:5">
+      <c r="B572" s="129" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="567" spans="2:5">
-      <c r="B567" s="98" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="568" spans="2:5">
-      <c r="B568" s="101" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="569" spans="2:5">
-      <c r="B569" s="98"/>
-    </row>
-    <row r="570" spans="2:5" ht="16.5">
-      <c r="B570" s="128" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="571" spans="2:5">
-      <c r="B571" s="98" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="572" spans="2:5">
-      <c r="B572" s="98" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="573" spans="2:5" ht="108">
-      <c r="B573" s="98"/>
-      <c r="E573" s="107" t="s">
+    <row r="573" spans="2:5">
+      <c r="B573" s="98" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="574" spans="2:5">
-      <c r="B574" s="129" t="s">
+      <c r="B574" s="98" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="575" spans="2:5">
+      <c r="B575" s="98"/>
+    </row>
+    <row r="576" spans="2:5" ht="16.5">
+      <c r="B576" s="128" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="577" spans="2:5">
+      <c r="B577" s="171" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="578" spans="2:5">
+      <c r="B578" s="98" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="579" spans="2:5">
+      <c r="B579" s="98" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="580" spans="2:5" ht="121.5">
+      <c r="E580" s="107" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="581" spans="2:5">
+      <c r="B581" s="129" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="575" spans="2:5">
-      <c r="B575" s="98" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="576" spans="2:5">
-      <c r="B576" s="98" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="577" spans="2:5">
-      <c r="B577" s="98"/>
-    </row>
-    <row r="578" spans="2:5" ht="16.5">
-      <c r="B578" s="128" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="579" spans="2:5">
-      <c r="B579" s="171" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="580" spans="2:5">
-      <c r="B580" s="98" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="581" spans="2:5">
-      <c r="B581" s="98" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="582" spans="2:5" ht="121.5">
-      <c r="E582" s="107" t="s">
+    <row r="582" spans="2:5">
+      <c r="B582" s="101" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="583" spans="2:5">
-      <c r="B583" s="129" t="s">
+      <c r="B583" s="101" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="584" spans="2:5">
+      <c r="B584" s="98" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="587" spans="2:5" ht="16.5">
+      <c r="B587" s="128" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="588" spans="2:5">
+      <c r="B588" s="98" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="589" spans="2:5">
+      <c r="B589" s="98" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="590" spans="2:5" ht="108">
+      <c r="B590" s="98"/>
+      <c r="E590" s="107" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="591" spans="2:5">
+      <c r="B591" s="129" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="584" spans="2:5">
-      <c r="B584" s="101" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="585" spans="2:5">
-      <c r="B585" s="101" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="586" spans="2:5">
-      <c r="B586" s="98" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="589" spans="2:5" ht="16.5">
-      <c r="B589" s="128" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="590" spans="2:5">
-      <c r="B590" s="98" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="591" spans="2:5">
-      <c r="B591" s="98" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="592" spans="2:5" ht="108">
-      <c r="B592" s="98"/>
-      <c r="E592" s="107" t="s">
+    <row r="592" spans="2:5">
+      <c r="B592" s="98" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="593" spans="2:5">
-      <c r="B593" s="129" t="s">
-        <v>864</v>
+      <c r="B593" s="98" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="594" spans="2:5">
-      <c r="B594" s="98" t="s">
-        <v>1049</v>
-      </c>
+      <c r="B594" s="98"/>
     </row>
     <row r="595" spans="2:5">
-      <c r="B595" s="98" t="s">
+      <c r="C595" s="185" t="s">
+        <v>638</v>
+      </c>
+      <c r="D595" s="185" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="596" spans="2:5">
-      <c r="B596" s="98"/>
-    </row>
-    <row r="597" spans="2:5">
-      <c r="C597" s="185" t="s">
-        <v>638</v>
-      </c>
-      <c r="D597" s="185" t="s">
+      <c r="E595" s="185" t="s">
         <v>1051</v>
       </c>
-      <c r="E597" s="185" t="s">
+    </row>
+    <row r="596" spans="2:5" ht="27">
+      <c r="C596" s="186" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="598" spans="2:5" ht="27">
+      <c r="D596" s="186" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E596" s="186" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="597" spans="2:5" ht="27">
+      <c r="C597" s="186" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D597" s="186" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E597" s="186" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="598" spans="2:5">
       <c r="C598" s="186" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="D598" s="186" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="E598" s="186" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="599" spans="2:5" ht="27">
       <c r="C599" s="186" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="D599" s="186" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="E599" s="186" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="600" spans="2:5">
-      <c r="C600" s="186" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D600" s="186" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E600" s="186" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="601" spans="2:5" ht="27">
-      <c r="C601" s="186" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D601" s="186" t="s">
         <v>1063</v>
       </c>
-      <c r="E601" s="186" t="s">
+    </row>
+    <row r="601" spans="2:5">
+      <c r="B601" s="129" t="s">
         <v>1064</v>
       </c>
     </row>
+    <row r="602" spans="2:5">
+      <c r="B602" s="171" t="s">
+        <v>1065</v>
+      </c>
+    </row>
     <row r="603" spans="2:5">
-      <c r="B603" s="129" t="s">
-        <v>1065</v>
+      <c r="B603" s="171" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="604" spans="2:5">
-      <c r="B604" s="171" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="605" spans="2:5">
-      <c r="B605" s="171" t="s">
+      <c r="B604" s="198" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="606" spans="2:5">
-      <c r="B606" s="214" t="s">
+    <row r="606" spans="2:5" ht="21">
+      <c r="B606" s="97" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="608" spans="2:5">
+      <c r="B608" s="171" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="608" spans="2:5" ht="21">
-      <c r="B608" s="97" t="s">
+    <row r="609" spans="1:9">
+      <c r="B609" s="98" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9">
+      <c r="B610" s="98" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
-      <c r="B610" s="171" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="611" spans="1:5">
-      <c r="B611" s="98" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="612" spans="1:5">
-      <c r="B612" s="98" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="614" spans="1:5">
+    <row r="612" spans="1:9">
+      <c r="B612" s="98"/>
+    </row>
+    <row r="614" spans="1:9">
       <c r="B614" s="98"/>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:9">
       <c r="B616" s="98"/>
     </row>
-    <row r="618" spans="1:5">
-      <c r="B618" s="98"/>
-    </row>
-    <row r="623" spans="1:5" ht="21">
-      <c r="A623" s="103" t="s">
+    <row r="621" spans="1:9" ht="21">
+      <c r="A621" s="103" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
-      <c r="C624" s="108"/>
-      <c r="D624" s="108"/>
-      <c r="E624" s="108"/>
-    </row>
-    <row r="625" spans="1:9" ht="27">
-      <c r="C625" s="115" t="s">
+    <row r="622" spans="1:9">
+      <c r="C622" s="108"/>
+      <c r="D622" s="108"/>
+      <c r="E622" s="108"/>
+    </row>
+    <row r="623" spans="1:9" ht="27">
+      <c r="C623" s="115" t="s">
         <v>548</v>
       </c>
-      <c r="D625" s="115" t="s">
+      <c r="D623" s="115" t="s">
         <v>549</v>
       </c>
-      <c r="E625" s="115" t="s">
+      <c r="E623" s="115" t="s">
         <v>550</v>
       </c>
+    </row>
+    <row r="624" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C624" s="116" t="s">
+        <v>531</v>
+      </c>
+      <c r="D624" s="117" t="s">
+        <v>551</v>
+      </c>
+      <c r="E624" s="118" t="s">
+        <v>559</v>
+      </c>
+      <c r="G624" s="119"/>
+      <c r="H624" s="119"/>
+      <c r="I624" s="119"/>
+    </row>
+    <row r="625" spans="1:9" ht="63" customHeight="1">
+      <c r="C625" s="116" t="s">
+        <v>557</v>
+      </c>
+      <c r="D625" s="117" t="s">
+        <v>556</v>
+      </c>
+      <c r="E625" s="120" t="s">
+        <v>560</v>
+      </c>
+      <c r="G625" s="121"/>
+      <c r="H625" s="122"/>
+      <c r="I625" s="123"/>
     </row>
     <row r="626" spans="1:9" ht="52.5" customHeight="1">
       <c r="C626" s="116" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="D626" s="117" t="s">
-        <v>551</v>
-      </c>
-      <c r="E626" s="118" t="s">
-        <v>559</v>
-      </c>
-      <c r="G626" s="119"/>
-      <c r="H626" s="119"/>
-      <c r="I626" s="119"/>
-    </row>
-    <row r="627" spans="1:9" ht="63" customHeight="1">
+        <v>552</v>
+      </c>
+      <c r="E626" s="124" t="s">
+        <v>561</v>
+      </c>
+      <c r="G626" s="121"/>
+      <c r="H626" s="122"/>
+      <c r="I626" s="122"/>
+    </row>
+    <row r="627" spans="1:9" ht="52.5" customHeight="1">
       <c r="C627" s="116" t="s">
-        <v>557</v>
-      </c>
-      <c r="D627" s="117" t="s">
-        <v>556</v>
-      </c>
-      <c r="E627" s="120" t="s">
-        <v>560</v>
+        <v>517</v>
+      </c>
+      <c r="D627" s="125" t="s">
+        <v>563</v>
+      </c>
+      <c r="E627" s="125" t="s">
+        <v>562</v>
       </c>
       <c r="G627" s="121"/>
       <c r="H627" s="122"/>
-      <c r="I627" s="123"/>
-    </row>
-    <row r="628" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C628" s="116" t="s">
-        <v>558</v>
-      </c>
-      <c r="D628" s="117" t="s">
-        <v>552</v>
-      </c>
-      <c r="E628" s="124" t="s">
-        <v>561</v>
-      </c>
-      <c r="G628" s="121"/>
-      <c r="H628" s="122"/>
-      <c r="I628" s="122"/>
-    </row>
-    <row r="629" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C629" s="116" t="s">
-        <v>517</v>
-      </c>
-      <c r="D629" s="125" t="s">
-        <v>563</v>
-      </c>
-      <c r="E629" s="125" t="s">
-        <v>562</v>
-      </c>
-      <c r="G629" s="121"/>
-      <c r="H629" s="122"/>
-      <c r="I629" s="122"/>
+      <c r="I627" s="122"/>
+    </row>
+    <row r="628" spans="1:9">
+      <c r="C628" s="126"/>
+      <c r="D628" s="126"/>
+    </row>
+    <row r="629" spans="1:9" ht="21">
+      <c r="A629" s="109" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="630" spans="1:9">
-      <c r="C630" s="126"/>
-      <c r="D630" s="126"/>
-    </row>
-    <row r="631" spans="1:9" ht="21">
-      <c r="A631" s="109" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="632" spans="1:9">
-      <c r="A632" s="105" t="s">
+      <c r="A630" s="105" t="s">
         <v>547</v>
       </c>
     </row>
+    <row r="631" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A631" s="108" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A632" s="110"/>
+    </row>
     <row r="633" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A633" s="108" t="s">
-        <v>532</v>
+      <c r="A633" s="112" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="634" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A634" s="110"/>
+      <c r="A634" s="111" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="635" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A635" s="112" t="s">
-        <v>533</v>
-      </c>
+      <c r="A635" s="108"/>
     </row>
     <row r="636" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A636" s="111" t="s">
-        <v>534</v>
+      <c r="A636" s="127"/>
+      <c r="C636" s="127" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="637" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A637" s="108"/>
-    </row>
-    <row r="638" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A638" s="127"/>
-      <c r="C638" s="127" t="s">
-        <v>535</v>
-      </c>
-    </row>
+      <c r="A637" s="127"/>
+      <c r="C637" s="127" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" ht="16.5" customHeight="1"/>
     <row r="639" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A639" s="127"/>
-      <c r="C639" s="127" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="640" spans="1:9" ht="16.5" customHeight="1"/>
+      <c r="A639" s="112" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A640" s="110" t="s">
+        <v>538</v>
+      </c>
+    </row>
     <row r="641" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A641" s="112" t="s">
-        <v>537</v>
+      <c r="A641" s="110" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A642" s="110" t="s">
-        <v>538</v>
+      <c r="A642" s="112" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A643" s="110" t="s">
-        <v>539</v>
+      <c r="A643" s="112" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A644" s="112" t="s">
-        <v>540</v>
-      </c>
+      <c r="A644" s="108"/>
     </row>
     <row r="645" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A645" s="112" t="s">
-        <v>541</v>
+      <c r="A645" s="127"/>
+      <c r="C645" s="127" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A646" s="108"/>
+      <c r="A646" s="127"/>
+      <c r="C646" s="127" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="647" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A647" s="127"/>
       <c r="C647" s="127" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A648" s="127"/>
-      <c r="C648" s="127" t="s">
-        <v>543</v>
-      </c>
-    </row>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="649" spans="1:3" ht="16.5" customHeight="1">
-      <c r="C649" s="127" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="651" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A651" s="104" t="s">
+      <c r="A649" s="104" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A652" s="104" t="s">
+    <row r="650" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A650" s="104" t="s">
         <v>547</v>
       </c>
     </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="129" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" ht="14.25">
+      <c r="A653" t="s">
+        <v>961</v>
+      </c>
+    </row>
     <row r="654" spans="1:3">
-      <c r="A654" s="129" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" ht="14.25">
-      <c r="A655" t="s">
-        <v>961</v>
+      <c r="A654"/>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="129" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="656" spans="1:3">
-      <c r="A656"/>
-    </row>
-    <row r="657" spans="1:1">
-      <c r="A657" s="129" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1">
-      <c r="A658" t="s">
+      <c r="A656" t="s">
         <v>963</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C113:E113"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="97" max="6" man="1"/>
-    <brk id="436" max="6" man="1"/>
-    <brk id="530" max="6" man="1"/>
-    <brk id="630" max="6" man="1"/>
+    <brk id="95" max="6" man="1"/>
+    <brk id="434" max="6" man="1"/>
+    <brk id="528" max="6" man="1"/>
+    <brk id="628" max="6" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
@@ -17151,7 +17357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51585A7E-88DA-486C-AD83-09E1DF1AD324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -17600,11 +17806,11 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="16.5" customHeight="1">
-      <c r="C96" s="192" t="s">
+      <c r="C96" s="199" t="s">
         <v>523</v>
       </c>
-      <c r="D96" s="192"/>
-      <c r="E96" s="192"/>
+      <c r="D96" s="199"/>
+      <c r="E96" s="199"/>
     </row>
     <row r="97" spans="3:5" ht="16.5" customHeight="1">
       <c r="C97" s="102"/>
@@ -18912,7 +19118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51707CCA-56F2-4939-9226-000C3D95DDAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -19340,11 +19546,11 @@
       </c>
     </row>
     <row r="100" spans="2:6" ht="16.5" customHeight="1">
-      <c r="C100" s="192" t="s">
+      <c r="C100" s="199" t="s">
         <v>523</v>
       </c>
-      <c r="D100" s="192"/>
-      <c r="E100" s="192"/>
+      <c r="D100" s="199"/>
+      <c r="E100" s="199"/>
     </row>
     <row r="102" spans="2:6" ht="16.5">
       <c r="B102" s="106" t="s">
@@ -19682,7 +19888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -20301,7 +20507,7 @@
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
-      <c r="F70" s="193" t="s">
+      <c r="F70" s="203" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20313,7 +20519,7 @@
         <v>393</v>
       </c>
       <c r="D71" s="31"/>
-      <c r="F71" s="193"/>
+      <c r="F71" s="203"/>
     </row>
     <row r="72" spans="1:6" ht="27">
       <c r="C72" s="58" t="s">
@@ -20325,7 +20531,7 @@
       <c r="E72" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="193"/>
+      <c r="F72" s="203"/>
     </row>
     <row r="73" spans="1:6" ht="40.5">
       <c r="C73" s="58" t="s">
@@ -20337,7 +20543,7 @@
       <c r="E73" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F73" s="193"/>
+      <c r="F73" s="203"/>
     </row>
     <row r="74" spans="1:6" ht="40.5">
       <c r="B74" s="31"/>
@@ -20350,7 +20556,7 @@
       <c r="E74" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F74" s="193"/>
+      <c r="F74" s="203"/>
     </row>
     <row r="75" spans="1:6" ht="27">
       <c r="B75" s="31"/>
@@ -20363,7 +20569,7 @@
       <c r="E75" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F75" s="193"/>
+      <c r="F75" s="203"/>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="31"/>
@@ -20393,7 +20599,7 @@
       <c r="D79" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E79" s="194" t="s">
+      <c r="E79" s="201" t="s">
         <v>362</v>
       </c>
     </row>
@@ -20405,7 +20611,7 @@
       <c r="D80" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E80" s="194"/>
+      <c r="E80" s="201"/>
     </row>
     <row r="81" spans="2:6" ht="27">
       <c r="B81" s="31"/>
@@ -20415,7 +20621,7 @@
       <c r="D81" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="194"/>
+      <c r="E81" s="201"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="31"/>
@@ -20439,7 +20645,7 @@
       <c r="E84" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F84" s="194" t="s">
+      <c r="F84" s="201" t="s">
         <v>246</v>
       </c>
     </row>
@@ -20454,7 +20660,7 @@
       <c r="E85" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F85" s="194"/>
+      <c r="F85" s="201"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -20467,7 +20673,7 @@
       <c r="E86" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F86" s="194"/>
+      <c r="F86" s="201"/>
     </row>
     <row r="87" spans="2:6" ht="27">
       <c r="B87" s="31"/>
@@ -20480,7 +20686,7 @@
       <c r="E87" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F87" s="194"/>
+      <c r="F87" s="201"/>
     </row>
     <row r="88" spans="2:6" ht="27">
       <c r="B88" s="31"/>
@@ -20493,7 +20699,7 @@
       <c r="E88" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F88" s="194"/>
+      <c r="F88" s="201"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="31"/>
@@ -20517,7 +20723,7 @@
       <c r="E91" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F91" s="194" t="s">
+      <c r="F91" s="201" t="s">
         <v>247</v>
       </c>
     </row>
@@ -20531,7 +20737,7 @@
       <c r="E92" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="194"/>
+      <c r="F92" s="201"/>
     </row>
     <row r="93" spans="2:6">
       <c r="C93" s="31"/>
@@ -20544,10 +20750,10 @@
       <c r="D94" s="31"/>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="195" t="s">
+      <c r="B95" s="204" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="196" t="s">
+      <c r="C95" s="205" t="s">
         <v>398</v>
       </c>
       <c r="D95" s="58" t="s">
@@ -20555,115 +20761,115 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="194"/>
-      <c r="C96" s="196"/>
+      <c r="B96" s="201"/>
+      <c r="C96" s="205"/>
       <c r="D96" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="194"/>
-      <c r="C97" s="196"/>
+      <c r="B97" s="201"/>
+      <c r="C97" s="205"/>
       <c r="D97" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="27">
-      <c r="B98" s="194"/>
-      <c r="C98" s="196"/>
+      <c r="B98" s="201"/>
+      <c r="C98" s="205"/>
       <c r="D98" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="27">
-      <c r="B99" s="194"/>
-      <c r="C99" s="196"/>
+      <c r="B99" s="201"/>
+      <c r="C99" s="205"/>
       <c r="D99" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="194"/>
-      <c r="C100" s="196"/>
+      <c r="B100" s="201"/>
+      <c r="C100" s="205"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="197" t="s">
+      <c r="C101" s="200" t="s">
         <v>262</v>
       </c>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="197"/>
+      <c r="C102" s="200"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="197"/>
+      <c r="C103" s="200"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="197"/>
+      <c r="C104" s="200"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="197"/>
+      <c r="C105" s="200"/>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="197"/>
+      <c r="C106" s="200"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="197" t="s">
+      <c r="C107" s="200" t="s">
         <v>263</v>
       </c>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="197"/>
+      <c r="C108" s="200"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="197"/>
+      <c r="C109" s="200"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="197"/>
+      <c r="C110" s="200"/>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="197"/>
+      <c r="C111" s="200"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4" ht="27">
       <c r="B112" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="197" t="s">
+      <c r="C112" s="200" t="s">
         <v>264</v>
       </c>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="197"/>
+      <c r="C113" s="200"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="197"/>
+      <c r="C114" s="200"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" s="197"/>
+      <c r="C115" s="200"/>
       <c r="D115" s="31"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" s="197"/>
+      <c r="C116" s="200"/>
       <c r="D116" s="31"/>
     </row>
     <row r="117" spans="1:4">
@@ -20696,30 +20902,30 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="194" t="s">
+      <c r="B121" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="C121" s="194"/>
+      <c r="C121" s="201"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="194"/>
-      <c r="C122" s="194"/>
+      <c r="B122" s="201"/>
+      <c r="C122" s="201"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="194"/>
-      <c r="C123" s="194"/>
+      <c r="B123" s="201"/>
+      <c r="C123" s="201"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="B124" s="194"/>
-      <c r="C124" s="194"/>
+      <c r="B124" s="201"/>
+      <c r="C124" s="201"/>
       <c r="D124" s="31"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="B125" s="194"/>
-      <c r="C125" s="194"/>
+      <c r="B125" s="201"/>
+      <c r="C125" s="201"/>
       <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" ht="40.5">
@@ -21314,10 +21520,10 @@
       </c>
     </row>
     <row r="196" spans="3:4" ht="51" customHeight="1">
-      <c r="C196" s="198" t="s">
+      <c r="C196" s="202" t="s">
         <v>439</v>
       </c>
-      <c r="D196" s="198"/>
+      <c r="D196" s="202"/>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" s="77" t="s">
@@ -21331,17 +21537,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="B121:C125"/>
-    <mergeCell ref="C196:D196"/>
     <mergeCell ref="F70:F75"/>
     <mergeCell ref="E79:E81"/>
     <mergeCell ref="F84:F88"/>
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="C95:C100"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="B121:C125"/>
+    <mergeCell ref="C196:D196"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -21350,7 +21556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -21936,7 +22142,7 @@
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="F68" s="193" t="s">
+      <c r="F68" s="203" t="s">
         <v>211</v>
       </c>
     </row>
@@ -21948,7 +22154,7 @@
         <v>393</v>
       </c>
       <c r="D69" s="31"/>
-      <c r="F69" s="193"/>
+      <c r="F69" s="203"/>
     </row>
     <row r="70" spans="1:6" ht="27">
       <c r="C70" s="58" t="s">
@@ -21960,7 +22166,7 @@
       <c r="E70" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="193"/>
+      <c r="F70" s="203"/>
     </row>
     <row r="71" spans="1:6" ht="40.5">
       <c r="C71" s="58" t="s">
@@ -21972,7 +22178,7 @@
       <c r="E71" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F71" s="193"/>
+      <c r="F71" s="203"/>
     </row>
     <row r="72" spans="1:6" ht="40.5">
       <c r="B72" s="31"/>
@@ -21985,7 +22191,7 @@
       <c r="E72" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="193"/>
+      <c r="F72" s="203"/>
     </row>
     <row r="73" spans="1:6" ht="27">
       <c r="B73" s="31"/>
@@ -21998,7 +22204,7 @@
       <c r="E73" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F73" s="193"/>
+      <c r="F73" s="203"/>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="31"/>
@@ -22028,7 +22234,7 @@
       <c r="D77" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E77" s="194" t="s">
+      <c r="E77" s="201" t="s">
         <v>362</v>
       </c>
     </row>
@@ -22040,7 +22246,7 @@
       <c r="D78" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E78" s="194"/>
+      <c r="E78" s="201"/>
     </row>
     <row r="79" spans="1:6" ht="27">
       <c r="B79" s="31"/>
@@ -22050,7 +22256,7 @@
       <c r="D79" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E79" s="194"/>
+      <c r="E79" s="201"/>
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="31"/>
@@ -22074,7 +22280,7 @@
       <c r="E82" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="194" t="s">
+      <c r="F82" s="201" t="s">
         <v>246</v>
       </c>
     </row>
@@ -22089,7 +22295,7 @@
       <c r="E83" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F83" s="194"/>
+      <c r="F83" s="201"/>
     </row>
     <row r="84" spans="2:6" ht="27">
       <c r="B84" s="31"/>
@@ -22102,7 +22308,7 @@
       <c r="E84" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F84" s="194"/>
+      <c r="F84" s="201"/>
     </row>
     <row r="85" spans="2:6" ht="27">
       <c r="B85" s="31"/>
@@ -22115,7 +22321,7 @@
       <c r="E85" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F85" s="194"/>
+      <c r="F85" s="201"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -22128,7 +22334,7 @@
       <c r="E86" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F86" s="194"/>
+      <c r="F86" s="201"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="31"/>
@@ -22152,7 +22358,7 @@
       <c r="E89" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F89" s="194" t="s">
+      <c r="F89" s="201" t="s">
         <v>247</v>
       </c>
     </row>
@@ -22166,7 +22372,7 @@
       <c r="E90" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F90" s="194"/>
+      <c r="F90" s="201"/>
     </row>
     <row r="91" spans="2:6">
       <c r="C91" s="31"/>
@@ -22179,10 +22385,10 @@
       <c r="D92" s="31"/>
     </row>
     <row r="93" spans="2:6" ht="27">
-      <c r="B93" s="195" t="s">
+      <c r="B93" s="204" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="196" t="s">
+      <c r="C93" s="205" t="s">
         <v>398</v>
       </c>
       <c r="D93" s="58" t="s">
@@ -22190,115 +22396,115 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="27">
-      <c r="B94" s="194"/>
-      <c r="C94" s="196"/>
+      <c r="B94" s="201"/>
+      <c r="C94" s="205"/>
       <c r="D94" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="194"/>
-      <c r="C95" s="196"/>
+      <c r="B95" s="201"/>
+      <c r="C95" s="205"/>
       <c r="D95" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="194"/>
-      <c r="C96" s="196"/>
+      <c r="B96" s="201"/>
+      <c r="C96" s="205"/>
       <c r="D96" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="194"/>
-      <c r="C97" s="196"/>
+      <c r="B97" s="201"/>
+      <c r="C97" s="205"/>
       <c r="D97" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="194"/>
-      <c r="C98" s="196"/>
+      <c r="B98" s="201"/>
+      <c r="C98" s="205"/>
       <c r="D98" s="31"/>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="197" t="s">
+      <c r="C99" s="200" t="s">
         <v>262</v>
       </c>
       <c r="D99" s="31"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="197"/>
+      <c r="C100" s="200"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="197"/>
+      <c r="C101" s="200"/>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="197"/>
+      <c r="C102" s="200"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="197"/>
+      <c r="C103" s="200"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="197"/>
+      <c r="C104" s="200"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="197" t="s">
+      <c r="C105" s="200" t="s">
         <v>263</v>
       </c>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="197"/>
+      <c r="C106" s="200"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="197"/>
+      <c r="C107" s="200"/>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="197"/>
+      <c r="C108" s="200"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="197"/>
+      <c r="C109" s="200"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4" ht="27">
       <c r="B110" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="197" t="s">
+      <c r="C110" s="200" t="s">
         <v>264</v>
       </c>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="197"/>
+      <c r="C111" s="200"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="197"/>
+      <c r="C112" s="200"/>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="197"/>
+      <c r="C113" s="200"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="197"/>
+      <c r="C114" s="200"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
@@ -22331,30 +22537,30 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="B119" s="194" t="s">
+      <c r="B119" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="194"/>
+      <c r="C119" s="201"/>
       <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="B120" s="194"/>
-      <c r="C120" s="194"/>
+      <c r="B120" s="201"/>
+      <c r="C120" s="201"/>
       <c r="D120" s="31"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="194"/>
-      <c r="C121" s="194"/>
+      <c r="B121" s="201"/>
+      <c r="C121" s="201"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="194"/>
-      <c r="C122" s="194"/>
+      <c r="B122" s="201"/>
+      <c r="C122" s="201"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="194"/>
-      <c r="C123" s="194"/>
+      <c r="B123" s="201"/>
+      <c r="C123" s="201"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4" ht="40.5">
@@ -22949,10 +23155,10 @@
       </c>
     </row>
     <row r="194" spans="3:4" ht="51" customHeight="1">
-      <c r="C194" s="198" t="s">
+      <c r="C194" s="202" t="s">
         <v>439</v>
       </c>
-      <c r="D194" s="198"/>
+      <c r="D194" s="202"/>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" s="77" t="s">
@@ -22966,17 +23172,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="B119:C123"/>
     <mergeCell ref="F68:F73"/>
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="F82:F86"/>
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="B93:B98"/>
     <mergeCell ref="C93:C98"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="B119:C123"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -22985,7 +23191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -23568,7 +23774,7 @@
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
-      <c r="F67" s="203" t="s">
+      <c r="F67" s="210" t="s">
         <v>211</v>
       </c>
     </row>
@@ -23580,7 +23786,7 @@
         <v>238</v>
       </c>
       <c r="D68" s="18"/>
-      <c r="F68" s="203"/>
+      <c r="F68" s="210"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
       <c r="C69" s="33" t="s">
@@ -23592,7 +23798,7 @@
       <c r="E69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="204"/>
+      <c r="F69" s="211"/>
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1">
       <c r="C70" s="33" t="s">
@@ -23604,7 +23810,7 @@
       <c r="E70" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="204"/>
+      <c r="F70" s="211"/>
     </row>
     <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="B71" s="18"/>
@@ -23617,7 +23823,7 @@
       <c r="E71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F71" s="204"/>
+      <c r="F71" s="211"/>
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
       <c r="B72" s="18"/>
@@ -23630,7 +23836,7 @@
       <c r="E72" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="204"/>
+      <c r="F72" s="211"/>
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="B73" s="18"/>
@@ -23660,7 +23866,7 @@
       <c r="D76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="201" t="s">
+      <c r="E76" s="208" t="s">
         <v>220</v>
       </c>
     </row>
@@ -23672,7 +23878,7 @@
       <c r="D77" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="202"/>
+      <c r="E77" s="209"/>
     </row>
     <row r="78" spans="1:6" ht="21" customHeight="1">
       <c r="B78" s="18"/>
@@ -23682,7 +23888,7 @@
       <c r="D78" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="202"/>
+      <c r="E78" s="209"/>
     </row>
     <row r="79" spans="1:6" ht="21" customHeight="1">
       <c r="B79" s="18"/>
@@ -23706,7 +23912,7 @@
       <c r="E81" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="201" t="s">
+      <c r="F81" s="208" t="s">
         <v>246</v>
       </c>
     </row>
@@ -23721,7 +23927,7 @@
       <c r="E82" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F82" s="202"/>
+      <c r="F82" s="209"/>
     </row>
     <row r="83" spans="2:6" ht="21" customHeight="1">
       <c r="B83" s="18"/>
@@ -23734,7 +23940,7 @@
       <c r="E83" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="202"/>
+      <c r="F83" s="209"/>
     </row>
     <row r="84" spans="2:6" ht="21" customHeight="1">
       <c r="B84" s="18"/>
@@ -23747,7 +23953,7 @@
       <c r="E84" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="202"/>
+      <c r="F84" s="209"/>
     </row>
     <row r="85" spans="2:6" ht="21" customHeight="1">
       <c r="B85" s="18"/>
@@ -23760,7 +23966,7 @@
       <c r="E85" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F85" s="202"/>
+      <c r="F85" s="209"/>
     </row>
     <row r="86" spans="2:6" ht="21" customHeight="1">
       <c r="B86" s="18"/>
@@ -23784,7 +23990,7 @@
       <c r="E88" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F88" s="201" t="s">
+      <c r="F88" s="208" t="s">
         <v>247</v>
       </c>
     </row>
@@ -23798,7 +24004,7 @@
       <c r="E89" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="202"/>
+      <c r="F89" s="209"/>
     </row>
     <row r="90" spans="2:6" ht="21" customHeight="1">
       <c r="C90" s="18"/>
@@ -23811,10 +24017,10 @@
       <c r="D91" s="18"/>
     </row>
     <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="B92" s="205" t="s">
+      <c r="B92" s="212" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="206" t="s">
+      <c r="C92" s="213" t="s">
         <v>265</v>
       </c>
       <c r="D92" s="33" t="s">
@@ -23822,115 +24028,115 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="B93" s="202"/>
-      <c r="C93" s="207"/>
+      <c r="B93" s="209"/>
+      <c r="C93" s="214"/>
       <c r="D93" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="B94" s="202"/>
-      <c r="C94" s="207"/>
+      <c r="B94" s="209"/>
+      <c r="C94" s="214"/>
       <c r="D94" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="B95" s="202"/>
-      <c r="C95" s="207"/>
+      <c r="B95" s="209"/>
+      <c r="C95" s="214"/>
       <c r="D95" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="202"/>
-      <c r="C96" s="207"/>
+      <c r="B96" s="209"/>
+      <c r="C96" s="214"/>
       <c r="D96" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="B97" s="202"/>
-      <c r="C97" s="207"/>
+      <c r="B97" s="209"/>
+      <c r="C97" s="214"/>
       <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" ht="21" customHeight="1">
       <c r="B98" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="199" t="s">
+      <c r="C98" s="206" t="s">
         <v>262</v>
       </c>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="C99" s="200"/>
+      <c r="C99" s="207"/>
       <c r="D99" s="18"/>
     </row>
     <row r="100" spans="2:4" ht="21" customHeight="1">
-      <c r="C100" s="200"/>
+      <c r="C100" s="207"/>
       <c r="D100" s="18"/>
     </row>
     <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="C101" s="200"/>
+      <c r="C101" s="207"/>
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="200"/>
+      <c r="C102" s="207"/>
       <c r="D102" s="18"/>
     </row>
     <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="200"/>
+      <c r="C103" s="207"/>
       <c r="D103" s="18"/>
     </row>
     <row r="104" spans="2:4" ht="21" customHeight="1">
       <c r="B104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C104" s="199" t="s">
+      <c r="C104" s="206" t="s">
         <v>263</v>
       </c>
       <c r="D104" s="18"/>
     </row>
     <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="C105" s="200"/>
+      <c r="C105" s="207"/>
       <c r="D105" s="18"/>
     </row>
     <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="C106" s="200"/>
+      <c r="C106" s="207"/>
       <c r="D106" s="18"/>
     </row>
     <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="C107" s="200"/>
+      <c r="C107" s="207"/>
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="2:4" ht="33" customHeight="1">
-      <c r="C108" s="200"/>
+      <c r="C108" s="207"/>
       <c r="D108" s="18"/>
     </row>
     <row r="109" spans="2:4" ht="21" customHeight="1">
       <c r="B109" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="199" t="s">
+      <c r="C109" s="206" t="s">
         <v>264</v>
       </c>
       <c r="D109" s="18"/>
     </row>
     <row r="110" spans="2:4" ht="21" customHeight="1">
-      <c r="C110" s="200"/>
+      <c r="C110" s="207"/>
       <c r="D110" s="18"/>
     </row>
     <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="C111" s="200"/>
+      <c r="C111" s="207"/>
       <c r="D111" s="18"/>
     </row>
     <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="C112" s="200"/>
+      <c r="C112" s="207"/>
       <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="C113" s="200"/>
+      <c r="C113" s="207"/>
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="21" customHeight="1">
@@ -23962,30 +24168,30 @@
       <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="201" t="s">
+      <c r="B118" s="208" t="s">
         <v>261</v>
       </c>
-      <c r="C118" s="202"/>
+      <c r="C118" s="209"/>
       <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="202"/>
-      <c r="C119" s="202"/>
+      <c r="B119" s="209"/>
+      <c r="C119" s="209"/>
       <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="202"/>
-      <c r="C120" s="202"/>
+      <c r="B120" s="209"/>
+      <c r="C120" s="209"/>
       <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" ht="21" customHeight="1">
-      <c r="B121" s="202"/>
-      <c r="C121" s="202"/>
+      <c r="B121" s="209"/>
+      <c r="C121" s="209"/>
       <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" ht="21" customHeight="1">
-      <c r="B122" s="202"/>
-      <c r="C122" s="202"/>
+      <c r="B122" s="209"/>
+      <c r="C122" s="209"/>
       <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" ht="21" customHeight="1">
@@ -24620,7 +24826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24700,7 +24906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\beginner_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\maruaican\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F62251-760A-479A-835E-2CCE50E8A132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="542"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サブクエリ (3)" sheetId="8" r:id="rId1"/>
@@ -27,14 +28,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">サブクエリ!$A$1:$G$159</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'サブクエリ (2)'!$A$1:$G$316</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (3)'!$A$1:$G$658</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (3)'!$A$1:$G$702</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1126">
   <si>
     <t>分類</t>
   </si>
@@ -12114,11 +12115,282 @@
     </r>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>単一行サブクエリ（=、&lt;など）では表現できない「複数の候補の集合比較」を実現する。</t>
+  </si>
+  <si>
+    <t>狙われやすい誤解</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">① </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>=ANY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> と同じ（だが試験で区別を問われることあり）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">② </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>=ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> は「すべての値と等しい」→ほぼ成立しない（例外パターンを問われる）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">③ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> はサブクエリ結果に </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を含むと、すべて </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UNKNOWN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> になり、結果が返らない。</t>
+    </r>
+  </si>
+  <si>
+    <t>演算子</t>
+  </si>
+  <si>
+    <t>判定内容</t>
+  </si>
+  <si>
+    <t>思考パターン</t>
+  </si>
+  <si>
+    <t>集合に含まれるか</t>
+  </si>
+  <si>
+    <t>「=ANY」と同義</t>
+  </si>
+  <si>
+    <t>NOT IN</t>
+  </si>
+  <si>
+    <t>集合に含まれないか</t>
+  </si>
+  <si>
+    <t>NULLが含まれると全件除外される</t>
+  </si>
+  <si>
+    <t>集合のどれか1つと等しいか</t>
+  </si>
+  <si>
+    <t>OR的な判定</t>
+  </si>
+  <si>
+    <t>&gt;ANY</t>
+  </si>
+  <si>
+    <t>集合の中の最大値より大きいか</t>
+  </si>
+  <si>
+    <t>「最大値を基準にする」</t>
+  </si>
+  <si>
+    <t>&lt;ANY</t>
+  </si>
+  <si>
+    <t>集合の中の最小値より小さいか</t>
+  </si>
+  <si>
+    <t>「最小値を基準にする」</t>
+  </si>
+  <si>
+    <t>&gt;ALL</t>
+  </si>
+  <si>
+    <t>集合の全てより大きいか</t>
+  </si>
+  <si>
+    <t>「最小値より大きい」</t>
+  </si>
+  <si>
+    <t>&lt;ALL</t>
+  </si>
+  <si>
+    <t>集合の全てより小さいか</t>
+  </si>
+  <si>
+    <t>「最大値より小さい」</t>
+  </si>
+  <si>
+    <t>=ANY</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>誤解１：ANY と ALL は似ている。</t>
+  </si>
+  <si>
+    <t>→ 正しくは「OR判定」と「AND判定」で真逆。</t>
+  </si>
+  <si>
+    <t>誤解２：NOT IN は安全。</t>
+  </si>
+  <si>
+    <t>→ 実際はサブクエリに NULL が混ざると全体が FALSE 扱いになり結果0件。</t>
+  </si>
+  <si>
+    <t>誤解３：サブクエリは「部分表」を返す。</t>
+  </si>
+  <si>
+    <t>→ 正しくは「集合」または「値リスト」を返し、外側クエリがTRUE/FALSEを評価する。</t>
+  </si>
+  <si>
+    <t>１－７　一問一答（5問）</t>
+  </si>
+  <si>
+    <t>Q1. IN と等価な表現はどれか。</t>
+  </si>
+  <si>
+    <t>A1. =ANY</t>
+  </si>
+  <si>
+    <t>解説：集合の中のいずれかに一致すればよいから。</t>
+  </si>
+  <si>
+    <t>Q2. 「給与が部署10の全員より高い社員」を求めるにはどの演算子か。</t>
+  </si>
+  <si>
+    <t>A2. &gt;ALL</t>
+  </si>
+  <si>
+    <t>解説：全員との比較 → AND条件。</t>
+  </si>
+  <si>
+    <t>Q3. 「給与が部署10の誰かより高い社員」を求めるにはどの演算子か。</t>
+  </si>
+  <si>
+    <t>A3. &gt;ANY</t>
+  </si>
+  <si>
+    <t>解説：一人でも超えればよい → OR条件。</t>
+  </si>
+  <si>
+    <t>Q4. NOT IN のサブクエリに NULL が含まれるとどうなるか。</t>
+  </si>
+  <si>
+    <t>A4. 全体がUNKNOWNとなり、結果は返らない。</t>
+  </si>
+  <si>
+    <t>解説：NULLの比較はすべてUNKNOWNになるため。</t>
+  </si>
+  <si>
+    <t>Q5. 「すべての候補値に等しい」を表すのはどの演算子か。</t>
+  </si>
+  <si>
+    <t>A5. =ALL</t>
+  </si>
+  <si>
+    <t>解説：ただし、全員同じ値でない限り成立しないため、ほぼ使われない。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="49">
     <font>
       <sz val="11"/>
@@ -12693,7 +12965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -13270,16 +13542,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -13287,6 +13553,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13315,10 +13587,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -13617,14 +13892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I656"/>
+  <dimension ref="A2:I700"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E25" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13765,3590 +14040,3949 @@
       <c r="G30" s="108"/>
     </row>
     <row r="31" spans="3:7">
-      <c r="E31" s="104" t="s">
+      <c r="D31" s="104" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G31" s="108"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="E32" s="104" t="s">
         <v>521</v>
       </c>
-      <c r="G31" s="104" t="s">
+    </row>
+    <row r="33" spans="4:7" ht="121.5">
+      <c r="E33" s="107" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="E34" s="104" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="32" spans="3:7" ht="121.5">
-      <c r="E32" s="107" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G32" s="107" t="s">
+      <c r="G34" s="107"/>
+    </row>
+    <row r="35" spans="4:7" ht="108">
+      <c r="E35" s="107" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="33" spans="4:7">
-      <c r="E33" s="107"/>
-      <c r="G33" s="107"/>
-    </row>
-    <row r="34" spans="4:7">
-      <c r="E34" s="107"/>
-      <c r="G34" s="107"/>
-    </row>
-    <row r="35" spans="4:7">
-      <c r="E35" s="107"/>
       <c r="G35" s="107"/>
     </row>
     <row r="36" spans="4:7">
+      <c r="D36" s="105" t="s">
+        <v>503</v>
+      </c>
       <c r="E36" s="107"/>
       <c r="G36" s="107"/>
     </row>
     <row r="37" spans="4:7">
+      <c r="D37" s="105" t="s">
+        <v>504</v>
+      </c>
       <c r="E37" s="107"/>
       <c r="G37" s="107"/>
     </row>
     <row r="38" spans="4:7">
+      <c r="D38" s="105" t="s">
+        <v>505</v>
+      </c>
       <c r="E38" s="107"/>
       <c r="G38" s="107"/>
     </row>
     <row r="39" spans="4:7">
+      <c r="D39" s="105" t="s">
+        <v>506</v>
+      </c>
       <c r="E39" s="107"/>
       <c r="G39" s="107"/>
     </row>
     <row r="40" spans="4:7">
+      <c r="D40" s="105"/>
       <c r="E40" s="107"/>
       <c r="G40" s="107"/>
     </row>
     <row r="41" spans="4:7">
+      <c r="D41" s="171" t="s">
+        <v>1077</v>
+      </c>
       <c r="E41" s="107"/>
       <c r="G41" s="107"/>
     </row>
     <row r="42" spans="4:7">
+      <c r="D42" s="98" t="s">
+        <v>1078</v>
+      </c>
       <c r="E42" s="107"/>
       <c r="G42" s="107"/>
     </row>
     <row r="43" spans="4:7">
+      <c r="D43" s="98" t="s">
+        <v>1079</v>
+      </c>
       <c r="E43" s="107"/>
       <c r="G43" s="107"/>
     </row>
     <row r="44" spans="4:7">
+      <c r="D44" s="98" t="s">
+        <v>1080</v>
+      </c>
       <c r="E44" s="107"/>
       <c r="G44" s="107"/>
     </row>
     <row r="45" spans="4:7">
       <c r="D45" s="105" t="s">
-        <v>503</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="E45" s="107"/>
+      <c r="G45" s="107"/>
     </row>
     <row r="46" spans="4:7">
       <c r="D46" s="105" t="s">
-        <v>504</v>
-      </c>
+        <v>1105</v>
+      </c>
+      <c r="E46" s="107"/>
+      <c r="G46" s="107"/>
     </row>
     <row r="47" spans="4:7">
-      <c r="D47" s="105" t="s">
-        <v>505</v>
-      </c>
+      <c r="D47" s="105"/>
+      <c r="E47" s="107"/>
+      <c r="G47" s="107"/>
     </row>
     <row r="48" spans="4:7">
       <c r="D48" s="105" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5">
-      <c r="C50" s="105" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E48" s="107"/>
+      <c r="G48" s="107"/>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="D49" s="105" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E49" s="107"/>
+      <c r="G49" s="107"/>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="D50" s="105"/>
+      <c r="E50" s="107"/>
+      <c r="G50" s="107"/>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" s="105" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E51" s="107"/>
+      <c r="G51" s="107"/>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" s="105" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E52" s="107"/>
+      <c r="G52" s="107"/>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" s="105"/>
+      <c r="E53" s="107"/>
+      <c r="G53" s="107"/>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="100" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E54" s="100" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F54" s="100" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G54" s="107"/>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" s="147" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="147" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F55" s="147" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G55" s="107"/>
+    </row>
+    <row r="56" spans="4:7" ht="27">
+      <c r="D56" s="147" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E56" s="147" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F56" s="147" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G56" s="107"/>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="D57" s="215" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E57" s="147" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F57" s="147" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G57" s="107"/>
+    </row>
+    <row r="58" spans="4:7" ht="27">
+      <c r="D58" s="147" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E58" s="147" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F58" s="147" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G58" s="107"/>
+    </row>
+    <row r="59" spans="4:7" ht="27">
+      <c r="D59" s="147" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E59" s="147" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F59" s="147" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G59" s="107"/>
+    </row>
+    <row r="60" spans="4:7">
+      <c r="D60" s="147" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E60" s="147" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F60" s="147" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G60" s="107"/>
+    </row>
+    <row r="61" spans="4:7">
+      <c r="D61" s="147" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="147" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F61" s="147" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G61" s="107"/>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="107"/>
+    </row>
+    <row r="63" spans="4:7">
+      <c r="D63" s="96" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="107"/>
+    </row>
+    <row r="64" spans="4:7">
+      <c r="D64" s="96"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="107"/>
+    </row>
+    <row r="65" spans="4:7">
+      <c r="D65" s="96" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E65" s="147"/>
+      <c r="F65" s="147"/>
+      <c r="G65" s="107"/>
+    </row>
+    <row r="66" spans="4:7">
+      <c r="D66" s="96"/>
+      <c r="E66" s="147"/>
+      <c r="F66" s="147"/>
+      <c r="G66" s="107"/>
+    </row>
+    <row r="67" spans="4:7">
+      <c r="D67" s="96" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E67" s="147"/>
+      <c r="F67" s="147"/>
+      <c r="G67" s="107"/>
+    </row>
+    <row r="68" spans="4:7">
+      <c r="D68" s="96" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E68" s="147"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="107"/>
+    </row>
+    <row r="69" spans="4:7">
+      <c r="E69" s="147"/>
+      <c r="F69" s="147"/>
+      <c r="G69" s="107"/>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="D70" s="96" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E70" s="147"/>
+      <c r="F70" s="147"/>
+      <c r="G70" s="107"/>
+    </row>
+    <row r="71" spans="4:7">
+      <c r="D71" s="96"/>
+      <c r="E71" s="147"/>
+      <c r="F71" s="147"/>
+      <c r="G71" s="107"/>
+    </row>
+    <row r="72" spans="4:7">
+      <c r="D72" s="96" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E72" s="147"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="107"/>
+    </row>
+    <row r="73" spans="4:7">
+      <c r="D73" s="96" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E73" s="147"/>
+      <c r="F73" s="147"/>
+      <c r="G73" s="107"/>
+    </row>
+    <row r="74" spans="4:7">
+      <c r="E74" s="147"/>
+      <c r="F74" s="147"/>
+      <c r="G74" s="107"/>
+    </row>
+    <row r="75" spans="4:7">
+      <c r="D75" s="96" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E75" s="147"/>
+      <c r="F75" s="147"/>
+      <c r="G75" s="107"/>
+    </row>
+    <row r="76" spans="4:7">
+      <c r="D76" s="96"/>
+      <c r="E76" s="147"/>
+      <c r="F76" s="147"/>
+      <c r="G76" s="107"/>
+    </row>
+    <row r="77" spans="4:7">
+      <c r="D77" s="96" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E77" s="147"/>
+      <c r="F77" s="147"/>
+      <c r="G77" s="107"/>
+    </row>
+    <row r="78" spans="4:7">
+      <c r="D78" s="96" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E78" s="147"/>
+      <c r="F78" s="147"/>
+      <c r="G78" s="107"/>
+    </row>
+    <row r="79" spans="4:7">
+      <c r="D79" s="96"/>
+      <c r="E79" s="147"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="107"/>
+    </row>
+    <row r="80" spans="4:7">
+      <c r="D80" s="96" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E80" s="147"/>
+      <c r="F80" s="147"/>
+      <c r="G80" s="107"/>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="D81" s="96"/>
+      <c r="E81" s="147"/>
+      <c r="F81" s="147"/>
+      <c r="G81" s="107"/>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="D82" s="96" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E82" s="147"/>
+      <c r="F82" s="147"/>
+      <c r="G82" s="107"/>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="D83" s="96" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E83" s="147"/>
+      <c r="F83" s="147"/>
+      <c r="G83" s="107"/>
+    </row>
+    <row r="84" spans="3:7">
+      <c r="E84" s="147"/>
+      <c r="F84" s="147"/>
+      <c r="G84" s="107"/>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="D85" s="96" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E85" s="147"/>
+      <c r="F85" s="147"/>
+      <c r="G85" s="107"/>
+    </row>
+    <row r="86" spans="3:7">
+      <c r="D86" s="96"/>
+      <c r="E86" s="147"/>
+      <c r="F86" s="147"/>
+      <c r="G86" s="107"/>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="D87" s="96" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E87" s="147"/>
+      <c r="F87" s="147"/>
+      <c r="G87" s="107"/>
+    </row>
+    <row r="88" spans="3:7">
+      <c r="D88" s="96" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E88" s="147"/>
+      <c r="F88" s="147"/>
+      <c r="G88" s="107"/>
+    </row>
+    <row r="89" spans="3:7">
+      <c r="E89" s="147"/>
+      <c r="F89" s="147"/>
+      <c r="G89" s="107"/>
+    </row>
+    <row r="90" spans="3:7">
+      <c r="E90" s="147"/>
+      <c r="F90" s="147"/>
+      <c r="G90" s="107"/>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94" s="105" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="51" spans="3:5">
-      <c r="E51" s="104" t="s">
+    <row r="95" spans="3:7">
+      <c r="E95" s="104" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="52" spans="3:5" ht="121.5">
-      <c r="E52" s="107" t="s">
+    <row r="96" spans="3:7" ht="121.5">
+      <c r="E96" s="107" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="54" spans="3:5" ht="14.25">
-      <c r="C54" s="137" t="s">
+    <row r="98" spans="3:5" ht="14.25">
+      <c r="C98" s="137" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="55" spans="3:5">
-      <c r="C55" s="108"/>
-    </row>
-    <row r="56" spans="3:5">
-      <c r="C56" s="108" t="s">
+    <row r="99" spans="3:5">
+      <c r="C99" s="108"/>
+    </row>
+    <row r="100" spans="3:5">
+      <c r="C100" s="108" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="57" spans="3:5">
-      <c r="C57" s="108"/>
-      <c r="D57" s="104" t="s">
+    <row r="101" spans="3:5">
+      <c r="C101" s="108"/>
+      <c r="D101" s="104" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="58" spans="3:5" ht="108">
-      <c r="E58" s="107" t="s">
+    <row r="102" spans="3:5" ht="108">
+      <c r="E102" s="107" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="59" spans="3:5">
-      <c r="E59" s="104" t="s">
+    <row r="103" spans="3:5">
+      <c r="E103" s="104" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
-      <c r="D60" s="105" t="s">
+    <row r="104" spans="3:5">
+      <c r="D104" s="105" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="61" spans="3:5">
-      <c r="C61" s="108" t="s">
+    <row r="105" spans="3:5">
+      <c r="C105" s="108" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="62" spans="3:5">
-      <c r="C62" s="110"/>
-      <c r="D62" s="111" t="s">
+    <row r="106" spans="3:5">
+      <c r="C106" s="110"/>
+      <c r="D106" s="111" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="63" spans="3:5" ht="14.25">
-      <c r="C63" s="133"/>
-      <c r="D63" s="134"/>
-      <c r="E63" s="104" t="s">
+    <row r="107" spans="3:5" ht="14.25">
+      <c r="C107" s="133"/>
+      <c r="D107" s="134"/>
+      <c r="E107" s="104" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="64" spans="3:5" ht="94.5">
-      <c r="E64" s="107" t="s">
+    <row r="108" spans="3:5" ht="94.5">
+      <c r="E108" s="107" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
-      <c r="D65" s="104" t="s">
+    <row r="109" spans="3:5">
+      <c r="D109" s="104" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
-      <c r="D66" s="105" t="s">
+    <row r="110" spans="3:5">
+      <c r="D110" s="105" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="104" t="s">
+    <row r="111" spans="3:5">
+      <c r="C111" s="104" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="135" t="s">
+    <row r="112" spans="3:5">
+      <c r="C112" s="135" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="135" t="s">
+    <row r="113" spans="3:3">
+      <c r="C113" s="135" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="104" t="s">
+    <row r="114" spans="3:3">
+      <c r="C114" s="104" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="71" spans="3:4">
-      <c r="C71" s="135" t="s">
+    <row r="115" spans="3:3">
+      <c r="C115" s="135" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="73" spans="3:4" ht="17.25">
-      <c r="C73" s="131" t="s">
+    <row r="117" spans="3:3" ht="17.25">
+      <c r="C117" s="131" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
-      <c r="C74" s="132"/>
-    </row>
-    <row r="75" spans="3:4">
-      <c r="C75" s="135" t="s">
+    <row r="118" spans="3:3">
+      <c r="C118" s="132"/>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="135" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
-      <c r="C76" s="136" t="s">
+    <row r="120" spans="3:3">
+      <c r="C120" s="136" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="136" t="s">
+    <row r="121" spans="3:3">
+      <c r="C121" s="136" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="78" spans="3:4">
-      <c r="C78" s="136" t="s">
+    <row r="122" spans="3:3">
+      <c r="C122" s="136" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="79" spans="3:4">
-      <c r="C79" s="108"/>
-    </row>
-    <row r="80" spans="3:4" ht="17.25">
-      <c r="C80" s="130" t="s">
+    <row r="123" spans="3:3">
+      <c r="C123" s="108"/>
+    </row>
+    <row r="124" spans="3:3" ht="17.25">
+      <c r="C124" s="130" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="108"/>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="136" t="s">
+    <row r="125" spans="3:3">
+      <c r="C125" s="108"/>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="136" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="136" t="s">
+    <row r="127" spans="3:3">
+      <c r="C127" s="136" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="136" t="s">
+    <row r="128" spans="3:3">
+      <c r="C128" s="136" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="136" t="s">
+    <row r="129" spans="3:3">
+      <c r="C129" s="136" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="136" t="s">
+    <row r="130" spans="3:3">
+      <c r="C130" s="136" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="136" t="s">
+    <row r="131" spans="3:3">
+      <c r="C131" s="136" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="108"/>
-    </row>
-    <row r="89" spans="3:3" ht="17.25">
-      <c r="C89" s="130" t="s">
+    <row r="132" spans="3:3">
+      <c r="C132" s="108"/>
+    </row>
+    <row r="133" spans="3:3" ht="17.25">
+      <c r="C133" s="130" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="90" spans="3:3">
-      <c r="C90" s="108"/>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="136" t="s">
+    <row r="134" spans="3:3">
+      <c r="C134" s="108"/>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="136" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="136" t="s">
+    <row r="136" spans="3:3">
+      <c r="C136" s="136" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="136" t="s">
+    <row r="137" spans="3:3">
+      <c r="C137" s="136" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
-      <c r="C94" s="136" t="s">
+    <row r="138" spans="3:3">
+      <c r="C138" s="136" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="108"/>
-    </row>
-    <row r="96" spans="3:3" ht="17.25">
-      <c r="C96" s="130" t="s">
+    <row r="139" spans="3:3">
+      <c r="C139" s="108"/>
+    </row>
+    <row r="140" spans="3:3" ht="17.25">
+      <c r="C140" s="130" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
-      <c r="C97" s="108"/>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="C98" s="136" t="s">
+    <row r="141" spans="3:3">
+      <c r="C141" s="108"/>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="136" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
-      <c r="C99" s="136" t="s">
+    <row r="143" spans="3:3">
+      <c r="C143" s="136" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
-      <c r="C100" s="136" t="s">
+    <row r="144" spans="3:3">
+      <c r="C144" s="136" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
-      <c r="C101" s="136" t="s">
+    <row r="145" spans="2:5">
+      <c r="C145" s="136" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="102" spans="2:5">
-      <c r="C102" s="136" t="s">
+    <row r="146" spans="2:5">
+      <c r="C146" s="136" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="103" spans="2:5">
-      <c r="C103" s="108"/>
-    </row>
-    <row r="104" spans="2:5" ht="16.5">
-      <c r="B104" s="128" t="s">
+    <row r="147" spans="2:5">
+      <c r="C147" s="108"/>
+    </row>
+    <row r="148" spans="2:5" ht="16.5">
+      <c r="B148" s="128" t="s">
         <v>555</v>
       </c>
-      <c r="C104" s="108"/>
-    </row>
-    <row r="105" spans="2:5" ht="26.25" customHeight="1">
-      <c r="B105" s="178"/>
-      <c r="C105" s="108" t="s">
+      <c r="C148" s="108"/>
+    </row>
+    <row r="149" spans="2:5" ht="26.25" customHeight="1">
+      <c r="B149" s="178"/>
+      <c r="C149" s="108" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="129" t="s">
+    <row r="150" spans="2:5">
+      <c r="B150" s="129" t="s">
         <v>608</v>
       </c>
-      <c r="C106" s="108"/>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="C107" s="105"/>
-      <c r="D107" s="104" t="s">
+      <c r="C150" s="108"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="C151" s="105"/>
+      <c r="D151" s="104" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="108">
-      <c r="E108" s="107" t="s">
+    <row r="152" spans="2:5" ht="108">
+      <c r="E152" s="107" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
-      <c r="C109" s="105" t="s">
+    <row r="153" spans="2:5">
+      <c r="C153" s="105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
-      <c r="C110" s="135" t="s">
+    <row r="154" spans="2:5">
+      <c r="C154" s="135" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
-      <c r="C111" s="135" t="s">
+    <row r="155" spans="2:5">
+      <c r="C155" s="135" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
-      <c r="C112" s="135" t="s">
+    <row r="156" spans="2:5">
+      <c r="C156" s="135" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="113" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C113" s="199" t="s">
+    <row r="157" spans="2:5" ht="16.5" customHeight="1">
+      <c r="C157" s="199" t="s">
         <v>523</v>
       </c>
-      <c r="D113" s="199"/>
-      <c r="E113" s="199"/>
-    </row>
-    <row r="114" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C114" s="161"/>
-      <c r="D114" s="161"/>
-      <c r="E114" s="161"/>
-    </row>
-    <row r="115" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C115" s="97" t="s">
+      <c r="D157" s="199"/>
+      <c r="E157" s="199"/>
+    </row>
+    <row r="158" spans="2:5" ht="16.5" customHeight="1">
+      <c r="C158" s="161"/>
+      <c r="D158" s="161"/>
+      <c r="E158" s="161"/>
+    </row>
+    <row r="159" spans="2:5" ht="16.5" customHeight="1">
+      <c r="C159" s="97" t="s">
         <v>622</v>
       </c>
-      <c r="D115" s="161"/>
-      <c r="E115" s="161"/>
-    </row>
-    <row r="116" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C116"/>
-      <c r="D116" s="161"/>
-      <c r="E116" s="161"/>
-    </row>
-    <row r="117" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C117" s="128" t="s">
+      <c r="D159" s="161"/>
+      <c r="E159" s="161"/>
+    </row>
+    <row r="160" spans="2:5" ht="16.5" customHeight="1">
+      <c r="C160"/>
+      <c r="D160" s="161"/>
+      <c r="E160" s="161"/>
+    </row>
+    <row r="161" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C161" s="128" t="s">
         <v>621</v>
       </c>
-      <c r="D117" s="161"/>
-      <c r="E117" s="161"/>
-    </row>
-    <row r="118" spans="3:5" ht="121.5">
-      <c r="C118" s="161"/>
-      <c r="D118" s="161"/>
-      <c r="E118" s="107" t="s">
+      <c r="D161" s="161"/>
+      <c r="E161" s="161"/>
+    </row>
+    <row r="162" spans="3:5" ht="121.5">
+      <c r="C162" s="161"/>
+      <c r="D162" s="161"/>
+      <c r="E162" s="107" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="119" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C119" t="s">
+    <row r="163" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C163" t="s">
         <v>623</v>
       </c>
-      <c r="D119" s="161"/>
-      <c r="E119" s="161"/>
-    </row>
-    <row r="120" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C120"/>
-      <c r="D120" s="161"/>
-      <c r="E120" s="161"/>
-    </row>
-    <row r="121" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C121" s="105" t="s">
+      <c r="D163" s="161"/>
+      <c r="E163" s="161"/>
+    </row>
+    <row r="164" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C164"/>
+      <c r="D164" s="161"/>
+      <c r="E164" s="161"/>
+    </row>
+    <row r="165" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C165" s="105" t="s">
         <v>626</v>
       </c>
-      <c r="D121" s="161"/>
-      <c r="E121" s="161"/>
-    </row>
-    <row r="122" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C122" s="105"/>
-      <c r="D122" s="161"/>
-      <c r="E122" s="161"/>
-    </row>
-    <row r="123" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C123" s="128" t="s">
+      <c r="D165" s="161"/>
+      <c r="E165" s="161"/>
+    </row>
+    <row r="166" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C166" s="105"/>
+      <c r="D166" s="161"/>
+      <c r="E166" s="161"/>
+    </row>
+    <row r="167" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C167" s="128" t="s">
         <v>624</v>
       </c>
-      <c r="D123" s="161"/>
-      <c r="E123" s="161"/>
-    </row>
-    <row r="124" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C124" s="129" t="s">
+      <c r="D167" s="161"/>
+      <c r="E167" s="161"/>
+    </row>
+    <row r="168" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C168" s="129" t="s">
         <v>625</v>
       </c>
-      <c r="D124" s="161"/>
-      <c r="E124" s="161"/>
-    </row>
-    <row r="125" spans="3:5" ht="101.25" customHeight="1">
-      <c r="C125" s="107"/>
-      <c r="D125" s="107"/>
-      <c r="E125" s="139" t="s">
+      <c r="D168" s="161"/>
+      <c r="E168" s="161"/>
+    </row>
+    <row r="169" spans="3:5" ht="101.25" customHeight="1">
+      <c r="C169" s="107"/>
+      <c r="D169" s="107"/>
+      <c r="E169" s="139" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C126" s="129" t="s">
+    <row r="170" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C170" s="129" t="s">
         <v>628</v>
       </c>
-      <c r="D126" s="107"/>
-      <c r="E126" s="107"/>
-    </row>
-    <row r="127" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C127" s="101" t="s">
+      <c r="D170" s="107"/>
+      <c r="E170" s="107"/>
+    </row>
+    <row r="171" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C171" s="101" t="s">
         <v>629</v>
       </c>
-      <c r="D127" s="107"/>
-      <c r="E127" s="107"/>
-    </row>
-    <row r="128" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C128" s="98" t="s">
+      <c r="D171" s="107"/>
+      <c r="E171" s="107"/>
+    </row>
+    <row r="172" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C172" s="98" t="s">
         <v>630</v>
       </c>
-      <c r="D128" s="107"/>
-      <c r="E128" s="107"/>
-    </row>
-    <row r="129" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C129" s="107"/>
-      <c r="D129" s="107"/>
-      <c r="E129" s="107"/>
-    </row>
-    <row r="130" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D130" s="97" t="s">
+      <c r="D172" s="107"/>
+      <c r="E172" s="107"/>
+    </row>
+    <row r="173" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C173" s="107"/>
+      <c r="D173" s="107"/>
+      <c r="E173" s="107"/>
+    </row>
+    <row r="174" spans="3:5" ht="16.5" customHeight="1">
+      <c r="D174" s="97" t="s">
         <v>642</v>
       </c>
-      <c r="E130" s="140"/>
-    </row>
-    <row r="131" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C131" s="96"/>
-      <c r="D131"/>
-      <c r="E131" s="140"/>
-    </row>
-    <row r="132" spans="3:6" ht="54">
-      <c r="C132" s="99"/>
-      <c r="D132"/>
-      <c r="E132" s="141" t="s">
+      <c r="E174" s="140"/>
+    </row>
+    <row r="175" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C175" s="96"/>
+      <c r="D175"/>
+      <c r="E175" s="140"/>
+    </row>
+    <row r="176" spans="3:5" ht="54">
+      <c r="C176" s="99"/>
+      <c r="D176"/>
+      <c r="E176" s="141" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="133" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C133" s="99"/>
-      <c r="D133"/>
-      <c r="E133"/>
-    </row>
-    <row r="134" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C134" s="99"/>
-      <c r="D134" t="s">
+    <row r="177" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C177" s="99"/>
+      <c r="D177"/>
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C178" s="99"/>
+      <c r="D178" t="s">
         <v>643</v>
       </c>
-      <c r="E134"/>
-      <c r="F134"/>
-    </row>
-    <row r="135" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C135" s="99"/>
-      <c r="D135" s="101" t="s">
+      <c r="E178"/>
+      <c r="F178"/>
+    </row>
+    <row r="179" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C179" s="99"/>
+      <c r="D179" s="101" t="s">
         <v>644</v>
       </c>
-      <c r="E135"/>
-      <c r="F135"/>
-    </row>
-    <row r="136" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D136" s="98" t="s">
+      <c r="E179"/>
+      <c r="F179"/>
+    </row>
+    <row r="180" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D180" s="98" t="s">
         <v>645</v>
       </c>
-      <c r="E136"/>
-      <c r="F136"/>
-    </row>
-    <row r="137" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
-    </row>
-    <row r="138" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-    </row>
-    <row r="139" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-    </row>
-    <row r="140" spans="3:6" ht="21">
-      <c r="D140" s="97" t="s">
+      <c r="E180"/>
+      <c r="F180"/>
+    </row>
+    <row r="181" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+    </row>
+    <row r="182" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+    </row>
+    <row r="183" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+    </row>
+    <row r="184" spans="3:6" ht="21">
+      <c r="D184" s="97" t="s">
         <v>646</v>
       </c>
-      <c r="E140"/>
-      <c r="F140"/>
-    </row>
-    <row r="141" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-    </row>
-    <row r="142" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D142" s="142" t="s">
+      <c r="E184"/>
+      <c r="F184"/>
+    </row>
+    <row r="185" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+    </row>
+    <row r="186" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D186" s="142" t="s">
         <v>647</v>
       </c>
-      <c r="E142" s="142" t="s">
+      <c r="E186" s="142" t="s">
         <v>648</v>
       </c>
-      <c r="F142" s="142" t="s">
+      <c r="F186" s="142" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="143" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D143" s="96" t="s">
+    <row r="187" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D187" s="96" t="s">
         <v>650</v>
       </c>
-      <c r="E143" s="96" t="s">
+      <c r="E187" s="96" t="s">
         <v>651</v>
       </c>
-      <c r="F143" s="96" t="s">
+      <c r="F187" s="96" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="144" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D144" s="96" t="s">
+    <row r="188" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D188" s="96" t="s">
         <v>652</v>
       </c>
-      <c r="E144" s="96" t="s">
+      <c r="E188" s="96" t="s">
         <v>653</v>
       </c>
-      <c r="F144" s="96" t="s">
+      <c r="F188" s="96" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="145" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D145" s="96" t="s">
+    <row r="189" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D189" s="96" t="s">
         <v>655</v>
       </c>
-      <c r="E145" s="96" t="s">
+      <c r="E189" s="96" t="s">
         <v>656</v>
       </c>
-      <c r="F145" s="96" t="s">
+      <c r="F189" s="96" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="146" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D146" s="96" t="s">
+    <row r="190" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D190" s="96" t="s">
         <v>658</v>
       </c>
-      <c r="E146" s="96" t="s">
+      <c r="E190" s="96" t="s">
         <v>659</v>
       </c>
-      <c r="F146" s="96" t="s">
+      <c r="F190" s="96" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="147" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D147" s="96" t="s">
+    <row r="191" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D191" s="96" t="s">
         <v>661</v>
       </c>
-      <c r="E147" s="96" t="s">
+      <c r="E191" s="96" t="s">
         <v>662</v>
       </c>
-      <c r="F147" s="96" t="s">
+      <c r="F191" s="96" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="148" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-    </row>
-    <row r="149" spans="4:7" ht="21">
-      <c r="D149" s="97" t="s">
+    <row r="192" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+    </row>
+    <row r="193" spans="4:7" ht="21">
+      <c r="D193" s="97" t="s">
         <v>664</v>
       </c>
-      <c r="E149"/>
-      <c r="F149"/>
-    </row>
-    <row r="150" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D150" t="s">
+      <c r="E193"/>
+      <c r="F193"/>
+    </row>
+    <row r="194" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D194" t="s">
         <v>973</v>
       </c>
-      <c r="E150"/>
-      <c r="F150"/>
-    </row>
-    <row r="151" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-    </row>
-    <row r="152" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D152" s="128" t="s">
-        <v>974</v>
-      </c>
-      <c r="E152"/>
-      <c r="F152"/>
-    </row>
-    <row r="153" spans="4:7" ht="54">
-      <c r="D153" s="98" t="s">
-        <v>977</v>
-      </c>
-      <c r="E153" s="138" t="s">
-        <v>976</v>
-      </c>
-      <c r="F153" s="110" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="154" spans="4:7" ht="121.5">
-      <c r="D154" s="98" t="s">
-        <v>975</v>
-      </c>
-      <c r="E154" s="138" t="s">
-        <v>972</v>
-      </c>
-      <c r="F154" s="108" t="s">
-        <v>979</v>
-      </c>
-      <c r="G154" s="104" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="155" spans="4:7" ht="14.25">
-      <c r="D155" s="177" t="s">
-        <v>980</v>
-      </c>
-      <c r="E155" s="138"/>
-      <c r="F155"/>
-    </row>
-    <row r="156" spans="4:7">
-      <c r="D156" t="s">
-        <v>981</v>
-      </c>
-      <c r="E156" s="138"/>
-      <c r="F156"/>
-    </row>
-    <row r="157" spans="4:7">
-      <c r="D157" t="s">
-        <v>982</v>
-      </c>
-      <c r="E157" s="138"/>
-      <c r="F157"/>
-    </row>
-    <row r="158" spans="4:7" ht="108">
-      <c r="D158" s="96"/>
-      <c r="E158" s="138" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F158"/>
-    </row>
-    <row r="159" spans="4:7" ht="21">
-      <c r="D159" s="96"/>
-      <c r="E159" s="97" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F159"/>
-    </row>
-    <row r="160" spans="4:7">
-      <c r="D160" s="96"/>
-      <c r="E160"/>
-      <c r="F160"/>
-    </row>
-    <row r="161" spans="4:6">
-      <c r="D161" s="96"/>
-      <c r="E161" t="s">
-        <v>998</v>
-      </c>
-      <c r="F161"/>
-    </row>
-    <row r="162" spans="4:6">
-      <c r="D162" s="96"/>
-      <c r="E162" s="171" t="s">
-        <v>999</v>
-      </c>
-      <c r="F162"/>
-    </row>
-    <row r="163" spans="4:6">
-      <c r="D163" s="96"/>
-      <c r="E163" s="98" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F163"/>
-    </row>
-    <row r="164" spans="4:6">
-      <c r="D164" s="96"/>
-      <c r="E164" s="98" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F164"/>
-    </row>
-    <row r="165" spans="4:6">
-      <c r="D165" s="96"/>
-      <c r="E165" s="98" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F165"/>
-    </row>
-    <row r="166" spans="4:6">
-      <c r="D166" s="96"/>
-      <c r="E166" s="98" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F166"/>
-    </row>
-    <row r="167" spans="4:6">
-      <c r="D167" s="96"/>
-      <c r="E167" s="98" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F167"/>
-    </row>
-    <row r="168" spans="4:6">
-      <c r="D168" s="96"/>
-      <c r="E168" s="98"/>
-      <c r="F168"/>
-    </row>
-    <row r="169" spans="4:6" ht="14.25">
-      <c r="D169" s="96"/>
-      <c r="E169" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F169"/>
-    </row>
-    <row r="170" spans="4:6" ht="14.25">
-      <c r="D170" s="96"/>
-      <c r="E170" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F170"/>
-    </row>
-    <row r="171" spans="4:6">
-      <c r="D171" s="96"/>
-      <c r="F171"/>
-    </row>
-    <row r="172" spans="4:6" ht="21">
-      <c r="D172" s="96"/>
-      <c r="E172" s="97" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F172"/>
-    </row>
-    <row r="173" spans="4:6">
-      <c r="D173" s="96"/>
-      <c r="E173" s="171" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F173"/>
-    </row>
-    <row r="174" spans="4:6">
-      <c r="D174" s="96"/>
-      <c r="E174" s="98" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F174"/>
-    </row>
-    <row r="175" spans="4:6">
-      <c r="D175" s="96"/>
-      <c r="E175" s="98" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F175"/>
-    </row>
-    <row r="176" spans="4:6">
-      <c r="D176" s="96"/>
-      <c r="E176" s="98" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F176"/>
-    </row>
-    <row r="177" spans="4:6">
-      <c r="D177" s="96"/>
-      <c r="E177" s="98"/>
-      <c r="F177"/>
-    </row>
-    <row r="178" spans="4:6">
-      <c r="D178" s="96"/>
-      <c r="E178" s="138"/>
-      <c r="F178"/>
-    </row>
-    <row r="179" spans="4:6">
-      <c r="D179" t="s">
-        <v>983</v>
-      </c>
-      <c r="E179" s="138"/>
-      <c r="F179"/>
-    </row>
-    <row r="180" spans="4:6">
-      <c r="D180" t="s">
-        <v>984</v>
-      </c>
-      <c r="E180" s="138"/>
-      <c r="F180"/>
-    </row>
-    <row r="181" spans="4:6" ht="162">
-      <c r="D181"/>
-      <c r="E181" s="138" t="s">
-        <v>997</v>
-      </c>
-      <c r="F181"/>
-    </row>
-    <row r="182" spans="4:6">
-      <c r="D182" t="s">
-        <v>985</v>
-      </c>
-      <c r="E182" s="138"/>
-      <c r="F182"/>
-    </row>
-    <row r="183" spans="4:6" ht="14.25">
-      <c r="D183" t="s">
-        <v>986</v>
-      </c>
-      <c r="E183" s="138"/>
-      <c r="F183"/>
-    </row>
-    <row r="184" spans="4:6">
-      <c r="D184" t="s">
-        <v>987</v>
-      </c>
-      <c r="E184" s="138"/>
-      <c r="F184"/>
-    </row>
-    <row r="185" spans="4:6">
-      <c r="D185"/>
-      <c r="E185" s="138"/>
-      <c r="F185"/>
-    </row>
-    <row r="186" spans="4:6">
-      <c r="D186" t="s">
-        <v>988</v>
-      </c>
-      <c r="E186" s="138"/>
-      <c r="F186"/>
-    </row>
-    <row r="187" spans="4:6">
-      <c r="D187" t="s">
-        <v>989</v>
-      </c>
-      <c r="E187" s="138"/>
-      <c r="F187"/>
-    </row>
-    <row r="188" spans="4:6">
-      <c r="D188"/>
-      <c r="E188" s="138"/>
-      <c r="F188"/>
-    </row>
-    <row r="189" spans="4:6">
-      <c r="D189" t="s">
-        <v>990</v>
-      </c>
-      <c r="E189" s="138"/>
-      <c r="F189"/>
-    </row>
-    <row r="190" spans="4:6">
-      <c r="D190" s="98"/>
-      <c r="E190" s="138"/>
-      <c r="F190"/>
-    </row>
-    <row r="191" spans="4:6">
-      <c r="D191" s="171" t="s">
-        <v>991</v>
-      </c>
-      <c r="E191" s="138"/>
-      <c r="F191"/>
-    </row>
-    <row r="192" spans="4:6">
-      <c r="D192" s="98"/>
-      <c r="E192" s="138"/>
-      <c r="F192"/>
-    </row>
-    <row r="193" spans="4:6">
-      <c r="D193" s="171" t="s">
-        <v>992</v>
-      </c>
-      <c r="E193" s="138"/>
-      <c r="F193"/>
-    </row>
-    <row r="194" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D194" s="98"/>
       <c r="E194"/>
       <c r="F194"/>
     </row>
-    <row r="195" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D195" s="171" t="s">
-        <v>993</v>
-      </c>
+    <row r="195" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D195"/>
       <c r="E195"/>
       <c r="F195"/>
     </row>
-    <row r="196" spans="4:6">
-      <c r="D196"/>
+    <row r="196" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D196" s="128" t="s">
+        <v>974</v>
+      </c>
       <c r="E196"/>
       <c r="F196"/>
     </row>
-    <row r="197" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D197" t="s">
+    <row r="197" spans="4:7" ht="54">
+      <c r="D197" s="98" t="s">
+        <v>977</v>
+      </c>
+      <c r="E197" s="138" t="s">
+        <v>976</v>
+      </c>
+      <c r="F197" s="110" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="198" spans="4:7" ht="121.5">
+      <c r="D198" s="98" t="s">
+        <v>975</v>
+      </c>
+      <c r="E198" s="138" t="s">
+        <v>972</v>
+      </c>
+      <c r="F198" s="108" t="s">
+        <v>979</v>
+      </c>
+      <c r="G198" s="104" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="199" spans="4:7" ht="14.25">
+      <c r="D199" s="177" t="s">
+        <v>980</v>
+      </c>
+      <c r="E199" s="138"/>
+      <c r="F199"/>
+    </row>
+    <row r="200" spans="4:7">
+      <c r="D200" t="s">
+        <v>981</v>
+      </c>
+      <c r="E200" s="138"/>
+      <c r="F200"/>
+    </row>
+    <row r="201" spans="4:7">
+      <c r="D201" t="s">
+        <v>982</v>
+      </c>
+      <c r="E201" s="138"/>
+      <c r="F201"/>
+    </row>
+    <row r="202" spans="4:7" ht="108">
+      <c r="D202" s="96"/>
+      <c r="E202" s="138" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F202"/>
+    </row>
+    <row r="203" spans="4:7" ht="21">
+      <c r="D203" s="96"/>
+      <c r="E203" s="97" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F203"/>
+    </row>
+    <row r="204" spans="4:7">
+      <c r="D204" s="96"/>
+      <c r="E204"/>
+      <c r="F204"/>
+    </row>
+    <row r="205" spans="4:7">
+      <c r="D205" s="96"/>
+      <c r="E205" t="s">
+        <v>998</v>
+      </c>
+      <c r="F205"/>
+    </row>
+    <row r="206" spans="4:7">
+      <c r="D206" s="96"/>
+      <c r="E206" s="171" t="s">
+        <v>999</v>
+      </c>
+      <c r="F206"/>
+    </row>
+    <row r="207" spans="4:7">
+      <c r="D207" s="96"/>
+      <c r="E207" s="98" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F207"/>
+    </row>
+    <row r="208" spans="4:7">
+      <c r="D208" s="96"/>
+      <c r="E208" s="98" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F208"/>
+    </row>
+    <row r="209" spans="4:6">
+      <c r="D209" s="96"/>
+      <c r="E209" s="98" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F209"/>
+    </row>
+    <row r="210" spans="4:6">
+      <c r="D210" s="96"/>
+      <c r="E210" s="98" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F210"/>
+    </row>
+    <row r="211" spans="4:6">
+      <c r="D211" s="96"/>
+      <c r="E211" s="98" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F211"/>
+    </row>
+    <row r="212" spans="4:6">
+      <c r="D212" s="96"/>
+      <c r="E212" s="98"/>
+      <c r="F212"/>
+    </row>
+    <row r="213" spans="4:6" ht="14.25">
+      <c r="D213" s="96"/>
+      <c r="E213" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F213"/>
+    </row>
+    <row r="214" spans="4:6" ht="14.25">
+      <c r="D214" s="96"/>
+      <c r="E214" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F214"/>
+    </row>
+    <row r="215" spans="4:6">
+      <c r="D215" s="96"/>
+      <c r="F215"/>
+    </row>
+    <row r="216" spans="4:6" ht="21">
+      <c r="D216" s="96"/>
+      <c r="E216" s="97" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F216"/>
+    </row>
+    <row r="217" spans="4:6">
+      <c r="D217" s="96"/>
+      <c r="E217" s="171" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F217"/>
+    </row>
+    <row r="218" spans="4:6">
+      <c r="D218" s="96"/>
+      <c r="E218" s="98" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F218"/>
+    </row>
+    <row r="219" spans="4:6">
+      <c r="D219" s="96"/>
+      <c r="E219" s="98" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F219"/>
+    </row>
+    <row r="220" spans="4:6">
+      <c r="D220" s="96"/>
+      <c r="E220" s="98" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F220"/>
+    </row>
+    <row r="221" spans="4:6">
+      <c r="D221" s="96"/>
+      <c r="E221" s="98"/>
+      <c r="F221"/>
+    </row>
+    <row r="222" spans="4:6">
+      <c r="D222" s="96"/>
+      <c r="E222" s="138"/>
+      <c r="F222"/>
+    </row>
+    <row r="223" spans="4:6">
+      <c r="D223" t="s">
+        <v>983</v>
+      </c>
+      <c r="E223" s="138"/>
+      <c r="F223"/>
+    </row>
+    <row r="224" spans="4:6">
+      <c r="D224" t="s">
+        <v>984</v>
+      </c>
+      <c r="E224" s="138"/>
+      <c r="F224"/>
+    </row>
+    <row r="225" spans="4:6" ht="162">
+      <c r="D225"/>
+      <c r="E225" s="138" t="s">
+        <v>997</v>
+      </c>
+      <c r="F225"/>
+    </row>
+    <row r="226" spans="4:6">
+      <c r="D226" t="s">
+        <v>985</v>
+      </c>
+      <c r="E226" s="138"/>
+      <c r="F226"/>
+    </row>
+    <row r="227" spans="4:6" ht="14.25">
+      <c r="D227" t="s">
+        <v>986</v>
+      </c>
+      <c r="E227" s="138"/>
+      <c r="F227"/>
+    </row>
+    <row r="228" spans="4:6">
+      <c r="D228" t="s">
+        <v>987</v>
+      </c>
+      <c r="E228" s="138"/>
+      <c r="F228"/>
+    </row>
+    <row r="229" spans="4:6">
+      <c r="D229"/>
+      <c r="E229" s="138"/>
+      <c r="F229"/>
+    </row>
+    <row r="230" spans="4:6">
+      <c r="D230" t="s">
+        <v>988</v>
+      </c>
+      <c r="E230" s="138"/>
+      <c r="F230"/>
+    </row>
+    <row r="231" spans="4:6">
+      <c r="D231" t="s">
+        <v>989</v>
+      </c>
+      <c r="E231" s="138"/>
+      <c r="F231"/>
+    </row>
+    <row r="232" spans="4:6">
+      <c r="D232"/>
+      <c r="E232" s="138"/>
+      <c r="F232"/>
+    </row>
+    <row r="233" spans="4:6">
+      <c r="D233" t="s">
+        <v>990</v>
+      </c>
+      <c r="E233" s="138"/>
+      <c r="F233"/>
+    </row>
+    <row r="234" spans="4:6">
+      <c r="D234" s="98"/>
+      <c r="E234" s="138"/>
+      <c r="F234"/>
+    </row>
+    <row r="235" spans="4:6">
+      <c r="D235" s="171" t="s">
+        <v>991</v>
+      </c>
+      <c r="E235" s="138"/>
+      <c r="F235"/>
+    </row>
+    <row r="236" spans="4:6">
+      <c r="D236" s="98"/>
+      <c r="E236" s="138"/>
+      <c r="F236"/>
+    </row>
+    <row r="237" spans="4:6">
+      <c r="D237" s="171" t="s">
+        <v>992</v>
+      </c>
+      <c r="E237" s="138"/>
+      <c r="F237"/>
+    </row>
+    <row r="238" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D238" s="98"/>
+      <c r="E238"/>
+      <c r="F238"/>
+    </row>
+    <row r="239" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D239" s="171" t="s">
+        <v>993</v>
+      </c>
+      <c r="E239"/>
+      <c r="F239"/>
+    </row>
+    <row r="240" spans="4:6">
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240"/>
+    </row>
+    <row r="241" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D241" t="s">
         <v>994</v>
       </c>
-      <c r="F197" s="142" t="s">
+      <c r="F241" s="142" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="198" spans="4:6">
-      <c r="D198" s="98"/>
-      <c r="F198" s="96" t="s">
+    <row r="242" spans="4:6">
+      <c r="D242" s="98"/>
+      <c r="F242" s="96" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="199" spans="4:6">
-      <c r="D199" s="98" t="s">
+    <row r="243" spans="4:6">
+      <c r="D243" s="98" t="s">
         <v>995</v>
       </c>
-      <c r="F199" s="96" t="s">
+      <c r="F243" s="96" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="200" spans="4:6">
-      <c r="D200" s="98"/>
-      <c r="E200"/>
-      <c r="F200"/>
-    </row>
-    <row r="201" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D201" s="98" t="s">
+    <row r="244" spans="4:6">
+      <c r="D244" s="98"/>
+      <c r="E244"/>
+      <c r="F244"/>
+    </row>
+    <row r="245" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D245" s="98" t="s">
         <v>996</v>
       </c>
-      <c r="E201"/>
-      <c r="F201"/>
-    </row>
-    <row r="202" spans="4:6">
-      <c r="D202" s="144" t="s">
+      <c r="E245"/>
+      <c r="F245"/>
+    </row>
+    <row r="246" spans="4:6">
+      <c r="D246" s="144" t="s">
         <v>683</v>
       </c>
-      <c r="E202"/>
-      <c r="F202"/>
-    </row>
-    <row r="203" spans="4:6" ht="15" customHeight="1">
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203" s="107"/>
-    </row>
-    <row r="204" spans="4:6" ht="21">
-      <c r="D204" s="97" t="s">
+      <c r="E246"/>
+      <c r="F246"/>
+    </row>
+    <row r="247" spans="4:6" ht="15" customHeight="1">
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247" s="107"/>
+    </row>
+    <row r="248" spans="4:6" ht="21">
+      <c r="D248" s="97" t="s">
         <v>632</v>
       </c>
-      <c r="E204"/>
-      <c r="F204" s="107"/>
-    </row>
-    <row r="205" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D205" s="98" t="s">
+      <c r="E248"/>
+      <c r="F248" s="107"/>
+    </row>
+    <row r="249" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D249" s="98" t="s">
         <v>633</v>
       </c>
-      <c r="E205"/>
-      <c r="F205" s="107"/>
-    </row>
-    <row r="206" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D206" s="98" t="s">
+      <c r="E249"/>
+      <c r="F249" s="107"/>
+    </row>
+    <row r="250" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D250" s="98" t="s">
         <v>634</v>
       </c>
-      <c r="E206"/>
-      <c r="F206" s="107"/>
-    </row>
-    <row r="207" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D207" s="98" t="s">
+      <c r="E250"/>
+      <c r="F250" s="107"/>
+    </row>
+    <row r="251" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D251" s="98" t="s">
         <v>635</v>
       </c>
-      <c r="E207"/>
-      <c r="F207" s="107"/>
-    </row>
-    <row r="208" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D208" s="98" t="s">
+      <c r="E251"/>
+      <c r="F251" s="107"/>
+    </row>
+    <row r="252" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D252" s="98" t="s">
         <v>636</v>
       </c>
-      <c r="E208"/>
-      <c r="F208" s="107"/>
-    </row>
-    <row r="209" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D209"/>
-      <c r="E209"/>
-      <c r="F209" s="107"/>
-    </row>
-    <row r="210" spans="3:6" ht="21">
-      <c r="D210" s="97" t="s">
+      <c r="E252"/>
+      <c r="F252" s="107"/>
+    </row>
+    <row r="253" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253" s="107"/>
+    </row>
+    <row r="254" spans="4:6" ht="21">
+      <c r="D254" s="97" t="s">
         <v>637</v>
       </c>
-      <c r="E210"/>
-      <c r="F210" s="107"/>
-    </row>
-    <row r="211" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D211" s="100" t="s">
+      <c r="E254"/>
+      <c r="F254" s="107"/>
+    </row>
+    <row r="255" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D255" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="E211" s="100" t="s">
+      <c r="E255" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F211" s="107"/>
-    </row>
-    <row r="212" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D212" s="96" t="s">
+      <c r="F255" s="107"/>
+    </row>
+    <row r="256" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D256" s="96" t="s">
         <v>639</v>
       </c>
-      <c r="E212" s="96" t="s">
+      <c r="E256" s="96" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="213" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D213" s="96" t="s">
+    <row r="257" spans="3:5" ht="16.5" customHeight="1">
+      <c r="D257" s="96" t="s">
         <v>640</v>
       </c>
-      <c r="E213" s="96" t="s">
+      <c r="E257" s="96" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="214" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D214" s="96" t="s">
+    <row r="258" spans="3:5" ht="16.5" customHeight="1">
+      <c r="D258" s="96" t="s">
         <v>641</v>
       </c>
-      <c r="E214" s="96" t="s">
+      <c r="E258" s="96" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="215" spans="3:6" ht="16.5" customHeight="1"/>
-    <row r="216" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C216" s="128" t="s">
+    <row r="259" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="260" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C260" s="128" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="217" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C217" s="145" t="s">
+    <row r="261" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C261" s="145" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="218" spans="3:6" ht="58.5" customHeight="1">
-      <c r="C218" s="135"/>
-      <c r="E218" s="107" t="s">
+    <row r="262" spans="3:5" ht="58.5" customHeight="1">
+      <c r="C262" s="135"/>
+      <c r="E262" s="107" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="219" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C219" s="145" t="s">
+    <row r="263" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C263" s="145" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="220" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C220" s="146" t="s">
+    <row r="264" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C264" s="146" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="221" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C221" s="146" t="s">
+    <row r="265" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C265" s="146" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="222" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C222" s="146" t="s">
+    <row r="266" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C266" s="146" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="223" spans="3:6" ht="16.5" customHeight="1"/>
-    <row r="224" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C224" s="128" t="s">
+    <row r="267" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="268" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C268" s="128" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="225" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C225"/>
-    </row>
-    <row r="226" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C226" s="129" t="s">
+    <row r="269" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C269"/>
+    </row>
+    <row r="270" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C270" s="129" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="227" spans="3:5" ht="121.5">
-      <c r="E227" s="150" t="s">
+    <row r="271" spans="3:5" ht="121.5">
+      <c r="E271" s="150" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="228" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C228" t="s">
+    <row r="272" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C272" t="s">
         <v>685</v>
       </c>
-      <c r="D228"/>
-    </row>
-    <row r="229" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C229" s="100" t="s">
+      <c r="D272"/>
+    </row>
+    <row r="273" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C273" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="E229" s="100" t="s">
+      <c r="E273" s="100" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="230" spans="3:5" ht="40.5">
-      <c r="C230" s="147" t="s">
+    <row r="274" spans="3:7" ht="81">
+      <c r="C274" s="147" t="s">
         <v>687</v>
       </c>
-      <c r="E230" s="147" t="s">
+      <c r="E274" s="147" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="231" spans="3:5" ht="26.25" customHeight="1">
-      <c r="C231" s="147" t="s">
+    <row r="275" spans="3:7" ht="26.25" customHeight="1">
+      <c r="C275" s="147" t="s">
         <v>688</v>
       </c>
-      <c r="E231" s="148" t="s">
+      <c r="E275" s="148" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="232" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="233" spans="3:5" s="105" customFormat="1">
-      <c r="C233" s="105" t="s">
+    <row r="276" spans="3:7" ht="16.5" customHeight="1"/>
+    <row r="277" spans="3:7" s="105" customFormat="1">
+      <c r="C277" s="105" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="234" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C234" s="135" t="s">
+    <row r="278" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C278" s="135" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="235" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C235" s="135" t="s">
+    <row r="279" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C279" s="135" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="236" spans="3:5" ht="132.75" customHeight="1">
-      <c r="D236" s="162" t="s">
+    <row r="280" spans="3:7" ht="132.75" customHeight="1">
+      <c r="D280" s="162" t="s">
         <v>713</v>
       </c>
-      <c r="E236" s="163" t="s">
+      <c r="E280" s="163" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="237" spans="3:5" ht="40.5">
-      <c r="E237" s="150" t="s">
+    <row r="281" spans="3:7" ht="40.5">
+      <c r="E281" s="150" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="238" spans="3:5" ht="21">
-      <c r="E238" s="97" t="s">
+    <row r="282" spans="3:7" ht="21">
+      <c r="E282" s="97" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="239" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E239"/>
-    </row>
-    <row r="240" spans="3:5" ht="16.5" customHeight="1">
-      <c r="E240" s="128" t="s">
+    <row r="283" spans="3:7" ht="16.5" customHeight="1">
+      <c r="E283"/>
+    </row>
+    <row r="284" spans="3:7" ht="16.5" customHeight="1">
+      <c r="E284" s="128" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="241" spans="4:7" ht="91.5" customHeight="1">
-      <c r="E241" s="151" t="s">
+    <row r="285" spans="3:7" ht="91.5" customHeight="1">
+      <c r="E285" s="151" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="242" spans="4:7" ht="21" customHeight="1">
-      <c r="E242" s="153" t="s">
+    <row r="286" spans="3:7" ht="21" customHeight="1">
+      <c r="E286" s="153" t="s">
         <v>705</v>
       </c>
-      <c r="G242" s="153"/>
-    </row>
-    <row r="243" spans="4:7" ht="21" customHeight="1">
-      <c r="E243" s="154" t="s">
+      <c r="G286" s="153"/>
+    </row>
+    <row r="287" spans="3:7" ht="21" customHeight="1">
+      <c r="E287" s="154" t="s">
         <v>706</v>
       </c>
-      <c r="G243" s="153"/>
-    </row>
-    <row r="244" spans="4:7" ht="21" customHeight="1">
-      <c r="E244" s="154" t="s">
+      <c r="G287" s="153"/>
+    </row>
+    <row r="288" spans="3:7" ht="21" customHeight="1">
+      <c r="E288" s="154" t="s">
         <v>760</v>
       </c>
-      <c r="G244" s="153"/>
-    </row>
-    <row r="245" spans="4:7" ht="21" customHeight="1">
-      <c r="E245" s="154" t="s">
+      <c r="G288" s="153"/>
+    </row>
+    <row r="289" spans="4:7" ht="21" customHeight="1">
+      <c r="E289" s="154" t="s">
         <v>711</v>
       </c>
-      <c r="G245" s="153"/>
-    </row>
-    <row r="246" spans="4:7" ht="21" customHeight="1">
-      <c r="E246" s="151"/>
-      <c r="G246" s="153"/>
-    </row>
-    <row r="247" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D247" s="104" t="s">
+      <c r="G289" s="153"/>
+    </row>
+    <row r="290" spans="4:7" ht="21" customHeight="1">
+      <c r="E290" s="151"/>
+      <c r="G290" s="153"/>
+    </row>
+    <row r="291" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D291" s="104" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="248" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D248" s="100" t="s">
+    <row r="292" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D292" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="E248" s="142" t="s">
+      <c r="E292" s="142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D249" s="147" t="s">
+    <row r="293" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D293" s="147" t="s">
         <v>714</v>
       </c>
-      <c r="E249" s="157" t="s">
+      <c r="E293" s="157" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="250" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D250" s="147" t="s">
+    <row r="294" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D294" s="147" t="s">
         <v>719</v>
       </c>
-      <c r="E250" s="96" t="s">
+      <c r="E294" s="96" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="251" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D251" s="147" t="s">
+    <row r="295" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D295" s="147" t="s">
         <v>716</v>
       </c>
-      <c r="E251" s="96" t="s">
+      <c r="E295" s="96" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="252" spans="4:7" ht="18.75" customHeight="1">
-      <c r="E252" s="151"/>
-    </row>
-    <row r="253" spans="4:7">
-      <c r="E253" t="s">
+    <row r="296" spans="4:7" ht="18.75" customHeight="1">
+      <c r="E296" s="151"/>
+    </row>
+    <row r="297" spans="4:7">
+      <c r="E297" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="254" spans="4:7" ht="57">
-      <c r="E254" s="158" t="s">
+    <row r="298" spans="4:7" ht="57">
+      <c r="E298" s="158" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="255" spans="4:7" ht="14.25">
-      <c r="E255" s="151" t="s">
+    <row r="299" spans="4:7" ht="14.25">
+      <c r="E299" s="151" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="256" spans="4:7" ht="14.25">
-      <c r="E256" s="151"/>
-    </row>
-    <row r="257" spans="4:6" ht="14.25">
-      <c r="E257" s="151" t="s">
+    <row r="300" spans="4:7" ht="14.25">
+      <c r="E300" s="151"/>
+    </row>
+    <row r="301" spans="4:7" ht="14.25">
+      <c r="E301" s="151" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="258" spans="4:6" ht="57">
-      <c r="E258" s="158" t="s">
+    <row r="302" spans="4:7" ht="57">
+      <c r="E302" s="158" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="259" spans="4:6" ht="14.25">
-      <c r="E259" s="151" t="s">
+    <row r="303" spans="4:7" ht="14.25">
+      <c r="E303" s="151" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="260" spans="4:6" ht="14.25">
-      <c r="E260" s="151"/>
-    </row>
-    <row r="261" spans="4:6" ht="14.25">
-      <c r="E261" s="151" t="s">
+    <row r="304" spans="4:7" ht="14.25">
+      <c r="E304" s="151"/>
+    </row>
+    <row r="305" spans="4:6" ht="14.25">
+      <c r="E305" s="151" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="262" spans="4:6" ht="57">
-      <c r="E262" s="158" t="s">
+    <row r="306" spans="4:6" ht="57">
+      <c r="E306" s="158" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="263" spans="4:6" ht="14.25">
-      <c r="E263" s="151" t="s">
+    <row r="307" spans="4:6" ht="14.25">
+      <c r="E307" s="151" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="264" spans="4:6" ht="18.75" customHeight="1">
-      <c r="E264" s="151"/>
-    </row>
-    <row r="265" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D265" s="97" t="s">
+    <row r="308" spans="4:6" ht="18.75" customHeight="1">
+      <c r="E308" s="151"/>
+    </row>
+    <row r="309" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D309" s="97" t="s">
         <v>732</v>
       </c>
-      <c r="E265"/>
-      <c r="F265"/>
-    </row>
-    <row r="266" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D266"/>
-      <c r="E266"/>
-      <c r="F266"/>
-    </row>
-    <row r="267" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D267" s="142" t="s">
+      <c r="E309"/>
+      <c r="F309"/>
+    </row>
+    <row r="310" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310"/>
+    </row>
+    <row r="311" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D311" s="142" t="s">
         <v>733</v>
       </c>
-      <c r="E267" s="142" t="s">
+      <c r="E311" s="142" t="s">
         <v>734</v>
       </c>
-      <c r="F267" s="142" t="s">
+      <c r="F311" s="142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D268" s="96" t="s">
+    <row r="312" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D312" s="96" t="s">
         <v>761</v>
       </c>
-      <c r="E268" s="96" t="s">
+      <c r="E312" s="96" t="s">
         <v>743</v>
       </c>
-      <c r="F268" s="96" t="s">
+      <c r="F312" s="96" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="269" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D269" s="96" t="s">
+    <row r="313" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D313" s="96" t="s">
         <v>762</v>
       </c>
-      <c r="E269" s="96" t="s">
+      <c r="E313" s="96" t="s">
         <v>736</v>
       </c>
-      <c r="F269" s="96" t="s">
+      <c r="F313" s="96" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="270" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D270" s="99" t="s">
+    <row r="314" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D314" s="99" t="s">
         <v>738</v>
       </c>
-      <c r="E270" s="96" t="s">
+      <c r="E314" s="96" t="s">
         <v>739</v>
       </c>
-      <c r="F270" s="96" t="s">
+      <c r="F314" s="96" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="271" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D271" s="159">
+    <row r="315" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D315" s="159">
         <v>1</v>
       </c>
-      <c r="E271" s="96" t="s">
+      <c r="E315" s="96" t="s">
         <v>741</v>
       </c>
-      <c r="F271" s="96" t="s">
+      <c r="F315" s="96" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="272" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D272" s="159"/>
-      <c r="E272" s="96"/>
-      <c r="F272" s="96"/>
-    </row>
-    <row r="273" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D273" s="97" t="s">
+    <row r="316" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D316" s="159"/>
+      <c r="E316" s="96"/>
+      <c r="F316" s="96"/>
+    </row>
+    <row r="317" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D317" s="97" t="s">
         <v>744</v>
       </c>
-      <c r="E273"/>
-      <c r="F273" s="96"/>
-    </row>
-    <row r="274" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D274" s="98" t="s">
+      <c r="E317"/>
+      <c r="F317" s="96"/>
+    </row>
+    <row r="318" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D318" s="98" t="s">
         <v>745</v>
       </c>
-      <c r="E274"/>
-      <c r="F274" s="96"/>
-    </row>
-    <row r="275" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D275"/>
-      <c r="E275"/>
-      <c r="F275" s="96"/>
-    </row>
-    <row r="276" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D276" s="97" t="s">
+      <c r="E318"/>
+      <c r="F318" s="96"/>
+    </row>
+    <row r="319" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D319"/>
+      <c r="E319"/>
+      <c r="F319" s="96"/>
+    </row>
+    <row r="320" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D320" s="97" t="s">
         <v>746</v>
       </c>
-      <c r="E276"/>
-      <c r="F276" s="96"/>
-    </row>
-    <row r="277" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D277"/>
-      <c r="E277"/>
-      <c r="F277" s="96"/>
-    </row>
-    <row r="278" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D278" s="100" t="s">
+      <c r="E320"/>
+      <c r="F320" s="96"/>
+    </row>
+    <row r="321" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D321"/>
+      <c r="E321"/>
+      <c r="F321" s="96"/>
+    </row>
+    <row r="322" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D322" s="100" t="s">
         <v>747</v>
       </c>
-      <c r="E278" s="100" t="s">
+      <c r="E322" s="100" t="s">
         <v>748</v>
       </c>
-      <c r="F278" s="96"/>
-    </row>
-    <row r="279" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D279" s="147" t="s">
+      <c r="F322" s="96"/>
+    </row>
+    <row r="323" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D323" s="147" t="s">
         <v>749</v>
       </c>
-      <c r="E279" s="147" t="s">
+      <c r="E323" s="147" t="s">
         <v>750</v>
       </c>
-      <c r="F279" s="96"/>
-    </row>
-    <row r="280" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D280" s="147" t="s">
+      <c r="F323" s="96"/>
+    </row>
+    <row r="324" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D324" s="147" t="s">
         <v>751</v>
       </c>
-      <c r="E280" s="147" t="s">
+      <c r="E324" s="147" t="s">
         <v>752</v>
       </c>
-      <c r="F280" s="96"/>
-    </row>
-    <row r="281" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D281" s="147" t="s">
+      <c r="F324" s="96"/>
+    </row>
+    <row r="325" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D325" s="147" t="s">
         <v>753</v>
       </c>
-      <c r="E281" s="147" t="s">
+      <c r="E325" s="147" t="s">
         <v>754</v>
       </c>
-      <c r="F281" s="96"/>
-    </row>
-    <row r="282" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D282"/>
-      <c r="E282"/>
-      <c r="F282" s="96"/>
-    </row>
-    <row r="283" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D283" t="s">
+      <c r="F325" s="96"/>
+    </row>
+    <row r="326" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326" s="96"/>
+    </row>
+    <row r="327" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D327" t="s">
         <v>755</v>
       </c>
-      <c r="E283"/>
-      <c r="F283" s="96"/>
-    </row>
-    <row r="284" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D284"/>
-      <c r="E284"/>
-      <c r="F284" s="96"/>
-    </row>
-    <row r="285" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D285" s="97" t="s">
+      <c r="E327"/>
+      <c r="F327" s="96"/>
+    </row>
+    <row r="328" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D328"/>
+      <c r="E328"/>
+      <c r="F328" s="96"/>
+    </row>
+    <row r="329" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D329" s="97" t="s">
         <v>880</v>
       </c>
-      <c r="E285"/>
-      <c r="F285" s="96"/>
-    </row>
-    <row r="286" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D286" s="98"/>
-      <c r="E286"/>
-      <c r="F286" s="96"/>
-    </row>
-    <row r="287" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D287" s="98" t="s">
+      <c r="E329"/>
+      <c r="F329" s="96"/>
+    </row>
+    <row r="330" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D330" s="98"/>
+      <c r="E330"/>
+      <c r="F330" s="96"/>
+    </row>
+    <row r="331" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D331" s="98" t="s">
         <v>757</v>
       </c>
-      <c r="E287"/>
-      <c r="F287" s="96"/>
-    </row>
-    <row r="288" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D288" s="98" t="s">
+      <c r="E331"/>
+      <c r="F331" s="96"/>
+    </row>
+    <row r="332" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D332" s="98" t="s">
         <v>758</v>
       </c>
-      <c r="E288"/>
-      <c r="F288" s="96"/>
-    </row>
-    <row r="289" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D289" s="98" t="s">
+      <c r="E332"/>
+      <c r="F332" s="96"/>
+    </row>
+    <row r="333" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D333" s="98" t="s">
         <v>759</v>
       </c>
-      <c r="E289"/>
-      <c r="F289" s="96"/>
-    </row>
-    <row r="290" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D290" s="159"/>
-      <c r="E290" s="96"/>
-      <c r="F290" s="96"/>
-    </row>
-    <row r="291" spans="4:6" s="152" customFormat="1" ht="14.25"/>
-    <row r="292" spans="4:6" s="152" customFormat="1" ht="14.25"/>
-    <row r="293" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
-      <c r="E293" s="155" t="s">
+      <c r="E333"/>
+      <c r="F333" s="96"/>
+    </row>
+    <row r="334" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D334" s="159"/>
+      <c r="E334" s="96"/>
+      <c r="F334" s="96"/>
+    </row>
+    <row r="335" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="336" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="337" spans="4:5" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="E337" s="155" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="294" spans="4:6" s="152" customFormat="1" ht="14.25">
-      <c r="E294" s="156" t="s">
+    <row r="338" spans="4:5" s="152" customFormat="1" ht="14.25">
+      <c r="E338" s="156" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="295" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
-      <c r="D295" s="156" t="s">
+    <row r="339" spans="4:5" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="D339" s="156" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="296" spans="4:6" s="152" customFormat="1" ht="71.25">
-      <c r="E296" s="160" t="s">
+    <row r="340" spans="4:5" s="152" customFormat="1" ht="71.25">
+      <c r="E340" s="160" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="297" spans="4:6" s="152" customFormat="1" ht="16.5" customHeight="1">
-      <c r="E297" s="155"/>
-    </row>
-    <row r="298" spans="4:6" ht="16.5" customHeight="1">
-      <c r="E298" s="128"/>
-    </row>
-    <row r="299" spans="4:6" ht="16.5" customHeight="1">
-      <c r="E299" s="128"/>
-    </row>
-    <row r="300" spans="4:6" ht="16.5" customHeight="1">
-      <c r="E300" s="128"/>
-    </row>
-    <row r="301" spans="4:6" ht="16.5" customHeight="1">
-      <c r="E301" s="128"/>
-    </row>
-    <row r="302" spans="4:6" ht="16.5" customHeight="1">
-      <c r="E302" s="128"/>
-    </row>
-    <row r="303" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D303" s="97" t="s">
+    <row r="341" spans="4:5" s="152" customFormat="1" ht="16.5" customHeight="1">
+      <c r="E341" s="155"/>
+    </row>
+    <row r="342" spans="4:5" ht="16.5" customHeight="1">
+      <c r="E342" s="128"/>
+    </row>
+    <row r="343" spans="4:5" ht="16.5" customHeight="1">
+      <c r="E343" s="128"/>
+    </row>
+    <row r="344" spans="4:5" ht="16.5" customHeight="1">
+      <c r="E344" s="128"/>
+    </row>
+    <row r="345" spans="4:5" ht="16.5" customHeight="1">
+      <c r="E345" s="128"/>
+    </row>
+    <row r="346" spans="4:5" ht="16.5" customHeight="1">
+      <c r="E346" s="128"/>
+    </row>
+    <row r="347" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D347" s="97" t="s">
         <v>693</v>
       </c>
-      <c r="E303"/>
-    </row>
-    <row r="304" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D304"/>
-      <c r="E304"/>
-    </row>
-    <row r="305" spans="3:7" ht="16.5" customHeight="1">
-      <c r="D305" s="100" t="s">
+      <c r="E347"/>
+    </row>
+    <row r="348" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D348"/>
+      <c r="E348"/>
+    </row>
+    <row r="349" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D349" s="100" t="s">
         <v>694</v>
       </c>
-      <c r="E305" s="100" t="s">
+      <c r="E349" s="100" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="306" spans="3:7" ht="16.5" customHeight="1">
-      <c r="D306" s="147" t="s">
+    <row r="350" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D350" s="147" t="s">
         <v>695</v>
       </c>
-      <c r="E306" s="147" t="s">
+      <c r="E350" s="147" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="307" spans="3:7" ht="16.5" customHeight="1">
-      <c r="D307" s="147" t="s">
+    <row r="351" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D351" s="147" t="s">
         <v>697</v>
       </c>
-      <c r="E307" s="149" t="s">
+      <c r="E351" s="149" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="308" spans="3:7" ht="16.5" customHeight="1">
-      <c r="D308" s="147" t="s">
+    <row r="352" spans="4:5" ht="16.5" customHeight="1">
+      <c r="D352" s="147" t="s">
         <v>699</v>
       </c>
-      <c r="E308" s="147" t="s">
+      <c r="E352" s="147" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="309" spans="3:7" ht="16.5" customHeight="1"/>
-    <row r="310" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C310" s="147"/>
-      <c r="E310" s="147"/>
-    </row>
-    <row r="311" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C311" s="147"/>
-      <c r="E311" s="147"/>
-    </row>
-    <row r="312" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C312" s="128" t="s">
+    <row r="353" spans="3:7" ht="16.5" customHeight="1"/>
+    <row r="354" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C354" s="147"/>
+      <c r="E354" s="147"/>
+    </row>
+    <row r="355" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C355" s="147"/>
+      <c r="E355" s="147"/>
+    </row>
+    <row r="356" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C356" s="128" t="s">
         <v>770</v>
       </c>
-      <c r="E312" s="147"/>
-    </row>
-    <row r="313" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C313"/>
-      <c r="E313" s="147"/>
-    </row>
-    <row r="314" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C314" s="129" t="s">
+      <c r="E356" s="147"/>
+    </row>
+    <row r="357" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C357"/>
+      <c r="E357" s="147"/>
+    </row>
+    <row r="358" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C358" s="129" t="s">
         <v>771</v>
       </c>
-      <c r="E314" s="147"/>
-    </row>
-    <row r="315" spans="3:7" ht="121.5">
-      <c r="C315" s="147"/>
-      <c r="E315" s="147" t="s">
+      <c r="E358" s="147"/>
+    </row>
+    <row r="359" spans="3:7" ht="121.5">
+      <c r="C359" s="147"/>
+      <c r="E359" s="147" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="316" spans="3:7" ht="40.5">
-      <c r="C316" s="147"/>
-      <c r="E316" s="147" t="s">
+    <row r="360" spans="3:7" ht="40.5">
+      <c r="C360" s="147"/>
+      <c r="E360" s="147" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="317" spans="3:7" ht="54">
-      <c r="C317" s="147"/>
-      <c r="E317" s="147" t="s">
+    <row r="361" spans="3:7" ht="54">
+      <c r="C361" s="147"/>
+      <c r="E361" s="147" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="318" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C318" s="147"/>
-      <c r="E318" s="147"/>
-    </row>
-    <row r="319" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C319" s="147"/>
-      <c r="E319" s="97" t="s">
+    <row r="362" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C362" s="147"/>
+      <c r="E362" s="147"/>
+    </row>
+    <row r="363" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C363" s="147"/>
+      <c r="E363" s="97" t="s">
         <v>775</v>
       </c>
-      <c r="F319"/>
-      <c r="G319"/>
-    </row>
-    <row r="320" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C320" s="147"/>
-      <c r="E320"/>
-      <c r="F320"/>
-      <c r="G320"/>
-    </row>
-    <row r="321" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C321" s="147"/>
-      <c r="E321" t="s">
+      <c r="F363"/>
+      <c r="G363"/>
+    </row>
+    <row r="364" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C364" s="147"/>
+      <c r="E364"/>
+      <c r="F364"/>
+      <c r="G364"/>
+    </row>
+    <row r="365" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C365" s="147"/>
+      <c r="E365" t="s">
         <v>776</v>
       </c>
-      <c r="F321"/>
-      <c r="G321"/>
-    </row>
-    <row r="322" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C322" s="147"/>
-      <c r="E322" s="164" t="s">
+      <c r="F365"/>
+      <c r="G365"/>
+    </row>
+    <row r="366" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C366" s="147"/>
+      <c r="E366" s="164" t="s">
         <v>777</v>
       </c>
-      <c r="F322" s="164" t="s">
+      <c r="F366" s="164" t="s">
         <v>778</v>
       </c>
-      <c r="G322" s="164" t="s">
+      <c r="G366" s="164" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="323" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C323" s="147"/>
-      <c r="E323" s="165">
+    <row r="367" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C367" s="147"/>
+      <c r="E367" s="165">
         <v>101</v>
       </c>
-      <c r="F323" s="165" t="s">
+      <c r="F367" s="165" t="s">
         <v>780</v>
       </c>
-      <c r="G323" s="165" t="s">
+      <c r="G367" s="165" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="324" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C324" s="147"/>
-      <c r="E324" s="165">
+    <row r="368" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C368" s="147"/>
+      <c r="E368" s="165">
         <v>102</v>
       </c>
-      <c r="F324" s="165" t="s">
+      <c r="F368" s="165" t="s">
         <v>782</v>
       </c>
-      <c r="G324" s="165">
+      <c r="G368" s="165">
         <v>101</v>
       </c>
     </row>
-    <row r="325" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C325" s="147"/>
-      <c r="E325" s="165">
+    <row r="369" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C369" s="147"/>
+      <c r="E369" s="165">
         <v>103</v>
       </c>
-      <c r="F325" s="165" t="s">
+      <c r="F369" s="165" t="s">
         <v>783</v>
       </c>
-      <c r="G325" s="165">
+      <c r="G369" s="165">
         <v>101</v>
       </c>
     </row>
-    <row r="326" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C326" s="147"/>
-      <c r="E326" s="165">
+    <row r="370" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C370" s="147"/>
+      <c r="E370" s="165">
         <v>104</v>
       </c>
-      <c r="F326" s="165" t="s">
+      <c r="F370" s="165" t="s">
         <v>784</v>
       </c>
-      <c r="G326" s="165">
+      <c r="G370" s="165">
         <v>102</v>
       </c>
     </row>
-    <row r="327" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C327" s="147"/>
-      <c r="E327" s="147"/>
-    </row>
-    <row r="328" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C328" s="147"/>
-      <c r="E328" s="166" t="s">
+    <row r="371" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C371" s="147"/>
+      <c r="E371" s="147"/>
+    </row>
+    <row r="372" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C372" s="147"/>
+      <c r="E372" s="166" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="329" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C329" s="147"/>
-      <c r="E329" s="166" t="s">
+    <row r="373" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C373" s="147"/>
+      <c r="E373" s="166" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="330" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C330" s="147"/>
-      <c r="E330" s="128" t="s">
+    <row r="374" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C374" s="147"/>
+      <c r="E374" s="128" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="331" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C331" s="147"/>
-      <c r="E331" s="98" t="s">
+    <row r="375" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C375" s="147"/>
+      <c r="E375" s="98" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="332" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C332" s="147"/>
-      <c r="E332" s="98" t="s">
+    <row r="376" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C376" s="147"/>
+      <c r="E376" s="98" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="333" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C333" s="147"/>
-      <c r="E333" s="168" t="s">
+    <row r="377" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C377" s="147"/>
+      <c r="E377" s="168" t="s">
         <v>790</v>
       </c>
-      <c r="F333" s="168" t="s">
+      <c r="F377" s="168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C334" s="147"/>
-      <c r="E334" s="159" t="s">
+    <row r="378" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C378" s="147"/>
+      <c r="E378" s="159" t="s">
         <v>791</v>
       </c>
-      <c r="F334" s="170" t="s">
+      <c r="F378" s="170" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="335" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C335" s="147"/>
-      <c r="E335" s="169" t="s">
+    <row r="379" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C379" s="147"/>
+      <c r="E379" s="169" t="s">
         <v>793</v>
       </c>
-      <c r="F335" s="170" t="s">
+      <c r="F379" s="170" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="336" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C336" s="147"/>
-      <c r="E336" s="159" t="s">
+    <row r="380" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C380" s="147"/>
+      <c r="E380" s="159" t="s">
         <v>795</v>
       </c>
-      <c r="F336" s="169" t="s">
+      <c r="F380" s="169" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="337" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C337" s="147"/>
-      <c r="E337" s="147"/>
-    </row>
-    <row r="338" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C338" s="147"/>
-      <c r="E338" s="128" t="s">
+    <row r="381" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C381" s="147"/>
+      <c r="E381" s="147"/>
+    </row>
+    <row r="382" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C382" s="147"/>
+      <c r="E382" s="128" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="339" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C339" s="147"/>
-      <c r="E339" s="171" t="s">
+    <row r="383" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C383" s="147"/>
+      <c r="E383" s="171" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="340" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E340" s="98" t="s">
+    <row r="384" spans="3:7" ht="16.5" customHeight="1">
+      <c r="E384" s="98" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="341" spans="3:6" ht="16.5" customHeight="1"/>
-    <row r="342" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E342" t="s">
+    <row r="385" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="386" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E386" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="343" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E343" s="164" t="s">
+    <row r="387" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E387" s="164" t="s">
         <v>801</v>
       </c>
-      <c r="F343" s="164" t="s">
+      <c r="F387" s="164" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="344" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E344" s="165" t="s">
+    <row r="388" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E388" s="165" t="s">
         <v>780</v>
       </c>
-      <c r="F344" s="165" t="s">
+      <c r="F388" s="165" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="345" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E345" s="165" t="s">
+    <row r="389" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E389" s="165" t="s">
         <v>780</v>
       </c>
-      <c r="F345" s="165" t="s">
+      <c r="F389" s="165" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="346" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E346" s="165" t="s">
+    <row r="390" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E390" s="165" t="s">
         <v>782</v>
       </c>
-      <c r="F346" s="165" t="s">
+      <c r="F390" s="165" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="347" spans="3:6" ht="16.5" customHeight="1"/>
-    <row r="348" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E348" s="129" t="s">
+    <row r="391" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="392" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E392" s="129" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="349" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E349" s="168" t="s">
+    <row r="393" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E393" s="168" t="s">
         <v>318</v>
       </c>
-      <c r="F349" s="168" t="s">
+      <c r="F393" s="168" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="350" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E350" s="169" t="s">
+    <row r="394" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E394" s="169" t="s">
         <v>805</v>
       </c>
-      <c r="F350" s="169" t="s">
+      <c r="F394" s="169" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="351" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E351" s="169" t="s">
+    <row r="395" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E395" s="169" t="s">
         <v>807</v>
       </c>
-      <c r="F351" s="169" t="s">
+      <c r="F395" s="169" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="352" spans="3:6" ht="16.5" customHeight="1">
-      <c r="E352" s="169" t="s">
+    <row r="396" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E396" s="169" t="s">
         <v>809</v>
       </c>
-      <c r="F352" s="169" t="s">
+      <c r="F396" s="169" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="353" spans="5:6" ht="16.5" customHeight="1"/>
-    <row r="354" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E354" s="129" t="s">
+    <row r="397" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="398" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E398" s="129" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="355" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E355" s="168" t="s">
+    <row r="399" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E399" s="168" t="s">
         <v>328</v>
       </c>
-      <c r="F355" s="168" t="s">
+      <c r="F399" s="168" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="356" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E356" s="159" t="s">
+    <row r="400" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E400" s="159" t="s">
         <v>812</v>
       </c>
-      <c r="F356" s="169" t="s">
+      <c r="F400" s="169" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="357" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E357" s="169" t="s">
+    <row r="401" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E401" s="169" t="s">
         <v>814</v>
       </c>
-      <c r="F357" s="169" t="s">
+      <c r="F401" s="169" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="358" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E358" s="169" t="s">
+    <row r="402" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E402" s="169" t="s">
         <v>816</v>
       </c>
-      <c r="F358" s="169" t="s">
+      <c r="F402" s="169" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="359" spans="5:6" ht="16.5" customHeight="1"/>
-    <row r="360" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E360" s="172" t="s">
+    <row r="403" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="404" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E404" s="172" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="361" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E361" s="168" t="s">
+    <row r="405" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E405" s="168" t="s">
         <v>790</v>
       </c>
-      <c r="F361" s="168" t="s">
+      <c r="F405" s="168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E362" s="169" t="s">
+    <row r="406" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E406" s="169" t="s">
         <v>819</v>
       </c>
-      <c r="F362" s="169" t="s">
+      <c r="F406" s="169" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="363" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E363" s="169" t="s">
+    <row r="407" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E407" s="169" t="s">
         <v>821</v>
       </c>
-      <c r="F363" s="173" t="s">
+      <c r="F407" s="173" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="364" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E364" s="169" t="s">
+    <row r="408" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E408" s="169" t="s">
         <v>822</v>
       </c>
-      <c r="F364" s="170" t="s">
+      <c r="F408" s="170" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="366" spans="5:6">
-      <c r="E366" t="s">
+    <row r="410" spans="5:6">
+      <c r="E410" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="367" spans="5:6">
-      <c r="E367" s="168" t="s">
+    <row r="411" spans="5:6">
+      <c r="E411" s="168" t="s">
         <v>318</v>
       </c>
-      <c r="F367" s="168" t="s">
+      <c r="F411" s="168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="5:6">
-      <c r="E368" s="169" t="s">
+    <row r="412" spans="5:6">
+      <c r="E412" s="169" t="s">
         <v>825</v>
       </c>
-      <c r="F368" s="169" t="s">
+      <c r="F412" s="169" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="369" spans="5:6">
-      <c r="E369" s="169" t="s">
+    <row r="413" spans="5:6">
+      <c r="E413" s="169" t="s">
         <v>827</v>
       </c>
-      <c r="F369" s="169" t="s">
+      <c r="F413" s="169" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="370" spans="5:6">
-      <c r="E370" s="169" t="s">
+    <row r="414" spans="5:6">
+      <c r="E414" s="169" t="s">
         <v>803</v>
       </c>
-      <c r="F370" s="169" t="s">
+      <c r="F414" s="169" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="372" spans="5:6">
-      <c r="E372" s="174" t="s">
+    <row r="416" spans="5:6">
+      <c r="E416" s="174" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="373" spans="5:6">
-      <c r="E373" t="s">
+    <row r="417" spans="5:5">
+      <c r="E417" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="374" spans="5:6">
-      <c r="E374" t="s">
+    <row r="418" spans="5:5">
+      <c r="E418" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="376" spans="5:6">
-      <c r="E376" s="174"/>
-    </row>
-    <row r="377" spans="5:6">
-      <c r="E377" t="s">
+    <row r="420" spans="5:5">
+      <c r="E420" s="174"/>
+    </row>
+    <row r="421" spans="5:5">
+      <c r="E421" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="378" spans="5:6">
-      <c r="E378" s="101" t="s">
+    <row r="422" spans="5:5">
+      <c r="E422" s="101" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="379" spans="5:6">
-      <c r="E379" s="98" t="s">
+    <row r="423" spans="5:5">
+      <c r="E423" s="98" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="380" spans="5:6">
-      <c r="E380" s="98"/>
-    </row>
-    <row r="381" spans="5:6">
-      <c r="E381" t="s">
+    <row r="424" spans="5:5">
+      <c r="E424" s="98"/>
+    </row>
+    <row r="425" spans="5:5">
+      <c r="E425" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="382" spans="5:6">
-      <c r="E382" s="129" t="s">
+    <row r="426" spans="5:5">
+      <c r="E426" s="129" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="383" spans="5:6">
-      <c r="E383" t="s">
+    <row r="427" spans="5:5">
+      <c r="E427" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="385" spans="5:6" ht="16.5">
-      <c r="E385" s="128" t="s">
+    <row r="429" spans="5:5" ht="16.5">
+      <c r="E429" s="128" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="386" spans="5:6">
-      <c r="E386" s="98" t="s">
+    <row r="430" spans="5:5">
+      <c r="E430" s="98" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="388" spans="5:6">
-      <c r="E388" t="s">
+    <row r="432" spans="5:5">
+      <c r="E432" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="389" spans="5:6">
-      <c r="E389" s="168" t="s">
+    <row r="433" spans="3:6">
+      <c r="E433" s="168" t="s">
         <v>638</v>
       </c>
-      <c r="F389" s="168" t="s">
+      <c r="F433" s="168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="5:6">
-      <c r="E390" s="169" t="s">
+    <row r="434" spans="3:6">
+      <c r="E434" s="169" t="s">
         <v>842</v>
       </c>
-      <c r="F390" s="168" t="s">
+      <c r="F434" s="168" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="391" spans="5:6">
-      <c r="E391" s="169" t="s">
+    <row r="435" spans="3:6">
+      <c r="E435" s="169" t="s">
         <v>844</v>
       </c>
-      <c r="F391" s="169" t="s">
+      <c r="F435" s="169" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="392" spans="5:6">
-      <c r="E392" s="169" t="s">
+    <row r="436" spans="3:6">
+      <c r="E436" s="169" t="s">
         <v>819</v>
       </c>
-      <c r="F392" s="169" t="s">
+      <c r="F436" s="169" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="393" spans="5:6">
-      <c r="E393" s="169" t="s">
+    <row r="437" spans="3:6">
+      <c r="E437" s="169" t="s">
         <v>847</v>
       </c>
-      <c r="F393" s="169" t="s">
+      <c r="F437" s="169" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="395" spans="5:6">
-      <c r="E395" t="s">
+    <row r="439" spans="3:6">
+      <c r="E439" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="396" spans="5:6">
-      <c r="E396" s="168" t="s">
+    <row r="440" spans="3:6">
+      <c r="E440" s="168" t="s">
         <v>328</v>
       </c>
-      <c r="F396" s="168" t="s">
+      <c r="F440" s="168" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="397" spans="5:6">
-      <c r="E397" s="169" t="s">
+    <row r="441" spans="3:6">
+      <c r="E441" s="169" t="s">
         <v>850</v>
       </c>
-      <c r="F397" s="168" t="s">
+      <c r="F441" s="168" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="398" spans="5:6">
-      <c r="E398" s="169" t="s">
+    <row r="442" spans="3:6">
+      <c r="E442" s="169" t="s">
         <v>852</v>
       </c>
-      <c r="F398" s="159" t="s">
+      <c r="F442" s="159" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="399" spans="5:6">
-      <c r="E399" s="169" t="s">
+    <row r="443" spans="3:6">
+      <c r="E443" s="169" t="s">
         <v>854</v>
       </c>
-      <c r="F399" s="159" t="s">
+      <c r="F443" s="159" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="401" spans="3:7">
-      <c r="E401" s="179" t="s">
+    <row r="445" spans="3:6">
+      <c r="E445" s="179" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="402" spans="3:7" ht="175.5">
-      <c r="E402" s="175" t="s">
+    <row r="446" spans="3:6" ht="175.5">
+      <c r="E446" s="175" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="403" spans="3:7" ht="54">
-      <c r="C403" s="104" t="s">
+    <row r="447" spans="3:6" ht="54">
+      <c r="C447" s="104" t="s">
         <v>878</v>
       </c>
-      <c r="E403" s="176" t="s">
+      <c r="E447" s="176" t="s">
         <v>859</v>
       </c>
-      <c r="F403" s="107"/>
-    </row>
-    <row r="404" spans="3:7" ht="27">
-      <c r="E404" s="107" t="s">
+      <c r="F447" s="107"/>
+    </row>
+    <row r="448" spans="3:6" ht="27">
+      <c r="E448" s="107" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="405" spans="3:7" ht="54">
-      <c r="C405" s="104" t="s">
+    <row r="449" spans="3:7" ht="54">
+      <c r="C449" s="104" t="s">
         <v>879</v>
       </c>
-      <c r="E405" s="176" t="s">
+      <c r="E449" s="176" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="406" spans="3:7">
-      <c r="E406" s="107"/>
-    </row>
-    <row r="407" spans="3:7" ht="14.25">
-      <c r="E407" t="s">
+    <row r="450" spans="3:7">
+      <c r="E450" s="107"/>
+    </row>
+    <row r="451" spans="3:7" ht="14.25">
+      <c r="E451" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="408" spans="3:7" ht="14.25">
-      <c r="E408" t="s">
+    <row r="452" spans="3:7" ht="14.25">
+      <c r="E452" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="409" spans="3:7">
-      <c r="E409" s="164" t="s">
+    <row r="453" spans="3:7">
+      <c r="E453" s="164" t="s">
         <v>862</v>
       </c>
-      <c r="F409" s="164" t="s">
+      <c r="F453" s="164" t="s">
         <v>863</v>
       </c>
-      <c r="G409" s="164" t="s">
+      <c r="G453" s="164" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="410" spans="3:7">
-      <c r="E410" s="167" t="s">
+    <row r="454" spans="3:7">
+      <c r="E454" s="167" t="s">
         <v>865</v>
       </c>
-      <c r="F410" s="165" t="s">
+      <c r="F454" s="165" t="s">
         <v>866</v>
       </c>
-      <c r="G410" s="165" t="s">
+      <c r="G454" s="165" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="411" spans="3:7">
-      <c r="E411" s="167" t="s">
+    <row r="455" spans="3:7">
+      <c r="E455" s="167" t="s">
         <v>868</v>
       </c>
-      <c r="F411" s="165" t="s">
+      <c r="F455" s="165" t="s">
         <v>869</v>
       </c>
-      <c r="G411" s="165" t="s">
+      <c r="G455" s="165" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="412" spans="3:7">
-      <c r="E412" s="107"/>
-    </row>
-    <row r="413" spans="3:7" ht="16.5">
-      <c r="E413" s="128" t="s">
+    <row r="456" spans="3:7">
+      <c r="E456" s="107"/>
+    </row>
+    <row r="457" spans="3:7" ht="16.5">
+      <c r="E457" s="128" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="414" spans="3:7" ht="14.25">
-      <c r="E414" t="s">
+    <row r="458" spans="3:7" ht="14.25">
+      <c r="E458" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="415" spans="3:7" ht="175.5">
-      <c r="E415" s="107" t="s">
+    <row r="459" spans="3:7" ht="175.5">
+      <c r="E459" s="107" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="416" spans="3:7">
-      <c r="E416" s="107"/>
-    </row>
-    <row r="417" spans="3:5" ht="14.25">
-      <c r="E417" s="177" t="s">
+    <row r="460" spans="3:7">
+      <c r="E460" s="107"/>
+    </row>
+    <row r="461" spans="3:7" ht="14.25">
+      <c r="E461" s="177" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="418" spans="3:5">
-      <c r="E418" s="98"/>
-    </row>
-    <row r="419" spans="3:5">
-      <c r="E419" s="171" t="s">
+    <row r="462" spans="3:7">
+      <c r="E462" s="98"/>
+    </row>
+    <row r="463" spans="3:7">
+      <c r="E463" s="171" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="420" spans="3:5">
-      <c r="E420" s="101" t="s">
+    <row r="464" spans="3:7">
+      <c r="E464" s="101" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="421" spans="3:5">
-      <c r="E421" s="98" t="s">
+    <row r="465" spans="2:5">
+      <c r="E465" s="98" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="422" spans="3:5">
-      <c r="E422" s="107"/>
-    </row>
-    <row r="423" spans="3:5">
-      <c r="C423" s="129" t="s">
+    <row r="466" spans="2:5">
+      <c r="E466" s="107"/>
+    </row>
+    <row r="467" spans="2:5">
+      <c r="C467" s="129" t="s">
         <v>881</v>
       </c>
-      <c r="E423" s="107"/>
-    </row>
-    <row r="424" spans="3:5">
-      <c r="C424" s="100" t="s">
+      <c r="E467" s="107"/>
+    </row>
+    <row r="468" spans="2:5">
+      <c r="C468" s="100" t="s">
         <v>882</v>
       </c>
-      <c r="D424" s="100" t="s">
+      <c r="D468" s="100" t="s">
         <v>631</v>
       </c>
-      <c r="E424" s="107"/>
-    </row>
-    <row r="425" spans="3:5" ht="27">
-      <c r="C425" s="147" t="s">
+      <c r="E468" s="107"/>
+    </row>
+    <row r="469" spans="2:5" ht="40.5">
+      <c r="C469" s="147" t="s">
         <v>883</v>
       </c>
-      <c r="D425" s="96" t="s">
+      <c r="D469" s="96" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="426" spans="3:5" ht="27">
-      <c r="C426" s="147" t="s">
+    <row r="470" spans="2:5" ht="40.5">
+      <c r="C470" s="147" t="s">
         <v>885</v>
       </c>
-      <c r="D426" s="96" t="s">
+      <c r="D470" s="96" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="427" spans="3:5" ht="27">
-      <c r="C427" s="147" t="s">
+    <row r="471" spans="2:5" ht="40.5">
+      <c r="C471" s="147" t="s">
         <v>887</v>
       </c>
-      <c r="D427" s="96" t="s">
+      <c r="D471" s="96" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="428" spans="3:5">
-      <c r="D428" s="104" t="s">
+    <row r="472" spans="2:5">
+      <c r="D472" s="104" t="s">
         <v>889</v>
       </c>
-      <c r="E428" s="107"/>
-    </row>
-    <row r="429" spans="3:5">
-      <c r="D429" s="104" t="s">
+      <c r="E472" s="107"/>
+    </row>
+    <row r="473" spans="2:5">
+      <c r="D473" s="104" t="s">
         <v>890</v>
       </c>
-      <c r="E429" s="107"/>
-    </row>
-    <row r="430" spans="3:5">
-      <c r="E430" s="107"/>
-    </row>
-    <row r="435" spans="2:5" ht="16.5">
-      <c r="B435" s="106" t="s">
+      <c r="E473" s="107"/>
+    </row>
+    <row r="474" spans="2:5">
+      <c r="E474" s="107"/>
+    </row>
+    <row r="479" spans="2:5" ht="16.5">
+      <c r="B479" s="106" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="436" spans="2:5" ht="16.5">
-      <c r="B436" s="106"/>
-      <c r="C436" s="105" t="s">
+    <row r="480" spans="2:5" ht="16.5">
+      <c r="B480" s="106"/>
+      <c r="C480" s="105" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="437" spans="2:5" ht="16.5">
-      <c r="B437" s="106"/>
-      <c r="C437" s="105"/>
-      <c r="D437" s="104" t="s">
+    <row r="481" spans="2:5" ht="16.5">
+      <c r="B481" s="106"/>
+      <c r="C481" s="105"/>
+      <c r="D481" s="104" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="438" spans="2:5" ht="54">
-      <c r="B438" s="106"/>
-      <c r="E438" s="107" t="s">
+    <row r="482" spans="2:5" ht="54">
+      <c r="B482" s="106"/>
+      <c r="E482" s="107" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="439" spans="2:5" ht="16.5">
-      <c r="B439" s="106"/>
-      <c r="E439" s="107"/>
-    </row>
-    <row r="440" spans="2:5" ht="21">
-      <c r="B440" s="106"/>
-      <c r="D440" s="109" t="s">
+    <row r="483" spans="2:5" ht="16.5">
+      <c r="B483" s="106"/>
+      <c r="E483" s="107"/>
+    </row>
+    <row r="484" spans="2:5" ht="21">
+      <c r="B484" s="106"/>
+      <c r="D484" s="109" t="s">
         <v>529</v>
       </c>
-      <c r="E440" s="107"/>
-    </row>
-    <row r="441" spans="2:5" ht="16.5">
-      <c r="B441" s="106"/>
-      <c r="D441" s="112" t="s">
+      <c r="E484" s="107"/>
+    </row>
+    <row r="485" spans="2:5" ht="16.5">
+      <c r="B485" s="106"/>
+      <c r="D485" s="112" t="s">
         <v>530</v>
       </c>
-      <c r="E441" s="107"/>
-    </row>
-    <row r="442" spans="2:5" ht="16.5">
-      <c r="B442" s="106"/>
-      <c r="D442" s="110" t="s">
+      <c r="E485" s="107"/>
+    </row>
+    <row r="486" spans="2:5" ht="16.5">
+      <c r="B486" s="106"/>
+      <c r="D486" s="110" t="s">
         <v>526</v>
       </c>
-      <c r="E442" s="107"/>
-    </row>
-    <row r="443" spans="2:5" ht="16.5">
-      <c r="B443" s="106"/>
-      <c r="D443" s="110"/>
-      <c r="E443" s="107"/>
-    </row>
-    <row r="444" spans="2:5" ht="16.5">
-      <c r="B444" s="106"/>
-      <c r="D444" s="110" t="s">
+      <c r="E486" s="107"/>
+    </row>
+    <row r="487" spans="2:5" ht="16.5">
+      <c r="B487" s="106"/>
+      <c r="D487" s="110"/>
+      <c r="E487" s="107"/>
+    </row>
+    <row r="488" spans="2:5" ht="16.5">
+      <c r="B488" s="106"/>
+      <c r="D488" s="110" t="s">
         <v>527</v>
       </c>
-      <c r="E444" s="111">
+      <c r="E488" s="111">
         <v>100</v>
       </c>
     </row>
-    <row r="445" spans="2:5" ht="16.5">
-      <c r="B445" s="106"/>
-      <c r="D445" s="110"/>
-      <c r="E445" s="111" t="s">
+    <row r="489" spans="2:5" ht="16.5">
+      <c r="B489" s="106"/>
+      <c r="D489" s="110"/>
+      <c r="E489" s="111" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="446" spans="2:5" ht="16.5">
-      <c r="B446" s="106"/>
-      <c r="E446" s="113">
+    <row r="490" spans="2:5" ht="16.5">
+      <c r="B490" s="106"/>
+      <c r="E490" s="113">
         <v>45869</v>
       </c>
     </row>
-    <row r="447" spans="2:5" ht="16.5">
-      <c r="B447" s="106"/>
-      <c r="E447" s="107"/>
-    </row>
-    <row r="448" spans="2:5" ht="16.5">
-      <c r="B448" s="106"/>
-      <c r="C448" s="105" t="s">
+    <row r="491" spans="2:5" ht="16.5">
+      <c r="B491" s="106"/>
+      <c r="E491" s="107"/>
+    </row>
+    <row r="492" spans="2:5" ht="16.5">
+      <c r="B492" s="106"/>
+      <c r="C492" s="105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="449" spans="2:6" ht="16.5">
-      <c r="B449" s="106"/>
-      <c r="C449" s="104" t="s">
+    <row r="493" spans="2:5" ht="16.5">
+      <c r="B493" s="106"/>
+      <c r="C493" s="104" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="450" spans="2:6" ht="16.5">
-      <c r="B450" s="106"/>
-      <c r="C450" s="105" t="s">
+    <row r="494" spans="2:5" ht="16.5">
+      <c r="B494" s="106"/>
+      <c r="C494" s="105" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="451" spans="2:6" ht="16.5">
-      <c r="B451" s="106"/>
-    </row>
-    <row r="452" spans="2:6" s="152" customFormat="1" ht="14.25">
-      <c r="B452" s="194"/>
-      <c r="C452" s="177" t="s">
+    <row r="495" spans="2:5" ht="16.5">
+      <c r="B495" s="106"/>
+    </row>
+    <row r="496" spans="2:5" s="152" customFormat="1" ht="14.25">
+      <c r="B496" s="194"/>
+      <c r="C496" s="177" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="453" spans="2:6" s="193" customFormat="1" ht="12">
-      <c r="B453" s="192"/>
-      <c r="C453" s="196" t="s">
+    <row r="497" spans="2:6" s="193" customFormat="1" ht="12">
+      <c r="B497" s="192"/>
+      <c r="C497" s="196" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="454" spans="2:6" ht="16.5">
-      <c r="B454" s="106"/>
-      <c r="C454" s="146" t="s">
+    <row r="498" spans="2:6" ht="16.5">
+      <c r="B498" s="106"/>
+      <c r="C498" s="146" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="455" spans="2:6" ht="16.5">
-      <c r="B455" s="106"/>
-      <c r="C455" s="187" t="s">
+    <row r="499" spans="2:6" ht="16.5">
+      <c r="B499" s="106"/>
+      <c r="C499" s="187" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="456" spans="2:6" ht="16.5">
-      <c r="B456" s="106"/>
-      <c r="C456" s="187" t="s">
+    <row r="500" spans="2:6" ht="16.5">
+      <c r="B500" s="106"/>
+      <c r="C500" s="187" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="457" spans="2:6" ht="16.5">
-      <c r="B457" s="106"/>
-      <c r="C457" s="188" t="s">
+    <row r="501" spans="2:6" ht="16.5">
+      <c r="B501" s="106"/>
+      <c r="C501" s="188" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="458" spans="2:6" ht="16.5">
-      <c r="B458" s="106"/>
-      <c r="C458" s="191" t="s">
+    <row r="502" spans="2:6" ht="16.5">
+      <c r="B502" s="106"/>
+      <c r="C502" s="191" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="459" spans="2:6">
-      <c r="C459" s="189"/>
-    </row>
-    <row r="460" spans="2:6" s="193" customFormat="1" ht="12">
-      <c r="C460" s="196" t="s">
+    <row r="503" spans="2:6">
+      <c r="C503" s="189"/>
+    </row>
+    <row r="504" spans="2:6" s="193" customFormat="1" ht="12">
+      <c r="C504" s="196" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="461" spans="2:6">
-      <c r="C461" s="146" t="s">
+    <row r="505" spans="2:6">
+      <c r="C505" s="146" t="s">
         <v>898</v>
       </c>
-      <c r="F461" s="107"/>
-    </row>
-    <row r="462" spans="2:6">
-      <c r="C462" s="146" t="s">
+      <c r="F505" s="107"/>
+    </row>
+    <row r="506" spans="2:6">
+      <c r="C506" s="146" t="s">
         <v>899</v>
       </c>
-      <c r="F462" s="107"/>
-    </row>
-    <row r="463" spans="2:6">
-      <c r="C463" s="98"/>
-      <c r="F463" s="107"/>
-    </row>
-    <row r="464" spans="2:6" s="152" customFormat="1" ht="14.25">
-      <c r="C464" s="177" t="s">
+      <c r="F506" s="107"/>
+    </row>
+    <row r="507" spans="2:6">
+      <c r="C507" s="98"/>
+      <c r="F507" s="107"/>
+    </row>
+    <row r="508" spans="2:6" s="152" customFormat="1" ht="14.25">
+      <c r="C508" s="177" t="s">
         <v>900</v>
       </c>
-      <c r="F464" s="195"/>
-    </row>
-    <row r="465" spans="3:6">
-      <c r="C465"/>
-      <c r="F465" s="107"/>
-    </row>
-    <row r="466" spans="3:6" s="193" customFormat="1" ht="12">
-      <c r="C466" s="196" t="s">
+      <c r="F508" s="195"/>
+    </row>
+    <row r="509" spans="2:6">
+      <c r="C509"/>
+      <c r="F509" s="107"/>
+    </row>
+    <row r="510" spans="2:6" s="193" customFormat="1" ht="12">
+      <c r="C510" s="196" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="467" spans="3:6" ht="16.5">
-      <c r="C467" s="190" t="s">
+    <row r="511" spans="2:6" ht="16.5">
+      <c r="C511" s="190" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="468" spans="3:6" ht="67.5">
-      <c r="C468" s="190"/>
-      <c r="E468" s="107" t="s">
+    <row r="512" spans="2:6" ht="67.5">
+      <c r="C512" s="190"/>
+      <c r="E512" s="107" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="469" spans="3:6" ht="16.5">
-      <c r="C469" s="190"/>
-      <c r="D469" t="s">
+    <row r="513" spans="3:5" ht="16.5">
+      <c r="C513" s="190"/>
+      <c r="D513" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="470" spans="3:6" ht="16.5">
-      <c r="C470" s="190"/>
-      <c r="D470" t="s">
+    <row r="514" spans="3:5" ht="16.5">
+      <c r="C514" s="190"/>
+      <c r="D514" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="471" spans="3:6" ht="16.5">
-      <c r="C471" s="190"/>
-      <c r="D471" s="129" t="s">
+    <row r="515" spans="3:5" ht="16.5">
+      <c r="C515" s="190"/>
+      <c r="D515" s="129" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="472" spans="3:6" ht="16.5">
-      <c r="C472" s="190"/>
-      <c r="D472" s="129"/>
-    </row>
-    <row r="473" spans="3:6" ht="16.5">
-      <c r="C473" s="190" t="s">
+    <row r="516" spans="3:5" ht="16.5">
+      <c r="C516" s="190"/>
+      <c r="D516" s="129"/>
+    </row>
+    <row r="517" spans="3:5" ht="16.5">
+      <c r="C517" s="190" t="s">
         <v>906</v>
       </c>
-      <c r="D473"/>
-    </row>
-    <row r="474" spans="3:6" ht="108">
-      <c r="C474" s="128"/>
-      <c r="E474" s="107" t="s">
+      <c r="D517"/>
+    </row>
+    <row r="518" spans="3:5" ht="108">
+      <c r="C518" s="128"/>
+      <c r="E518" s="107" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="475" spans="3:6" ht="16.5">
-      <c r="C475" s="128"/>
-      <c r="D475" t="s">
+    <row r="519" spans="3:5" ht="16.5">
+      <c r="C519" s="128"/>
+      <c r="D519" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="476" spans="3:6" ht="16.5">
-      <c r="C476" s="128"/>
-      <c r="D476" t="s">
+    <row r="520" spans="3:5" ht="16.5">
+      <c r="C520" s="128"/>
+      <c r="D520" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="477" spans="3:6" ht="16.5">
-      <c r="C477" s="128"/>
-      <c r="D477" s="129" t="s">
+    <row r="521" spans="3:5" ht="16.5">
+      <c r="C521" s="128"/>
+      <c r="D521" s="129" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="478" spans="3:6" ht="16.5">
-      <c r="C478" s="128"/>
-      <c r="D478" s="178" t="s">
+    <row r="522" spans="3:5" ht="16.5">
+      <c r="C522" s="128"/>
+      <c r="D522" s="178" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="479" spans="3:6" ht="16.5">
-      <c r="C479" s="128"/>
-      <c r="D479" s="104" t="s">
+    <row r="523" spans="3:5" ht="16.5">
+      <c r="C523" s="128"/>
+      <c r="D523" s="104" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="480" spans="3:6" ht="16.5">
-      <c r="C480" s="128"/>
-    </row>
-    <row r="481" spans="3:5" ht="16.5">
-      <c r="C481" s="128"/>
-      <c r="D481" s="128" t="s">
+    <row r="524" spans="3:5" ht="16.5">
+      <c r="C524" s="128"/>
+    </row>
+    <row r="525" spans="3:5" ht="16.5">
+      <c r="C525" s="128"/>
+      <c r="D525" s="128" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="482" spans="3:5" ht="16.5">
-      <c r="C482" s="128"/>
-      <c r="D482" s="98" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="483" spans="3:5" ht="16.5">
-      <c r="C483" s="128"/>
-      <c r="D483" s="98" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="484" spans="3:5" ht="16.5">
-      <c r="C484" s="128"/>
-      <c r="D484" s="98"/>
-    </row>
-    <row r="485" spans="3:5" ht="16.5">
-      <c r="C485" s="128"/>
-      <c r="D485" s="128" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="486" spans="3:5" ht="16.5">
-      <c r="C486" s="128"/>
-      <c r="D486" s="98" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="487" spans="3:5" ht="16.5">
-      <c r="C487" s="128"/>
-      <c r="D487" s="98" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="488" spans="3:5" ht="16.5">
-      <c r="C488" s="128"/>
-      <c r="D488" s="98" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="489" spans="3:5" ht="16.5">
-      <c r="C489" s="128"/>
-    </row>
-    <row r="490" spans="3:5" ht="16.5">
-      <c r="C490" s="128"/>
-      <c r="D490" s="179" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="491" spans="3:5" ht="16.5">
-      <c r="C491" s="128"/>
-      <c r="D491" s="142" t="s">
-        <v>318</v>
-      </c>
-      <c r="E491" s="142" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="3:5" ht="16.5">
-      <c r="C492" s="128"/>
-      <c r="D492" s="180" t="s">
-        <v>921</v>
-      </c>
-      <c r="E492" s="96" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="493" spans="3:5" ht="16.5">
-      <c r="C493" s="128"/>
-      <c r="D493" s="180" t="s">
-        <v>923</v>
-      </c>
-      <c r="E493" s="96" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="494" spans="3:5" ht="16.5">
-      <c r="C494" s="128"/>
-      <c r="D494" s="180" t="s">
-        <v>925</v>
-      </c>
-      <c r="E494" s="96" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="495" spans="3:5" ht="16.5">
-      <c r="C495" s="128"/>
-    </row>
-    <row r="496" spans="3:5" ht="21">
-      <c r="C496" s="128"/>
-      <c r="D496" s="97" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="497" spans="3:7" ht="16.5">
-      <c r="C497" s="128"/>
-      <c r="D497" s="98" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="498" spans="3:7" ht="16.5">
-      <c r="C498" s="128"/>
-      <c r="D498" s="146" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="499" spans="3:7" ht="16.5">
-      <c r="C499" s="128"/>
-      <c r="D499" s="146" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="500" spans="3:7" ht="16.5">
-      <c r="C500" s="128"/>
-      <c r="D500" s="98" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="501" spans="3:7" ht="16.5">
-      <c r="C501" s="128"/>
-      <c r="D501" s="98"/>
-    </row>
-    <row r="502" spans="3:7" ht="21">
-      <c r="C502" s="128"/>
-      <c r="D502" s="97" t="s">
-        <v>933</v>
-      </c>
-      <c r="E502"/>
-    </row>
-    <row r="503" spans="3:7" ht="16.5">
-      <c r="C503" s="128"/>
-      <c r="D503"/>
-      <c r="E503"/>
-    </row>
-    <row r="504" spans="3:7" ht="16.5">
-      <c r="C504" s="128"/>
-      <c r="D504" s="181" t="s">
-        <v>328</v>
-      </c>
-      <c r="E504" s="181" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="505" spans="3:7" ht="40.5">
-      <c r="C505" s="128"/>
-      <c r="D505" s="182" t="s">
-        <v>934</v>
-      </c>
-      <c r="E505" s="182" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="506" spans="3:7" ht="27">
-      <c r="C506" s="128"/>
-      <c r="D506" s="182" t="s">
-        <v>936</v>
-      </c>
-      <c r="E506" s="182" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="507" spans="3:7" ht="16.5">
-      <c r="C507" s="128"/>
-      <c r="D507" s="98"/>
-    </row>
-    <row r="508" spans="3:7" ht="16.5">
-      <c r="C508" s="128"/>
-      <c r="D508" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="509" spans="3:7" ht="16.5">
-      <c r="C509" s="128"/>
-      <c r="D509" s="98" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="510" spans="3:7" ht="16.5">
-      <c r="C510" s="128"/>
-      <c r="D510" s="181" t="s">
-        <v>777</v>
-      </c>
-      <c r="E510" s="181" t="s">
-        <v>778</v>
-      </c>
-      <c r="F510" s="181" t="s">
-        <v>939</v>
-      </c>
-      <c r="G510" s="185" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="511" spans="3:7" ht="16.5">
-      <c r="C511" s="128"/>
-      <c r="D511" s="186">
-        <v>1</v>
-      </c>
-      <c r="E511" s="182" t="s">
-        <v>780</v>
-      </c>
-      <c r="F511" s="182" t="s">
-        <v>941</v>
-      </c>
-      <c r="G511" s="186">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="512" spans="3:7" ht="16.5">
-      <c r="C512" s="128"/>
-      <c r="D512" s="186">
-        <v>2</v>
-      </c>
-      <c r="E512" s="182" t="s">
-        <v>782</v>
-      </c>
-      <c r="F512" s="182" t="s">
-        <v>941</v>
-      </c>
-      <c r="G512" s="186">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="513" spans="3:7" ht="16.5">
-      <c r="C513" s="128"/>
-      <c r="D513" s="186">
-        <v>3</v>
-      </c>
-      <c r="E513" s="182" t="s">
-        <v>783</v>
-      </c>
-      <c r="F513" s="182" t="s">
-        <v>942</v>
-      </c>
-      <c r="G513" s="186">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="514" spans="3:7" ht="16.5">
-      <c r="C514" s="128"/>
-      <c r="D514" s="98"/>
-    </row>
-    <row r="515" spans="3:7" ht="16.5">
-      <c r="C515" s="128"/>
-      <c r="D515" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="516" spans="3:7" ht="16.5">
-      <c r="C516" s="128"/>
-      <c r="D516" s="181" t="s">
-        <v>778</v>
-      </c>
-      <c r="E516" s="185" t="s">
-        <v>940</v>
-      </c>
-      <c r="F516" s="185" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="517" spans="3:7" ht="16.5">
-      <c r="C517" s="128"/>
-      <c r="D517" s="182" t="s">
-        <v>780</v>
-      </c>
-      <c r="E517" s="186">
-        <v>300</v>
-      </c>
-      <c r="F517" s="186">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="518" spans="3:7" ht="16.5">
-      <c r="C518" s="128"/>
-      <c r="D518" s="182" t="s">
-        <v>782</v>
-      </c>
-      <c r="E518" s="186">
-        <v>400</v>
-      </c>
-      <c r="F518" s="186">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="519" spans="3:7" ht="16.5">
-      <c r="C519" s="128"/>
-      <c r="D519" s="182" t="s">
-        <v>783</v>
-      </c>
-      <c r="E519" s="186">
-        <v>500</v>
-      </c>
-      <c r="F519" s="186">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="520" spans="3:7" ht="16.5">
-      <c r="C520" s="128"/>
-      <c r="D520" s="98"/>
-    </row>
-    <row r="521" spans="3:7" ht="16.5">
-      <c r="C521" s="128"/>
-      <c r="D521" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="522" spans="3:7" ht="16.5">
-      <c r="C522" s="128"/>
-      <c r="D522" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="523" spans="3:7" ht="16.5">
-      <c r="C523" s="128"/>
-    </row>
-    <row r="524" spans="3:7" ht="21">
-      <c r="C524" s="128"/>
-      <c r="D524" s="97" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="525" spans="3:7" ht="16.5">
-      <c r="C525" s="128"/>
-      <c r="D525" s="101" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="526" spans="3:7" ht="16.5">
+    <row r="526" spans="3:5" ht="16.5">
       <c r="C526" s="128"/>
       <c r="D526" s="98" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="527" spans="3:7" ht="16.5">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="527" spans="3:5" ht="16.5">
       <c r="C527" s="128"/>
       <c r="D527" s="98" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="528" spans="3:5" ht="16.5">
+      <c r="C528" s="128"/>
+      <c r="D528" s="98"/>
+    </row>
+    <row r="529" spans="3:5" ht="16.5">
+      <c r="C529" s="128"/>
+      <c r="D529" s="128" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="530" spans="3:5" ht="16.5">
+      <c r="C530" s="128"/>
+      <c r="D530" s="98" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="531" spans="3:5" ht="16.5">
+      <c r="C531" s="128"/>
+      <c r="D531" s="98" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="532" spans="3:5" ht="16.5">
+      <c r="C532" s="128"/>
+      <c r="D532" s="98" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="533" spans="3:5" ht="16.5">
+      <c r="C533" s="128"/>
+    </row>
+    <row r="534" spans="3:5" ht="16.5">
+      <c r="C534" s="128"/>
+      <c r="D534" s="179" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="535" spans="3:5" ht="16.5">
+      <c r="C535" s="128"/>
+      <c r="D535" s="142" t="s">
+        <v>318</v>
+      </c>
+      <c r="E535" s="142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="3:5" ht="16.5">
+      <c r="C536" s="128"/>
+      <c r="D536" s="180" t="s">
+        <v>921</v>
+      </c>
+      <c r="E536" s="96" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="537" spans="3:5" ht="16.5">
+      <c r="C537" s="128"/>
+      <c r="D537" s="180" t="s">
+        <v>923</v>
+      </c>
+      <c r="E537" s="96" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="538" spans="3:5" ht="16.5">
+      <c r="C538" s="128"/>
+      <c r="D538" s="180" t="s">
+        <v>925</v>
+      </c>
+      <c r="E538" s="96" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="539" spans="3:5" ht="16.5">
+      <c r="C539" s="128"/>
+    </row>
+    <row r="540" spans="3:5" ht="21">
+      <c r="C540" s="128"/>
+      <c r="D540" s="97" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="541" spans="3:5" ht="16.5">
+      <c r="C541" s="128"/>
+      <c r="D541" s="98" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="542" spans="3:5" ht="16.5">
+      <c r="C542" s="128"/>
+      <c r="D542" s="146" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="543" spans="3:5" ht="16.5">
+      <c r="C543" s="128"/>
+      <c r="D543" s="146" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="544" spans="3:5" ht="16.5">
+      <c r="C544" s="128"/>
+      <c r="D544" s="98" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="545" spans="3:7" ht="16.5">
+      <c r="C545" s="128"/>
+      <c r="D545" s="98"/>
+    </row>
+    <row r="546" spans="3:7" ht="21">
+      <c r="C546" s="128"/>
+      <c r="D546" s="97" t="s">
+        <v>933</v>
+      </c>
+      <c r="E546"/>
+    </row>
+    <row r="547" spans="3:7" ht="16.5">
+      <c r="C547" s="128"/>
+      <c r="D547"/>
+      <c r="E547"/>
+    </row>
+    <row r="548" spans="3:7" ht="16.5">
+      <c r="C548" s="128"/>
+      <c r="D548" s="181" t="s">
+        <v>328</v>
+      </c>
+      <c r="E548" s="181" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="549" spans="3:7" ht="67.5">
+      <c r="C549" s="128"/>
+      <c r="D549" s="182" t="s">
+        <v>934</v>
+      </c>
+      <c r="E549" s="182" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="550" spans="3:7" ht="54">
+      <c r="C550" s="128"/>
+      <c r="D550" s="182" t="s">
+        <v>936</v>
+      </c>
+      <c r="E550" s="182" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="551" spans="3:7" ht="16.5">
+      <c r="C551" s="128"/>
+      <c r="D551" s="98"/>
+    </row>
+    <row r="552" spans="3:7" ht="16.5">
+      <c r="C552" s="128"/>
+      <c r="D552" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="553" spans="3:7" ht="16.5">
+      <c r="C553" s="128"/>
+      <c r="D553" s="98" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="554" spans="3:7" ht="16.5">
+      <c r="C554" s="128"/>
+      <c r="D554" s="181" t="s">
+        <v>777</v>
+      </c>
+      <c r="E554" s="181" t="s">
+        <v>778</v>
+      </c>
+      <c r="F554" s="181" t="s">
+        <v>939</v>
+      </c>
+      <c r="G554" s="185" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="555" spans="3:7" ht="16.5">
+      <c r="C555" s="128"/>
+      <c r="D555" s="186">
+        <v>1</v>
+      </c>
+      <c r="E555" s="182" t="s">
+        <v>780</v>
+      </c>
+      <c r="F555" s="182" t="s">
+        <v>941</v>
+      </c>
+      <c r="G555" s="186">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="556" spans="3:7" ht="16.5">
+      <c r="C556" s="128"/>
+      <c r="D556" s="186">
+        <v>2</v>
+      </c>
+      <c r="E556" s="182" t="s">
+        <v>782</v>
+      </c>
+      <c r="F556" s="182" t="s">
+        <v>941</v>
+      </c>
+      <c r="G556" s="186">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="557" spans="3:7" ht="16.5">
+      <c r="C557" s="128"/>
+      <c r="D557" s="186">
+        <v>3</v>
+      </c>
+      <c r="E557" s="182" t="s">
+        <v>783</v>
+      </c>
+      <c r="F557" s="182" t="s">
+        <v>942</v>
+      </c>
+      <c r="G557" s="186">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="558" spans="3:7" ht="16.5">
+      <c r="C558" s="128"/>
+      <c r="D558" s="98"/>
+    </row>
+    <row r="559" spans="3:7" ht="16.5">
+      <c r="C559" s="128"/>
+      <c r="D559" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="560" spans="3:7" ht="16.5">
+      <c r="C560" s="128"/>
+      <c r="D560" s="181" t="s">
+        <v>778</v>
+      </c>
+      <c r="E560" s="185" t="s">
+        <v>940</v>
+      </c>
+      <c r="F560" s="185" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="561" spans="3:6" ht="16.5">
+      <c r="C561" s="128"/>
+      <c r="D561" s="182" t="s">
+        <v>780</v>
+      </c>
+      <c r="E561" s="186">
+        <v>300</v>
+      </c>
+      <c r="F561" s="186">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="562" spans="3:6" ht="16.5">
+      <c r="C562" s="128"/>
+      <c r="D562" s="182" t="s">
+        <v>782</v>
+      </c>
+      <c r="E562" s="186">
+        <v>400</v>
+      </c>
+      <c r="F562" s="186">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="563" spans="3:6" ht="16.5">
+      <c r="C563" s="128"/>
+      <c r="D563" s="182" t="s">
+        <v>783</v>
+      </c>
+      <c r="E563" s="186">
+        <v>500</v>
+      </c>
+      <c r="F563" s="186">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="564" spans="3:6" ht="16.5">
+      <c r="C564" s="128"/>
+      <c r="D564" s="98"/>
+    </row>
+    <row r="565" spans="3:6" ht="16.5">
+      <c r="C565" s="128"/>
+      <c r="D565" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="566" spans="3:6" ht="16.5">
+      <c r="C566" s="128"/>
+      <c r="D566" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="567" spans="3:6" ht="16.5">
+      <c r="C567" s="128"/>
+    </row>
+    <row r="568" spans="3:6" ht="21">
+      <c r="C568" s="128"/>
+      <c r="D568" s="97" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="569" spans="3:6" ht="16.5">
+      <c r="C569" s="128"/>
+      <c r="D569" s="101" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="570" spans="3:6" ht="16.5">
+      <c r="C570" s="128"/>
+      <c r="D570" s="98" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="571" spans="3:6" ht="16.5">
+      <c r="C571" s="128"/>
+      <c r="D571" s="98" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="528" spans="3:7" ht="16.5">
-      <c r="C528" s="128"/>
-    </row>
-    <row r="529" spans="3:6" ht="16.5">
-      <c r="C529" s="128"/>
-      <c r="D529" s="129" t="s">
+    <row r="572" spans="3:6" ht="16.5">
+      <c r="C572" s="128"/>
+    </row>
+    <row r="573" spans="3:6" ht="16.5">
+      <c r="C573" s="128"/>
+      <c r="D573" s="129" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="530" spans="3:6" ht="135">
-      <c r="C530" s="128"/>
-      <c r="E530" s="107" t="s">
+    <row r="574" spans="3:6" ht="135">
+      <c r="C574" s="128"/>
+      <c r="E574" s="107" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="531" spans="3:6" ht="54">
-      <c r="C531" s="128"/>
-      <c r="E531" s="107" t="s">
+    <row r="575" spans="3:6" ht="54">
+      <c r="C575" s="128"/>
+      <c r="E575" s="107" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="532" spans="3:6" ht="16.5">
-      <c r="C532" s="128"/>
-    </row>
-    <row r="533" spans="3:6">
-      <c r="C533" s="180"/>
-      <c r="E533" s="180" t="s">
+    <row r="576" spans="3:6" ht="16.5">
+      <c r="C576" s="128"/>
+    </row>
+    <row r="577" spans="1:6">
+      <c r="C577" s="180"/>
+      <c r="E577" s="180" t="s">
         <v>953</v>
       </c>
-      <c r="F533" s="197"/>
-    </row>
-    <row r="534" spans="3:6" ht="16.5">
-      <c r="C534" s="128"/>
-      <c r="E534" s="168" t="s">
+      <c r="F577" s="197"/>
+    </row>
+    <row r="578" spans="1:6" ht="16.5">
+      <c r="C578" s="128"/>
+      <c r="E578" s="168" t="s">
         <v>954</v>
       </c>
-      <c r="F534" s="168" t="s">
+      <c r="F578" s="168" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="535" spans="3:6" ht="16.5">
-      <c r="C535" s="128"/>
-      <c r="E535" s="169" t="s">
+    <row r="579" spans="1:6" ht="16.5">
+      <c r="C579" s="128"/>
+      <c r="E579" s="169" t="s">
         <v>955</v>
       </c>
-      <c r="F535" s="168" t="s">
+      <c r="F579" s="168" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="536" spans="3:6" ht="16.5">
-      <c r="C536" s="128"/>
-      <c r="E536" s="169" t="s">
+    <row r="580" spans="1:6" ht="16.5">
+      <c r="C580" s="128"/>
+      <c r="E580" s="169" t="s">
         <v>957</v>
       </c>
-      <c r="F536" s="169" t="s">
+      <c r="F580" s="169" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="537" spans="3:6" ht="16.5">
-      <c r="C537" s="128"/>
-      <c r="E537" s="169" t="s">
+    <row r="581" spans="1:6" ht="16.5">
+      <c r="C581" s="128"/>
+      <c r="E581" s="169" t="s">
         <v>882</v>
       </c>
-      <c r="F537" s="169" t="s">
+      <c r="F581" s="169" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="538" spans="3:6" ht="16.5">
-      <c r="C538" s="128"/>
-    </row>
-    <row r="539" spans="3:6" ht="16.5">
-      <c r="C539" s="128"/>
-      <c r="D539" t="s">
+    <row r="582" spans="1:6" ht="16.5">
+      <c r="C582" s="128"/>
+    </row>
+    <row r="583" spans="1:6" ht="16.5">
+      <c r="C583" s="128"/>
+      <c r="D583" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="540" spans="3:6" ht="54">
-      <c r="C540" s="128"/>
-      <c r="E540" s="107" t="s">
+    <row r="584" spans="1:6" ht="54">
+      <c r="C584" s="128"/>
+      <c r="E584" s="107" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="541" spans="3:6" ht="16.5">
-      <c r="C541" s="128"/>
-    </row>
-    <row r="542" spans="3:6" ht="16.5">
-      <c r="C542" s="128"/>
-      <c r="D542" s="146"/>
-    </row>
-    <row r="543" spans="3:6" ht="16.5">
-      <c r="C543" s="128"/>
-    </row>
-    <row r="544" spans="3:6">
-      <c r="D544" s="98"/>
-    </row>
-    <row r="545" spans="1:5" ht="21">
-      <c r="A545" s="103" t="s">
+    <row r="585" spans="1:6" ht="16.5">
+      <c r="C585" s="128"/>
+    </row>
+    <row r="586" spans="1:6" ht="16.5">
+      <c r="C586" s="128"/>
+      <c r="D586" s="146"/>
+    </row>
+    <row r="587" spans="1:6" ht="16.5">
+      <c r="C587" s="128"/>
+    </row>
+    <row r="588" spans="1:6">
+      <c r="D588" s="98"/>
+    </row>
+    <row r="589" spans="1:6" ht="21">
+      <c r="A589" s="103" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
-      <c r="C546" s="105" t="s">
+    <row r="590" spans="1:6">
+      <c r="C590" s="105" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
-      <c r="C547" s="104" t="s">
+    <row r="591" spans="1:6">
+      <c r="C591" s="104" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
-      <c r="C548" s="104" t="s">
+    <row r="592" spans="1:6">
+      <c r="C592" s="104" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
-      <c r="D549" s="104" t="s">
+    <row r="593" spans="2:5">
+      <c r="D593" s="104" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="60">
-      <c r="E550" s="114" t="s">
+    <row r="594" spans="2:5" ht="60">
+      <c r="E594" s="114" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
-      <c r="C551" s="105" t="s">
+    <row r="595" spans="2:5">
+      <c r="C595" s="105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
-      <c r="C552" s="104" t="s">
+    <row r="596" spans="2:5">
+      <c r="C596" s="104" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
-      <c r="C553" s="104" t="s">
+    <row r="597" spans="2:5">
+      <c r="C597" s="104" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
-      <c r="C554" s="105" t="s">
+    <row r="598" spans="2:5">
+      <c r="C598" s="105" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="21">
-      <c r="B557" s="97" t="s">
+    <row r="601" spans="2:5" ht="21">
+      <c r="B601" s="97" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
-      <c r="B558"/>
-    </row>
-    <row r="559" spans="1:5" ht="16.5">
-      <c r="B559" s="128" t="s">
+    <row r="602" spans="2:5">
+      <c r="B602"/>
+    </row>
+    <row r="603" spans="2:5" ht="16.5">
+      <c r="B603" s="128" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
-      <c r="B560" s="171" t="s">
+    <row r="604" spans="2:5">
+      <c r="B604" s="171" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="561" spans="2:5">
-      <c r="B561" s="98" t="s">
+    <row r="605" spans="2:5">
+      <c r="B605" s="98" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="562" spans="2:5">
-      <c r="B562" s="98" t="s">
+    <row r="606" spans="2:5">
+      <c r="B606" s="98" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="563" spans="2:5" ht="121.5">
-      <c r="E563" s="107" t="s">
+    <row r="607" spans="2:5" ht="121.5">
+      <c r="E607" s="107" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="564" spans="2:5">
-      <c r="B564" s="129" t="s">
+    <row r="608" spans="2:5">
+      <c r="B608" s="129" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="565" spans="2:5">
-      <c r="B565" s="98" t="s">
+    <row r="609" spans="2:5">
+      <c r="B609" s="98" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="566" spans="2:5">
-      <c r="B566" s="101" t="s">
+    <row r="610" spans="2:5">
+      <c r="B610" s="101" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="567" spans="2:5">
-      <c r="B567" s="98"/>
-    </row>
-    <row r="568" spans="2:5" ht="16.5">
-      <c r="B568" s="128" t="s">
+    <row r="611" spans="2:5">
+      <c r="B611" s="98"/>
+    </row>
+    <row r="612" spans="2:5" ht="16.5">
+      <c r="B612" s="128" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="569" spans="2:5">
-      <c r="B569" s="98" t="s">
+    <row r="613" spans="2:5">
+      <c r="B613" s="98" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="570" spans="2:5">
-      <c r="B570" s="98" t="s">
+    <row r="614" spans="2:5">
+      <c r="B614" s="98" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="571" spans="2:5" ht="108">
-      <c r="B571" s="98"/>
-      <c r="E571" s="107" t="s">
+    <row r="615" spans="2:5" ht="108">
+      <c r="B615" s="98"/>
+      <c r="E615" s="107" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="572" spans="2:5">
-      <c r="B572" s="129" t="s">
+    <row r="616" spans="2:5">
+      <c r="B616" s="129" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="573" spans="2:5">
-      <c r="B573" s="98" t="s">
+    <row r="617" spans="2:5">
+      <c r="B617" s="98" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="574" spans="2:5">
-      <c r="B574" s="98" t="s">
+    <row r="618" spans="2:5">
+      <c r="B618" s="98" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="575" spans="2:5">
-      <c r="B575" s="98"/>
-    </row>
-    <row r="576" spans="2:5" ht="16.5">
-      <c r="B576" s="128" t="s">
+    <row r="619" spans="2:5">
+      <c r="B619" s="98"/>
+    </row>
+    <row r="620" spans="2:5" ht="16.5">
+      <c r="B620" s="128" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="577" spans="2:5">
-      <c r="B577" s="171" t="s">
+    <row r="621" spans="2:5">
+      <c r="B621" s="171" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="578" spans="2:5">
-      <c r="B578" s="98" t="s">
+    <row r="622" spans="2:5">
+      <c r="B622" s="98" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="579" spans="2:5">
-      <c r="B579" s="98" t="s">
+    <row r="623" spans="2:5">
+      <c r="B623" s="98" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="580" spans="2:5" ht="121.5">
-      <c r="E580" s="107" t="s">
+    <row r="624" spans="2:5" ht="121.5">
+      <c r="E624" s="107" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="581" spans="2:5">
-      <c r="B581" s="129" t="s">
+    <row r="625" spans="2:5">
+      <c r="B625" s="129" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="582" spans="2:5">
-      <c r="B582" s="101" t="s">
+    <row r="626" spans="2:5">
+      <c r="B626" s="101" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="583" spans="2:5">
-      <c r="B583" s="101" t="s">
+    <row r="627" spans="2:5">
+      <c r="B627" s="101" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="584" spans="2:5">
-      <c r="B584" s="98" t="s">
+    <row r="628" spans="2:5">
+      <c r="B628" s="98" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="587" spans="2:5" ht="16.5">
-      <c r="B587" s="128" t="s">
+    <row r="631" spans="2:5" ht="16.5">
+      <c r="B631" s="128" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="588" spans="2:5">
-      <c r="B588" s="98" t="s">
+    <row r="632" spans="2:5">
+      <c r="B632" s="98" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="589" spans="2:5">
-      <c r="B589" s="98" t="s">
+    <row r="633" spans="2:5">
+      <c r="B633" s="98" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="590" spans="2:5" ht="108">
-      <c r="B590" s="98"/>
-      <c r="E590" s="107" t="s">
+    <row r="634" spans="2:5" ht="108">
+      <c r="B634" s="98"/>
+      <c r="E634" s="107" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="591" spans="2:5">
-      <c r="B591" s="129" t="s">
+    <row r="635" spans="2:5">
+      <c r="B635" s="129" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="592" spans="2:5">
-      <c r="B592" s="98" t="s">
+    <row r="636" spans="2:5">
+      <c r="B636" s="98" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="593" spans="2:5">
-      <c r="B593" s="98" t="s">
+    <row r="637" spans="2:5">
+      <c r="B637" s="98" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="594" spans="2:5">
-      <c r="B594" s="98"/>
-    </row>
-    <row r="595" spans="2:5">
-      <c r="C595" s="185" t="s">
+    <row r="638" spans="2:5">
+      <c r="B638" s="98"/>
+    </row>
+    <row r="639" spans="2:5" ht="27">
+      <c r="C639" s="185" t="s">
         <v>638</v>
       </c>
-      <c r="D595" s="185" t="s">
+      <c r="D639" s="185" t="s">
         <v>1050</v>
       </c>
-      <c r="E595" s="185" t="s">
+      <c r="E639" s="185" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="596" spans="2:5" ht="27">
-      <c r="C596" s="186" t="s">
+    <row r="640" spans="2:5" ht="40.5">
+      <c r="C640" s="186" t="s">
         <v>1052</v>
       </c>
-      <c r="D596" s="186" t="s">
+      <c r="D640" s="186" t="s">
         <v>1053</v>
       </c>
-      <c r="E596" s="186" t="s">
+      <c r="E640" s="186" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="597" spans="2:5" ht="27">
-      <c r="C597" s="186" t="s">
+    <row r="641" spans="2:5" ht="40.5">
+      <c r="C641" s="186" t="s">
         <v>1055</v>
       </c>
-      <c r="D597" s="186" t="s">
+      <c r="D641" s="186" t="s">
         <v>1056</v>
       </c>
-      <c r="E597" s="186" t="s">
+      <c r="E641" s="186" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="598" spans="2:5">
-      <c r="C598" s="186" t="s">
+    <row r="642" spans="2:5" ht="27">
+      <c r="C642" s="186" t="s">
         <v>1058</v>
       </c>
-      <c r="D598" s="186" t="s">
+      <c r="D642" s="186" t="s">
         <v>1059</v>
       </c>
-      <c r="E598" s="186" t="s">
+      <c r="E642" s="186" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="599" spans="2:5" ht="27">
-      <c r="C599" s="186" t="s">
+    <row r="643" spans="2:5" ht="54">
+      <c r="C643" s="186" t="s">
         <v>1061</v>
       </c>
-      <c r="D599" s="186" t="s">
+      <c r="D643" s="186" t="s">
         <v>1062</v>
       </c>
-      <c r="E599" s="186" t="s">
+      <c r="E643" s="186" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="601" spans="2:5">
-      <c r="B601" s="129" t="s">
+    <row r="645" spans="2:5">
+      <c r="B645" s="129" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="602" spans="2:5">
-      <c r="B602" s="171" t="s">
+    <row r="646" spans="2:5">
+      <c r="B646" s="171" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="603" spans="2:5">
-      <c r="B603" s="171" t="s">
+    <row r="647" spans="2:5">
+      <c r="B647" s="171" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="604" spans="2:5">
-      <c r="B604" s="198" t="s">
+    <row r="648" spans="2:5">
+      <c r="B648" s="198" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="606" spans="2:5" ht="21">
-      <c r="B606" s="97" t="s">
+    <row r="650" spans="2:5" ht="21">
+      <c r="B650" s="97" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="608" spans="2:5">
-      <c r="B608" s="171" t="s">
+    <row r="652" spans="2:5">
+      <c r="B652" s="171" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
-      <c r="B609" s="98" t="s">
+    <row r="653" spans="2:5">
+      <c r="B653" s="98" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
-      <c r="B610" s="98" t="s">
+    <row r="654" spans="2:5">
+      <c r="B654" s="98" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
-      <c r="B612" s="98"/>
-    </row>
-    <row r="614" spans="1:9">
-      <c r="B614" s="98"/>
-    </row>
-    <row r="616" spans="1:9">
-      <c r="B616" s="98"/>
-    </row>
-    <row r="621" spans="1:9" ht="21">
-      <c r="A621" s="103" t="s">
+    <row r="656" spans="2:5">
+      <c r="B656" s="98"/>
+    </row>
+    <row r="658" spans="1:9">
+      <c r="B658" s="98"/>
+    </row>
+    <row r="660" spans="1:9">
+      <c r="B660" s="98"/>
+    </row>
+    <row r="665" spans="1:9" ht="21">
+      <c r="A665" s="103" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
-      <c r="C622" s="108"/>
-      <c r="D622" s="108"/>
-      <c r="E622" s="108"/>
-    </row>
-    <row r="623" spans="1:9" ht="27">
-      <c r="C623" s="115" t="s">
+    <row r="666" spans="1:9">
+      <c r="C666" s="108"/>
+      <c r="D666" s="108"/>
+      <c r="E666" s="108"/>
+    </row>
+    <row r="667" spans="1:9" ht="40.5">
+      <c r="C667" s="115" t="s">
         <v>548</v>
       </c>
-      <c r="D623" s="115" t="s">
+      <c r="D667" s="115" t="s">
         <v>549</v>
       </c>
-      <c r="E623" s="115" t="s">
+      <c r="E667" s="115" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="624" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C624" s="116" t="s">
+    <row r="668" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C668" s="116" t="s">
         <v>531</v>
       </c>
-      <c r="D624" s="117" t="s">
+      <c r="D668" s="117" t="s">
         <v>551</v>
       </c>
-      <c r="E624" s="118" t="s">
+      <c r="E668" s="118" t="s">
         <v>559</v>
       </c>
-      <c r="G624" s="119"/>
-      <c r="H624" s="119"/>
-      <c r="I624" s="119"/>
-    </row>
-    <row r="625" spans="1:9" ht="63" customHeight="1">
-      <c r="C625" s="116" t="s">
+      <c r="G668" s="119"/>
+      <c r="H668" s="119"/>
+      <c r="I668" s="119"/>
+    </row>
+    <row r="669" spans="1:9" ht="63" customHeight="1">
+      <c r="C669" s="116" t="s">
         <v>557</v>
       </c>
-      <c r="D625" s="117" t="s">
+      <c r="D669" s="117" t="s">
         <v>556</v>
       </c>
-      <c r="E625" s="120" t="s">
+      <c r="E669" s="120" t="s">
         <v>560</v>
       </c>
-      <c r="G625" s="121"/>
-      <c r="H625" s="122"/>
-      <c r="I625" s="123"/>
-    </row>
-    <row r="626" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C626" s="116" t="s">
+      <c r="G669" s="121"/>
+      <c r="H669" s="122"/>
+      <c r="I669" s="123"/>
+    </row>
+    <row r="670" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C670" s="116" t="s">
         <v>558</v>
       </c>
-      <c r="D626" s="117" t="s">
+      <c r="D670" s="117" t="s">
         <v>552</v>
       </c>
-      <c r="E626" s="124" t="s">
+      <c r="E670" s="124" t="s">
         <v>561</v>
       </c>
-      <c r="G626" s="121"/>
-      <c r="H626" s="122"/>
-      <c r="I626" s="122"/>
-    </row>
-    <row r="627" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C627" s="116" t="s">
+      <c r="G670" s="121"/>
+      <c r="H670" s="122"/>
+      <c r="I670" s="122"/>
+    </row>
+    <row r="671" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C671" s="116" t="s">
         <v>517</v>
       </c>
-      <c r="D627" s="125" t="s">
+      <c r="D671" s="125" t="s">
         <v>563</v>
       </c>
-      <c r="E627" s="125" t="s">
+      <c r="E671" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="G627" s="121"/>
-      <c r="H627" s="122"/>
-      <c r="I627" s="122"/>
-    </row>
-    <row r="628" spans="1:9">
-      <c r="C628" s="126"/>
-      <c r="D628" s="126"/>
-    </row>
-    <row r="629" spans="1:9" ht="21">
-      <c r="A629" s="109" t="s">
+      <c r="G671" s="121"/>
+      <c r="H671" s="122"/>
+      <c r="I671" s="122"/>
+    </row>
+    <row r="672" spans="1:9">
+      <c r="C672" s="126"/>
+      <c r="D672" s="126"/>
+    </row>
+    <row r="673" spans="1:3" ht="21">
+      <c r="A673" s="109" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
-      <c r="A630" s="105" t="s">
+    <row r="674" spans="1:3">
+      <c r="A674" s="105" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="631" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A631" s="108" t="s">
+    <row r="675" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A675" s="108" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="632" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A632" s="110"/>
-    </row>
-    <row r="633" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A633" s="112" t="s">
+    <row r="676" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A676" s="110"/>
+    </row>
+    <row r="677" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A677" s="112" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="634" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A634" s="111" t="s">
+    <row r="678" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A678" s="111" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="635" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A635" s="108"/>
-    </row>
-    <row r="636" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A636" s="127"/>
-      <c r="C636" s="127" t="s">
+    <row r="679" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A679" s="108"/>
+    </row>
+    <row r="680" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A680" s="127"/>
+      <c r="C680" s="127" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="637" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A637" s="127"/>
-      <c r="C637" s="127" t="s">
+    <row r="681" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A681" s="127"/>
+      <c r="C681" s="127" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="638" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="639" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A639" s="112" t="s">
+    <row r="682" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="683" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A683" s="112" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A640" s="110" t="s">
+    <row r="684" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A684" s="110" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A641" s="110" t="s">
+    <row r="685" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A685" s="110" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="642" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A642" s="112" t="s">
+    <row r="686" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A686" s="112" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A643" s="112" t="s">
+    <row r="687" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A687" s="112" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="644" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A644" s="108"/>
-    </row>
-    <row r="645" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A645" s="127"/>
-      <c r="C645" s="127" t="s">
+    <row r="688" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A688" s="108"/>
+    </row>
+    <row r="689" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A689" s="127"/>
+      <c r="C689" s="127" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A646" s="127"/>
-      <c r="C646" s="127" t="s">
+    <row r="690" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A690" s="127"/>
+      <c r="C690" s="127" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="647" spans="1:3" ht="16.5" customHeight="1">
-      <c r="C647" s="127" t="s">
+    <row r="691" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C691" s="127" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="649" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A649" s="104" t="s">
+    <row r="692" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="693" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A693" s="104" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="650" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A650" s="104" t="s">
+    <row r="694" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A694" s="104" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
-      <c r="A652" s="129" t="s">
+    <row r="696" spans="1:3">
+      <c r="A696" s="129" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="14.25">
-      <c r="A653" t="s">
+    <row r="697" spans="1:3" ht="14.25">
+      <c r="A697" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
-      <c r="A654"/>
-    </row>
-    <row r="655" spans="1:3">
-      <c r="A655" s="129" t="s">
+    <row r="698" spans="1:3">
+      <c r="A698"/>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699" s="129" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
-      <c r="A656" t="s">
+    <row r="700" spans="1:3">
+      <c r="A700" t="s">
         <v>963</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C157:E157"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="95" max="6" man="1"/>
-    <brk id="434" max="6" man="1"/>
-    <brk id="528" max="6" man="1"/>
-    <brk id="628" max="6" man="1"/>
+    <brk id="139" max="6" man="1"/>
+    <brk id="478" max="6" man="1"/>
+    <brk id="572" max="6" man="1"/>
+    <brk id="672" max="6" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
@@ -17357,7 +17991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -19118,7 +19752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -19888,7 +20522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -20507,7 +21141,7 @@
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
-      <c r="F70" s="203" t="s">
+      <c r="F70" s="200" t="s">
         <v>211</v>
       </c>
     </row>
@@ -20519,7 +21153,7 @@
         <v>393</v>
       </c>
       <c r="D71" s="31"/>
-      <c r="F71" s="203"/>
+      <c r="F71" s="200"/>
     </row>
     <row r="72" spans="1:6" ht="27">
       <c r="C72" s="58" t="s">
@@ -20531,7 +21165,7 @@
       <c r="E72" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="203"/>
+      <c r="F72" s="200"/>
     </row>
     <row r="73" spans="1:6" ht="40.5">
       <c r="C73" s="58" t="s">
@@ -20543,7 +21177,7 @@
       <c r="E73" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F73" s="203"/>
+      <c r="F73" s="200"/>
     </row>
     <row r="74" spans="1:6" ht="40.5">
       <c r="B74" s="31"/>
@@ -20556,7 +21190,7 @@
       <c r="E74" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F74" s="203"/>
+      <c r="F74" s="200"/>
     </row>
     <row r="75" spans="1:6" ht="27">
       <c r="B75" s="31"/>
@@ -20569,7 +21203,7 @@
       <c r="E75" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F75" s="203"/>
+      <c r="F75" s="200"/>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="31"/>
@@ -20750,10 +21384,10 @@
       <c r="D94" s="31"/>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="204" t="s">
+      <c r="B95" s="202" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="205" t="s">
+      <c r="C95" s="203" t="s">
         <v>398</v>
       </c>
       <c r="D95" s="58" t="s">
@@ -20762,114 +21396,114 @@
     </row>
     <row r="96" spans="2:6" ht="27">
       <c r="B96" s="201"/>
-      <c r="C96" s="205"/>
+      <c r="C96" s="203"/>
       <c r="D96" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
       <c r="B97" s="201"/>
-      <c r="C97" s="205"/>
+      <c r="C97" s="203"/>
       <c r="D97" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="27">
       <c r="B98" s="201"/>
-      <c r="C98" s="205"/>
+      <c r="C98" s="203"/>
       <c r="D98" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="27">
       <c r="B99" s="201"/>
-      <c r="C99" s="205"/>
+      <c r="C99" s="203"/>
       <c r="D99" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="201"/>
-      <c r="C100" s="205"/>
+      <c r="C100" s="203"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="200" t="s">
+      <c r="C101" s="204" t="s">
         <v>262</v>
       </c>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="200"/>
+      <c r="C102" s="204"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="200"/>
+      <c r="C103" s="204"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="200"/>
+      <c r="C104" s="204"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="200"/>
+      <c r="C105" s="204"/>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="200"/>
+      <c r="C106" s="204"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="200" t="s">
+      <c r="C107" s="204" t="s">
         <v>263</v>
       </c>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="200"/>
+      <c r="C108" s="204"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="200"/>
+      <c r="C109" s="204"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="200"/>
+      <c r="C110" s="204"/>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="200"/>
+      <c r="C111" s="204"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4" ht="27">
       <c r="B112" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="200" t="s">
+      <c r="C112" s="204" t="s">
         <v>264</v>
       </c>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="200"/>
+      <c r="C113" s="204"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="200"/>
+      <c r="C114" s="204"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" s="200"/>
+      <c r="C115" s="204"/>
       <c r="D115" s="31"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" s="200"/>
+      <c r="C116" s="204"/>
       <c r="D116" s="31"/>
     </row>
     <row r="117" spans="1:4">
@@ -21520,10 +22154,10 @@
       </c>
     </row>
     <row r="196" spans="3:4" ht="51" customHeight="1">
-      <c r="C196" s="202" t="s">
+      <c r="C196" s="205" t="s">
         <v>439</v>
       </c>
-      <c r="D196" s="202"/>
+      <c r="D196" s="205"/>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" s="77" t="s">
@@ -21537,17 +22171,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="B121:C125"/>
+    <mergeCell ref="C196:D196"/>
     <mergeCell ref="F70:F75"/>
     <mergeCell ref="E79:E81"/>
     <mergeCell ref="F84:F88"/>
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="C95:C100"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="B121:C125"/>
-    <mergeCell ref="C196:D196"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -21556,7 +22190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -22142,7 +22776,7 @@
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="F68" s="203" t="s">
+      <c r="F68" s="200" t="s">
         <v>211</v>
       </c>
     </row>
@@ -22154,7 +22788,7 @@
         <v>393</v>
       </c>
       <c r="D69" s="31"/>
-      <c r="F69" s="203"/>
+      <c r="F69" s="200"/>
     </row>
     <row r="70" spans="1:6" ht="27">
       <c r="C70" s="58" t="s">
@@ -22166,7 +22800,7 @@
       <c r="E70" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="203"/>
+      <c r="F70" s="200"/>
     </row>
     <row r="71" spans="1:6" ht="40.5">
       <c r="C71" s="58" t="s">
@@ -22178,7 +22812,7 @@
       <c r="E71" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F71" s="203"/>
+      <c r="F71" s="200"/>
     </row>
     <row r="72" spans="1:6" ht="40.5">
       <c r="B72" s="31"/>
@@ -22191,7 +22825,7 @@
       <c r="E72" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="203"/>
+      <c r="F72" s="200"/>
     </row>
     <row r="73" spans="1:6" ht="27">
       <c r="B73" s="31"/>
@@ -22204,7 +22838,7 @@
       <c r="E73" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F73" s="203"/>
+      <c r="F73" s="200"/>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="31"/>
@@ -22385,10 +23019,10 @@
       <c r="D92" s="31"/>
     </row>
     <row r="93" spans="2:6" ht="27">
-      <c r="B93" s="204" t="s">
+      <c r="B93" s="202" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="205" t="s">
+      <c r="C93" s="203" t="s">
         <v>398</v>
       </c>
       <c r="D93" s="58" t="s">
@@ -22397,114 +23031,114 @@
     </row>
     <row r="94" spans="2:6" ht="27">
       <c r="B94" s="201"/>
-      <c r="C94" s="205"/>
+      <c r="C94" s="203"/>
       <c r="D94" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="27">
       <c r="B95" s="201"/>
-      <c r="C95" s="205"/>
+      <c r="C95" s="203"/>
       <c r="D95" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
       <c r="B96" s="201"/>
-      <c r="C96" s="205"/>
+      <c r="C96" s="203"/>
       <c r="D96" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
       <c r="B97" s="201"/>
-      <c r="C97" s="205"/>
+      <c r="C97" s="203"/>
       <c r="D97" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="201"/>
-      <c r="C98" s="205"/>
+      <c r="C98" s="203"/>
       <c r="D98" s="31"/>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="200" t="s">
+      <c r="C99" s="204" t="s">
         <v>262</v>
       </c>
       <c r="D99" s="31"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="200"/>
+      <c r="C100" s="204"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="200"/>
+      <c r="C101" s="204"/>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="200"/>
+      <c r="C102" s="204"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="200"/>
+      <c r="C103" s="204"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="200"/>
+      <c r="C104" s="204"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="200" t="s">
+      <c r="C105" s="204" t="s">
         <v>263</v>
       </c>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="200"/>
+      <c r="C106" s="204"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="200"/>
+      <c r="C107" s="204"/>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="200"/>
+      <c r="C108" s="204"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="200"/>
+      <c r="C109" s="204"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4" ht="27">
       <c r="B110" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="200" t="s">
+      <c r="C110" s="204" t="s">
         <v>264</v>
       </c>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="200"/>
+      <c r="C111" s="204"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="200"/>
+      <c r="C112" s="204"/>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="200"/>
+      <c r="C113" s="204"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="200"/>
+      <c r="C114" s="204"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
@@ -23155,10 +23789,10 @@
       </c>
     </row>
     <row r="194" spans="3:4" ht="51" customHeight="1">
-      <c r="C194" s="202" t="s">
+      <c r="C194" s="205" t="s">
         <v>439</v>
       </c>
-      <c r="D194" s="202"/>
+      <c r="D194" s="205"/>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" s="77" t="s">
@@ -23172,17 +23806,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="B119:C123"/>
     <mergeCell ref="F68:F73"/>
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="F82:F86"/>
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="B93:B98"/>
     <mergeCell ref="C93:C98"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="B119:C123"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -23191,7 +23825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -24826,7 +25460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24906,7 +25540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/database_schema_diagram.xlsx
+++ b/database_schema_diagram.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\maruaican\beginner_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCODE_Work\beginner_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F62251-760A-479A-835E-2CCE50E8A132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6405" tabRatio="542"/>
   </bookViews>
   <sheets>
     <sheet name="サブクエリ (3)" sheetId="8" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'SQL構文一覧 (3)'!$A$11:$F$199</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">サブクエリ!$A$1:$G$159</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'サブクエリ (2)'!$A$1:$G$316</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (3)'!$A$1:$G$702</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'サブクエリ (3)'!$A$1:$G$707</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -12390,7 +12389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="49">
     <font>
       <sz val="11"/>
@@ -13539,13 +13538,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -13553,12 +13561,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13587,13 +13589,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -13892,14 +13891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I700"/>
+  <dimension ref="A2:I705"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G707" sqref="A1:G707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13983,362 +13982,345 @@
       <c r="D20" s="104" t="s">
         <v>520</v>
       </c>
-      <c r="G20" s="104" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="202.5">
+    </row>
+    <row r="21" spans="3:7" ht="67.5">
       <c r="E21" s="107" t="s">
         <v>619</v>
       </c>
-      <c r="G21" s="107" t="s">
+    </row>
+    <row r="22" spans="3:7">
+      <c r="D22" s="104" t="s">
+        <v>599</v>
+      </c>
+      <c r="G22" s="107"/>
+    </row>
+    <row r="23" spans="3:7" ht="202.5">
+      <c r="E23" s="107" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="E22" s="107"/>
-      <c r="G22" s="183" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="14.25">
-      <c r="E23" s="107"/>
-      <c r="G23" s="184" t="s">
-        <v>965</v>
-      </c>
+      <c r="G23" s="107"/>
     </row>
     <row r="24" spans="3:7">
       <c r="E24" s="107"/>
-      <c r="G24" s="183" t="s">
-        <v>962</v>
-      </c>
+      <c r="G24" s="107"/>
     </row>
     <row r="25" spans="3:7">
       <c r="E25" s="107"/>
-      <c r="G25" s="184" t="s">
-        <v>966</v>
-      </c>
+      <c r="G25" s="107"/>
     </row>
     <row r="26" spans="3:7">
       <c r="E26" s="107"/>
-      <c r="G26" s="184"/>
+      <c r="G26" s="107"/>
     </row>
     <row r="27" spans="3:7">
-      <c r="D27" s="105" t="s">
+      <c r="E27" s="107"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="D28" s="183" t="s">
+        <v>967</v>
+      </c>
+      <c r="E28" s="107"/>
+    </row>
+    <row r="29" spans="3:7" ht="14.25">
+      <c r="D29" s="184" t="s">
+        <v>965</v>
+      </c>
+      <c r="E29" s="107"/>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="D30" s="183" t="s">
+        <v>962</v>
+      </c>
+      <c r="E30" s="107"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="D31" s="184" t="s">
+        <v>966</v>
+      </c>
+      <c r="E31" s="107"/>
+      <c r="G31" s="184"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="D32" s="105" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="105" t="s">
+    <row r="34" spans="3:7">
+      <c r="C34" s="105" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="30" spans="3:7">
-      <c r="D30" s="104" t="s">
+    <row r="35" spans="3:7">
+      <c r="D35" s="104" t="s">
         <v>605</v>
       </c>
-      <c r="G30" s="108"/>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="D31" s="104" t="s">
+      <c r="G35" s="108"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="D36" s="104" t="s">
         <v>1076</v>
       </c>
-      <c r="G31" s="108"/>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="E32" s="104" t="s">
+      <c r="G36" s="108"/>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="E37" s="104" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="33" spans="4:7" ht="121.5">
-      <c r="E33" s="107" t="s">
+    <row r="38" spans="3:7" ht="121.5">
+      <c r="E38" s="107" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="34" spans="4:7">
-      <c r="E34" s="104" t="s">
+    <row r="39" spans="3:7">
+      <c r="E39" s="104" t="s">
         <v>604</v>
       </c>
-      <c r="G34" s="107"/>
-    </row>
-    <row r="35" spans="4:7" ht="108">
-      <c r="E35" s="107" t="s">
+      <c r="G39" s="107"/>
+    </row>
+    <row r="40" spans="3:7" ht="108">
+      <c r="E40" s="107" t="s">
         <v>1075</v>
       </c>
-      <c r="G35" s="107"/>
-    </row>
-    <row r="36" spans="4:7">
-      <c r="D36" s="105" t="s">
+      <c r="G40" s="107"/>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="D41" s="105" t="s">
         <v>503</v>
-      </c>
-      <c r="E36" s="107"/>
-      <c r="G36" s="107"/>
-    </row>
-    <row r="37" spans="4:7">
-      <c r="D37" s="105" t="s">
-        <v>504</v>
-      </c>
-      <c r="E37" s="107"/>
-      <c r="G37" s="107"/>
-    </row>
-    <row r="38" spans="4:7">
-      <c r="D38" s="105" t="s">
-        <v>505</v>
-      </c>
-      <c r="E38" s="107"/>
-      <c r="G38" s="107"/>
-    </row>
-    <row r="39" spans="4:7">
-      <c r="D39" s="105" t="s">
-        <v>506</v>
-      </c>
-      <c r="E39" s="107"/>
-      <c r="G39" s="107"/>
-    </row>
-    <row r="40" spans="4:7">
-      <c r="D40" s="105"/>
-      <c r="E40" s="107"/>
-      <c r="G40" s="107"/>
-    </row>
-    <row r="41" spans="4:7">
-      <c r="D41" s="171" t="s">
-        <v>1077</v>
       </c>
       <c r="E41" s="107"/>
       <c r="G41" s="107"/>
     </row>
-    <row r="42" spans="4:7">
-      <c r="D42" s="98" t="s">
-        <v>1078</v>
+    <row r="42" spans="3:7">
+      <c r="D42" s="105" t="s">
+        <v>504</v>
       </c>
       <c r="E42" s="107"/>
       <c r="G42" s="107"/>
     </row>
-    <row r="43" spans="4:7">
-      <c r="D43" s="98" t="s">
-        <v>1079</v>
+    <row r="43" spans="3:7">
+      <c r="D43" s="105" t="s">
+        <v>505</v>
       </c>
       <c r="E43" s="107"/>
       <c r="G43" s="107"/>
     </row>
-    <row r="44" spans="4:7">
-      <c r="D44" s="98" t="s">
-        <v>1080</v>
+    <row r="44" spans="3:7">
+      <c r="D44" s="105" t="s">
+        <v>506</v>
       </c>
       <c r="E44" s="107"/>
       <c r="G44" s="107"/>
     </row>
-    <row r="45" spans="4:7">
-      <c r="D45" s="105" t="s">
-        <v>1104</v>
-      </c>
+    <row r="45" spans="3:7">
+      <c r="D45" s="105"/>
       <c r="E45" s="107"/>
       <c r="G45" s="107"/>
     </row>
-    <row r="46" spans="4:7">
-      <c r="D46" s="105" t="s">
-        <v>1105</v>
+    <row r="46" spans="3:7">
+      <c r="D46" s="171" t="s">
+        <v>1077</v>
       </c>
       <c r="E46" s="107"/>
       <c r="G46" s="107"/>
     </row>
-    <row r="47" spans="4:7">
-      <c r="D47" s="105"/>
+    <row r="47" spans="3:7">
+      <c r="D47" s="98" t="s">
+        <v>1078</v>
+      </c>
       <c r="E47" s="107"/>
       <c r="G47" s="107"/>
     </row>
-    <row r="48" spans="4:7">
-      <c r="D48" s="105" t="s">
-        <v>1106</v>
+    <row r="48" spans="3:7">
+      <c r="D48" s="98" t="s">
+        <v>1079</v>
       </c>
       <c r="E48" s="107"/>
       <c r="G48" s="107"/>
     </row>
     <row r="49" spans="4:7">
-      <c r="D49" s="105" t="s">
-        <v>1107</v>
+      <c r="D49" s="98" t="s">
+        <v>1080</v>
       </c>
       <c r="E49" s="107"/>
       <c r="G49" s="107"/>
     </row>
     <row r="50" spans="4:7">
-      <c r="D50" s="105"/>
+      <c r="D50" s="105" t="s">
+        <v>1104</v>
+      </c>
       <c r="E50" s="107"/>
       <c r="G50" s="107"/>
     </row>
     <row r="51" spans="4:7">
       <c r="D51" s="105" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="E51" s="107"/>
       <c r="G51" s="107"/>
     </row>
     <row r="52" spans="4:7">
-      <c r="D52" s="105" t="s">
-        <v>1109</v>
-      </c>
+      <c r="D52" s="105"/>
       <c r="E52" s="107"/>
       <c r="G52" s="107"/>
     </row>
     <row r="53" spans="4:7">
-      <c r="D53" s="105"/>
+      <c r="D53" s="105" t="s">
+        <v>1106</v>
+      </c>
       <c r="E53" s="107"/>
       <c r="G53" s="107"/>
     </row>
     <row r="54" spans="4:7">
-      <c r="D54" s="100" t="s">
+      <c r="D54" s="105" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E54" s="107"/>
+      <c r="G54" s="107"/>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" s="105"/>
+      <c r="E55" s="107"/>
+      <c r="G55" s="107"/>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="D56" s="105" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E56" s="107"/>
+      <c r="G56" s="107"/>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="D57" s="105" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E57" s="107"/>
+      <c r="G57" s="107"/>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="D58" s="105"/>
+      <c r="E58" s="107"/>
+      <c r="G58" s="107"/>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="D59" s="100" t="s">
         <v>1081</v>
       </c>
-      <c r="E54" s="100" t="s">
+      <c r="E59" s="100" t="s">
         <v>1082</v>
       </c>
-      <c r="F54" s="100" t="s">
+      <c r="F59" s="100" t="s">
         <v>1083</v>
-      </c>
-      <c r="G54" s="107"/>
-    </row>
-    <row r="55" spans="4:7">
-      <c r="D55" s="147" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="147" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F55" s="147" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G55" s="107"/>
-    </row>
-    <row r="56" spans="4:7" ht="27">
-      <c r="D56" s="147" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E56" s="147" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F56" s="147" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G56" s="107"/>
-    </row>
-    <row r="57" spans="4:7">
-      <c r="D57" s="215" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E57" s="147" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F57" s="147" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G57" s="107"/>
-    </row>
-    <row r="58" spans="4:7" ht="27">
-      <c r="D58" s="147" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E58" s="147" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F58" s="147" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G58" s="107"/>
-    </row>
-    <row r="59" spans="4:7" ht="27">
-      <c r="D59" s="147" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E59" s="147" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F59" s="147" t="s">
-        <v>1096</v>
       </c>
       <c r="G59" s="107"/>
     </row>
     <row r="60" spans="4:7">
       <c r="D60" s="147" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="147" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F60" s="147" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G60" s="107"/>
+    </row>
+    <row r="61" spans="4:7" ht="27">
+      <c r="D61" s="147" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E61" s="147" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F61" s="147" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G61" s="107"/>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="D62" s="199" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E62" s="147" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F62" s="147" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G62" s="107"/>
+    </row>
+    <row r="63" spans="4:7" ht="27">
+      <c r="D63" s="147" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E63" s="147" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F63" s="147" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G63" s="107"/>
+    </row>
+    <row r="64" spans="4:7" ht="27">
+      <c r="D64" s="147" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E64" s="147" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F64" s="147" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G64" s="107"/>
+    </row>
+    <row r="65" spans="4:7">
+      <c r="D65" s="147" t="s">
         <v>1097</v>
       </c>
-      <c r="E60" s="147" t="s">
+      <c r="E65" s="147" t="s">
         <v>1098</v>
       </c>
-      <c r="F60" s="147" t="s">
+      <c r="F65" s="147" t="s">
         <v>1099</v>
       </c>
-      <c r="G60" s="107"/>
-    </row>
-    <row r="61" spans="4:7">
-      <c r="D61" s="147" t="s">
+      <c r="G65" s="107"/>
+    </row>
+    <row r="66" spans="4:7">
+      <c r="D66" s="147" t="s">
         <v>1100</v>
       </c>
-      <c r="E61" s="147" t="s">
+      <c r="E66" s="147" t="s">
         <v>1101</v>
       </c>
-      <c r="F61" s="147" t="s">
+      <c r="F66" s="147" t="s">
         <v>1102</v>
       </c>
-      <c r="G61" s="107"/>
-    </row>
-    <row r="62" spans="4:7">
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="147"/>
-      <c r="G62" s="107"/>
-    </row>
-    <row r="63" spans="4:7">
-      <c r="D63" s="96" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
-      <c r="G63" s="107"/>
-    </row>
-    <row r="64" spans="4:7">
-      <c r="D64" s="96"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
-      <c r="G64" s="107"/>
-    </row>
-    <row r="65" spans="4:7">
-      <c r="D65" s="96" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E65" s="147"/>
-      <c r="F65" s="147"/>
-      <c r="G65" s="107"/>
-    </row>
-    <row r="66" spans="4:7">
-      <c r="D66" s="96"/>
-      <c r="E66" s="147"/>
-      <c r="F66" s="147"/>
       <c r="G66" s="107"/>
     </row>
     <row r="67" spans="4:7">
-      <c r="D67" s="96" t="s">
-        <v>1112</v>
-      </c>
+      <c r="D67" s="147"/>
       <c r="E67" s="147"/>
       <c r="F67" s="147"/>
       <c r="G67" s="107"/>
     </row>
     <row r="68" spans="4:7">
       <c r="D68" s="96" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="E68" s="147"/>
       <c r="F68" s="147"/>
       <c r="G68" s="107"/>
     </row>
     <row r="69" spans="4:7">
+      <c r="D69" s="96"/>
       <c r="E69" s="147"/>
       <c r="F69" s="147"/>
       <c r="G69" s="107"/>
     </row>
     <row r="70" spans="4:7">
       <c r="D70" s="96" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E70" s="147"/>
       <c r="F70" s="147"/>
@@ -14352,7 +14334,7 @@
     </row>
     <row r="72" spans="4:7">
       <c r="D72" s="96" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E72" s="147"/>
       <c r="F72" s="147"/>
@@ -14360,7 +14342,7 @@
     </row>
     <row r="73" spans="4:7">
       <c r="D73" s="96" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E73" s="147"/>
       <c r="F73" s="147"/>
@@ -14373,7 +14355,7 @@
     </row>
     <row r="75" spans="4:7">
       <c r="D75" s="96" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E75" s="147"/>
       <c r="F75" s="147"/>
@@ -14387,7 +14369,7 @@
     </row>
     <row r="77" spans="4:7">
       <c r="D77" s="96" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E77" s="147"/>
       <c r="F77" s="147"/>
@@ -14395,1481 +14377,1475 @@
     </row>
     <row r="78" spans="4:7">
       <c r="D78" s="96" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E78" s="147"/>
       <c r="F78" s="147"/>
       <c r="G78" s="107"/>
     </row>
     <row r="79" spans="4:7">
-      <c r="D79" s="96"/>
       <c r="E79" s="147"/>
       <c r="F79" s="147"/>
       <c r="G79" s="107"/>
     </row>
     <row r="80" spans="4:7">
       <c r="D80" s="96" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E80" s="147"/>
       <c r="F80" s="147"/>
       <c r="G80" s="107"/>
     </row>
-    <row r="81" spans="3:7">
+    <row r="81" spans="4:7">
       <c r="D81" s="96"/>
       <c r="E81" s="147"/>
       <c r="F81" s="147"/>
       <c r="G81" s="107"/>
     </row>
-    <row r="82" spans="3:7">
+    <row r="82" spans="4:7">
       <c r="D82" s="96" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E82" s="147"/>
       <c r="F82" s="147"/>
       <c r="G82" s="107"/>
     </row>
-    <row r="83" spans="3:7">
+    <row r="83" spans="4:7">
       <c r="D83" s="96" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E83" s="147"/>
       <c r="F83" s="147"/>
       <c r="G83" s="107"/>
     </row>
-    <row r="84" spans="3:7">
+    <row r="84" spans="4:7">
+      <c r="D84" s="96"/>
       <c r="E84" s="147"/>
       <c r="F84" s="147"/>
       <c r="G84" s="107"/>
     </row>
-    <row r="85" spans="3:7">
+    <row r="85" spans="4:7">
       <c r="D85" s="96" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E85" s="147"/>
       <c r="F85" s="147"/>
       <c r="G85" s="107"/>
     </row>
-    <row r="86" spans="3:7">
+    <row r="86" spans="4:7">
       <c r="D86" s="96"/>
       <c r="E86" s="147"/>
       <c r="F86" s="147"/>
       <c r="G86" s="107"/>
     </row>
-    <row r="87" spans="3:7">
+    <row r="87" spans="4:7">
       <c r="D87" s="96" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E87" s="147"/>
       <c r="F87" s="147"/>
       <c r="G87" s="107"/>
     </row>
-    <row r="88" spans="3:7">
+    <row r="88" spans="4:7">
       <c r="D88" s="96" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E88" s="147"/>
       <c r="F88" s="147"/>
       <c r="G88" s="107"/>
     </row>
-    <row r="89" spans="3:7">
+    <row r="89" spans="4:7">
       <c r="E89" s="147"/>
       <c r="F89" s="147"/>
       <c r="G89" s="107"/>
     </row>
-    <row r="90" spans="3:7">
+    <row r="90" spans="4:7">
+      <c r="D90" s="96" t="s">
+        <v>1123</v>
+      </c>
       <c r="E90" s="147"/>
       <c r="F90" s="147"/>
       <c r="G90" s="107"/>
     </row>
-    <row r="94" spans="3:7">
-      <c r="C94" s="105" t="s">
+    <row r="91" spans="4:7">
+      <c r="D91" s="96"/>
+      <c r="E91" s="147"/>
+      <c r="F91" s="147"/>
+      <c r="G91" s="107"/>
+    </row>
+    <row r="92" spans="4:7">
+      <c r="D92" s="96" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E92" s="147"/>
+      <c r="F92" s="147"/>
+      <c r="G92" s="107"/>
+    </row>
+    <row r="93" spans="4:7">
+      <c r="D93" s="96" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E93" s="147"/>
+      <c r="F93" s="147"/>
+      <c r="G93" s="107"/>
+    </row>
+    <row r="94" spans="4:7">
+      <c r="E94" s="147"/>
+      <c r="F94" s="147"/>
+      <c r="G94" s="107"/>
+    </row>
+    <row r="95" spans="4:7">
+      <c r="E95" s="147"/>
+      <c r="F95" s="147"/>
+      <c r="G95" s="107"/>
+    </row>
+    <row r="99" spans="3:5">
+      <c r="C99" s="105" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="95" spans="3:7">
-      <c r="E95" s="104" t="s">
+    <row r="100" spans="3:5">
+      <c r="E100" s="104" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="96" spans="3:7" ht="121.5">
-      <c r="E96" s="107" t="s">
+    <row r="101" spans="3:5" ht="121.5">
+      <c r="E101" s="107" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="98" spans="3:5" ht="14.25">
-      <c r="C98" s="137" t="s">
+    <row r="103" spans="3:5" ht="14.25">
+      <c r="C103" s="137" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="99" spans="3:5">
-      <c r="C99" s="108"/>
-    </row>
-    <row r="100" spans="3:5">
-      <c r="C100" s="108" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5">
-      <c r="C101" s="108"/>
-      <c r="D101" s="104" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" ht="108">
-      <c r="E102" s="107" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5">
-      <c r="E103" s="104" t="s">
-        <v>613</v>
-      </c>
-    </row>
     <row r="104" spans="3:5">
-      <c r="D104" s="105" t="s">
-        <v>568</v>
-      </c>
+      <c r="C104" s="108"/>
     </row>
     <row r="105" spans="3:5">
       <c r="C105" s="108" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5">
+      <c r="C106" s="108"/>
+      <c r="D106" s="104" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" ht="108">
+      <c r="E107" s="107" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5">
+      <c r="E108" s="104" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5">
+      <c r="D109" s="105" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5">
+      <c r="C110" s="108" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="106" spans="3:5">
-      <c r="C106" s="110"/>
-      <c r="D106" s="111" t="s">
+    <row r="111" spans="3:5">
+      <c r="C111" s="110"/>
+      <c r="D111" s="111" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="107" spans="3:5" ht="14.25">
-      <c r="C107" s="133"/>
-      <c r="D107" s="134"/>
-      <c r="E107" s="104" t="s">
+    <row r="112" spans="3:5" ht="14.25">
+      <c r="C112" s="133"/>
+      <c r="D112" s="134"/>
+      <c r="E112" s="104" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="108" spans="3:5" ht="94.5">
-      <c r="E108" s="107" t="s">
+    <row r="113" spans="3:5" ht="94.5">
+      <c r="E113" s="107" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="109" spans="3:5">
-      <c r="D109" s="104" t="s">
+    <row r="114" spans="3:5">
+      <c r="D114" s="104" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="110" spans="3:5">
-      <c r="D110" s="105" t="s">
+    <row r="115" spans="3:5">
+      <c r="D115" s="105" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="111" spans="3:5">
-      <c r="C111" s="104" t="s">
+    <row r="116" spans="3:5">
+      <c r="C116" s="104" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="112" spans="3:5">
-      <c r="C112" s="135" t="s">
+    <row r="117" spans="3:5">
+      <c r="C117" s="135" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
-      <c r="C113" s="135" t="s">
+    <row r="118" spans="3:5">
+      <c r="C118" s="135" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="114" spans="3:3">
-      <c r="C114" s="104" t="s">
+    <row r="119" spans="3:5">
+      <c r="C119" s="104" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="115" spans="3:3">
-      <c r="C115" s="135" t="s">
+    <row r="120" spans="3:5">
+      <c r="C120" s="135" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="117" spans="3:3" ht="17.25">
-      <c r="C117" s="131" t="s">
+    <row r="122" spans="3:5" ht="17.25">
+      <c r="C122" s="131" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="132"/>
-    </row>
-    <row r="119" spans="3:3">
-      <c r="C119" s="135" t="s">
+    <row r="123" spans="3:5">
+      <c r="C123" s="132"/>
+    </row>
+    <row r="124" spans="3:5">
+      <c r="C124" s="135" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
-      <c r="C120" s="136" t="s">
+    <row r="125" spans="3:5">
+      <c r="C125" s="136" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="121" spans="3:3">
-      <c r="C121" s="136" t="s">
+    <row r="126" spans="3:5">
+      <c r="C126" s="136" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="122" spans="3:3">
-      <c r="C122" s="136" t="s">
+    <row r="127" spans="3:5">
+      <c r="C127" s="136" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="123" spans="3:3">
-      <c r="C123" s="108"/>
-    </row>
-    <row r="124" spans="3:3" ht="17.25">
-      <c r="C124" s="130" t="s">
+    <row r="128" spans="3:5">
+      <c r="C128" s="108"/>
+    </row>
+    <row r="129" spans="3:3" ht="17.25">
+      <c r="C129" s="130" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="125" spans="3:3">
-      <c r="C125" s="108"/>
-    </row>
-    <row r="126" spans="3:3">
-      <c r="C126" s="136" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3">
-      <c r="C127" s="136" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3">
-      <c r="C128" s="136" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3">
-      <c r="C129" s="136" t="s">
-        <v>584</v>
-      </c>
-    </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="136" t="s">
-        <v>585</v>
-      </c>
+      <c r="C130" s="108"/>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" s="136" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="108"/>
-    </row>
-    <row r="133" spans="3:3" ht="17.25">
-      <c r="C133" s="130" t="s">
-        <v>587</v>
+      <c r="C132" s="136" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="136" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="108"/>
+      <c r="C134" s="136" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="136" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="136" spans="3:3">
       <c r="C136" s="136" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="136" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3">
-      <c r="C138" s="136" t="s">
-        <v>591</v>
+      <c r="C137" s="108"/>
+    </row>
+    <row r="138" spans="3:3" ht="17.25">
+      <c r="C138" s="130" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" s="108"/>
     </row>
-    <row r="140" spans="3:3" ht="17.25">
-      <c r="C140" s="130" t="s">
-        <v>592</v>
+    <row r="140" spans="3:3">
+      <c r="C140" s="136" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="108"/>
+      <c r="C141" s="136" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="136" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" s="136" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="108"/>
+    </row>
+    <row r="145" spans="2:5" ht="17.25">
+      <c r="C145" s="130" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="C146" s="108"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="C147" s="136" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="C148" s="136" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="144" spans="3:3">
-      <c r="C144" s="136" t="s">
+    <row r="149" spans="2:5">
+      <c r="C149" s="136" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="145" spans="2:5">
-      <c r="C145" s="136" t="s">
+    <row r="150" spans="2:5">
+      <c r="C150" s="136" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="146" spans="2:5">
-      <c r="C146" s="136" t="s">
+    <row r="151" spans="2:5">
+      <c r="C151" s="136" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
-      <c r="C147" s="108"/>
-    </row>
-    <row r="148" spans="2:5" ht="16.5">
-      <c r="B148" s="128" t="s">
+    <row r="152" spans="2:5">
+      <c r="C152" s="108"/>
+    </row>
+    <row r="153" spans="2:5" ht="16.5">
+      <c r="B153" s="128" t="s">
         <v>555</v>
       </c>
-      <c r="C148" s="108"/>
-    </row>
-    <row r="149" spans="2:5" ht="26.25" customHeight="1">
-      <c r="B149" s="178"/>
-      <c r="C149" s="108" t="s">
+      <c r="C153" s="108"/>
+    </row>
+    <row r="154" spans="2:5" ht="26.25" customHeight="1">
+      <c r="B154" s="178"/>
+      <c r="C154" s="108" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
-      <c r="B150" s="129" t="s">
+    <row r="155" spans="2:5">
+      <c r="B155" s="129" t="s">
         <v>608</v>
       </c>
-      <c r="C150" s="108"/>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="C151" s="105"/>
-      <c r="D151" s="104" t="s">
+      <c r="C155" s="108"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="C156" s="105"/>
+      <c r="D156" s="104" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="108">
-      <c r="E152" s="107" t="s">
+    <row r="157" spans="2:5" ht="108">
+      <c r="E157" s="107" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="153" spans="2:5">
-      <c r="C153" s="105" t="s">
+    <row r="158" spans="2:5">
+      <c r="C158" s="105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="154" spans="2:5">
-      <c r="C154" s="135" t="s">
+    <row r="159" spans="2:5">
+      <c r="C159" s="135" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="155" spans="2:5">
-      <c r="C155" s="135" t="s">
+    <row r="160" spans="2:5">
+      <c r="C160" s="135" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="156" spans="2:5">
-      <c r="C156" s="135" t="s">
+    <row r="161" spans="3:5">
+      <c r="C161" s="135" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="16.5" customHeight="1">
-      <c r="C157" s="199" t="s">
+    <row r="162" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C162" s="200" t="s">
         <v>523</v>
       </c>
-      <c r="D157" s="199"/>
-      <c r="E157" s="199"/>
-    </row>
-    <row r="158" spans="2:5" ht="16.5" customHeight="1">
-      <c r="C158" s="161"/>
-      <c r="D158" s="161"/>
-      <c r="E158" s="161"/>
-    </row>
-    <row r="159" spans="2:5" ht="16.5" customHeight="1">
-      <c r="C159" s="97" t="s">
-        <v>622</v>
-      </c>
-      <c r="D159" s="161"/>
-      <c r="E159" s="161"/>
-    </row>
-    <row r="160" spans="2:5" ht="16.5" customHeight="1">
-      <c r="C160"/>
-      <c r="D160" s="161"/>
-      <c r="E160" s="161"/>
-    </row>
-    <row r="161" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C161" s="128" t="s">
-        <v>621</v>
-      </c>
-      <c r="D161" s="161"/>
-      <c r="E161" s="161"/>
-    </row>
-    <row r="162" spans="3:5" ht="121.5">
-      <c r="C162" s="161"/>
-      <c r="D162" s="161"/>
-      <c r="E162" s="107" t="s">
-        <v>767</v>
-      </c>
+      <c r="D162" s="200"/>
+      <c r="E162" s="200"/>
     </row>
     <row r="163" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C163" t="s">
-        <v>623</v>
-      </c>
+      <c r="C163" s="161"/>
       <c r="D163" s="161"/>
       <c r="E163" s="161"/>
     </row>
     <row r="164" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C164"/>
+      <c r="C164" s="97" t="s">
+        <v>622</v>
+      </c>
       <c r="D164" s="161"/>
       <c r="E164" s="161"/>
     </row>
     <row r="165" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C165" s="105" t="s">
-        <v>626</v>
-      </c>
+      <c r="C165"/>
       <c r="D165" s="161"/>
       <c r="E165" s="161"/>
     </row>
     <row r="166" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C166" s="105"/>
+      <c r="C166" s="128" t="s">
+        <v>621</v>
+      </c>
       <c r="D166" s="161"/>
       <c r="E166" s="161"/>
     </row>
-    <row r="167" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C167" s="128" t="s">
-        <v>624</v>
-      </c>
+    <row r="167" spans="3:5" ht="121.5">
+      <c r="C167" s="161"/>
       <c r="D167" s="161"/>
-      <c r="E167" s="161"/>
+      <c r="E167" s="107" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="168" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C168" s="129" t="s">
-        <v>625</v>
+      <c r="C168" t="s">
+        <v>623</v>
       </c>
       <c r="D168" s="161"/>
       <c r="E168" s="161"/>
     </row>
-    <row r="169" spans="3:5" ht="101.25" customHeight="1">
-      <c r="C169" s="107"/>
-      <c r="D169" s="107"/>
-      <c r="E169" s="139" t="s">
+    <row r="169" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C169"/>
+      <c r="D169" s="161"/>
+      <c r="E169" s="161"/>
+    </row>
+    <row r="170" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C170" s="105" t="s">
+        <v>626</v>
+      </c>
+      <c r="D170" s="161"/>
+      <c r="E170" s="161"/>
+    </row>
+    <row r="171" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C171" s="105"/>
+      <c r="D171" s="161"/>
+      <c r="E171" s="161"/>
+    </row>
+    <row r="172" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C172" s="128" t="s">
+        <v>624</v>
+      </c>
+      <c r="D172" s="161"/>
+      <c r="E172" s="161"/>
+    </row>
+    <row r="173" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C173" s="129" t="s">
+        <v>625</v>
+      </c>
+      <c r="D173" s="161"/>
+      <c r="E173" s="161"/>
+    </row>
+    <row r="174" spans="3:5" ht="101.25" customHeight="1">
+      <c r="C174" s="107"/>
+      <c r="D174" s="107"/>
+      <c r="E174" s="139" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="170" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C170" s="129" t="s">
+    <row r="175" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C175" s="129" t="s">
         <v>628</v>
       </c>
-      <c r="D170" s="107"/>
-      <c r="E170" s="107"/>
-    </row>
-    <row r="171" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C171" s="101" t="s">
+      <c r="D175" s="107"/>
+      <c r="E175" s="107"/>
+    </row>
+    <row r="176" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C176" s="101" t="s">
         <v>629</v>
       </c>
-      <c r="D171" s="107"/>
-      <c r="E171" s="107"/>
-    </row>
-    <row r="172" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C172" s="98" t="s">
+      <c r="D176" s="107"/>
+      <c r="E176" s="107"/>
+    </row>
+    <row r="177" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C177" s="98" t="s">
         <v>630</v>
       </c>
-      <c r="D172" s="107"/>
-      <c r="E172" s="107"/>
-    </row>
-    <row r="173" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C173" s="107"/>
-      <c r="D173" s="107"/>
-      <c r="E173" s="107"/>
-    </row>
-    <row r="174" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D174" s="97" t="s">
+      <c r="D177" s="107"/>
+      <c r="E177" s="107"/>
+    </row>
+    <row r="178" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C178" s="107"/>
+      <c r="D178" s="107"/>
+      <c r="E178" s="107"/>
+    </row>
+    <row r="179" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D179" s="97" t="s">
         <v>642</v>
       </c>
-      <c r="E174" s="140"/>
-    </row>
-    <row r="175" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C175" s="96"/>
-      <c r="D175"/>
-      <c r="E175" s="140"/>
-    </row>
-    <row r="176" spans="3:5" ht="54">
-      <c r="C176" s="99"/>
-      <c r="D176"/>
-      <c r="E176" s="141" t="s">
+      <c r="E179" s="140"/>
+    </row>
+    <row r="180" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C180" s="96"/>
+      <c r="D180"/>
+      <c r="E180" s="140"/>
+    </row>
+    <row r="181" spans="3:6" ht="54">
+      <c r="C181" s="99"/>
+      <c r="D181"/>
+      <c r="E181" s="141" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="177" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C177" s="99"/>
-      <c r="D177"/>
-      <c r="E177"/>
-    </row>
-    <row r="178" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C178" s="99"/>
-      <c r="D178" t="s">
-        <v>643</v>
-      </c>
-      <c r="E178"/>
-      <c r="F178"/>
-    </row>
-    <row r="179" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C179" s="99"/>
-      <c r="D179" s="101" t="s">
-        <v>644</v>
-      </c>
-      <c r="E179"/>
-      <c r="F179"/>
-    </row>
-    <row r="180" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D180" s="98" t="s">
-        <v>645</v>
-      </c>
-      <c r="E180"/>
-      <c r="F180"/>
-    </row>
-    <row r="181" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D181"/>
-      <c r="E181"/>
-      <c r="F181"/>
-    </row>
     <row r="182" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C182" s="99"/>
       <c r="D182"/>
       <c r="E182"/>
-      <c r="F182"/>
     </row>
     <row r="183" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D183"/>
+      <c r="C183" s="99"/>
+      <c r="D183" t="s">
+        <v>643</v>
+      </c>
       <c r="E183"/>
       <c r="F183"/>
     </row>
-    <row r="184" spans="3:6" ht="21">
-      <c r="D184" s="97" t="s">
-        <v>646</v>
+    <row r="184" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C184" s="99"/>
+      <c r="D184" s="101" t="s">
+        <v>644</v>
       </c>
       <c r="E184"/>
       <c r="F184"/>
     </row>
     <row r="185" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D185"/>
+      <c r="D185" s="98" t="s">
+        <v>645</v>
+      </c>
       <c r="E185"/>
       <c r="F185"/>
     </row>
     <row r="186" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D186" s="142" t="s">
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+    </row>
+    <row r="187" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+    </row>
+    <row r="188" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+    </row>
+    <row r="189" spans="3:6" ht="21">
+      <c r="D189" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="E189"/>
+      <c r="F189"/>
+    </row>
+    <row r="190" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190"/>
+    </row>
+    <row r="191" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D191" s="142" t="s">
         <v>647</v>
       </c>
-      <c r="E186" s="142" t="s">
+      <c r="E191" s="142" t="s">
         <v>648</v>
       </c>
-      <c r="F186" s="142" t="s">
+      <c r="F191" s="142" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="187" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D187" s="96" t="s">
+    <row r="192" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D192" s="96" t="s">
         <v>650</v>
       </c>
-      <c r="E187" s="96" t="s">
+      <c r="E192" s="96" t="s">
         <v>651</v>
       </c>
-      <c r="F187" s="96" t="s">
+      <c r="F192" s="96" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="188" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D188" s="96" t="s">
+    <row r="193" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D193" s="96" t="s">
         <v>652</v>
       </c>
-      <c r="E188" s="96" t="s">
+      <c r="E193" s="96" t="s">
         <v>653</v>
       </c>
-      <c r="F188" s="96" t="s">
+      <c r="F193" s="96" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="189" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D189" s="96" t="s">
+    <row r="194" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D194" s="96" t="s">
         <v>655</v>
       </c>
-      <c r="E189" s="96" t="s">
+      <c r="E194" s="96" t="s">
         <v>656</v>
       </c>
-      <c r="F189" s="96" t="s">
+      <c r="F194" s="96" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="190" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D190" s="96" t="s">
+    <row r="195" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D195" s="96" t="s">
         <v>658</v>
       </c>
-      <c r="E190" s="96" t="s">
+      <c r="E195" s="96" t="s">
         <v>659</v>
       </c>
-      <c r="F190" s="96" t="s">
+      <c r="F195" s="96" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="191" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D191" s="96" t="s">
+    <row r="196" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D196" s="96" t="s">
         <v>661</v>
       </c>
-      <c r="E191" s="96" t="s">
+      <c r="E196" s="96" t="s">
         <v>662</v>
       </c>
-      <c r="F191" s="96" t="s">
+      <c r="F196" s="96" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="192" spans="3:6" ht="16.5" customHeight="1">
-      <c r="D192"/>
-      <c r="E192"/>
-      <c r="F192"/>
-    </row>
-    <row r="193" spans="4:7" ht="21">
-      <c r="D193" s="97" t="s">
+    <row r="197" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+    </row>
+    <row r="198" spans="4:7" ht="21">
+      <c r="D198" s="97" t="s">
         <v>664</v>
       </c>
-      <c r="E193"/>
-      <c r="F193"/>
-    </row>
-    <row r="194" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D194" t="s">
+      <c r="E198"/>
+      <c r="F198"/>
+    </row>
+    <row r="199" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D199" t="s">
         <v>973</v>
       </c>
-      <c r="E194"/>
-      <c r="F194"/>
-    </row>
-    <row r="195" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D195"/>
-      <c r="E195"/>
-      <c r="F195"/>
-    </row>
-    <row r="196" spans="4:7" ht="16.5" customHeight="1">
-      <c r="D196" s="128" t="s">
+      <c r="E199"/>
+      <c r="F199"/>
+    </row>
+    <row r="200" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+    </row>
+    <row r="201" spans="4:7" ht="16.5" customHeight="1">
+      <c r="D201" s="128" t="s">
         <v>974</v>
       </c>
-      <c r="E196"/>
-      <c r="F196"/>
-    </row>
-    <row r="197" spans="4:7" ht="54">
-      <c r="D197" s="98" t="s">
+      <c r="E201"/>
+      <c r="F201"/>
+    </row>
+    <row r="202" spans="4:7" ht="54">
+      <c r="D202" s="98" t="s">
         <v>977</v>
       </c>
-      <c r="E197" s="138" t="s">
+      <c r="E202" s="138" t="s">
         <v>976</v>
       </c>
-      <c r="F197" s="110" t="s">
+      <c r="F202" s="110" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="198" spans="4:7" ht="121.5">
-      <c r="D198" s="98" t="s">
+    <row r="203" spans="4:7" ht="121.5">
+      <c r="D203" s="98" t="s">
         <v>975</v>
       </c>
-      <c r="E198" s="138" t="s">
+      <c r="E203" s="138" t="s">
         <v>972</v>
       </c>
-      <c r="F198" s="108" t="s">
+      <c r="F203" s="108" t="s">
         <v>979</v>
       </c>
-      <c r="G198" s="104" t="s">
+      <c r="G203" s="104" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="199" spans="4:7" ht="14.25">
-      <c r="D199" s="177" t="s">
+    <row r="204" spans="4:7" ht="14.25">
+      <c r="D204" s="177" t="s">
         <v>980</v>
       </c>
-      <c r="E199" s="138"/>
-      <c r="F199"/>
-    </row>
-    <row r="200" spans="4:7">
-      <c r="D200" t="s">
+      <c r="E204" s="138"/>
+      <c r="F204"/>
+    </row>
+    <row r="205" spans="4:7">
+      <c r="D205" t="s">
         <v>981</v>
       </c>
-      <c r="E200" s="138"/>
-      <c r="F200"/>
-    </row>
-    <row r="201" spans="4:7">
-      <c r="D201" t="s">
+      <c r="E205" s="138"/>
+      <c r="F205"/>
+    </row>
+    <row r="206" spans="4:7">
+      <c r="D206" t="s">
         <v>982</v>
       </c>
-      <c r="E201" s="138"/>
-      <c r="F201"/>
-    </row>
-    <row r="202" spans="4:7" ht="108">
-      <c r="D202" s="96"/>
-      <c r="E202" s="138" t="s">
+      <c r="E206" s="138"/>
+      <c r="F206"/>
+    </row>
+    <row r="207" spans="4:7" ht="108">
+      <c r="D207" s="96"/>
+      <c r="E207" s="138" t="s">
         <v>1008</v>
       </c>
-      <c r="F202"/>
-    </row>
-    <row r="203" spans="4:7" ht="21">
-      <c r="D203" s="96"/>
-      <c r="E203" s="97" t="s">
+      <c r="F207"/>
+    </row>
+    <row r="208" spans="4:7" ht="21">
+      <c r="D208" s="96"/>
+      <c r="E208" s="97" t="s">
         <v>1007</v>
-      </c>
-      <c r="F203"/>
-    </row>
-    <row r="204" spans="4:7">
-      <c r="D204" s="96"/>
-      <c r="E204"/>
-      <c r="F204"/>
-    </row>
-    <row r="205" spans="4:7">
-      <c r="D205" s="96"/>
-      <c r="E205" t="s">
-        <v>998</v>
-      </c>
-      <c r="F205"/>
-    </row>
-    <row r="206" spans="4:7">
-      <c r="D206" s="96"/>
-      <c r="E206" s="171" t="s">
-        <v>999</v>
-      </c>
-      <c r="F206"/>
-    </row>
-    <row r="207" spans="4:7">
-      <c r="D207" s="96"/>
-      <c r="E207" s="98" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F207"/>
-    </row>
-    <row r="208" spans="4:7">
-      <c r="D208" s="96"/>
-      <c r="E208" s="98" t="s">
-        <v>1001</v>
       </c>
       <c r="F208"/>
     </row>
     <row r="209" spans="4:6">
       <c r="D209" s="96"/>
-      <c r="E209" s="98" t="s">
-        <v>1002</v>
-      </c>
+      <c r="E209"/>
       <c r="F209"/>
     </row>
     <row r="210" spans="4:6">
       <c r="D210" s="96"/>
-      <c r="E210" s="98" t="s">
-        <v>1003</v>
+      <c r="E210" t="s">
+        <v>998</v>
       </c>
       <c r="F210"/>
     </row>
     <row r="211" spans="4:6">
       <c r="D211" s="96"/>
-      <c r="E211" s="98" t="s">
-        <v>1004</v>
+      <c r="E211" s="171" t="s">
+        <v>999</v>
       </c>
       <c r="F211"/>
     </row>
     <row r="212" spans="4:6">
       <c r="D212" s="96"/>
-      <c r="E212" s="98"/>
+      <c r="E212" s="98" t="s">
+        <v>1000</v>
+      </c>
       <c r="F212"/>
     </row>
-    <row r="213" spans="4:6" ht="14.25">
+    <row r="213" spans="4:6">
       <c r="D213" s="96"/>
-      <c r="E213" t="s">
-        <v>1005</v>
+      <c r="E213" s="98" t="s">
+        <v>1001</v>
       </c>
       <c r="F213"/>
     </row>
-    <row r="214" spans="4:6" ht="14.25">
+    <row r="214" spans="4:6">
       <c r="D214" s="96"/>
-      <c r="E214" t="s">
-        <v>1006</v>
+      <c r="E214" s="98" t="s">
+        <v>1002</v>
       </c>
       <c r="F214"/>
     </row>
     <row r="215" spans="4:6">
       <c r="D215" s="96"/>
+      <c r="E215" s="98" t="s">
+        <v>1003</v>
+      </c>
       <c r="F215"/>
     </row>
-    <row r="216" spans="4:6" ht="21">
+    <row r="216" spans="4:6">
       <c r="D216" s="96"/>
-      <c r="E216" s="97" t="s">
-        <v>1013</v>
+      <c r="E216" s="98" t="s">
+        <v>1004</v>
       </c>
       <c r="F216"/>
     </row>
     <row r="217" spans="4:6">
       <c r="D217" s="96"/>
-      <c r="E217" s="171" t="s">
-        <v>1009</v>
-      </c>
+      <c r="E217" s="98"/>
       <c r="F217"/>
     </row>
-    <row r="218" spans="4:6">
+    <row r="218" spans="4:6" ht="14.25">
       <c r="D218" s="96"/>
-      <c r="E218" s="98" t="s">
-        <v>1010</v>
+      <c r="E218" t="s">
+        <v>1005</v>
       </c>
       <c r="F218"/>
     </row>
-    <row r="219" spans="4:6">
+    <row r="219" spans="4:6" ht="14.25">
       <c r="D219" s="96"/>
-      <c r="E219" s="98" t="s">
-        <v>1011</v>
+      <c r="E219" t="s">
+        <v>1006</v>
       </c>
       <c r="F219"/>
     </row>
     <row r="220" spans="4:6">
       <c r="D220" s="96"/>
-      <c r="E220" s="98" t="s">
-        <v>1012</v>
-      </c>
       <c r="F220"/>
     </row>
-    <row r="221" spans="4:6">
+    <row r="221" spans="4:6" ht="21">
       <c r="D221" s="96"/>
-      <c r="E221" s="98"/>
+      <c r="E221" s="97" t="s">
+        <v>1013</v>
+      </c>
       <c r="F221"/>
     </row>
     <row r="222" spans="4:6">
       <c r="D222" s="96"/>
-      <c r="E222" s="138"/>
+      <c r="E222" s="171" t="s">
+        <v>1009</v>
+      </c>
       <c r="F222"/>
     </row>
     <row r="223" spans="4:6">
-      <c r="D223" t="s">
-        <v>983</v>
-      </c>
-      <c r="E223" s="138"/>
+      <c r="D223" s="96"/>
+      <c r="E223" s="98" t="s">
+        <v>1010</v>
+      </c>
       <c r="F223"/>
     </row>
     <row r="224" spans="4:6">
-      <c r="D224" t="s">
-        <v>984</v>
-      </c>
-      <c r="E224" s="138"/>
+      <c r="D224" s="96"/>
+      <c r="E224" s="98" t="s">
+        <v>1011</v>
+      </c>
       <c r="F224"/>
     </row>
-    <row r="225" spans="4:6" ht="162">
-      <c r="D225"/>
-      <c r="E225" s="138" t="s">
-        <v>997</v>
+    <row r="225" spans="4:6">
+      <c r="D225" s="96"/>
+      <c r="E225" s="98" t="s">
+        <v>1012</v>
       </c>
       <c r="F225"/>
     </row>
     <row r="226" spans="4:6">
-      <c r="D226" t="s">
-        <v>985</v>
-      </c>
-      <c r="E226" s="138"/>
+      <c r="D226" s="96"/>
+      <c r="E226" s="98"/>
       <c r="F226"/>
     </row>
-    <row r="227" spans="4:6" ht="14.25">
-      <c r="D227" t="s">
-        <v>986</v>
-      </c>
+    <row r="227" spans="4:6">
+      <c r="D227" s="96"/>
       <c r="E227" s="138"/>
       <c r="F227"/>
     </row>
     <row r="228" spans="4:6">
       <c r="D228" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E228" s="138"/>
       <c r="F228"/>
     </row>
     <row r="229" spans="4:6">
-      <c r="D229"/>
+      <c r="D229" t="s">
+        <v>984</v>
+      </c>
       <c r="E229" s="138"/>
       <c r="F229"/>
     </row>
-    <row r="230" spans="4:6">
-      <c r="D230" t="s">
-        <v>988</v>
-      </c>
-      <c r="E230" s="138"/>
+    <row r="230" spans="4:6" ht="162">
+      <c r="D230"/>
+      <c r="E230" s="138" t="s">
+        <v>997</v>
+      </c>
       <c r="F230"/>
     </row>
     <row r="231" spans="4:6">
       <c r="D231" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E231" s="138"/>
       <c r="F231"/>
     </row>
-    <row r="232" spans="4:6">
-      <c r="D232"/>
+    <row r="232" spans="4:6" ht="14.25">
+      <c r="D232" t="s">
+        <v>986</v>
+      </c>
       <c r="E232" s="138"/>
       <c r="F232"/>
     </row>
     <row r="233" spans="4:6">
       <c r="D233" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E233" s="138"/>
       <c r="F233"/>
     </row>
     <row r="234" spans="4:6">
-      <c r="D234" s="98"/>
+      <c r="D234"/>
       <c r="E234" s="138"/>
       <c r="F234"/>
     </row>
     <row r="235" spans="4:6">
-      <c r="D235" s="171" t="s">
-        <v>991</v>
+      <c r="D235" t="s">
+        <v>988</v>
       </c>
       <c r="E235" s="138"/>
       <c r="F235"/>
     </row>
     <row r="236" spans="4:6">
-      <c r="D236" s="98"/>
+      <c r="D236" t="s">
+        <v>989</v>
+      </c>
       <c r="E236" s="138"/>
       <c r="F236"/>
     </row>
     <row r="237" spans="4:6">
-      <c r="D237" s="171" t="s">
-        <v>992</v>
-      </c>
+      <c r="D237"/>
       <c r="E237" s="138"/>
       <c r="F237"/>
     </row>
-    <row r="238" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D238" s="98"/>
-      <c r="E238"/>
+    <row r="238" spans="4:6">
+      <c r="D238" t="s">
+        <v>990</v>
+      </c>
+      <c r="E238" s="138"/>
       <c r="F238"/>
     </row>
-    <row r="239" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D239" s="171" t="s">
+    <row r="239" spans="4:6">
+      <c r="D239" s="98"/>
+      <c r="E239" s="138"/>
+      <c r="F239"/>
+    </row>
+    <row r="240" spans="4:6">
+      <c r="D240" s="171" t="s">
+        <v>991</v>
+      </c>
+      <c r="E240" s="138"/>
+      <c r="F240"/>
+    </row>
+    <row r="241" spans="4:6">
+      <c r="D241" s="98"/>
+      <c r="E241" s="138"/>
+      <c r="F241"/>
+    </row>
+    <row r="242" spans="4:6">
+      <c r="D242" s="171" t="s">
+        <v>992</v>
+      </c>
+      <c r="E242" s="138"/>
+      <c r="F242"/>
+    </row>
+    <row r="243" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D243" s="98"/>
+      <c r="E243"/>
+      <c r="F243"/>
+    </row>
+    <row r="244" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D244" s="171" t="s">
         <v>993</v>
       </c>
-      <c r="E239"/>
-      <c r="F239"/>
-    </row>
-    <row r="240" spans="4:6">
-      <c r="D240"/>
-      <c r="E240"/>
-      <c r="F240"/>
-    </row>
-    <row r="241" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D241" t="s">
-        <v>994</v>
-      </c>
-      <c r="F241" s="142" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="242" spans="4:6">
-      <c r="D242" s="98"/>
-      <c r="F242" s="96" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="243" spans="4:6">
-      <c r="D243" s="98" t="s">
-        <v>995</v>
-      </c>
-      <c r="F243" s="96" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="244" spans="4:6">
-      <c r="D244" s="98"/>
       <c r="E244"/>
       <c r="F244"/>
     </row>
-    <row r="245" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D245" s="98" t="s">
-        <v>996</v>
-      </c>
+    <row r="245" spans="4:6">
+      <c r="D245"/>
       <c r="E245"/>
       <c r="F245"/>
     </row>
-    <row r="246" spans="4:6">
-      <c r="D246" s="144" t="s">
-        <v>683</v>
-      </c>
-      <c r="E246"/>
-      <c r="F246"/>
-    </row>
-    <row r="247" spans="4:6" ht="15" customHeight="1">
-      <c r="D247"/>
-      <c r="E247"/>
-      <c r="F247" s="107"/>
-    </row>
-    <row r="248" spans="4:6" ht="21">
-      <c r="D248" s="97" t="s">
-        <v>632</v>
-      </c>
-      <c r="E248"/>
-      <c r="F248" s="107"/>
-    </row>
-    <row r="249" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D249" s="98" t="s">
-        <v>633</v>
-      </c>
+    <row r="246" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D246" t="s">
+        <v>994</v>
+      </c>
+      <c r="F246" s="142" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6">
+      <c r="D247" s="98"/>
+      <c r="F247" s="96" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="248" spans="4:6">
+      <c r="D248" s="98" t="s">
+        <v>995</v>
+      </c>
+      <c r="F248" s="96" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="249" spans="4:6">
+      <c r="D249" s="98"/>
       <c r="E249"/>
-      <c r="F249" s="107"/>
+      <c r="F249"/>
     </row>
     <row r="250" spans="4:6" ht="16.5" customHeight="1">
       <c r="D250" s="98" t="s">
-        <v>634</v>
+        <v>996</v>
       </c>
       <c r="E250"/>
-      <c r="F250" s="107"/>
-    </row>
-    <row r="251" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D251" s="98" t="s">
-        <v>635</v>
+      <c r="F250"/>
+    </row>
+    <row r="251" spans="4:6">
+      <c r="D251" s="144" t="s">
+        <v>683</v>
       </c>
       <c r="E251"/>
-      <c r="F251" s="107"/>
-    </row>
-    <row r="252" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D252" s="98" t="s">
-        <v>636</v>
-      </c>
+      <c r="F251"/>
+    </row>
+    <row r="252" spans="4:6" ht="15" customHeight="1">
+      <c r="D252"/>
       <c r="E252"/>
       <c r="F252" s="107"/>
     </row>
-    <row r="253" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D253"/>
+    <row r="253" spans="4:6" ht="21">
+      <c r="D253" s="97" t="s">
+        <v>632</v>
+      </c>
       <c r="E253"/>
       <c r="F253" s="107"/>
     </row>
-    <row r="254" spans="4:6" ht="21">
-      <c r="D254" s="97" t="s">
-        <v>637</v>
+    <row r="254" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D254" s="98" t="s">
+        <v>633</v>
       </c>
       <c r="E254"/>
       <c r="F254" s="107"/>
     </row>
     <row r="255" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D255" s="100" t="s">
+      <c r="D255" s="98" t="s">
+        <v>634</v>
+      </c>
+      <c r="E255"/>
+      <c r="F255" s="107"/>
+    </row>
+    <row r="256" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D256" s="98" t="s">
+        <v>635</v>
+      </c>
+      <c r="E256"/>
+      <c r="F256" s="107"/>
+    </row>
+    <row r="257" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D257" s="98" t="s">
+        <v>636</v>
+      </c>
+      <c r="E257"/>
+      <c r="F257" s="107"/>
+    </row>
+    <row r="258" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258" s="107"/>
+    </row>
+    <row r="259" spans="3:6" ht="21">
+      <c r="D259" s="97" t="s">
+        <v>637</v>
+      </c>
+      <c r="E259"/>
+      <c r="F259" s="107"/>
+    </row>
+    <row r="260" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D260" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="E255" s="100" t="s">
+      <c r="E260" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F255" s="107"/>
-    </row>
-    <row r="256" spans="4:6" ht="16.5" customHeight="1">
-      <c r="D256" s="96" t="s">
+      <c r="F260" s="107"/>
+    </row>
+    <row r="261" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D261" s="96" t="s">
         <v>639</v>
       </c>
-      <c r="E256" s="96" t="s">
+      <c r="E261" s="96" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="257" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D257" s="96" t="s">
+    <row r="262" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D262" s="96" t="s">
         <v>640</v>
       </c>
-      <c r="E257" s="96" t="s">
+      <c r="E262" s="96" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="258" spans="3:5" ht="16.5" customHeight="1">
-      <c r="D258" s="96" t="s">
+    <row r="263" spans="3:6" ht="16.5" customHeight="1">
+      <c r="D263" s="96" t="s">
         <v>641</v>
       </c>
-      <c r="E258" s="96" t="s">
+      <c r="E263" s="96" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="259" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="260" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C260" s="128" t="s">
+    <row r="264" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="265" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C265" s="128" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="261" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C261" s="145" t="s">
+    <row r="266" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C266" s="145" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="262" spans="3:5" ht="58.5" customHeight="1">
-      <c r="C262" s="135"/>
-      <c r="E262" s="107" t="s">
+    <row r="267" spans="3:6" ht="58.5" customHeight="1">
+      <c r="C267" s="135"/>
+      <c r="E267" s="107" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="263" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C263" s="145" t="s">
+    <row r="268" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C268" s="145" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="264" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C264" s="146" t="s">
+    <row r="269" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C269" s="146" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="265" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C265" s="146" t="s">
+    <row r="270" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C270" s="146" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="266" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C266" s="146" t="s">
+    <row r="271" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C271" s="146" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="267" spans="3:5" ht="16.5" customHeight="1"/>
-    <row r="268" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C268" s="128" t="s">
+    <row r="272" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="273" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C273" s="128" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="269" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C269"/>
-    </row>
-    <row r="270" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C270" s="129" t="s">
+    <row r="274" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C274"/>
+    </row>
+    <row r="275" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C275" s="129" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="271" spans="3:5" ht="121.5">
-      <c r="E271" s="150" t="s">
+    <row r="276" spans="3:5" ht="121.5">
+      <c r="E276" s="150" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="272" spans="3:5" ht="16.5" customHeight="1">
-      <c r="C272" t="s">
+    <row r="277" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C277" t="s">
         <v>685</v>
       </c>
-      <c r="D272"/>
-    </row>
-    <row r="273" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C273" s="100" t="s">
+      <c r="D277"/>
+    </row>
+    <row r="278" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C278" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="E273" s="100" t="s">
+      <c r="E278" s="100" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="274" spans="3:7" ht="81">
-      <c r="C274" s="147" t="s">
+    <row r="279" spans="3:5" ht="81">
+      <c r="C279" s="147" t="s">
         <v>687</v>
       </c>
-      <c r="E274" s="147" t="s">
+      <c r="E279" s="147" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="275" spans="3:7" ht="26.25" customHeight="1">
-      <c r="C275" s="147" t="s">
+    <row r="280" spans="3:5" ht="26.25" customHeight="1">
+      <c r="C280" s="147" t="s">
         <v>688</v>
       </c>
-      <c r="E275" s="148" t="s">
+      <c r="E280" s="148" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="276" spans="3:7" ht="16.5" customHeight="1"/>
-    <row r="277" spans="3:7" s="105" customFormat="1">
-      <c r="C277" s="105" t="s">
+    <row r="281" spans="3:5" ht="16.5" customHeight="1"/>
+    <row r="282" spans="3:5" s="105" customFormat="1">
+      <c r="C282" s="105" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="278" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C278" s="135" t="s">
+    <row r="283" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C283" s="135" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="279" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C279" s="135" t="s">
+    <row r="284" spans="3:5" ht="16.5" customHeight="1">
+      <c r="C284" s="135" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="280" spans="3:7" ht="132.75" customHeight="1">
-      <c r="D280" s="162" t="s">
+    <row r="285" spans="3:5" ht="132.75" customHeight="1">
+      <c r="D285" s="162" t="s">
         <v>713</v>
       </c>
-      <c r="E280" s="163" t="s">
+      <c r="E285" s="163" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="281" spans="3:7" ht="40.5">
-      <c r="E281" s="150" t="s">
+    <row r="286" spans="3:5" ht="40.5">
+      <c r="E286" s="150" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="282" spans="3:7" ht="21">
-      <c r="E282" s="97" t="s">
+    <row r="287" spans="3:5" ht="21">
+      <c r="E287" s="97" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="283" spans="3:7" ht="16.5" customHeight="1">
-      <c r="E283"/>
-    </row>
-    <row r="284" spans="3:7" ht="16.5" customHeight="1">
-      <c r="E284" s="128" t="s">
+    <row r="288" spans="3:5" ht="16.5" customHeight="1">
+      <c r="E288"/>
+    </row>
+    <row r="289" spans="4:7" ht="16.5" customHeight="1">
+      <c r="E289" s="128" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="285" spans="3:7" ht="91.5" customHeight="1">
-      <c r="E285" s="151" t="s">
+    <row r="290" spans="4:7" ht="91.5" customHeight="1">
+      <c r="E290" s="151" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="286" spans="3:7" ht="21" customHeight="1">
-      <c r="E286" s="153" t="s">
+    <row r="291" spans="4:7" ht="21" customHeight="1">
+      <c r="E291" s="153" t="s">
         <v>705</v>
       </c>
-      <c r="G286" s="153"/>
-    </row>
-    <row r="287" spans="3:7" ht="21" customHeight="1">
-      <c r="E287" s="154" t="s">
+      <c r="G291" s="153"/>
+    </row>
+    <row r="292" spans="4:7" ht="21" customHeight="1">
+      <c r="E292" s="154" t="s">
         <v>706</v>
       </c>
-      <c r="G287" s="153"/>
-    </row>
-    <row r="288" spans="3:7" ht="21" customHeight="1">
-      <c r="E288" s="154" t="s">
+      <c r="G292" s="153"/>
+    </row>
+    <row r="293" spans="4:7" ht="21" customHeight="1">
+      <c r="E293" s="154" t="s">
         <v>760</v>
       </c>
-      <c r="G288" s="153"/>
-    </row>
-    <row r="289" spans="4:7" ht="21" customHeight="1">
-      <c r="E289" s="154" t="s">
+      <c r="G293" s="153"/>
+    </row>
+    <row r="294" spans="4:7" ht="21" customHeight="1">
+      <c r="E294" s="154" t="s">
         <v>711</v>
       </c>
-      <c r="G289" s="153"/>
-    </row>
-    <row r="290" spans="4:7" ht="21" customHeight="1">
-      <c r="E290" s="151"/>
-      <c r="G290" s="153"/>
-    </row>
-    <row r="291" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D291" s="104" t="s">
+      <c r="G294" s="153"/>
+    </row>
+    <row r="295" spans="4:7" ht="21" customHeight="1">
+      <c r="E295" s="151"/>
+      <c r="G295" s="153"/>
+    </row>
+    <row r="296" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D296" s="104" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="292" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D292" s="100" t="s">
+    <row r="297" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D297" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="E292" s="142" t="s">
+      <c r="E297" s="142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D293" s="147" t="s">
+    <row r="298" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D298" s="147" t="s">
         <v>714</v>
       </c>
-      <c r="E293" s="157" t="s">
+      <c r="E298" s="157" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="294" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D294" s="147" t="s">
+    <row r="299" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D299" s="147" t="s">
         <v>719</v>
       </c>
-      <c r="E294" s="96" t="s">
+      <c r="E299" s="96" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="295" spans="4:7" ht="18.75" customHeight="1">
-      <c r="D295" s="147" t="s">
+    <row r="300" spans="4:7" ht="18.75" customHeight="1">
+      <c r="D300" s="147" t="s">
         <v>716</v>
       </c>
-      <c r="E295" s="96" t="s">
+      <c r="E300" s="96" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="296" spans="4:7" ht="18.75" customHeight="1">
-      <c r="E296" s="151"/>
-    </row>
-    <row r="297" spans="4:7">
-      <c r="E297" t="s">
+    <row r="301" spans="4:7" ht="18.75" customHeight="1">
+      <c r="E301" s="151"/>
+    </row>
+    <row r="302" spans="4:7">
+      <c r="E302" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="298" spans="4:7" ht="57">
-      <c r="E298" s="158" t="s">
+    <row r="303" spans="4:7" ht="57">
+      <c r="E303" s="158" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="299" spans="4:7" ht="14.25">
-      <c r="E299" s="151" t="s">
+    <row r="304" spans="4:7" ht="14.25">
+      <c r="E304" s="151" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="300" spans="4:7" ht="14.25">
-      <c r="E300" s="151"/>
-    </row>
-    <row r="301" spans="4:7" ht="14.25">
-      <c r="E301" s="151" t="s">
+    <row r="305" spans="4:6" ht="14.25">
+      <c r="E305" s="151"/>
+    </row>
+    <row r="306" spans="4:6" ht="14.25">
+      <c r="E306" s="151" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="302" spans="4:7" ht="57">
-      <c r="E302" s="158" t="s">
+    <row r="307" spans="4:6" ht="57">
+      <c r="E307" s="158" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="303" spans="4:7" ht="14.25">
-      <c r="E303" s="151" t="s">
+    <row r="308" spans="4:6" ht="14.25">
+      <c r="E308" s="151" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="304" spans="4:7" ht="14.25">
-      <c r="E304" s="151"/>
-    </row>
-    <row r="305" spans="4:6" ht="14.25">
-      <c r="E305" s="151" t="s">
+    <row r="309" spans="4:6" ht="14.25">
+      <c r="E309" s="151"/>
+    </row>
+    <row r="310" spans="4:6" ht="14.25">
+      <c r="E310" s="151" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="306" spans="4:6" ht="57">
-      <c r="E306" s="158" t="s">
+    <row r="311" spans="4:6" ht="57">
+      <c r="E311" s="158" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="307" spans="4:6" ht="14.25">
-      <c r="E307" s="151" t="s">
+    <row r="312" spans="4:6" ht="14.25">
+      <c r="E312" s="151" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="308" spans="4:6" ht="18.75" customHeight="1">
-      <c r="E308" s="151"/>
-    </row>
-    <row r="309" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D309" s="97" t="s">
+    <row r="313" spans="4:6" ht="18.75" customHeight="1">
+      <c r="E313" s="151"/>
+    </row>
+    <row r="314" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D314" s="97" t="s">
         <v>732</v>
       </c>
-      <c r="E309"/>
-      <c r="F309"/>
-    </row>
-    <row r="310" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D310"/>
-      <c r="E310"/>
-      <c r="F310"/>
-    </row>
-    <row r="311" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D311" s="142" t="s">
+      <c r="E314"/>
+      <c r="F314"/>
+    </row>
+    <row r="315" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D315"/>
+      <c r="E315"/>
+      <c r="F315"/>
+    </row>
+    <row r="316" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D316" s="142" t="s">
         <v>733</v>
       </c>
-      <c r="E311" s="142" t="s">
+      <c r="E316" s="142" t="s">
         <v>734</v>
       </c>
-      <c r="F311" s="142" t="s">
+      <c r="F316" s="142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D312" s="96" t="s">
+    <row r="317" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D317" s="96" t="s">
         <v>761</v>
       </c>
-      <c r="E312" s="96" t="s">
+      <c r="E317" s="96" t="s">
         <v>743</v>
       </c>
-      <c r="F312" s="96" t="s">
+      <c r="F317" s="96" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="313" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D313" s="96" t="s">
+    <row r="318" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D318" s="96" t="s">
         <v>762</v>
       </c>
-      <c r="E313" s="96" t="s">
+      <c r="E318" s="96" t="s">
         <v>736</v>
       </c>
-      <c r="F313" s="96" t="s">
+      <c r="F318" s="96" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="314" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D314" s="99" t="s">
+    <row r="319" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D319" s="99" t="s">
         <v>738</v>
       </c>
-      <c r="E314" s="96" t="s">
+      <c r="E319" s="96" t="s">
         <v>739</v>
       </c>
-      <c r="F314" s="96" t="s">
+      <c r="F319" s="96" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="315" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D315" s="159">
+    <row r="320" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D320" s="159">
         <v>1</v>
       </c>
-      <c r="E315" s="96" t="s">
+      <c r="E320" s="96" t="s">
         <v>741</v>
       </c>
-      <c r="F315" s="96" t="s">
+      <c r="F320" s="96" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="316" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D316" s="159"/>
-      <c r="E316" s="96"/>
-      <c r="F316" s="96"/>
-    </row>
-    <row r="317" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D317" s="97" t="s">
+    <row r="321" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D321" s="159"/>
+      <c r="E321" s="96"/>
+      <c r="F321" s="96"/>
+    </row>
+    <row r="322" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D322" s="97" t="s">
         <v>744</v>
       </c>
-      <c r="E317"/>
-      <c r="F317" s="96"/>
-    </row>
-    <row r="318" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D318" s="98" t="s">
+      <c r="E322"/>
+      <c r="F322" s="96"/>
+    </row>
+    <row r="323" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D323" s="98" t="s">
         <v>745</v>
       </c>
-      <c r="E318"/>
-      <c r="F318" s="96"/>
-    </row>
-    <row r="319" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D319"/>
-      <c r="E319"/>
-      <c r="F319" s="96"/>
-    </row>
-    <row r="320" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D320" s="97" t="s">
+      <c r="E323"/>
+      <c r="F323" s="96"/>
+    </row>
+    <row r="324" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D324"/>
+      <c r="E324"/>
+      <c r="F324" s="96"/>
+    </row>
+    <row r="325" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D325" s="97" t="s">
         <v>746</v>
       </c>
-      <c r="E320"/>
-      <c r="F320" s="96"/>
-    </row>
-    <row r="321" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D321"/>
-      <c r="E321"/>
-      <c r="F321" s="96"/>
-    </row>
-    <row r="322" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D322" s="100" t="s">
-        <v>747</v>
-      </c>
-      <c r="E322" s="100" t="s">
-        <v>748</v>
-      </c>
-      <c r="F322" s="96"/>
-    </row>
-    <row r="323" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D323" s="147" t="s">
-        <v>749</v>
-      </c>
-      <c r="E323" s="147" t="s">
-        <v>750</v>
-      </c>
-      <c r="F323" s="96"/>
-    </row>
-    <row r="324" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D324" s="147" t="s">
-        <v>751</v>
-      </c>
-      <c r="E324" s="147" t="s">
-        <v>752</v>
-      </c>
-      <c r="F324" s="96"/>
-    </row>
-    <row r="325" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D325" s="147" t="s">
-        <v>753</v>
-      </c>
-      <c r="E325" s="147" t="s">
-        <v>754</v>
-      </c>
+      <c r="E325"/>
       <c r="F325" s="96"/>
     </row>
     <row r="326" spans="4:6" ht="18.75" customHeight="1">
@@ -15878,2111 +15854,2152 @@
       <c r="F326" s="96"/>
     </row>
     <row r="327" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D327" t="s">
-        <v>755</v>
-      </c>
-      <c r="E327"/>
+      <c r="D327" s="100" t="s">
+        <v>747</v>
+      </c>
+      <c r="E327" s="100" t="s">
+        <v>748</v>
+      </c>
       <c r="F327" s="96"/>
     </row>
     <row r="328" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D328"/>
-      <c r="E328"/>
+      <c r="D328" s="147" t="s">
+        <v>749</v>
+      </c>
+      <c r="E328" s="147" t="s">
+        <v>750</v>
+      </c>
       <c r="F328" s="96"/>
     </row>
     <row r="329" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D329" s="97" t="s">
-        <v>880</v>
-      </c>
-      <c r="E329"/>
+      <c r="D329" s="147" t="s">
+        <v>751</v>
+      </c>
+      <c r="E329" s="147" t="s">
+        <v>752</v>
+      </c>
       <c r="F329" s="96"/>
     </row>
     <row r="330" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D330" s="98"/>
-      <c r="E330"/>
+      <c r="D330" s="147" t="s">
+        <v>753</v>
+      </c>
+      <c r="E330" s="147" t="s">
+        <v>754</v>
+      </c>
       <c r="F330" s="96"/>
     </row>
     <row r="331" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D331" s="98" t="s">
-        <v>757</v>
-      </c>
+      <c r="D331"/>
       <c r="E331"/>
       <c r="F331" s="96"/>
     </row>
     <row r="332" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D332" s="98" t="s">
-        <v>758</v>
+      <c r="D332" t="s">
+        <v>755</v>
       </c>
       <c r="E332"/>
       <c r="F332" s="96"/>
     </row>
     <row r="333" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D333" s="98" t="s">
-        <v>759</v>
-      </c>
+      <c r="D333"/>
       <c r="E333"/>
       <c r="F333" s="96"/>
     </row>
     <row r="334" spans="4:6" ht="18.75" customHeight="1">
-      <c r="D334" s="159"/>
-      <c r="E334" s="96"/>
+      <c r="D334" s="97" t="s">
+        <v>880</v>
+      </c>
+      <c r="E334"/>
       <c r="F334" s="96"/>
     </row>
-    <row r="335" spans="4:6" s="152" customFormat="1" ht="14.25"/>
-    <row r="336" spans="4:6" s="152" customFormat="1" ht="14.25"/>
-    <row r="337" spans="4:5" s="152" customFormat="1" ht="35.25" customHeight="1">
-      <c r="E337" s="155" t="s">
+    <row r="335" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D335" s="98"/>
+      <c r="E335"/>
+      <c r="F335" s="96"/>
+    </row>
+    <row r="336" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D336" s="98" t="s">
+        <v>757</v>
+      </c>
+      <c r="E336"/>
+      <c r="F336" s="96"/>
+    </row>
+    <row r="337" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D337" s="98" t="s">
+        <v>758</v>
+      </c>
+      <c r="E337"/>
+      <c r="F337" s="96"/>
+    </row>
+    <row r="338" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D338" s="98" t="s">
+        <v>759</v>
+      </c>
+      <c r="E338"/>
+      <c r="F338" s="96"/>
+    </row>
+    <row r="339" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D339" s="159"/>
+      <c r="E339" s="96"/>
+      <c r="F339" s="96"/>
+    </row>
+    <row r="340" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="341" spans="4:6" s="152" customFormat="1" ht="14.25"/>
+    <row r="342" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="E342" s="155" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="338" spans="4:5" s="152" customFormat="1" ht="14.25">
-      <c r="E338" s="156" t="s">
+    <row r="343" spans="4:6" s="152" customFormat="1" ht="14.25">
+      <c r="E343" s="156" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="339" spans="4:5" s="152" customFormat="1" ht="35.25" customHeight="1">
-      <c r="D339" s="156" t="s">
+    <row r="344" spans="4:6" s="152" customFormat="1" ht="35.25" customHeight="1">
+      <c r="D344" s="156" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="340" spans="4:5" s="152" customFormat="1" ht="71.25">
-      <c r="E340" s="160" t="s">
+    <row r="345" spans="4:6" s="152" customFormat="1" ht="71.25">
+      <c r="E345" s="160" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="341" spans="4:5" s="152" customFormat="1" ht="16.5" customHeight="1">
-      <c r="E341" s="155"/>
-    </row>
-    <row r="342" spans="4:5" ht="16.5" customHeight="1">
-      <c r="E342" s="128"/>
-    </row>
-    <row r="343" spans="4:5" ht="16.5" customHeight="1">
-      <c r="E343" s="128"/>
-    </row>
-    <row r="344" spans="4:5" ht="16.5" customHeight="1">
-      <c r="E344" s="128"/>
-    </row>
-    <row r="345" spans="4:5" ht="16.5" customHeight="1">
-      <c r="E345" s="128"/>
-    </row>
-    <row r="346" spans="4:5" ht="16.5" customHeight="1">
-      <c r="E346" s="128"/>
-    </row>
-    <row r="347" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D347" s="97" t="s">
+    <row r="346" spans="4:6" s="152" customFormat="1" ht="16.5" customHeight="1">
+      <c r="E346" s="155"/>
+    </row>
+    <row r="347" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E347" s="128"/>
+    </row>
+    <row r="348" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E348" s="128"/>
+    </row>
+    <row r="349" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E349" s="128"/>
+    </row>
+    <row r="350" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E350" s="128"/>
+    </row>
+    <row r="351" spans="4:6" ht="16.5" customHeight="1">
+      <c r="E351" s="128"/>
+    </row>
+    <row r="352" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D352" s="97" t="s">
         <v>693</v>
       </c>
-      <c r="E347"/>
-    </row>
-    <row r="348" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D348"/>
-      <c r="E348"/>
-    </row>
-    <row r="349" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D349" s="100" t="s">
+      <c r="E352"/>
+    </row>
+    <row r="353" spans="3:7" ht="16.5" customHeight="1">
+      <c r="D353"/>
+      <c r="E353"/>
+    </row>
+    <row r="354" spans="3:7" ht="16.5" customHeight="1">
+      <c r="D354" s="100" t="s">
         <v>694</v>
       </c>
-      <c r="E349" s="100" t="s">
+      <c r="E354" s="100" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="350" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D350" s="147" t="s">
+    <row r="355" spans="3:7" ht="16.5" customHeight="1">
+      <c r="D355" s="147" t="s">
         <v>695</v>
       </c>
-      <c r="E350" s="147" t="s">
+      <c r="E355" s="147" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="351" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D351" s="147" t="s">
+    <row r="356" spans="3:7" ht="16.5" customHeight="1">
+      <c r="D356" s="147" t="s">
         <v>697</v>
       </c>
-      <c r="E351" s="149" t="s">
+      <c r="E356" s="149" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="352" spans="4:5" ht="16.5" customHeight="1">
-      <c r="D352" s="147" t="s">
+    <row r="357" spans="3:7" ht="16.5" customHeight="1">
+      <c r="D357" s="147" t="s">
         <v>699</v>
       </c>
-      <c r="E352" s="147" t="s">
+      <c r="E357" s="147" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="353" spans="3:7" ht="16.5" customHeight="1"/>
-    <row r="354" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C354" s="147"/>
-      <c r="E354" s="147"/>
-    </row>
-    <row r="355" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C355" s="147"/>
-      <c r="E355" s="147"/>
-    </row>
-    <row r="356" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C356" s="128" t="s">
+    <row r="358" spans="3:7" ht="16.5" customHeight="1"/>
+    <row r="359" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C359" s="147"/>
+      <c r="E359" s="147"/>
+    </row>
+    <row r="360" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C360" s="147"/>
+      <c r="E360" s="147"/>
+    </row>
+    <row r="361" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C361" s="128" t="s">
         <v>770</v>
       </c>
-      <c r="E356" s="147"/>
-    </row>
-    <row r="357" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C357"/>
-      <c r="E357" s="147"/>
-    </row>
-    <row r="358" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C358" s="129" t="s">
+      <c r="E361" s="147"/>
+    </row>
+    <row r="362" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C362"/>
+      <c r="E362" s="147"/>
+    </row>
+    <row r="363" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C363" s="129" t="s">
         <v>771</v>
       </c>
-      <c r="E358" s="147"/>
-    </row>
-    <row r="359" spans="3:7" ht="121.5">
-      <c r="C359" s="147"/>
-      <c r="E359" s="147" t="s">
+      <c r="E363" s="147"/>
+    </row>
+    <row r="364" spans="3:7" ht="121.5">
+      <c r="C364" s="147"/>
+      <c r="E364" s="147" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="360" spans="3:7" ht="40.5">
-      <c r="C360" s="147"/>
-      <c r="E360" s="147" t="s">
+    <row r="365" spans="3:7" ht="40.5">
+      <c r="C365" s="147"/>
+      <c r="E365" s="147" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="361" spans="3:7" ht="54">
-      <c r="C361" s="147"/>
-      <c r="E361" s="147" t="s">
+    <row r="366" spans="3:7" ht="54">
+      <c r="C366" s="147"/>
+      <c r="E366" s="147" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="362" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C362" s="147"/>
-      <c r="E362" s="147"/>
-    </row>
-    <row r="363" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C363" s="147"/>
-      <c r="E363" s="97" t="s">
-        <v>775</v>
-      </c>
-      <c r="F363"/>
-      <c r="G363"/>
-    </row>
-    <row r="364" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C364" s="147"/>
-      <c r="E364"/>
-      <c r="F364"/>
-      <c r="G364"/>
-    </row>
-    <row r="365" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C365" s="147"/>
-      <c r="E365" t="s">
-        <v>776</v>
-      </c>
-      <c r="F365"/>
-      <c r="G365"/>
-    </row>
-    <row r="366" spans="3:7" ht="16.5" customHeight="1">
-      <c r="C366" s="147"/>
-      <c r="E366" s="164" t="s">
-        <v>777</v>
-      </c>
-      <c r="F366" s="164" t="s">
-        <v>778</v>
-      </c>
-      <c r="G366" s="164" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="367" spans="3:7" ht="16.5" customHeight="1">
       <c r="C367" s="147"/>
-      <c r="E367" s="165">
-        <v>101</v>
-      </c>
-      <c r="F367" s="165" t="s">
-        <v>780</v>
-      </c>
-      <c r="G367" s="165" t="s">
-        <v>781</v>
-      </c>
+      <c r="E367" s="147"/>
     </row>
     <row r="368" spans="3:7" ht="16.5" customHeight="1">
       <c r="C368" s="147"/>
-      <c r="E368" s="165">
-        <v>102</v>
-      </c>
-      <c r="F368" s="165" t="s">
-        <v>782</v>
-      </c>
-      <c r="G368" s="165">
-        <v>101</v>
-      </c>
+      <c r="E368" s="97" t="s">
+        <v>775</v>
+      </c>
+      <c r="F368"/>
+      <c r="G368"/>
     </row>
     <row r="369" spans="3:7" ht="16.5" customHeight="1">
       <c r="C369" s="147"/>
-      <c r="E369" s="165">
-        <v>103</v>
-      </c>
-      <c r="F369" s="165" t="s">
-        <v>783</v>
-      </c>
-      <c r="G369" s="165">
-        <v>101</v>
-      </c>
+      <c r="E369"/>
+      <c r="F369"/>
+      <c r="G369"/>
     </row>
     <row r="370" spans="3:7" ht="16.5" customHeight="1">
       <c r="C370" s="147"/>
-      <c r="E370" s="165">
-        <v>104</v>
-      </c>
-      <c r="F370" s="165" t="s">
-        <v>784</v>
-      </c>
-      <c r="G370" s="165">
-        <v>102</v>
-      </c>
+      <c r="E370" t="s">
+        <v>776</v>
+      </c>
+      <c r="F370"/>
+      <c r="G370"/>
     </row>
     <row r="371" spans="3:7" ht="16.5" customHeight="1">
       <c r="C371" s="147"/>
-      <c r="E371" s="147"/>
+      <c r="E371" s="164" t="s">
+        <v>777</v>
+      </c>
+      <c r="F371" s="164" t="s">
+        <v>778</v>
+      </c>
+      <c r="G371" s="164" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="372" spans="3:7" ht="16.5" customHeight="1">
       <c r="C372" s="147"/>
-      <c r="E372" s="166" t="s">
-        <v>788</v>
+      <c r="E372" s="165">
+        <v>101</v>
+      </c>
+      <c r="F372" s="165" t="s">
+        <v>780</v>
+      </c>
+      <c r="G372" s="165" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="373" spans="3:7" ht="16.5" customHeight="1">
       <c r="C373" s="147"/>
-      <c r="E373" s="166" t="s">
-        <v>789</v>
+      <c r="E373" s="165">
+        <v>102</v>
+      </c>
+      <c r="F373" s="165" t="s">
+        <v>782</v>
+      </c>
+      <c r="G373" s="165">
+        <v>101</v>
       </c>
     </row>
     <row r="374" spans="3:7" ht="16.5" customHeight="1">
       <c r="C374" s="147"/>
-      <c r="E374" s="128" t="s">
-        <v>785</v>
+      <c r="E374" s="165">
+        <v>103</v>
+      </c>
+      <c r="F374" s="165" t="s">
+        <v>783</v>
+      </c>
+      <c r="G374" s="165">
+        <v>101</v>
       </c>
     </row>
     <row r="375" spans="3:7" ht="16.5" customHeight="1">
       <c r="C375" s="147"/>
-      <c r="E375" s="98" t="s">
-        <v>786</v>
+      <c r="E375" s="165">
+        <v>104</v>
+      </c>
+      <c r="F375" s="165" t="s">
+        <v>784</v>
+      </c>
+      <c r="G375" s="165">
+        <v>102</v>
       </c>
     </row>
     <row r="376" spans="3:7" ht="16.5" customHeight="1">
       <c r="C376" s="147"/>
-      <c r="E376" s="98" t="s">
-        <v>787</v>
-      </c>
+      <c r="E376" s="147"/>
     </row>
     <row r="377" spans="3:7" ht="16.5" customHeight="1">
       <c r="C377" s="147"/>
-      <c r="E377" s="168" t="s">
-        <v>790</v>
-      </c>
-      <c r="F377" s="168" t="s">
-        <v>1</v>
+      <c r="E377" s="166" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="378" spans="3:7" ht="16.5" customHeight="1">
       <c r="C378" s="147"/>
-      <c r="E378" s="159" t="s">
-        <v>791</v>
-      </c>
-      <c r="F378" s="170" t="s">
-        <v>792</v>
+      <c r="E378" s="166" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="379" spans="3:7" ht="16.5" customHeight="1">
       <c r="C379" s="147"/>
-      <c r="E379" s="169" t="s">
-        <v>793</v>
-      </c>
-      <c r="F379" s="170" t="s">
-        <v>794</v>
+      <c r="E379" s="128" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="380" spans="3:7" ht="16.5" customHeight="1">
       <c r="C380" s="147"/>
-      <c r="E380" s="159" t="s">
-        <v>795</v>
-      </c>
-      <c r="F380" s="169" t="s">
-        <v>796</v>
+      <c r="E380" s="98" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="381" spans="3:7" ht="16.5" customHeight="1">
       <c r="C381" s="147"/>
-      <c r="E381" s="147"/>
+      <c r="E381" s="98" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="382" spans="3:7" ht="16.5" customHeight="1">
       <c r="C382" s="147"/>
-      <c r="E382" s="128" t="s">
-        <v>797</v>
+      <c r="E382" s="168" t="s">
+        <v>790</v>
+      </c>
+      <c r="F382" s="168" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="3:7" ht="16.5" customHeight="1">
       <c r="C383" s="147"/>
-      <c r="E383" s="171" t="s">
+      <c r="E383" s="159" t="s">
+        <v>791</v>
+      </c>
+      <c r="F383" s="170" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="384" spans="3:7" ht="16.5" customHeight="1">
+      <c r="C384" s="147"/>
+      <c r="E384" s="169" t="s">
+        <v>793</v>
+      </c>
+      <c r="F384" s="170" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="385" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C385" s="147"/>
+      <c r="E385" s="159" t="s">
+        <v>795</v>
+      </c>
+      <c r="F385" s="169" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="386" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C386" s="147"/>
+      <c r="E386" s="147"/>
+    </row>
+    <row r="387" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C387" s="147"/>
+      <c r="E387" s="128" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="388" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C388" s="147"/>
+      <c r="E388" s="171" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="384" spans="3:7" ht="16.5" customHeight="1">
-      <c r="E384" s="98" t="s">
+    <row r="389" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E389" s="98" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="385" spans="5:6" ht="16.5" customHeight="1"/>
-    <row r="386" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E386" t="s">
+    <row r="390" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="391" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E391" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="387" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E387" s="164" t="s">
+    <row r="392" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E392" s="164" t="s">
         <v>801</v>
       </c>
-      <c r="F387" s="164" t="s">
+      <c r="F392" s="164" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="388" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E388" s="165" t="s">
+    <row r="393" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E393" s="165" t="s">
         <v>780</v>
       </c>
-      <c r="F388" s="165" t="s">
+      <c r="F393" s="165" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="389" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E389" s="165" t="s">
+    <row r="394" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E394" s="165" t="s">
         <v>780</v>
       </c>
-      <c r="F389" s="165" t="s">
+      <c r="F394" s="165" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="390" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E390" s="165" t="s">
+    <row r="395" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E395" s="165" t="s">
         <v>782</v>
       </c>
-      <c r="F390" s="165" t="s">
+      <c r="F395" s="165" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="391" spans="5:6" ht="16.5" customHeight="1"/>
-    <row r="392" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E392" s="129" t="s">
+    <row r="396" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="397" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E397" s="129" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="393" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E393" s="168" t="s">
+    <row r="398" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E398" s="168" t="s">
         <v>318</v>
       </c>
-      <c r="F393" s="168" t="s">
+      <c r="F398" s="168" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="394" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E394" s="169" t="s">
+    <row r="399" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E399" s="169" t="s">
         <v>805</v>
       </c>
-      <c r="F394" s="169" t="s">
+      <c r="F399" s="169" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="395" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E395" s="169" t="s">
+    <row r="400" spans="3:6" ht="16.5" customHeight="1">
+      <c r="E400" s="169" t="s">
         <v>807</v>
       </c>
-      <c r="F395" s="169" t="s">
+      <c r="F400" s="169" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="396" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E396" s="169" t="s">
-        <v>809</v>
-      </c>
-      <c r="F396" s="169" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="397" spans="5:6" ht="16.5" customHeight="1"/>
-    <row r="398" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E398" s="129" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="399" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E399" s="168" t="s">
-        <v>328</v>
-      </c>
-      <c r="F399" s="168" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="400" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E400" s="159" t="s">
-        <v>812</v>
-      </c>
-      <c r="F400" s="169" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="401" spans="5:6" ht="16.5" customHeight="1">
       <c r="E401" s="169" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F401" s="169" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="402" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E402" s="169" t="s">
-        <v>816</v>
-      </c>
-      <c r="F402" s="169" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="403" spans="5:6" ht="16.5" customHeight="1"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="402" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="403" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E403" s="129" t="s">
+        <v>811</v>
+      </c>
+    </row>
     <row r="404" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E404" s="172" t="s">
-        <v>818</v>
+      <c r="E404" s="168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F404" s="168" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="405" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E405" s="168" t="s">
-        <v>790</v>
-      </c>
-      <c r="F405" s="168" t="s">
-        <v>1</v>
+      <c r="E405" s="159" t="s">
+        <v>812</v>
+      </c>
+      <c r="F405" s="169" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="406" spans="5:6" ht="16.5" customHeight="1">
       <c r="E406" s="169" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F406" s="169" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="407" spans="5:6" ht="16.5" customHeight="1">
       <c r="E407" s="169" t="s">
+        <v>816</v>
+      </c>
+      <c r="F407" s="169" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="408" spans="5:6" ht="16.5" customHeight="1"/>
+    <row r="409" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E409" s="172" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="410" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E410" s="168" t="s">
+        <v>790</v>
+      </c>
+      <c r="F410" s="168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E411" s="169" t="s">
+        <v>819</v>
+      </c>
+      <c r="F411" s="169" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="412" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E412" s="169" t="s">
         <v>821</v>
       </c>
-      <c r="F407" s="173" t="s">
+      <c r="F412" s="173" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="408" spans="5:6" ht="16.5" customHeight="1">
-      <c r="E408" s="169" t="s">
+    <row r="413" spans="5:6" ht="16.5" customHeight="1">
+      <c r="E413" s="169" t="s">
         <v>822</v>
       </c>
-      <c r="F408" s="170" t="s">
+      <c r="F413" s="170" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="410" spans="5:6">
-      <c r="E410" t="s">
+    <row r="415" spans="5:6">
+      <c r="E415" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="411" spans="5:6">
-      <c r="E411" s="168" t="s">
+    <row r="416" spans="5:6">
+      <c r="E416" s="168" t="s">
         <v>318</v>
       </c>
-      <c r="F411" s="168" t="s">
+      <c r="F416" s="168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="5:6">
-      <c r="E412" s="169" t="s">
+    <row r="417" spans="5:6">
+      <c r="E417" s="169" t="s">
         <v>825</v>
       </c>
-      <c r="F412" s="169" t="s">
+      <c r="F417" s="169" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="413" spans="5:6">
-      <c r="E413" s="169" t="s">
+    <row r="418" spans="5:6">
+      <c r="E418" s="169" t="s">
         <v>827</v>
       </c>
-      <c r="F413" s="169" t="s">
+      <c r="F418" s="169" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="414" spans="5:6">
-      <c r="E414" s="169" t="s">
+    <row r="419" spans="5:6">
+      <c r="E419" s="169" t="s">
         <v>803</v>
       </c>
-      <c r="F414" s="169" t="s">
+      <c r="F419" s="169" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="416" spans="5:6">
-      <c r="E416" s="174" t="s">
+    <row r="421" spans="5:6">
+      <c r="E421" s="174" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="417" spans="5:5">
-      <c r="E417" t="s">
+    <row r="422" spans="5:6">
+      <c r="E422" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="418" spans="5:5">
-      <c r="E418" t="s">
+    <row r="423" spans="5:6">
+      <c r="E423" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="420" spans="5:5">
-      <c r="E420" s="174"/>
-    </row>
-    <row r="421" spans="5:5">
-      <c r="E421" t="s">
+    <row r="425" spans="5:6">
+      <c r="E425" s="174"/>
+    </row>
+    <row r="426" spans="5:6">
+      <c r="E426" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="422" spans="5:5">
-      <c r="E422" s="101" t="s">
+    <row r="427" spans="5:6">
+      <c r="E427" s="101" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="423" spans="5:5">
-      <c r="E423" s="98" t="s">
+    <row r="428" spans="5:6">
+      <c r="E428" s="98" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="424" spans="5:5">
-      <c r="E424" s="98"/>
-    </row>
-    <row r="425" spans="5:5">
-      <c r="E425" t="s">
+    <row r="429" spans="5:6">
+      <c r="E429" s="98"/>
+    </row>
+    <row r="430" spans="5:6">
+      <c r="E430" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="426" spans="5:5">
-      <c r="E426" s="129" t="s">
+    <row r="431" spans="5:6">
+      <c r="E431" s="129" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="427" spans="5:5">
-      <c r="E427" t="s">
+    <row r="432" spans="5:6">
+      <c r="E432" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="429" spans="5:5" ht="16.5">
-      <c r="E429" s="128" t="s">
+    <row r="434" spans="5:6" ht="16.5">
+      <c r="E434" s="128" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="430" spans="5:5">
-      <c r="E430" s="98" t="s">
+    <row r="435" spans="5:6">
+      <c r="E435" s="98" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="432" spans="5:5">
-      <c r="E432" t="s">
+    <row r="437" spans="5:6">
+      <c r="E437" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="433" spans="3:6">
-      <c r="E433" s="168" t="s">
+    <row r="438" spans="5:6">
+      <c r="E438" s="168" t="s">
         <v>638</v>
       </c>
-      <c r="F433" s="168" t="s">
+      <c r="F438" s="168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="3:6">
-      <c r="E434" s="169" t="s">
+    <row r="439" spans="5:6">
+      <c r="E439" s="169" t="s">
         <v>842</v>
       </c>
-      <c r="F434" s="168" t="s">
+      <c r="F439" s="168" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="435" spans="3:6">
-      <c r="E435" s="169" t="s">
+    <row r="440" spans="5:6">
+      <c r="E440" s="169" t="s">
         <v>844</v>
       </c>
-      <c r="F435" s="169" t="s">
+      <c r="F440" s="169" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="436" spans="3:6">
-      <c r="E436" s="169" t="s">
+    <row r="441" spans="5:6">
+      <c r="E441" s="169" t="s">
         <v>819</v>
       </c>
-      <c r="F436" s="169" t="s">
+      <c r="F441" s="169" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="437" spans="3:6">
-      <c r="E437" s="169" t="s">
+    <row r="442" spans="5:6">
+      <c r="E442" s="169" t="s">
         <v>847</v>
       </c>
-      <c r="F437" s="169" t="s">
+      <c r="F442" s="169" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="439" spans="3:6">
-      <c r="E439" t="s">
+    <row r="444" spans="5:6">
+      <c r="E444" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="440" spans="3:6">
-      <c r="E440" s="168" t="s">
+    <row r="445" spans="5:6">
+      <c r="E445" s="168" t="s">
         <v>328</v>
       </c>
-      <c r="F440" s="168" t="s">
+      <c r="F445" s="168" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="441" spans="3:6">
-      <c r="E441" s="169" t="s">
+    <row r="446" spans="5:6">
+      <c r="E446" s="169" t="s">
         <v>850</v>
       </c>
-      <c r="F441" s="168" t="s">
+      <c r="F446" s="168" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="442" spans="3:6">
-      <c r="E442" s="169" t="s">
+    <row r="447" spans="5:6">
+      <c r="E447" s="169" t="s">
         <v>852</v>
       </c>
-      <c r="F442" s="159" t="s">
+      <c r="F447" s="159" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="443" spans="3:6">
-      <c r="E443" s="169" t="s">
+    <row r="448" spans="5:6">
+      <c r="E448" s="169" t="s">
         <v>854</v>
       </c>
-      <c r="F443" s="159" t="s">
+      <c r="F448" s="159" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="445" spans="3:6">
-      <c r="E445" s="179" t="s">
+    <row r="450" spans="3:7">
+      <c r="E450" s="179" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="446" spans="3:6" ht="175.5">
-      <c r="E446" s="175" t="s">
+    <row r="451" spans="3:7" ht="175.5">
+      <c r="E451" s="175" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="447" spans="3:6" ht="54">
-      <c r="C447" s="104" t="s">
+    <row r="452" spans="3:7" ht="54">
+      <c r="C452" s="104" t="s">
         <v>878</v>
       </c>
-      <c r="E447" s="176" t="s">
+      <c r="E452" s="176" t="s">
         <v>859</v>
       </c>
-      <c r="F447" s="107"/>
-    </row>
-    <row r="448" spans="3:6" ht="27">
-      <c r="E448" s="107" t="s">
+      <c r="F452" s="107"/>
+    </row>
+    <row r="453" spans="3:7" ht="27">
+      <c r="E453" s="107" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="449" spans="3:7" ht="54">
-      <c r="C449" s="104" t="s">
+    <row r="454" spans="3:7" ht="54">
+      <c r="C454" s="104" t="s">
         <v>879</v>
       </c>
-      <c r="E449" s="176" t="s">
+      <c r="E454" s="176" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="450" spans="3:7">
-      <c r="E450" s="107"/>
-    </row>
-    <row r="451" spans="3:7" ht="14.25">
-      <c r="E451" t="s">
+    <row r="455" spans="3:7">
+      <c r="E455" s="107"/>
+    </row>
+    <row r="456" spans="3:7" ht="14.25">
+      <c r="E456" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="452" spans="3:7" ht="14.25">
-      <c r="E452" t="s">
+    <row r="457" spans="3:7" ht="14.25">
+      <c r="E457" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="453" spans="3:7">
-      <c r="E453" s="164" t="s">
+    <row r="458" spans="3:7">
+      <c r="E458" s="164" t="s">
         <v>862</v>
       </c>
-      <c r="F453" s="164" t="s">
+      <c r="F458" s="164" t="s">
         <v>863</v>
       </c>
-      <c r="G453" s="164" t="s">
+      <c r="G458" s="164" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="454" spans="3:7">
-      <c r="E454" s="167" t="s">
+    <row r="459" spans="3:7">
+      <c r="E459" s="167" t="s">
         <v>865</v>
       </c>
-      <c r="F454" s="165" t="s">
+      <c r="F459" s="165" t="s">
         <v>866</v>
       </c>
-      <c r="G454" s="165" t="s">
+      <c r="G459" s="165" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="455" spans="3:7">
-      <c r="E455" s="167" t="s">
+    <row r="460" spans="3:7">
+      <c r="E460" s="167" t="s">
         <v>868</v>
       </c>
-      <c r="F455" s="165" t="s">
+      <c r="F460" s="165" t="s">
         <v>869</v>
       </c>
-      <c r="G455" s="165" t="s">
+      <c r="G460" s="165" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="456" spans="3:7">
-      <c r="E456" s="107"/>
-    </row>
-    <row r="457" spans="3:7" ht="16.5">
-      <c r="E457" s="128" t="s">
+    <row r="461" spans="3:7">
+      <c r="E461" s="107"/>
+    </row>
+    <row r="462" spans="3:7" ht="16.5">
+      <c r="E462" s="128" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="458" spans="3:7" ht="14.25">
-      <c r="E458" t="s">
+    <row r="463" spans="3:7" ht="14.25">
+      <c r="E463" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="459" spans="3:7" ht="175.5">
-      <c r="E459" s="107" t="s">
+    <row r="464" spans="3:7" ht="175.5">
+      <c r="E464" s="107" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="460" spans="3:7">
-      <c r="E460" s="107"/>
-    </row>
-    <row r="461" spans="3:7" ht="14.25">
-      <c r="E461" s="177" t="s">
+    <row r="465" spans="3:5">
+      <c r="E465" s="107"/>
+    </row>
+    <row r="466" spans="3:5" ht="14.25">
+      <c r="E466" s="177" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="462" spans="3:7">
-      <c r="E462" s="98"/>
-    </row>
-    <row r="463" spans="3:7">
-      <c r="E463" s="171" t="s">
+    <row r="467" spans="3:5">
+      <c r="E467" s="98"/>
+    </row>
+    <row r="468" spans="3:5">
+      <c r="E468" s="171" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="464" spans="3:7">
-      <c r="E464" s="101" t="s">
+    <row r="469" spans="3:5">
+      <c r="E469" s="101" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="465" spans="2:5">
-      <c r="E465" s="98" t="s">
+    <row r="470" spans="3:5">
+      <c r="E470" s="98" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="466" spans="2:5">
-      <c r="E466" s="107"/>
-    </row>
-    <row r="467" spans="2:5">
-      <c r="C467" s="129" t="s">
+    <row r="471" spans="3:5">
+      <c r="E471" s="107"/>
+    </row>
+    <row r="472" spans="3:5">
+      <c r="C472" s="129" t="s">
         <v>881</v>
       </c>
-      <c r="E467" s="107"/>
-    </row>
-    <row r="468" spans="2:5">
-      <c r="C468" s="100" t="s">
+      <c r="E472" s="107"/>
+    </row>
+    <row r="473" spans="3:5">
+      <c r="C473" s="100" t="s">
         <v>882</v>
       </c>
-      <c r="D468" s="100" t="s">
+      <c r="D473" s="100" t="s">
         <v>631</v>
       </c>
-      <c r="E468" s="107"/>
-    </row>
-    <row r="469" spans="2:5" ht="40.5">
-      <c r="C469" s="147" t="s">
+      <c r="E473" s="107"/>
+    </row>
+    <row r="474" spans="3:5" ht="40.5">
+      <c r="C474" s="147" t="s">
         <v>883</v>
       </c>
-      <c r="D469" s="96" t="s">
+      <c r="D474" s="96" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="470" spans="2:5" ht="40.5">
-      <c r="C470" s="147" t="s">
+    <row r="475" spans="3:5" ht="40.5">
+      <c r="C475" s="147" t="s">
         <v>885</v>
       </c>
-      <c r="D470" s="96" t="s">
+      <c r="D475" s="96" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="471" spans="2:5" ht="40.5">
-      <c r="C471" s="147" t="s">
+    <row r="476" spans="3:5" ht="40.5">
+      <c r="C476" s="147" t="s">
         <v>887</v>
       </c>
-      <c r="D471" s="96" t="s">
+      <c r="D476" s="96" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="472" spans="2:5">
-      <c r="D472" s="104" t="s">
+    <row r="477" spans="3:5">
+      <c r="D477" s="104" t="s">
         <v>889</v>
       </c>
-      <c r="E472" s="107"/>
-    </row>
-    <row r="473" spans="2:5">
-      <c r="D473" s="104" t="s">
+      <c r="E477" s="107"/>
+    </row>
+    <row r="478" spans="3:5">
+      <c r="D478" s="104" t="s">
         <v>890</v>
       </c>
-      <c r="E473" s="107"/>
-    </row>
-    <row r="474" spans="2:5">
-      <c r="E474" s="107"/>
-    </row>
-    <row r="479" spans="2:5" ht="16.5">
-      <c r="B479" s="106" t="s">
+      <c r="E478" s="107"/>
+    </row>
+    <row r="479" spans="3:5">
+      <c r="E479" s="107"/>
+    </row>
+    <row r="484" spans="2:5" ht="16.5">
+      <c r="B484" s="106" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="480" spans="2:5" ht="16.5">
-      <c r="B480" s="106"/>
-      <c r="C480" s="105" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="481" spans="2:5" ht="16.5">
-      <c r="B481" s="106"/>
-      <c r="C481" s="105"/>
-      <c r="D481" s="104" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="482" spans="2:5" ht="54">
-      <c r="B482" s="106"/>
-      <c r="E482" s="107" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="483" spans="2:5" ht="16.5">
-      <c r="B483" s="106"/>
-      <c r="E483" s="107"/>
-    </row>
-    <row r="484" spans="2:5" ht="21">
-      <c r="B484" s="106"/>
-      <c r="D484" s="109" t="s">
-        <v>529</v>
-      </c>
-      <c r="E484" s="107"/>
     </row>
     <row r="485" spans="2:5" ht="16.5">
       <c r="B485" s="106"/>
-      <c r="D485" s="112" t="s">
-        <v>530</v>
-      </c>
-      <c r="E485" s="107"/>
+      <c r="C485" s="105" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="486" spans="2:5" ht="16.5">
       <c r="B486" s="106"/>
-      <c r="D486" s="110" t="s">
-        <v>526</v>
-      </c>
-      <c r="E486" s="107"/>
-    </row>
-    <row r="487" spans="2:5" ht="16.5">
+      <c r="C486" s="105"/>
+      <c r="D486" s="104" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="487" spans="2:5" ht="54">
       <c r="B487" s="106"/>
-      <c r="D487" s="110"/>
-      <c r="E487" s="107"/>
+      <c r="E487" s="107" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="488" spans="2:5" ht="16.5">
       <c r="B488" s="106"/>
-      <c r="D488" s="110" t="s">
-        <v>527</v>
-      </c>
-      <c r="E488" s="111">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="489" spans="2:5" ht="16.5">
+      <c r="E488" s="107"/>
+    </row>
+    <row r="489" spans="2:5" ht="21">
       <c r="B489" s="106"/>
-      <c r="D489" s="110"/>
-      <c r="E489" s="111" t="s">
-        <v>528</v>
-      </c>
+      <c r="D489" s="109" t="s">
+        <v>529</v>
+      </c>
+      <c r="E489" s="107"/>
     </row>
     <row r="490" spans="2:5" ht="16.5">
       <c r="B490" s="106"/>
-      <c r="E490" s="113">
-        <v>45869</v>
-      </c>
+      <c r="D490" s="112" t="s">
+        <v>530</v>
+      </c>
+      <c r="E490" s="107"/>
     </row>
     <row r="491" spans="2:5" ht="16.5">
       <c r="B491" s="106"/>
+      <c r="D491" s="110" t="s">
+        <v>526</v>
+      </c>
       <c r="E491" s="107"/>
     </row>
     <row r="492" spans="2:5" ht="16.5">
       <c r="B492" s="106"/>
-      <c r="C492" s="105" t="s">
-        <v>487</v>
-      </c>
+      <c r="D492" s="110"/>
+      <c r="E492" s="107"/>
     </row>
     <row r="493" spans="2:5" ht="16.5">
       <c r="B493" s="106"/>
-      <c r="C493" s="104" t="s">
-        <v>508</v>
+      <c r="D493" s="110" t="s">
+        <v>527</v>
+      </c>
+      <c r="E493" s="111">
+        <v>100</v>
       </c>
     </row>
     <row r="494" spans="2:5" ht="16.5">
       <c r="B494" s="106"/>
-      <c r="C494" s="105" t="s">
-        <v>509</v>
+      <c r="D494" s="110"/>
+      <c r="E494" s="111" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="495" spans="2:5" ht="16.5">
       <c r="B495" s="106"/>
-    </row>
-    <row r="496" spans="2:5" s="152" customFormat="1" ht="14.25">
-      <c r="B496" s="194"/>
-      <c r="C496" s="177" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="497" spans="2:6" s="193" customFormat="1" ht="12">
-      <c r="B497" s="192"/>
-      <c r="C497" s="196" t="s">
-        <v>893</v>
+      <c r="E495" s="113">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="496" spans="2:5" ht="16.5">
+      <c r="B496" s="106"/>
+      <c r="E496" s="107"/>
+    </row>
+    <row r="497" spans="2:6" ht="16.5">
+      <c r="B497" s="106"/>
+      <c r="C497" s="105" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="498" spans="2:6" ht="16.5">
       <c r="B498" s="106"/>
-      <c r="C498" s="146" t="s">
-        <v>894</v>
+      <c r="C498" s="104" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="499" spans="2:6" ht="16.5">
       <c r="B499" s="106"/>
-      <c r="C499" s="187" t="s">
-        <v>895</v>
+      <c r="C499" s="105" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="500" spans="2:6" ht="16.5">
       <c r="B500" s="106"/>
-      <c r="C500" s="187" t="s">
+    </row>
+    <row r="501" spans="2:6" s="152" customFormat="1" ht="14.25">
+      <c r="B501" s="194"/>
+      <c r="C501" s="177" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="502" spans="2:6" s="193" customFormat="1" ht="12">
+      <c r="B502" s="192"/>
+      <c r="C502" s="196" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="503" spans="2:6" ht="16.5">
+      <c r="B503" s="106"/>
+      <c r="C503" s="146" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="504" spans="2:6" ht="16.5">
+      <c r="B504" s="106"/>
+      <c r="C504" s="187" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="505" spans="2:6" ht="16.5">
+      <c r="B505" s="106"/>
+      <c r="C505" s="187" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="501" spans="2:6" ht="16.5">
-      <c r="B501" s="106"/>
-      <c r="C501" s="188" t="s">
+    <row r="506" spans="2:6" ht="16.5">
+      <c r="B506" s="106"/>
+      <c r="C506" s="188" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="502" spans="2:6" ht="16.5">
-      <c r="B502" s="106"/>
-      <c r="C502" s="191" t="s">
+    <row r="507" spans="2:6" ht="16.5">
+      <c r="B507" s="106"/>
+      <c r="C507" s="191" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="503" spans="2:6">
-      <c r="C503" s="189"/>
-    </row>
-    <row r="504" spans="2:6" s="193" customFormat="1" ht="12">
-      <c r="C504" s="196" t="s">
+    <row r="508" spans="2:6">
+      <c r="C508" s="189"/>
+    </row>
+    <row r="509" spans="2:6" s="193" customFormat="1" ht="12">
+      <c r="C509" s="196" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="505" spans="2:6">
-      <c r="C505" s="146" t="s">
+    <row r="510" spans="2:6">
+      <c r="C510" s="146" t="s">
         <v>898</v>
       </c>
-      <c r="F505" s="107"/>
-    </row>
-    <row r="506" spans="2:6">
-      <c r="C506" s="146" t="s">
+      <c r="F510" s="107"/>
+    </row>
+    <row r="511" spans="2:6">
+      <c r="C511" s="146" t="s">
         <v>899</v>
       </c>
-      <c r="F506" s="107"/>
-    </row>
-    <row r="507" spans="2:6">
-      <c r="C507" s="98"/>
-      <c r="F507" s="107"/>
-    </row>
-    <row r="508" spans="2:6" s="152" customFormat="1" ht="14.25">
-      <c r="C508" s="177" t="s">
+      <c r="F511" s="107"/>
+    </row>
+    <row r="512" spans="2:6">
+      <c r="C512" s="98"/>
+      <c r="F512" s="107"/>
+    </row>
+    <row r="513" spans="3:6" s="152" customFormat="1" ht="14.25">
+      <c r="C513" s="177" t="s">
         <v>900</v>
       </c>
-      <c r="F508" s="195"/>
-    </row>
-    <row r="509" spans="2:6">
-      <c r="C509"/>
-      <c r="F509" s="107"/>
-    </row>
-    <row r="510" spans="2:6" s="193" customFormat="1" ht="12">
-      <c r="C510" s="196" t="s">
+      <c r="F513" s="195"/>
+    </row>
+    <row r="514" spans="3:6">
+      <c r="C514"/>
+      <c r="F514" s="107"/>
+    </row>
+    <row r="515" spans="3:6" s="193" customFormat="1" ht="12">
+      <c r="C515" s="196" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="511" spans="2:6" ht="16.5">
-      <c r="C511" s="190" t="s">
+    <row r="516" spans="3:6" ht="16.5">
+      <c r="C516" s="190" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="512" spans="2:6" ht="67.5">
-      <c r="C512" s="190"/>
-      <c r="E512" s="107" t="s">
+    <row r="517" spans="3:6" ht="67.5">
+      <c r="C517" s="190"/>
+      <c r="E517" s="107" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="513" spans="3:5" ht="16.5">
-      <c r="C513" s="190"/>
-      <c r="D513" t="s">
+    <row r="518" spans="3:6" ht="16.5">
+      <c r="C518" s="190"/>
+      <c r="D518" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="514" spans="3:5" ht="16.5">
-      <c r="C514" s="190"/>
-      <c r="D514" t="s">
+    <row r="519" spans="3:6" ht="16.5">
+      <c r="C519" s="190"/>
+      <c r="D519" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="515" spans="3:5" ht="16.5">
-      <c r="C515" s="190"/>
-      <c r="D515" s="129" t="s">
+    <row r="520" spans="3:6" ht="16.5">
+      <c r="C520" s="190"/>
+      <c r="D520" s="129" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="516" spans="3:5" ht="16.5">
-      <c r="C516" s="190"/>
-      <c r="D516" s="129"/>
-    </row>
-    <row r="517" spans="3:5" ht="16.5">
-      <c r="C517" s="190" t="s">
+    <row r="521" spans="3:6" ht="16.5">
+      <c r="C521" s="190"/>
+      <c r="D521" s="129"/>
+    </row>
+    <row r="522" spans="3:6" ht="16.5">
+      <c r="C522" s="190" t="s">
         <v>906</v>
       </c>
-      <c r="D517"/>
-    </row>
-    <row r="518" spans="3:5" ht="108">
-      <c r="C518" s="128"/>
-      <c r="E518" s="107" t="s">
+      <c r="D522"/>
+    </row>
+    <row r="523" spans="3:6" ht="108">
+      <c r="C523" s="128"/>
+      <c r="E523" s="107" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="519" spans="3:5" ht="16.5">
-      <c r="C519" s="128"/>
-      <c r="D519" t="s">
+    <row r="524" spans="3:6" ht="16.5">
+      <c r="C524" s="128"/>
+      <c r="D524" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="520" spans="3:5" ht="16.5">
-      <c r="C520" s="128"/>
-      <c r="D520" t="s">
+    <row r="525" spans="3:6" ht="16.5">
+      <c r="C525" s="128"/>
+      <c r="D525" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="521" spans="3:5" ht="16.5">
-      <c r="C521" s="128"/>
-      <c r="D521" s="129" t="s">
+    <row r="526" spans="3:6" ht="16.5">
+      <c r="C526" s="128"/>
+      <c r="D526" s="129" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="522" spans="3:5" ht="16.5">
-      <c r="C522" s="128"/>
-      <c r="D522" s="178" t="s">
+    <row r="527" spans="3:6" ht="16.5">
+      <c r="C527" s="128"/>
+      <c r="D527" s="178" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="523" spans="3:5" ht="16.5">
-      <c r="C523" s="128"/>
-      <c r="D523" s="104" t="s">
+    <row r="528" spans="3:6" ht="16.5">
+      <c r="C528" s="128"/>
+      <c r="D528" s="104" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="524" spans="3:5" ht="16.5">
-      <c r="C524" s="128"/>
-    </row>
-    <row r="525" spans="3:5" ht="16.5">
-      <c r="C525" s="128"/>
-      <c r="D525" s="128" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="526" spans="3:5" ht="16.5">
-      <c r="C526" s="128"/>
-      <c r="D526" s="98" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="527" spans="3:5" ht="16.5">
-      <c r="C527" s="128"/>
-      <c r="D527" s="98" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="528" spans="3:5" ht="16.5">
-      <c r="C528" s="128"/>
-      <c r="D528" s="98"/>
     </row>
     <row r="529" spans="3:5" ht="16.5">
       <c r="C529" s="128"/>
-      <c r="D529" s="128" t="s">
-        <v>917</v>
-      </c>
     </row>
     <row r="530" spans="3:5" ht="16.5">
       <c r="C530" s="128"/>
-      <c r="D530" s="98" t="s">
-        <v>918</v>
+      <c r="D530" s="128" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="531" spans="3:5" ht="16.5">
       <c r="C531" s="128"/>
       <c r="D531" s="98" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="532" spans="3:5" ht="16.5">
       <c r="C532" s="128"/>
       <c r="D532" s="98" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="533" spans="3:5" ht="16.5">
       <c r="C533" s="128"/>
+      <c r="D533" s="98"/>
     </row>
     <row r="534" spans="3:5" ht="16.5">
       <c r="C534" s="128"/>
-      <c r="D534" s="179" t="s">
-        <v>927</v>
+      <c r="D534" s="128" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="535" spans="3:5" ht="16.5">
       <c r="C535" s="128"/>
-      <c r="D535" s="142" t="s">
-        <v>318</v>
-      </c>
-      <c r="E535" s="142" t="s">
-        <v>1</v>
+      <c r="D535" s="98" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="536" spans="3:5" ht="16.5">
       <c r="C536" s="128"/>
-      <c r="D536" s="180" t="s">
-        <v>921</v>
-      </c>
-      <c r="E536" s="96" t="s">
-        <v>922</v>
+      <c r="D536" s="98" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="537" spans="3:5" ht="16.5">
       <c r="C537" s="128"/>
-      <c r="D537" s="180" t="s">
-        <v>923</v>
-      </c>
-      <c r="E537" s="96" t="s">
-        <v>924</v>
+      <c r="D537" s="98" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="538" spans="3:5" ht="16.5">
       <c r="C538" s="128"/>
-      <c r="D538" s="180" t="s">
-        <v>925</v>
-      </c>
-      <c r="E538" s="96" t="s">
-        <v>926</v>
-      </c>
     </row>
     <row r="539" spans="3:5" ht="16.5">
       <c r="C539" s="128"/>
-    </row>
-    <row r="540" spans="3:5" ht="21">
+      <c r="D539" s="179" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="540" spans="3:5" ht="16.5">
       <c r="C540" s="128"/>
-      <c r="D540" s="97" t="s">
-        <v>932</v>
+      <c r="D540" s="142" t="s">
+        <v>318</v>
+      </c>
+      <c r="E540" s="142" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="3:5" ht="16.5">
       <c r="C541" s="128"/>
-      <c r="D541" s="98" t="s">
-        <v>928</v>
+      <c r="D541" s="180" t="s">
+        <v>921</v>
+      </c>
+      <c r="E541" s="96" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="542" spans="3:5" ht="16.5">
       <c r="C542" s="128"/>
-      <c r="D542" s="146" t="s">
-        <v>929</v>
+      <c r="D542" s="180" t="s">
+        <v>923</v>
+      </c>
+      <c r="E542" s="96" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="543" spans="3:5" ht="16.5">
       <c r="C543" s="128"/>
-      <c r="D543" s="146" t="s">
-        <v>930</v>
+      <c r="D543" s="180" t="s">
+        <v>925</v>
+      </c>
+      <c r="E543" s="96" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="544" spans="3:5" ht="16.5">
       <c r="C544" s="128"/>
-      <c r="D544" s="98" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="545" spans="3:7" ht="16.5">
+    </row>
+    <row r="545" spans="3:7" ht="21">
       <c r="C545" s="128"/>
-      <c r="D545" s="98"/>
-    </row>
-    <row r="546" spans="3:7" ht="21">
+      <c r="D545" s="97" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="546" spans="3:7" ht="16.5">
       <c r="C546" s="128"/>
-      <c r="D546" s="97" t="s">
-        <v>933</v>
-      </c>
-      <c r="E546"/>
+      <c r="D546" s="98" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="547" spans="3:7" ht="16.5">
       <c r="C547" s="128"/>
-      <c r="D547"/>
-      <c r="E547"/>
+      <c r="D547" s="146" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="548" spans="3:7" ht="16.5">
       <c r="C548" s="128"/>
-      <c r="D548" s="181" t="s">
-        <v>328</v>
-      </c>
-      <c r="E548" s="181" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="549" spans="3:7" ht="67.5">
+      <c r="D548" s="146" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="549" spans="3:7" ht="16.5">
       <c r="C549" s="128"/>
-      <c r="D549" s="182" t="s">
-        <v>934</v>
-      </c>
-      <c r="E549" s="182" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="550" spans="3:7" ht="54">
+      <c r="D549" s="98" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="550" spans="3:7" ht="16.5">
       <c r="C550" s="128"/>
-      <c r="D550" s="182" t="s">
-        <v>936</v>
-      </c>
-      <c r="E550" s="182" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="551" spans="3:7" ht="16.5">
+      <c r="D550" s="98"/>
+    </row>
+    <row r="551" spans="3:7" ht="21">
       <c r="C551" s="128"/>
-      <c r="D551" s="98"/>
+      <c r="D551" s="97" t="s">
+        <v>933</v>
+      </c>
+      <c r="E551"/>
     </row>
     <row r="552" spans="3:7" ht="16.5">
       <c r="C552" s="128"/>
-      <c r="D552" t="s">
-        <v>938</v>
-      </c>
+      <c r="D552"/>
+      <c r="E552"/>
     </row>
     <row r="553" spans="3:7" ht="16.5">
       <c r="C553" s="128"/>
-      <c r="D553" s="98" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="554" spans="3:7" ht="16.5">
+      <c r="D553" s="181" t="s">
+        <v>328</v>
+      </c>
+      <c r="E553" s="181" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="554" spans="3:7" ht="67.5">
       <c r="C554" s="128"/>
-      <c r="D554" s="181" t="s">
-        <v>777</v>
-      </c>
-      <c r="E554" s="181" t="s">
-        <v>778</v>
-      </c>
-      <c r="F554" s="181" t="s">
-        <v>939</v>
-      </c>
-      <c r="G554" s="185" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="555" spans="3:7" ht="16.5">
+      <c r="D554" s="182" t="s">
+        <v>934</v>
+      </c>
+      <c r="E554" s="182" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="555" spans="3:7" ht="54">
       <c r="C555" s="128"/>
-      <c r="D555" s="186">
-        <v>1</v>
+      <c r="D555" s="182" t="s">
+        <v>936</v>
       </c>
       <c r="E555" s="182" t="s">
-        <v>780</v>
-      </c>
-      <c r="F555" s="182" t="s">
-        <v>941</v>
-      </c>
-      <c r="G555" s="186">
-        <v>300</v>
+        <v>937</v>
       </c>
     </row>
     <row r="556" spans="3:7" ht="16.5">
       <c r="C556" s="128"/>
-      <c r="D556" s="186">
-        <v>2</v>
-      </c>
-      <c r="E556" s="182" t="s">
-        <v>782</v>
-      </c>
-      <c r="F556" s="182" t="s">
-        <v>941</v>
-      </c>
-      <c r="G556" s="186">
-        <v>400</v>
-      </c>
+      <c r="D556" s="98"/>
     </row>
     <row r="557" spans="3:7" ht="16.5">
       <c r="C557" s="128"/>
-      <c r="D557" s="186">
-        <v>3</v>
-      </c>
-      <c r="E557" s="182" t="s">
-        <v>783</v>
-      </c>
-      <c r="F557" s="182" t="s">
-        <v>942</v>
-      </c>
-      <c r="G557" s="186">
-        <v>500</v>
+      <c r="D557" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="558" spans="3:7" ht="16.5">
       <c r="C558" s="128"/>
-      <c r="D558" s="98"/>
+      <c r="D558" s="98" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="559" spans="3:7" ht="16.5">
       <c r="C559" s="128"/>
-      <c r="D559" t="s">
-        <v>944</v>
+      <c r="D559" s="181" t="s">
+        <v>777</v>
+      </c>
+      <c r="E559" s="181" t="s">
+        <v>778</v>
+      </c>
+      <c r="F559" s="181" t="s">
+        <v>939</v>
+      </c>
+      <c r="G559" s="185" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="560" spans="3:7" ht="16.5">
       <c r="C560" s="128"/>
-      <c r="D560" s="181" t="s">
+      <c r="D560" s="186">
+        <v>1</v>
+      </c>
+      <c r="E560" s="182" t="s">
+        <v>780</v>
+      </c>
+      <c r="F560" s="182" t="s">
+        <v>941</v>
+      </c>
+      <c r="G560" s="186">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="561" spans="3:7" ht="16.5">
+      <c r="C561" s="128"/>
+      <c r="D561" s="186">
+        <v>2</v>
+      </c>
+      <c r="E561" s="182" t="s">
+        <v>782</v>
+      </c>
+      <c r="F561" s="182" t="s">
+        <v>941</v>
+      </c>
+      <c r="G561" s="186">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="562" spans="3:7" ht="16.5">
+      <c r="C562" s="128"/>
+      <c r="D562" s="186">
+        <v>3</v>
+      </c>
+      <c r="E562" s="182" t="s">
+        <v>783</v>
+      </c>
+      <c r="F562" s="182" t="s">
+        <v>942</v>
+      </c>
+      <c r="G562" s="186">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="563" spans="3:7" ht="16.5">
+      <c r="C563" s="128"/>
+      <c r="D563" s="98"/>
+    </row>
+    <row r="564" spans="3:7" ht="16.5">
+      <c r="C564" s="128"/>
+      <c r="D564" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="565" spans="3:7" ht="16.5">
+      <c r="C565" s="128"/>
+      <c r="D565" s="181" t="s">
         <v>778</v>
       </c>
-      <c r="E560" s="185" t="s">
+      <c r="E565" s="185" t="s">
         <v>940</v>
       </c>
-      <c r="F560" s="185" t="s">
+      <c r="F565" s="185" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="561" spans="3:6" ht="16.5">
-      <c r="C561" s="128"/>
-      <c r="D561" s="182" t="s">
+    <row r="566" spans="3:7" ht="16.5">
+      <c r="C566" s="128"/>
+      <c r="D566" s="182" t="s">
         <v>780</v>
       </c>
-      <c r="E561" s="186">
+      <c r="E566" s="186">
         <v>300</v>
       </c>
-      <c r="F561" s="186">
+      <c r="F566" s="186">
         <v>350</v>
       </c>
     </row>
-    <row r="562" spans="3:6" ht="16.5">
-      <c r="C562" s="128"/>
-      <c r="D562" s="182" t="s">
+    <row r="567" spans="3:7" ht="16.5">
+      <c r="C567" s="128"/>
+      <c r="D567" s="182" t="s">
         <v>782</v>
       </c>
-      <c r="E562" s="186">
+      <c r="E567" s="186">
         <v>400</v>
       </c>
-      <c r="F562" s="186">
+      <c r="F567" s="186">
         <v>350</v>
       </c>
     </row>
-    <row r="563" spans="3:6" ht="16.5">
-      <c r="C563" s="128"/>
-      <c r="D563" s="182" t="s">
+    <row r="568" spans="3:7" ht="16.5">
+      <c r="C568" s="128"/>
+      <c r="D568" s="182" t="s">
         <v>783</v>
       </c>
-      <c r="E563" s="186">
+      <c r="E568" s="186">
         <v>500</v>
       </c>
-      <c r="F563" s="186">
+      <c r="F568" s="186">
         <v>500</v>
       </c>
     </row>
-    <row r="564" spans="3:6" ht="16.5">
-      <c r="C564" s="128"/>
-      <c r="D564" s="98"/>
-    </row>
-    <row r="565" spans="3:6" ht="16.5">
-      <c r="C565" s="128"/>
-      <c r="D565" t="s">
+    <row r="569" spans="3:7" ht="16.5">
+      <c r="C569" s="128"/>
+      <c r="D569" s="98"/>
+    </row>
+    <row r="570" spans="3:7" ht="16.5">
+      <c r="C570" s="128"/>
+      <c r="D570" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="566" spans="3:6" ht="16.5">
-      <c r="C566" s="128"/>
-      <c r="D566" t="s">
+    <row r="571" spans="3:7" ht="16.5">
+      <c r="C571" s="128"/>
+      <c r="D571" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="567" spans="3:6" ht="16.5">
-      <c r="C567" s="128"/>
-    </row>
-    <row r="568" spans="3:6" ht="21">
-      <c r="C568" s="128"/>
-      <c r="D568" s="97" t="s">
+    <row r="572" spans="3:7" ht="16.5">
+      <c r="C572" s="128"/>
+    </row>
+    <row r="573" spans="3:7" ht="21">
+      <c r="C573" s="128"/>
+      <c r="D573" s="97" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="569" spans="3:6" ht="16.5">
-      <c r="C569" s="128"/>
-      <c r="D569" s="101" t="s">
+    <row r="574" spans="3:7" ht="16.5">
+      <c r="C574" s="128"/>
+      <c r="D574" s="101" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="570" spans="3:6" ht="16.5">
-      <c r="C570" s="128"/>
-      <c r="D570" s="98" t="s">
+    <row r="575" spans="3:7" ht="16.5">
+      <c r="C575" s="128"/>
+      <c r="D575" s="98" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="571" spans="3:6" ht="16.5">
-      <c r="C571" s="128"/>
-      <c r="D571" s="98" t="s">
+    <row r="576" spans="3:7" ht="16.5">
+      <c r="C576" s="128"/>
+      <c r="D576" s="98" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="572" spans="3:6" ht="16.5">
-      <c r="C572" s="128"/>
-    </row>
-    <row r="573" spans="3:6" ht="16.5">
-      <c r="C573" s="128"/>
-      <c r="D573" s="129" t="s">
+    <row r="577" spans="3:6" ht="16.5">
+      <c r="C577" s="128"/>
+    </row>
+    <row r="578" spans="3:6" ht="16.5">
+      <c r="C578" s="128"/>
+      <c r="D578" s="129" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="574" spans="3:6" ht="135">
-      <c r="C574" s="128"/>
-      <c r="E574" s="107" t="s">
+    <row r="579" spans="3:6" ht="135">
+      <c r="C579" s="128"/>
+      <c r="E579" s="107" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="575" spans="3:6" ht="54">
-      <c r="C575" s="128"/>
-      <c r="E575" s="107" t="s">
+    <row r="580" spans="3:6" ht="54">
+      <c r="C580" s="128"/>
+      <c r="E580" s="107" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="576" spans="3:6" ht="16.5">
-      <c r="C576" s="128"/>
-    </row>
-    <row r="577" spans="1:6">
-      <c r="C577" s="180"/>
-      <c r="E577" s="180" t="s">
+    <row r="581" spans="3:6" ht="16.5">
+      <c r="C581" s="128"/>
+    </row>
+    <row r="582" spans="3:6">
+      <c r="C582" s="180"/>
+      <c r="E582" s="180" t="s">
         <v>953</v>
       </c>
-      <c r="F577" s="197"/>
-    </row>
-    <row r="578" spans="1:6" ht="16.5">
-      <c r="C578" s="128"/>
-      <c r="E578" s="168" t="s">
+      <c r="F582" s="197"/>
+    </row>
+    <row r="583" spans="3:6" ht="16.5">
+      <c r="C583" s="128"/>
+      <c r="E583" s="168" t="s">
         <v>954</v>
       </c>
-      <c r="F578" s="168" t="s">
+      <c r="F583" s="168" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="16.5">
-      <c r="C579" s="128"/>
-      <c r="E579" s="169" t="s">
+    <row r="584" spans="3:6" ht="16.5">
+      <c r="C584" s="128"/>
+      <c r="E584" s="169" t="s">
         <v>955</v>
       </c>
-      <c r="F579" s="168" t="s">
+      <c r="F584" s="168" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="16.5">
-      <c r="C580" s="128"/>
-      <c r="E580" s="169" t="s">
+    <row r="585" spans="3:6" ht="16.5">
+      <c r="C585" s="128"/>
+      <c r="E585" s="169" t="s">
         <v>957</v>
       </c>
-      <c r="F580" s="169" t="s">
+      <c r="F585" s="169" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="16.5">
-      <c r="C581" s="128"/>
-      <c r="E581" s="169" t="s">
+    <row r="586" spans="3:6" ht="16.5">
+      <c r="C586" s="128"/>
+      <c r="E586" s="169" t="s">
         <v>882</v>
       </c>
-      <c r="F581" s="169" t="s">
+      <c r="F586" s="169" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="16.5">
-      <c r="C582" s="128"/>
-    </row>
-    <row r="583" spans="1:6" ht="16.5">
-      <c r="C583" s="128"/>
-      <c r="D583" t="s">
+    <row r="587" spans="3:6" ht="16.5">
+      <c r="C587" s="128"/>
+    </row>
+    <row r="588" spans="3:6" ht="16.5">
+      <c r="C588" s="128"/>
+      <c r="D588" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="54">
-      <c r="C584" s="128"/>
-      <c r="E584" s="107" t="s">
+    <row r="589" spans="3:6" ht="54">
+      <c r="C589" s="128"/>
+      <c r="E589" s="107" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="16.5">
-      <c r="C585" s="128"/>
-    </row>
-    <row r="586" spans="1:6" ht="16.5">
-      <c r="C586" s="128"/>
-      <c r="D586" s="146"/>
-    </row>
-    <row r="587" spans="1:6" ht="16.5">
-      <c r="C587" s="128"/>
-    </row>
-    <row r="588" spans="1:6">
-      <c r="D588" s="98"/>
-    </row>
-    <row r="589" spans="1:6" ht="21">
-      <c r="A589" s="103" t="s">
+    <row r="590" spans="3:6" ht="16.5">
+      <c r="C590" s="128"/>
+    </row>
+    <row r="591" spans="3:6" ht="16.5">
+      <c r="C591" s="128"/>
+      <c r="D591" s="146"/>
+    </row>
+    <row r="592" spans="3:6" ht="16.5">
+      <c r="C592" s="128"/>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="D593" s="98"/>
+    </row>
+    <row r="594" spans="1:5" ht="21">
+      <c r="A594" s="103" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
-      <c r="C590" s="105" t="s">
+    <row r="595" spans="1:5">
+      <c r="C595" s="105" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
-      <c r="C591" s="104" t="s">
+    <row r="596" spans="1:5">
+      <c r="C596" s="104" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
-      <c r="C592" s="104" t="s">
+    <row r="597" spans="1:5">
+      <c r="C597" s="104" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="593" spans="2:5">
-      <c r="D593" s="104" t="s">
+    <row r="598" spans="1:5">
+      <c r="D598" s="104" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="594" spans="2:5" ht="60">
-      <c r="E594" s="114" t="s">
+    <row r="599" spans="1:5" ht="60">
+      <c r="E599" s="114" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="595" spans="2:5">
-      <c r="C595" s="105" t="s">
+    <row r="600" spans="1:5">
+      <c r="C600" s="105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="596" spans="2:5">
-      <c r="C596" s="104" t="s">
+    <row r="601" spans="1:5">
+      <c r="C601" s="104" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="597" spans="2:5">
-      <c r="C597" s="104" t="s">
+    <row r="602" spans="1:5">
+      <c r="C602" s="104" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="598" spans="2:5">
-      <c r="C598" s="105" t="s">
+    <row r="603" spans="1:5">
+      <c r="C603" s="105" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="601" spans="2:5" ht="21">
-      <c r="B601" s="97" t="s">
+    <row r="606" spans="1:5" ht="21">
+      <c r="B606" s="97" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="602" spans="2:5">
-      <c r="B602"/>
-    </row>
-    <row r="603" spans="2:5" ht="16.5">
-      <c r="B603" s="128" t="s">
+    <row r="607" spans="1:5">
+      <c r="B607"/>
+    </row>
+    <row r="608" spans="1:5" ht="16.5">
+      <c r="B608" s="128" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="604" spans="2:5">
-      <c r="B604" s="171" t="s">
+    <row r="609" spans="2:5">
+      <c r="B609" s="171" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="605" spans="2:5">
-      <c r="B605" s="98" t="s">
+    <row r="610" spans="2:5">
+      <c r="B610" s="98" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="606" spans="2:5">
-      <c r="B606" s="98" t="s">
+    <row r="611" spans="2:5">
+      <c r="B611" s="98" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="607" spans="2:5" ht="121.5">
-      <c r="E607" s="107" t="s">
+    <row r="612" spans="2:5" ht="121.5">
+      <c r="E612" s="107" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="608" spans="2:5">
-      <c r="B608" s="129" t="s">
+    <row r="613" spans="2:5">
+      <c r="B613" s="129" t="s">
         <v>864</v>
-      </c>
-    </row>
-    <row r="609" spans="2:5">
-      <c r="B609" s="98" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="610" spans="2:5">
-      <c r="B610" s="101" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="611" spans="2:5">
-      <c r="B611" s="98"/>
-    </row>
-    <row r="612" spans="2:5" ht="16.5">
-      <c r="B612" s="128" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="613" spans="2:5">
-      <c r="B613" s="98" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="614" spans="2:5">
       <c r="B614" s="98" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="615" spans="2:5" ht="108">
-      <c r="B615" s="98"/>
-      <c r="E615" s="107" t="s">
-        <v>1033</v>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="615" spans="2:5">
+      <c r="B615" s="101" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="616" spans="2:5">
-      <c r="B616" s="129" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="617" spans="2:5">
-      <c r="B617" s="98" t="s">
-        <v>1034</v>
+      <c r="B616" s="98"/>
+    </row>
+    <row r="617" spans="2:5" ht="16.5">
+      <c r="B617" s="128" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="618" spans="2:5">
       <c r="B618" s="98" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="619" spans="2:5">
-      <c r="B619" s="98"/>
-    </row>
-    <row r="620" spans="2:5" ht="16.5">
-      <c r="B620" s="128" t="s">
-        <v>1036</v>
+      <c r="B619" s="98" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="620" spans="2:5" ht="108">
+      <c r="B620" s="98"/>
+      <c r="E620" s="107" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="621" spans="2:5">
-      <c r="B621" s="171" t="s">
-        <v>1037</v>
+      <c r="B621" s="129" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="622" spans="2:5">
       <c r="B622" s="98" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="623" spans="2:5">
       <c r="B623" s="98" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="624" spans="2:5" ht="121.5">
-      <c r="E624" s="107" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="625" spans="2:5">
-      <c r="B625" s="129" t="s">
-        <v>864</v>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="624" spans="2:5">
+      <c r="B624" s="98"/>
+    </row>
+    <row r="625" spans="2:5" ht="16.5">
+      <c r="B625" s="128" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="626" spans="2:5">
-      <c r="B626" s="101" t="s">
-        <v>1041</v>
+      <c r="B626" s="171" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="627" spans="2:5">
-      <c r="B627" s="101" t="s">
-        <v>1042</v>
+      <c r="B627" s="98" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="628" spans="2:5">
       <c r="B628" s="98" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="631" spans="2:5" ht="16.5">
-      <c r="B631" s="128" t="s">
-        <v>1044</v>
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="629" spans="2:5" ht="121.5">
+      <c r="E629" s="107" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="630" spans="2:5">
+      <c r="B630" s="129" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="631" spans="2:5">
+      <c r="B631" s="101" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="632" spans="2:5">
-      <c r="B632" s="98" t="s">
-        <v>1045</v>
+      <c r="B632" s="101" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="633" spans="2:5">
       <c r="B633" s="98" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="634" spans="2:5" ht="108">
-      <c r="B634" s="98"/>
-      <c r="E634" s="107" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="635" spans="2:5">
-      <c r="B635" s="129" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="636" spans="2:5">
-      <c r="B636" s="98" t="s">
-        <v>1048</v>
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="636" spans="2:5" ht="16.5">
+      <c r="B636" s="128" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="637" spans="2:5">
       <c r="B637" s="98" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="638" spans="2:5">
+      <c r="B638" s="98" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="639" spans="2:5" ht="108">
+      <c r="B639" s="98"/>
+      <c r="E639" s="107" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="640" spans="2:5">
+      <c r="B640" s="129" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="641" spans="2:5">
+      <c r="B641" s="98" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="642" spans="2:5">
+      <c r="B642" s="98" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="638" spans="2:5">
-      <c r="B638" s="98"/>
-    </row>
-    <row r="639" spans="2:5" ht="27">
-      <c r="C639" s="185" t="s">
+    <row r="643" spans="2:5">
+      <c r="B643" s="98"/>
+    </row>
+    <row r="644" spans="2:5" ht="27">
+      <c r="C644" s="185" t="s">
         <v>638</v>
       </c>
-      <c r="D639" s="185" t="s">
+      <c r="D644" s="185" t="s">
         <v>1050</v>
       </c>
-      <c r="E639" s="185" t="s">
+      <c r="E644" s="185" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="640" spans="2:5" ht="40.5">
-      <c r="C640" s="186" t="s">
+    <row r="645" spans="2:5" ht="40.5">
+      <c r="C645" s="186" t="s">
         <v>1052</v>
       </c>
-      <c r="D640" s="186" t="s">
+      <c r="D645" s="186" t="s">
         <v>1053</v>
       </c>
-      <c r="E640" s="186" t="s">
+      <c r="E645" s="186" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="641" spans="2:5" ht="40.5">
-      <c r="C641" s="186" t="s">
+    <row r="646" spans="2:5" ht="40.5">
+      <c r="C646" s="186" t="s">
         <v>1055</v>
       </c>
-      <c r="D641" s="186" t="s">
+      <c r="D646" s="186" t="s">
         <v>1056</v>
       </c>
-      <c r="E641" s="186" t="s">
+      <c r="E646" s="186" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="642" spans="2:5" ht="27">
-      <c r="C642" s="186" t="s">
+    <row r="647" spans="2:5" ht="27">
+      <c r="C647" s="186" t="s">
         <v>1058</v>
       </c>
-      <c r="D642" s="186" t="s">
+      <c r="D647" s="186" t="s">
         <v>1059</v>
       </c>
-      <c r="E642" s="186" t="s">
+      <c r="E647" s="186" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="643" spans="2:5" ht="54">
-      <c r="C643" s="186" t="s">
+    <row r="648" spans="2:5" ht="54">
+      <c r="C648" s="186" t="s">
         <v>1061</v>
       </c>
-      <c r="D643" s="186" t="s">
+      <c r="D648" s="186" t="s">
         <v>1062</v>
       </c>
-      <c r="E643" s="186" t="s">
+      <c r="E648" s="186" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="645" spans="2:5">
-      <c r="B645" s="129" t="s">
+    <row r="650" spans="2:5">
+      <c r="B650" s="129" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="646" spans="2:5">
-      <c r="B646" s="171" t="s">
+    <row r="651" spans="2:5">
+      <c r="B651" s="171" t="s">
         <v>1065</v>
-      </c>
-    </row>
-    <row r="647" spans="2:5">
-      <c r="B647" s="171" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="648" spans="2:5">
-      <c r="B648" s="198" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="650" spans="2:5" ht="21">
-      <c r="B650" s="97" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="652" spans="2:5">
       <c r="B652" s="171" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="653" spans="2:5">
+      <c r="B653" s="198" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="655" spans="2:5" ht="21">
+      <c r="B655" s="97" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="B657" s="171" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="653" spans="2:5">
-      <c r="B653" s="98" t="s">
+    <row r="658" spans="1:5">
+      <c r="B658" s="98" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="654" spans="2:5">
-      <c r="B654" s="98" t="s">
+    <row r="659" spans="1:5">
+      <c r="B659" s="98" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="656" spans="2:5">
-      <c r="B656" s="98"/>
-    </row>
-    <row r="658" spans="1:9">
-      <c r="B658" s="98"/>
-    </row>
-    <row r="660" spans="1:9">
-      <c r="B660" s="98"/>
-    </row>
-    <row r="665" spans="1:9" ht="21">
-      <c r="A665" s="103" t="s">
+    <row r="661" spans="1:5">
+      <c r="B661" s="98"/>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="B663" s="98"/>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="B665" s="98"/>
+    </row>
+    <row r="670" spans="1:5" ht="21">
+      <c r="A670" s="103" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="666" spans="1:9">
-      <c r="C666" s="108"/>
-      <c r="D666" s="108"/>
-      <c r="E666" s="108"/>
-    </row>
-    <row r="667" spans="1:9" ht="40.5">
-      <c r="C667" s="115" t="s">
+    <row r="671" spans="1:5">
+      <c r="C671" s="108"/>
+      <c r="D671" s="108"/>
+      <c r="E671" s="108"/>
+    </row>
+    <row r="672" spans="1:5" ht="40.5">
+      <c r="C672" s="115" t="s">
         <v>548</v>
       </c>
-      <c r="D667" s="115" t="s">
+      <c r="D672" s="115" t="s">
         <v>549</v>
       </c>
-      <c r="E667" s="115" t="s">
+      <c r="E672" s="115" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="668" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C668" s="116" t="s">
+    <row r="673" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C673" s="116" t="s">
         <v>531</v>
       </c>
-      <c r="D668" s="117" t="s">
+      <c r="D673" s="117" t="s">
         <v>551</v>
       </c>
-      <c r="E668" s="118" t="s">
+      <c r="E673" s="118" t="s">
         <v>559</v>
       </c>
-      <c r="G668" s="119"/>
-      <c r="H668" s="119"/>
-      <c r="I668" s="119"/>
-    </row>
-    <row r="669" spans="1:9" ht="63" customHeight="1">
-      <c r="C669" s="116" t="s">
+      <c r="G673" s="119"/>
+      <c r="H673" s="119"/>
+      <c r="I673" s="119"/>
+    </row>
+    <row r="674" spans="1:9" ht="63" customHeight="1">
+      <c r="C674" s="116" t="s">
         <v>557</v>
       </c>
-      <c r="D669" s="117" t="s">
+      <c r="D674" s="117" t="s">
         <v>556</v>
       </c>
-      <c r="E669" s="120" t="s">
+      <c r="E674" s="120" t="s">
         <v>560</v>
       </c>
-      <c r="G669" s="121"/>
-      <c r="H669" s="122"/>
-      <c r="I669" s="123"/>
-    </row>
-    <row r="670" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C670" s="116" t="s">
+      <c r="G674" s="121"/>
+      <c r="H674" s="122"/>
+      <c r="I674" s="123"/>
+    </row>
+    <row r="675" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C675" s="116" t="s">
         <v>558</v>
       </c>
-      <c r="D670" s="117" t="s">
+      <c r="D675" s="117" t="s">
         <v>552</v>
       </c>
-      <c r="E670" s="124" t="s">
+      <c r="E675" s="124" t="s">
         <v>561</v>
       </c>
-      <c r="G670" s="121"/>
-      <c r="H670" s="122"/>
-      <c r="I670" s="122"/>
-    </row>
-    <row r="671" spans="1:9" ht="52.5" customHeight="1">
-      <c r="C671" s="116" t="s">
+      <c r="G675" s="121"/>
+      <c r="H675" s="122"/>
+      <c r="I675" s="122"/>
+    </row>
+    <row r="676" spans="1:9" ht="52.5" customHeight="1">
+      <c r="C676" s="116" t="s">
         <v>517</v>
       </c>
-      <c r="D671" s="125" t="s">
+      <c r="D676" s="125" t="s">
         <v>563</v>
       </c>
-      <c r="E671" s="125" t="s">
+      <c r="E676" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="G671" s="121"/>
-      <c r="H671" s="122"/>
-      <c r="I671" s="122"/>
-    </row>
-    <row r="672" spans="1:9">
-      <c r="C672" s="126"/>
-      <c r="D672" s="126"/>
-    </row>
-    <row r="673" spans="1:3" ht="21">
-      <c r="A673" s="109" t="s">
+      <c r="G676" s="121"/>
+      <c r="H676" s="122"/>
+      <c r="I676" s="122"/>
+    </row>
+    <row r="677" spans="1:9">
+      <c r="C677" s="126"/>
+      <c r="D677" s="126"/>
+    </row>
+    <row r="678" spans="1:9" ht="21">
+      <c r="A678" s="109" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
-      <c r="A674" s="105" t="s">
+    <row r="679" spans="1:9">
+      <c r="A679" s="105" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="675" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A675" s="108" t="s">
+    <row r="680" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A680" s="108" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="676" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A676" s="110"/>
-    </row>
-    <row r="677" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A677" s="112" t="s">
+    <row r="681" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A681" s="110"/>
+    </row>
+    <row r="682" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A682" s="112" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="678" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A678" s="111" t="s">
+    <row r="683" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A683" s="111" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="679" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A679" s="108"/>
-    </row>
-    <row r="680" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A680" s="127"/>
-      <c r="C680" s="127" t="s">
+    <row r="684" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A684" s="108"/>
+    </row>
+    <row r="685" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A685" s="127"/>
+      <c r="C685" s="127" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="681" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A681" s="127"/>
-      <c r="C681" s="127" t="s">
+    <row r="686" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A686" s="127"/>
+      <c r="C686" s="127" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="682" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="683" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A683" s="112" t="s">
+    <row r="687" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="688" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A688" s="112" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="684" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A684" s="110" t="s">
+    <row r="689" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A689" s="110" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="685" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A685" s="110" t="s">
+    <row r="690" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A690" s="110" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="686" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A686" s="112" t="s">
+    <row r="691" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A691" s="112" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A687" s="112" t="s">
+    <row r="692" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A692" s="112" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="688" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A688" s="108"/>
-    </row>
-    <row r="689" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A689" s="127"/>
-      <c r="C689" s="127" t="s">
+    <row r="693" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A693" s="108"/>
+    </row>
+    <row r="694" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A694" s="127"/>
+      <c r="C694" s="127" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A690" s="127"/>
-      <c r="C690" s="127" t="s">
+    <row r="695" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A695" s="127"/>
+      <c r="C695" s="127" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="691" spans="1:3" ht="16.5" customHeight="1">
-      <c r="C691" s="127" t="s">
+    <row r="696" spans="1:3" ht="16.5" customHeight="1">
+      <c r="C696" s="127" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="693" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A693" s="104" t="s">
+    <row r="697" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="698" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A698" s="104" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A694" s="104" t="s">
+    <row r="699" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A699" s="104" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
-      <c r="A696" s="129" t="s">
+    <row r="701" spans="1:3">
+      <c r="A701" s="129" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="14.25">
-      <c r="A697" t="s">
+    <row r="702" spans="1:3" ht="14.25">
+      <c r="A702" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
-      <c r="A698"/>
-    </row>
-    <row r="699" spans="1:3">
-      <c r="A699" s="129" t="s">
+    <row r="703" spans="1:3">
+      <c r="A703"/>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704" s="129" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
-      <c r="A700" t="s">
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
         <v>963</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C162:E162"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="139" max="6" man="1"/>
-    <brk id="478" max="6" man="1"/>
-    <brk id="572" max="6" man="1"/>
-    <brk id="672" max="6" man="1"/>
+    <brk id="144" max="6" man="1"/>
+    <brk id="483" max="6" man="1"/>
+    <brk id="577" max="6" man="1"/>
+    <brk id="677" max="6" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
@@ -17991,7 +18008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -18440,11 +18457,11 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="16.5" customHeight="1">
-      <c r="C96" s="199" t="s">
+      <c r="C96" s="200" t="s">
         <v>523</v>
       </c>
-      <c r="D96" s="199"/>
-      <c r="E96" s="199"/>
+      <c r="D96" s="200"/>
+      <c r="E96" s="200"/>
     </row>
     <row r="97" spans="3:5" ht="16.5" customHeight="1">
       <c r="C97" s="102"/>
@@ -19752,7 +19769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -20180,11 +20197,11 @@
       </c>
     </row>
     <row r="100" spans="2:6" ht="16.5" customHeight="1">
-      <c r="C100" s="199" t="s">
+      <c r="C100" s="200" t="s">
         <v>523</v>
       </c>
-      <c r="D100" s="199"/>
-      <c r="E100" s="199"/>
+      <c r="D100" s="200"/>
+      <c r="E100" s="200"/>
     </row>
     <row r="102" spans="2:6" ht="16.5">
       <c r="B102" s="106" t="s">
@@ -20522,13 +20539,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:F198"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A95" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -21141,7 +21158,7 @@
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
-      <c r="F70" s="200" t="s">
+      <c r="F70" s="204" t="s">
         <v>211</v>
       </c>
     </row>
@@ -21153,7 +21170,7 @@
         <v>393</v>
       </c>
       <c r="D71" s="31"/>
-      <c r="F71" s="200"/>
+      <c r="F71" s="204"/>
     </row>
     <row r="72" spans="1:6" ht="27">
       <c r="C72" s="58" t="s">
@@ -21165,7 +21182,7 @@
       <c r="E72" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="200"/>
+      <c r="F72" s="204"/>
     </row>
     <row r="73" spans="1:6" ht="40.5">
       <c r="C73" s="58" t="s">
@@ -21177,7 +21194,7 @@
       <c r="E73" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F73" s="200"/>
+      <c r="F73" s="204"/>
     </row>
     <row r="74" spans="1:6" ht="40.5">
       <c r="B74" s="31"/>
@@ -21190,7 +21207,7 @@
       <c r="E74" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F74" s="200"/>
+      <c r="F74" s="204"/>
     </row>
     <row r="75" spans="1:6" ht="27">
       <c r="B75" s="31"/>
@@ -21203,7 +21220,7 @@
       <c r="E75" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F75" s="200"/>
+      <c r="F75" s="204"/>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="31"/>
@@ -21233,7 +21250,7 @@
       <c r="D79" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E79" s="201" t="s">
+      <c r="E79" s="202" t="s">
         <v>362</v>
       </c>
     </row>
@@ -21245,7 +21262,7 @@
       <c r="D80" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E80" s="201"/>
+      <c r="E80" s="202"/>
     </row>
     <row r="81" spans="2:6" ht="27">
       <c r="B81" s="31"/>
@@ -21255,7 +21272,7 @@
       <c r="D81" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="201"/>
+      <c r="E81" s="202"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="31"/>
@@ -21279,7 +21296,7 @@
       <c r="E84" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F84" s="201" t="s">
+      <c r="F84" s="202" t="s">
         <v>246</v>
       </c>
     </row>
@@ -21294,7 +21311,7 @@
       <c r="E85" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F85" s="201"/>
+      <c r="F85" s="202"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -21307,7 +21324,7 @@
       <c r="E86" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F86" s="201"/>
+      <c r="F86" s="202"/>
     </row>
     <row r="87" spans="2:6" ht="27">
       <c r="B87" s="31"/>
@@ -21320,7 +21337,7 @@
       <c r="E87" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F87" s="201"/>
+      <c r="F87" s="202"/>
     </row>
     <row r="88" spans="2:6" ht="27">
       <c r="B88" s="31"/>
@@ -21333,7 +21350,7 @@
       <c r="E88" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F88" s="201"/>
+      <c r="F88" s="202"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="31"/>
@@ -21357,7 +21374,7 @@
       <c r="E91" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F91" s="201" t="s">
+      <c r="F91" s="202" t="s">
         <v>247</v>
       </c>
     </row>
@@ -21371,7 +21388,7 @@
       <c r="E92" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="201"/>
+      <c r="F92" s="202"/>
     </row>
     <row r="93" spans="2:6">
       <c r="C93" s="31"/>
@@ -21384,10 +21401,10 @@
       <c r="D94" s="31"/>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="202" t="s">
+      <c r="B95" s="205" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="203" t="s">
+      <c r="C95" s="206" t="s">
         <v>398</v>
       </c>
       <c r="D95" s="58" t="s">
@@ -21395,115 +21412,115 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="201"/>
-      <c r="C96" s="203"/>
+      <c r="B96" s="202"/>
+      <c r="C96" s="206"/>
       <c r="D96" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="201"/>
-      <c r="C97" s="203"/>
+      <c r="B97" s="202"/>
+      <c r="C97" s="206"/>
       <c r="D97" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="27">
-      <c r="B98" s="201"/>
-      <c r="C98" s="203"/>
+      <c r="B98" s="202"/>
+      <c r="C98" s="206"/>
       <c r="D98" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="27">
-      <c r="B99" s="201"/>
-      <c r="C99" s="203"/>
+      <c r="B99" s="202"/>
+      <c r="C99" s="206"/>
       <c r="D99" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="201"/>
-      <c r="C100" s="203"/>
+      <c r="B100" s="202"/>
+      <c r="C100" s="206"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="204" t="s">
+      <c r="C101" s="201" t="s">
         <v>262</v>
       </c>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="204"/>
+      <c r="C102" s="201"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="204"/>
+      <c r="C103" s="201"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="204"/>
+      <c r="C104" s="201"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="204"/>
+      <c r="C105" s="201"/>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="204"/>
+      <c r="C106" s="201"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="204" t="s">
+      <c r="C107" s="201" t="s">
         <v>263</v>
       </c>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="204"/>
+      <c r="C108" s="201"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="204"/>
+      <c r="C109" s="201"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4">
-      <c r="C110" s="204"/>
+      <c r="C110" s="201"/>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="204"/>
+      <c r="C111" s="201"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4" ht="27">
       <c r="B112" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="204" t="s">
+      <c r="C112" s="201" t="s">
         <v>264</v>
       </c>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="204"/>
+      <c r="C113" s="201"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="204"/>
+      <c r="C114" s="201"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" s="204"/>
+      <c r="C115" s="201"/>
       <c r="D115" s="31"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" s="204"/>
+      <c r="C116" s="201"/>
       <c r="D116" s="31"/>
     </row>
     <row r="117" spans="1:4">
@@ -21536,30 +21553,30 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="201" t="s">
+      <c r="B121" s="202" t="s">
         <v>261</v>
       </c>
-      <c r="C121" s="201"/>
+      <c r="C121" s="202"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="201"/>
-      <c r="C122" s="201"/>
+      <c r="B122" s="202"/>
+      <c r="C122" s="202"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="201"/>
-      <c r="C123" s="201"/>
+      <c r="B123" s="202"/>
+      <c r="C123" s="202"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="B124" s="201"/>
-      <c r="C124" s="201"/>
+      <c r="B124" s="202"/>
+      <c r="C124" s="202"/>
       <c r="D124" s="31"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="B125" s="201"/>
-      <c r="C125" s="201"/>
+      <c r="B125" s="202"/>
+      <c r="C125" s="202"/>
       <c r="D125" s="31"/>
     </row>
     <row r="126" spans="1:4" ht="40.5">
@@ -22154,10 +22171,10 @@
       </c>
     </row>
     <row r="196" spans="3:4" ht="51" customHeight="1">
-      <c r="C196" s="205" t="s">
+      <c r="C196" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="D196" s="205"/>
+      <c r="D196" s="203"/>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" s="77" t="s">
@@ -22171,17 +22188,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="B121:C125"/>
-    <mergeCell ref="C196:D196"/>
     <mergeCell ref="F70:F75"/>
     <mergeCell ref="E79:E81"/>
     <mergeCell ref="F84:F88"/>
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="C95:C100"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="B121:C125"/>
+    <mergeCell ref="C196:D196"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -22190,7 +22207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -22776,7 +22793,7 @@
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
-      <c r="F68" s="200" t="s">
+      <c r="F68" s="204" t="s">
         <v>211</v>
       </c>
     </row>
@@ -22788,7 +22805,7 @@
         <v>393</v>
       </c>
       <c r="D69" s="31"/>
-      <c r="F69" s="200"/>
+      <c r="F69" s="204"/>
     </row>
     <row r="70" spans="1:6" ht="27">
       <c r="C70" s="58" t="s">
@@ -22800,7 +22817,7 @@
       <c r="E70" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="200"/>
+      <c r="F70" s="204"/>
     </row>
     <row r="71" spans="1:6" ht="40.5">
       <c r="C71" s="58" t="s">
@@ -22812,7 +22829,7 @@
       <c r="E71" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F71" s="200"/>
+      <c r="F71" s="204"/>
     </row>
     <row r="72" spans="1:6" ht="40.5">
       <c r="B72" s="31"/>
@@ -22825,7 +22842,7 @@
       <c r="E72" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F72" s="200"/>
+      <c r="F72" s="204"/>
     </row>
     <row r="73" spans="1:6" ht="27">
       <c r="B73" s="31"/>
@@ -22838,7 +22855,7 @@
       <c r="E73" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="F73" s="200"/>
+      <c r="F73" s="204"/>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="31"/>
@@ -22868,7 +22885,7 @@
       <c r="D77" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="E77" s="201" t="s">
+      <c r="E77" s="202" t="s">
         <v>362</v>
       </c>
     </row>
@@ -22880,7 +22897,7 @@
       <c r="D78" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="E78" s="201"/>
+      <c r="E78" s="202"/>
     </row>
     <row r="79" spans="1:6" ht="27">
       <c r="B79" s="31"/>
@@ -22890,7 +22907,7 @@
       <c r="D79" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="E79" s="201"/>
+      <c r="E79" s="202"/>
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="31"/>
@@ -22914,7 +22931,7 @@
       <c r="E82" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="201" t="s">
+      <c r="F82" s="202" t="s">
         <v>246</v>
       </c>
     </row>
@@ -22929,7 +22946,7 @@
       <c r="E83" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="F83" s="201"/>
+      <c r="F83" s="202"/>
     </row>
     <row r="84" spans="2:6" ht="27">
       <c r="B84" s="31"/>
@@ -22942,7 +22959,7 @@
       <c r="E84" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="F84" s="201"/>
+      <c r="F84" s="202"/>
     </row>
     <row r="85" spans="2:6" ht="27">
       <c r="B85" s="31"/>
@@ -22955,7 +22972,7 @@
       <c r="E85" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F85" s="201"/>
+      <c r="F85" s="202"/>
     </row>
     <row r="86" spans="2:6" ht="27">
       <c r="B86" s="31"/>
@@ -22968,7 +22985,7 @@
       <c r="E86" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="F86" s="201"/>
+      <c r="F86" s="202"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="31"/>
@@ -22992,7 +23009,7 @@
       <c r="E89" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="F89" s="201" t="s">
+      <c r="F89" s="202" t="s">
         <v>247</v>
       </c>
     </row>
@@ -23006,7 +23023,7 @@
       <c r="E90" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="F90" s="201"/>
+      <c r="F90" s="202"/>
     </row>
     <row r="91" spans="2:6">
       <c r="C91" s="31"/>
@@ -23019,10 +23036,10 @@
       <c r="D92" s="31"/>
     </row>
     <row r="93" spans="2:6" ht="27">
-      <c r="B93" s="202" t="s">
+      <c r="B93" s="205" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="203" t="s">
+      <c r="C93" s="206" t="s">
         <v>398</v>
       </c>
       <c r="D93" s="58" t="s">
@@ -23030,115 +23047,115 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="27">
-      <c r="B94" s="201"/>
-      <c r="C94" s="203"/>
+      <c r="B94" s="202"/>
+      <c r="C94" s="206"/>
       <c r="D94" s="59" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="27">
-      <c r="B95" s="201"/>
-      <c r="C95" s="203"/>
+      <c r="B95" s="202"/>
+      <c r="C95" s="206"/>
       <c r="D95" s="58" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="27">
-      <c r="B96" s="201"/>
-      <c r="C96" s="203"/>
+      <c r="B96" s="202"/>
+      <c r="C96" s="206"/>
       <c r="D96" s="59" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="27">
-      <c r="B97" s="201"/>
-      <c r="C97" s="203"/>
+      <c r="B97" s="202"/>
+      <c r="C97" s="206"/>
       <c r="D97" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="201"/>
-      <c r="C98" s="203"/>
+      <c r="B98" s="202"/>
+      <c r="C98" s="206"/>
       <c r="D98" s="31"/>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="204" t="s">
+      <c r="C99" s="201" t="s">
         <v>262</v>
       </c>
       <c r="D99" s="31"/>
     </row>
     <row r="100" spans="2:4">
-      <c r="C100" s="204"/>
+      <c r="C100" s="201"/>
       <c r="D100" s="31"/>
     </row>
     <row r="101" spans="2:4">
-      <c r="C101" s="204"/>
+      <c r="C101" s="201"/>
       <c r="D101" s="31"/>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="204"/>
+      <c r="C102" s="201"/>
       <c r="D102" s="31"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="204"/>
+      <c r="C103" s="201"/>
       <c r="D103" s="31"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="204"/>
+      <c r="C104" s="201"/>
       <c r="D104" s="31"/>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="204" t="s">
+      <c r="C105" s="201" t="s">
         <v>263</v>
       </c>
       <c r="D105" s="31"/>
     </row>
     <row r="106" spans="2:4">
-      <c r="C106" s="204"/>
+      <c r="C106" s="201"/>
       <c r="D106" s="31"/>
     </row>
     <row r="107" spans="2:4">
-      <c r="C107" s="204"/>
+      <c r="C107" s="201"/>
       <c r="D107" s="31"/>
     </row>
     <row r="108" spans="2:4">
-      <c r="C108" s="204"/>
+      <c r="C108" s="201"/>
       <c r="D108" s="31"/>
     </row>
     <row r="109" spans="2:4">
-      <c r="C109" s="204"/>
+      <c r="C109" s="201"/>
       <c r="D109" s="31"/>
     </row>
     <row r="110" spans="2:4" ht="27">
       <c r="B110" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="204" t="s">
+      <c r="C110" s="201" t="s">
         <v>264</v>
       </c>
       <c r="D110" s="31"/>
     </row>
     <row r="111" spans="2:4">
-      <c r="C111" s="204"/>
+      <c r="C111" s="201"/>
       <c r="D111" s="31"/>
     </row>
     <row r="112" spans="2:4">
-      <c r="C112" s="204"/>
+      <c r="C112" s="201"/>
       <c r="D112" s="31"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" s="204"/>
+      <c r="C113" s="201"/>
       <c r="D113" s="31"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" s="204"/>
+      <c r="C114" s="201"/>
       <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4">
@@ -23171,30 +23188,30 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="B119" s="201" t="s">
+      <c r="B119" s="202" t="s">
         <v>261</v>
       </c>
-      <c r="C119" s="201"/>
+      <c r="C119" s="202"/>
       <c r="D119" s="31"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="B120" s="201"/>
-      <c r="C120" s="201"/>
+      <c r="B120" s="202"/>
+      <c r="C120" s="202"/>
       <c r="D120" s="31"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="B121" s="201"/>
-      <c r="C121" s="201"/>
+      <c r="B121" s="202"/>
+      <c r="C121" s="202"/>
       <c r="D121" s="31"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="B122" s="201"/>
-      <c r="C122" s="201"/>
+      <c r="B122" s="202"/>
+      <c r="C122" s="202"/>
       <c r="D122" s="31"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="B123" s="201"/>
-      <c r="C123" s="201"/>
+      <c r="B123" s="202"/>
+      <c r="C123" s="202"/>
       <c r="D123" s="31"/>
     </row>
     <row r="124" spans="1:4" ht="40.5">
@@ -23789,10 +23806,10 @@
       </c>
     </row>
     <row r="194" spans="3:4" ht="51" customHeight="1">
-      <c r="C194" s="205" t="s">
+      <c r="C194" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="D194" s="205"/>
+      <c r="D194" s="203"/>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" s="77" t="s">
@@ -23806,17 +23823,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="B119:C123"/>
     <mergeCell ref="F68:F73"/>
     <mergeCell ref="E77:E79"/>
     <mergeCell ref="F82:F86"/>
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="B93:B98"/>
     <mergeCell ref="C93:C98"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="B119:C123"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -23825,7 +23842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -24408,7 +24425,7 @@
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
-      <c r="F67" s="210" t="s">
+      <c r="F67" s="211" t="s">
         <v>211</v>
       </c>
     </row>
@@ -24420,7 +24437,7 @@
         <v>238</v>
       </c>
       <c r="D68" s="18"/>
-      <c r="F68" s="210"/>
+      <c r="F68" s="211"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
       <c r="C69" s="33" t="s">
@@ -24432,7 +24449,7 @@
       <c r="E69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="211"/>
+      <c r="F69" s="212"/>
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1">
       <c r="C70" s="33" t="s">
@@ -24444,7 +24461,7 @@
       <c r="E70" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="211"/>
+      <c r="F70" s="212"/>
     </row>
     <row r="71" spans="1:6" ht="21" customHeight="1">
       <c r="B71" s="18"/>
@@ -24457,7 +24474,7 @@
       <c r="E71" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F71" s="211"/>
+      <c r="F71" s="212"/>
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1">
       <c r="B72" s="18"/>
@@ -24470,7 +24487,7 @@
       <c r="E72" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="211"/>
+      <c r="F72" s="212"/>
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="B73" s="18"/>
@@ -24500,7 +24517,7 @@
       <c r="D76" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="208" t="s">
+      <c r="E76" s="209" t="s">
         <v>220</v>
       </c>
     </row>
@@ -24512,7 +24529,7 @@
       <c r="D77" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="209"/>
+      <c r="E77" s="210"/>
     </row>
     <row r="78" spans="1:6" ht="21" customHeight="1">
       <c r="B78" s="18"/>
@@ -24522,7 +24539,7 @@
       <c r="D78" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="209"/>
+      <c r="E78" s="210"/>
     </row>
     <row r="79" spans="1:6" ht="21" customHeight="1">
       <c r="B79" s="18"/>
@@ -24546,7 +24563,7 @@
       <c r="E81" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="208" t="s">
+      <c r="F81" s="209" t="s">
         <v>246</v>
       </c>
     </row>
@@ -24561,7 +24578,7 @@
       <c r="E82" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F82" s="209"/>
+      <c r="F82" s="210"/>
     </row>
     <row r="83" spans="2:6" ht="21" customHeight="1">
       <c r="B83" s="18"/>
@@ -24574,7 +24591,7 @@
       <c r="E83" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="209"/>
+      <c r="F83" s="210"/>
     </row>
     <row r="84" spans="2:6" ht="21" customHeight="1">
       <c r="B84" s="18"/>
@@ -24587,7 +24604,7 @@
       <c r="E84" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="209"/>
+      <c r="F84" s="210"/>
     </row>
     <row r="85" spans="2:6" ht="21" customHeight="1">
       <c r="B85" s="18"/>
@@ -24600,7 +24617,7 @@
       <c r="E85" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F85" s="209"/>
+      <c r="F85" s="210"/>
     </row>
     <row r="86" spans="2:6" ht="21" customHeight="1">
       <c r="B86" s="18"/>
@@ -24624,7 +24641,7 @@
       <c r="E88" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F88" s="208" t="s">
+      <c r="F88" s="209" t="s">
         <v>247</v>
       </c>
     </row>
@@ -24638,7 +24655,7 @@
       <c r="E89" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="209"/>
+      <c r="F89" s="210"/>
     </row>
     <row r="90" spans="2:6" ht="21" customHeight="1">
       <c r="C90" s="18"/>
@@ -24651,10 +24668,10 @@
       <c r="D91" s="18"/>
     </row>
     <row r="92" spans="2:6" ht="21" customHeight="1">
-      <c r="B92" s="212" t="s">
+      <c r="B92" s="213" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="213" t="s">
+      <c r="C92" s="214" t="s">
         <v>265</v>
       </c>
       <c r="D92" s="33" t="s">
@@ -24662,115 +24679,115 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="21" customHeight="1">
-      <c r="B93" s="209"/>
-      <c r="C93" s="214"/>
+      <c r="B93" s="210"/>
+      <c r="C93" s="215"/>
       <c r="D93" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="21" customHeight="1">
-      <c r="B94" s="209"/>
-      <c r="C94" s="214"/>
+      <c r="B94" s="210"/>
+      <c r="C94" s="215"/>
       <c r="D94" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="21" customHeight="1">
-      <c r="B95" s="209"/>
-      <c r="C95" s="214"/>
+      <c r="B95" s="210"/>
+      <c r="C95" s="215"/>
       <c r="D95" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="21" customHeight="1">
-      <c r="B96" s="209"/>
-      <c r="C96" s="214"/>
+      <c r="B96" s="210"/>
+      <c r="C96" s="215"/>
       <c r="D96" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="21" customHeight="1">
-      <c r="B97" s="209"/>
-      <c r="C97" s="214"/>
+      <c r="B97" s="210"/>
+      <c r="C97" s="215"/>
       <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" ht="21" customHeight="1">
       <c r="B98" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="206" t="s">
+      <c r="C98" s="207" t="s">
         <v>262</v>
       </c>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" ht="21" customHeight="1">
-      <c r="C99" s="207"/>
+      <c r="C99" s="208"/>
       <c r="D99" s="18"/>
     </row>
     <row r="100" spans="2:4" ht="21" customHeight="1">
-      <c r="C100" s="207"/>
+      <c r="C100" s="208"/>
       <c r="D100" s="18"/>
     </row>
     <row r="101" spans="2:4" ht="21" customHeight="1">
-      <c r="C101" s="207"/>
+      <c r="C101" s="208"/>
       <c r="D101" s="18"/>
     </row>
     <row r="102" spans="2:4" ht="21" customHeight="1">
-      <c r="C102" s="207"/>
+      <c r="C102" s="208"/>
       <c r="D102" s="18"/>
     </row>
     <row r="103" spans="2:4" ht="21" customHeight="1">
-      <c r="C103" s="207"/>
+      <c r="C103" s="208"/>
       <c r="D103" s="18"/>
     </row>
     <row r="104" spans="2:4" ht="21" customHeight="1">
       <c r="B104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C104" s="206" t="s">
+      <c r="C104" s="207" t="s">
         <v>263</v>
       </c>
       <c r="D104" s="18"/>
     </row>
     <row r="105" spans="2:4" ht="21" customHeight="1">
-      <c r="C105" s="207"/>
+      <c r="C105" s="208"/>
       <c r="D105" s="18"/>
     </row>
     <row r="106" spans="2:4" ht="21" customHeight="1">
-      <c r="C106" s="207"/>
+      <c r="C106" s="208"/>
       <c r="D106" s="18"/>
     </row>
     <row r="107" spans="2:4" ht="21" customHeight="1">
-      <c r="C107" s="207"/>
+      <c r="C107" s="208"/>
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="2:4" ht="33" customHeight="1">
-      <c r="C108" s="207"/>
+      <c r="C108" s="208"/>
       <c r="D108" s="18"/>
     </row>
     <row r="109" spans="2:4" ht="21" customHeight="1">
       <c r="B109" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="206" t="s">
+      <c r="C109" s="207" t="s">
         <v>264</v>
       </c>
       <c r="D109" s="18"/>
     </row>
     <row r="110" spans="2:4" ht="21" customHeight="1">
-      <c r="C110" s="207"/>
+      <c r="C110" s="208"/>
       <c r="D110" s="18"/>
     </row>
     <row r="111" spans="2:4" ht="21" customHeight="1">
-      <c r="C111" s="207"/>
+      <c r="C111" s="208"/>
       <c r="D111" s="18"/>
     </row>
     <row r="112" spans="2:4" ht="21" customHeight="1">
-      <c r="C112" s="207"/>
+      <c r="C112" s="208"/>
       <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" ht="21" customHeight="1">
-      <c r="C113" s="207"/>
+      <c r="C113" s="208"/>
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" ht="21" customHeight="1">
@@ -24802,30 +24819,30 @@
       <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="21" customHeight="1">
-      <c r="B118" s="208" t="s">
+      <c r="B118" s="209" t="s">
         <v>261</v>
       </c>
-      <c r="C118" s="209"/>
+      <c r="C118" s="210"/>
       <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="21" customHeight="1">
-      <c r="B119" s="209"/>
-      <c r="C119" s="209"/>
+      <c r="B119" s="210"/>
+      <c r="C119" s="210"/>
       <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" ht="21" customHeight="1">
-      <c r="B120" s="209"/>
-      <c r="C120" s="209"/>
+      <c r="B120" s="210"/>
+      <c r="C120" s="210"/>
       <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" ht="21" customHeight="1">
-      <c r="B121" s="209"/>
-      <c r="C121" s="209"/>
+      <c r="B121" s="210"/>
+      <c r="C121" s="210"/>
       <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" ht="21" customHeight="1">
-      <c r="B122" s="209"/>
-      <c r="C122" s="209"/>
+      <c r="B122" s="210"/>
+      <c r="C122" s="210"/>
       <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" ht="21" customHeight="1">
@@ -25460,7 +25477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http: